--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03166</v>
+        <v>1.55775</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8608</v>
+        <v>1.66606</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8724</v>
+        <v>1.69462</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7981</v>
+        <v>2.46596</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0362</v>
+        <v>2.6013</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2389</v>
+        <v>2.99786</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6321</v>
+        <v>3.4752</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3729</v>
+        <v>3.56721</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3914</v>
+        <v>4.24467</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4983</v>
+        <v>4.35362</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3645</v>
+        <v>4.46197</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7246</v>
+        <v>5.40076</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3461</v>
+        <v>5.21084</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2238</v>
+        <v>5.32192</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2077</v>
+        <v>6.5189</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6712</v>
+        <v>5.94514</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7423</v>
+        <v>6.11616</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1229</v>
+        <v>7.57229</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.4853</v>
+        <v>6.71407</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3418</v>
+        <v>6.85874</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9239</v>
+        <v>8.566520000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7456</v>
+        <v>7.78734</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2322</v>
+        <v>7.63897</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0778</v>
+        <v>9.902290000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4338</v>
+        <v>6.12386</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6247</v>
+        <v>6.30579</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2448</v>
+        <v>7.61015</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6039</v>
+        <v>6.45271</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9514</v>
+        <v>6.3827</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7777</v>
+        <v>7.85741</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1041</v>
+        <v>6.73107</v>
       </c>
       <c r="C12" t="n">
-        <v>16.085</v>
+        <v>6.53958</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8479</v>
+        <v>8.42094</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3986</v>
+        <v>7.33067</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1092</v>
+        <v>6.71121</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9921</v>
+        <v>8.842739999999999</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8368</v>
+        <v>6.90496</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6269</v>
+        <v>6.73443</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0483</v>
+        <v>8.31315</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6258</v>
+        <v>7.11274</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1519</v>
+        <v>6.96887</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9075</v>
+        <v>8.62698</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4138</v>
+        <v>7.23902</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4714</v>
+        <v>7.17231</v>
       </c>
       <c r="D16" t="n">
-        <v>39.772</v>
+        <v>9.07939</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.019</v>
+        <v>7.11627</v>
       </c>
       <c r="C17" t="n">
-        <v>15.655</v>
+        <v>7.01711</v>
       </c>
       <c r="D17" t="n">
-        <v>40.061</v>
+        <v>9.020759999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02237</v>
+        <v>1.82869</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7334</v>
+        <v>1.89866</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5767</v>
+        <v>1.94027</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.718</v>
+        <v>2.80796</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9533</v>
+        <v>2.86721</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8368</v>
+        <v>3.32571</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0151</v>
+        <v>3.87515</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2748</v>
+        <v>3.88163</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7464</v>
+        <v>4.68186</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5299</v>
+        <v>4.81186</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3041</v>
+        <v>4.79238</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4143</v>
+        <v>5.89285</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9747</v>
+        <v>5.73106</v>
       </c>
       <c r="C6" t="n">
-        <v>22.978</v>
+        <v>5.67944</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0704</v>
+        <v>7.08272</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0203</v>
+        <v>6.59831</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7073</v>
+        <v>6.46354</v>
       </c>
       <c r="D7" t="n">
-        <v>36.458</v>
+        <v>8.1838</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29</v>
+        <v>7.44289</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0985</v>
+        <v>7.18517</v>
       </c>
       <c r="D8" t="n">
-        <v>23.002</v>
+        <v>9.248250000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1501</v>
+        <v>8.61565</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3237</v>
+        <v>7.99684</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6495</v>
+        <v>10.7255</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.693</v>
+        <v>6.74666</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2385</v>
+        <v>6.68134</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3916</v>
+        <v>8.52267</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3848</v>
+        <v>7.10847</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3554</v>
+        <v>6.76179</v>
       </c>
       <c r="D11" t="n">
-        <v>28.931</v>
+        <v>8.472989999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2453</v>
+        <v>7.4101</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4606</v>
+        <v>6.97616</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6498</v>
+        <v>9.190810000000001</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.102</v>
+        <v>7.8323</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3376</v>
+        <v>6.91866</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0142</v>
+        <v>9.70928</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1789</v>
+        <v>7.48774</v>
       </c>
       <c r="C14" t="n">
-        <v>15.463</v>
+        <v>7.08138</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6072</v>
+        <v>9.20628</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6105</v>
+        <v>7.78508</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3018</v>
+        <v>7.2902</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8512</v>
+        <v>9.405250000000001</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7213</v>
+        <v>7.94947</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5868</v>
+        <v>7.48358</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8967</v>
+        <v>9.41081</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7943</v>
+        <v>7.6621</v>
       </c>
       <c r="C17" t="n">
-        <v>15.644</v>
+        <v>7.35311</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2418</v>
+        <v>9.332839999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.721830000000001</v>
+        <v>1.70941</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5423</v>
+        <v>1.71376</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2373</v>
+        <v>1.74813</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6542</v>
+        <v>2.70728</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3335</v>
+        <v>2.6631</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2214</v>
+        <v>3.03885</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9056</v>
+        <v>3.67491</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0841</v>
+        <v>3.6609</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1562</v>
+        <v>4.38596</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.78</v>
+        <v>4.67509</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7009</v>
+        <v>4.54646</v>
       </c>
       <c r="D5" t="n">
-        <v>44.6243</v>
+        <v>5.61022</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4044</v>
+        <v>5.70295</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4901</v>
+        <v>5.42373</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8592</v>
+        <v>6.88595</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3201</v>
+        <v>6.64054</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3911</v>
+        <v>6.20899</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2415</v>
+        <v>8.019410000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8948</v>
+        <v>7.58702</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6362</v>
+        <v>6.93851</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6323</v>
+        <v>9.177720000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3348</v>
+        <v>8.866300000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9527</v>
+        <v>7.73756</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9031</v>
+        <v>10.5731</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1561</v>
+        <v>6.88321</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2955</v>
+        <v>6.50849</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4438</v>
+        <v>7.96876</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2055</v>
+        <v>7.0628</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4582</v>
+        <v>6.45887</v>
       </c>
       <c r="D11" t="n">
-        <v>37.008</v>
+        <v>8.39878</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3474</v>
+        <v>7.41333</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3526</v>
+        <v>6.74106</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1498</v>
+        <v>9.04322</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5834</v>
+        <v>7.88126</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0951</v>
+        <v>6.86443</v>
       </c>
       <c r="D13" t="n">
-        <v>32.052</v>
+        <v>9.511570000000001</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6443</v>
+        <v>7.74974</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3318</v>
+        <v>6.85325</v>
       </c>
       <c r="D14" t="n">
-        <v>34.897</v>
+        <v>8.85816</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6539</v>
+        <v>7.87397</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6808</v>
+        <v>7.09015</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2887</v>
+        <v>9.21752</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9711</v>
+        <v>8.116210000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4452</v>
+        <v>7.2821</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1082</v>
+        <v>9.08093</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8797</v>
+        <v>7.98557</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4801</v>
+        <v>7.17441</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6256</v>
+        <v>9.106450000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09721</v>
+        <v>1.52466</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2228</v>
+        <v>1.66548</v>
       </c>
       <c r="D2" t="n">
-        <v>14.457</v>
+        <v>1.68404</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3393</v>
+        <v>2.48264</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5166</v>
+        <v>2.61282</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2626</v>
+        <v>2.97464</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6084</v>
+        <v>3.4544</v>
       </c>
       <c r="C4" t="n">
-        <v>24.131</v>
+        <v>3.58578</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5167</v>
+        <v>4.21069</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1248</v>
+        <v>4.24423</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0307</v>
+        <v>4.44622</v>
       </c>
       <c r="D5" t="n">
-        <v>46.978</v>
+        <v>5.31126</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2707</v>
+        <v>5.06068</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3957</v>
+        <v>5.29879</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3822</v>
+        <v>6.40737</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7996</v>
+        <v>5.87941</v>
       </c>
       <c r="C7" t="n">
-        <v>17.186</v>
+        <v>6.10158</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5344</v>
+        <v>7.44605</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.566</v>
+        <v>6.91297</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5087</v>
+        <v>6.99711</v>
       </c>
       <c r="D8" t="n">
-        <v>37.081</v>
+        <v>8.66005</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.767</v>
+        <v>7.82823</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2737</v>
+        <v>7.64392</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1716</v>
+        <v>9.83361</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6641</v>
+        <v>6.77596</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5234</v>
+        <v>6.46267</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5998</v>
+        <v>8.27303</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5379</v>
+        <v>7.10802</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6429</v>
+        <v>6.88253</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4112</v>
+        <v>8.65498</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3604</v>
+        <v>7.36375</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6123</v>
+        <v>6.96377</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3708</v>
+        <v>8.972149999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.6947</v>
+        <v>7.31873</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4415</v>
+        <v>7.09519</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8286</v>
+        <v>8.99065</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4647</v>
+        <v>7.38774</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3753</v>
+        <v>7.16657</v>
       </c>
       <c r="D14" t="n">
-        <v>41.991</v>
+        <v>9.202680000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5319</v>
+        <v>7.52993</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2072</v>
+        <v>7.31321</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8606</v>
+        <v>9.3332</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7085</v>
+        <v>7.54828</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9204</v>
+        <v>7.43019</v>
       </c>
       <c r="D16" t="n">
-        <v>41.79</v>
+        <v>9.34196</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6776</v>
+        <v>7.46142</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3752</v>
+        <v>7.52439</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0192</v>
+        <v>8.975669999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11683</v>
+        <v>1.78806</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2075</v>
+        <v>1.90555</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1602</v>
+        <v>1.92651</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3919</v>
+        <v>2.75379</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5231</v>
+        <v>2.89931</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7837</v>
+        <v>3.3058</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8325</v>
+        <v>3.85115</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3355</v>
+        <v>3.92844</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9034</v>
+        <v>4.63484</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3215</v>
+        <v>4.77965</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5111</v>
+        <v>4.86197</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2761</v>
+        <v>5.82333</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3642</v>
+        <v>5.69294</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7466</v>
+        <v>5.7422</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4859</v>
+        <v>6.95046</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0959</v>
+        <v>6.52829</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0759</v>
+        <v>6.55754</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5639</v>
+        <v>8.05358</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7657</v>
+        <v>7.3714</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3538</v>
+        <v>7.41965</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5905</v>
+        <v>9.3483</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3259</v>
+        <v>8.615030000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5549</v>
+        <v>8.154350000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>38.999</v>
+        <v>10.6333</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0359</v>
+        <v>7.433</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0648</v>
+        <v>7.11633</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1417</v>
+        <v>9.203150000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6602</v>
+        <v>7.89473</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7322</v>
+        <v>7.31385</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1172</v>
+        <v>9.460850000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8642</v>
+        <v>8.006399999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5728</v>
+        <v>7.55897</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7898</v>
+        <v>9.59747</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0399</v>
+        <v>8.003220000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>17.75</v>
+        <v>7.60671</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3517</v>
+        <v>9.72847</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0543</v>
+        <v>8.02183</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7311</v>
+        <v>7.69635</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8393</v>
+        <v>9.85594</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.925</v>
+        <v>8.23776</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2257</v>
+        <v>7.82588</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4861</v>
+        <v>10.0688</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5843</v>
+        <v>8.215400000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5159</v>
+        <v>7.84385</v>
       </c>
       <c r="D16" t="n">
-        <v>41.032</v>
+        <v>9.94472</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8074</v>
+        <v>8.18887</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6133</v>
+        <v>8.00803</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4521</v>
+        <v>9.98152</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.525180000000001</v>
+        <v>1.69182</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5313</v>
+        <v>1.71599</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>1.7432</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8214</v>
+        <v>2.71599</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4755</v>
+        <v>2.70606</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9184</v>
+        <v>3.11069</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2949</v>
+        <v>3.8295</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7548</v>
+        <v>3.69422</v>
       </c>
       <c r="D4" t="n">
-        <v>35.253</v>
+        <v>4.47147</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2062</v>
+        <v>4.79573</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4337</v>
+        <v>4.5834</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2382</v>
+        <v>5.76572</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.8263</v>
+        <v>5.97327</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3607</v>
+        <v>5.47639</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0898</v>
+        <v>7.06164</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3088</v>
+        <v>6.95251</v>
       </c>
       <c r="C7" t="n">
-        <v>17.932</v>
+        <v>6.2731</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6881</v>
+        <v>8.31438</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3772</v>
+        <v>7.86189</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2234</v>
+        <v>6.98483</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6808</v>
+        <v>9.5129</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1281</v>
+        <v>9.200670000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0313</v>
+        <v>7.79102</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0055</v>
+        <v>11.1016</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0241</v>
+        <v>7.84362</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8306</v>
+        <v>6.82219</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9198</v>
+        <v>9.140700000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8548</v>
+        <v>8.36219</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9468</v>
+        <v>7.01975</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1388</v>
+        <v>9.66573</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8403</v>
+        <v>8.49649</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3933</v>
+        <v>7.20412</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6115</v>
+        <v>9.992139999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.7732</v>
+        <v>8.56165</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2664</v>
+        <v>7.22672</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5397</v>
+        <v>10.1349</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0313</v>
+        <v>8.555059999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3828</v>
+        <v>7.38486</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2313</v>
+        <v>10.1495</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0344</v>
+        <v>8.917439999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6861</v>
+        <v>7.46491</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2848</v>
+        <v>10.5047</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9617</v>
+        <v>8.92244</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7581</v>
+        <v>7.57076</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1151</v>
+        <v>10.2604</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.1113</v>
+        <v>8.757809999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6398</v>
+        <v>7.67147</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9754</v>
+        <v>9.990170000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.54944</v>
+        <v>1.81288</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65697</v>
+        <v>1.95754</v>
       </c>
       <c r="D2" t="n">
-        <v>1.59938</v>
+        <v>1.86385</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.44342</v>
+        <v>2.88666</v>
       </c>
       <c r="C3" t="n">
-        <v>2.64509</v>
+        <v>3.0142</v>
       </c>
       <c r="D3" t="n">
-        <v>2.86543</v>
+        <v>3.28519</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.42884</v>
+        <v>3.8778</v>
       </c>
       <c r="C4" t="n">
-        <v>3.64185</v>
+        <v>4.21174</v>
       </c>
       <c r="D4" t="n">
-        <v>4.06373</v>
+        <v>4.59074</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.3146</v>
+        <v>4.66019</v>
       </c>
       <c r="C5" t="n">
-        <v>4.75991</v>
+        <v>5.31424</v>
       </c>
       <c r="D5" t="n">
-        <v>5.1704</v>
+        <v>5.81539</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.17799</v>
+        <v>5.60168</v>
       </c>
       <c r="C6" t="n">
-        <v>5.87784</v>
+        <v>6.50201</v>
       </c>
       <c r="D6" t="n">
-        <v>6.24589</v>
+        <v>7.00068</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.95098</v>
+        <v>6.47319</v>
       </c>
       <c r="C7" t="n">
-        <v>6.94871</v>
+        <v>7.70235</v>
       </c>
       <c r="D7" t="n">
-        <v>7.28357</v>
+        <v>8.119590000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.69853</v>
+        <v>7.30503</v>
       </c>
       <c r="C8" t="n">
-        <v>8.034230000000001</v>
+        <v>8.96453</v>
       </c>
       <c r="D8" t="n">
-        <v>8.26674</v>
+        <v>9.206250000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.75749</v>
+        <v>8.494350000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>9.08921</v>
+        <v>9.9854</v>
       </c>
       <c r="D9" t="n">
-        <v>9.442500000000001</v>
+        <v>10.4657</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.07676</v>
+        <v>6.78245</v>
       </c>
       <c r="C10" t="n">
-        <v>7.84765</v>
+        <v>8.82624</v>
       </c>
       <c r="D10" t="n">
-        <v>7.3441</v>
+        <v>8.37787</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6.41535</v>
+        <v>6.98219</v>
       </c>
       <c r="C11" t="n">
-        <v>7.95272</v>
+        <v>8.751760000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>7.53052</v>
+        <v>8.506399999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>6.69862</v>
+        <v>7.30965</v>
       </c>
       <c r="C12" t="n">
-        <v>8.06409</v>
+        <v>8.95641</v>
       </c>
       <c r="D12" t="n">
-        <v>8.0398</v>
+        <v>9.029859999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>6.96799</v>
+        <v>7.79471</v>
       </c>
       <c r="C13" t="n">
-        <v>8.26811</v>
+        <v>9.020110000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>8.45299</v>
+        <v>9.74089</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>6.83127</v>
+        <v>7.37316</v>
       </c>
       <c r="C14" t="n">
-        <v>8.1859</v>
+        <v>9.309850000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>8.25365</v>
+        <v>8.917859999999999</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6.9606</v>
+        <v>7.52782</v>
       </c>
       <c r="C15" t="n">
-        <v>8.289849999999999</v>
+        <v>9.280469999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>8.26895</v>
+        <v>9.22223</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.12574</v>
+        <v>7.84272</v>
       </c>
       <c r="C16" t="n">
-        <v>8.44036</v>
+        <v>9.4068</v>
       </c>
       <c r="D16" t="n">
-        <v>8.56634</v>
+        <v>9.583209999999999</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.01551</v>
+        <v>7.69834</v>
       </c>
       <c r="C17" t="n">
-        <v>8.438459999999999</v>
+        <v>9.423400000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>8.53945</v>
+        <v>9.564830000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.82965</v>
+        <v>2.17264</v>
       </c>
       <c r="C2" t="n">
-        <v>1.89396</v>
+        <v>2.2819</v>
       </c>
       <c r="D2" t="n">
-        <v>1.93711</v>
+        <v>2.3364</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.80533</v>
+        <v>3.25943</v>
       </c>
       <c r="C3" t="n">
-        <v>2.92031</v>
+        <v>3.33775</v>
       </c>
       <c r="D3" t="n">
-        <v>3.3511</v>
+        <v>3.90341</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.73349</v>
+        <v>4.19757</v>
       </c>
       <c r="C4" t="n">
-        <v>4.01874</v>
+        <v>4.55634</v>
       </c>
       <c r="D4" t="n">
-        <v>4.65409</v>
+        <v>5.37335</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.74254</v>
+        <v>5.19319</v>
       </c>
       <c r="C5" t="n">
-        <v>5.19225</v>
+        <v>5.86309</v>
       </c>
       <c r="D5" t="n">
-        <v>5.8497</v>
+        <v>6.74364</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.61571</v>
+        <v>6.19826</v>
       </c>
       <c r="C6" t="n">
-        <v>6.37121</v>
+        <v>7.18037</v>
       </c>
       <c r="D6" t="n">
-        <v>7.02706</v>
+        <v>8.020490000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.478</v>
+        <v>7.15659</v>
       </c>
       <c r="C7" t="n">
-        <v>7.54927</v>
+        <v>8.48366</v>
       </c>
       <c r="D7" t="n">
-        <v>8.127470000000001</v>
+        <v>9.22494</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.32049</v>
+        <v>8.04603</v>
       </c>
       <c r="C8" t="n">
-        <v>8.76468</v>
+        <v>9.892810000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19867</v>
+        <v>10.4205</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.513809999999999</v>
+        <v>9.297129999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>9.88452</v>
+        <v>11.0489</v>
       </c>
       <c r="D9" t="n">
-        <v>10.72</v>
+        <v>11.8821</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.80888</v>
+        <v>7.52663</v>
       </c>
       <c r="C10" t="n">
-        <v>8.439539999999999</v>
+        <v>9.549910000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>8.355399999999999</v>
+        <v>9.84018</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6.95963</v>
+        <v>7.95078</v>
       </c>
       <c r="C11" t="n">
-        <v>8.581490000000001</v>
+        <v>9.806279999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>8.58019</v>
+        <v>10.1618</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.51659</v>
+        <v>8.39616</v>
       </c>
       <c r="C12" t="n">
-        <v>8.766069999999999</v>
+        <v>9.72247</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0648</v>
+        <v>10.6985</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.71015</v>
+        <v>8.67046</v>
       </c>
       <c r="C13" t="n">
-        <v>8.8903</v>
+        <v>9.9184</v>
       </c>
       <c r="D13" t="n">
-        <v>9.491899999999999</v>
+        <v>11.0962</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.48852</v>
+        <v>8.31331</v>
       </c>
       <c r="C14" t="n">
-        <v>8.981780000000001</v>
+        <v>10.1252</v>
       </c>
       <c r="D14" t="n">
-        <v>9.06767</v>
+        <v>10.3781</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7.56288</v>
+        <v>8.585240000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>9.037100000000001</v>
+        <v>10.2631</v>
       </c>
       <c r="D15" t="n">
-        <v>9.38402</v>
+        <v>10.6028</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.81042</v>
+        <v>8.67183</v>
       </c>
       <c r="C16" t="n">
-        <v>9.198270000000001</v>
+        <v>10.4102</v>
       </c>
       <c r="D16" t="n">
-        <v>9.836679999999999</v>
+        <v>11.138</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.79331</v>
+        <v>8.513350000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>9.28487</v>
+        <v>10.3396</v>
       </c>
       <c r="D17" t="n">
-        <v>9.71743</v>
+        <v>10.6896</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.71001</v>
+        <v>2.00807</v>
       </c>
       <c r="C2" t="n">
-        <v>1.71016</v>
+        <v>2.02562</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74883</v>
+        <v>2.06214</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.74201</v>
+        <v>3.09155</v>
       </c>
       <c r="C3" t="n">
-        <v>2.73455</v>
+        <v>3.13696</v>
       </c>
       <c r="D3" t="n">
-        <v>3.08207</v>
+        <v>3.55403</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.81234</v>
+        <v>4.25169</v>
       </c>
       <c r="C4" t="n">
-        <v>3.84714</v>
+        <v>4.34962</v>
       </c>
       <c r="D4" t="n">
-        <v>4.40272</v>
+        <v>5.01046</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.67542</v>
+        <v>5.2362</v>
       </c>
       <c r="C5" t="n">
-        <v>4.88444</v>
+        <v>5.50933</v>
       </c>
       <c r="D5" t="n">
-        <v>5.6073</v>
+        <v>6.43388</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.67276</v>
+        <v>6.43213</v>
       </c>
       <c r="C6" t="n">
-        <v>6.00167</v>
+        <v>6.82115</v>
       </c>
       <c r="D6" t="n">
-        <v>6.83016</v>
+        <v>7.74655</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.65803</v>
+        <v>7.36236</v>
       </c>
       <c r="C7" t="n">
-        <v>7.12243</v>
+        <v>8.048920000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>8.024900000000001</v>
+        <v>9.06113</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.95296</v>
+        <v>8.32854</v>
       </c>
       <c r="C8" t="n">
-        <v>8.327400000000001</v>
+        <v>9.25581</v>
       </c>
       <c r="D8" t="n">
-        <v>9.22845</v>
+        <v>10.3298</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.01319</v>
+        <v>9.66755</v>
       </c>
       <c r="C9" t="n">
-        <v>9.29045</v>
+        <v>10.3122</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7066</v>
+        <v>11.8914</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.95704</v>
+        <v>7.59934</v>
       </c>
       <c r="C10" t="n">
-        <v>7.7667</v>
+        <v>8.647460000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>8.00961</v>
+        <v>9.152620000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.16517</v>
+        <v>7.78981</v>
       </c>
       <c r="C11" t="n">
-        <v>7.90563</v>
+        <v>8.750439999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>8.542</v>
+        <v>9.70054</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.62232</v>
+        <v>8.174609999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>8.126390000000001</v>
+        <v>8.917160000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>9.09496</v>
+        <v>10.0596</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.044359999999999</v>
+        <v>8.39974</v>
       </c>
       <c r="C13" t="n">
-        <v>8.24668</v>
+        <v>9.17292</v>
       </c>
       <c r="D13" t="n">
-        <v>9.244960000000001</v>
+        <v>10.7568</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.77441</v>
+        <v>8.46978</v>
       </c>
       <c r="C14" t="n">
-        <v>8.41846</v>
+        <v>9.26394</v>
       </c>
       <c r="D14" t="n">
-        <v>8.931100000000001</v>
+        <v>10.1419</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.050940000000001</v>
+        <v>8.692449999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>8.453889999999999</v>
+        <v>9.438280000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>9.194800000000001</v>
+        <v>10.5323</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.03595</v>
+        <v>8.98639</v>
       </c>
       <c r="C16" t="n">
-        <v>8.655139999999999</v>
+        <v>9.53143</v>
       </c>
       <c r="D16" t="n">
-        <v>9.133459999999999</v>
+        <v>10.7311</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.88748</v>
+        <v>8.633979999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>8.79298</v>
+        <v>9.63115</v>
       </c>
       <c r="D17" t="n">
-        <v>9.157019999999999</v>
+        <v>10.5025</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.50682</v>
+        <v>1.75006</v>
       </c>
       <c r="C2" t="n">
-        <v>1.65713</v>
+        <v>1.92632</v>
       </c>
       <c r="D2" t="n">
-        <v>1.59024</v>
+        <v>1.83506</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.48727</v>
+        <v>2.72874</v>
       </c>
       <c r="C3" t="n">
-        <v>2.60913</v>
+        <v>3.01463</v>
       </c>
       <c r="D3" t="n">
-        <v>2.85265</v>
+        <v>3.24038</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.41465</v>
+        <v>3.82197</v>
       </c>
       <c r="C4" t="n">
-        <v>3.74156</v>
+        <v>4.20468</v>
       </c>
       <c r="D4" t="n">
-        <v>4.05172</v>
+        <v>4.55621</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.28118</v>
+        <v>4.73559</v>
       </c>
       <c r="C5" t="n">
-        <v>4.82752</v>
+        <v>5.39643</v>
       </c>
       <c r="D5" t="n">
-        <v>5.13004</v>
+        <v>5.73063</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.10749</v>
+        <v>5.63991</v>
       </c>
       <c r="C6" t="n">
-        <v>5.89734</v>
+        <v>6.58611</v>
       </c>
       <c r="D6" t="n">
-        <v>6.18925</v>
+        <v>6.90786</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5.88647</v>
+        <v>6.4103</v>
       </c>
       <c r="C7" t="n">
-        <v>6.98409</v>
+        <v>7.80406</v>
       </c>
       <c r="D7" t="n">
-        <v>7.20099</v>
+        <v>7.99123</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>6.66527</v>
+        <v>7.24012</v>
       </c>
       <c r="C8" t="n">
-        <v>8.135429999999999</v>
+        <v>9.025679999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.179130000000001</v>
+        <v>9.045529999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>7.73862</v>
+        <v>8.39236</v>
       </c>
       <c r="C9" t="n">
-        <v>9.41309</v>
+        <v>10.4504</v>
       </c>
       <c r="D9" t="n">
-        <v>9.51825</v>
+        <v>10.5334</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.79018</v>
+        <v>7.36851</v>
       </c>
       <c r="C10" t="n">
-        <v>8.247019999999999</v>
+        <v>9.347300000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>8.202970000000001</v>
+        <v>9.02929</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.11165</v>
+        <v>7.75162</v>
       </c>
       <c r="C11" t="n">
-        <v>8.20617</v>
+        <v>9.01732</v>
       </c>
       <c r="D11" t="n">
-        <v>8.44735</v>
+        <v>9.29214</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.36704</v>
+        <v>7.94444</v>
       </c>
       <c r="C12" t="n">
-        <v>8.540419999999999</v>
+        <v>9.378500000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>8.591290000000001</v>
+        <v>9.34966</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.19793</v>
+        <v>7.81722</v>
       </c>
       <c r="C13" t="n">
-        <v>8.76233</v>
+        <v>9.702070000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>8.668749999999999</v>
+        <v>9.66418</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.36824</v>
+        <v>8.00446</v>
       </c>
       <c r="C14" t="n">
-        <v>8.8843</v>
+        <v>9.77439</v>
       </c>
       <c r="D14" t="n">
-        <v>8.9115</v>
+        <v>9.80316</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7.5112</v>
+        <v>8.15067</v>
       </c>
       <c r="C15" t="n">
-        <v>8.89251</v>
+        <v>9.88044</v>
       </c>
       <c r="D15" t="n">
-        <v>8.862550000000001</v>
+        <v>9.986280000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.52614</v>
+        <v>8.03402</v>
       </c>
       <c r="C16" t="n">
-        <v>8.979889999999999</v>
+        <v>10.0393</v>
       </c>
       <c r="D16" t="n">
-        <v>8.98944</v>
+        <v>9.843640000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.47618</v>
+        <v>8.065009999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>8.87266</v>
+        <v>9.86328</v>
       </c>
       <c r="D17" t="n">
-        <v>8.89949</v>
+        <v>9.829499999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.7805</v>
+        <v>2.07842</v>
       </c>
       <c r="C2" t="n">
-        <v>1.90065</v>
+        <v>2.24715</v>
       </c>
       <c r="D2" t="n">
-        <v>1.9233</v>
+        <v>2.29035</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.77744</v>
+        <v>3.19885</v>
       </c>
       <c r="C3" t="n">
-        <v>3.01178</v>
+        <v>3.40379</v>
       </c>
       <c r="D3" t="n">
-        <v>3.32211</v>
+        <v>3.86466</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.84992</v>
+        <v>4.12501</v>
       </c>
       <c r="C4" t="n">
-        <v>4.16827</v>
+        <v>4.64645</v>
       </c>
       <c r="D4" t="n">
-        <v>4.60331</v>
+        <v>5.29782</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.73501</v>
+        <v>5.12164</v>
       </c>
       <c r="C5" t="n">
-        <v>5.3142</v>
+        <v>5.89394</v>
       </c>
       <c r="D5" t="n">
-        <v>5.80629</v>
+        <v>6.61211</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.65548</v>
+        <v>6.26106</v>
       </c>
       <c r="C6" t="n">
-        <v>6.53756</v>
+        <v>7.26457</v>
       </c>
       <c r="D6" t="n">
-        <v>6.94222</v>
+        <v>7.86476</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.47691</v>
+        <v>7.17162</v>
       </c>
       <c r="C7" t="n">
-        <v>7.72563</v>
+        <v>8.618869999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>8.029389999999999</v>
+        <v>9.055400000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.24969</v>
+        <v>7.92899</v>
       </c>
       <c r="C8" t="n">
-        <v>8.959630000000001</v>
+        <v>9.91864</v>
       </c>
       <c r="D8" t="n">
-        <v>9.08112</v>
+        <v>10.185</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.49982</v>
+        <v>9.26647</v>
       </c>
       <c r="C9" t="n">
-        <v>10.4169</v>
+        <v>11.4644</v>
       </c>
       <c r="D9" t="n">
-        <v>10.6077</v>
+        <v>11.9229</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.42733</v>
+        <v>8.20129</v>
       </c>
       <c r="C10" t="n">
-        <v>8.878640000000001</v>
+        <v>9.91535</v>
       </c>
       <c r="D10" t="n">
-        <v>9.26332</v>
+        <v>10.0649</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.82391</v>
+        <v>8.503959999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>8.969390000000001</v>
+        <v>9.85567</v>
       </c>
       <c r="D11" t="n">
-        <v>9.404640000000001</v>
+        <v>10.5511</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.02951</v>
+        <v>8.57044</v>
       </c>
       <c r="C12" t="n">
-        <v>9.37138</v>
+        <v>10.4367</v>
       </c>
       <c r="D12" t="n">
-        <v>9.64138</v>
+        <v>10.7584</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.96699</v>
+        <v>8.690110000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.62829</v>
+        <v>10.5036</v>
       </c>
       <c r="D13" t="n">
-        <v>9.73874</v>
+        <v>10.9107</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.04757</v>
+        <v>8.80969</v>
       </c>
       <c r="C14" t="n">
-        <v>9.665480000000001</v>
+        <v>10.7938</v>
       </c>
       <c r="D14" t="n">
-        <v>9.840630000000001</v>
+        <v>11.0758</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.255039999999999</v>
+        <v>8.956569999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>9.80411</v>
+        <v>10.9427</v>
       </c>
       <c r="D15" t="n">
-        <v>9.917439999999999</v>
+        <v>11.1741</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.18519</v>
+        <v>8.9612</v>
       </c>
       <c r="C16" t="n">
-        <v>9.928800000000001</v>
+        <v>10.9799</v>
       </c>
       <c r="D16" t="n">
-        <v>9.82809</v>
+        <v>11.0905</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.21514</v>
+        <v>8.94478</v>
       </c>
       <c r="C17" t="n">
-        <v>9.9268</v>
+        <v>11.1181</v>
       </c>
       <c r="D17" t="n">
-        <v>10.0204</v>
+        <v>10.9771</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.69399</v>
+        <v>1.96921</v>
       </c>
       <c r="C2" t="n">
-        <v>1.71512</v>
+        <v>2.00359</v>
       </c>
       <c r="D2" t="n">
-        <v>1.74551</v>
+        <v>2.04325</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.72532</v>
+        <v>3.01707</v>
       </c>
       <c r="C3" t="n">
-        <v>2.76167</v>
+        <v>3.13123</v>
       </c>
       <c r="D3" t="n">
-        <v>3.11416</v>
+        <v>3.59557</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.87315</v>
+        <v>4.22455</v>
       </c>
       <c r="C4" t="n">
-        <v>3.89016</v>
+        <v>4.26409</v>
       </c>
       <c r="D4" t="n">
-        <v>4.47911</v>
+        <v>5.11215</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.77173</v>
+        <v>5.43252</v>
       </c>
       <c r="C5" t="n">
-        <v>4.93402</v>
+        <v>5.52256</v>
       </c>
       <c r="D5" t="n">
-        <v>5.74263</v>
+        <v>6.5174</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.81502</v>
+        <v>6.38186</v>
       </c>
       <c r="C6" t="n">
-        <v>6.07055</v>
+        <v>6.76147</v>
       </c>
       <c r="D6" t="n">
-        <v>7.02975</v>
+        <v>7.943</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.86121</v>
+        <v>7.44998</v>
       </c>
       <c r="C7" t="n">
-        <v>7.21904</v>
+        <v>7.99557</v>
       </c>
       <c r="D7" t="n">
-        <v>8.28514</v>
+        <v>9.32958</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.227740000000001</v>
+        <v>8.52665</v>
       </c>
       <c r="C8" t="n">
-        <v>8.53862</v>
+        <v>9.247780000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.71247</v>
+        <v>10.696</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.22006</v>
+        <v>9.96434</v>
       </c>
       <c r="C9" t="n">
-        <v>9.642239999999999</v>
+        <v>10.687</v>
       </c>
       <c r="D9" t="n">
-        <v>11.1153</v>
+        <v>12.5096</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.83862</v>
+        <v>8.60469</v>
       </c>
       <c r="C10" t="n">
-        <v>8.51379</v>
+        <v>9.336069999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.72329</v>
+        <v>10.379</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.1463</v>
+        <v>8.81889</v>
       </c>
       <c r="C11" t="n">
-        <v>8.523910000000001</v>
+        <v>9.485110000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>9.54152</v>
+        <v>10.6962</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.36178</v>
+        <v>9.219290000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>8.71612</v>
+        <v>9.78684</v>
       </c>
       <c r="D12" t="n">
-        <v>9.99127</v>
+        <v>11.1991</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.5731</v>
+        <v>9.30034</v>
       </c>
       <c r="C13" t="n">
-        <v>8.94619</v>
+        <v>9.99085</v>
       </c>
       <c r="D13" t="n">
-        <v>10.2037</v>
+        <v>11.3566</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.707420000000001</v>
+        <v>9.43268</v>
       </c>
       <c r="C14" t="n">
-        <v>9.167299999999999</v>
+        <v>10.089</v>
       </c>
       <c r="D14" t="n">
-        <v>10.2002</v>
+        <v>11.5167</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.80476</v>
+        <v>9.603590000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>9.256270000000001</v>
+        <v>10.2397</v>
       </c>
       <c r="D15" t="n">
-        <v>10.3937</v>
+        <v>11.6745</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.77214</v>
+        <v>9.574389999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.34625</v>
+        <v>10.3148</v>
       </c>
       <c r="D16" t="n">
-        <v>10.5012</v>
+        <v>11.5014</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.672800000000001</v>
+        <v>9.352550000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>9.36922</v>
+        <v>10.4203</v>
       </c>
       <c r="D17" t="n">
-        <v>10.4021</v>
+        <v>11.6338</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.81288</v>
+        <v>1.81385</v>
       </c>
       <c r="C2" t="n">
-        <v>1.95754</v>
+        <v>1.95827</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86385</v>
+        <v>1.86363</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.88666</v>
+        <v>2.7616</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0142</v>
+        <v>3.0018</v>
       </c>
       <c r="D3" t="n">
-        <v>3.28519</v>
+        <v>3.2691</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.8778</v>
+        <v>3.82798</v>
       </c>
       <c r="C4" t="n">
-        <v>4.21174</v>
+        <v>4.20167</v>
       </c>
       <c r="D4" t="n">
-        <v>4.59074</v>
+        <v>4.61843</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.66019</v>
+        <v>4.80388</v>
       </c>
       <c r="C5" t="n">
-        <v>5.31424</v>
+        <v>5.38778</v>
       </c>
       <c r="D5" t="n">
-        <v>5.81539</v>
+        <v>5.8142</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.60168</v>
+        <v>5.71601</v>
       </c>
       <c r="C6" t="n">
-        <v>6.50201</v>
+        <v>6.52314</v>
       </c>
       <c r="D6" t="n">
-        <v>7.00068</v>
+        <v>7.00929</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.47319</v>
+        <v>6.50276</v>
       </c>
       <c r="C7" t="n">
-        <v>7.70235</v>
+        <v>7.79706</v>
       </c>
       <c r="D7" t="n">
-        <v>8.119590000000001</v>
+        <v>8.15419</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.30503</v>
+        <v>7.31295</v>
       </c>
       <c r="C8" t="n">
-        <v>8.96453</v>
+        <v>8.97348</v>
       </c>
       <c r="D8" t="n">
-        <v>9.206250000000001</v>
+        <v>9.19983</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.494350000000001</v>
+        <v>8.464449999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>9.9854</v>
+        <v>9.979889999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>10.4657</v>
+        <v>10.491</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.78245</v>
+        <v>6.77456</v>
       </c>
       <c r="C10" t="n">
-        <v>8.82624</v>
+        <v>8.65231</v>
       </c>
       <c r="D10" t="n">
-        <v>8.37787</v>
+        <v>8.24535</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6.98219</v>
+        <v>6.92799</v>
       </c>
       <c r="C11" t="n">
-        <v>8.751760000000001</v>
+        <v>8.756180000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>8.506399999999999</v>
+        <v>8.54574</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.30965</v>
+        <v>7.31827</v>
       </c>
       <c r="C12" t="n">
-        <v>8.95641</v>
+        <v>8.897819999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>9.029859999999999</v>
+        <v>9.11997</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.79471</v>
+        <v>7.87969</v>
       </c>
       <c r="C13" t="n">
-        <v>9.020110000000001</v>
+        <v>9.131830000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>9.74089</v>
+        <v>9.354850000000001</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.37316</v>
+        <v>7.42077</v>
       </c>
       <c r="C14" t="n">
-        <v>9.309850000000001</v>
+        <v>9.14495</v>
       </c>
       <c r="D14" t="n">
-        <v>8.917859999999999</v>
+        <v>9.067170000000001</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7.52782</v>
+        <v>7.49302</v>
       </c>
       <c r="C15" t="n">
-        <v>9.280469999999999</v>
+        <v>9.30912</v>
       </c>
       <c r="D15" t="n">
-        <v>9.22223</v>
+        <v>9.365030000000001</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.84272</v>
+        <v>7.79972</v>
       </c>
       <c r="C16" t="n">
-        <v>9.4068</v>
+        <v>9.46697</v>
       </c>
       <c r="D16" t="n">
-        <v>9.583209999999999</v>
+        <v>9.604279999999999</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.69834</v>
+        <v>7.69541</v>
       </c>
       <c r="C17" t="n">
-        <v>9.423400000000001</v>
+        <v>9.469390000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>9.564830000000001</v>
+        <v>9.489610000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.17264</v>
+        <v>2.17359</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2819</v>
+        <v>2.28122</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3364</v>
+        <v>2.33465</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.25943</v>
+        <v>3.21885</v>
       </c>
       <c r="C3" t="n">
-        <v>3.33775</v>
+        <v>3.32237</v>
       </c>
       <c r="D3" t="n">
-        <v>3.90341</v>
+        <v>3.89885</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.19757</v>
+        <v>4.24948</v>
       </c>
       <c r="C4" t="n">
-        <v>4.55634</v>
+        <v>4.69263</v>
       </c>
       <c r="D4" t="n">
-        <v>5.37335</v>
+        <v>5.40491</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.19319</v>
+        <v>5.23799</v>
       </c>
       <c r="C5" t="n">
-        <v>5.86309</v>
+        <v>5.94097</v>
       </c>
       <c r="D5" t="n">
-        <v>6.74364</v>
+        <v>6.74838</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.19826</v>
+        <v>6.35628</v>
       </c>
       <c r="C6" t="n">
-        <v>7.18037</v>
+        <v>7.25626</v>
       </c>
       <c r="D6" t="n">
-        <v>8.020490000000001</v>
+        <v>8.03234</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.15659</v>
+        <v>7.15936</v>
       </c>
       <c r="C7" t="n">
-        <v>8.48366</v>
+        <v>8.481299999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>9.22494</v>
+        <v>9.2211</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.04603</v>
+        <v>8.047470000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.892810000000001</v>
+        <v>9.84778</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4205</v>
+        <v>10.394</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.297129999999999</v>
+        <v>9.29663</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0489</v>
+        <v>11.0278</v>
       </c>
       <c r="D9" t="n">
-        <v>11.8821</v>
+        <v>11.9132</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.52663</v>
+        <v>7.57025</v>
       </c>
       <c r="C10" t="n">
-        <v>9.549910000000001</v>
+        <v>9.60683</v>
       </c>
       <c r="D10" t="n">
-        <v>9.84018</v>
+        <v>9.80644</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.95078</v>
+        <v>7.96179</v>
       </c>
       <c r="C11" t="n">
-        <v>9.806279999999999</v>
+        <v>9.570919999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>10.1618</v>
+        <v>10.0615</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.39616</v>
+        <v>8.227029999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.72247</v>
+        <v>9.750579999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>10.6985</v>
+        <v>10.5606</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.67046</v>
+        <v>8.531829999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.9184</v>
+        <v>9.853210000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0962</v>
+        <v>11.1482</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.31331</v>
+        <v>8.286429999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>10.1252</v>
+        <v>10.0302</v>
       </c>
       <c r="D14" t="n">
-        <v>10.3781</v>
+        <v>10.3473</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.585240000000001</v>
+        <v>8.643840000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2631</v>
+        <v>10.2967</v>
       </c>
       <c r="D15" t="n">
-        <v>10.6028</v>
+        <v>10.7471</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.67183</v>
+        <v>8.62956</v>
       </c>
       <c r="C16" t="n">
-        <v>10.4102</v>
+        <v>10.3184</v>
       </c>
       <c r="D16" t="n">
-        <v>11.138</v>
+        <v>11.1427</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.513350000000001</v>
+        <v>8.472810000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10.3396</v>
+        <v>10.4979</v>
       </c>
       <c r="D17" t="n">
-        <v>10.6896</v>
+        <v>11.0211</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.00807</v>
+        <v>2.0081</v>
       </c>
       <c r="C2" t="n">
-        <v>2.02562</v>
+        <v>2.02505</v>
       </c>
       <c r="D2" t="n">
-        <v>2.06214</v>
+        <v>2.06198</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.09155</v>
+        <v>3.04145</v>
       </c>
       <c r="C3" t="n">
-        <v>3.13696</v>
+        <v>3.13407</v>
       </c>
       <c r="D3" t="n">
-        <v>3.55403</v>
+        <v>3.5628</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.25169</v>
+        <v>4.19637</v>
       </c>
       <c r="C4" t="n">
-        <v>4.34962</v>
+        <v>4.27565</v>
       </c>
       <c r="D4" t="n">
-        <v>5.01046</v>
+        <v>4.9828</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.2362</v>
+        <v>5.24068</v>
       </c>
       <c r="C5" t="n">
-        <v>5.50933</v>
+        <v>5.55838</v>
       </c>
       <c r="D5" t="n">
-        <v>6.43388</v>
+        <v>6.36663</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.43213</v>
+        <v>6.27587</v>
       </c>
       <c r="C6" t="n">
-        <v>6.82115</v>
+        <v>6.73485</v>
       </c>
       <c r="D6" t="n">
-        <v>7.74655</v>
+        <v>7.72984</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.36236</v>
+        <v>7.30372</v>
       </c>
       <c r="C7" t="n">
-        <v>8.048920000000001</v>
+        <v>7.95653</v>
       </c>
       <c r="D7" t="n">
-        <v>9.06113</v>
+        <v>9.03206</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.32854</v>
+        <v>8.322939999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.25581</v>
+        <v>9.206200000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>10.3298</v>
+        <v>10.2987</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.66755</v>
+        <v>9.673439999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>10.3122</v>
+        <v>10.3163</v>
       </c>
       <c r="D9" t="n">
-        <v>11.8914</v>
+        <v>11.865</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.59934</v>
+        <v>7.55594</v>
       </c>
       <c r="C10" t="n">
-        <v>8.647460000000001</v>
+        <v>8.55132</v>
       </c>
       <c r="D10" t="n">
-        <v>9.152620000000001</v>
+        <v>9.178240000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.78981</v>
+        <v>7.75771</v>
       </c>
       <c r="C11" t="n">
-        <v>8.750439999999999</v>
+        <v>8.65263</v>
       </c>
       <c r="D11" t="n">
-        <v>9.70054</v>
+        <v>9.5259</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.174609999999999</v>
+        <v>8.14866</v>
       </c>
       <c r="C12" t="n">
-        <v>8.917160000000001</v>
+        <v>8.926119999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>10.0596</v>
+        <v>9.913029999999999</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.39974</v>
+        <v>8.352359999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.17292</v>
+        <v>9.22081</v>
       </c>
       <c r="D13" t="n">
-        <v>10.7568</v>
+        <v>10.1633</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.46978</v>
+        <v>8.443110000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.26394</v>
+        <v>9.235049999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>10.1419</v>
+        <v>10.1189</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.692449999999999</v>
+        <v>8.538180000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>9.438280000000001</v>
+        <v>9.41108</v>
       </c>
       <c r="D15" t="n">
-        <v>10.5323</v>
+        <v>10.2043</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.98639</v>
+        <v>8.884</v>
       </c>
       <c r="C16" t="n">
-        <v>9.53143</v>
+        <v>9.569929999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>10.7311</v>
+        <v>10.606</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.633979999999999</v>
+        <v>8.813599999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>9.63115</v>
+        <v>9.67774</v>
       </c>
       <c r="D17" t="n">
-        <v>10.5025</v>
+        <v>10.1132</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75006</v>
+        <v>1.75305</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92632</v>
+        <v>1.92855</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83506</v>
+        <v>1.83659</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.72874</v>
+        <v>2.75374</v>
       </c>
       <c r="C3" t="n">
-        <v>3.01463</v>
+        <v>3.03897</v>
       </c>
       <c r="D3" t="n">
-        <v>3.24038</v>
+        <v>3.24818</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.82197</v>
+        <v>3.82767</v>
       </c>
       <c r="C4" t="n">
-        <v>4.20468</v>
+        <v>4.20719</v>
       </c>
       <c r="D4" t="n">
-        <v>4.55621</v>
+        <v>4.52999</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.73559</v>
+        <v>4.68463</v>
       </c>
       <c r="C5" t="n">
-        <v>5.39643</v>
+        <v>5.36529</v>
       </c>
       <c r="D5" t="n">
-        <v>5.73063</v>
+        <v>5.70548</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.63991</v>
+        <v>5.56704</v>
       </c>
       <c r="C6" t="n">
-        <v>6.58611</v>
+        <v>6.5684</v>
       </c>
       <c r="D6" t="n">
-        <v>6.90786</v>
+        <v>6.87564</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.4103</v>
+        <v>6.41462</v>
       </c>
       <c r="C7" t="n">
-        <v>7.80406</v>
+        <v>7.792</v>
       </c>
       <c r="D7" t="n">
-        <v>7.99123</v>
+        <v>7.97777</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.24012</v>
+        <v>7.21686</v>
       </c>
       <c r="C8" t="n">
-        <v>9.025679999999999</v>
+        <v>9.00864</v>
       </c>
       <c r="D8" t="n">
-        <v>9.045529999999999</v>
+        <v>9.03401</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.39236</v>
+        <v>8.429069999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>10.4504</v>
+        <v>10.4373</v>
       </c>
       <c r="D9" t="n">
-        <v>10.5334</v>
+        <v>10.5135</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.36851</v>
+        <v>7.50135</v>
       </c>
       <c r="C10" t="n">
-        <v>9.347300000000001</v>
+        <v>9.057650000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>9.02929</v>
+        <v>8.98283</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.75162</v>
+        <v>7.78692</v>
       </c>
       <c r="C11" t="n">
-        <v>9.01732</v>
+        <v>9.11548</v>
       </c>
       <c r="D11" t="n">
-        <v>9.29214</v>
+        <v>9.20886</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.94444</v>
+        <v>7.98515</v>
       </c>
       <c r="C12" t="n">
-        <v>9.378500000000001</v>
+        <v>9.353070000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>9.34966</v>
+        <v>9.53853</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.81722</v>
+        <v>7.83955</v>
       </c>
       <c r="C13" t="n">
-        <v>9.702070000000001</v>
+        <v>9.68848</v>
       </c>
       <c r="D13" t="n">
-        <v>9.66418</v>
+        <v>9.5623</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.00446</v>
+        <v>8.03037</v>
       </c>
       <c r="C14" t="n">
-        <v>9.77439</v>
+        <v>9.784409999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>9.80316</v>
+        <v>9.84543</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.15067</v>
+        <v>8.14775</v>
       </c>
       <c r="C15" t="n">
-        <v>9.88044</v>
+        <v>9.909700000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>9.986280000000001</v>
+        <v>9.88226</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.03402</v>
+        <v>8.242100000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0393</v>
+        <v>10.0104</v>
       </c>
       <c r="D16" t="n">
-        <v>9.843640000000001</v>
+        <v>9.872310000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.065009999999999</v>
+        <v>8.04261</v>
       </c>
       <c r="C17" t="n">
-        <v>9.86328</v>
+        <v>9.89312</v>
       </c>
       <c r="D17" t="n">
-        <v>9.829499999999999</v>
+        <v>9.66586</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.07842</v>
+        <v>2.09468</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24715</v>
+        <v>2.24708</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29035</v>
+        <v>2.29018</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.19885</v>
+        <v>3.11617</v>
       </c>
       <c r="C3" t="n">
-        <v>3.40379</v>
+        <v>3.38368</v>
       </c>
       <c r="D3" t="n">
-        <v>3.86466</v>
+        <v>3.84071</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.12501</v>
+        <v>4.29633</v>
       </c>
       <c r="C4" t="n">
-        <v>4.64645</v>
+        <v>4.68832</v>
       </c>
       <c r="D4" t="n">
-        <v>5.29782</v>
+        <v>5.32233</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.12164</v>
+        <v>5.29548</v>
       </c>
       <c r="C5" t="n">
-        <v>5.89394</v>
+        <v>5.89431</v>
       </c>
       <c r="D5" t="n">
-        <v>6.61211</v>
+        <v>6.584</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.26106</v>
+        <v>6.25857</v>
       </c>
       <c r="C6" t="n">
-        <v>7.26457</v>
+        <v>7.28313</v>
       </c>
       <c r="D6" t="n">
-        <v>7.86476</v>
+        <v>7.8608</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.17162</v>
+        <v>7.1816</v>
       </c>
       <c r="C7" t="n">
-        <v>8.618869999999999</v>
+        <v>8.61223</v>
       </c>
       <c r="D7" t="n">
-        <v>9.055400000000001</v>
+        <v>9.066979999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.92899</v>
+        <v>8.06123</v>
       </c>
       <c r="C8" t="n">
-        <v>9.91864</v>
+        <v>10.1341</v>
       </c>
       <c r="D8" t="n">
-        <v>10.185</v>
+        <v>10.4683</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.26647</v>
+        <v>9.409750000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>11.4644</v>
+        <v>11.4988</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9229</v>
+        <v>11.9348</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.20129</v>
+        <v>8.136049999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.91535</v>
+        <v>9.91473</v>
       </c>
       <c r="D10" t="n">
-        <v>10.0649</v>
+        <v>10.3906</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.503959999999999</v>
+        <v>8.38857</v>
       </c>
       <c r="C11" t="n">
-        <v>9.85567</v>
+        <v>9.92319</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5511</v>
+        <v>10.5309</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.57044</v>
+        <v>8.80522</v>
       </c>
       <c r="C12" t="n">
-        <v>10.4367</v>
+        <v>10.3381</v>
       </c>
       <c r="D12" t="n">
-        <v>10.7584</v>
+        <v>10.7222</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.690110000000001</v>
+        <v>8.68885</v>
       </c>
       <c r="C13" t="n">
-        <v>10.5036</v>
+        <v>10.6653</v>
       </c>
       <c r="D13" t="n">
-        <v>10.9107</v>
+        <v>10.8127</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.80969</v>
+        <v>8.783440000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7938</v>
+        <v>10.8098</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0758</v>
+        <v>10.969</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.956569999999999</v>
+        <v>8.951779999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>10.9427</v>
+        <v>10.9573</v>
       </c>
       <c r="D15" t="n">
-        <v>11.1741</v>
+        <v>11.1544</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.9612</v>
+        <v>9.029920000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>10.9799</v>
+        <v>11.0758</v>
       </c>
       <c r="D16" t="n">
-        <v>11.0905</v>
+        <v>11.1016</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.94478</v>
+        <v>8.975199999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1181</v>
+        <v>11.1011</v>
       </c>
       <c r="D17" t="n">
-        <v>10.9771</v>
+        <v>10.7992</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.96921</v>
+        <v>1.96912</v>
       </c>
       <c r="C2" t="n">
-        <v>2.00359</v>
+        <v>2.00452</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04325</v>
+        <v>2.04307</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.01707</v>
+        <v>2.99259</v>
       </c>
       <c r="C3" t="n">
-        <v>3.13123</v>
+        <v>3.12479</v>
       </c>
       <c r="D3" t="n">
-        <v>3.59557</v>
+        <v>3.56482</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.22455</v>
+        <v>4.22401</v>
       </c>
       <c r="C4" t="n">
-        <v>4.26409</v>
+        <v>4.27286</v>
       </c>
       <c r="D4" t="n">
-        <v>5.11215</v>
+        <v>5.08102</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.43252</v>
+        <v>5.30928</v>
       </c>
       <c r="C5" t="n">
-        <v>5.52256</v>
+        <v>5.62291</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5174</v>
+        <v>6.53599</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.38186</v>
+        <v>6.37435</v>
       </c>
       <c r="C6" t="n">
-        <v>6.76147</v>
+        <v>6.83591</v>
       </c>
       <c r="D6" t="n">
-        <v>7.943</v>
+        <v>7.98675</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.44998</v>
+        <v>7.45508</v>
       </c>
       <c r="C7" t="n">
-        <v>7.99557</v>
+        <v>7.99227</v>
       </c>
       <c r="D7" t="n">
-        <v>9.32958</v>
+        <v>9.321300000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.52665</v>
+        <v>8.526210000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.247780000000001</v>
+        <v>9.24248</v>
       </c>
       <c r="D8" t="n">
-        <v>10.696</v>
+        <v>10.6839</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.96434</v>
+        <v>9.96082</v>
       </c>
       <c r="C9" t="n">
-        <v>10.687</v>
+        <v>10.6849</v>
       </c>
       <c r="D9" t="n">
-        <v>12.5096</v>
+        <v>12.4788</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.60469</v>
+        <v>8.46358</v>
       </c>
       <c r="C10" t="n">
-        <v>9.336069999999999</v>
+        <v>8.857900000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>10.379</v>
+        <v>10.6147</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.81889</v>
+        <v>9.005089999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>9.485110000000001</v>
+        <v>9.414099999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>10.6962</v>
+        <v>10.7426</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.219290000000001</v>
+        <v>9.09449</v>
       </c>
       <c r="C12" t="n">
-        <v>9.78684</v>
+        <v>9.69631</v>
       </c>
       <c r="D12" t="n">
-        <v>11.1991</v>
+        <v>11.1167</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.30034</v>
+        <v>9.32526</v>
       </c>
       <c r="C13" t="n">
-        <v>9.99085</v>
+        <v>9.878450000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>11.3566</v>
+        <v>11.5318</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.43268</v>
+        <v>9.298920000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>10.089</v>
+        <v>10.0644</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5167</v>
+        <v>11.3492</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.603590000000001</v>
+        <v>9.48578</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2397</v>
+        <v>10.2344</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6745</v>
+        <v>11.507</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.574389999999999</v>
+        <v>9.730779999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3148</v>
+        <v>10.3462</v>
       </c>
       <c r="D16" t="n">
-        <v>11.5014</v>
+        <v>11.8114</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.352550000000001</v>
+        <v>9.456860000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10.4203</v>
+        <v>10.4854</v>
       </c>
       <c r="D17" t="n">
-        <v>11.6338</v>
+        <v>11.8534</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.81385</v>
+        <v>1.81069</v>
       </c>
       <c r="C2" t="n">
-        <v>1.95827</v>
+        <v>1.95055</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86363</v>
+        <v>1.88794</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.7616</v>
+        <v>2.7773</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0018</v>
+        <v>2.988</v>
       </c>
       <c r="D3" t="n">
-        <v>3.2691</v>
+        <v>3.30876</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.82798</v>
+        <v>3.85815</v>
       </c>
       <c r="C4" t="n">
-        <v>4.20167</v>
+        <v>4.16547</v>
       </c>
       <c r="D4" t="n">
-        <v>4.61843</v>
+        <v>4.66644</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.80388</v>
+        <v>4.77965</v>
       </c>
       <c r="C5" t="n">
-        <v>5.38778</v>
+        <v>5.36243</v>
       </c>
       <c r="D5" t="n">
-        <v>5.8142</v>
+        <v>5.86895</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.71601</v>
+        <v>5.70212</v>
       </c>
       <c r="C6" t="n">
-        <v>6.52314</v>
+        <v>6.57251</v>
       </c>
       <c r="D6" t="n">
-        <v>7.00929</v>
+        <v>7.10423</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.50276</v>
+        <v>6.58152</v>
       </c>
       <c r="C7" t="n">
-        <v>7.79706</v>
+        <v>7.7865</v>
       </c>
       <c r="D7" t="n">
-        <v>8.15419</v>
+        <v>8.25225</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.31295</v>
+        <v>7.41459</v>
       </c>
       <c r="C8" t="n">
-        <v>8.97348</v>
+        <v>9.06545</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19983</v>
+        <v>9.379580000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.464449999999999</v>
+        <v>8.63838</v>
       </c>
       <c r="C9" t="n">
-        <v>9.979889999999999</v>
+        <v>10.0519</v>
       </c>
       <c r="D9" t="n">
-        <v>10.491</v>
+        <v>10.7097</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.77456</v>
+        <v>6.91241</v>
       </c>
       <c r="C10" t="n">
-        <v>8.65231</v>
+        <v>8.680870000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>8.24535</v>
+        <v>8.71264</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>6.92799</v>
+        <v>7.09211</v>
       </c>
       <c r="C11" t="n">
-        <v>8.756180000000001</v>
+        <v>8.63045</v>
       </c>
       <c r="D11" t="n">
-        <v>8.54574</v>
+        <v>8.700889999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.31827</v>
+        <v>7.46642</v>
       </c>
       <c r="C12" t="n">
-        <v>8.897819999999999</v>
+        <v>8.949630000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>9.11997</v>
+        <v>9.0283</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.87969</v>
+        <v>7.77499</v>
       </c>
       <c r="C13" t="n">
-        <v>9.131830000000001</v>
+        <v>9.15381</v>
       </c>
       <c r="D13" t="n">
-        <v>9.354850000000001</v>
+        <v>9.62889</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.42077</v>
+        <v>7.47999</v>
       </c>
       <c r="C14" t="n">
-        <v>9.14495</v>
+        <v>9.149520000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>9.067170000000001</v>
+        <v>9.20331</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7.49302</v>
+        <v>7.64394</v>
       </c>
       <c r="C15" t="n">
-        <v>9.30912</v>
+        <v>9.29865</v>
       </c>
       <c r="D15" t="n">
-        <v>9.365030000000001</v>
+        <v>9.47663</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.79972</v>
+        <v>7.86693</v>
       </c>
       <c r="C16" t="n">
-        <v>9.46697</v>
+        <v>9.331619999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>9.604279999999999</v>
+        <v>9.62154</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.69541</v>
+        <v>7.63332</v>
       </c>
       <c r="C17" t="n">
-        <v>9.469390000000001</v>
+        <v>9.368919999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>9.489610000000001</v>
+        <v>9.54377</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.17359</v>
+        <v>2.16619</v>
       </c>
       <c r="C2" t="n">
-        <v>2.28122</v>
+        <v>2.26987</v>
       </c>
       <c r="D2" t="n">
-        <v>2.33465</v>
+        <v>2.33341</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.21885</v>
+        <v>3.23576</v>
       </c>
       <c r="C3" t="n">
-        <v>3.32237</v>
+        <v>3.35834</v>
       </c>
       <c r="D3" t="n">
-        <v>3.89885</v>
+        <v>3.90005</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.24948</v>
+        <v>4.25067</v>
       </c>
       <c r="C4" t="n">
-        <v>4.69263</v>
+        <v>4.63281</v>
       </c>
       <c r="D4" t="n">
-        <v>5.40491</v>
+        <v>5.41217</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.23799</v>
+        <v>5.25158</v>
       </c>
       <c r="C5" t="n">
-        <v>5.94097</v>
+        <v>5.86895</v>
       </c>
       <c r="D5" t="n">
-        <v>6.74838</v>
+        <v>6.71552</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.35628</v>
+        <v>6.18313</v>
       </c>
       <c r="C6" t="n">
-        <v>7.25626</v>
+        <v>7.24565</v>
       </c>
       <c r="D6" t="n">
-        <v>8.03234</v>
+        <v>8.04415</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.15936</v>
+        <v>7.27681</v>
       </c>
       <c r="C7" t="n">
-        <v>8.481299999999999</v>
+        <v>8.584390000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9.2211</v>
+        <v>9.268230000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.047470000000001</v>
+        <v>8.18263</v>
       </c>
       <c r="C8" t="n">
-        <v>9.84778</v>
+        <v>10.0056</v>
       </c>
       <c r="D8" t="n">
-        <v>10.394</v>
+        <v>10.459</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.29663</v>
+        <v>9.4823</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0278</v>
+        <v>11.1774</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9132</v>
+        <v>11.9262</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.57025</v>
+        <v>7.58389</v>
       </c>
       <c r="C10" t="n">
-        <v>9.60683</v>
+        <v>9.5542</v>
       </c>
       <c r="D10" t="n">
-        <v>9.80644</v>
+        <v>9.895569999999999</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.96179</v>
+        <v>7.9456</v>
       </c>
       <c r="C11" t="n">
-        <v>9.570919999999999</v>
+        <v>9.594659999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>10.0615</v>
+        <v>9.779249999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.227029999999999</v>
+        <v>8.362489999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.750579999999999</v>
+        <v>9.72259</v>
       </c>
       <c r="D12" t="n">
-        <v>10.5606</v>
+        <v>10.6045</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.531829999999999</v>
+        <v>8.585229999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.853210000000001</v>
+        <v>9.893520000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>11.1482</v>
+        <v>11.0693</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.286429999999999</v>
+        <v>8.19988</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0302</v>
+        <v>10.1415</v>
       </c>
       <c r="D14" t="n">
-        <v>10.3473</v>
+        <v>10.2546</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.643840000000001</v>
+        <v>8.43219</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2967</v>
+        <v>10.2063</v>
       </c>
       <c r="D15" t="n">
-        <v>10.7471</v>
+        <v>10.5334</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.62956</v>
+        <v>8.69089</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3184</v>
+        <v>10.2647</v>
       </c>
       <c r="D16" t="n">
-        <v>11.1427</v>
+        <v>11.0596</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.472810000000001</v>
+        <v>8.65579</v>
       </c>
       <c r="C17" t="n">
-        <v>10.4979</v>
+        <v>10.2469</v>
       </c>
       <c r="D17" t="n">
-        <v>11.0211</v>
+        <v>10.198</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0081</v>
+        <v>2.00263</v>
       </c>
       <c r="C2" t="n">
-        <v>2.02505</v>
+        <v>2.01326</v>
       </c>
       <c r="D2" t="n">
-        <v>2.06198</v>
+        <v>2.05785</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.04145</v>
+        <v>3.1186</v>
       </c>
       <c r="C3" t="n">
-        <v>3.13407</v>
+        <v>3.098</v>
       </c>
       <c r="D3" t="n">
-        <v>3.5628</v>
+        <v>3.56633</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.19637</v>
+        <v>4.26025</v>
       </c>
       <c r="C4" t="n">
-        <v>4.27565</v>
+        <v>4.28321</v>
       </c>
       <c r="D4" t="n">
-        <v>4.9828</v>
+        <v>5.01015</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.24068</v>
+        <v>5.30602</v>
       </c>
       <c r="C5" t="n">
-        <v>5.55838</v>
+        <v>5.47579</v>
       </c>
       <c r="D5" t="n">
-        <v>6.36663</v>
+        <v>6.37517</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.27587</v>
+        <v>6.26926</v>
       </c>
       <c r="C6" t="n">
-        <v>6.73485</v>
+        <v>6.71459</v>
       </c>
       <c r="D6" t="n">
-        <v>7.72984</v>
+        <v>7.74328</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.30372</v>
+        <v>7.278</v>
       </c>
       <c r="C7" t="n">
-        <v>7.95653</v>
+        <v>7.94304</v>
       </c>
       <c r="D7" t="n">
-        <v>9.03206</v>
+        <v>9.052580000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.322939999999999</v>
+        <v>8.283149999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.206200000000001</v>
+        <v>9.227349999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>10.2987</v>
+        <v>10.3255</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.673439999999999</v>
+        <v>9.620810000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>10.3163</v>
+        <v>10.3039</v>
       </c>
       <c r="D9" t="n">
-        <v>11.865</v>
+        <v>11.8807</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.55594</v>
+        <v>7.79713</v>
       </c>
       <c r="C10" t="n">
-        <v>8.55132</v>
+        <v>8.67122</v>
       </c>
       <c r="D10" t="n">
-        <v>9.178240000000001</v>
+        <v>8.980029999999999</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.75771</v>
+        <v>7.75604</v>
       </c>
       <c r="C11" t="n">
-        <v>8.65263</v>
+        <v>8.67215</v>
       </c>
       <c r="D11" t="n">
-        <v>9.5259</v>
+        <v>9.338240000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.14866</v>
+        <v>8.13348</v>
       </c>
       <c r="C12" t="n">
-        <v>8.926119999999999</v>
+        <v>8.861050000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>9.913029999999999</v>
+        <v>9.98063</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.352359999999999</v>
+        <v>8.42257</v>
       </c>
       <c r="C13" t="n">
-        <v>9.22081</v>
+        <v>9.094860000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>10.1633</v>
+        <v>10.4442</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.443110000000001</v>
+        <v>8.455730000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.235049999999999</v>
+        <v>9.26224</v>
       </c>
       <c r="D14" t="n">
-        <v>10.1189</v>
+        <v>9.653</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.538180000000001</v>
+        <v>8.54819</v>
       </c>
       <c r="C15" t="n">
-        <v>9.41108</v>
+        <v>9.378019999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>10.2043</v>
+        <v>10.2009</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.884</v>
+        <v>8.69825</v>
       </c>
       <c r="C16" t="n">
-        <v>9.569929999999999</v>
+        <v>9.557079999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>10.606</v>
+        <v>10.4383</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.813599999999999</v>
+        <v>8.70655</v>
       </c>
       <c r="C17" t="n">
-        <v>9.67774</v>
+        <v>9.605729999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>10.1132</v>
+        <v>9.94895</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.75305</v>
+        <v>1.73738</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92855</v>
+        <v>1.91791</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83659</v>
+        <v>1.87839</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.75374</v>
+        <v>2.77537</v>
       </c>
       <c r="C3" t="n">
-        <v>3.03897</v>
+        <v>3.00585</v>
       </c>
       <c r="D3" t="n">
-        <v>3.24818</v>
+        <v>3.2833</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.82767</v>
+        <v>3.73561</v>
       </c>
       <c r="C4" t="n">
-        <v>4.20719</v>
+        <v>4.15096</v>
       </c>
       <c r="D4" t="n">
-        <v>4.52999</v>
+        <v>4.62724</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.68463</v>
+        <v>4.65032</v>
       </c>
       <c r="C5" t="n">
-        <v>5.36529</v>
+        <v>5.36536</v>
       </c>
       <c r="D5" t="n">
-        <v>5.70548</v>
+        <v>5.80837</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.56704</v>
+        <v>5.56905</v>
       </c>
       <c r="C6" t="n">
-        <v>6.5684</v>
+        <v>6.50254</v>
       </c>
       <c r="D6" t="n">
-        <v>6.87564</v>
+        <v>6.95416</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.41462</v>
+        <v>6.4102</v>
       </c>
       <c r="C7" t="n">
-        <v>7.792</v>
+        <v>7.75869</v>
       </c>
       <c r="D7" t="n">
-        <v>7.97777</v>
+        <v>8.08872</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.21686</v>
+        <v>7.20033</v>
       </c>
       <c r="C8" t="n">
-        <v>9.00864</v>
+        <v>8.92944</v>
       </c>
       <c r="D8" t="n">
-        <v>9.03401</v>
+        <v>9.15136</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.429069999999999</v>
+        <v>8.36684</v>
       </c>
       <c r="C9" t="n">
-        <v>10.4373</v>
+        <v>10.3216</v>
       </c>
       <c r="D9" t="n">
-        <v>10.5135</v>
+        <v>10.6439</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.50135</v>
+        <v>7.33355</v>
       </c>
       <c r="C10" t="n">
-        <v>9.057650000000001</v>
+        <v>8.925549999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>8.98283</v>
+        <v>9.07624</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.78692</v>
+        <v>7.7218</v>
       </c>
       <c r="C11" t="n">
-        <v>9.11548</v>
+        <v>9.00713</v>
       </c>
       <c r="D11" t="n">
-        <v>9.20886</v>
+        <v>9.54115</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.98515</v>
+        <v>7.93216</v>
       </c>
       <c r="C12" t="n">
-        <v>9.353070000000001</v>
+        <v>9.40213</v>
       </c>
       <c r="D12" t="n">
-        <v>9.53853</v>
+        <v>9.618069999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.83955</v>
+        <v>7.86508</v>
       </c>
       <c r="C13" t="n">
-        <v>9.68848</v>
+        <v>9.541399999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>9.5623</v>
+        <v>9.81376</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.03037</v>
+        <v>8.00878</v>
       </c>
       <c r="C14" t="n">
-        <v>9.784409999999999</v>
+        <v>9.805949999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>9.84543</v>
+        <v>10.0666</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.14775</v>
+        <v>8.23183</v>
       </c>
       <c r="C15" t="n">
-        <v>9.909700000000001</v>
+        <v>9.831569999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>9.88226</v>
+        <v>10.1499</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.242100000000001</v>
+        <v>8.105740000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0104</v>
+        <v>9.91286</v>
       </c>
       <c r="D16" t="n">
-        <v>9.872310000000001</v>
+        <v>10.0374</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.04261</v>
+        <v>8.12079</v>
       </c>
       <c r="C17" t="n">
-        <v>9.89312</v>
+        <v>9.815149999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>9.66586</v>
+        <v>10.1087</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.09468</v>
+        <v>2.08128</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24708</v>
+        <v>2.2384</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29018</v>
+        <v>2.28759</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.11617</v>
+        <v>3.18867</v>
       </c>
       <c r="C3" t="n">
-        <v>3.38368</v>
+        <v>3.37416</v>
       </c>
       <c r="D3" t="n">
-        <v>3.84071</v>
+        <v>3.83434</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.29633</v>
+        <v>4.24429</v>
       </c>
       <c r="C4" t="n">
-        <v>4.68832</v>
+        <v>4.60893</v>
       </c>
       <c r="D4" t="n">
-        <v>5.32233</v>
+        <v>5.30845</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.29548</v>
+        <v>5.22288</v>
       </c>
       <c r="C5" t="n">
-        <v>5.89431</v>
+        <v>5.95376</v>
       </c>
       <c r="D5" t="n">
-        <v>6.584</v>
+        <v>6.59878</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.25857</v>
+        <v>6.21373</v>
       </c>
       <c r="C6" t="n">
-        <v>7.28313</v>
+        <v>7.28517</v>
       </c>
       <c r="D6" t="n">
-        <v>7.8608</v>
+        <v>7.85179</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.1816</v>
+        <v>7.06956</v>
       </c>
       <c r="C7" t="n">
-        <v>8.61223</v>
+        <v>8.58245</v>
       </c>
       <c r="D7" t="n">
-        <v>9.066979999999999</v>
+        <v>9.038629999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.06123</v>
+        <v>7.92974</v>
       </c>
       <c r="C8" t="n">
-        <v>10.1341</v>
+        <v>9.974119999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4683</v>
+        <v>10.1864</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.409750000000001</v>
+        <v>9.23028</v>
       </c>
       <c r="C9" t="n">
-        <v>11.4988</v>
+        <v>11.5425</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9348</v>
+        <v>11.9309</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.136049999999999</v>
+        <v>8.111359999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.91473</v>
+        <v>10.0209</v>
       </c>
       <c r="D10" t="n">
-        <v>10.3906</v>
+        <v>10.3519</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.38857</v>
+        <v>8.52347</v>
       </c>
       <c r="C11" t="n">
-        <v>9.92319</v>
+        <v>10.0169</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5309</v>
+        <v>10.4233</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.80522</v>
+        <v>8.752140000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3381</v>
+        <v>10.5242</v>
       </c>
       <c r="D12" t="n">
-        <v>10.7222</v>
+        <v>10.7922</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.68885</v>
+        <v>8.677659999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>10.6653</v>
+        <v>10.7551</v>
       </c>
       <c r="D13" t="n">
-        <v>10.8127</v>
+        <v>10.975</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.783440000000001</v>
+        <v>8.82147</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8098</v>
+        <v>10.8395</v>
       </c>
       <c r="D14" t="n">
-        <v>10.969</v>
+        <v>11.0859</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.951779999999999</v>
+        <v>8.916069999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>10.9573</v>
+        <v>10.9615</v>
       </c>
       <c r="D15" t="n">
-        <v>11.1544</v>
+        <v>11.1266</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.029920000000001</v>
+        <v>8.950850000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0758</v>
+        <v>11.1803</v>
       </c>
       <c r="D16" t="n">
-        <v>11.1016</v>
+        <v>11.2162</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.975199999999999</v>
+        <v>8.90207</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1011</v>
+        <v>11.1282</v>
       </c>
       <c r="D17" t="n">
-        <v>10.7992</v>
+        <v>11.068</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.96912</v>
+        <v>1.96612</v>
       </c>
       <c r="C2" t="n">
-        <v>2.00452</v>
+        <v>1.99344</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04307</v>
+        <v>2.03727</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.99259</v>
+        <v>3.04024</v>
       </c>
       <c r="C3" t="n">
-        <v>3.12479</v>
+        <v>3.11251</v>
       </c>
       <c r="D3" t="n">
-        <v>3.56482</v>
+        <v>3.5596</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.22401</v>
+        <v>4.2918</v>
       </c>
       <c r="C4" t="n">
-        <v>4.27286</v>
+        <v>4.35188</v>
       </c>
       <c r="D4" t="n">
-        <v>5.08102</v>
+        <v>5.09702</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.30928</v>
+        <v>5.32508</v>
       </c>
       <c r="C5" t="n">
-        <v>5.62291</v>
+        <v>5.55639</v>
       </c>
       <c r="D5" t="n">
-        <v>6.53599</v>
+        <v>6.50599</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.37435</v>
+        <v>6.40172</v>
       </c>
       <c r="C6" t="n">
-        <v>6.83591</v>
+        <v>6.77835</v>
       </c>
       <c r="D6" t="n">
-        <v>7.98675</v>
+        <v>7.93998</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.45508</v>
+        <v>7.50907</v>
       </c>
       <c r="C7" t="n">
-        <v>7.99227</v>
+        <v>8.050459999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>9.321300000000001</v>
+        <v>9.34796</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.526210000000001</v>
+        <v>8.83132</v>
       </c>
       <c r="C8" t="n">
-        <v>9.24248</v>
+        <v>9.45922</v>
       </c>
       <c r="D8" t="n">
-        <v>10.6839</v>
+        <v>10.9455</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.96082</v>
+        <v>10.0583</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6849</v>
+        <v>10.6921</v>
       </c>
       <c r="D9" t="n">
-        <v>12.4788</v>
+        <v>12.5019</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.46358</v>
+        <v>8.42822</v>
       </c>
       <c r="C10" t="n">
-        <v>8.857900000000001</v>
+        <v>9.01493</v>
       </c>
       <c r="D10" t="n">
-        <v>10.6147</v>
+        <v>10.8261</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.005089999999999</v>
+        <v>8.84568</v>
       </c>
       <c r="C11" t="n">
-        <v>9.414099999999999</v>
+        <v>9.38106</v>
       </c>
       <c r="D11" t="n">
-        <v>10.7426</v>
+        <v>10.8319</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.09449</v>
+        <v>9.10055</v>
       </c>
       <c r="C12" t="n">
-        <v>9.69631</v>
+        <v>9.64634</v>
       </c>
       <c r="D12" t="n">
-        <v>11.1167</v>
+        <v>11.2539</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.32526</v>
+        <v>9.33418</v>
       </c>
       <c r="C13" t="n">
-        <v>9.878450000000001</v>
+        <v>10.009</v>
       </c>
       <c r="D13" t="n">
-        <v>11.5318</v>
+        <v>11.4088</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.298920000000001</v>
+        <v>9.35585</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0644</v>
+        <v>10.024</v>
       </c>
       <c r="D14" t="n">
-        <v>11.3492</v>
+        <v>11.4586</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.48578</v>
+        <v>9.58671</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2344</v>
+        <v>10.2611</v>
       </c>
       <c r="D15" t="n">
-        <v>11.507</v>
+        <v>11.4508</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.730779999999999</v>
+        <v>9.588190000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3462</v>
+        <v>10.3361</v>
       </c>
       <c r="D16" t="n">
-        <v>11.8114</v>
+        <v>11.7724</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.456860000000001</v>
+        <v>9.46588</v>
       </c>
       <c r="C17" t="n">
-        <v>10.4854</v>
+        <v>10.4138</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8534</v>
+        <v>11.6075</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.81069</v>
+        <v>1.86213</v>
       </c>
       <c r="C2" t="n">
-        <v>1.95055</v>
+        <v>1.91693</v>
       </c>
       <c r="D2" t="n">
-        <v>1.88794</v>
+        <v>1.95782</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.7773</v>
+        <v>3.13418</v>
       </c>
       <c r="C3" t="n">
-        <v>2.988</v>
+        <v>2.99853</v>
       </c>
       <c r="D3" t="n">
-        <v>3.30876</v>
+        <v>3.41361</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.85815</v>
+        <v>4.3808</v>
       </c>
       <c r="C4" t="n">
-        <v>4.16547</v>
+        <v>4.19249</v>
       </c>
       <c r="D4" t="n">
-        <v>4.66644</v>
+        <v>4.82226</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.77965</v>
+        <v>5.3952</v>
       </c>
       <c r="C5" t="n">
-        <v>5.36243</v>
+        <v>5.3818</v>
       </c>
       <c r="D5" t="n">
-        <v>5.86895</v>
+        <v>6.11586</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.70212</v>
+        <v>6.66135</v>
       </c>
       <c r="C6" t="n">
-        <v>6.57251</v>
+        <v>6.5012</v>
       </c>
       <c r="D6" t="n">
-        <v>7.10423</v>
+        <v>7.35096</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.58152</v>
+        <v>7.74625</v>
       </c>
       <c r="C7" t="n">
-        <v>7.7865</v>
+        <v>7.7117</v>
       </c>
       <c r="D7" t="n">
-        <v>8.25225</v>
+        <v>8.597799999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.41459</v>
+        <v>8.89902</v>
       </c>
       <c r="C8" t="n">
-        <v>9.06545</v>
+        <v>8.92963</v>
       </c>
       <c r="D8" t="n">
-        <v>9.379580000000001</v>
+        <v>9.754849999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.63838</v>
+        <v>10.4206</v>
       </c>
       <c r="C9" t="n">
-        <v>10.0519</v>
+        <v>10.5131</v>
       </c>
       <c r="D9" t="n">
-        <v>10.7097</v>
+        <v>11.4904</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>6.91241</v>
+        <v>8.8948</v>
       </c>
       <c r="C10" t="n">
-        <v>8.680870000000001</v>
+        <v>8.928879999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>8.71264</v>
+        <v>9.552519999999999</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.09211</v>
+        <v>9.29081</v>
       </c>
       <c r="C11" t="n">
-        <v>8.63045</v>
+        <v>9.008459999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>8.700889999999999</v>
+        <v>9.86835</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.46642</v>
+        <v>9.437110000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>8.949630000000001</v>
+        <v>9.26891</v>
       </c>
       <c r="D12" t="n">
-        <v>9.0283</v>
+        <v>9.94392</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.77499</v>
+        <v>9.92427</v>
       </c>
       <c r="C13" t="n">
-        <v>9.15381</v>
+        <v>9.509819999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>9.62889</v>
+        <v>10.3706</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>7.47999</v>
+        <v>9.55139</v>
       </c>
       <c r="C14" t="n">
-        <v>9.149520000000001</v>
+        <v>9.69253</v>
       </c>
       <c r="D14" t="n">
-        <v>9.20331</v>
+        <v>10.3417</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>7.64394</v>
+        <v>9.62079</v>
       </c>
       <c r="C15" t="n">
-        <v>9.29865</v>
+        <v>9.690939999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>9.47663</v>
+        <v>10.4153</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>7.86693</v>
+        <v>9.939679999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.331619999999999</v>
+        <v>9.983650000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>9.62154</v>
+        <v>10.5815</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7.63332</v>
+        <v>10.1887</v>
       </c>
       <c r="C17" t="n">
-        <v>9.368919999999999</v>
+        <v>9.974679999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>9.54377</v>
+        <v>10.8804</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.16619</v>
+        <v>2.22012</v>
       </c>
       <c r="C2" t="n">
-        <v>2.26987</v>
+        <v>2.24652</v>
       </c>
       <c r="D2" t="n">
-        <v>2.33341</v>
+        <v>2.29227</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.23576</v>
+        <v>3.56797</v>
       </c>
       <c r="C3" t="n">
-        <v>3.35834</v>
+        <v>3.39386</v>
       </c>
       <c r="D3" t="n">
-        <v>3.90005</v>
+        <v>3.87962</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.25067</v>
+        <v>4.97895</v>
       </c>
       <c r="C4" t="n">
-        <v>4.63281</v>
+        <v>4.59263</v>
       </c>
       <c r="D4" t="n">
-        <v>5.41217</v>
+        <v>5.37644</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.25158</v>
+        <v>6.00185</v>
       </c>
       <c r="C5" t="n">
-        <v>5.86895</v>
+        <v>6.02597</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71552</v>
+        <v>6.87489</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.18313</v>
+        <v>7.35767</v>
       </c>
       <c r="C6" t="n">
-        <v>7.24565</v>
+        <v>7.23514</v>
       </c>
       <c r="D6" t="n">
-        <v>8.04415</v>
+        <v>8.23654</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.27681</v>
+        <v>8.682320000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.584390000000001</v>
+        <v>8.53654</v>
       </c>
       <c r="D7" t="n">
-        <v>9.268230000000001</v>
+        <v>9.584860000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.18263</v>
+        <v>9.95518</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0056</v>
+        <v>10.0364</v>
       </c>
       <c r="D8" t="n">
-        <v>10.459</v>
+        <v>10.8964</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.4823</v>
+        <v>11.9626</v>
       </c>
       <c r="C9" t="n">
-        <v>11.1774</v>
+        <v>11.6759</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9262</v>
+        <v>12.8071</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.58389</v>
+        <v>9.769819999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.5542</v>
+        <v>9.779719999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.895569999999999</v>
+        <v>10.6975</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.9456</v>
+        <v>10.4201</v>
       </c>
       <c r="C11" t="n">
-        <v>9.594659999999999</v>
+        <v>10.0145</v>
       </c>
       <c r="D11" t="n">
-        <v>9.779249999999999</v>
+        <v>10.7534</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.362489999999999</v>
+        <v>10.6143</v>
       </c>
       <c r="C12" t="n">
-        <v>9.72259</v>
+        <v>10.3904</v>
       </c>
       <c r="D12" t="n">
-        <v>10.6045</v>
+        <v>11.1463</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.585229999999999</v>
+        <v>11.0566</v>
       </c>
       <c r="C13" t="n">
-        <v>9.893520000000001</v>
+        <v>10.7281</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0693</v>
+        <v>11.5208</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.19988</v>
+        <v>10.8518</v>
       </c>
       <c r="C14" t="n">
-        <v>10.1415</v>
+        <v>10.6826</v>
       </c>
       <c r="D14" t="n">
-        <v>10.2546</v>
+        <v>11.554</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.43219</v>
+        <v>11.08</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2063</v>
+        <v>10.9087</v>
       </c>
       <c r="D15" t="n">
-        <v>10.5334</v>
+        <v>11.6201</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.69089</v>
+        <v>11.3717</v>
       </c>
       <c r="C16" t="n">
-        <v>10.2647</v>
+        <v>11.0223</v>
       </c>
       <c r="D16" t="n">
-        <v>11.0596</v>
+        <v>11.7872</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.65579</v>
+        <v>11.2764</v>
       </c>
       <c r="C17" t="n">
-        <v>10.2469</v>
+        <v>11.0368</v>
       </c>
       <c r="D17" t="n">
-        <v>10.198</v>
+        <v>11.8016</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.00263</v>
+        <v>2.02353</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01326</v>
+        <v>2.01327</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05785</v>
+        <v>2.04821</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.1186</v>
+        <v>3.25379</v>
       </c>
       <c r="C3" t="n">
-        <v>3.098</v>
+        <v>3.15662</v>
       </c>
       <c r="D3" t="n">
-        <v>3.56633</v>
+        <v>3.61877</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.26025</v>
+        <v>4.32518</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28321</v>
+        <v>4.29518</v>
       </c>
       <c r="D4" t="n">
-        <v>5.01015</v>
+        <v>5.1236</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.30602</v>
+        <v>5.56087</v>
       </c>
       <c r="C5" t="n">
-        <v>5.47579</v>
+        <v>5.54103</v>
       </c>
       <c r="D5" t="n">
-        <v>6.37517</v>
+        <v>6.66888</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.26926</v>
+        <v>6.96246</v>
       </c>
       <c r="C6" t="n">
-        <v>6.71459</v>
+        <v>6.84035</v>
       </c>
       <c r="D6" t="n">
-        <v>7.74328</v>
+        <v>8.150320000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.278</v>
+        <v>8.03936</v>
       </c>
       <c r="C7" t="n">
-        <v>7.94304</v>
+        <v>8.05646</v>
       </c>
       <c r="D7" t="n">
-        <v>9.052580000000001</v>
+        <v>9.656980000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.283149999999999</v>
+        <v>9.253270000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.227349999999999</v>
+        <v>9.339919999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>10.3255</v>
+        <v>11.3406</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.620810000000001</v>
+        <v>10.7021</v>
       </c>
       <c r="C9" t="n">
-        <v>10.3039</v>
+        <v>10.7545</v>
       </c>
       <c r="D9" t="n">
-        <v>11.8807</v>
+        <v>12.8331</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.79713</v>
+        <v>9.038589999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>8.67122</v>
+        <v>9.48645</v>
       </c>
       <c r="D10" t="n">
-        <v>8.980029999999999</v>
+        <v>10.4547</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.75604</v>
+        <v>9.322380000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>8.67215</v>
+        <v>9.24301</v>
       </c>
       <c r="D11" t="n">
-        <v>9.338240000000001</v>
+        <v>10.8681</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.13348</v>
+        <v>9.85406</v>
       </c>
       <c r="C12" t="n">
-        <v>8.861050000000001</v>
+        <v>9.527939999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>9.98063</v>
+        <v>11.2858</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.42257</v>
+        <v>10.0293</v>
       </c>
       <c r="C13" t="n">
-        <v>9.094860000000001</v>
+        <v>9.93394</v>
       </c>
       <c r="D13" t="n">
-        <v>10.4442</v>
+        <v>11.3859</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.455730000000001</v>
+        <v>10.0534</v>
       </c>
       <c r="C14" t="n">
-        <v>9.26224</v>
+        <v>10.0187</v>
       </c>
       <c r="D14" t="n">
-        <v>9.653</v>
+        <v>11.562</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.54819</v>
+        <v>10.0163</v>
       </c>
       <c r="C15" t="n">
-        <v>9.378019999999999</v>
+        <v>10.1721</v>
       </c>
       <c r="D15" t="n">
-        <v>10.2009</v>
+        <v>11.6718</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.69825</v>
+        <v>10.3904</v>
       </c>
       <c r="C16" t="n">
-        <v>9.557079999999999</v>
+        <v>10.4099</v>
       </c>
       <c r="D16" t="n">
-        <v>10.4383</v>
+        <v>11.9793</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.70655</v>
+        <v>10.1738</v>
       </c>
       <c r="C17" t="n">
-        <v>9.605729999999999</v>
+        <v>10.5838</v>
       </c>
       <c r="D17" t="n">
-        <v>9.94895</v>
+        <v>12.0732</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.73738</v>
+        <v>1.51285</v>
       </c>
       <c r="C2" t="n">
-        <v>1.91791</v>
+        <v>1.82398</v>
       </c>
       <c r="D2" t="n">
-        <v>1.87839</v>
+        <v>1.86273</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.77537</v>
+        <v>2.79065</v>
       </c>
       <c r="C3" t="n">
-        <v>3.00585</v>
+        <v>2.95361</v>
       </c>
       <c r="D3" t="n">
-        <v>3.2833</v>
+        <v>3.34136</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.73561</v>
+        <v>4.07919</v>
       </c>
       <c r="C4" t="n">
-        <v>4.15096</v>
+        <v>4.15968</v>
       </c>
       <c r="D4" t="n">
-        <v>4.62724</v>
+        <v>4.75693</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.65032</v>
+        <v>5.30855</v>
       </c>
       <c r="C5" t="n">
-        <v>5.36536</v>
+        <v>5.36534</v>
       </c>
       <c r="D5" t="n">
-        <v>5.80837</v>
+        <v>6.06714</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.56905</v>
+        <v>6.51718</v>
       </c>
       <c r="C6" t="n">
-        <v>6.50254</v>
+        <v>6.56294</v>
       </c>
       <c r="D6" t="n">
-        <v>6.95416</v>
+        <v>7.33965</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.4102</v>
+        <v>7.67657</v>
       </c>
       <c r="C7" t="n">
-        <v>7.75869</v>
+        <v>7.7513</v>
       </c>
       <c r="D7" t="n">
-        <v>8.08872</v>
+        <v>8.55655</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.20033</v>
+        <v>8.813470000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>8.92944</v>
+        <v>8.96626</v>
       </c>
       <c r="D8" t="n">
-        <v>9.15136</v>
+        <v>9.721920000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8.36684</v>
+        <v>10.2082</v>
       </c>
       <c r="C9" t="n">
-        <v>10.3216</v>
+        <v>10.4505</v>
       </c>
       <c r="D9" t="n">
-        <v>10.6439</v>
+        <v>11.4893</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>7.33355</v>
+        <v>9.71106</v>
       </c>
       <c r="C10" t="n">
-        <v>8.925549999999999</v>
+        <v>9.855270000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>9.07624</v>
+        <v>10.849</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>7.7218</v>
+        <v>9.73992</v>
       </c>
       <c r="C11" t="n">
-        <v>9.00713</v>
+        <v>9.79002</v>
       </c>
       <c r="D11" t="n">
-        <v>9.54115</v>
+        <v>10.9043</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>7.93216</v>
+        <v>9.785310000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.40213</v>
+        <v>9.82934</v>
       </c>
       <c r="D12" t="n">
-        <v>9.618069999999999</v>
+        <v>10.9589</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7.86508</v>
+        <v>9.960430000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.541399999999999</v>
+        <v>9.85486</v>
       </c>
       <c r="D13" t="n">
-        <v>9.81376</v>
+        <v>11.0401</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.00878</v>
+        <v>9.50925</v>
       </c>
       <c r="C14" t="n">
-        <v>9.805949999999999</v>
+        <v>9.941739999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>10.0666</v>
+        <v>10.6052</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.23183</v>
+        <v>10.021</v>
       </c>
       <c r="C15" t="n">
-        <v>9.831569999999999</v>
+        <v>10.0222</v>
       </c>
       <c r="D15" t="n">
-        <v>10.1499</v>
+        <v>11.0699</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.105740000000001</v>
+        <v>9.95496</v>
       </c>
       <c r="C16" t="n">
-        <v>9.91286</v>
+        <v>10.0091</v>
       </c>
       <c r="D16" t="n">
-        <v>10.0374</v>
+        <v>11.069</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.12079</v>
+        <v>9.872909999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>9.815149999999999</v>
+        <v>10.0496</v>
       </c>
       <c r="D17" t="n">
-        <v>10.1087</v>
+        <v>11.0777</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.08128</v>
+        <v>1.74135</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2384</v>
+        <v>2.12784</v>
       </c>
       <c r="D2" t="n">
-        <v>2.28759</v>
+        <v>2.1637</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.18867</v>
+        <v>3.17237</v>
       </c>
       <c r="C3" t="n">
-        <v>3.37416</v>
+        <v>3.3371</v>
       </c>
       <c r="D3" t="n">
-        <v>3.83434</v>
+        <v>3.79427</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.24429</v>
+        <v>4.61929</v>
       </c>
       <c r="C4" t="n">
-        <v>4.60893</v>
+        <v>4.67247</v>
       </c>
       <c r="D4" t="n">
-        <v>5.30845</v>
+        <v>5.34667</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.22288</v>
+        <v>5.95748</v>
       </c>
       <c r="C5" t="n">
-        <v>5.95376</v>
+        <v>5.97067</v>
       </c>
       <c r="D5" t="n">
-        <v>6.59878</v>
+        <v>6.80763</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.21373</v>
+        <v>7.28439</v>
       </c>
       <c r="C6" t="n">
-        <v>7.28517</v>
+        <v>7.29178</v>
       </c>
       <c r="D6" t="n">
-        <v>7.85179</v>
+        <v>8.21156</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.06956</v>
+        <v>8.5769</v>
       </c>
       <c r="C7" t="n">
-        <v>8.58245</v>
+        <v>8.60117</v>
       </c>
       <c r="D7" t="n">
-        <v>9.038629999999999</v>
+        <v>9.554410000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.92974</v>
+        <v>9.832319999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.974119999999999</v>
+        <v>9.94346</v>
       </c>
       <c r="D8" t="n">
-        <v>10.1864</v>
+        <v>10.8441</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.23028</v>
+        <v>11.4486</v>
       </c>
       <c r="C9" t="n">
-        <v>11.5425</v>
+        <v>11.546</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9309</v>
+        <v>12.8478</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.111359999999999</v>
+        <v>10.9349</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0209</v>
+        <v>10.9609</v>
       </c>
       <c r="D10" t="n">
-        <v>10.3519</v>
+        <v>12.1488</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.52347</v>
+        <v>10.9499</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0169</v>
+        <v>10.8319</v>
       </c>
       <c r="D11" t="n">
-        <v>10.4233</v>
+        <v>12.149</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.752140000000001</v>
+        <v>10.8046</v>
       </c>
       <c r="C12" t="n">
-        <v>10.5242</v>
+        <v>10.8883</v>
       </c>
       <c r="D12" t="n">
-        <v>10.7922</v>
+        <v>12.2139</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.677659999999999</v>
+        <v>11.0501</v>
       </c>
       <c r="C13" t="n">
-        <v>10.7551</v>
+        <v>10.9941</v>
       </c>
       <c r="D13" t="n">
-        <v>10.975</v>
+        <v>12.3137</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.82147</v>
+        <v>10.6416</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8395</v>
+        <v>11.0082</v>
       </c>
       <c r="D14" t="n">
-        <v>11.0859</v>
+        <v>11.8814</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.916069999999999</v>
+        <v>11.2769</v>
       </c>
       <c r="C15" t="n">
-        <v>10.9615</v>
+        <v>11.0441</v>
       </c>
       <c r="D15" t="n">
-        <v>11.1266</v>
+        <v>12.3381</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.950850000000001</v>
+        <v>11.2189</v>
       </c>
       <c r="C16" t="n">
-        <v>11.1803</v>
+        <v>11.0523</v>
       </c>
       <c r="D16" t="n">
-        <v>11.2162</v>
+        <v>12.2319</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.90207</v>
+        <v>10.9077</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1282</v>
+        <v>11.1554</v>
       </c>
       <c r="D17" t="n">
-        <v>11.068</v>
+        <v>12.2142</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.96612</v>
+        <v>1.87292</v>
       </c>
       <c r="C2" t="n">
-        <v>1.99344</v>
+        <v>1.97877</v>
       </c>
       <c r="D2" t="n">
-        <v>2.03727</v>
+        <v>2.00744</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.04024</v>
+        <v>3.17471</v>
       </c>
       <c r="C3" t="n">
-        <v>3.11251</v>
+        <v>3.13564</v>
       </c>
       <c r="D3" t="n">
-        <v>3.5596</v>
+        <v>3.58635</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.2918</v>
+        <v>4.51654</v>
       </c>
       <c r="C4" t="n">
-        <v>4.35188</v>
+        <v>4.31898</v>
       </c>
       <c r="D4" t="n">
-        <v>5.09702</v>
+        <v>5.15877</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.32508</v>
+        <v>5.77144</v>
       </c>
       <c r="C5" t="n">
-        <v>5.55639</v>
+        <v>5.54301</v>
       </c>
       <c r="D5" t="n">
-        <v>6.50599</v>
+        <v>6.7283</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.40172</v>
+        <v>7.03485</v>
       </c>
       <c r="C6" t="n">
-        <v>6.77835</v>
+        <v>6.78341</v>
       </c>
       <c r="D6" t="n">
-        <v>7.93998</v>
+        <v>8.2433</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.50907</v>
+        <v>8.249890000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.050459999999999</v>
+        <v>8.0336</v>
       </c>
       <c r="D7" t="n">
-        <v>9.34796</v>
+        <v>9.72077</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.83132</v>
+        <v>9.27261</v>
       </c>
       <c r="C8" t="n">
-        <v>9.45922</v>
+        <v>9.29827</v>
       </c>
       <c r="D8" t="n">
-        <v>10.9455</v>
+        <v>11.3272</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0583</v>
+        <v>11.0866</v>
       </c>
       <c r="C9" t="n">
-        <v>10.6921</v>
+        <v>10.8867</v>
       </c>
       <c r="D9" t="n">
-        <v>12.5019</v>
+        <v>13.0323</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.42822</v>
+        <v>10.3782</v>
       </c>
       <c r="C10" t="n">
-        <v>9.01493</v>
+        <v>10.3839</v>
       </c>
       <c r="D10" t="n">
-        <v>10.8261</v>
+        <v>12.2781</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.84568</v>
+        <v>10.4723</v>
       </c>
       <c r="C11" t="n">
-        <v>9.38106</v>
+        <v>10.2581</v>
       </c>
       <c r="D11" t="n">
-        <v>10.8319</v>
+        <v>12.3139</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.10055</v>
+        <v>10.5573</v>
       </c>
       <c r="C12" t="n">
-        <v>9.64634</v>
+        <v>10.3513</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2539</v>
+        <v>12.4978</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.33418</v>
+        <v>10.5808</v>
       </c>
       <c r="C13" t="n">
-        <v>10.009</v>
+        <v>10.4251</v>
       </c>
       <c r="D13" t="n">
-        <v>11.4088</v>
+        <v>12.653</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.35585</v>
+        <v>10.2453</v>
       </c>
       <c r="C14" t="n">
-        <v>10.024</v>
+        <v>10.4402</v>
       </c>
       <c r="D14" t="n">
-        <v>11.4586</v>
+        <v>12.1144</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.58671</v>
+        <v>10.7106</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2611</v>
+        <v>10.5068</v>
       </c>
       <c r="D15" t="n">
-        <v>11.4508</v>
+        <v>12.691</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.588190000000001</v>
+        <v>10.5786</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3361</v>
+        <v>10.5971</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7724</v>
+        <v>12.636</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.46588</v>
+        <v>10.4994</v>
       </c>
       <c r="C17" t="n">
-        <v>10.4138</v>
+        <v>10.6234</v>
       </c>
       <c r="D17" t="n">
-        <v>11.6075</v>
+        <v>12.7516</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.86213</v>
+        <v>1.846</v>
       </c>
       <c r="C2" t="n">
-        <v>1.91693</v>
+        <v>1.92913</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95782</v>
+        <v>1.95966</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.13418</v>
+        <v>2.89734</v>
       </c>
       <c r="C3" t="n">
-        <v>2.99853</v>
+        <v>3.01995</v>
       </c>
       <c r="D3" t="n">
-        <v>3.41361</v>
+        <v>3.40633</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.3808</v>
+        <v>4.15769</v>
       </c>
       <c r="C4" t="n">
-        <v>4.19249</v>
+        <v>4.21974</v>
       </c>
       <c r="D4" t="n">
-        <v>4.82226</v>
+        <v>4.82864</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.3952</v>
+        <v>5.20491</v>
       </c>
       <c r="C5" t="n">
-        <v>5.3818</v>
+        <v>5.42305</v>
       </c>
       <c r="D5" t="n">
-        <v>6.11586</v>
+        <v>6.1352</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.66135</v>
+        <v>6.35277</v>
       </c>
       <c r="C6" t="n">
-        <v>6.5012</v>
+        <v>6.62745</v>
       </c>
       <c r="D6" t="n">
-        <v>7.35096</v>
+        <v>7.41644</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.74625</v>
+        <v>7.41684</v>
       </c>
       <c r="C7" t="n">
-        <v>7.7117</v>
+        <v>7.75537</v>
       </c>
       <c r="D7" t="n">
-        <v>8.597799999999999</v>
+        <v>8.59642</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.89902</v>
+        <v>8.36022</v>
       </c>
       <c r="C8" t="n">
-        <v>8.92963</v>
+        <v>8.9894</v>
       </c>
       <c r="D8" t="n">
-        <v>9.754849999999999</v>
+        <v>9.792350000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4206</v>
+        <v>9.798439999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5131</v>
+        <v>10.569</v>
       </c>
       <c r="D9" t="n">
-        <v>11.4904</v>
+        <v>11.4958</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.8948</v>
+        <v>8.349309999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>8.928879999999999</v>
+        <v>8.900589999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.552519999999999</v>
+        <v>9.705830000000001</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.29081</v>
+        <v>8.85934</v>
       </c>
       <c r="C11" t="n">
-        <v>9.008459999999999</v>
+        <v>9.04322</v>
       </c>
       <c r="D11" t="n">
-        <v>9.86835</v>
+        <v>9.70096</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.437110000000001</v>
+        <v>8.83845</v>
       </c>
       <c r="C12" t="n">
-        <v>9.26891</v>
+        <v>9.3279</v>
       </c>
       <c r="D12" t="n">
-        <v>9.94392</v>
+        <v>10.1798</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.92427</v>
+        <v>8.886649999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.509819999999999</v>
+        <v>9.63104</v>
       </c>
       <c r="D13" t="n">
-        <v>10.3706</v>
+        <v>10.4664</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.55139</v>
+        <v>8.95467</v>
       </c>
       <c r="C14" t="n">
-        <v>9.69253</v>
+        <v>9.687989999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>10.3417</v>
+        <v>10.2405</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.62079</v>
+        <v>8.89706</v>
       </c>
       <c r="C15" t="n">
-        <v>9.690939999999999</v>
+        <v>9.744619999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>10.4153</v>
+        <v>10.4564</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.939679999999999</v>
+        <v>9.03814</v>
       </c>
       <c r="C16" t="n">
-        <v>9.983650000000001</v>
+        <v>9.928599999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>10.5815</v>
+        <v>10.5896</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.1887</v>
+        <v>9.04368</v>
       </c>
       <c r="C17" t="n">
-        <v>9.974679999999999</v>
+        <v>9.939170000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>10.8804</v>
+        <v>10.5019</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.22012</v>
+        <v>2.20508</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24652</v>
+        <v>2.2452</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29227</v>
+        <v>2.2934</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.56797</v>
+        <v>3.30624</v>
       </c>
       <c r="C3" t="n">
-        <v>3.39386</v>
+        <v>3.35429</v>
       </c>
       <c r="D3" t="n">
-        <v>3.87962</v>
+        <v>3.8021</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.97895</v>
+        <v>4.58313</v>
       </c>
       <c r="C4" t="n">
-        <v>4.59263</v>
+        <v>4.73148</v>
       </c>
       <c r="D4" t="n">
-        <v>5.37644</v>
+        <v>5.46056</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.00185</v>
+        <v>5.99096</v>
       </c>
       <c r="C5" t="n">
-        <v>6.02597</v>
+        <v>6.02532</v>
       </c>
       <c r="D5" t="n">
-        <v>6.87489</v>
+        <v>6.77786</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.35767</v>
+        <v>7.01877</v>
       </c>
       <c r="C6" t="n">
-        <v>7.23514</v>
+        <v>7.24458</v>
       </c>
       <c r="D6" t="n">
-        <v>8.23654</v>
+        <v>8.277620000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.682320000000001</v>
+        <v>8.361319999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>8.53654</v>
+        <v>8.7308</v>
       </c>
       <c r="D7" t="n">
-        <v>9.584860000000001</v>
+        <v>9.66761</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.95518</v>
+        <v>9.41323</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0364</v>
+        <v>10.0592</v>
       </c>
       <c r="D8" t="n">
-        <v>10.8964</v>
+        <v>10.8958</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.9626</v>
+        <v>11.024</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6759</v>
+        <v>11.689</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8071</v>
+        <v>12.8329</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.769819999999999</v>
+        <v>9.84853</v>
       </c>
       <c r="C10" t="n">
-        <v>9.779719999999999</v>
+        <v>9.882389999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>10.6975</v>
+        <v>11.1268</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.4201</v>
+        <v>9.47526</v>
       </c>
       <c r="C11" t="n">
-        <v>10.0145</v>
+        <v>9.967219999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>10.7534</v>
+        <v>10.6862</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6143</v>
+        <v>10.0214</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3904</v>
+        <v>10.3572</v>
       </c>
       <c r="D12" t="n">
-        <v>11.1463</v>
+        <v>11.127</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0566</v>
+        <v>10.0081</v>
       </c>
       <c r="C13" t="n">
-        <v>10.7281</v>
+        <v>10.649</v>
       </c>
       <c r="D13" t="n">
-        <v>11.5208</v>
+        <v>11.4851</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.8518</v>
+        <v>10.1608</v>
       </c>
       <c r="C14" t="n">
-        <v>10.6826</v>
+        <v>10.7834</v>
       </c>
       <c r="D14" t="n">
-        <v>11.554</v>
+        <v>11.5008</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.08</v>
+        <v>10.3631</v>
       </c>
       <c r="C15" t="n">
-        <v>10.9087</v>
+        <v>10.7864</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6201</v>
+        <v>11.6475</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.3717</v>
+        <v>10.1519</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0223</v>
+        <v>10.9264</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7872</v>
+        <v>11.769</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.2764</v>
+        <v>10.0436</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0368</v>
+        <v>11.0818</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8016</v>
+        <v>11.7625</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.02353</v>
+        <v>2.0178</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01327</v>
+        <v>2.01353</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04821</v>
+        <v>2.05174</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.25379</v>
+        <v>3.24327</v>
       </c>
       <c r="C3" t="n">
-        <v>3.15662</v>
+        <v>3.17636</v>
       </c>
       <c r="D3" t="n">
-        <v>3.61877</v>
+        <v>3.57649</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.32518</v>
+        <v>4.36446</v>
       </c>
       <c r="C4" t="n">
-        <v>4.29518</v>
+        <v>4.32401</v>
       </c>
       <c r="D4" t="n">
-        <v>5.1236</v>
+        <v>5.13702</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.56087</v>
+        <v>5.45619</v>
       </c>
       <c r="C5" t="n">
-        <v>5.54103</v>
+        <v>5.6374</v>
       </c>
       <c r="D5" t="n">
-        <v>6.66888</v>
+        <v>6.74967</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.96246</v>
+        <v>6.84316</v>
       </c>
       <c r="C6" t="n">
-        <v>6.84035</v>
+        <v>6.92898</v>
       </c>
       <c r="D6" t="n">
-        <v>8.150320000000001</v>
+        <v>8.26299</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.03936</v>
+        <v>7.91087</v>
       </c>
       <c r="C7" t="n">
-        <v>8.05646</v>
+        <v>8.089650000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9.656980000000001</v>
+        <v>9.67042</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.253270000000001</v>
+        <v>9.062419999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.339919999999999</v>
+        <v>9.316039999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>11.3406</v>
+        <v>11.1176</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7021</v>
+        <v>10.426</v>
       </c>
       <c r="C9" t="n">
-        <v>10.7545</v>
+        <v>10.7585</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8331</v>
+        <v>12.8489</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.038589999999999</v>
+        <v>8.82762</v>
       </c>
       <c r="C10" t="n">
-        <v>9.48645</v>
+        <v>9.05758</v>
       </c>
       <c r="D10" t="n">
-        <v>10.4547</v>
+        <v>10.4975</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.322380000000001</v>
+        <v>9.121409999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>9.24301</v>
+        <v>9.113810000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>10.8681</v>
+        <v>10.965</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.85406</v>
+        <v>9.38546</v>
       </c>
       <c r="C12" t="n">
-        <v>9.527939999999999</v>
+        <v>9.60351</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2858</v>
+        <v>11.2182</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0293</v>
+        <v>9.70026</v>
       </c>
       <c r="C13" t="n">
-        <v>9.93394</v>
+        <v>9.96672</v>
       </c>
       <c r="D13" t="n">
-        <v>11.3859</v>
+        <v>11.7962</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0534</v>
+        <v>9.622339999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0187</v>
+        <v>10.0673</v>
       </c>
       <c r="D14" t="n">
-        <v>11.562</v>
+        <v>11.5776</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0163</v>
+        <v>9.552770000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>10.1721</v>
+        <v>10.2493</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6718</v>
+        <v>11.735</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.3904</v>
+        <v>9.722490000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>10.4099</v>
+        <v>10.3388</v>
       </c>
       <c r="D16" t="n">
-        <v>11.9793</v>
+        <v>11.7102</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.1738</v>
+        <v>9.500819999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5838</v>
+        <v>10.5373</v>
       </c>
       <c r="D17" t="n">
-        <v>12.0732</v>
+        <v>12.2518</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.51285</v>
+        <v>1.45812</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82398</v>
+        <v>1.83353</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86273</v>
+        <v>1.86259</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.79065</v>
+        <v>2.62388</v>
       </c>
       <c r="C3" t="n">
-        <v>2.95361</v>
+        <v>2.9716</v>
       </c>
       <c r="D3" t="n">
-        <v>3.34136</v>
+        <v>3.33741</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.07919</v>
+        <v>3.79635</v>
       </c>
       <c r="C4" t="n">
-        <v>4.15968</v>
+        <v>4.19172</v>
       </c>
       <c r="D4" t="n">
-        <v>4.75693</v>
+        <v>4.77191</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.30855</v>
+        <v>4.8669</v>
       </c>
       <c r="C5" t="n">
-        <v>5.36534</v>
+        <v>5.39338</v>
       </c>
       <c r="D5" t="n">
-        <v>6.06714</v>
+        <v>6.06251</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.51718</v>
+        <v>5.93796</v>
       </c>
       <c r="C6" t="n">
-        <v>6.56294</v>
+        <v>6.59537</v>
       </c>
       <c r="D6" t="n">
-        <v>7.33965</v>
+        <v>7.34157</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.67657</v>
+        <v>6.96766</v>
       </c>
       <c r="C7" t="n">
-        <v>7.7513</v>
+        <v>7.78996</v>
       </c>
       <c r="D7" t="n">
-        <v>8.55655</v>
+        <v>8.553520000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.813470000000001</v>
+        <v>8.00726</v>
       </c>
       <c r="C8" t="n">
-        <v>8.96626</v>
+        <v>9.020250000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.721920000000001</v>
+        <v>9.74549</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.2082</v>
+        <v>9.32202</v>
       </c>
       <c r="C9" t="n">
-        <v>10.4505</v>
+        <v>10.462</v>
       </c>
       <c r="D9" t="n">
-        <v>11.4893</v>
+        <v>11.4977</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.71106</v>
+        <v>8.910159999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.855270000000001</v>
+        <v>10.079</v>
       </c>
       <c r="D10" t="n">
-        <v>10.849</v>
+        <v>10.9478</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.73992</v>
+        <v>8.815670000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.79002</v>
+        <v>9.85385</v>
       </c>
       <c r="D11" t="n">
-        <v>10.9043</v>
+        <v>10.9323</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.785310000000001</v>
+        <v>8.878629999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.82934</v>
+        <v>9.88139</v>
       </c>
       <c r="D12" t="n">
-        <v>10.9589</v>
+        <v>10.8742</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.960430000000001</v>
+        <v>9.076129999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.85486</v>
+        <v>10.0253</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0401</v>
+        <v>11.0846</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.50925</v>
+        <v>8.7174</v>
       </c>
       <c r="C14" t="n">
-        <v>9.941739999999999</v>
+        <v>9.95246</v>
       </c>
       <c r="D14" t="n">
-        <v>10.6052</v>
+        <v>10.6389</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.021</v>
+        <v>9.133240000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0222</v>
+        <v>9.97125</v>
       </c>
       <c r="D15" t="n">
-        <v>11.0699</v>
+        <v>11.0291</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.95496</v>
+        <v>9.10064</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0091</v>
+        <v>10.0926</v>
       </c>
       <c r="D16" t="n">
-        <v>11.069</v>
+        <v>11.0382</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.872909999999999</v>
+        <v>8.94112</v>
       </c>
       <c r="C17" t="n">
-        <v>10.0496</v>
+        <v>10.0749</v>
       </c>
       <c r="D17" t="n">
-        <v>11.0777</v>
+        <v>11.1007</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.74135</v>
+        <v>1.69846</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12784</v>
+        <v>2.12885</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1637</v>
+        <v>2.16639</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.17237</v>
+        <v>2.95267</v>
       </c>
       <c r="C3" t="n">
-        <v>3.3371</v>
+        <v>3.34361</v>
       </c>
       <c r="D3" t="n">
-        <v>3.79427</v>
+        <v>3.797</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.61929</v>
+        <v>4.24219</v>
       </c>
       <c r="C4" t="n">
-        <v>4.67247</v>
+        <v>4.66539</v>
       </c>
       <c r="D4" t="n">
-        <v>5.34667</v>
+        <v>5.35924</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.95748</v>
+        <v>5.42547</v>
       </c>
       <c r="C5" t="n">
-        <v>5.97067</v>
+        <v>5.98261</v>
       </c>
       <c r="D5" t="n">
-        <v>6.80763</v>
+        <v>6.80968</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.28439</v>
+        <v>6.60867</v>
       </c>
       <c r="C6" t="n">
-        <v>7.29178</v>
+        <v>7.30194</v>
       </c>
       <c r="D6" t="n">
-        <v>8.21156</v>
+        <v>8.21292</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.5769</v>
+        <v>7.78632</v>
       </c>
       <c r="C7" t="n">
-        <v>8.60117</v>
+        <v>8.60758</v>
       </c>
       <c r="D7" t="n">
-        <v>9.554410000000001</v>
+        <v>9.549060000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.832319999999999</v>
+        <v>8.893549999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.94346</v>
+        <v>9.973100000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>10.8441</v>
+        <v>10.8589</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.4486</v>
+        <v>10.4015</v>
       </c>
       <c r="C9" t="n">
-        <v>11.546</v>
+        <v>11.577</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8478</v>
+        <v>12.8128</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.9349</v>
+        <v>9.9299</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9609</v>
+        <v>10.9745</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1488</v>
+        <v>12.1001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.9499</v>
+        <v>9.842510000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>10.8319</v>
+        <v>10.8951</v>
       </c>
       <c r="D11" t="n">
-        <v>12.149</v>
+        <v>12.2082</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.8046</v>
+        <v>9.878030000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>10.8883</v>
+        <v>11.0268</v>
       </c>
       <c r="D12" t="n">
-        <v>12.2139</v>
+        <v>12.306</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0501</v>
+        <v>10.0417</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9941</v>
+        <v>10.9942</v>
       </c>
       <c r="D13" t="n">
-        <v>12.3137</v>
+        <v>12.4029</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.6416</v>
+        <v>9.669729999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0082</v>
+        <v>10.9145</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8814</v>
+        <v>11.8777</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.2769</v>
+        <v>10.0808</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0441</v>
+        <v>10.9772</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3381</v>
+        <v>12.3406</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.2189</v>
+        <v>10.0028</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0523</v>
+        <v>11.0995</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2319</v>
+        <v>12.2962</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.9077</v>
+        <v>9.89228</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1554</v>
+        <v>11.1164</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2142</v>
+        <v>12.3411</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.87292</v>
+        <v>1.89623</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97877</v>
+        <v>1.97924</v>
       </c>
       <c r="D2" t="n">
-        <v>2.00744</v>
+        <v>2.01196</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.17471</v>
+        <v>3.09869</v>
       </c>
       <c r="C3" t="n">
-        <v>3.13564</v>
+        <v>3.17206</v>
       </c>
       <c r="D3" t="n">
-        <v>3.58635</v>
+        <v>3.58503</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.51654</v>
+        <v>4.40696</v>
       </c>
       <c r="C4" t="n">
-        <v>4.31898</v>
+        <v>4.40448</v>
       </c>
       <c r="D4" t="n">
-        <v>5.15877</v>
+        <v>5.19221</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.77144</v>
+        <v>5.6128</v>
       </c>
       <c r="C5" t="n">
-        <v>5.54301</v>
+        <v>5.64806</v>
       </c>
       <c r="D5" t="n">
-        <v>6.7283</v>
+        <v>6.73786</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.03485</v>
+        <v>6.81538</v>
       </c>
       <c r="C6" t="n">
-        <v>6.78341</v>
+        <v>6.90124</v>
       </c>
       <c r="D6" t="n">
-        <v>8.2433</v>
+        <v>8.271649999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.249890000000001</v>
+        <v>7.93201</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0336</v>
+        <v>8.021190000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9.72077</v>
+        <v>9.73006</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.27261</v>
+        <v>9.175560000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.29827</v>
+        <v>9.31479</v>
       </c>
       <c r="D8" t="n">
-        <v>11.3272</v>
+        <v>11.2192</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0866</v>
+        <v>10.6655</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8867</v>
+        <v>10.7637</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0323</v>
+        <v>13.0779</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.3782</v>
+        <v>10.1906</v>
       </c>
       <c r="C10" t="n">
-        <v>10.3839</v>
+        <v>10.3749</v>
       </c>
       <c r="D10" t="n">
-        <v>12.2781</v>
+        <v>12.3116</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.4723</v>
+        <v>10.1348</v>
       </c>
       <c r="C11" t="n">
-        <v>10.2581</v>
+        <v>10.3148</v>
       </c>
       <c r="D11" t="n">
-        <v>12.3139</v>
+        <v>12.3794</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.5573</v>
+        <v>10.1555</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3513</v>
+        <v>10.2154</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4978</v>
+        <v>12.3695</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.5808</v>
+        <v>10.36</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4251</v>
+        <v>10.4565</v>
       </c>
       <c r="D13" t="n">
-        <v>12.653</v>
+        <v>12.6874</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.2453</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>10.4402</v>
+        <v>10.4168</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1144</v>
+        <v>12.1504</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.7106</v>
+        <v>10.3394</v>
       </c>
       <c r="C15" t="n">
-        <v>10.5068</v>
+        <v>10.4754</v>
       </c>
       <c r="D15" t="n">
-        <v>12.691</v>
+        <v>12.7507</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.5786</v>
+        <v>10.2228</v>
       </c>
       <c r="C16" t="n">
-        <v>10.5971</v>
+        <v>10.5782</v>
       </c>
       <c r="D16" t="n">
-        <v>12.636</v>
+        <v>12.6491</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.4994</v>
+        <v>10.0959</v>
       </c>
       <c r="C17" t="n">
-        <v>10.6234</v>
+        <v>10.6407</v>
       </c>
       <c r="D17" t="n">
-        <v>12.7516</v>
+        <v>12.8098</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.846</v>
+        <v>1.84479</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92913</v>
+        <v>1.92805</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95966</v>
+        <v>1.96139</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.89734</v>
+        <v>2.89589</v>
       </c>
       <c r="C3" t="n">
-        <v>3.01995</v>
+        <v>3.01442</v>
       </c>
       <c r="D3" t="n">
-        <v>3.40633</v>
+        <v>3.4229</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.15769</v>
+        <v>4.16905</v>
       </c>
       <c r="C4" t="n">
-        <v>4.21974</v>
+        <v>4.22988</v>
       </c>
       <c r="D4" t="n">
-        <v>4.82864</v>
+        <v>4.83707</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.20491</v>
+        <v>5.26971</v>
       </c>
       <c r="C5" t="n">
-        <v>5.42305</v>
+        <v>5.43491</v>
       </c>
       <c r="D5" t="n">
-        <v>6.1352</v>
+        <v>6.14086</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.35277</v>
+        <v>6.28254</v>
       </c>
       <c r="C6" t="n">
-        <v>6.62745</v>
+        <v>6.53802</v>
       </c>
       <c r="D6" t="n">
-        <v>7.41644</v>
+        <v>7.39226</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.41684</v>
+        <v>7.30088</v>
       </c>
       <c r="C7" t="n">
-        <v>7.75537</v>
+        <v>7.74881</v>
       </c>
       <c r="D7" t="n">
-        <v>8.59642</v>
+        <v>8.63969</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.36022</v>
+        <v>8.35629</v>
       </c>
       <c r="C8" t="n">
-        <v>8.9894</v>
+        <v>9.095789999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.792350000000001</v>
+        <v>9.827310000000001</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.798439999999999</v>
+        <v>9.99169</v>
       </c>
       <c r="C9" t="n">
-        <v>10.569</v>
+        <v>10.564</v>
       </c>
       <c r="D9" t="n">
-        <v>11.4958</v>
+        <v>11.5251</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.349309999999999</v>
+        <v>8.52731</v>
       </c>
       <c r="C10" t="n">
-        <v>8.900589999999999</v>
+        <v>8.837389999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.705830000000001</v>
+        <v>9.45275</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.85934</v>
+        <v>8.60533</v>
       </c>
       <c r="C11" t="n">
-        <v>9.04322</v>
+        <v>8.9849</v>
       </c>
       <c r="D11" t="n">
-        <v>9.70096</v>
+        <v>9.740640000000001</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.83845</v>
+        <v>8.6616</v>
       </c>
       <c r="C12" t="n">
-        <v>9.3279</v>
+        <v>9.36985</v>
       </c>
       <c r="D12" t="n">
-        <v>10.1798</v>
+        <v>10.3241</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.886649999999999</v>
+        <v>8.79752</v>
       </c>
       <c r="C13" t="n">
-        <v>9.63104</v>
+        <v>9.651339999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>10.4664</v>
+        <v>10.5264</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.95467</v>
+        <v>8.89509</v>
       </c>
       <c r="C14" t="n">
-        <v>9.687989999999999</v>
+        <v>9.87355</v>
       </c>
       <c r="D14" t="n">
-        <v>10.2405</v>
+        <v>10.3131</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.89706</v>
+        <v>9.18812</v>
       </c>
       <c r="C15" t="n">
-        <v>9.744619999999999</v>
+        <v>9.8109</v>
       </c>
       <c r="D15" t="n">
-        <v>10.4564</v>
+        <v>10.419</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.03814</v>
+        <v>9.208729999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.928599999999999</v>
+        <v>9.84615</v>
       </c>
       <c r="D16" t="n">
-        <v>10.5896</v>
+        <v>10.6616</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.04368</v>
+        <v>9.08676</v>
       </c>
       <c r="C17" t="n">
-        <v>9.939170000000001</v>
+        <v>10.0293</v>
       </c>
       <c r="D17" t="n">
-        <v>10.5019</v>
+        <v>10.764</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20508</v>
+        <v>2.20549</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2452</v>
+        <v>2.24445</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2934</v>
+        <v>2.28856</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.30624</v>
+        <v>3.42967</v>
       </c>
       <c r="C3" t="n">
-        <v>3.35429</v>
+        <v>3.40065</v>
       </c>
       <c r="D3" t="n">
-        <v>3.8021</v>
+        <v>3.88573</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.58313</v>
+        <v>4.75739</v>
       </c>
       <c r="C4" t="n">
-        <v>4.73148</v>
+        <v>4.71411</v>
       </c>
       <c r="D4" t="n">
-        <v>5.46056</v>
+        <v>5.44449</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.99096</v>
+        <v>5.99627</v>
       </c>
       <c r="C5" t="n">
-        <v>6.02532</v>
+        <v>5.9036</v>
       </c>
       <c r="D5" t="n">
-        <v>6.77786</v>
+        <v>6.83333</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.01877</v>
+        <v>7.02541</v>
       </c>
       <c r="C6" t="n">
-        <v>7.24458</v>
+        <v>7.22851</v>
       </c>
       <c r="D6" t="n">
-        <v>8.277620000000001</v>
+        <v>8.24391</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.361319999999999</v>
+        <v>8.224170000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.7308</v>
+        <v>8.548450000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9.66761</v>
+        <v>9.60591</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.41323</v>
+        <v>9.38321</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0592</v>
+        <v>10.0347</v>
       </c>
       <c r="D8" t="n">
-        <v>10.8958</v>
+        <v>10.9028</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.024</v>
+        <v>11.2787</v>
       </c>
       <c r="C9" t="n">
-        <v>11.689</v>
+        <v>11.6693</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8329</v>
+        <v>12.8334</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.84853</v>
+        <v>9.304</v>
       </c>
       <c r="C10" t="n">
-        <v>9.882389999999999</v>
+        <v>9.88022</v>
       </c>
       <c r="D10" t="n">
-        <v>11.1268</v>
+        <v>11.1187</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.47526</v>
+        <v>9.44415</v>
       </c>
       <c r="C11" t="n">
-        <v>9.967219999999999</v>
+        <v>10.1158</v>
       </c>
       <c r="D11" t="n">
-        <v>10.6862</v>
+        <v>10.8752</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.0214</v>
+        <v>9.92503</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3572</v>
+        <v>10.3018</v>
       </c>
       <c r="D12" t="n">
-        <v>11.127</v>
+        <v>11.3756</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0081</v>
+        <v>10.16</v>
       </c>
       <c r="C13" t="n">
-        <v>10.649</v>
+        <v>10.5071</v>
       </c>
       <c r="D13" t="n">
-        <v>11.4851</v>
+        <v>11.5865</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.1608</v>
+        <v>10.224</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7834</v>
+        <v>10.6886</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5008</v>
+        <v>11.4381</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.3631</v>
+        <v>10.1345</v>
       </c>
       <c r="C15" t="n">
-        <v>10.7864</v>
+        <v>10.8748</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6475</v>
+        <v>11.5824</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.1519</v>
+        <v>10.1988</v>
       </c>
       <c r="C16" t="n">
-        <v>10.9264</v>
+        <v>10.9235</v>
       </c>
       <c r="D16" t="n">
-        <v>11.769</v>
+        <v>11.6098</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0436</v>
+        <v>10.093</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0818</v>
+        <v>11.004</v>
       </c>
       <c r="D17" t="n">
-        <v>11.7625</v>
+        <v>11.9418</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0178</v>
+        <v>2.01923</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01353</v>
+        <v>2.01393</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05174</v>
+        <v>2.05125</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.24327</v>
+        <v>3.16905</v>
       </c>
       <c r="C3" t="n">
-        <v>3.17636</v>
+        <v>3.14958</v>
       </c>
       <c r="D3" t="n">
-        <v>3.57649</v>
+        <v>3.62322</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.36446</v>
+        <v>4.4587</v>
       </c>
       <c r="C4" t="n">
-        <v>4.32401</v>
+        <v>4.40416</v>
       </c>
       <c r="D4" t="n">
-        <v>5.13702</v>
+        <v>5.22488</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.45619</v>
+        <v>5.65605</v>
       </c>
       <c r="C5" t="n">
-        <v>5.6374</v>
+        <v>5.66898</v>
       </c>
       <c r="D5" t="n">
-        <v>6.74967</v>
+        <v>6.77928</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.84316</v>
+        <v>6.84274</v>
       </c>
       <c r="C6" t="n">
-        <v>6.92898</v>
+        <v>6.91834</v>
       </c>
       <c r="D6" t="n">
-        <v>8.26299</v>
+        <v>8.27154</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.91087</v>
+        <v>7.86233</v>
       </c>
       <c r="C7" t="n">
-        <v>8.089650000000001</v>
+        <v>8.153729999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>9.67042</v>
+        <v>9.746090000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.062419999999999</v>
+        <v>9.13616</v>
       </c>
       <c r="C8" t="n">
-        <v>9.316039999999999</v>
+        <v>9.31874</v>
       </c>
       <c r="D8" t="n">
-        <v>11.1176</v>
+        <v>11.2134</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.426</v>
+        <v>10.5217</v>
       </c>
       <c r="C9" t="n">
-        <v>10.7585</v>
+        <v>10.9106</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8489</v>
+        <v>13.0873</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.82762</v>
+        <v>9.03106</v>
       </c>
       <c r="C10" t="n">
-        <v>9.05758</v>
+        <v>8.99567</v>
       </c>
       <c r="D10" t="n">
-        <v>10.4975</v>
+        <v>10.5543</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.121409999999999</v>
+        <v>9.0123</v>
       </c>
       <c r="C11" t="n">
-        <v>9.113810000000001</v>
+        <v>9.184430000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>10.965</v>
+        <v>10.873</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.38546</v>
+        <v>9.384650000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.60351</v>
+        <v>9.812250000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>11.2182</v>
+        <v>11.248</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.70026</v>
+        <v>9.460990000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.96672</v>
+        <v>9.94408</v>
       </c>
       <c r="D13" t="n">
-        <v>11.7962</v>
+        <v>11.7464</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.622339999999999</v>
+        <v>9.574759999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0673</v>
+        <v>10.0539</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5776</v>
+        <v>11.6401</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.552770000000001</v>
+        <v>9.34835</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2493</v>
+        <v>10.106</v>
       </c>
       <c r="D15" t="n">
-        <v>11.735</v>
+        <v>11.7668</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.722490000000001</v>
+        <v>9.617599999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3388</v>
+        <v>10.3792</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7102</v>
+        <v>12.0079</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.500819999999999</v>
+        <v>9.64226</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5373</v>
+        <v>10.5774</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2518</v>
+        <v>11.8652</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.45812</v>
+        <v>1.46275</v>
       </c>
       <c r="C2" t="n">
-        <v>1.83353</v>
+        <v>1.8321</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86259</v>
+        <v>1.86271</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62388</v>
+        <v>2.62987</v>
       </c>
       <c r="C3" t="n">
-        <v>2.9716</v>
+        <v>2.97414</v>
       </c>
       <c r="D3" t="n">
-        <v>3.33741</v>
+        <v>3.34931</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.79635</v>
+        <v>3.79502</v>
       </c>
       <c r="C4" t="n">
-        <v>4.19172</v>
+        <v>4.19766</v>
       </c>
       <c r="D4" t="n">
-        <v>4.77191</v>
+        <v>4.78366</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.8669</v>
+        <v>4.87968</v>
       </c>
       <c r="C5" t="n">
-        <v>5.39338</v>
+        <v>5.39552</v>
       </c>
       <c r="D5" t="n">
-        <v>6.06251</v>
+        <v>6.08191</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.93796</v>
+        <v>5.9454</v>
       </c>
       <c r="C6" t="n">
-        <v>6.59537</v>
+        <v>6.59781</v>
       </c>
       <c r="D6" t="n">
-        <v>7.34157</v>
+        <v>7.36553</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.96766</v>
+        <v>6.98518</v>
       </c>
       <c r="C7" t="n">
-        <v>7.78996</v>
+        <v>7.78974</v>
       </c>
       <c r="D7" t="n">
-        <v>8.553520000000001</v>
+        <v>8.58938</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.00726</v>
+        <v>8.013669999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.020250000000001</v>
+        <v>9.020619999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.74549</v>
+        <v>9.784369999999999</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.32202</v>
+        <v>9.31423</v>
       </c>
       <c r="C9" t="n">
-        <v>10.462</v>
+        <v>10.5133</v>
       </c>
       <c r="D9" t="n">
-        <v>11.4977</v>
+        <v>11.5414</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.910159999999999</v>
+        <v>8.957850000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>10.079</v>
+        <v>9.95865</v>
       </c>
       <c r="D10" t="n">
-        <v>10.9478</v>
+        <v>10.7473</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.815670000000001</v>
+        <v>8.827920000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.85385</v>
+        <v>9.82175</v>
       </c>
       <c r="D11" t="n">
-        <v>10.9323</v>
+        <v>10.8849</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.878629999999999</v>
+        <v>8.93304</v>
       </c>
       <c r="C12" t="n">
-        <v>9.88139</v>
+        <v>9.835649999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>10.8742</v>
+        <v>10.932</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.076129999999999</v>
+        <v>9.07737</v>
       </c>
       <c r="C13" t="n">
-        <v>10.0253</v>
+        <v>9.985469999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0846</v>
+        <v>11.1151</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.7174</v>
+        <v>8.693949999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>9.95246</v>
+        <v>9.94464</v>
       </c>
       <c r="D14" t="n">
-        <v>10.6389</v>
+        <v>10.6718</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.133240000000001</v>
+        <v>9.081630000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>9.97125</v>
+        <v>10.0503</v>
       </c>
       <c r="D15" t="n">
-        <v>11.0291</v>
+        <v>11.1273</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.10064</v>
+        <v>8.99849</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0926</v>
+        <v>10.0194</v>
       </c>
       <c r="D16" t="n">
-        <v>11.0382</v>
+        <v>11.0698</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.94112</v>
+        <v>8.96885</v>
       </c>
       <c r="C17" t="n">
-        <v>10.0749</v>
+        <v>10.097</v>
       </c>
       <c r="D17" t="n">
-        <v>11.1007</v>
+        <v>11.2031</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.69846</v>
+        <v>1.68408</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12885</v>
+        <v>2.12427</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16639</v>
+        <v>2.16325</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.95267</v>
+        <v>2.95244</v>
       </c>
       <c r="C3" t="n">
-        <v>3.34361</v>
+        <v>3.34229</v>
       </c>
       <c r="D3" t="n">
-        <v>3.797</v>
+        <v>3.79535</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.24219</v>
+        <v>4.26816</v>
       </c>
       <c r="C4" t="n">
-        <v>4.66539</v>
+        <v>4.68277</v>
       </c>
       <c r="D4" t="n">
-        <v>5.35924</v>
+        <v>5.38689</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.42547</v>
+        <v>5.4179</v>
       </c>
       <c r="C5" t="n">
-        <v>5.98261</v>
+        <v>5.9864</v>
       </c>
       <c r="D5" t="n">
-        <v>6.80968</v>
+        <v>6.8149</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.60867</v>
+        <v>6.62422</v>
       </c>
       <c r="C6" t="n">
-        <v>7.30194</v>
+        <v>7.30037</v>
       </c>
       <c r="D6" t="n">
-        <v>8.21292</v>
+        <v>8.22691</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.78632</v>
+        <v>7.75427</v>
       </c>
       <c r="C7" t="n">
-        <v>8.60758</v>
+        <v>8.61406</v>
       </c>
       <c r="D7" t="n">
-        <v>9.549060000000001</v>
+        <v>9.56108</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.893549999999999</v>
+        <v>8.882479999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.973100000000001</v>
+        <v>9.99391</v>
       </c>
       <c r="D8" t="n">
-        <v>10.8589</v>
+        <v>10.8838</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4015</v>
+        <v>10.365</v>
       </c>
       <c r="C9" t="n">
-        <v>11.577</v>
+        <v>11.624</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8128</v>
+        <v>12.8792</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.9299</v>
+        <v>10.0104</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9745</v>
+        <v>10.9939</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1001</v>
+        <v>12.2469</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.842510000000001</v>
+        <v>9.72209</v>
       </c>
       <c r="C11" t="n">
-        <v>10.8951</v>
+        <v>10.7938</v>
       </c>
       <c r="D11" t="n">
-        <v>12.2082</v>
+        <v>12.1577</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.878030000000001</v>
+        <v>9.96763</v>
       </c>
       <c r="C12" t="n">
-        <v>11.0268</v>
+        <v>10.971</v>
       </c>
       <c r="D12" t="n">
-        <v>12.306</v>
+        <v>12.2462</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0417</v>
+        <v>10.1189</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9942</v>
+        <v>11.0054</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4029</v>
+        <v>12.3683</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.669729999999999</v>
+        <v>9.668150000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>10.9145</v>
+        <v>11.0078</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8777</v>
+        <v>11.8482</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0808</v>
+        <v>10.0732</v>
       </c>
       <c r="C15" t="n">
-        <v>10.9772</v>
+        <v>11.0231</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3406</v>
+        <v>12.3158</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0028</v>
+        <v>9.85252</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0995</v>
+        <v>11.1196</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2962</v>
+        <v>12.2848</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.89228</v>
+        <v>9.91358</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1164</v>
+        <v>11.1559</v>
       </c>
       <c r="D17" t="n">
-        <v>12.3411</v>
+        <v>12.3522</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.89623</v>
+        <v>1.8927</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97924</v>
+        <v>1.97803</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01196</v>
+        <v>2.01015</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.09869</v>
+        <v>3.10296</v>
       </c>
       <c r="C3" t="n">
-        <v>3.17206</v>
+        <v>3.17145</v>
       </c>
       <c r="D3" t="n">
-        <v>3.58503</v>
+        <v>3.61182</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.40696</v>
+        <v>4.39842</v>
       </c>
       <c r="C4" t="n">
-        <v>4.40448</v>
+        <v>4.40151</v>
       </c>
       <c r="D4" t="n">
-        <v>5.19221</v>
+        <v>5.1695</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.6128</v>
+        <v>5.6037</v>
       </c>
       <c r="C5" t="n">
-        <v>5.64806</v>
+        <v>5.64546</v>
       </c>
       <c r="D5" t="n">
-        <v>6.73786</v>
+        <v>6.70393</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.81538</v>
+        <v>6.80787</v>
       </c>
       <c r="C6" t="n">
-        <v>6.90124</v>
+        <v>6.9071</v>
       </c>
       <c r="D6" t="n">
-        <v>8.271649999999999</v>
+        <v>8.28289</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.93201</v>
+        <v>7.93878</v>
       </c>
       <c r="C7" t="n">
-        <v>8.021190000000001</v>
+        <v>8.022500000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9.73006</v>
+        <v>9.749420000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.175560000000001</v>
+        <v>9.160069999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.31479</v>
+        <v>9.33344</v>
       </c>
       <c r="D8" t="n">
-        <v>11.2192</v>
+        <v>11.2593</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6655</v>
+        <v>10.6944</v>
       </c>
       <c r="C9" t="n">
-        <v>10.7637</v>
+        <v>10.8353</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0779</v>
+        <v>13.1051</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.1906</v>
+        <v>10.2834</v>
       </c>
       <c r="C10" t="n">
-        <v>10.3749</v>
+        <v>10.4382</v>
       </c>
       <c r="D10" t="n">
-        <v>12.3116</v>
+        <v>12.3782</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.1348</v>
+        <v>10.2201</v>
       </c>
       <c r="C11" t="n">
-        <v>10.3148</v>
+        <v>10.2507</v>
       </c>
       <c r="D11" t="n">
-        <v>12.3794</v>
+        <v>12.4193</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1555</v>
+        <v>10.2575</v>
       </c>
       <c r="C12" t="n">
-        <v>10.2154</v>
+        <v>10.3937</v>
       </c>
       <c r="D12" t="n">
-        <v>12.3695</v>
+        <v>12.4455</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.36</v>
+        <v>10.3455</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4565</v>
+        <v>10.3297</v>
       </c>
       <c r="D13" t="n">
-        <v>12.6874</v>
+        <v>12.6702</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.962400000000001</v>
+        <v>9.95173</v>
       </c>
       <c r="C14" t="n">
-        <v>10.4168</v>
+        <v>10.4802</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1504</v>
+        <v>12.1703</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.3394</v>
+        <v>10.4589</v>
       </c>
       <c r="C15" t="n">
-        <v>10.4754</v>
+        <v>10.505</v>
       </c>
       <c r="D15" t="n">
-        <v>12.7507</v>
+        <v>12.6572</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.2228</v>
+        <v>10.3459</v>
       </c>
       <c r="C16" t="n">
-        <v>10.5782</v>
+        <v>10.555</v>
       </c>
       <c r="D16" t="n">
-        <v>12.6491</v>
+        <v>12.6676</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0959</v>
+        <v>10.172</v>
       </c>
       <c r="C17" t="n">
-        <v>10.6407</v>
+        <v>10.5994</v>
       </c>
       <c r="D17" t="n">
-        <v>12.8098</v>
+        <v>12.7191</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.84479</v>
+        <v>1.84532</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92805</v>
+        <v>1.9307</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96139</v>
+        <v>1.83826</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.89589</v>
+        <v>2.8783</v>
       </c>
       <c r="C3" t="n">
-        <v>3.01442</v>
+        <v>3.01198</v>
       </c>
       <c r="D3" t="n">
-        <v>3.4229</v>
+        <v>3.31809</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.16905</v>
+        <v>4.1794</v>
       </c>
       <c r="C4" t="n">
-        <v>4.22988</v>
+        <v>4.24207</v>
       </c>
       <c r="D4" t="n">
-        <v>4.83707</v>
+        <v>4.75208</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.26971</v>
+        <v>5.2556</v>
       </c>
       <c r="C5" t="n">
-        <v>5.43491</v>
+        <v>5.43474</v>
       </c>
       <c r="D5" t="n">
-        <v>6.14086</v>
+        <v>6.2553</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.28254</v>
+        <v>6.23103</v>
       </c>
       <c r="C6" t="n">
-        <v>6.53802</v>
+        <v>6.64262</v>
       </c>
       <c r="D6" t="n">
-        <v>7.39226</v>
+        <v>7.69225</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.30088</v>
+        <v>7.28192</v>
       </c>
       <c r="C7" t="n">
-        <v>7.74881</v>
+        <v>7.76041</v>
       </c>
       <c r="D7" t="n">
-        <v>8.63969</v>
+        <v>9.02689</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.35629</v>
+        <v>8.31697</v>
       </c>
       <c r="C8" t="n">
-        <v>9.095789999999999</v>
+        <v>9.092919999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>9.827310000000001</v>
+        <v>10.4657</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.99169</v>
+        <v>9.934480000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>10.564</v>
+        <v>10.582</v>
       </c>
       <c r="D9" t="n">
-        <v>11.5251</v>
+        <v>12.1563</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.52731</v>
+        <v>8.571820000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>8.837389999999999</v>
+        <v>9.22486</v>
       </c>
       <c r="D10" t="n">
-        <v>9.45275</v>
+        <v>10.1324</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.60533</v>
+        <v>8.78162</v>
       </c>
       <c r="C11" t="n">
-        <v>8.9849</v>
+        <v>9.133710000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>9.740640000000001</v>
+        <v>10.1587</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.6616</v>
+        <v>8.87152</v>
       </c>
       <c r="C12" t="n">
-        <v>9.36985</v>
+        <v>9.325369999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>10.3241</v>
+        <v>10.5409</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.79752</v>
+        <v>9.0724</v>
       </c>
       <c r="C13" t="n">
-        <v>9.651339999999999</v>
+        <v>9.647819999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>10.5264</v>
+        <v>10.9953</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.89509</v>
+        <v>9.01192</v>
       </c>
       <c r="C14" t="n">
-        <v>9.87355</v>
+        <v>9.67029</v>
       </c>
       <c r="D14" t="n">
-        <v>10.3131</v>
+        <v>10.7269</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.18812</v>
+        <v>9.06251</v>
       </c>
       <c r="C15" t="n">
-        <v>9.8109</v>
+        <v>9.805479999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>10.419</v>
+        <v>10.9915</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.208729999999999</v>
+        <v>9.022880000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9.84615</v>
+        <v>9.88091</v>
       </c>
       <c r="D16" t="n">
-        <v>10.6616</v>
+        <v>11.1996</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.08676</v>
+        <v>9.011060000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10.0293</v>
+        <v>10.0082</v>
       </c>
       <c r="D17" t="n">
-        <v>10.764</v>
+        <v>11.6354</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20549</v>
+        <v>2.20296</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24445</v>
+        <v>2.24488</v>
       </c>
       <c r="D2" t="n">
-        <v>2.28856</v>
+        <v>2.29489</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42967</v>
+        <v>3.44909</v>
       </c>
       <c r="C3" t="n">
-        <v>3.40065</v>
+        <v>3.38623</v>
       </c>
       <c r="D3" t="n">
-        <v>3.88573</v>
+        <v>4.02621</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.75739</v>
+        <v>4.78835</v>
       </c>
       <c r="C4" t="n">
-        <v>4.71411</v>
+        <v>4.65323</v>
       </c>
       <c r="D4" t="n">
-        <v>5.44449</v>
+        <v>5.71029</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.99627</v>
+        <v>6.00115</v>
       </c>
       <c r="C5" t="n">
-        <v>5.9036</v>
+        <v>5.92837</v>
       </c>
       <c r="D5" t="n">
-        <v>6.83333</v>
+        <v>7.40981</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.02541</v>
+        <v>7.01767</v>
       </c>
       <c r="C6" t="n">
-        <v>7.22851</v>
+        <v>7.24833</v>
       </c>
       <c r="D6" t="n">
-        <v>8.24391</v>
+        <v>9.100630000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.224170000000001</v>
+        <v>8.1966</v>
       </c>
       <c r="C7" t="n">
-        <v>8.548450000000001</v>
+        <v>8.66344</v>
       </c>
       <c r="D7" t="n">
-        <v>9.60591</v>
+        <v>10.8015</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.38321</v>
+        <v>9.536160000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0347</v>
+        <v>10.0569</v>
       </c>
       <c r="D8" t="n">
-        <v>10.9028</v>
+        <v>12.4594</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.2787</v>
+        <v>11.2264</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6693</v>
+        <v>11.7064</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8334</v>
+        <v>14.3975</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.304</v>
+        <v>9.34168</v>
       </c>
       <c r="C10" t="n">
-        <v>9.88022</v>
+        <v>10.0092</v>
       </c>
       <c r="D10" t="n">
-        <v>11.1187</v>
+        <v>11.6739</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.44415</v>
+        <v>9.78994</v>
       </c>
       <c r="C11" t="n">
-        <v>10.1158</v>
+        <v>9.983370000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>10.8752</v>
+        <v>12.0068</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.92503</v>
+        <v>9.993460000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3018</v>
+        <v>10.389</v>
       </c>
       <c r="D12" t="n">
-        <v>11.3756</v>
+        <v>12.5891</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.16</v>
+        <v>9.90714</v>
       </c>
       <c r="C13" t="n">
-        <v>10.5071</v>
+        <v>10.5866</v>
       </c>
       <c r="D13" t="n">
-        <v>11.5865</v>
+        <v>12.9029</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.224</v>
+        <v>10.0723</v>
       </c>
       <c r="C14" t="n">
-        <v>10.6886</v>
+        <v>10.7997</v>
       </c>
       <c r="D14" t="n">
-        <v>11.4381</v>
+        <v>12.7134</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1345</v>
+        <v>10.182</v>
       </c>
       <c r="C15" t="n">
-        <v>10.8748</v>
+        <v>10.8177</v>
       </c>
       <c r="D15" t="n">
-        <v>11.5824</v>
+        <v>12.9885</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.1988</v>
+        <v>10.2453</v>
       </c>
       <c r="C16" t="n">
-        <v>10.9235</v>
+        <v>10.9856</v>
       </c>
       <c r="D16" t="n">
-        <v>11.6098</v>
+        <v>13.2561</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.093</v>
+        <v>10.2711</v>
       </c>
       <c r="C17" t="n">
-        <v>11.004</v>
+        <v>11.0292</v>
       </c>
       <c r="D17" t="n">
-        <v>11.9418</v>
+        <v>13.57</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01923</v>
+        <v>2.01957</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01393</v>
+        <v>2.01267</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05125</v>
+        <v>2.05035</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.16905</v>
+        <v>3.1664</v>
       </c>
       <c r="C3" t="n">
-        <v>3.14958</v>
+        <v>3.18893</v>
       </c>
       <c r="D3" t="n">
-        <v>3.62322</v>
+        <v>3.67358</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4587</v>
+        <v>4.26409</v>
       </c>
       <c r="C4" t="n">
-        <v>4.40416</v>
+        <v>4.34265</v>
       </c>
       <c r="D4" t="n">
-        <v>5.22488</v>
+        <v>5.35027</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.65605</v>
+        <v>5.66091</v>
       </c>
       <c r="C5" t="n">
-        <v>5.66898</v>
+        <v>5.66953</v>
       </c>
       <c r="D5" t="n">
-        <v>6.77928</v>
+        <v>6.99235</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.84274</v>
+        <v>6.77811</v>
       </c>
       <c r="C6" t="n">
-        <v>6.91834</v>
+        <v>6.93218</v>
       </c>
       <c r="D6" t="n">
-        <v>8.27154</v>
+        <v>8.62668</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.86233</v>
+        <v>7.99019</v>
       </c>
       <c r="C7" t="n">
-        <v>8.153729999999999</v>
+        <v>8.19603</v>
       </c>
       <c r="D7" t="n">
-        <v>9.746090000000001</v>
+        <v>10.2165</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.13616</v>
+        <v>8.976459999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.31874</v>
+        <v>9.445309999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>11.2134</v>
+        <v>11.8437</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.5217</v>
+        <v>10.4494</v>
       </c>
       <c r="C9" t="n">
-        <v>10.9106</v>
+        <v>10.7555</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0873</v>
+        <v>13.6188</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.03106</v>
+        <v>8.862310000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>8.99567</v>
+        <v>8.97606</v>
       </c>
       <c r="D10" t="n">
-        <v>10.5543</v>
+        <v>11.4997</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.0123</v>
+        <v>8.90348</v>
       </c>
       <c r="C11" t="n">
-        <v>9.184430000000001</v>
+        <v>9.13313</v>
       </c>
       <c r="D11" t="n">
-        <v>10.873</v>
+        <v>11.2011</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.384650000000001</v>
+        <v>9.301349999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.812250000000001</v>
+        <v>9.69769</v>
       </c>
       <c r="D12" t="n">
-        <v>11.248</v>
+        <v>11.8224</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.460990000000001</v>
+        <v>9.650600000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.94408</v>
+        <v>9.814030000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>11.7464</v>
+        <v>12.4186</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.574759999999999</v>
+        <v>9.45467</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0539</v>
+        <v>9.987109999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>11.6401</v>
+        <v>12.0627</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.34835</v>
+        <v>9.50501</v>
       </c>
       <c r="C15" t="n">
-        <v>10.106</v>
+        <v>10.2429</v>
       </c>
       <c r="D15" t="n">
-        <v>11.7668</v>
+        <v>12.426</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.617599999999999</v>
+        <v>9.48715</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3792</v>
+        <v>10.3164</v>
       </c>
       <c r="D16" t="n">
-        <v>12.0079</v>
+        <v>12.4961</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.64226</v>
+        <v>9.35689</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5774</v>
+        <v>10.425</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8652</v>
+        <v>12.7489</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.46275</v>
+        <v>1.46235</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8321</v>
+        <v>1.83276</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86271</v>
+        <v>1.75227</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62987</v>
+        <v>2.63718</v>
       </c>
       <c r="C3" t="n">
-        <v>2.97414</v>
+        <v>2.98183</v>
       </c>
       <c r="D3" t="n">
-        <v>3.34931</v>
+        <v>3.26396</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.79502</v>
+        <v>3.79725</v>
       </c>
       <c r="C4" t="n">
-        <v>4.19766</v>
+        <v>4.18765</v>
       </c>
       <c r="D4" t="n">
-        <v>4.78366</v>
+        <v>4.75119</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.87968</v>
+        <v>4.88206</v>
       </c>
       <c r="C5" t="n">
-        <v>5.39552</v>
+        <v>5.40178</v>
       </c>
       <c r="D5" t="n">
-        <v>6.08191</v>
+        <v>6.20497</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.9454</v>
+        <v>5.95524</v>
       </c>
       <c r="C6" t="n">
-        <v>6.59781</v>
+        <v>6.59792</v>
       </c>
       <c r="D6" t="n">
-        <v>7.36553</v>
+        <v>7.62901</v>
       </c>
     </row>
     <row r="7">
@@ -4952,10 +4952,10 @@
         <v>6.98518</v>
       </c>
       <c r="C7" t="n">
-        <v>7.78974</v>
+        <v>7.79693</v>
       </c>
       <c r="D7" t="n">
-        <v>8.58938</v>
+        <v>9.03783</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.013669999999999</v>
+        <v>8.031790000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.020619999999999</v>
+        <v>9.01623</v>
       </c>
       <c r="D8" t="n">
-        <v>9.784369999999999</v>
+        <v>10.4484</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.31423</v>
+        <v>9.33813</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5133</v>
+        <v>10.5224</v>
       </c>
       <c r="D9" t="n">
-        <v>11.5414</v>
+        <v>12.1644</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.957850000000001</v>
+        <v>8.972799999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.95865</v>
+        <v>10.0316</v>
       </c>
       <c r="D10" t="n">
-        <v>10.7473</v>
+        <v>11.3039</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.827920000000001</v>
+        <v>8.8371</v>
       </c>
       <c r="C11" t="n">
-        <v>9.82175</v>
+        <v>9.693720000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>10.8849</v>
+        <v>11.394</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.93304</v>
+        <v>8.899609999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.835649999999999</v>
+        <v>9.779059999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>10.932</v>
+        <v>11.5797</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.07737</v>
+        <v>9.085850000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.985469999999999</v>
+        <v>9.987679999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>11.1151</v>
+        <v>11.7455</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.693949999999999</v>
+        <v>8.69591</v>
       </c>
       <c r="C14" t="n">
-        <v>9.94464</v>
+        <v>9.94497</v>
       </c>
       <c r="D14" t="n">
-        <v>10.6718</v>
+        <v>11.2383</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.081630000000001</v>
+        <v>9.122</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0503</v>
+        <v>10.0421</v>
       </c>
       <c r="D15" t="n">
-        <v>11.1273</v>
+        <v>11.7231</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.99849</v>
+        <v>8.9589</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0194</v>
+        <v>10.0774</v>
       </c>
       <c r="D16" t="n">
-        <v>11.0698</v>
+        <v>11.7443</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.96885</v>
+        <v>8.91187</v>
       </c>
       <c r="C17" t="n">
-        <v>10.097</v>
+        <v>10.0765</v>
       </c>
       <c r="D17" t="n">
-        <v>11.2031</v>
+        <v>11.8429</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.68408</v>
+        <v>1.69374</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12427</v>
+        <v>2.12695</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16325</v>
+        <v>2.16683</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.95244</v>
+        <v>2.95935</v>
       </c>
       <c r="C3" t="n">
-        <v>3.34229</v>
+        <v>3.34167</v>
       </c>
       <c r="D3" t="n">
-        <v>3.79535</v>
+        <v>3.94261</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.26816</v>
+        <v>4.24402</v>
       </c>
       <c r="C4" t="n">
-        <v>4.68277</v>
+        <v>4.67189</v>
       </c>
       <c r="D4" t="n">
-        <v>5.38689</v>
+        <v>5.71155</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4179</v>
+        <v>5.45538</v>
       </c>
       <c r="C5" t="n">
-        <v>5.9864</v>
+        <v>5.98218</v>
       </c>
       <c r="D5" t="n">
-        <v>6.8149</v>
+        <v>7.42211</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.62422</v>
+        <v>6.63474</v>
       </c>
       <c r="C6" t="n">
-        <v>7.30037</v>
+        <v>7.30749</v>
       </c>
       <c r="D6" t="n">
-        <v>8.22691</v>
+        <v>9.12927</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.75427</v>
+        <v>7.78324</v>
       </c>
       <c r="C7" t="n">
-        <v>8.61406</v>
+        <v>8.616149999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>9.56108</v>
+        <v>10.7882</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.882479999999999</v>
+        <v>8.902049999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.99391</v>
+        <v>9.98973</v>
       </c>
       <c r="D8" t="n">
-        <v>10.8838</v>
+        <v>12.4816</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.365</v>
+        <v>10.3801</v>
       </c>
       <c r="C9" t="n">
-        <v>11.624</v>
+        <v>11.6217</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8792</v>
+        <v>14.5281</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0104</v>
+        <v>9.989280000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9939</v>
+        <v>10.9754</v>
       </c>
       <c r="D10" t="n">
-        <v>12.2469</v>
+        <v>13.568</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.72209</v>
+        <v>9.82254</v>
       </c>
       <c r="C11" t="n">
-        <v>10.7938</v>
+        <v>10.9334</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1577</v>
+        <v>13.5714</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.96763</v>
+        <v>10.0349</v>
       </c>
       <c r="C12" t="n">
-        <v>10.971</v>
+        <v>10.9826</v>
       </c>
       <c r="D12" t="n">
-        <v>12.2462</v>
+        <v>13.6919</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1189</v>
+        <v>10.1091</v>
       </c>
       <c r="C13" t="n">
-        <v>11.0054</v>
+        <v>10.9737</v>
       </c>
       <c r="D13" t="n">
-        <v>12.3683</v>
+        <v>13.926</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.668150000000001</v>
+        <v>9.696</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0078</v>
+        <v>11.0716</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8482</v>
+        <v>13.3245</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0732</v>
+        <v>9.963839999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0231</v>
+        <v>11.0332</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3158</v>
+        <v>13.8691</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.85252</v>
+        <v>10.1212</v>
       </c>
       <c r="C16" t="n">
-        <v>11.1196</v>
+        <v>11.0963</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2848</v>
+        <v>13.7841</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.91358</v>
+        <v>9.96081</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1559</v>
+        <v>11.1803</v>
       </c>
       <c r="D17" t="n">
-        <v>12.3522</v>
+        <v>13.7675</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8927</v>
+        <v>1.8896</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97803</v>
+        <v>1.97922</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01015</v>
+        <v>2.0097</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.10296</v>
+        <v>3.09906</v>
       </c>
       <c r="C3" t="n">
-        <v>3.17145</v>
+        <v>3.17198</v>
       </c>
       <c r="D3" t="n">
-        <v>3.61182</v>
+        <v>3.65903</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.39842</v>
+        <v>4.40739</v>
       </c>
       <c r="C4" t="n">
-        <v>4.40151</v>
+        <v>4.2929</v>
       </c>
       <c r="D4" t="n">
-        <v>5.1695</v>
+        <v>5.30856</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.6037</v>
+        <v>5.6086</v>
       </c>
       <c r="C5" t="n">
-        <v>5.64546</v>
+        <v>5.65197</v>
       </c>
       <c r="D5" t="n">
-        <v>6.70393</v>
+        <v>6.94809</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.80787</v>
+        <v>6.8087</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9071</v>
+        <v>6.90896</v>
       </c>
       <c r="D6" t="n">
-        <v>8.28289</v>
+        <v>8.598649999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.93878</v>
+        <v>7.97118</v>
       </c>
       <c r="C7" t="n">
-        <v>8.022500000000001</v>
+        <v>8.17456</v>
       </c>
       <c r="D7" t="n">
-        <v>9.749420000000001</v>
+        <v>10.2424</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.160069999999999</v>
+        <v>9.17371</v>
       </c>
       <c r="C8" t="n">
-        <v>9.33344</v>
+        <v>9.40931</v>
       </c>
       <c r="D8" t="n">
-        <v>11.2593</v>
+        <v>11.8631</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6944</v>
+        <v>10.6632</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8353</v>
+        <v>10.8985</v>
       </c>
       <c r="D9" t="n">
-        <v>13.1051</v>
+        <v>13.6822</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2834</v>
+        <v>10.2741</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4382</v>
+        <v>10.3995</v>
       </c>
       <c r="D10" t="n">
-        <v>12.3782</v>
+        <v>12.881</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.2201</v>
+        <v>10.2386</v>
       </c>
       <c r="C11" t="n">
-        <v>10.2507</v>
+        <v>10.3354</v>
       </c>
       <c r="D11" t="n">
-        <v>12.4193</v>
+        <v>12.7261</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.2575</v>
+        <v>10.2676</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3937</v>
+        <v>10.415</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4455</v>
+        <v>13.017</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.3455</v>
+        <v>10.4588</v>
       </c>
       <c r="C13" t="n">
-        <v>10.3297</v>
+        <v>10.4855</v>
       </c>
       <c r="D13" t="n">
-        <v>12.6702</v>
+        <v>13.2415</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.95173</v>
+        <v>9.935029999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>10.4802</v>
+        <v>10.537</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1703</v>
+        <v>12.5957</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.4589</v>
+        <v>10.2705</v>
       </c>
       <c r="C15" t="n">
-        <v>10.505</v>
+        <v>10.465</v>
       </c>
       <c r="D15" t="n">
-        <v>12.6572</v>
+        <v>13.2525</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.3459</v>
+        <v>10.2538</v>
       </c>
       <c r="C16" t="n">
-        <v>10.555</v>
+        <v>10.5369</v>
       </c>
       <c r="D16" t="n">
-        <v>12.6676</v>
+        <v>13.2607</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.172</v>
+        <v>10.3186</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5994</v>
+        <v>10.6404</v>
       </c>
       <c r="D17" t="n">
-        <v>12.7191</v>
+        <v>13.1539</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.84532</v>
+        <v>1.84443</v>
       </c>
       <c r="C2" t="n">
-        <v>1.9307</v>
+        <v>1.92915</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83826</v>
+        <v>1.83827</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.8783</v>
+        <v>2.97932</v>
       </c>
       <c r="C3" t="n">
-        <v>3.01198</v>
+        <v>3.02589</v>
       </c>
       <c r="D3" t="n">
-        <v>3.31809</v>
+        <v>3.3217</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.1794</v>
+        <v>3.98249</v>
       </c>
       <c r="C4" t="n">
-        <v>4.24207</v>
+        <v>4.11054</v>
       </c>
       <c r="D4" t="n">
-        <v>4.75208</v>
+        <v>4.75456</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.2556</v>
+        <v>5.26614</v>
       </c>
       <c r="C5" t="n">
-        <v>5.43474</v>
+        <v>5.4296</v>
       </c>
       <c r="D5" t="n">
-        <v>6.2553</v>
+        <v>6.25627</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.23103</v>
+        <v>6.21534</v>
       </c>
       <c r="C6" t="n">
-        <v>6.64262</v>
+        <v>6.60746</v>
       </c>
       <c r="D6" t="n">
-        <v>7.69225</v>
+        <v>7.61898</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.28192</v>
+        <v>7.28724</v>
       </c>
       <c r="C7" t="n">
-        <v>7.76041</v>
+        <v>7.74505</v>
       </c>
       <c r="D7" t="n">
-        <v>9.02689</v>
+        <v>9.023669999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.31697</v>
+        <v>8.35904</v>
       </c>
       <c r="C8" t="n">
-        <v>9.092919999999999</v>
+        <v>9.077669999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4657</v>
+        <v>10.4796</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.934480000000001</v>
+        <v>9.76985</v>
       </c>
       <c r="C9" t="n">
-        <v>10.582</v>
+        <v>10.4067</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1563</v>
+        <v>12.0874</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.571820000000001</v>
+        <v>8.500690000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>9.22486</v>
+        <v>9.14409</v>
       </c>
       <c r="D10" t="n">
-        <v>10.1324</v>
+        <v>10.2773</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.78162</v>
+        <v>8.39362</v>
       </c>
       <c r="C11" t="n">
-        <v>9.133710000000001</v>
+        <v>8.8994</v>
       </c>
       <c r="D11" t="n">
-        <v>10.1587</v>
+        <v>10.2348</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.87152</v>
+        <v>8.813319999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.325369999999999</v>
+        <v>9.31967</v>
       </c>
       <c r="D12" t="n">
-        <v>10.5409</v>
+        <v>10.5904</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.0724</v>
+        <v>9.00067</v>
       </c>
       <c r="C13" t="n">
-        <v>9.647819999999999</v>
+        <v>9.66662</v>
       </c>
       <c r="D13" t="n">
-        <v>10.9953</v>
+        <v>11.0699</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.01192</v>
+        <v>9.092090000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.67029</v>
+        <v>9.80655</v>
       </c>
       <c r="D14" t="n">
-        <v>10.7269</v>
+        <v>10.8247</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.06251</v>
+        <v>8.895009999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>9.805479999999999</v>
+        <v>9.85948</v>
       </c>
       <c r="D15" t="n">
-        <v>10.9915</v>
+        <v>10.9123</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.022880000000001</v>
+        <v>9.131729999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.88091</v>
+        <v>9.875909999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>11.1996</v>
+        <v>11.2519</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.011060000000001</v>
+        <v>9.10464</v>
       </c>
       <c r="C17" t="n">
-        <v>10.0082</v>
+        <v>9.95928</v>
       </c>
       <c r="D17" t="n">
-        <v>11.6354</v>
+        <v>11.5625</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20296</v>
+        <v>2.20195</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24488</v>
+        <v>2.24549</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29489</v>
+        <v>2.29433</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.44909</v>
+        <v>3.45611</v>
       </c>
       <c r="C3" t="n">
-        <v>3.38623</v>
+        <v>3.39789</v>
       </c>
       <c r="D3" t="n">
-        <v>4.02621</v>
+        <v>4.02851</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.78835</v>
+        <v>4.79138</v>
       </c>
       <c r="C4" t="n">
-        <v>4.65323</v>
+        <v>4.72804</v>
       </c>
       <c r="D4" t="n">
-        <v>5.71029</v>
+        <v>5.80549</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.00115</v>
+        <v>5.99582</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92837</v>
+        <v>5.87767</v>
       </c>
       <c r="D5" t="n">
-        <v>7.40981</v>
+        <v>7.42397</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.01767</v>
+        <v>7.03692</v>
       </c>
       <c r="C6" t="n">
-        <v>7.24833</v>
+        <v>7.2392</v>
       </c>
       <c r="D6" t="n">
-        <v>9.100630000000001</v>
+        <v>9.097530000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.1966</v>
+        <v>8.35486</v>
       </c>
       <c r="C7" t="n">
-        <v>8.66344</v>
+        <v>8.705579999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8015</v>
+        <v>10.8366</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.536160000000001</v>
+        <v>9.463190000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0569</v>
+        <v>9.89452</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4594</v>
+        <v>12.3558</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.2264</v>
+        <v>10.9993</v>
       </c>
       <c r="C9" t="n">
-        <v>11.7064</v>
+        <v>11.6791</v>
       </c>
       <c r="D9" t="n">
-        <v>14.3975</v>
+        <v>14.4946</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.34168</v>
+        <v>9.378270000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0092</v>
+        <v>9.717689999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>11.6739</v>
+        <v>12.201</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.78994</v>
+        <v>9.44664</v>
       </c>
       <c r="C11" t="n">
-        <v>9.983370000000001</v>
+        <v>9.790839999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>12.0068</v>
+        <v>12.0763</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.993460000000001</v>
+        <v>9.99873</v>
       </c>
       <c r="C12" t="n">
-        <v>10.389</v>
+        <v>10.3474</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5891</v>
+        <v>12.4918</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.90714</v>
+        <v>9.896430000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>10.5866</v>
+        <v>10.8043</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9029</v>
+        <v>12.9193</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0723</v>
+        <v>10.2873</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7997</v>
+        <v>10.7776</v>
       </c>
       <c r="D14" t="n">
-        <v>12.7134</v>
+        <v>12.8124</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.182</v>
+        <v>10.163</v>
       </c>
       <c r="C15" t="n">
-        <v>10.8177</v>
+        <v>10.8333</v>
       </c>
       <c r="D15" t="n">
-        <v>12.9885</v>
+        <v>12.9337</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.2453</v>
+        <v>9.94435</v>
       </c>
       <c r="C16" t="n">
-        <v>10.9856</v>
+        <v>10.9964</v>
       </c>
       <c r="D16" t="n">
-        <v>13.2561</v>
+        <v>13.3067</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.2711</v>
+        <v>10.0674</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0292</v>
+        <v>11.1213</v>
       </c>
       <c r="D17" t="n">
-        <v>13.57</v>
+        <v>13.4965</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01957</v>
+        <v>2.01736</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01267</v>
+        <v>2.0139</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05035</v>
+        <v>2.04914</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.1664</v>
+        <v>3.19781</v>
       </c>
       <c r="C3" t="n">
-        <v>3.18893</v>
+        <v>3.18476</v>
       </c>
       <c r="D3" t="n">
-        <v>3.67358</v>
+        <v>3.67027</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.26409</v>
+        <v>4.47229</v>
       </c>
       <c r="C4" t="n">
-        <v>4.34265</v>
+        <v>4.34094</v>
       </c>
       <c r="D4" t="n">
-        <v>5.35027</v>
+        <v>5.34868</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.66091</v>
+        <v>5.65484</v>
       </c>
       <c r="C5" t="n">
-        <v>5.66953</v>
+        <v>5.6371</v>
       </c>
       <c r="D5" t="n">
-        <v>6.99235</v>
+        <v>6.99394</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.77811</v>
+        <v>6.81308</v>
       </c>
       <c r="C6" t="n">
-        <v>6.93218</v>
+        <v>6.92209</v>
       </c>
       <c r="D6" t="n">
-        <v>8.62668</v>
+        <v>8.620039999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.99019</v>
+        <v>7.87654</v>
       </c>
       <c r="C7" t="n">
-        <v>8.19603</v>
+        <v>8.104200000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2165</v>
+        <v>10.2057</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.976459999999999</v>
+        <v>9.02787</v>
       </c>
       <c r="C8" t="n">
-        <v>9.445309999999999</v>
+        <v>9.44304</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8437</v>
+        <v>11.8248</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4494</v>
+        <v>10.475</v>
       </c>
       <c r="C9" t="n">
-        <v>10.7555</v>
+        <v>10.7376</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6188</v>
+        <v>13.5949</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.862310000000001</v>
+        <v>9.20387</v>
       </c>
       <c r="C10" t="n">
-        <v>8.97606</v>
+        <v>9.06898</v>
       </c>
       <c r="D10" t="n">
-        <v>11.4997</v>
+        <v>11.0513</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.90348</v>
+        <v>9.21022</v>
       </c>
       <c r="C11" t="n">
-        <v>9.13313</v>
+        <v>9.37623</v>
       </c>
       <c r="D11" t="n">
-        <v>11.2011</v>
+        <v>11.345</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.301349999999999</v>
+        <v>9.59329</v>
       </c>
       <c r="C12" t="n">
-        <v>9.69769</v>
+        <v>9.70406</v>
       </c>
       <c r="D12" t="n">
-        <v>11.8224</v>
+        <v>11.911</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.650600000000001</v>
+        <v>9.667439999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.814030000000001</v>
+        <v>9.95729</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4186</v>
+        <v>12.2501</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.45467</v>
+        <v>9.644030000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.987109999999999</v>
+        <v>10.0164</v>
       </c>
       <c r="D14" t="n">
-        <v>12.0627</v>
+        <v>12.1626</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.50501</v>
+        <v>9.73306</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2429</v>
+        <v>10.1987</v>
       </c>
       <c r="D15" t="n">
-        <v>12.426</v>
+        <v>12.2633</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.48715</v>
+        <v>9.61566</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3164</v>
+        <v>10.4106</v>
       </c>
       <c r="D16" t="n">
-        <v>12.4961</v>
+        <v>12.3921</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.35689</v>
+        <v>9.73119</v>
       </c>
       <c r="C17" t="n">
-        <v>10.425</v>
+        <v>10.544</v>
       </c>
       <c r="D17" t="n">
-        <v>12.7489</v>
+        <v>12.4673</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.46235</v>
+        <v>1.46806</v>
       </c>
       <c r="C2" t="n">
-        <v>1.83276</v>
+        <v>1.83385</v>
       </c>
       <c r="D2" t="n">
-        <v>1.75227</v>
+        <v>1.753</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.63718</v>
+        <v>2.62323</v>
       </c>
       <c r="C3" t="n">
-        <v>2.98183</v>
+        <v>2.97404</v>
       </c>
       <c r="D3" t="n">
-        <v>3.26396</v>
+        <v>3.25834</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.79725</v>
+        <v>3.79328</v>
       </c>
       <c r="C4" t="n">
-        <v>4.18765</v>
+        <v>4.18159</v>
       </c>
       <c r="D4" t="n">
-        <v>4.75119</v>
+        <v>4.7499</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.88206</v>
+        <v>4.86369</v>
       </c>
       <c r="C5" t="n">
-        <v>5.40178</v>
+        <v>5.39725</v>
       </c>
       <c r="D5" t="n">
-        <v>6.20497</v>
+        <v>6.20592</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.95524</v>
+        <v>5.94995</v>
       </c>
       <c r="C6" t="n">
-        <v>6.59792</v>
+        <v>6.59768</v>
       </c>
       <c r="D6" t="n">
-        <v>7.62901</v>
+        <v>7.63403</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.98518</v>
+        <v>6.98981</v>
       </c>
       <c r="C7" t="n">
-        <v>7.79693</v>
+        <v>7.79494</v>
       </c>
       <c r="D7" t="n">
-        <v>9.03783</v>
+        <v>9.04866</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.031790000000001</v>
+        <v>8.01407</v>
       </c>
       <c r="C8" t="n">
-        <v>9.01623</v>
+        <v>9.0425</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4484</v>
+        <v>10.4587</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.33813</v>
+        <v>9.32588</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5224</v>
+        <v>10.5199</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1644</v>
+        <v>12.1758</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.972799999999999</v>
+        <v>8.844329999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0316</v>
+        <v>9.967890000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3039</v>
+        <v>11.5088</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.8371</v>
+        <v>8.89611</v>
       </c>
       <c r="C11" t="n">
-        <v>9.693720000000001</v>
+        <v>9.889810000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>11.394</v>
+        <v>11.4796</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.899609999999999</v>
+        <v>8.983739999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.779059999999999</v>
+        <v>9.88228</v>
       </c>
       <c r="D12" t="n">
-        <v>11.5797</v>
+        <v>11.6063</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.085850000000001</v>
+        <v>9.03162</v>
       </c>
       <c r="C13" t="n">
-        <v>9.987679999999999</v>
+        <v>9.971310000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>11.7455</v>
+        <v>11.7429</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.69591</v>
+        <v>8.68066</v>
       </c>
       <c r="C14" t="n">
-        <v>9.94497</v>
+        <v>9.979609999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>11.2383</v>
+        <v>11.2728</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.122</v>
+        <v>9.08015</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0421</v>
+        <v>10.0365</v>
       </c>
       <c r="D15" t="n">
-        <v>11.7231</v>
+        <v>11.7394</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.9589</v>
+        <v>8.99971</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0774</v>
+        <v>10.0656</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7443</v>
+        <v>11.7035</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.91187</v>
+        <v>8.907679999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>10.0765</v>
+        <v>10.1243</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8429</v>
+        <v>11.8311</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.69374</v>
+        <v>1.69211</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12695</v>
+        <v>2.12612</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16683</v>
+        <v>2.16568</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.95935</v>
+        <v>2.95334</v>
       </c>
       <c r="C3" t="n">
-        <v>3.34167</v>
+        <v>3.33977</v>
       </c>
       <c r="D3" t="n">
-        <v>3.94261</v>
+        <v>3.93809</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.24402</v>
+        <v>4.24072</v>
       </c>
       <c r="C4" t="n">
-        <v>4.67189</v>
+        <v>4.6663</v>
       </c>
       <c r="D4" t="n">
-        <v>5.71155</v>
+        <v>5.70908</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.45538</v>
+        <v>5.43976</v>
       </c>
       <c r="C5" t="n">
-        <v>5.98218</v>
+        <v>5.97715</v>
       </c>
       <c r="D5" t="n">
-        <v>7.42211</v>
+        <v>7.41816</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.63474</v>
+        <v>6.63552</v>
       </c>
       <c r="C6" t="n">
-        <v>7.30749</v>
+        <v>7.30275</v>
       </c>
       <c r="D6" t="n">
-        <v>9.12927</v>
+        <v>9.138629999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.78324</v>
+        <v>7.79366</v>
       </c>
       <c r="C7" t="n">
-        <v>8.616149999999999</v>
+        <v>8.61275</v>
       </c>
       <c r="D7" t="n">
-        <v>10.7882</v>
+        <v>10.7902</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.902049999999999</v>
+        <v>8.92</v>
       </c>
       <c r="C8" t="n">
-        <v>9.98973</v>
+        <v>9.97414</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4816</v>
+        <v>12.4701</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.3801</v>
+        <v>10.3906</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6217</v>
+        <v>11.6215</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5281</v>
+        <v>14.484</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.989280000000001</v>
+        <v>9.99774</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9754</v>
+        <v>10.9743</v>
       </c>
       <c r="D10" t="n">
-        <v>13.568</v>
+        <v>13.4464</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.82254</v>
+        <v>9.882300000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>10.9334</v>
+        <v>10.9679</v>
       </c>
       <c r="D11" t="n">
-        <v>13.5714</v>
+        <v>13.5329</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.0349</v>
+        <v>9.937419999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>10.9826</v>
+        <v>10.8283</v>
       </c>
       <c r="D12" t="n">
-        <v>13.6919</v>
+        <v>13.7472</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1091</v>
+        <v>10.1187</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9737</v>
+        <v>10.9494</v>
       </c>
       <c r="D13" t="n">
-        <v>13.926</v>
+        <v>13.836</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.696</v>
+        <v>9.68197</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0716</v>
+        <v>11.0151</v>
       </c>
       <c r="D14" t="n">
-        <v>13.3245</v>
+        <v>13.3435</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.963839999999999</v>
+        <v>10.1017</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0332</v>
+        <v>11.0123</v>
       </c>
       <c r="D15" t="n">
-        <v>13.8691</v>
+        <v>13.849</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.1212</v>
+        <v>10.0968</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0963</v>
+        <v>11.0972</v>
       </c>
       <c r="D16" t="n">
-        <v>13.7841</v>
+        <v>13.9546</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.96081</v>
+        <v>9.980600000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1803</v>
+        <v>11.1712</v>
       </c>
       <c r="D17" t="n">
-        <v>13.7675</v>
+        <v>13.8846</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8896</v>
+        <v>1.88769</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97922</v>
+        <v>1.97919</v>
       </c>
       <c r="D2" t="n">
-        <v>2.0097</v>
+        <v>2.00934</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.09906</v>
+        <v>3.1072</v>
       </c>
       <c r="C3" t="n">
-        <v>3.17198</v>
+        <v>3.17477</v>
       </c>
       <c r="D3" t="n">
-        <v>3.65903</v>
+        <v>3.65898</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.40739</v>
+        <v>4.40973</v>
       </c>
       <c r="C4" t="n">
-        <v>4.2929</v>
+        <v>4.39659</v>
       </c>
       <c r="D4" t="n">
-        <v>5.30856</v>
+        <v>5.30989</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.6086</v>
+        <v>5.6137</v>
       </c>
       <c r="C5" t="n">
-        <v>5.65197</v>
+        <v>5.64895</v>
       </c>
       <c r="D5" t="n">
-        <v>6.94809</v>
+        <v>6.93197</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.8087</v>
+        <v>6.7983</v>
       </c>
       <c r="C6" t="n">
-        <v>6.90896</v>
+        <v>6.90482</v>
       </c>
       <c r="D6" t="n">
-        <v>8.598649999999999</v>
+        <v>8.58564</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.97118</v>
+        <v>7.9895</v>
       </c>
       <c r="C7" t="n">
-        <v>8.17456</v>
+        <v>8.1708</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2424</v>
+        <v>10.2299</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.17371</v>
+        <v>9.171950000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.40931</v>
+        <v>9.460150000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8631</v>
+        <v>11.8726</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.6632</v>
+        <v>10.7371</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8985</v>
+        <v>10.8918</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6822</v>
+        <v>13.6985</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2741</v>
+        <v>10.1256</v>
       </c>
       <c r="C10" t="n">
-        <v>10.3995</v>
+        <v>10.4412</v>
       </c>
       <c r="D10" t="n">
-        <v>12.881</v>
+        <v>12.7861</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.2386</v>
+        <v>10.2032</v>
       </c>
       <c r="C11" t="n">
-        <v>10.3354</v>
+        <v>10.408</v>
       </c>
       <c r="D11" t="n">
-        <v>12.7261</v>
+        <v>12.6858</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.2676</v>
+        <v>10.3086</v>
       </c>
       <c r="C12" t="n">
-        <v>10.415</v>
+        <v>10.2979</v>
       </c>
       <c r="D12" t="n">
-        <v>13.017</v>
+        <v>13.0402</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.4588</v>
+        <v>10.445</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4855</v>
+        <v>10.4148</v>
       </c>
       <c r="D13" t="n">
-        <v>13.2415</v>
+        <v>13.2711</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.935029999999999</v>
+        <v>9.95912</v>
       </c>
       <c r="C14" t="n">
-        <v>10.537</v>
+        <v>10.4672</v>
       </c>
       <c r="D14" t="n">
-        <v>12.5957</v>
+        <v>12.6454</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.2705</v>
+        <v>10.4402</v>
       </c>
       <c r="C15" t="n">
-        <v>10.465</v>
+        <v>10.5314</v>
       </c>
       <c r="D15" t="n">
-        <v>13.2525</v>
+        <v>13.2656</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.2538</v>
+        <v>10.2746</v>
       </c>
       <c r="C16" t="n">
-        <v>10.5369</v>
+        <v>10.5633</v>
       </c>
       <c r="D16" t="n">
-        <v>13.2607</v>
+        <v>13.2174</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.3186</v>
+        <v>10.19</v>
       </c>
       <c r="C17" t="n">
-        <v>10.6404</v>
+        <v>10.6227</v>
       </c>
       <c r="D17" t="n">
-        <v>13.1539</v>
+        <v>13.2164</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.84443</v>
+        <v>1.84618</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92915</v>
+        <v>1.92788</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83827</v>
+        <v>1.96499</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.97932</v>
+        <v>2.91898</v>
       </c>
       <c r="C3" t="n">
-        <v>3.02589</v>
+        <v>3.04513</v>
       </c>
       <c r="D3" t="n">
-        <v>3.3217</v>
+        <v>3.53342</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.98249</v>
+        <v>4.18554</v>
       </c>
       <c r="C4" t="n">
-        <v>4.11054</v>
+        <v>4.23066</v>
       </c>
       <c r="D4" t="n">
-        <v>4.75456</v>
+        <v>5.10234</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.26614</v>
+        <v>5.28162</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4296</v>
+        <v>5.42325</v>
       </c>
       <c r="D5" t="n">
-        <v>6.25627</v>
+        <v>6.62896</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.21534</v>
+        <v>6.36303</v>
       </c>
       <c r="C6" t="n">
-        <v>6.60746</v>
+        <v>6.62845</v>
       </c>
       <c r="D6" t="n">
-        <v>7.61898</v>
+        <v>8.098739999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.28724</v>
+        <v>7.42532</v>
       </c>
       <c r="C7" t="n">
-        <v>7.74505</v>
+        <v>7.85378</v>
       </c>
       <c r="D7" t="n">
-        <v>9.023669999999999</v>
+        <v>9.6152</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.35904</v>
+        <v>8.46297</v>
       </c>
       <c r="C8" t="n">
-        <v>9.077669999999999</v>
+        <v>9.11565</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4796</v>
+        <v>11.0889</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.76985</v>
+        <v>9.9292</v>
       </c>
       <c r="C9" t="n">
-        <v>10.4067</v>
+        <v>10.5944</v>
       </c>
       <c r="D9" t="n">
-        <v>12.0874</v>
+        <v>12.8502</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.500690000000001</v>
+        <v>8.372820000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>9.14409</v>
+        <v>8.891769999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>10.2773</v>
+        <v>10.6899</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.39362</v>
+        <v>8.76896</v>
       </c>
       <c r="C11" t="n">
-        <v>8.8994</v>
+        <v>8.97423</v>
       </c>
       <c r="D11" t="n">
-        <v>10.2348</v>
+        <v>10.5823</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.813319999999999</v>
+        <v>8.976599999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.31967</v>
+        <v>9.342919999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>10.5904</v>
+        <v>11.0771</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.00067</v>
+        <v>9.19064</v>
       </c>
       <c r="C13" t="n">
-        <v>9.66662</v>
+        <v>9.594390000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0699</v>
+        <v>11.7633</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.092090000000001</v>
+        <v>9.10971</v>
       </c>
       <c r="C14" t="n">
-        <v>9.80655</v>
+        <v>9.65531</v>
       </c>
       <c r="D14" t="n">
-        <v>10.8247</v>
+        <v>11.4025</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.895009999999999</v>
+        <v>9.09961</v>
       </c>
       <c r="C15" t="n">
-        <v>9.85948</v>
+        <v>9.84839</v>
       </c>
       <c r="D15" t="n">
-        <v>10.9123</v>
+        <v>11.6747</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.131729999999999</v>
+        <v>9.130750000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9.875909999999999</v>
+        <v>9.91976</v>
       </c>
       <c r="D16" t="n">
-        <v>11.2519</v>
+        <v>11.8861</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.10464</v>
+        <v>9.27089</v>
       </c>
       <c r="C17" t="n">
-        <v>9.95928</v>
+        <v>9.94163</v>
       </c>
       <c r="D17" t="n">
-        <v>11.5625</v>
+        <v>11.5763</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20195</v>
+        <v>2.20448</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24549</v>
+        <v>2.24308</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29433</v>
+        <v>2.30181</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.45611</v>
+        <v>3.3618</v>
       </c>
       <c r="C3" t="n">
-        <v>3.39789</v>
+        <v>3.39478</v>
       </c>
       <c r="D3" t="n">
-        <v>4.02851</v>
+        <v>4.0555</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.79138</v>
+        <v>4.77458</v>
       </c>
       <c r="C4" t="n">
-        <v>4.72804</v>
+        <v>4.71552</v>
       </c>
       <c r="D4" t="n">
-        <v>5.80549</v>
+        <v>5.84395</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.99582</v>
+        <v>5.99549</v>
       </c>
       <c r="C5" t="n">
-        <v>5.87767</v>
+        <v>6.02217</v>
       </c>
       <c r="D5" t="n">
-        <v>7.42397</v>
+        <v>7.55254</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.03692</v>
+        <v>7.19959</v>
       </c>
       <c r="C6" t="n">
-        <v>7.2392</v>
+        <v>7.36066</v>
       </c>
       <c r="D6" t="n">
-        <v>9.097530000000001</v>
+        <v>9.26688</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.35486</v>
+        <v>8.38461</v>
       </c>
       <c r="C7" t="n">
-        <v>8.705579999999999</v>
+        <v>8.709199999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8366</v>
+        <v>10.9191</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.463190000000001</v>
+        <v>9.54533</v>
       </c>
       <c r="C8" t="n">
-        <v>9.89452</v>
+        <v>10.0495</v>
       </c>
       <c r="D8" t="n">
-        <v>12.3558</v>
+        <v>12.5539</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.9993</v>
+        <v>11.3326</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6791</v>
+        <v>11.6797</v>
       </c>
       <c r="D9" t="n">
-        <v>14.4946</v>
+        <v>14.5166</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.378270000000001</v>
+        <v>9.394909999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.717689999999999</v>
+        <v>9.922980000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>12.201</v>
+        <v>11.7864</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.44664</v>
+        <v>9.789020000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.790839999999999</v>
+        <v>9.93638</v>
       </c>
       <c r="D11" t="n">
-        <v>12.0763</v>
+        <v>12.0569</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.99873</v>
+        <v>9.94455</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3474</v>
+        <v>10.3591</v>
       </c>
       <c r="D12" t="n">
-        <v>12.4918</v>
+        <v>12.6187</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.896430000000001</v>
+        <v>10.0904</v>
       </c>
       <c r="C13" t="n">
-        <v>10.8043</v>
+        <v>10.5206</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9193</v>
+        <v>13.2259</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.2873</v>
+        <v>10.0297</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7776</v>
+        <v>10.8114</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8124</v>
+        <v>12.9455</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.163</v>
+        <v>10.1572</v>
       </c>
       <c r="C15" t="n">
-        <v>10.8333</v>
+        <v>10.9555</v>
       </c>
       <c r="D15" t="n">
-        <v>12.9337</v>
+        <v>13.0034</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.94435</v>
+        <v>10.2083</v>
       </c>
       <c r="C16" t="n">
-        <v>10.9964</v>
+        <v>11.0163</v>
       </c>
       <c r="D16" t="n">
-        <v>13.3067</v>
+        <v>13.3629</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0674</v>
+        <v>10.2594</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1213</v>
+        <v>11.0608</v>
       </c>
       <c r="D17" t="n">
-        <v>13.4965</v>
+        <v>13.2659</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01736</v>
+        <v>2.02032</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0139</v>
+        <v>2.01498</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04914</v>
+        <v>2.05181</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.19781</v>
+        <v>3.15988</v>
       </c>
       <c r="C3" t="n">
-        <v>3.18476</v>
+        <v>3.1447</v>
       </c>
       <c r="D3" t="n">
-        <v>3.67027</v>
+        <v>3.66282</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.47229</v>
+        <v>4.4681</v>
       </c>
       <c r="C4" t="n">
-        <v>4.34094</v>
+        <v>4.41139</v>
       </c>
       <c r="D4" t="n">
-        <v>5.34868</v>
+        <v>5.34353</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.65484</v>
+        <v>5.66436</v>
       </c>
       <c r="C5" t="n">
-        <v>5.6371</v>
+        <v>5.66187</v>
       </c>
       <c r="D5" t="n">
-        <v>6.99394</v>
+        <v>6.99297</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.81308</v>
+        <v>6.85346</v>
       </c>
       <c r="C6" t="n">
-        <v>6.92209</v>
+        <v>6.92031</v>
       </c>
       <c r="D6" t="n">
-        <v>8.620039999999999</v>
+        <v>8.596819999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.87654</v>
+        <v>8.000400000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.104200000000001</v>
+        <v>8.17545</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2057</v>
+        <v>10.213</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.02787</v>
+        <v>9.159409999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.44304</v>
+        <v>9.438230000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8248</v>
+        <v>11.8524</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.475</v>
+        <v>10.7287</v>
       </c>
       <c r="C9" t="n">
-        <v>10.7376</v>
+        <v>10.9353</v>
       </c>
       <c r="D9" t="n">
-        <v>13.5949</v>
+        <v>13.6055</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.20387</v>
+        <v>9.0634</v>
       </c>
       <c r="C10" t="n">
-        <v>9.06898</v>
+        <v>9.144880000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0513</v>
+        <v>11.1226</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.21022</v>
+        <v>9.113910000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.37623</v>
+        <v>9.30964</v>
       </c>
       <c r="D11" t="n">
-        <v>11.345</v>
+        <v>11.2204</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.59329</v>
+        <v>9.496919999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.70406</v>
+        <v>9.68628</v>
       </c>
       <c r="D12" t="n">
-        <v>11.911</v>
+        <v>11.8099</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.667439999999999</v>
+        <v>9.56725</v>
       </c>
       <c r="C13" t="n">
-        <v>9.95729</v>
+        <v>9.94825</v>
       </c>
       <c r="D13" t="n">
-        <v>12.2501</v>
+        <v>12.4036</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.644030000000001</v>
+        <v>9.58601</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0164</v>
+        <v>10.1307</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1626</v>
+        <v>12.1721</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.73306</v>
+        <v>9.66184</v>
       </c>
       <c r="C15" t="n">
-        <v>10.1987</v>
+        <v>10.3057</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2633</v>
+        <v>12.3734</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.61566</v>
+        <v>9.7074</v>
       </c>
       <c r="C16" t="n">
-        <v>10.4106</v>
+        <v>10.3596</v>
       </c>
       <c r="D16" t="n">
-        <v>12.3921</v>
+        <v>12.4823</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.73119</v>
+        <v>9.516550000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10.544</v>
+        <v>10.5973</v>
       </c>
       <c r="D17" t="n">
-        <v>12.4673</v>
+        <v>12.6481</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.46806</v>
+        <v>1.46132</v>
       </c>
       <c r="C2" t="n">
-        <v>1.83385</v>
+        <v>1.8315</v>
       </c>
       <c r="D2" t="n">
-        <v>1.753</v>
+        <v>1.86331</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62323</v>
+        <v>2.62068</v>
       </c>
       <c r="C3" t="n">
-        <v>2.97404</v>
+        <v>2.97272</v>
       </c>
       <c r="D3" t="n">
-        <v>3.25834</v>
+        <v>3.45398</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.79328</v>
+        <v>3.79404</v>
       </c>
       <c r="C4" t="n">
-        <v>4.18159</v>
+        <v>4.18982</v>
       </c>
       <c r="D4" t="n">
-        <v>4.7499</v>
+        <v>5.03309</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.86369</v>
+        <v>4.86389</v>
       </c>
       <c r="C5" t="n">
-        <v>5.39725</v>
+        <v>5.39881</v>
       </c>
       <c r="D5" t="n">
-        <v>6.20592</v>
+        <v>6.56634</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.94995</v>
+        <v>5.95481</v>
       </c>
       <c r="C6" t="n">
-        <v>6.59768</v>
+        <v>6.60132</v>
       </c>
       <c r="D6" t="n">
-        <v>7.63403</v>
+        <v>8.06964</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.98981</v>
+        <v>7.00398</v>
       </c>
       <c r="C7" t="n">
-        <v>7.79494</v>
+        <v>7.80457</v>
       </c>
       <c r="D7" t="n">
-        <v>9.04866</v>
+        <v>9.57624</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.01407</v>
+        <v>8.03565</v>
       </c>
       <c r="C8" t="n">
-        <v>9.0425</v>
+        <v>9.03758</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4587</v>
+        <v>11.054</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.32588</v>
+        <v>9.32869</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5199</v>
+        <v>10.5323</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1758</v>
+        <v>12.8613</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.844329999999999</v>
+        <v>9.040649999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.967890000000001</v>
+        <v>9.920159999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>11.5088</v>
+        <v>12.1754</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.89611</v>
+        <v>8.963800000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>9.889810000000001</v>
+        <v>9.82705</v>
       </c>
       <c r="D11" t="n">
-        <v>11.4796</v>
+        <v>12.0687</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.983739999999999</v>
+        <v>8.96382</v>
       </c>
       <c r="C12" t="n">
-        <v>9.88228</v>
+        <v>9.91446</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6063</v>
+        <v>12.2178</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.03162</v>
+        <v>9.152329999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.971310000000001</v>
+        <v>9.99982</v>
       </c>
       <c r="D13" t="n">
-        <v>11.7429</v>
+        <v>12.4129</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.68066</v>
+        <v>8.727399999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>9.979609999999999</v>
+        <v>9.97611</v>
       </c>
       <c r="D14" t="n">
-        <v>11.2728</v>
+        <v>11.821</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.08015</v>
+        <v>9.10529</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0365</v>
+        <v>9.99518</v>
       </c>
       <c r="D15" t="n">
-        <v>11.7394</v>
+        <v>12.3588</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.99971</v>
+        <v>9.116720000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0656</v>
+        <v>10.0889</v>
       </c>
       <c r="D16" t="n">
-        <v>11.7035</v>
+        <v>12.2282</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.907679999999999</v>
+        <v>9.03931</v>
       </c>
       <c r="C17" t="n">
-        <v>10.1243</v>
+        <v>10.1182</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8311</v>
+        <v>12.2782</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.69211</v>
+        <v>1.68905</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12612</v>
+        <v>2.12414</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16568</v>
+        <v>2.1719</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.95334</v>
+        <v>2.97722</v>
       </c>
       <c r="C3" t="n">
-        <v>3.33977</v>
+        <v>3.36665</v>
       </c>
       <c r="D3" t="n">
-        <v>3.93809</v>
+        <v>3.97787</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.24072</v>
+        <v>4.24087</v>
       </c>
       <c r="C4" t="n">
-        <v>4.6663</v>
+        <v>4.66845</v>
       </c>
       <c r="D4" t="n">
-        <v>5.70908</v>
+        <v>5.74937</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.43976</v>
+        <v>5.4452</v>
       </c>
       <c r="C5" t="n">
-        <v>5.97715</v>
+        <v>5.99877</v>
       </c>
       <c r="D5" t="n">
-        <v>7.41816</v>
+        <v>7.48817</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.63552</v>
+        <v>6.64005</v>
       </c>
       <c r="C6" t="n">
-        <v>7.30275</v>
+        <v>7.31858</v>
       </c>
       <c r="D6" t="n">
-        <v>9.138629999999999</v>
+        <v>9.21758</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.79366</v>
+        <v>7.80397</v>
       </c>
       <c r="C7" t="n">
-        <v>8.61275</v>
+        <v>8.63414</v>
       </c>
       <c r="D7" t="n">
-        <v>10.7902</v>
+        <v>10.9017</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.92</v>
+        <v>8.93422</v>
       </c>
       <c r="C8" t="n">
-        <v>9.97414</v>
+        <v>9.98025</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4701</v>
+        <v>12.5903</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.3906</v>
+        <v>10.4166</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6215</v>
+        <v>11.6486</v>
       </c>
       <c r="D9" t="n">
-        <v>14.484</v>
+        <v>14.6505</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.99774</v>
+        <v>9.966419999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9743</v>
+        <v>10.9465</v>
       </c>
       <c r="D10" t="n">
-        <v>13.4464</v>
+        <v>13.5936</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.882300000000001</v>
+        <v>9.95959</v>
       </c>
       <c r="C11" t="n">
-        <v>10.9679</v>
+        <v>10.7611</v>
       </c>
       <c r="D11" t="n">
-        <v>13.5329</v>
+        <v>13.724</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.937419999999999</v>
+        <v>9.92811</v>
       </c>
       <c r="C12" t="n">
-        <v>10.8283</v>
+        <v>10.9476</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7472</v>
+        <v>13.8985</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1187</v>
+        <v>10.1245</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9494</v>
+        <v>10.9671</v>
       </c>
       <c r="D13" t="n">
-        <v>13.836</v>
+        <v>14.0865</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.68197</v>
+        <v>9.70449</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0151</v>
+        <v>11.0238</v>
       </c>
       <c r="D14" t="n">
-        <v>13.3435</v>
+        <v>13.5214</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1017</v>
+        <v>10.0442</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0123</v>
+        <v>11.0595</v>
       </c>
       <c r="D15" t="n">
-        <v>13.849</v>
+        <v>14.1022</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0968</v>
+        <v>10.0527</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0972</v>
+        <v>11.1332</v>
       </c>
       <c r="D16" t="n">
-        <v>13.9546</v>
+        <v>14.0101</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.980600000000001</v>
+        <v>9.93159</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1712</v>
+        <v>11.1786</v>
       </c>
       <c r="D17" t="n">
-        <v>13.8846</v>
+        <v>13.7457</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.88769</v>
+        <v>1.88544</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97919</v>
+        <v>1.97884</v>
       </c>
       <c r="D2" t="n">
-        <v>2.00934</v>
+        <v>2.01479</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.1072</v>
+        <v>3.12147</v>
       </c>
       <c r="C3" t="n">
-        <v>3.17477</v>
+        <v>3.15387</v>
       </c>
       <c r="D3" t="n">
-        <v>3.65898</v>
+        <v>3.6563</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.40973</v>
+        <v>4.39724</v>
       </c>
       <c r="C4" t="n">
-        <v>4.39659</v>
+        <v>4.39591</v>
       </c>
       <c r="D4" t="n">
-        <v>5.30989</v>
+        <v>5.30943</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.6137</v>
+        <v>5.60792</v>
       </c>
       <c r="C5" t="n">
-        <v>5.64895</v>
+        <v>5.64653</v>
       </c>
       <c r="D5" t="n">
-        <v>6.93197</v>
+        <v>6.95858</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.7983</v>
+        <v>6.8109</v>
       </c>
       <c r="C6" t="n">
-        <v>6.90482</v>
+        <v>6.90666</v>
       </c>
       <c r="D6" t="n">
-        <v>8.58564</v>
+        <v>8.606619999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.9895</v>
+        <v>7.983</v>
       </c>
       <c r="C7" t="n">
-        <v>8.1708</v>
+        <v>8.16277</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2299</v>
+        <v>10.2327</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.171950000000001</v>
+        <v>9.174010000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.460150000000001</v>
+        <v>9.435499999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8726</v>
+        <v>11.8795</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7371</v>
+        <v>10.7593</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8918</v>
+        <v>10.9399</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6985</v>
+        <v>13.7401</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.1256</v>
+        <v>10.274</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4412</v>
+        <v>10.4495</v>
       </c>
       <c r="D10" t="n">
-        <v>12.7861</v>
+        <v>12.9292</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.2032</v>
+        <v>10.1889</v>
       </c>
       <c r="C11" t="n">
-        <v>10.408</v>
+        <v>10.2769</v>
       </c>
       <c r="D11" t="n">
-        <v>12.6858</v>
+        <v>12.9188</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.3086</v>
+        <v>10.3314</v>
       </c>
       <c r="C12" t="n">
-        <v>10.2979</v>
+        <v>10.4309</v>
       </c>
       <c r="D12" t="n">
-        <v>13.0402</v>
+        <v>12.9729</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.445</v>
+        <v>10.3996</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4148</v>
+        <v>10.4701</v>
       </c>
       <c r="D13" t="n">
-        <v>13.2711</v>
+        <v>13.3116</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.95912</v>
+        <v>9.97397</v>
       </c>
       <c r="C14" t="n">
-        <v>10.4672</v>
+        <v>10.5057</v>
       </c>
       <c r="D14" t="n">
-        <v>12.6454</v>
+        <v>12.6496</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.4402</v>
+        <v>10.4034</v>
       </c>
       <c r="C15" t="n">
-        <v>10.5314</v>
+        <v>10.5103</v>
       </c>
       <c r="D15" t="n">
-        <v>13.2656</v>
+        <v>13.3236</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.2746</v>
+        <v>10.3214</v>
       </c>
       <c r="C16" t="n">
-        <v>10.5633</v>
+        <v>10.6089</v>
       </c>
       <c r="D16" t="n">
-        <v>13.2174</v>
+        <v>13.1723</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.19</v>
+        <v>10.1602</v>
       </c>
       <c r="C17" t="n">
-        <v>10.6227</v>
+        <v>10.6613</v>
       </c>
       <c r="D17" t="n">
-        <v>13.2164</v>
+        <v>13.2051</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.84618</v>
+        <v>1.84794</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92788</v>
+        <v>1.92977</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96499</v>
+        <v>1.83814</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.91898</v>
+        <v>2.87268</v>
       </c>
       <c r="C3" t="n">
-        <v>3.04513</v>
+        <v>2.99344</v>
       </c>
       <c r="D3" t="n">
-        <v>3.53342</v>
+        <v>3.29478</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.18554</v>
+        <v>3.90018</v>
       </c>
       <c r="C4" t="n">
-        <v>4.23066</v>
+        <v>4.13107</v>
       </c>
       <c r="D4" t="n">
-        <v>5.10234</v>
+        <v>4.78665</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.28162</v>
+        <v>5.26725</v>
       </c>
       <c r="C5" t="n">
-        <v>5.42325</v>
+        <v>5.43676</v>
       </c>
       <c r="D5" t="n">
-        <v>6.62896</v>
+        <v>6.20987</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.36303</v>
+        <v>6.03327</v>
       </c>
       <c r="C6" t="n">
-        <v>6.62845</v>
+        <v>6.39628</v>
       </c>
       <c r="D6" t="n">
-        <v>8.098739999999999</v>
+        <v>7.53787</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.42532</v>
+        <v>7.13095</v>
       </c>
       <c r="C7" t="n">
-        <v>7.85378</v>
+        <v>7.71173</v>
       </c>
       <c r="D7" t="n">
-        <v>9.6152</v>
+        <v>9.00389</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.46297</v>
+        <v>8.311820000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.11565</v>
+        <v>9.122030000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0889</v>
+        <v>10.4638</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.9292</v>
+        <v>9.98936</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5944</v>
+        <v>10.5664</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8502</v>
+        <v>12.1117</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.372820000000001</v>
+        <v>8.22466</v>
       </c>
       <c r="C10" t="n">
-        <v>8.891769999999999</v>
+        <v>8.941369999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>10.6899</v>
+        <v>9.75732</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.76896</v>
+        <v>8.45321</v>
       </c>
       <c r="C11" t="n">
-        <v>8.97423</v>
+        <v>8.926310000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5823</v>
+        <v>10.1751</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.976599999999999</v>
+        <v>8.617380000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.342919999999999</v>
+        <v>9.22368</v>
       </c>
       <c r="D12" t="n">
-        <v>11.0771</v>
+        <v>10.6313</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.19064</v>
+        <v>8.86628</v>
       </c>
       <c r="C13" t="n">
-        <v>9.594390000000001</v>
+        <v>9.40692</v>
       </c>
       <c r="D13" t="n">
-        <v>11.7633</v>
+        <v>11.0519</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.10971</v>
+        <v>8.864520000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>9.65531</v>
+        <v>9.706099999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>11.4025</v>
+        <v>10.9093</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.09961</v>
+        <v>9.09693</v>
       </c>
       <c r="C15" t="n">
-        <v>9.84839</v>
+        <v>9.7675</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6747</v>
+        <v>11.0909</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.130750000000001</v>
+        <v>9.124000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>9.91976</v>
+        <v>9.866390000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>11.8861</v>
+        <v>11.3862</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.27089</v>
+        <v>9.016310000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>9.94163</v>
+        <v>9.88993</v>
       </c>
       <c r="D17" t="n">
-        <v>11.5763</v>
+        <v>11.4983</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20448</v>
+        <v>2.20828</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24308</v>
+        <v>2.24508</v>
       </c>
       <c r="D2" t="n">
-        <v>2.30181</v>
+        <v>2.29306</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.3618</v>
+        <v>3.30242</v>
       </c>
       <c r="C3" t="n">
-        <v>3.39478</v>
+        <v>3.39174</v>
       </c>
       <c r="D3" t="n">
-        <v>4.0555</v>
+        <v>4.03489</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.77458</v>
+        <v>4.75895</v>
       </c>
       <c r="C4" t="n">
-        <v>4.71552</v>
+        <v>4.54649</v>
       </c>
       <c r="D4" t="n">
-        <v>5.84395</v>
+        <v>5.69346</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.99549</v>
+        <v>5.88398</v>
       </c>
       <c r="C5" t="n">
-        <v>6.02217</v>
+        <v>5.87206</v>
       </c>
       <c r="D5" t="n">
-        <v>7.55254</v>
+        <v>7.41313</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.19959</v>
+        <v>6.78119</v>
       </c>
       <c r="C6" t="n">
-        <v>7.36066</v>
+        <v>7.06806</v>
       </c>
       <c r="D6" t="n">
-        <v>9.26688</v>
+        <v>8.97719</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.38461</v>
+        <v>8.113659999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>8.709199999999999</v>
+        <v>8.4771</v>
       </c>
       <c r="D7" t="n">
-        <v>10.9191</v>
+        <v>10.6876</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.54533</v>
+        <v>9.39622</v>
       </c>
       <c r="C8" t="n">
-        <v>10.0495</v>
+        <v>9.783429999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>12.5539</v>
+        <v>12.3858</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3326</v>
+        <v>11.3219</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6797</v>
+        <v>11.6782</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5166</v>
+        <v>14.4258</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.394909999999999</v>
+        <v>9.415649999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>9.922980000000001</v>
+        <v>10.0157</v>
       </c>
       <c r="D10" t="n">
-        <v>11.7864</v>
+        <v>12.3753</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.789020000000001</v>
+        <v>9.50497</v>
       </c>
       <c r="C11" t="n">
-        <v>9.93638</v>
+        <v>9.724830000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>12.0569</v>
+        <v>12.1342</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.94455</v>
+        <v>9.80921</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3591</v>
+        <v>10.2746</v>
       </c>
       <c r="D12" t="n">
-        <v>12.6187</v>
+        <v>12.5173</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0904</v>
+        <v>10.0476</v>
       </c>
       <c r="C13" t="n">
-        <v>10.5206</v>
+        <v>10.6219</v>
       </c>
       <c r="D13" t="n">
-        <v>13.2259</v>
+        <v>13.1908</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0297</v>
+        <v>10.0698</v>
       </c>
       <c r="C14" t="n">
-        <v>10.8114</v>
+        <v>10.7561</v>
       </c>
       <c r="D14" t="n">
-        <v>12.9455</v>
+        <v>12.8552</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1572</v>
+        <v>9.98118</v>
       </c>
       <c r="C15" t="n">
-        <v>10.9555</v>
+        <v>10.8574</v>
       </c>
       <c r="D15" t="n">
-        <v>13.0034</v>
+        <v>13.0262</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.2083</v>
+        <v>10.1353</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0163</v>
+        <v>10.8498</v>
       </c>
       <c r="D16" t="n">
-        <v>13.3629</v>
+        <v>13.1484</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.2594</v>
+        <v>10.1739</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0608</v>
+        <v>11.0504</v>
       </c>
       <c r="D17" t="n">
-        <v>13.2659</v>
+        <v>13.6247</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.02032</v>
+        <v>2.01566</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01498</v>
+        <v>2.01218</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05181</v>
+        <v>2.04861</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.15988</v>
+        <v>3.13661</v>
       </c>
       <c r="C3" t="n">
-        <v>3.1447</v>
+        <v>3.14072</v>
       </c>
       <c r="D3" t="n">
-        <v>3.66282</v>
+        <v>3.66245</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4681</v>
+        <v>4.4759</v>
       </c>
       <c r="C4" t="n">
-        <v>4.41139</v>
+        <v>4.41525</v>
       </c>
       <c r="D4" t="n">
-        <v>5.34353</v>
+        <v>5.3218</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.66436</v>
+        <v>5.65464</v>
       </c>
       <c r="C5" t="n">
-        <v>5.66187</v>
+        <v>5.53312</v>
       </c>
       <c r="D5" t="n">
-        <v>6.99297</v>
+        <v>6.89604</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.85346</v>
+        <v>6.55127</v>
       </c>
       <c r="C6" t="n">
-        <v>6.92031</v>
+        <v>6.70038</v>
       </c>
       <c r="D6" t="n">
-        <v>8.596819999999999</v>
+        <v>8.51647</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.000400000000001</v>
+        <v>7.70173</v>
       </c>
       <c r="C7" t="n">
-        <v>8.17545</v>
+        <v>7.95167</v>
       </c>
       <c r="D7" t="n">
-        <v>10.213</v>
+        <v>10.158</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.159409999999999</v>
+        <v>8.823230000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.438230000000001</v>
+        <v>9.082100000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8524</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7287</v>
+        <v>10.044</v>
       </c>
       <c r="C9" t="n">
-        <v>10.9353</v>
+        <v>10.4579</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6055</v>
+        <v>13.5344</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.0634</v>
+        <v>8.78065</v>
       </c>
       <c r="C10" t="n">
-        <v>9.144880000000001</v>
+        <v>9.003880000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>11.1226</v>
+        <v>11.7277</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.113910000000001</v>
+        <v>8.70997</v>
       </c>
       <c r="C11" t="n">
-        <v>9.30964</v>
+        <v>8.999040000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>11.2204</v>
+        <v>11.3458</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.496919999999999</v>
+        <v>9.128310000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.68628</v>
+        <v>9.484680000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>11.8099</v>
+        <v>11.763</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.56725</v>
+        <v>9.374560000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>9.94825</v>
+        <v>9.85731</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4036</v>
+        <v>12.157</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.58601</v>
+        <v>9.664809999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>10.1307</v>
+        <v>10.1376</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1721</v>
+        <v>12.1328</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.66184</v>
+        <v>9.68107</v>
       </c>
       <c r="C15" t="n">
-        <v>10.3057</v>
+        <v>10.2015</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3734</v>
+        <v>12.246</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.7074</v>
+        <v>9.65278</v>
       </c>
       <c r="C16" t="n">
-        <v>10.3596</v>
+        <v>10.4022</v>
       </c>
       <c r="D16" t="n">
-        <v>12.4823</v>
+        <v>12.682</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.516550000000001</v>
+        <v>9.496930000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5973</v>
+        <v>10.5358</v>
       </c>
       <c r="D17" t="n">
-        <v>12.6481</v>
+        <v>12.7968</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.46132</v>
+        <v>1.47256</v>
       </c>
       <c r="C2" t="n">
-        <v>1.8315</v>
+        <v>1.83355</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86331</v>
+        <v>1.75192</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62068</v>
+        <v>2.63197</v>
       </c>
       <c r="C3" t="n">
-        <v>2.97272</v>
+        <v>3.01378</v>
       </c>
       <c r="D3" t="n">
-        <v>3.45398</v>
+        <v>3.26781</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.79404</v>
+        <v>3.77785</v>
       </c>
       <c r="C4" t="n">
-        <v>4.18982</v>
+        <v>4.19462</v>
       </c>
       <c r="D4" t="n">
-        <v>5.03309</v>
+        <v>4.7489</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.86389</v>
+        <v>4.85967</v>
       </c>
       <c r="C5" t="n">
-        <v>5.39881</v>
+        <v>5.39733</v>
       </c>
       <c r="D5" t="n">
-        <v>6.56634</v>
+        <v>6.20397</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.95481</v>
+        <v>5.92832</v>
       </c>
       <c r="C6" t="n">
-        <v>6.60132</v>
+        <v>6.60307</v>
       </c>
       <c r="D6" t="n">
-        <v>8.06964</v>
+        <v>7.63024</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.00398</v>
+        <v>6.97848</v>
       </c>
       <c r="C7" t="n">
-        <v>7.80457</v>
+        <v>7.7867</v>
       </c>
       <c r="D7" t="n">
-        <v>9.57624</v>
+        <v>9.024010000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.03565</v>
+        <v>7.99129</v>
       </c>
       <c r="C8" t="n">
-        <v>9.03758</v>
+        <v>9.020429999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>11.054</v>
+        <v>10.4373</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.32869</v>
+        <v>9.289859999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5323</v>
+        <v>10.4019</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8613</v>
+        <v>12.1364</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.040649999999999</v>
+        <v>8.84151</v>
       </c>
       <c r="C10" t="n">
-        <v>9.920159999999999</v>
+        <v>9.922549999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1754</v>
+        <v>11.353</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.963800000000001</v>
+        <v>8.79191</v>
       </c>
       <c r="C11" t="n">
-        <v>9.82705</v>
+        <v>9.83774</v>
       </c>
       <c r="D11" t="n">
-        <v>12.0687</v>
+        <v>11.4043</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.96382</v>
+        <v>8.936669999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.91446</v>
+        <v>9.75802</v>
       </c>
       <c r="D12" t="n">
-        <v>12.2178</v>
+        <v>11.6055</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.152329999999999</v>
+        <v>8.993309999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.99982</v>
+        <v>9.94796</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4129</v>
+        <v>11.717</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.727399999999999</v>
+        <v>8.692729999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>9.97611</v>
+        <v>9.94361</v>
       </c>
       <c r="D14" t="n">
-        <v>11.821</v>
+        <v>11.2601</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.10529</v>
+        <v>9.067399999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>9.99518</v>
+        <v>10.0089</v>
       </c>
       <c r="D15" t="n">
-        <v>12.3588</v>
+        <v>11.6826</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.116720000000001</v>
+        <v>8.868969999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0889</v>
+        <v>10.0196</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2282</v>
+        <v>11.6883</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.03931</v>
+        <v>8.90765</v>
       </c>
       <c r="C17" t="n">
-        <v>10.1182</v>
+        <v>10.0897</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2782</v>
+        <v>11.6719</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.68905</v>
+        <v>1.69101</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12414</v>
+        <v>2.12246</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1719</v>
+        <v>2.16654</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.97722</v>
+        <v>2.96712</v>
       </c>
       <c r="C3" t="n">
-        <v>3.36665</v>
+        <v>3.38739</v>
       </c>
       <c r="D3" t="n">
-        <v>3.97787</v>
+        <v>3.94414</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.24087</v>
+        <v>4.24027</v>
       </c>
       <c r="C4" t="n">
-        <v>4.66845</v>
+        <v>4.66478</v>
       </c>
       <c r="D4" t="n">
-        <v>5.74937</v>
+        <v>5.69994</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4452</v>
+        <v>5.44787</v>
       </c>
       <c r="C5" t="n">
-        <v>5.99877</v>
+        <v>5.97997</v>
       </c>
       <c r="D5" t="n">
-        <v>7.48817</v>
+        <v>7.41699</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.64005</v>
+        <v>6.61469</v>
       </c>
       <c r="C6" t="n">
-        <v>7.31858</v>
+        <v>7.24709</v>
       </c>
       <c r="D6" t="n">
-        <v>9.21758</v>
+        <v>9.100429999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.80397</v>
+        <v>7.75757</v>
       </c>
       <c r="C7" t="n">
-        <v>8.63414</v>
+        <v>8.610379999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>10.9017</v>
+        <v>10.8249</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.93422</v>
+        <v>8.91938</v>
       </c>
       <c r="C8" t="n">
-        <v>9.98025</v>
+        <v>9.96843</v>
       </c>
       <c r="D8" t="n">
-        <v>12.5903</v>
+        <v>12.5071</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4166</v>
+        <v>10.3574</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6486</v>
+        <v>11.5359</v>
       </c>
       <c r="D9" t="n">
-        <v>14.6505</v>
+        <v>14.4831</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.966419999999999</v>
+        <v>9.88566</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9465</v>
+        <v>11.024</v>
       </c>
       <c r="D10" t="n">
-        <v>13.5936</v>
+        <v>13.6747</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.95959</v>
+        <v>9.7842</v>
       </c>
       <c r="C11" t="n">
-        <v>10.7611</v>
+        <v>10.9083</v>
       </c>
       <c r="D11" t="n">
-        <v>13.724</v>
+        <v>13.6505</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.92811</v>
+        <v>9.813549999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>10.9476</v>
+        <v>10.8841</v>
       </c>
       <c r="D12" t="n">
-        <v>13.8985</v>
+        <v>13.7773</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1245</v>
+        <v>10.0906</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9671</v>
+        <v>10.9815</v>
       </c>
       <c r="D13" t="n">
-        <v>14.0865</v>
+        <v>13.8904</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.70449</v>
+        <v>9.708600000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0238</v>
+        <v>11.0042</v>
       </c>
       <c r="D14" t="n">
-        <v>13.5214</v>
+        <v>13.314</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0442</v>
+        <v>10.1639</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0595</v>
+        <v>11.0231</v>
       </c>
       <c r="D15" t="n">
-        <v>14.1022</v>
+        <v>13.8485</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0527</v>
+        <v>10.143</v>
       </c>
       <c r="C16" t="n">
-        <v>11.1332</v>
+        <v>11.0567</v>
       </c>
       <c r="D16" t="n">
-        <v>14.0101</v>
+        <v>13.8587</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.93159</v>
+        <v>9.774520000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>11.1786</v>
+        <v>11.0788</v>
       </c>
       <c r="D17" t="n">
-        <v>13.7457</v>
+        <v>13.7969</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.88544</v>
+        <v>1.88335</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97884</v>
+        <v>1.97765</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01479</v>
+        <v>2.00839</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.12147</v>
+        <v>3.1246</v>
       </c>
       <c r="C3" t="n">
-        <v>3.15387</v>
+        <v>3.16818</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6563</v>
+        <v>3.6486</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.39724</v>
+        <v>4.40642</v>
       </c>
       <c r="C4" t="n">
-        <v>4.39591</v>
+        <v>4.39807</v>
       </c>
       <c r="D4" t="n">
-        <v>5.30943</v>
+        <v>5.30312</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.60792</v>
+        <v>5.53849</v>
       </c>
       <c r="C5" t="n">
-        <v>5.64653</v>
+        <v>5.60722</v>
       </c>
       <c r="D5" t="n">
-        <v>6.95858</v>
+        <v>6.95443</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.8109</v>
+        <v>6.76659</v>
       </c>
       <c r="C6" t="n">
-        <v>6.90666</v>
+        <v>6.86574</v>
       </c>
       <c r="D6" t="n">
-        <v>8.606619999999999</v>
+        <v>8.600149999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.983</v>
+        <v>7.93869</v>
       </c>
       <c r="C7" t="n">
-        <v>8.16277</v>
+        <v>8.11839</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2327</v>
+        <v>10.2296</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.174010000000001</v>
+        <v>9.181139999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.435499999999999</v>
+        <v>9.262230000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8795</v>
+        <v>11.8481</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7593</v>
+        <v>10.5653</v>
       </c>
       <c r="C9" t="n">
-        <v>10.9399</v>
+        <v>10.5143</v>
       </c>
       <c r="D9" t="n">
-        <v>13.7401</v>
+        <v>13.6799</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.274</v>
+        <v>10.0499</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4495</v>
+        <v>10.1782</v>
       </c>
       <c r="D10" t="n">
-        <v>12.9292</v>
+        <v>12.8612</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.1889</v>
+        <v>10.0885</v>
       </c>
       <c r="C11" t="n">
-        <v>10.2769</v>
+        <v>10.1815</v>
       </c>
       <c r="D11" t="n">
-        <v>12.9188</v>
+        <v>12.7924</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.3314</v>
+        <v>9.891579999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>10.4309</v>
+        <v>10.204</v>
       </c>
       <c r="D12" t="n">
-        <v>12.9729</v>
+        <v>12.9638</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.3996</v>
+        <v>10.1798</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4701</v>
+        <v>10.301</v>
       </c>
       <c r="D13" t="n">
-        <v>13.3116</v>
+        <v>13.2555</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.97397</v>
+        <v>9.76637</v>
       </c>
       <c r="C14" t="n">
-        <v>10.5057</v>
+        <v>10.3126</v>
       </c>
       <c r="D14" t="n">
-        <v>12.6496</v>
+        <v>12.7283</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.4034</v>
+        <v>10.343</v>
       </c>
       <c r="C15" t="n">
-        <v>10.5103</v>
+        <v>10.3914</v>
       </c>
       <c r="D15" t="n">
-        <v>13.3236</v>
+        <v>13.167</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.3214</v>
+        <v>10.0954</v>
       </c>
       <c r="C16" t="n">
-        <v>10.6089</v>
+        <v>10.4554</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1723</v>
+        <v>13.191</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.1602</v>
+        <v>9.926880000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>10.6613</v>
+        <v>10.5144</v>
       </c>
       <c r="D17" t="n">
-        <v>13.2051</v>
+        <v>13.073</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.84794</v>
+        <v>1.84453</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92977</v>
+        <v>1.92592</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83814</v>
+        <v>1.96465</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.87268</v>
+        <v>2.90925</v>
       </c>
       <c r="C3" t="n">
-        <v>2.99344</v>
+        <v>3.13778</v>
       </c>
       <c r="D3" t="n">
-        <v>3.29478</v>
+        <v>3.54415</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.90018</v>
+        <v>4.18785</v>
       </c>
       <c r="C4" t="n">
-        <v>4.13107</v>
+        <v>4.39362</v>
       </c>
       <c r="D4" t="n">
-        <v>4.78665</v>
+        <v>5.09809</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.26725</v>
+        <v>5.10101</v>
       </c>
       <c r="C5" t="n">
-        <v>5.43676</v>
+        <v>5.41745</v>
       </c>
       <c r="D5" t="n">
-        <v>6.20987</v>
+        <v>6.55017</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.03327</v>
+        <v>6.2003</v>
       </c>
       <c r="C6" t="n">
-        <v>6.39628</v>
+        <v>6.67233</v>
       </c>
       <c r="D6" t="n">
-        <v>7.53787</v>
+        <v>8.05124</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.13095</v>
+        <v>7.16572</v>
       </c>
       <c r="C7" t="n">
-        <v>7.71173</v>
+        <v>7.64059</v>
       </c>
       <c r="D7" t="n">
-        <v>9.00389</v>
+        <v>9.403790000000001</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.311820000000001</v>
+        <v>8.209820000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.122030000000001</v>
+        <v>9.18933</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4638</v>
+        <v>11.04</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.98936</v>
+        <v>10.0032</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5664</v>
+        <v>11.0034</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1117</v>
+        <v>12.8053</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.22466</v>
+        <v>8.3994</v>
       </c>
       <c r="C10" t="n">
-        <v>8.941369999999999</v>
+        <v>9.474769999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>9.75732</v>
+        <v>10.6698</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.45321</v>
+        <v>8.58677</v>
       </c>
       <c r="C11" t="n">
-        <v>8.926310000000001</v>
+        <v>9.254490000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>10.1751</v>
+        <v>10.5437</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.617380000000001</v>
+        <v>8.844189999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>9.22368</v>
+        <v>9.60364</v>
       </c>
       <c r="D12" t="n">
-        <v>10.6313</v>
+        <v>11.0478</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.86628</v>
+        <v>8.74832</v>
       </c>
       <c r="C13" t="n">
-        <v>9.40692</v>
+        <v>9.88106</v>
       </c>
       <c r="D13" t="n">
-        <v>11.0519</v>
+        <v>11.6501</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.864520000000001</v>
+        <v>8.9931</v>
       </c>
       <c r="C14" t="n">
-        <v>9.706099999999999</v>
+        <v>10.0309</v>
       </c>
       <c r="D14" t="n">
-        <v>10.9093</v>
+        <v>11.347</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.09693</v>
+        <v>9.11449</v>
       </c>
       <c r="C15" t="n">
-        <v>9.7675</v>
+        <v>10.1319</v>
       </c>
       <c r="D15" t="n">
-        <v>11.0909</v>
+        <v>11.3644</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.124000000000001</v>
+        <v>9.07016</v>
       </c>
       <c r="C16" t="n">
-        <v>9.866390000000001</v>
+        <v>9.998810000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>11.3862</v>
+        <v>11.3478</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.016310000000001</v>
+        <v>9.017939999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>9.88993</v>
+        <v>10.3889</v>
       </c>
       <c r="D17" t="n">
-        <v>11.4983</v>
+        <v>12.0998</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20828</v>
+        <v>2.20176</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24508</v>
+        <v>2.24568</v>
       </c>
       <c r="D2" t="n">
-        <v>2.29306</v>
+        <v>2.30026</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.30242</v>
+        <v>3.34191</v>
       </c>
       <c r="C3" t="n">
-        <v>3.39174</v>
+        <v>3.52891</v>
       </c>
       <c r="D3" t="n">
-        <v>4.03489</v>
+        <v>4.02861</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.75895</v>
+        <v>4.7627</v>
       </c>
       <c r="C4" t="n">
-        <v>4.54649</v>
+        <v>4.90207</v>
       </c>
       <c r="D4" t="n">
-        <v>5.69346</v>
+        <v>5.8015</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.88398</v>
+        <v>5.63942</v>
       </c>
       <c r="C5" t="n">
-        <v>5.87206</v>
+        <v>5.92161</v>
       </c>
       <c r="D5" t="n">
-        <v>7.41313</v>
+        <v>7.43171</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.78119</v>
+        <v>6.99619</v>
       </c>
       <c r="C6" t="n">
-        <v>7.06806</v>
+        <v>7.45168</v>
       </c>
       <c r="D6" t="n">
-        <v>8.97719</v>
+        <v>9.187950000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.113659999999999</v>
+        <v>8.093730000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.4771</v>
+        <v>8.42793</v>
       </c>
       <c r="D7" t="n">
-        <v>10.6876</v>
+        <v>10.5753</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.39622</v>
+        <v>9.229469999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.783429999999999</v>
+        <v>10.5483</v>
       </c>
       <c r="D8" t="n">
-        <v>12.3858</v>
+        <v>12.4829</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3219</v>
+        <v>11.2819</v>
       </c>
       <c r="C9" t="n">
-        <v>11.6782</v>
+        <v>12.3026</v>
       </c>
       <c r="D9" t="n">
-        <v>14.4258</v>
+        <v>14.418</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.415649999999999</v>
+        <v>9.33009</v>
       </c>
       <c r="C10" t="n">
-        <v>10.0157</v>
+        <v>10.2024</v>
       </c>
       <c r="D10" t="n">
-        <v>12.3753</v>
+        <v>12.1114</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.50497</v>
+        <v>9.31413</v>
       </c>
       <c r="C11" t="n">
-        <v>9.724830000000001</v>
+        <v>10.312</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1342</v>
+        <v>12.0212</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.80921</v>
+        <v>9.933669999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>10.2746</v>
+        <v>10.6606</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5173</v>
+        <v>12.5916</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0476</v>
+        <v>9.99611</v>
       </c>
       <c r="C13" t="n">
-        <v>10.6219</v>
+        <v>11.1734</v>
       </c>
       <c r="D13" t="n">
-        <v>13.1908</v>
+        <v>13.1196</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0698</v>
+        <v>10.0295</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7561</v>
+        <v>11.3119</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8552</v>
+        <v>12.7407</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.98118</v>
+        <v>10.1228</v>
       </c>
       <c r="C15" t="n">
-        <v>10.8574</v>
+        <v>11.5007</v>
       </c>
       <c r="D15" t="n">
-        <v>13.0262</v>
+        <v>13.115</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.1353</v>
+        <v>10.3051</v>
       </c>
       <c r="C16" t="n">
-        <v>10.8498</v>
+        <v>11.5423</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1484</v>
+        <v>12.97</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.1739</v>
+        <v>10.0586</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0504</v>
+        <v>11.5007</v>
       </c>
       <c r="D17" t="n">
-        <v>13.6247</v>
+        <v>13.3852</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01566</v>
+        <v>2.01824</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01218</v>
+        <v>2.01387</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04861</v>
+        <v>2.05225</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.13661</v>
+        <v>3.14373</v>
       </c>
       <c r="C3" t="n">
-        <v>3.14072</v>
+        <v>3.23773</v>
       </c>
       <c r="D3" t="n">
-        <v>3.66245</v>
+        <v>3.64422</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4759</v>
+        <v>4.47665</v>
       </c>
       <c r="C4" t="n">
-        <v>4.41525</v>
+        <v>4.5756</v>
       </c>
       <c r="D4" t="n">
-        <v>5.3218</v>
+        <v>5.32186</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.65464</v>
+        <v>5.56693</v>
       </c>
       <c r="C5" t="n">
-        <v>5.53312</v>
+        <v>5.65893</v>
       </c>
       <c r="D5" t="n">
-        <v>6.89604</v>
+        <v>6.85692</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.55127</v>
+        <v>6.60776</v>
       </c>
       <c r="C6" t="n">
-        <v>6.70038</v>
+        <v>6.86195</v>
       </c>
       <c r="D6" t="n">
-        <v>8.51647</v>
+        <v>8.472160000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.70173</v>
+        <v>7.70854</v>
       </c>
       <c r="C7" t="n">
-        <v>7.95167</v>
+        <v>8.14237</v>
       </c>
       <c r="D7" t="n">
-        <v>10.158</v>
+        <v>10.122</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.823230000000001</v>
+        <v>8.87416</v>
       </c>
       <c r="C8" t="n">
-        <v>9.082100000000001</v>
+        <v>9.47077</v>
       </c>
       <c r="D8" t="n">
-        <v>11.71</v>
+        <v>11.6532</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.044</v>
+        <v>10.4</v>
       </c>
       <c r="C9" t="n">
-        <v>10.4579</v>
+        <v>11.1174</v>
       </c>
       <c r="D9" t="n">
-        <v>13.5344</v>
+        <v>13.4467</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.78065</v>
+        <v>8.807650000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>9.003880000000001</v>
+        <v>9.50346</v>
       </c>
       <c r="D10" t="n">
-        <v>11.7277</v>
+        <v>11.2278</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.70997</v>
+        <v>8.875500000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>8.999040000000001</v>
+        <v>9.50183</v>
       </c>
       <c r="D11" t="n">
-        <v>11.3458</v>
+        <v>11.361</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.128310000000001</v>
+        <v>9.195130000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.484680000000001</v>
+        <v>9.831709999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>11.763</v>
+        <v>11.7889</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.374560000000001</v>
+        <v>9.34521</v>
       </c>
       <c r="C13" t="n">
-        <v>9.85731</v>
+        <v>10.1633</v>
       </c>
       <c r="D13" t="n">
-        <v>12.157</v>
+        <v>12.3709</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.664809999999999</v>
+        <v>9.42225</v>
       </c>
       <c r="C14" t="n">
-        <v>10.1376</v>
+        <v>10.3203</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1328</v>
+        <v>12.0713</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.68107</v>
+        <v>9.546110000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>10.2015</v>
+        <v>10.7804</v>
       </c>
       <c r="D15" t="n">
-        <v>12.246</v>
+        <v>12.2961</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.65278</v>
+        <v>9.81889</v>
       </c>
       <c r="C16" t="n">
-        <v>10.4022</v>
+        <v>10.6984</v>
       </c>
       <c r="D16" t="n">
-        <v>12.682</v>
+        <v>12.2996</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.496930000000001</v>
+        <v>9.68723</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5358</v>
+        <v>11.0295</v>
       </c>
       <c r="D17" t="n">
-        <v>12.7968</v>
+        <v>12.6187</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.47256</v>
+        <v>1.46031</v>
       </c>
       <c r="C2" t="n">
-        <v>1.83355</v>
+        <v>1.82974</v>
       </c>
       <c r="D2" t="n">
-        <v>1.75192</v>
+        <v>1.86332</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.63197</v>
+        <v>2.63429</v>
       </c>
       <c r="C3" t="n">
-        <v>3.01378</v>
+        <v>3.07722</v>
       </c>
       <c r="D3" t="n">
-        <v>3.26781</v>
+        <v>3.45518</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.77785</v>
+        <v>3.78748</v>
       </c>
       <c r="C4" t="n">
-        <v>4.19462</v>
+        <v>4.33752</v>
       </c>
       <c r="D4" t="n">
-        <v>4.7489</v>
+        <v>5.02696</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.85967</v>
+        <v>4.86091</v>
       </c>
       <c r="C5" t="n">
-        <v>5.39733</v>
+        <v>5.60512</v>
       </c>
       <c r="D5" t="n">
-        <v>6.20397</v>
+        <v>6.56191</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.92832</v>
+        <v>5.97151</v>
       </c>
       <c r="C6" t="n">
-        <v>6.60307</v>
+        <v>6.85361</v>
       </c>
       <c r="D6" t="n">
-        <v>7.63024</v>
+        <v>8.067679999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.97848</v>
+        <v>6.99268</v>
       </c>
       <c r="C7" t="n">
-        <v>7.7867</v>
+        <v>8.10737</v>
       </c>
       <c r="D7" t="n">
-        <v>9.024010000000001</v>
+        <v>9.551019999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>7.99129</v>
+        <v>8.011839999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>9.020429999999999</v>
+        <v>9.389519999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>10.4373</v>
+        <v>11.0535</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.289859999999999</v>
+        <v>9.316979999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>10.4019</v>
+        <v>11.0003</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1364</v>
+        <v>12.8612</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.84151</v>
+        <v>8.79439</v>
       </c>
       <c r="C10" t="n">
-        <v>9.922549999999999</v>
+        <v>10.4492</v>
       </c>
       <c r="D10" t="n">
-        <v>11.353</v>
+        <v>12.175</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.79191</v>
+        <v>8.93566</v>
       </c>
       <c r="C11" t="n">
-        <v>9.83774</v>
+        <v>10.256</v>
       </c>
       <c r="D11" t="n">
-        <v>11.4043</v>
+        <v>11.9783</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.936669999999999</v>
+        <v>8.953340000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9.75802</v>
+        <v>10.3625</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6055</v>
+        <v>12.1111</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.993309999999999</v>
+        <v>9.081099999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>9.94796</v>
+        <v>10.4021</v>
       </c>
       <c r="D13" t="n">
-        <v>11.717</v>
+        <v>12.4591</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.692729999999999</v>
+        <v>8.673159999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>9.94361</v>
+        <v>10.4907</v>
       </c>
       <c r="D14" t="n">
-        <v>11.2601</v>
+        <v>11.7603</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.067399999999999</v>
+        <v>9.12547</v>
       </c>
       <c r="C15" t="n">
-        <v>10.0089</v>
+        <v>10.5279</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6826</v>
+        <v>12.4283</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.868969999999999</v>
+        <v>9.03586</v>
       </c>
       <c r="C16" t="n">
-        <v>10.0196</v>
+        <v>10.6151</v>
       </c>
       <c r="D16" t="n">
-        <v>11.6883</v>
+        <v>12.275</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.90765</v>
+        <v>8.8637</v>
       </c>
       <c r="C17" t="n">
-        <v>10.0897</v>
+        <v>10.5774</v>
       </c>
       <c r="D17" t="n">
-        <v>11.6719</v>
+        <v>12.2986</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.69101</v>
+        <v>1.69098</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12246</v>
+        <v>2.12459</v>
       </c>
       <c r="D2" t="n">
-        <v>2.16654</v>
+        <v>2.17484</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.96712</v>
+        <v>2.99229</v>
       </c>
       <c r="C3" t="n">
-        <v>3.38739</v>
+        <v>3.50104</v>
       </c>
       <c r="D3" t="n">
-        <v>3.94414</v>
+        <v>3.95903</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.24027</v>
+        <v>4.25415</v>
       </c>
       <c r="C4" t="n">
-        <v>4.66478</v>
+        <v>4.87173</v>
       </c>
       <c r="D4" t="n">
-        <v>5.69994</v>
+        <v>5.72921</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.44787</v>
+        <v>5.43618</v>
       </c>
       <c r="C5" t="n">
-        <v>5.97997</v>
+        <v>6.23532</v>
       </c>
       <c r="D5" t="n">
-        <v>7.41699</v>
+        <v>7.43754</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.61469</v>
+        <v>6.62351</v>
       </c>
       <c r="C6" t="n">
-        <v>7.24709</v>
+        <v>7.61642</v>
       </c>
       <c r="D6" t="n">
-        <v>9.100429999999999</v>
+        <v>9.1264</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.75757</v>
+        <v>7.77968</v>
       </c>
       <c r="C7" t="n">
-        <v>8.610379999999999</v>
+        <v>9.00061</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8249</v>
+        <v>10.8353</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.91938</v>
+        <v>8.898960000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>9.96843</v>
+        <v>10.4355</v>
       </c>
       <c r="D8" t="n">
-        <v>12.5071</v>
+        <v>12.5505</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.3574</v>
+        <v>10.3263</v>
       </c>
       <c r="C9" t="n">
-        <v>11.5359</v>
+        <v>12.2286</v>
       </c>
       <c r="D9" t="n">
-        <v>14.4831</v>
+        <v>14.5295</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.88566</v>
+        <v>9.83887</v>
       </c>
       <c r="C10" t="n">
-        <v>11.024</v>
+        <v>11.5001</v>
       </c>
       <c r="D10" t="n">
-        <v>13.6747</v>
+        <v>13.7184</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.7842</v>
+        <v>9.776619999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>10.9083</v>
+        <v>11.4066</v>
       </c>
       <c r="D11" t="n">
-        <v>13.6505</v>
+        <v>13.6866</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.813549999999999</v>
+        <v>9.925700000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>10.8841</v>
+        <v>11.5888</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7773</v>
+        <v>13.9061</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0906</v>
+        <v>10.0764</v>
       </c>
       <c r="C13" t="n">
-        <v>10.9815</v>
+        <v>11.6497</v>
       </c>
       <c r="D13" t="n">
-        <v>13.8904</v>
+        <v>14.0606</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.708600000000001</v>
+        <v>9.72855</v>
       </c>
       <c r="C14" t="n">
-        <v>11.0042</v>
+        <v>11.5978</v>
       </c>
       <c r="D14" t="n">
-        <v>13.314</v>
+        <v>13.3383</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1639</v>
+        <v>10.1729</v>
       </c>
       <c r="C15" t="n">
-        <v>11.0231</v>
+        <v>11.7216</v>
       </c>
       <c r="D15" t="n">
-        <v>13.8485</v>
+        <v>13.9761</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.143</v>
+        <v>10.0764</v>
       </c>
       <c r="C16" t="n">
-        <v>11.0567</v>
+        <v>11.726</v>
       </c>
       <c r="D16" t="n">
-        <v>13.8587</v>
+        <v>13.7431</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.774520000000001</v>
+        <v>9.83217</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0788</v>
+        <v>11.7547</v>
       </c>
       <c r="D17" t="n">
-        <v>13.7969</v>
+        <v>13.9817</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.88335</v>
+        <v>1.89121</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97765</v>
+        <v>1.97632</v>
       </c>
       <c r="D2" t="n">
-        <v>2.00839</v>
+        <v>2.01276</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.1246</v>
+        <v>3.10217</v>
       </c>
       <c r="C3" t="n">
-        <v>3.16818</v>
+        <v>3.26207</v>
       </c>
       <c r="D3" t="n">
-        <v>3.6486</v>
+        <v>3.65691</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.40642</v>
+        <v>4.4069</v>
       </c>
       <c r="C4" t="n">
-        <v>4.39807</v>
+        <v>4.56865</v>
       </c>
       <c r="D4" t="n">
-        <v>5.30312</v>
+        <v>5.28205</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.53849</v>
+        <v>5.61132</v>
       </c>
       <c r="C5" t="n">
-        <v>5.60722</v>
+        <v>5.85369</v>
       </c>
       <c r="D5" t="n">
-        <v>6.95443</v>
+        <v>6.89153</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.76659</v>
+        <v>6.79002</v>
       </c>
       <c r="C6" t="n">
-        <v>6.86574</v>
+        <v>7.17092</v>
       </c>
       <c r="D6" t="n">
-        <v>8.600149999999999</v>
+        <v>8.53463</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.93869</v>
+        <v>7.98405</v>
       </c>
       <c r="C7" t="n">
-        <v>8.11839</v>
+        <v>8.478619999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>10.2296</v>
+        <v>10.1797</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.181139999999999</v>
+        <v>9.18041</v>
       </c>
       <c r="C8" t="n">
-        <v>9.262230000000001</v>
+        <v>9.74644</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8481</v>
+        <v>11.7615</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.5653</v>
+        <v>10.2953</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5143</v>
+        <v>10.8387</v>
       </c>
       <c r="D9" t="n">
-        <v>13.6799</v>
+        <v>13.5839</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0499</v>
+        <v>10.0943</v>
       </c>
       <c r="C10" t="n">
-        <v>10.1782</v>
+        <v>10.6774</v>
       </c>
       <c r="D10" t="n">
-        <v>12.8612</v>
+        <v>12.9157</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0885</v>
+        <v>10.0522</v>
       </c>
       <c r="C11" t="n">
-        <v>10.1815</v>
+        <v>10.4938</v>
       </c>
       <c r="D11" t="n">
-        <v>12.7924</v>
+        <v>12.697</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.891579999999999</v>
+        <v>10.1123</v>
       </c>
       <c r="C12" t="n">
-        <v>10.204</v>
+        <v>10.6337</v>
       </c>
       <c r="D12" t="n">
-        <v>12.9638</v>
+        <v>13.0172</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.1798</v>
+        <v>10.0744</v>
       </c>
       <c r="C13" t="n">
-        <v>10.301</v>
+        <v>10.6769</v>
       </c>
       <c r="D13" t="n">
-        <v>13.2555</v>
+        <v>13.1058</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.76637</v>
+        <v>9.882070000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>10.3126</v>
+        <v>10.7968</v>
       </c>
       <c r="D14" t="n">
-        <v>12.7283</v>
+        <v>12.6146</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.343</v>
+        <v>10.1692</v>
       </c>
       <c r="C15" t="n">
-        <v>10.3914</v>
+        <v>10.809</v>
       </c>
       <c r="D15" t="n">
-        <v>13.167</v>
+        <v>13.2347</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0954</v>
+        <v>9.98513</v>
       </c>
       <c r="C16" t="n">
-        <v>10.4554</v>
+        <v>10.7783</v>
       </c>
       <c r="D16" t="n">
-        <v>13.191</v>
+        <v>13.1095</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.926880000000001</v>
+        <v>10.1206</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5144</v>
+        <v>10.7897</v>
       </c>
       <c r="D17" t="n">
-        <v>13.073</v>
+        <v>13.0776</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.84453</v>
+        <v>2.62393</v>
       </c>
       <c r="C2" t="n">
-        <v>1.92592</v>
+        <v>2.69165</v>
       </c>
       <c r="D2" t="n">
-        <v>1.96465</v>
+        <v>2.4982</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.90925</v>
+        <v>3.80279</v>
       </c>
       <c r="C3" t="n">
-        <v>3.13778</v>
+        <v>4.03707</v>
       </c>
       <c r="D3" t="n">
-        <v>3.54415</v>
+        <v>4.37155</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.18785</v>
+        <v>5.33206</v>
       </c>
       <c r="C4" t="n">
-        <v>4.39362</v>
+        <v>5.48325</v>
       </c>
       <c r="D4" t="n">
-        <v>5.09809</v>
+        <v>6.22471</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.10101</v>
+        <v>6.63432</v>
       </c>
       <c r="C5" t="n">
-        <v>5.41745</v>
+        <v>7.06425</v>
       </c>
       <c r="D5" t="n">
-        <v>6.55017</v>
+        <v>7.99806</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.2003</v>
+        <v>7.72662</v>
       </c>
       <c r="C6" t="n">
-        <v>6.67233</v>
+        <v>8.623889999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.05124</v>
+        <v>9.824780000000001</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.16572</v>
+        <v>8.949730000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>7.64059</v>
+        <v>10.1775</v>
       </c>
       <c r="D7" t="n">
-        <v>9.403790000000001</v>
+        <v>11.6187</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.209820000000001</v>
+        <v>10.3612</v>
       </c>
       <c r="C8" t="n">
-        <v>9.18933</v>
+        <v>11.8094</v>
       </c>
       <c r="D8" t="n">
-        <v>11.04</v>
+        <v>13.3265</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0032</v>
+        <v>12.2859</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0034</v>
+        <v>13.8092</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8053</v>
+        <v>15.4827</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.3994</v>
+        <v>10.2382</v>
       </c>
       <c r="C10" t="n">
-        <v>9.474769999999999</v>
+        <v>11.6372</v>
       </c>
       <c r="D10" t="n">
-        <v>10.6698</v>
+        <v>12.1603</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.58677</v>
+        <v>10.3212</v>
       </c>
       <c r="C11" t="n">
-        <v>9.254490000000001</v>
+        <v>11.5791</v>
       </c>
       <c r="D11" t="n">
-        <v>10.5437</v>
+        <v>12.8668</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.844189999999999</v>
+        <v>10.7966</v>
       </c>
       <c r="C12" t="n">
-        <v>9.60364</v>
+        <v>12.0555</v>
       </c>
       <c r="D12" t="n">
-        <v>11.0478</v>
+        <v>13.2664</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.74832</v>
+        <v>11.0626</v>
       </c>
       <c r="C13" t="n">
-        <v>9.88106</v>
+        <v>12.4577</v>
       </c>
       <c r="D13" t="n">
-        <v>11.6501</v>
+        <v>14.0095</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.9931</v>
+        <v>11.2546</v>
       </c>
       <c r="C14" t="n">
-        <v>10.0309</v>
+        <v>12.7272</v>
       </c>
       <c r="D14" t="n">
-        <v>11.347</v>
+        <v>13.6649</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.11449</v>
+        <v>11.0394</v>
       </c>
       <c r="C15" t="n">
-        <v>10.1319</v>
+        <v>12.8844</v>
       </c>
       <c r="D15" t="n">
-        <v>11.3644</v>
+        <v>13.8512</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.07016</v>
+        <v>10.9146</v>
       </c>
       <c r="C16" t="n">
-        <v>9.998810000000001</v>
+        <v>13.0468</v>
       </c>
       <c r="D16" t="n">
-        <v>11.3478</v>
+        <v>14.1875</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.017939999999999</v>
+        <v>11.0442</v>
       </c>
       <c r="C17" t="n">
-        <v>10.3889</v>
+        <v>13.2134</v>
       </c>
       <c r="D17" t="n">
-        <v>12.0998</v>
+        <v>14.241</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20176</v>
+        <v>3.36517</v>
       </c>
       <c r="C2" t="n">
-        <v>2.24568</v>
+        <v>3.50808</v>
       </c>
       <c r="D2" t="n">
-        <v>2.30026</v>
+        <v>3.59695</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.34191</v>
+        <v>4.50723</v>
       </c>
       <c r="C3" t="n">
-        <v>3.52891</v>
+        <v>4.98005</v>
       </c>
       <c r="D3" t="n">
-        <v>4.02861</v>
+        <v>5.93176</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.7627</v>
+        <v>6.30709</v>
       </c>
       <c r="C4" t="n">
-        <v>4.90207</v>
+        <v>6.66282</v>
       </c>
       <c r="D4" t="n">
-        <v>5.8015</v>
+        <v>8.364330000000001</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.63942</v>
+        <v>7.30072</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92161</v>
+        <v>8.25315</v>
       </c>
       <c r="D5" t="n">
-        <v>7.43171</v>
+        <v>10.7242</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.99619</v>
+        <v>8.878259999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>7.45168</v>
+        <v>9.892250000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.187950000000001</v>
+        <v>12.9553</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.093730000000001</v>
+        <v>10.4808</v>
       </c>
       <c r="C7" t="n">
-        <v>8.42793</v>
+        <v>12.0161</v>
       </c>
       <c r="D7" t="n">
-        <v>10.5753</v>
+        <v>15.3001</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.229469999999999</v>
+        <v>11.9799</v>
       </c>
       <c r="C8" t="n">
-        <v>10.5483</v>
+        <v>13.9673</v>
       </c>
       <c r="D8" t="n">
-        <v>12.4829</v>
+        <v>17.4231</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.2819</v>
+        <v>14.0793</v>
       </c>
       <c r="C9" t="n">
-        <v>12.3026</v>
+        <v>16.2642</v>
       </c>
       <c r="D9" t="n">
-        <v>14.418</v>
+        <v>20.3379</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.33009</v>
+        <v>11.6318</v>
       </c>
       <c r="C10" t="n">
-        <v>10.2024</v>
+        <v>13.7852</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1114</v>
+        <v>16.9344</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.31413</v>
+        <v>12.0479</v>
       </c>
       <c r="C11" t="n">
-        <v>10.312</v>
+        <v>13.5851</v>
       </c>
       <c r="D11" t="n">
-        <v>12.0212</v>
+        <v>16.7258</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.933669999999999</v>
+        <v>12.4708</v>
       </c>
       <c r="C12" t="n">
-        <v>10.6606</v>
+        <v>14.1094</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5916</v>
+        <v>17.4531</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.99611</v>
+        <v>12.7198</v>
       </c>
       <c r="C13" t="n">
-        <v>11.1734</v>
+        <v>14.7984</v>
       </c>
       <c r="D13" t="n">
-        <v>13.1196</v>
+        <v>18.3134</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.0295</v>
+        <v>12.5171</v>
       </c>
       <c r="C14" t="n">
-        <v>11.3119</v>
+        <v>14.8257</v>
       </c>
       <c r="D14" t="n">
-        <v>12.7407</v>
+        <v>17.8027</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1228</v>
+        <v>12.5543</v>
       </c>
       <c r="C15" t="n">
-        <v>11.5007</v>
+        <v>15.2166</v>
       </c>
       <c r="D15" t="n">
-        <v>13.115</v>
+        <v>17.9135</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.3051</v>
+        <v>12.6891</v>
       </c>
       <c r="C16" t="n">
-        <v>11.5423</v>
+        <v>15.2286</v>
       </c>
       <c r="D16" t="n">
-        <v>12.97</v>
+        <v>18.2923</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0586</v>
+        <v>12.7455</v>
       </c>
       <c r="C17" t="n">
-        <v>11.5007</v>
+        <v>15.546</v>
       </c>
       <c r="D17" t="n">
-        <v>13.3852</v>
+        <v>18.5625</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01824</v>
+        <v>2.94656</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01387</v>
+        <v>2.97992</v>
       </c>
       <c r="D2" t="n">
-        <v>2.05225</v>
+        <v>2.59525</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.14373</v>
+        <v>4.17739</v>
       </c>
       <c r="C3" t="n">
-        <v>3.23773</v>
+        <v>4.38211</v>
       </c>
       <c r="D3" t="n">
-        <v>3.64422</v>
+        <v>4.47028</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.47665</v>
+        <v>5.58613</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5756</v>
+        <v>5.91688</v>
       </c>
       <c r="D4" t="n">
-        <v>5.32186</v>
+        <v>6.45956</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.56693</v>
+        <v>6.9123</v>
       </c>
       <c r="C5" t="n">
-        <v>5.65893</v>
+        <v>7.33479</v>
       </c>
       <c r="D5" t="n">
-        <v>6.85692</v>
+        <v>8.280939999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.60776</v>
+        <v>8.21733</v>
       </c>
       <c r="C6" t="n">
-        <v>6.86195</v>
+        <v>8.809979999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.472160000000001</v>
+        <v>10.2263</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.70854</v>
+        <v>9.780849999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>8.14237</v>
+        <v>10.8086</v>
       </c>
       <c r="D7" t="n">
-        <v>10.122</v>
+        <v>12.1354</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.87416</v>
+        <v>11.0333</v>
       </c>
       <c r="C8" t="n">
-        <v>9.47077</v>
+        <v>12.0451</v>
       </c>
       <c r="D8" t="n">
-        <v>11.6532</v>
+        <v>14.3321</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.4</v>
+        <v>12.6701</v>
       </c>
       <c r="C9" t="n">
-        <v>11.1174</v>
+        <v>13.9867</v>
       </c>
       <c r="D9" t="n">
-        <v>13.4467</v>
+        <v>16.057</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.807650000000001</v>
+        <v>10.9405</v>
       </c>
       <c r="C10" t="n">
-        <v>9.50346</v>
+        <v>12.4075</v>
       </c>
       <c r="D10" t="n">
-        <v>11.2278</v>
+        <v>13.2848</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.875500000000001</v>
+        <v>10.8952</v>
       </c>
       <c r="C11" t="n">
-        <v>9.50183</v>
+        <v>12.1653</v>
       </c>
       <c r="D11" t="n">
-        <v>11.361</v>
+        <v>13.1576</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.195130000000001</v>
+        <v>11.2939</v>
       </c>
       <c r="C12" t="n">
-        <v>9.831709999999999</v>
+        <v>12.4959</v>
       </c>
       <c r="D12" t="n">
-        <v>11.7889</v>
+        <v>13.7931</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.34521</v>
+        <v>11.5157</v>
       </c>
       <c r="C13" t="n">
-        <v>10.1633</v>
+        <v>12.8501</v>
       </c>
       <c r="D13" t="n">
-        <v>12.3709</v>
+        <v>14.6267</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.42225</v>
+        <v>11.5045</v>
       </c>
       <c r="C14" t="n">
-        <v>10.3203</v>
+        <v>13.0412</v>
       </c>
       <c r="D14" t="n">
-        <v>12.0713</v>
+        <v>14.4403</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.546110000000001</v>
+        <v>11.3541</v>
       </c>
       <c r="C15" t="n">
-        <v>10.7804</v>
+        <v>13.21</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2961</v>
+        <v>14.6429</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.81889</v>
+        <v>11.795</v>
       </c>
       <c r="C16" t="n">
-        <v>10.6984</v>
+        <v>13.4306</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2996</v>
+        <v>14.712</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.68723</v>
+        <v>11.3305</v>
       </c>
       <c r="C17" t="n">
-        <v>11.0295</v>
+        <v>13.8964</v>
       </c>
       <c r="D17" t="n">
-        <v>12.6187</v>
+        <v>15.0604</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.46031</v>
+        <v>1.91881</v>
       </c>
       <c r="C2" t="n">
-        <v>1.82974</v>
+        <v>2.51049</v>
       </c>
       <c r="D2" t="n">
-        <v>1.86332</v>
+        <v>2.34484</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.63429</v>
+        <v>3.31888</v>
       </c>
       <c r="C3" t="n">
-        <v>3.07722</v>
+        <v>3.96415</v>
       </c>
       <c r="D3" t="n">
-        <v>3.45518</v>
+        <v>4.25247</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.78748</v>
+        <v>4.75397</v>
       </c>
       <c r="C4" t="n">
-        <v>4.33752</v>
+        <v>5.52016</v>
       </c>
       <c r="D4" t="n">
-        <v>5.02696</v>
+        <v>6.15281</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.86091</v>
+        <v>6.03259</v>
       </c>
       <c r="C5" t="n">
-        <v>5.60512</v>
+        <v>7.0365</v>
       </c>
       <c r="D5" t="n">
-        <v>6.56191</v>
+        <v>7.99558</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.97151</v>
+        <v>7.30527</v>
       </c>
       <c r="C6" t="n">
-        <v>6.85361</v>
+        <v>8.578379999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.067679999999999</v>
+        <v>9.80846</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.99268</v>
+        <v>8.501860000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>8.10737</v>
+        <v>10.1027</v>
       </c>
       <c r="D7" t="n">
-        <v>9.551019999999999</v>
+        <v>11.5809</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.011839999999999</v>
+        <v>9.69858</v>
       </c>
       <c r="C8" t="n">
-        <v>9.389519999999999</v>
+        <v>11.733</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0535</v>
+        <v>13.3651</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.316979999999999</v>
+        <v>11.3102</v>
       </c>
       <c r="C9" t="n">
-        <v>11.0003</v>
+        <v>13.7525</v>
       </c>
       <c r="D9" t="n">
-        <v>12.8612</v>
+        <v>15.5938</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.79439</v>
+        <v>10.6846</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4492</v>
+        <v>12.9886</v>
       </c>
       <c r="D10" t="n">
-        <v>12.175</v>
+        <v>14.805</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.93566</v>
+        <v>10.7408</v>
       </c>
       <c r="C11" t="n">
-        <v>10.256</v>
+        <v>12.9034</v>
       </c>
       <c r="D11" t="n">
-        <v>11.9783</v>
+        <v>14.5347</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.953340000000001</v>
+        <v>10.6922</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3625</v>
+        <v>12.8708</v>
       </c>
       <c r="D12" t="n">
-        <v>12.1111</v>
+        <v>14.7964</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.081099999999999</v>
+        <v>10.9721</v>
       </c>
       <c r="C13" t="n">
-        <v>10.4021</v>
+        <v>12.933</v>
       </c>
       <c r="D13" t="n">
-        <v>12.4591</v>
+        <v>14.9179</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.673159999999999</v>
+        <v>10.5654</v>
       </c>
       <c r="C14" t="n">
-        <v>10.4907</v>
+        <v>12.9515</v>
       </c>
       <c r="D14" t="n">
-        <v>11.7603</v>
+        <v>14.4224</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.12547</v>
+        <v>11.0054</v>
       </c>
       <c r="C15" t="n">
-        <v>10.5279</v>
+        <v>13.0679</v>
       </c>
       <c r="D15" t="n">
-        <v>12.4283</v>
+        <v>14.9549</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.03586</v>
+        <v>10.8707</v>
       </c>
       <c r="C16" t="n">
-        <v>10.6151</v>
+        <v>13.1907</v>
       </c>
       <c r="D16" t="n">
-        <v>12.275</v>
+        <v>14.8578</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.8637</v>
+        <v>10.8409</v>
       </c>
       <c r="C17" t="n">
-        <v>10.5774</v>
+        <v>13.2442</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2986</v>
+        <v>14.7788</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.69098</v>
+        <v>2.28863</v>
       </c>
       <c r="C2" t="n">
-        <v>2.12459</v>
+        <v>3.22275</v>
       </c>
       <c r="D2" t="n">
-        <v>2.17484</v>
+        <v>3.28821</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.99229</v>
+        <v>3.85498</v>
       </c>
       <c r="C3" t="n">
-        <v>3.50104</v>
+        <v>4.85626</v>
       </c>
       <c r="D3" t="n">
-        <v>3.95903</v>
+        <v>5.75829</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.25415</v>
+        <v>5.45215</v>
       </c>
       <c r="C4" t="n">
-        <v>4.87173</v>
+        <v>6.56253</v>
       </c>
       <c r="D4" t="n">
-        <v>5.72921</v>
+        <v>8.20016</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.43618</v>
+        <v>6.85711</v>
       </c>
       <c r="C5" t="n">
-        <v>6.23532</v>
+        <v>8.299250000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>7.43754</v>
+        <v>10.5693</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.62351</v>
+        <v>8.29191</v>
       </c>
       <c r="C6" t="n">
-        <v>7.61642</v>
+        <v>10.085</v>
       </c>
       <c r="D6" t="n">
-        <v>9.1264</v>
+        <v>12.9305</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.77968</v>
+        <v>9.649929999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>9.00061</v>
+        <v>11.8553</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8353</v>
+        <v>15.2103</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.898960000000001</v>
+        <v>10.9825</v>
       </c>
       <c r="C8" t="n">
-        <v>10.4355</v>
+        <v>13.7275</v>
       </c>
       <c r="D8" t="n">
-        <v>12.5505</v>
+        <v>17.5346</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.3263</v>
+        <v>12.8353</v>
       </c>
       <c r="C9" t="n">
-        <v>12.2286</v>
+        <v>16.1419</v>
       </c>
       <c r="D9" t="n">
-        <v>14.5295</v>
+        <v>20.4695</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.83887</v>
+        <v>12.1126</v>
       </c>
       <c r="C10" t="n">
-        <v>11.5001</v>
+        <v>15.1307</v>
       </c>
       <c r="D10" t="n">
-        <v>13.7184</v>
+        <v>19.1383</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.776619999999999</v>
+        <v>12.0423</v>
       </c>
       <c r="C11" t="n">
-        <v>11.4066</v>
+        <v>15.0579</v>
       </c>
       <c r="D11" t="n">
-        <v>13.6866</v>
+        <v>19.1213</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.925700000000001</v>
+        <v>12.0628</v>
       </c>
       <c r="C12" t="n">
-        <v>11.5888</v>
+        <v>14.893</v>
       </c>
       <c r="D12" t="n">
-        <v>13.9061</v>
+        <v>19.1286</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0764</v>
+        <v>12.3675</v>
       </c>
       <c r="C13" t="n">
-        <v>11.6497</v>
+        <v>15.1171</v>
       </c>
       <c r="D13" t="n">
-        <v>14.0606</v>
+        <v>19.483</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.72855</v>
+        <v>11.9309</v>
       </c>
       <c r="C14" t="n">
-        <v>11.5978</v>
+        <v>15.2324</v>
       </c>
       <c r="D14" t="n">
-        <v>13.3383</v>
+        <v>18.6768</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1729</v>
+        <v>12.5315</v>
       </c>
       <c r="C15" t="n">
-        <v>11.7216</v>
+        <v>15.2934</v>
       </c>
       <c r="D15" t="n">
-        <v>13.9761</v>
+        <v>19.3667</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.0764</v>
+        <v>12.3205</v>
       </c>
       <c r="C16" t="n">
-        <v>11.726</v>
+        <v>15.4102</v>
       </c>
       <c r="D16" t="n">
-        <v>13.7431</v>
+        <v>19.1363</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.83217</v>
+        <v>12.1963</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7547</v>
+        <v>15.5423</v>
       </c>
       <c r="D17" t="n">
-        <v>13.9817</v>
+        <v>18.9953</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.89121</v>
+        <v>2.67281</v>
       </c>
       <c r="C2" t="n">
-        <v>1.97632</v>
+        <v>2.90072</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01276</v>
+        <v>2.52824</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.10217</v>
+        <v>4.10748</v>
       </c>
       <c r="C3" t="n">
-        <v>3.26207</v>
+        <v>4.36174</v>
       </c>
       <c r="D3" t="n">
-        <v>3.65691</v>
+        <v>4.43631</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.4069</v>
+        <v>5.68751</v>
       </c>
       <c r="C4" t="n">
-        <v>4.56865</v>
+        <v>6.00879</v>
       </c>
       <c r="D4" t="n">
-        <v>5.28205</v>
+        <v>6.40161</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.61132</v>
+        <v>7.15616</v>
       </c>
       <c r="C5" t="n">
-        <v>5.85369</v>
+        <v>7.58196</v>
       </c>
       <c r="D5" t="n">
-        <v>6.89153</v>
+        <v>8.33047</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.79002</v>
+        <v>8.61539</v>
       </c>
       <c r="C6" t="n">
-        <v>7.17092</v>
+        <v>9.045</v>
       </c>
       <c r="D6" t="n">
-        <v>8.53463</v>
+        <v>10.2951</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.98405</v>
+        <v>10.0252</v>
       </c>
       <c r="C7" t="n">
-        <v>8.478619999999999</v>
+        <v>10.7229</v>
       </c>
       <c r="D7" t="n">
-        <v>10.1797</v>
+        <v>12.2383</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.18041</v>
+        <v>11.4877</v>
       </c>
       <c r="C8" t="n">
-        <v>9.74644</v>
+        <v>12.0869</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7615</v>
+        <v>14.1914</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.2953</v>
+        <v>13.1239</v>
       </c>
       <c r="C9" t="n">
-        <v>10.8387</v>
+        <v>13.7529</v>
       </c>
       <c r="D9" t="n">
-        <v>13.5839</v>
+        <v>16.4154</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0943</v>
+        <v>12.8248</v>
       </c>
       <c r="C10" t="n">
-        <v>10.6774</v>
+        <v>13.7226</v>
       </c>
       <c r="D10" t="n">
-        <v>12.9157</v>
+        <v>15.464</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0522</v>
+        <v>12.422</v>
       </c>
       <c r="C11" t="n">
-        <v>10.4938</v>
+        <v>13.511</v>
       </c>
       <c r="D11" t="n">
-        <v>12.697</v>
+        <v>15.5515</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.1123</v>
+        <v>12.7263</v>
       </c>
       <c r="C12" t="n">
-        <v>10.6337</v>
+        <v>13.597</v>
       </c>
       <c r="D12" t="n">
-        <v>13.0172</v>
+        <v>15.4515</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0744</v>
+        <v>12.6983</v>
       </c>
       <c r="C13" t="n">
-        <v>10.6769</v>
+        <v>13.7057</v>
       </c>
       <c r="D13" t="n">
-        <v>13.1058</v>
+        <v>15.6346</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.882070000000001</v>
+        <v>12.3744</v>
       </c>
       <c r="C14" t="n">
-        <v>10.7968</v>
+        <v>13.8687</v>
       </c>
       <c r="D14" t="n">
-        <v>12.6146</v>
+        <v>15.0867</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1692</v>
+        <v>12.6252</v>
       </c>
       <c r="C15" t="n">
-        <v>10.809</v>
+        <v>14.0051</v>
       </c>
       <c r="D15" t="n">
-        <v>13.2347</v>
+        <v>15.6874</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.98513</v>
+        <v>12.5236</v>
       </c>
       <c r="C16" t="n">
-        <v>10.7783</v>
+        <v>14.1112</v>
       </c>
       <c r="D16" t="n">
-        <v>13.1095</v>
+        <v>15.5602</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.1206</v>
+        <v>12.4728</v>
       </c>
       <c r="C17" t="n">
-        <v>10.7897</v>
+        <v>14.0758</v>
       </c>
       <c r="D17" t="n">
-        <v>13.0776</v>
+        <v>15.6651</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.62393</v>
+        <v>5.04837</v>
       </c>
       <c r="C2" t="n">
-        <v>2.69165</v>
+        <v>5.70865</v>
       </c>
       <c r="D2" t="n">
-        <v>2.4982</v>
+        <v>5.57201</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.80279</v>
+        <v>6.11231</v>
       </c>
       <c r="C3" t="n">
-        <v>4.03707</v>
+        <v>6.79297</v>
       </c>
       <c r="D3" t="n">
-        <v>4.37155</v>
+        <v>8.386189999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.33206</v>
+        <v>7.27483</v>
       </c>
       <c r="C4" t="n">
-        <v>5.48325</v>
+        <v>8.936719999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>6.22471</v>
+        <v>11.5964</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.63432</v>
+        <v>9.22608</v>
       </c>
       <c r="C5" t="n">
-        <v>7.06425</v>
+        <v>11.0563</v>
       </c>
       <c r="D5" t="n">
-        <v>7.99806</v>
+        <v>14.4224</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.72662</v>
+        <v>10.7546</v>
       </c>
       <c r="C6" t="n">
-        <v>8.623889999999999</v>
+        <v>13.344</v>
       </c>
       <c r="D6" t="n">
-        <v>9.824780000000001</v>
+        <v>17.4332</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.949730000000001</v>
+        <v>12.5266</v>
       </c>
       <c r="C7" t="n">
-        <v>10.1775</v>
+        <v>15.7191</v>
       </c>
       <c r="D7" t="n">
-        <v>11.6187</v>
+        <v>20.4109</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.3612</v>
+        <v>13.906</v>
       </c>
       <c r="C8" t="n">
-        <v>11.8094</v>
+        <v>17.8582</v>
       </c>
       <c r="D8" t="n">
-        <v>13.3265</v>
+        <v>24.2916</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.2859</v>
+        <v>16.4355</v>
       </c>
       <c r="C9" t="n">
-        <v>13.8092</v>
+        <v>21.2104</v>
       </c>
       <c r="D9" t="n">
-        <v>15.4827</v>
+        <v>27.1668</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.2382</v>
+        <v>13.7699</v>
       </c>
       <c r="C10" t="n">
-        <v>11.6372</v>
+        <v>17.9769</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1603</v>
+        <v>21.9553</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.3212</v>
+        <v>14.0515</v>
       </c>
       <c r="C11" t="n">
-        <v>11.5791</v>
+        <v>17.9774</v>
       </c>
       <c r="D11" t="n">
-        <v>12.8668</v>
+        <v>22.5116</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.7966</v>
+        <v>14.5792</v>
       </c>
       <c r="C12" t="n">
-        <v>12.0555</v>
+        <v>18.7413</v>
       </c>
       <c r="D12" t="n">
-        <v>13.2664</v>
+        <v>23.7855</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0626</v>
+        <v>15.0412</v>
       </c>
       <c r="C13" t="n">
-        <v>12.4577</v>
+        <v>19.1539</v>
       </c>
       <c r="D13" t="n">
-        <v>14.0095</v>
+        <v>24.7299</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.2546</v>
+        <v>14.9122</v>
       </c>
       <c r="C14" t="n">
-        <v>12.7272</v>
+        <v>19.5093</v>
       </c>
       <c r="D14" t="n">
-        <v>13.6649</v>
+        <v>23.4942</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0394</v>
+        <v>15.1904</v>
       </c>
       <c r="C15" t="n">
-        <v>12.8844</v>
+        <v>19.7621</v>
       </c>
       <c r="D15" t="n">
-        <v>13.8512</v>
+        <v>22.9785</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.9146</v>
+        <v>15.353</v>
       </c>
       <c r="C16" t="n">
-        <v>13.0468</v>
+        <v>19.8356</v>
       </c>
       <c r="D16" t="n">
-        <v>14.1875</v>
+        <v>23.8245</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.0442</v>
+        <v>15.6938</v>
       </c>
       <c r="C17" t="n">
-        <v>13.2134</v>
+        <v>20.2975</v>
       </c>
       <c r="D17" t="n">
-        <v>14.241</v>
+        <v>24.0396</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.36517</v>
+        <v>8.646380000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>3.50808</v>
+        <v>9.97484</v>
       </c>
       <c r="D2" t="n">
-        <v>3.59695</v>
+        <v>11.2959</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.50723</v>
+        <v>8.3711</v>
       </c>
       <c r="C3" t="n">
-        <v>4.98005</v>
+        <v>9.28471</v>
       </c>
       <c r="D3" t="n">
-        <v>5.93176</v>
+        <v>13.4573</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.30709</v>
+        <v>9.53472</v>
       </c>
       <c r="C4" t="n">
-        <v>6.66282</v>
+        <v>10.9124</v>
       </c>
       <c r="D4" t="n">
-        <v>8.364330000000001</v>
+        <v>17.0353</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.30072</v>
+        <v>11.3446</v>
       </c>
       <c r="C5" t="n">
-        <v>8.25315</v>
+        <v>13.0687</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7242</v>
+        <v>20.8952</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.878259999999999</v>
+        <v>13.5941</v>
       </c>
       <c r="C6" t="n">
-        <v>9.892250000000001</v>
+        <v>15.6516</v>
       </c>
       <c r="D6" t="n">
-        <v>12.9553</v>
+        <v>25.1208</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4808</v>
+        <v>16.0641</v>
       </c>
       <c r="C7" t="n">
-        <v>12.0161</v>
+        <v>18.9612</v>
       </c>
       <c r="D7" t="n">
-        <v>15.3001</v>
+        <v>29.377</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9799</v>
+        <v>17.8325</v>
       </c>
       <c r="C8" t="n">
-        <v>13.9673</v>
+        <v>22.3527</v>
       </c>
       <c r="D8" t="n">
-        <v>17.4231</v>
+        <v>32.6635</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0793</v>
+        <v>20.9341</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2642</v>
+        <v>26.5056</v>
       </c>
       <c r="D9" t="n">
-        <v>20.3379</v>
+        <v>39.0407</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.6318</v>
+        <v>18.2493</v>
       </c>
       <c r="C10" t="n">
-        <v>13.7852</v>
+        <v>22.9484</v>
       </c>
       <c r="D10" t="n">
-        <v>16.9344</v>
+        <v>33.4008</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0479</v>
+        <v>18.1448</v>
       </c>
       <c r="C11" t="n">
-        <v>13.5851</v>
+        <v>23.1319</v>
       </c>
       <c r="D11" t="n">
-        <v>16.7258</v>
+        <v>33.1699</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.4708</v>
+        <v>18.4804</v>
       </c>
       <c r="C12" t="n">
-        <v>14.1094</v>
+        <v>23.6675</v>
       </c>
       <c r="D12" t="n">
-        <v>17.4531</v>
+        <v>33.9081</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.7198</v>
+        <v>19.0033</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7984</v>
+        <v>24.4067</v>
       </c>
       <c r="D13" t="n">
-        <v>18.3134</v>
+        <v>35.2977</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.5171</v>
+        <v>18.6241</v>
       </c>
       <c r="C14" t="n">
-        <v>14.8257</v>
+        <v>24.0208</v>
       </c>
       <c r="D14" t="n">
-        <v>17.8027</v>
+        <v>33.9054</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5543</v>
+        <v>19.136</v>
       </c>
       <c r="C15" t="n">
-        <v>15.2166</v>
+        <v>24.2724</v>
       </c>
       <c r="D15" t="n">
-        <v>17.9135</v>
+        <v>33.5316</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.6891</v>
+        <v>19.5671</v>
       </c>
       <c r="C16" t="n">
-        <v>15.2286</v>
+        <v>24.9807</v>
       </c>
       <c r="D16" t="n">
-        <v>18.2923</v>
+        <v>34.4529</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7455</v>
+        <v>19.4442</v>
       </c>
       <c r="C17" t="n">
-        <v>15.546</v>
+        <v>24.9891</v>
       </c>
       <c r="D17" t="n">
-        <v>18.5625</v>
+        <v>34.1021</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.94656</v>
+        <v>6.42793</v>
       </c>
       <c r="C2" t="n">
-        <v>2.97992</v>
+        <v>6.52568</v>
       </c>
       <c r="D2" t="n">
-        <v>2.59525</v>
+        <v>7.10939</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.17739</v>
+        <v>7.0646</v>
       </c>
       <c r="C3" t="n">
-        <v>4.38211</v>
+        <v>7.43291</v>
       </c>
       <c r="D3" t="n">
-        <v>4.47028</v>
+        <v>10.0415</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.58613</v>
+        <v>8.325799999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>5.91688</v>
+        <v>9.110480000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>6.45956</v>
+        <v>13.5922</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.9123</v>
+        <v>10.0017</v>
       </c>
       <c r="C5" t="n">
-        <v>7.33479</v>
+        <v>11.3626</v>
       </c>
       <c r="D5" t="n">
-        <v>8.280939999999999</v>
+        <v>17.3299</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.21733</v>
+        <v>11.7349</v>
       </c>
       <c r="C6" t="n">
-        <v>8.809979999999999</v>
+        <v>13.2828</v>
       </c>
       <c r="D6" t="n">
-        <v>10.2263</v>
+        <v>21.0392</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.780849999999999</v>
+        <v>14.0198</v>
       </c>
       <c r="C7" t="n">
-        <v>10.8086</v>
+        <v>16.8496</v>
       </c>
       <c r="D7" t="n">
-        <v>12.1354</v>
+        <v>25.2701</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.0333</v>
+        <v>16.0206</v>
       </c>
       <c r="C8" t="n">
-        <v>12.0451</v>
+        <v>19.1488</v>
       </c>
       <c r="D8" t="n">
-        <v>14.3321</v>
+        <v>28.6199</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.6701</v>
+        <v>18.2191</v>
       </c>
       <c r="C9" t="n">
-        <v>13.9867</v>
+        <v>22.0493</v>
       </c>
       <c r="D9" t="n">
-        <v>16.057</v>
+        <v>33.3085</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.9405</v>
+        <v>16.2698</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4075</v>
+        <v>19.1408</v>
       </c>
       <c r="D10" t="n">
-        <v>13.2848</v>
+        <v>27.5015</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.8952</v>
+        <v>15.9159</v>
       </c>
       <c r="C11" t="n">
-        <v>12.1653</v>
+        <v>18.966</v>
       </c>
       <c r="D11" t="n">
-        <v>13.1576</v>
+        <v>27.841</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.2939</v>
+        <v>16.5248</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4959</v>
+        <v>19.8146</v>
       </c>
       <c r="D12" t="n">
-        <v>13.7931</v>
+        <v>29.4937</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.5157</v>
+        <v>17.1781</v>
       </c>
       <c r="C13" t="n">
-        <v>12.8501</v>
+        <v>20.0686</v>
       </c>
       <c r="D13" t="n">
-        <v>14.6267</v>
+        <v>30.2639</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5045</v>
+        <v>16.614</v>
       </c>
       <c r="C14" t="n">
-        <v>13.0412</v>
+        <v>20.3841</v>
       </c>
       <c r="D14" t="n">
-        <v>14.4403</v>
+        <v>28.5619</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.3541</v>
+        <v>16.984</v>
       </c>
       <c r="C15" t="n">
-        <v>13.21</v>
+        <v>20.3391</v>
       </c>
       <c r="D15" t="n">
-        <v>14.6429</v>
+        <v>28.7147</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.795</v>
+        <v>17.2565</v>
       </c>
       <c r="C16" t="n">
-        <v>13.4306</v>
+        <v>20.9329</v>
       </c>
       <c r="D16" t="n">
-        <v>14.712</v>
+        <v>29.3791</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.3305</v>
+        <v>17.2978</v>
       </c>
       <c r="C17" t="n">
-        <v>13.8964</v>
+        <v>21.4166</v>
       </c>
       <c r="D17" t="n">
-        <v>15.0604</v>
+        <v>29.5088</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.91881</v>
+        <v>2.96317</v>
       </c>
       <c r="C2" t="n">
-        <v>2.51049</v>
+        <v>5.03975</v>
       </c>
       <c r="D2" t="n">
-        <v>2.34484</v>
+        <v>4.86027</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.31888</v>
+        <v>4.87225</v>
       </c>
       <c r="C3" t="n">
-        <v>3.96415</v>
+        <v>6.7095</v>
       </c>
       <c r="D3" t="n">
-        <v>4.25247</v>
+        <v>8.07375</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.75397</v>
+        <v>6.5517</v>
       </c>
       <c r="C4" t="n">
-        <v>5.52016</v>
+        <v>8.78063</v>
       </c>
       <c r="D4" t="n">
-        <v>6.15281</v>
+        <v>11.2534</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.03259</v>
+        <v>8.11675</v>
       </c>
       <c r="C5" t="n">
-        <v>7.0365</v>
+        <v>10.9014</v>
       </c>
       <c r="D5" t="n">
-        <v>7.99558</v>
+        <v>14.2628</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>7.30527</v>
+        <v>9.68045</v>
       </c>
       <c r="C6" t="n">
-        <v>8.578379999999999</v>
+        <v>13.1524</v>
       </c>
       <c r="D6" t="n">
-        <v>9.80846</v>
+        <v>17.2241</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>8.501860000000001</v>
+        <v>11.1463</v>
       </c>
       <c r="C7" t="n">
-        <v>10.1027</v>
+        <v>15.3697</v>
       </c>
       <c r="D7" t="n">
-        <v>11.5809</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.69858</v>
+        <v>12.6154</v>
       </c>
       <c r="C8" t="n">
-        <v>11.733</v>
+        <v>17.7673</v>
       </c>
       <c r="D8" t="n">
-        <v>13.3651</v>
+        <v>23.0904</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3102</v>
+        <v>14.8385</v>
       </c>
       <c r="C9" t="n">
-        <v>13.7525</v>
+        <v>20.9233</v>
       </c>
       <c r="D9" t="n">
-        <v>15.5938</v>
+        <v>27.3819</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.6846</v>
+        <v>14.0106</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9886</v>
+        <v>19.4451</v>
       </c>
       <c r="D10" t="n">
-        <v>14.805</v>
+        <v>25.1518</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.7408</v>
+        <v>13.7791</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9034</v>
+        <v>19.4214</v>
       </c>
       <c r="D11" t="n">
-        <v>14.5347</v>
+        <v>25.2418</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10.6922</v>
+        <v>14.1674</v>
       </c>
       <c r="C12" t="n">
-        <v>12.8708</v>
+        <v>19.4629</v>
       </c>
       <c r="D12" t="n">
-        <v>14.7964</v>
+        <v>25.1381</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.9721</v>
+        <v>14.2225</v>
       </c>
       <c r="C13" t="n">
-        <v>12.933</v>
+        <v>19.4895</v>
       </c>
       <c r="D13" t="n">
-        <v>14.9179</v>
+        <v>25.479</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.5654</v>
+        <v>13.8983</v>
       </c>
       <c r="C14" t="n">
-        <v>12.9515</v>
+        <v>19.7062</v>
       </c>
       <c r="D14" t="n">
-        <v>14.4224</v>
+        <v>24.67</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0054</v>
+        <v>14.4643</v>
       </c>
       <c r="C15" t="n">
-        <v>13.0679</v>
+        <v>19.8524</v>
       </c>
       <c r="D15" t="n">
-        <v>14.9549</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.8707</v>
+        <v>14.1284</v>
       </c>
       <c r="C16" t="n">
-        <v>13.1907</v>
+        <v>20.0235</v>
       </c>
       <c r="D16" t="n">
-        <v>14.8578</v>
+        <v>25.0548</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.8409</v>
+        <v>14.1451</v>
       </c>
       <c r="C17" t="n">
-        <v>13.2442</v>
+        <v>20.1509</v>
       </c>
       <c r="D17" t="n">
-        <v>14.7788</v>
+        <v>25.0575</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.28863</v>
+        <v>3.98599</v>
       </c>
       <c r="C2" t="n">
-        <v>3.22275</v>
+        <v>8.20162</v>
       </c>
       <c r="D2" t="n">
-        <v>3.28821</v>
+        <v>8.7934</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.85498</v>
+        <v>6.11664</v>
       </c>
       <c r="C3" t="n">
-        <v>4.85626</v>
+        <v>8.879899999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>5.75829</v>
+        <v>12.7796</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.45215</v>
+        <v>8.16301</v>
       </c>
       <c r="C4" t="n">
-        <v>6.56253</v>
+        <v>11.2356</v>
       </c>
       <c r="D4" t="n">
-        <v>8.20016</v>
+        <v>17.0428</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6.85711</v>
+        <v>10.101</v>
       </c>
       <c r="C5" t="n">
-        <v>8.299250000000001</v>
+        <v>13.7085</v>
       </c>
       <c r="D5" t="n">
-        <v>10.5693</v>
+        <v>21.1118</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.29191</v>
+        <v>11.9605</v>
       </c>
       <c r="C6" t="n">
-        <v>10.085</v>
+        <v>16.3048</v>
       </c>
       <c r="D6" t="n">
-        <v>12.9305</v>
+        <v>25.1536</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>9.649929999999999</v>
+        <v>13.7826</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8553</v>
+        <v>18.9723</v>
       </c>
       <c r="D7" t="n">
-        <v>15.2103</v>
+        <v>29.1133</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.9825</v>
+        <v>15.5371</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7275</v>
+        <v>22.0782</v>
       </c>
       <c r="D8" t="n">
-        <v>17.5346</v>
+        <v>33.0994</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.8353</v>
+        <v>18.0675</v>
       </c>
       <c r="C9" t="n">
-        <v>16.1419</v>
+        <v>25.6011</v>
       </c>
       <c r="D9" t="n">
-        <v>20.4695</v>
+        <v>39.4449</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.1126</v>
+        <v>17.0258</v>
       </c>
       <c r="C10" t="n">
-        <v>15.1307</v>
+        <v>23.6149</v>
       </c>
       <c r="D10" t="n">
-        <v>19.1383</v>
+        <v>36.4574</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.0423</v>
+        <v>17.0329</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0579</v>
+        <v>23.5746</v>
       </c>
       <c r="D11" t="n">
-        <v>19.1213</v>
+        <v>36.1622</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.0628</v>
+        <v>17.149</v>
       </c>
       <c r="C12" t="n">
-        <v>14.893</v>
+        <v>23.7824</v>
       </c>
       <c r="D12" t="n">
-        <v>19.1286</v>
+        <v>35.85</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.3675</v>
+        <v>17.5989</v>
       </c>
       <c r="C13" t="n">
-        <v>15.1171</v>
+        <v>24.1565</v>
       </c>
       <c r="D13" t="n">
-        <v>19.483</v>
+        <v>35.6901</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9309</v>
+        <v>16.954</v>
       </c>
       <c r="C14" t="n">
-        <v>15.2324</v>
+        <v>24.2668</v>
       </c>
       <c r="D14" t="n">
-        <v>18.6768</v>
+        <v>34.9804</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5315</v>
+        <v>17.4678</v>
       </c>
       <c r="C15" t="n">
-        <v>15.2934</v>
+        <v>24.5567</v>
       </c>
       <c r="D15" t="n">
-        <v>19.3667</v>
+        <v>35.511</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3205</v>
+        <v>17.486</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4102</v>
+        <v>24.6683</v>
       </c>
       <c r="D16" t="n">
-        <v>19.1363</v>
+        <v>35.1701</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.1963</v>
+        <v>17.0212</v>
       </c>
       <c r="C17" t="n">
-        <v>15.5423</v>
+        <v>24.8241</v>
       </c>
       <c r="D17" t="n">
-        <v>18.9953</v>
+        <v>34.5025</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.67281</v>
+        <v>5.26166</v>
       </c>
       <c r="C2" t="n">
-        <v>2.90072</v>
+        <v>6.28252</v>
       </c>
       <c r="D2" t="n">
-        <v>2.52824</v>
+        <v>6.69328</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.10748</v>
+        <v>6.82114</v>
       </c>
       <c r="C3" t="n">
-        <v>4.36174</v>
+        <v>7.53486</v>
       </c>
       <c r="D3" t="n">
-        <v>4.43631</v>
+        <v>9.909520000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5.68751</v>
+        <v>8.66991</v>
       </c>
       <c r="C4" t="n">
-        <v>6.00879</v>
+        <v>9.66677</v>
       </c>
       <c r="D4" t="n">
-        <v>6.40161</v>
+        <v>13.6066</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>7.15616</v>
+        <v>10.5345</v>
       </c>
       <c r="C5" t="n">
-        <v>7.58196</v>
+        <v>11.863</v>
       </c>
       <c r="D5" t="n">
-        <v>8.33047</v>
+        <v>17.3972</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>8.61539</v>
+        <v>12.3994</v>
       </c>
       <c r="C6" t="n">
-        <v>9.045</v>
+        <v>14.2272</v>
       </c>
       <c r="D6" t="n">
-        <v>10.2951</v>
+        <v>21.1174</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.0252</v>
+        <v>14.2041</v>
       </c>
       <c r="C7" t="n">
-        <v>10.7229</v>
+        <v>16.5608</v>
       </c>
       <c r="D7" t="n">
-        <v>12.2383</v>
+        <v>24.7819</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.4877</v>
+        <v>15.9197</v>
       </c>
       <c r="C8" t="n">
-        <v>12.0869</v>
+        <v>17.972</v>
       </c>
       <c r="D8" t="n">
-        <v>14.1914</v>
+        <v>28.6515</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.1239</v>
+        <v>17.6795</v>
       </c>
       <c r="C9" t="n">
-        <v>13.7529</v>
+        <v>20.6412</v>
       </c>
       <c r="D9" t="n">
-        <v>16.4154</v>
+        <v>33.1871</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.8248</v>
+        <v>17.6662</v>
       </c>
       <c r="C10" t="n">
-        <v>13.7226</v>
+        <v>20.5091</v>
       </c>
       <c r="D10" t="n">
-        <v>15.464</v>
+        <v>30.735</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.422</v>
+        <v>17.5537</v>
       </c>
       <c r="C11" t="n">
-        <v>13.511</v>
+        <v>20.0761</v>
       </c>
       <c r="D11" t="n">
-        <v>15.5515</v>
+        <v>30.3302</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.7263</v>
+        <v>17.4838</v>
       </c>
       <c r="C12" t="n">
-        <v>13.597</v>
+        <v>20.6123</v>
       </c>
       <c r="D12" t="n">
-        <v>15.4515</v>
+        <v>31.0915</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.6983</v>
+        <v>17.6718</v>
       </c>
       <c r="C13" t="n">
-        <v>13.7057</v>
+        <v>20.1243</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6346</v>
+        <v>31.3106</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3744</v>
+        <v>16.9674</v>
       </c>
       <c r="C14" t="n">
-        <v>13.8687</v>
+        <v>20.0178</v>
       </c>
       <c r="D14" t="n">
-        <v>15.0867</v>
+        <v>30.2394</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.6252</v>
+        <v>17.2664</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0051</v>
+        <v>20.5962</v>
       </c>
       <c r="D15" t="n">
-        <v>15.6874</v>
+        <v>30.7445</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.5236</v>
+        <v>17.5131</v>
       </c>
       <c r="C16" t="n">
-        <v>14.1112</v>
+        <v>20.8124</v>
       </c>
       <c r="D16" t="n">
-        <v>15.5602</v>
+        <v>30.5911</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.4728</v>
+        <v>17.2537</v>
       </c>
       <c r="C17" t="n">
-        <v>14.0758</v>
+        <v>20.8558</v>
       </c>
       <c r="D17" t="n">
-        <v>15.6651</v>
+        <v>30.4396</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.84794</v>
+        <v>4.96228</v>
       </c>
       <c r="C2" t="n">
-        <v>1.95977</v>
+        <v>4.86015</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01979</v>
+        <v>6.87691</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.96383</v>
+        <v>6.19195</v>
       </c>
       <c r="C3" t="n">
-        <v>3.5257</v>
+        <v>7.67804</v>
       </c>
       <c r="D3" t="n">
-        <v>3.70692</v>
+        <v>10.4447</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.99066</v>
+        <v>7.41395</v>
       </c>
       <c r="C4" t="n">
-        <v>5.07181</v>
+        <v>10.3292</v>
       </c>
       <c r="D4" t="n">
-        <v>5.42054</v>
+        <v>14.0866</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.09543</v>
+        <v>8.71016</v>
       </c>
       <c r="C5" t="n">
-        <v>6.56259</v>
+        <v>13.0394</v>
       </c>
       <c r="D5" t="n">
-        <v>7.11657</v>
+        <v>18.1041</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.14173</v>
+        <v>10.7535</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01375</v>
+        <v>15.9</v>
       </c>
       <c r="D6" t="n">
-        <v>8.77389</v>
+        <v>22.1459</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.19894</v>
+        <v>12.4745</v>
       </c>
       <c r="C7" t="n">
-        <v>9.531510000000001</v>
+        <v>18.8697</v>
       </c>
       <c r="D7" t="n">
-        <v>10.3685</v>
+        <v>26.1406</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.203279999999999</v>
+        <v>13.8104</v>
       </c>
       <c r="C8" t="n">
-        <v>11.0122</v>
+        <v>21.2933</v>
       </c>
       <c r="D8" t="n">
-        <v>12.0702</v>
+        <v>29.5996</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.904310000000001</v>
+        <v>16.3299</v>
       </c>
       <c r="C9" t="n">
-        <v>12.8529</v>
+        <v>24.8683</v>
       </c>
       <c r="D9" t="n">
-        <v>13.8363</v>
+        <v>33.7748</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.22702</v>
+        <v>14.09</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9402</v>
+        <v>19.9605</v>
       </c>
       <c r="D10" t="n">
-        <v>10.9891</v>
+        <v>27.4594</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.498100000000001</v>
+        <v>13.9602</v>
       </c>
       <c r="C11" t="n">
-        <v>10.7894</v>
+        <v>20.6819</v>
       </c>
       <c r="D11" t="n">
-        <v>11.3735</v>
+        <v>28.6121</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.745430000000001</v>
+        <v>14.5445</v>
       </c>
       <c r="C12" t="n">
-        <v>11.0262</v>
+        <v>21.3538</v>
       </c>
       <c r="D12" t="n">
-        <v>11.8758</v>
+        <v>29.3277</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8.703390000000001</v>
+        <v>14.921</v>
       </c>
       <c r="C13" t="n">
-        <v>11.5055</v>
+        <v>22.9599</v>
       </c>
       <c r="D13" t="n">
-        <v>12.5574</v>
+        <v>30.567</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.75609</v>
+        <v>14.6878</v>
       </c>
       <c r="C14" t="n">
-        <v>11.3531</v>
+        <v>21.6573</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1859</v>
+        <v>28.4989</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.06137</v>
+        <v>14.9685</v>
       </c>
       <c r="C15" t="n">
-        <v>11.499</v>
+        <v>21.7088</v>
       </c>
       <c r="D15" t="n">
-        <v>12.1987</v>
+        <v>29.0162</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.1816</v>
+        <v>15.0982</v>
       </c>
       <c r="C16" t="n">
-        <v>11.7028</v>
+        <v>22.2566</v>
       </c>
       <c r="D16" t="n">
-        <v>12.5969</v>
+        <v>28.7683</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.254149999999999</v>
+        <v>15.2056</v>
       </c>
       <c r="C17" t="n">
-        <v>12.15</v>
+        <v>22.3491</v>
       </c>
       <c r="D17" t="n">
-        <v>13.0264</v>
+        <v>29.0827</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.20096</v>
+        <v>8.62419</v>
       </c>
       <c r="C2" t="n">
-        <v>2.29537</v>
+        <v>7.20055</v>
       </c>
       <c r="D2" t="n">
-        <v>2.36915</v>
+        <v>12.6533</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.38028</v>
+        <v>8.642760000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>4.04118</v>
+        <v>10.3603</v>
       </c>
       <c r="D3" t="n">
-        <v>4.2797</v>
+        <v>15.8525</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.56532</v>
+        <v>10.2169</v>
       </c>
       <c r="C4" t="n">
-        <v>5.65781</v>
+        <v>13.9958</v>
       </c>
       <c r="D4" t="n">
-        <v>6.15395</v>
+        <v>20.9144</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.58055</v>
+        <v>11.7094</v>
       </c>
       <c r="C5" t="n">
-        <v>7.36252</v>
+        <v>17.2735</v>
       </c>
       <c r="D5" t="n">
-        <v>8.02026</v>
+        <v>25.21</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.72997</v>
+        <v>13.3472</v>
       </c>
       <c r="C6" t="n">
-        <v>9.00522</v>
+        <v>20.3975</v>
       </c>
       <c r="D6" t="n">
-        <v>9.86933</v>
+        <v>30.2329</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.93994</v>
+        <v>16.0372</v>
       </c>
       <c r="C7" t="n">
-        <v>10.6703</v>
+        <v>24.3163</v>
       </c>
       <c r="D7" t="n">
-        <v>11.7286</v>
+        <v>36.2303</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>9.172029999999999</v>
+        <v>17.7383</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2897</v>
+        <v>27.2962</v>
       </c>
       <c r="D8" t="n">
-        <v>13.6368</v>
+        <v>40.5716</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.8931</v>
+        <v>20.907</v>
       </c>
       <c r="C9" t="n">
-        <v>14.4805</v>
+        <v>31.8237</v>
       </c>
       <c r="D9" t="n">
-        <v>15.8184</v>
+        <v>45.7881</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.245039999999999</v>
+        <v>18.3269</v>
       </c>
       <c r="C10" t="n">
-        <v>12.168</v>
+        <v>26.0852</v>
       </c>
       <c r="D10" t="n">
-        <v>12.9509</v>
+        <v>38.9201</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.254530000000001</v>
+        <v>18.1065</v>
       </c>
       <c r="C11" t="n">
-        <v>11.8616</v>
+        <v>27.0137</v>
       </c>
       <c r="D11" t="n">
-        <v>12.9732</v>
+        <v>38.2016</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.65949</v>
+        <v>18.5648</v>
       </c>
       <c r="C12" t="n">
-        <v>12.4639</v>
+        <v>28.2482</v>
       </c>
       <c r="D12" t="n">
-        <v>13.5157</v>
+        <v>39.9839</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.86368</v>
+        <v>18.9728</v>
       </c>
       <c r="C13" t="n">
-        <v>12.6875</v>
+        <v>27.9303</v>
       </c>
       <c r="D13" t="n">
-        <v>14.0075</v>
+        <v>39.812</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10.2767</v>
+        <v>18.8683</v>
       </c>
       <c r="C14" t="n">
-        <v>12.6727</v>
+        <v>27.5851</v>
       </c>
       <c r="D14" t="n">
-        <v>13.8991</v>
+        <v>38.993</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.1525</v>
+        <v>19.0135</v>
       </c>
       <c r="C15" t="n">
-        <v>12.855</v>
+        <v>26.7943</v>
       </c>
       <c r="D15" t="n">
-        <v>13.9378</v>
+        <v>37.5576</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.4182</v>
+        <v>19.465</v>
       </c>
       <c r="C16" t="n">
-        <v>13.3544</v>
+        <v>28.0086</v>
       </c>
       <c r="D16" t="n">
-        <v>14.3159</v>
+        <v>37.7874</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.3264</v>
+        <v>19.3989</v>
       </c>
       <c r="C17" t="n">
-        <v>13.3671</v>
+        <v>27.4888</v>
       </c>
       <c r="D17" t="n">
-        <v>14.2517</v>
+        <v>39.3232</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.01815</v>
+        <v>6.40578</v>
       </c>
       <c r="C2" t="n">
-        <v>2.05156</v>
+        <v>5.89632</v>
       </c>
       <c r="D2" t="n">
-        <v>2.09751</v>
+        <v>7.77198</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.15367</v>
+        <v>6.9028</v>
       </c>
       <c r="C3" t="n">
-        <v>3.63604</v>
+        <v>8.724</v>
       </c>
       <c r="D3" t="n">
-        <v>3.7962</v>
+        <v>10.9037</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.25618</v>
+        <v>8.309749999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>5.30825</v>
+        <v>12.0036</v>
       </c>
       <c r="D4" t="n">
-        <v>5.59785</v>
+        <v>15.1239</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.44044</v>
+        <v>10.0726</v>
       </c>
       <c r="C5" t="n">
-        <v>6.93155</v>
+        <v>15.4681</v>
       </c>
       <c r="D5" t="n">
-        <v>7.34892</v>
+        <v>19.4812</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.54058</v>
+        <v>11.9209</v>
       </c>
       <c r="C6" t="n">
-        <v>8.57507</v>
+        <v>18.7159</v>
       </c>
       <c r="D6" t="n">
-        <v>9.06279</v>
+        <v>23.5226</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.62014</v>
+        <v>14.0196</v>
       </c>
       <c r="C7" t="n">
-        <v>10.2274</v>
+        <v>22.8802</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8583</v>
+        <v>28.4969</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.791679999999999</v>
+        <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>11.7803</v>
+        <v>25.5896</v>
       </c>
       <c r="D8" t="n">
-        <v>12.5929</v>
+        <v>32.3187</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.1897</v>
+        <v>18.2474</v>
       </c>
       <c r="C9" t="n">
-        <v>13.5469</v>
+        <v>29.5387</v>
       </c>
       <c r="D9" t="n">
-        <v>14.4645</v>
+        <v>37.0361</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.7784</v>
+        <v>16.351</v>
       </c>
       <c r="C10" t="n">
-        <v>11.4642</v>
+        <v>24.5144</v>
       </c>
       <c r="D10" t="n">
-        <v>11.8217</v>
+        <v>30.6962</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.76946</v>
+        <v>16.0326</v>
       </c>
       <c r="C11" t="n">
-        <v>11.1634</v>
+        <v>24.7289</v>
       </c>
       <c r="D11" t="n">
-        <v>11.8964</v>
+        <v>31.1301</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.226330000000001</v>
+        <v>16.4036</v>
       </c>
       <c r="C12" t="n">
-        <v>11.8026</v>
+        <v>25.7484</v>
       </c>
       <c r="D12" t="n">
-        <v>12.3908</v>
+        <v>30.8312</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.32626</v>
+        <v>17.1423</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1211</v>
+        <v>26.7225</v>
       </c>
       <c r="D13" t="n">
-        <v>12.9103</v>
+        <v>31.2035</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.48719</v>
+        <v>16.8578</v>
       </c>
       <c r="C14" t="n">
-        <v>12.1705</v>
+        <v>25.613</v>
       </c>
       <c r="D14" t="n">
-        <v>12.8575</v>
+        <v>30.9882</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>9.476369999999999</v>
+        <v>17.028</v>
       </c>
       <c r="C15" t="n">
-        <v>12.2791</v>
+        <v>26.1404</v>
       </c>
       <c r="D15" t="n">
-        <v>13.1282</v>
+        <v>30.5256</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.705730000000001</v>
+        <v>17.2937</v>
       </c>
       <c r="C16" t="n">
-        <v>12.4838</v>
+        <v>26.1025</v>
       </c>
       <c r="D16" t="n">
-        <v>13.2825</v>
+        <v>30.1382</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.79264</v>
+        <v>17.4706</v>
       </c>
       <c r="C17" t="n">
-        <v>12.7059</v>
+        <v>25.662</v>
       </c>
       <c r="D17" t="n">
-        <v>13.7675</v>
+        <v>30.7151</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.46473</v>
+        <v>2.93899</v>
       </c>
       <c r="C2" t="n">
-        <v>1.86542</v>
+        <v>4.3094</v>
       </c>
       <c r="D2" t="n">
-        <v>1.94758</v>
+        <v>6.10648</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.62799</v>
+        <v>4.79417</v>
       </c>
       <c r="C3" t="n">
-        <v>3.4488</v>
+        <v>7.31915</v>
       </c>
       <c r="D3" t="n">
-        <v>3.67821</v>
+        <v>10.1184</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3.77543</v>
+        <v>6.3807</v>
       </c>
       <c r="C4" t="n">
-        <v>5.01737</v>
+        <v>10.2691</v>
       </c>
       <c r="D4" t="n">
-        <v>5.40819</v>
+        <v>14.2496</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.85482</v>
+        <v>8.05922</v>
       </c>
       <c r="C5" t="n">
-        <v>6.5365</v>
+        <v>13.1145</v>
       </c>
       <c r="D5" t="n">
-        <v>7.12818</v>
+        <v>18.249</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5.91825</v>
+        <v>9.60819</v>
       </c>
       <c r="C6" t="n">
-        <v>8.044079999999999</v>
+        <v>15.8565</v>
       </c>
       <c r="D6" t="n">
-        <v>8.81179</v>
+        <v>22.2807</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>6.96214</v>
+        <v>11.1168</v>
       </c>
       <c r="C7" t="n">
-        <v>9.551119999999999</v>
+        <v>18.5265</v>
       </c>
       <c r="D7" t="n">
-        <v>10.488</v>
+        <v>26.1461</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.002879999999999</v>
+        <v>12.5928</v>
       </c>
       <c r="C8" t="n">
-        <v>11.003</v>
+        <v>21.2992</v>
       </c>
       <c r="D8" t="n">
-        <v>12.1581</v>
+        <v>30.0002</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>9.28715</v>
+        <v>14.6921</v>
       </c>
       <c r="C9" t="n">
-        <v>12.819</v>
+        <v>25.0723</v>
       </c>
       <c r="D9" t="n">
-        <v>13.9385</v>
+        <v>34.567</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>8.88571</v>
+        <v>13.999</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0129</v>
+        <v>23.4533</v>
       </c>
       <c r="D10" t="n">
-        <v>13.0933</v>
+        <v>31.6678</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>8.91042</v>
+        <v>13.8673</v>
       </c>
       <c r="C11" t="n">
-        <v>11.9996</v>
+        <v>23.1719</v>
       </c>
       <c r="D11" t="n">
-        <v>13.0471</v>
+        <v>31.3408</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>8.842650000000001</v>
+        <v>14.0309</v>
       </c>
       <c r="C12" t="n">
-        <v>12.228</v>
+        <v>23.4962</v>
       </c>
       <c r="D12" t="n">
-        <v>13.1252</v>
+        <v>31.6388</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>9.035080000000001</v>
+        <v>14.1499</v>
       </c>
       <c r="C13" t="n">
-        <v>12.3084</v>
+        <v>23.9994</v>
       </c>
       <c r="D13" t="n">
-        <v>13.3909</v>
+        <v>31.6146</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>8.686780000000001</v>
+        <v>13.7836</v>
       </c>
       <c r="C14" t="n">
-        <v>11.7696</v>
+        <v>22.7227</v>
       </c>
       <c r="D14" t="n">
-        <v>12.9135</v>
+        <v>30.4495</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>8.948930000000001</v>
+        <v>14.2176</v>
       </c>
       <c r="C15" t="n">
-        <v>12.2384</v>
+        <v>23.2401</v>
       </c>
       <c r="D15" t="n">
-        <v>13.3668</v>
+        <v>31.6584</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>8.984669999999999</v>
+        <v>14.1331</v>
       </c>
       <c r="C16" t="n">
-        <v>12.1562</v>
+        <v>23.1327</v>
       </c>
       <c r="D16" t="n">
-        <v>13.3491</v>
+        <v>31.2927</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>8.82795</v>
+        <v>13.9995</v>
       </c>
       <c r="C17" t="n">
-        <v>12.2533</v>
+        <v>23.0758</v>
       </c>
       <c r="D17" t="n">
-        <v>13.3163</v>
+        <v>31.2677</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.69243</v>
+        <v>3.93345</v>
       </c>
       <c r="C2" t="n">
-        <v>2.16786</v>
+        <v>6.16424</v>
       </c>
       <c r="D2" t="n">
-        <v>2.27818</v>
+        <v>10.2274</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.96206</v>
+        <v>6.02801</v>
       </c>
       <c r="C3" t="n">
-        <v>3.94677</v>
+        <v>9.72899</v>
       </c>
       <c r="D3" t="n">
-        <v>4.27315</v>
+        <v>14.9577</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.23744</v>
+        <v>8.138769999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>5.71197</v>
+        <v>13.4352</v>
       </c>
       <c r="D4" t="n">
-        <v>6.22425</v>
+        <v>20.4643</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.38019</v>
+        <v>10.0498</v>
       </c>
       <c r="C5" t="n">
-        <v>7.43483</v>
+        <v>16.9439</v>
       </c>
       <c r="D5" t="n">
-        <v>8.186389999999999</v>
+        <v>25.6853</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5899</v>
+        <v>11.9409</v>
       </c>
       <c r="C6" t="n">
-        <v>9.11931</v>
+        <v>20.3821</v>
       </c>
       <c r="D6" t="n">
-        <v>10.1103</v>
+        <v>30.9633</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.67625</v>
+        <v>13.7447</v>
       </c>
       <c r="C7" t="n">
-        <v>10.7697</v>
+        <v>23.6812</v>
       </c>
       <c r="D7" t="n">
-        <v>12.0184</v>
+        <v>36.2035</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.868729999999999</v>
+        <v>15.5571</v>
       </c>
       <c r="C8" t="n">
-        <v>12.4523</v>
+        <v>27.1759</v>
       </c>
       <c r="D8" t="n">
-        <v>13.9167</v>
+        <v>41.1694</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.2815</v>
+        <v>17.9944</v>
       </c>
       <c r="C9" t="n">
-        <v>14.5067</v>
+        <v>32.0624</v>
       </c>
       <c r="D9" t="n">
-        <v>15.9626</v>
+        <v>47.6842</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>9.97626</v>
+        <v>17.275</v>
       </c>
       <c r="C10" t="n">
-        <v>13.5976</v>
+        <v>29.0835</v>
       </c>
       <c r="D10" t="n">
-        <v>15.0528</v>
+        <v>43.3467</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>9.73129</v>
+        <v>16.8498</v>
       </c>
       <c r="C11" t="n">
-        <v>13.3562</v>
+        <v>29.695</v>
       </c>
       <c r="D11" t="n">
-        <v>14.9198</v>
+        <v>42.7578</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.872999999999999</v>
+        <v>17.1908</v>
       </c>
       <c r="C12" t="n">
-        <v>13.6972</v>
+        <v>29.4753</v>
       </c>
       <c r="D12" t="n">
-        <v>14.9719</v>
+        <v>42.8294</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0156</v>
+        <v>17.3757</v>
       </c>
       <c r="C13" t="n">
-        <v>13.829</v>
+        <v>30.0409</v>
       </c>
       <c r="D13" t="n">
-        <v>15.2846</v>
+        <v>42.7031</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.66606</v>
+        <v>17.0141</v>
       </c>
       <c r="C14" t="n">
-        <v>13.231</v>
+        <v>28.849</v>
       </c>
       <c r="D14" t="n">
-        <v>14.7351</v>
+        <v>41.234</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0494</v>
+        <v>17.566</v>
       </c>
       <c r="C15" t="n">
-        <v>13.8846</v>
+        <v>29.6019</v>
       </c>
       <c r="D15" t="n">
-        <v>15.2892</v>
+        <v>40.9476</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9.982390000000001</v>
+        <v>17.3862</v>
       </c>
       <c r="C16" t="n">
-        <v>13.8298</v>
+        <v>28.8193</v>
       </c>
       <c r="D16" t="n">
-        <v>15.2391</v>
+        <v>41.7812</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>9.91963</v>
+        <v>17.1155</v>
       </c>
       <c r="C17" t="n">
-        <v>13.7479</v>
+        <v>29.0162</v>
       </c>
       <c r="D17" t="n">
-        <v>15.1523</v>
+        <v>41.4663</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.89471</v>
+        <v>5.23722</v>
       </c>
       <c r="C2" t="n">
-        <v>2.01001</v>
+        <v>5.63911</v>
       </c>
       <c r="D2" t="n">
-        <v>2.07751</v>
+        <v>7.505</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3.14919</v>
+        <v>6.68712</v>
       </c>
       <c r="C3" t="n">
-        <v>3.6603</v>
+        <v>8.651120000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>3.85752</v>
+        <v>11.103</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.19963</v>
+        <v>8.67188</v>
       </c>
       <c r="C4" t="n">
-        <v>5.30805</v>
+        <v>12.088</v>
       </c>
       <c r="D4" t="n">
-        <v>5.64043</v>
+        <v>15.5761</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5.42571</v>
+        <v>10.5241</v>
       </c>
       <c r="C5" t="n">
-        <v>6.95051</v>
+        <v>15.4359</v>
       </c>
       <c r="D5" t="n">
-        <v>7.41935</v>
+        <v>19.9486</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>6.56912</v>
+        <v>12.396</v>
       </c>
       <c r="C6" t="n">
-        <v>8.588760000000001</v>
+        <v>18.877</v>
       </c>
       <c r="D6" t="n">
-        <v>9.20275</v>
+        <v>24.3859</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>7.95036</v>
+        <v>14.1799</v>
       </c>
       <c r="C7" t="n">
-        <v>10.2122</v>
+        <v>22.2158</v>
       </c>
       <c r="D7" t="n">
-        <v>10.9781</v>
+        <v>28.6897</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>8.97912</v>
+        <v>16.07</v>
       </c>
       <c r="C8" t="n">
-        <v>11.8458</v>
+        <v>25.5899</v>
       </c>
       <c r="D8" t="n">
-        <v>12.7991</v>
+        <v>33.0033</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.365</v>
+        <v>18.5574</v>
       </c>
       <c r="C9" t="n">
-        <v>13.65</v>
+        <v>29.8091</v>
       </c>
       <c r="D9" t="n">
-        <v>14.6398</v>
+        <v>37.7224</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10.0475</v>
+        <v>17.4776</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9305</v>
+        <v>27.826</v>
       </c>
       <c r="D10" t="n">
-        <v>13.8747</v>
+        <v>35.0725</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0391</v>
+        <v>17.6772</v>
       </c>
       <c r="C11" t="n">
-        <v>12.8954</v>
+        <v>27.4983</v>
       </c>
       <c r="D11" t="n">
-        <v>13.7258</v>
+        <v>35.1255</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9.97997</v>
+        <v>17.4781</v>
       </c>
       <c r="C12" t="n">
-        <v>12.8924</v>
+        <v>27.4614</v>
       </c>
       <c r="D12" t="n">
-        <v>13.794</v>
+        <v>34.603</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10.0785</v>
+        <v>17.5677</v>
       </c>
       <c r="C13" t="n">
-        <v>13.1776</v>
+        <v>27.9035</v>
       </c>
       <c r="D13" t="n">
-        <v>14.1896</v>
+        <v>35.0619</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>9.652670000000001</v>
+        <v>17.1769</v>
       </c>
       <c r="C14" t="n">
-        <v>12.626</v>
+        <v>27.276</v>
       </c>
       <c r="D14" t="n">
-        <v>13.4459</v>
+        <v>34.4051</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10.0497</v>
+        <v>17.4508</v>
       </c>
       <c r="C15" t="n">
-        <v>13.1768</v>
+        <v>27.9968</v>
       </c>
       <c r="D15" t="n">
-        <v>14.1603</v>
+        <v>35.1361</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10.1244</v>
+        <v>17.6102</v>
       </c>
       <c r="C16" t="n">
-        <v>13.1164</v>
+        <v>28.2591</v>
       </c>
       <c r="D16" t="n">
-        <v>14.1658</v>
+        <v>35.3557</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10.0193</v>
+        <v>17.5211</v>
       </c>
       <c r="C17" t="n">
-        <v>13.0478</v>
+        <v>27.4711</v>
       </c>
       <c r="D17" t="n">
-        <v>14.024</v>
+        <v>35.2874</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04837</v>
+        <v>5.0517</v>
       </c>
       <c r="C2" t="n">
-        <v>5.70865</v>
+        <v>5.70083</v>
       </c>
       <c r="D2" t="n">
-        <v>5.57201</v>
+        <v>5.10054</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11231</v>
+        <v>6.19666</v>
       </c>
       <c r="C3" t="n">
-        <v>6.79297</v>
+        <v>6.89242</v>
       </c>
       <c r="D3" t="n">
-        <v>8.386189999999999</v>
+        <v>7.93207</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.27483</v>
+        <v>7.70958</v>
       </c>
       <c r="C4" t="n">
-        <v>8.936719999999999</v>
+        <v>8.89625</v>
       </c>
       <c r="D4" t="n">
-        <v>11.5964</v>
+        <v>10.9273</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.22608</v>
+        <v>9.19894</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0563</v>
+        <v>10.9865</v>
       </c>
       <c r="D5" t="n">
-        <v>14.4224</v>
+        <v>13.7497</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7546</v>
+        <v>10.7904</v>
       </c>
       <c r="C6" t="n">
-        <v>13.344</v>
+        <v>13.3967</v>
       </c>
       <c r="D6" t="n">
-        <v>17.4332</v>
+        <v>16.5477</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5266</v>
+        <v>12.5694</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7191</v>
+        <v>15.6828</v>
       </c>
       <c r="D7" t="n">
-        <v>20.4109</v>
+        <v>19.4022</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.906</v>
+        <v>13.9525</v>
       </c>
       <c r="C8" t="n">
-        <v>17.8582</v>
+        <v>18.3265</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2916</v>
+        <v>21.9555</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4355</v>
+        <v>16.4498</v>
       </c>
       <c r="C9" t="n">
-        <v>21.2104</v>
+        <v>21.4134</v>
       </c>
       <c r="D9" t="n">
-        <v>27.1668</v>
+        <v>25.8052</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7699</v>
+        <v>13.8209</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9769</v>
+        <v>17.6546</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9553</v>
+        <v>20.5799</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0515</v>
+        <v>13.9108</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9774</v>
+        <v>17.8627</v>
       </c>
       <c r="D11" t="n">
-        <v>22.5116</v>
+        <v>21.3864</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5792</v>
+        <v>14.5925</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7413</v>
+        <v>18.7501</v>
       </c>
       <c r="D12" t="n">
-        <v>23.7855</v>
+        <v>22.1227</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0412</v>
+        <v>14.9253</v>
       </c>
       <c r="C13" t="n">
-        <v>19.1539</v>
+        <v>19.1172</v>
       </c>
       <c r="D13" t="n">
-        <v>24.7299</v>
+        <v>22.4906</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9122</v>
+        <v>14.7996</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5093</v>
+        <v>19.6236</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4942</v>
+        <v>22.3522</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1904</v>
+        <v>15.1962</v>
       </c>
       <c r="C15" t="n">
-        <v>19.7621</v>
+        <v>19.6309</v>
       </c>
       <c r="D15" t="n">
-        <v>22.9785</v>
+        <v>22.5412</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.353</v>
+        <v>15.4825</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8356</v>
+        <v>19.9509</v>
       </c>
       <c r="D16" t="n">
-        <v>23.8245</v>
+        <v>23.1474</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6938</v>
+        <v>15.2649</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2975</v>
+        <v>20.1788</v>
       </c>
       <c r="D17" t="n">
-        <v>24.0396</v>
+        <v>23.2117</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.646380000000001</v>
+        <v>8.64944</v>
       </c>
       <c r="C2" t="n">
-        <v>9.97484</v>
+        <v>9.97207</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2959</v>
+        <v>8.35305</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.3711</v>
+        <v>8.386329999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.28471</v>
+        <v>9.293010000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4573</v>
+        <v>11.2687</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.53472</v>
+        <v>10.1774</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9124</v>
+        <v>11.5425</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0353</v>
+        <v>15.2063</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3446</v>
+        <v>11.9775</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0687</v>
+        <v>13.9314</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8952</v>
+        <v>18.9665</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.5941</v>
+        <v>13.9223</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6516</v>
+        <v>16.853</v>
       </c>
       <c r="D6" t="n">
-        <v>25.1208</v>
+        <v>22.524</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0641</v>
+        <v>15.9184</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9612</v>
+        <v>20.1021</v>
       </c>
       <c r="D7" t="n">
-        <v>29.377</v>
+        <v>26.0323</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8325</v>
+        <v>17.7331</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3527</v>
+        <v>22.8033</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6635</v>
+        <v>29.749</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9341</v>
+        <v>20.7995</v>
       </c>
       <c r="C9" t="n">
-        <v>26.5056</v>
+        <v>26.2582</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0407</v>
+        <v>34.0987</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2493</v>
+        <v>18.1327</v>
       </c>
       <c r="C10" t="n">
-        <v>22.9484</v>
+        <v>22.591</v>
       </c>
       <c r="D10" t="n">
-        <v>33.4008</v>
+        <v>29.6546</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1448</v>
+        <v>17.8506</v>
       </c>
       <c r="C11" t="n">
-        <v>23.1319</v>
+        <v>22.6509</v>
       </c>
       <c r="D11" t="n">
-        <v>33.1699</v>
+        <v>28.5234</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4804</v>
+        <v>18.4333</v>
       </c>
       <c r="C12" t="n">
-        <v>23.6675</v>
+        <v>23.6613</v>
       </c>
       <c r="D12" t="n">
-        <v>33.9081</v>
+        <v>30.5328</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0033</v>
+        <v>19.3122</v>
       </c>
       <c r="C13" t="n">
-        <v>24.4067</v>
+        <v>24.3964</v>
       </c>
       <c r="D13" t="n">
-        <v>35.2977</v>
+        <v>31.2976</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6241</v>
+        <v>18.8217</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0208</v>
+        <v>23.7941</v>
       </c>
       <c r="D14" t="n">
-        <v>33.9054</v>
+        <v>30.9586</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.136</v>
+        <v>18.757</v>
       </c>
       <c r="C15" t="n">
-        <v>24.2724</v>
+        <v>24.0566</v>
       </c>
       <c r="D15" t="n">
-        <v>33.5316</v>
+        <v>29.7359</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5671</v>
+        <v>19.5986</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9807</v>
+        <v>24.8514</v>
       </c>
       <c r="D16" t="n">
-        <v>34.4529</v>
+        <v>29.0402</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4442</v>
+        <v>19.4739</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9891</v>
+        <v>25.2821</v>
       </c>
       <c r="D17" t="n">
-        <v>34.1021</v>
+        <v>31.4666</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42793</v>
+        <v>6.42069</v>
       </c>
       <c r="C2" t="n">
-        <v>6.52568</v>
+        <v>6.52685</v>
       </c>
       <c r="D2" t="n">
-        <v>7.10939</v>
+        <v>5.92865</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.0646</v>
+        <v>7.0759</v>
       </c>
       <c r="C3" t="n">
-        <v>7.43291</v>
+        <v>7.45453</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0415</v>
+        <v>8.733309999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.325799999999999</v>
+        <v>8.885400000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.110480000000001</v>
+        <v>9.66391</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5922</v>
+        <v>12.184</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0017</v>
+        <v>10.5844</v>
       </c>
       <c r="C5" t="n">
-        <v>11.3626</v>
+        <v>12.1274</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3299</v>
+        <v>15.5367</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7349</v>
+        <v>12.5377</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2828</v>
+        <v>14.4583</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0392</v>
+        <v>19.0003</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0198</v>
+        <v>14.3386</v>
       </c>
       <c r="C7" t="n">
-        <v>16.8496</v>
+        <v>16.8816</v>
       </c>
       <c r="D7" t="n">
-        <v>25.2701</v>
+        <v>22.3114</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0206</v>
+        <v>16.0402</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1488</v>
+        <v>19.2616</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6199</v>
+        <v>25.5302</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2191</v>
+        <v>18.2371</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0493</v>
+        <v>22.1134</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3085</v>
+        <v>29.4846</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.2698</v>
+        <v>16.375</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1408</v>
+        <v>19.258</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5015</v>
+        <v>24.1756</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9159</v>
+        <v>15.947</v>
       </c>
       <c r="C11" t="n">
-        <v>18.966</v>
+        <v>19.0331</v>
       </c>
       <c r="D11" t="n">
-        <v>27.841</v>
+        <v>24.7301</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5248</v>
+        <v>16.5252</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8146</v>
+        <v>19.8728</v>
       </c>
       <c r="D12" t="n">
-        <v>29.4937</v>
+        <v>25.6885</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1781</v>
+        <v>17.2776</v>
       </c>
       <c r="C13" t="n">
-        <v>20.0686</v>
+        <v>20.6479</v>
       </c>
       <c r="D13" t="n">
-        <v>30.2639</v>
+        <v>26.5655</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.614</v>
+        <v>16.7816</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3841</v>
+        <v>20.2289</v>
       </c>
       <c r="D14" t="n">
-        <v>28.5619</v>
+        <v>25.7339</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.984</v>
+        <v>16.949</v>
       </c>
       <c r="C15" t="n">
-        <v>20.3391</v>
+        <v>20.4151</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7147</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.2565</v>
+        <v>17.5641</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9329</v>
+        <v>21.0759</v>
       </c>
       <c r="D16" t="n">
-        <v>29.3791</v>
+        <v>26.3105</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2978</v>
+        <v>17.7066</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4166</v>
+        <v>21.5349</v>
       </c>
       <c r="D17" t="n">
-        <v>29.5088</v>
+        <v>26.7145</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.96317</v>
+        <v>2.97765</v>
       </c>
       <c r="C2" t="n">
-        <v>5.03975</v>
+        <v>5.0493</v>
       </c>
       <c r="D2" t="n">
-        <v>4.86027</v>
+        <v>4.51603</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.87225</v>
+        <v>4.85213</v>
       </c>
       <c r="C3" t="n">
-        <v>6.7095</v>
+        <v>6.70384</v>
       </c>
       <c r="D3" t="n">
-        <v>8.07375</v>
+        <v>7.61383</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5517</v>
+        <v>6.52033</v>
       </c>
       <c r="C4" t="n">
-        <v>8.78063</v>
+        <v>8.79851</v>
       </c>
       <c r="D4" t="n">
-        <v>11.2534</v>
+        <v>10.6296</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.11675</v>
+        <v>8.089230000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9014</v>
+        <v>10.9344</v>
       </c>
       <c r="D5" t="n">
-        <v>14.2628</v>
+        <v>13.5487</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.68045</v>
+        <v>9.678850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>13.1524</v>
+        <v>13.1123</v>
       </c>
       <c r="D6" t="n">
-        <v>17.2241</v>
+        <v>16.3705</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1463</v>
+        <v>11.1686</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3697</v>
+        <v>15.3782</v>
       </c>
       <c r="D7" t="n">
-        <v>20.13</v>
+        <v>19.1243</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6154</v>
+        <v>12.6328</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7673</v>
+        <v>17.7782</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0904</v>
+        <v>21.894</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8385</v>
+        <v>14.8468</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9233</v>
+        <v>20.9758</v>
       </c>
       <c r="D9" t="n">
-        <v>27.3819</v>
+        <v>25.9377</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0106</v>
+        <v>14.0978</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4451</v>
+        <v>19.3369</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1518</v>
+        <v>23.9132</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7791</v>
+        <v>14.0891</v>
       </c>
       <c r="C11" t="n">
-        <v>19.4214</v>
+        <v>19.2408</v>
       </c>
       <c r="D11" t="n">
-        <v>25.2418</v>
+        <v>23.6811</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1674</v>
+        <v>14.2554</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4629</v>
+        <v>19.5556</v>
       </c>
       <c r="D12" t="n">
-        <v>25.1381</v>
+        <v>24.2496</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2225</v>
+        <v>14.3904</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4895</v>
+        <v>19.9105</v>
       </c>
       <c r="D13" t="n">
-        <v>25.479</v>
+        <v>24.6051</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8983</v>
+        <v>13.8697</v>
       </c>
       <c r="C14" t="n">
-        <v>19.7062</v>
+        <v>19.6548</v>
       </c>
       <c r="D14" t="n">
-        <v>24.67</v>
+        <v>23.462</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4643</v>
+        <v>14.4891</v>
       </c>
       <c r="C15" t="n">
-        <v>19.8524</v>
+        <v>19.9199</v>
       </c>
       <c r="D15" t="n">
-        <v>25.46</v>
+        <v>24.2002</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.1284</v>
+        <v>14.4376</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0235</v>
+        <v>20.0709</v>
       </c>
       <c r="D16" t="n">
-        <v>25.0548</v>
+        <v>24.178</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1451</v>
+        <v>14.226</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1509</v>
+        <v>20.2043</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0575</v>
+        <v>24.1438</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98599</v>
+        <v>3.98192</v>
       </c>
       <c r="C2" t="n">
-        <v>8.20162</v>
+        <v>8.21355</v>
       </c>
       <c r="D2" t="n">
-        <v>8.7934</v>
+        <v>6.9637</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11664</v>
+        <v>6.11498</v>
       </c>
       <c r="C3" t="n">
-        <v>8.879899999999999</v>
+        <v>8.992990000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.7796</v>
+        <v>10.7917</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.16301</v>
+        <v>8.134069999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2356</v>
+        <v>11.2738</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0428</v>
+        <v>14.6927</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.101</v>
+        <v>10.0746</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7085</v>
+        <v>13.742</v>
       </c>
       <c r="D5" t="n">
-        <v>21.1118</v>
+        <v>18.3713</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9605</v>
+        <v>11.9756</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3048</v>
+        <v>16.34</v>
       </c>
       <c r="D6" t="n">
-        <v>25.1536</v>
+        <v>22.0846</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7826</v>
+        <v>13.7685</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9723</v>
+        <v>19.0532</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1133</v>
+        <v>25.7411</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5371</v>
+        <v>15.5725</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0782</v>
+        <v>22.1301</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0994</v>
+        <v>29.5189</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0675</v>
+        <v>18.1274</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6011</v>
+        <v>25.8883</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4449</v>
+        <v>34.8421</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0258</v>
+        <v>17.0775</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6149</v>
+        <v>23.6352</v>
       </c>
       <c r="D10" t="n">
-        <v>36.4574</v>
+        <v>32.2031</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0329</v>
+        <v>17.0144</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5746</v>
+        <v>23.8276</v>
       </c>
       <c r="D11" t="n">
-        <v>36.1622</v>
+        <v>31.42</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.149</v>
+        <v>17.3</v>
       </c>
       <c r="C12" t="n">
-        <v>23.7824</v>
+        <v>23.9608</v>
       </c>
       <c r="D12" t="n">
-        <v>35.85</v>
+        <v>31.9146</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5989</v>
+        <v>17.6354</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1565</v>
+        <v>24.2846</v>
       </c>
       <c r="D13" t="n">
-        <v>35.6901</v>
+        <v>32.3271</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.954</v>
+        <v>16.983</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2668</v>
+        <v>24.3946</v>
       </c>
       <c r="D14" t="n">
-        <v>34.9804</v>
+        <v>31.2187</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4678</v>
+        <v>17.7478</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5567</v>
+        <v>24.6001</v>
       </c>
       <c r="D15" t="n">
-        <v>35.511</v>
+        <v>31.475</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.486</v>
+        <v>17.6588</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6683</v>
+        <v>24.7421</v>
       </c>
       <c r="D16" t="n">
-        <v>35.1701</v>
+        <v>31.0003</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.0212</v>
+        <v>17.3771</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8241</v>
+        <v>24.9052</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5025</v>
+        <v>30.6099</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26166</v>
+        <v>5.26969</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28252</v>
+        <v>6.28562</v>
       </c>
       <c r="D2" t="n">
-        <v>6.69328</v>
+        <v>5.64531</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.82114</v>
+        <v>6.84376</v>
       </c>
       <c r="C3" t="n">
-        <v>7.53486</v>
+        <v>7.51656</v>
       </c>
       <c r="D3" t="n">
-        <v>9.909520000000001</v>
+        <v>8.746169999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.66991</v>
+        <v>8.65734</v>
       </c>
       <c r="C4" t="n">
-        <v>9.66677</v>
+        <v>9.647220000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6066</v>
+        <v>12.1708</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5345</v>
+        <v>10.5165</v>
       </c>
       <c r="C5" t="n">
-        <v>11.863</v>
+        <v>11.9049</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3972</v>
+        <v>15.5893</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3994</v>
+        <v>12.3737</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2272</v>
+        <v>14.2393</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1174</v>
+        <v>18.9994</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2041</v>
+        <v>14.2053</v>
       </c>
       <c r="C7" t="n">
-        <v>16.5608</v>
+        <v>16.6142</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7819</v>
+        <v>22.4395</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9197</v>
+        <v>16.1099</v>
       </c>
       <c r="C8" t="n">
-        <v>17.972</v>
+        <v>19.165</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6515</v>
+        <v>25.8334</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.6795</v>
+        <v>18.5976</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6412</v>
+        <v>22.0938</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1871</v>
+        <v>30.222</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6662</v>
+        <v>17.8555</v>
       </c>
       <c r="C10" t="n">
-        <v>20.5091</v>
+        <v>20.7889</v>
       </c>
       <c r="D10" t="n">
-        <v>30.735</v>
+        <v>27.7511</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5537</v>
+        <v>17.7714</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0761</v>
+        <v>20.3983</v>
       </c>
       <c r="D11" t="n">
-        <v>30.3302</v>
+        <v>27.6855</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4838</v>
+        <v>17.719</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6123</v>
+        <v>20.8401</v>
       </c>
       <c r="D12" t="n">
-        <v>31.0915</v>
+        <v>28.106</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6718</v>
+        <v>18.0384</v>
       </c>
       <c r="C13" t="n">
-        <v>20.1243</v>
+        <v>21.0022</v>
       </c>
       <c r="D13" t="n">
-        <v>31.3106</v>
+        <v>28.2863</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9674</v>
+        <v>17.414</v>
       </c>
       <c r="C14" t="n">
-        <v>20.0178</v>
+        <v>21.0843</v>
       </c>
       <c r="D14" t="n">
-        <v>30.2394</v>
+        <v>27.3642</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2664</v>
+        <v>18.0285</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5962</v>
+        <v>21.1628</v>
       </c>
       <c r="D15" t="n">
-        <v>30.7445</v>
+        <v>28.2139</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5131</v>
+        <v>18.0807</v>
       </c>
       <c r="C16" t="n">
-        <v>20.8124</v>
+        <v>21.4253</v>
       </c>
       <c r="D16" t="n">
-        <v>30.5911</v>
+        <v>28.1372</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2537</v>
+        <v>17.6723</v>
       </c>
       <c r="C17" t="n">
-        <v>20.8558</v>
+        <v>21.721</v>
       </c>
       <c r="D17" t="n">
-        <v>30.4396</v>
+        <v>28.2384</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.96228</v>
+        <v>5.07324</v>
       </c>
       <c r="C2" t="n">
-        <v>4.86015</v>
+        <v>6.19056</v>
       </c>
       <c r="D2" t="n">
-        <v>6.87691</v>
+        <v>6.88472</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.19195</v>
+        <v>6.13532</v>
       </c>
       <c r="C3" t="n">
-        <v>7.67804</v>
+        <v>9.08474</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4447</v>
+        <v>10.3587</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.41395</v>
+        <v>7.7231</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3292</v>
+        <v>12.3629</v>
       </c>
       <c r="D4" t="n">
-        <v>14.0866</v>
+        <v>14.4342</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.71016</v>
+        <v>9.22331</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0394</v>
+        <v>15.5957</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1041</v>
+        <v>18.4642</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7535</v>
+        <v>10.9255</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9</v>
+        <v>18.7138</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1459</v>
+        <v>22.3697</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4745</v>
+        <v>12.5479</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8697</v>
+        <v>21.7666</v>
       </c>
       <c r="D7" t="n">
-        <v>26.1406</v>
+        <v>26.2241</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8104</v>
+        <v>13.9107</v>
       </c>
       <c r="C8" t="n">
-        <v>21.2933</v>
+        <v>24.4287</v>
       </c>
       <c r="D8" t="n">
-        <v>29.5996</v>
+        <v>29.8256</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3299</v>
+        <v>16.391</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8683</v>
+        <v>28.5234</v>
       </c>
       <c r="D9" t="n">
-        <v>33.7748</v>
+        <v>34.2508</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.09</v>
+        <v>14.1323</v>
       </c>
       <c r="C10" t="n">
-        <v>19.9605</v>
+        <v>23.639</v>
       </c>
       <c r="D10" t="n">
-        <v>27.4594</v>
+        <v>27.7371</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9602</v>
+        <v>14.049</v>
       </c>
       <c r="C11" t="n">
-        <v>20.6819</v>
+        <v>23.8724</v>
       </c>
       <c r="D11" t="n">
-        <v>28.6121</v>
+        <v>27.2797</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5445</v>
+        <v>14.6004</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3538</v>
+        <v>24.5586</v>
       </c>
       <c r="D12" t="n">
-        <v>29.3277</v>
+        <v>29.4225</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.921</v>
+        <v>14.8907</v>
       </c>
       <c r="C13" t="n">
-        <v>22.9599</v>
+        <v>26.4501</v>
       </c>
       <c r="D13" t="n">
-        <v>30.567</v>
+        <v>29.3059</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.6878</v>
+        <v>14.8688</v>
       </c>
       <c r="C14" t="n">
-        <v>21.6573</v>
+        <v>25.6871</v>
       </c>
       <c r="D14" t="n">
-        <v>28.4989</v>
+        <v>28.7359</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9685</v>
+        <v>15.1437</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7088</v>
+        <v>24.5927</v>
       </c>
       <c r="D15" t="n">
-        <v>29.0162</v>
+        <v>29.9237</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0982</v>
+        <v>15.46</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2566</v>
+        <v>24.2662</v>
       </c>
       <c r="D16" t="n">
-        <v>28.7683</v>
+        <v>29.5285</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2056</v>
+        <v>15.2774</v>
       </c>
       <c r="C17" t="n">
-        <v>22.3491</v>
+        <v>25.5465</v>
       </c>
       <c r="D17" t="n">
-        <v>29.0827</v>
+        <v>28.6021</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.62419</v>
+        <v>8.65105</v>
       </c>
       <c r="C2" t="n">
-        <v>7.20055</v>
+        <v>11.2132</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6533</v>
+        <v>12.6585</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.642760000000001</v>
+        <v>8.41718</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3603</v>
+        <v>13.4453</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8525</v>
+        <v>15.6453</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2169</v>
+        <v>10.2326</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9958</v>
+        <v>17.7055</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9144</v>
+        <v>21.0997</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7094</v>
+        <v>12.0202</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2735</v>
+        <v>21.6516</v>
       </c>
       <c r="D5" t="n">
-        <v>25.21</v>
+        <v>26.3412</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3472</v>
+        <v>14.0567</v>
       </c>
       <c r="C6" t="n">
-        <v>20.3975</v>
+        <v>25.6817</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2329</v>
+        <v>31.4807</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0372</v>
+        <v>16.0955</v>
       </c>
       <c r="C7" t="n">
-        <v>24.3163</v>
+        <v>29.9731</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2303</v>
+        <v>36.5184</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7383</v>
+        <v>17.8502</v>
       </c>
       <c r="C8" t="n">
-        <v>27.2962</v>
+        <v>33.2285</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5716</v>
+        <v>41.0721</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.907</v>
+        <v>20.9118</v>
       </c>
       <c r="C9" t="n">
-        <v>31.8237</v>
+        <v>38.7082</v>
       </c>
       <c r="D9" t="n">
-        <v>45.7881</v>
+        <v>46.9664</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3269</v>
+        <v>17.8479</v>
       </c>
       <c r="C10" t="n">
-        <v>26.0852</v>
+        <v>33.3668</v>
       </c>
       <c r="D10" t="n">
-        <v>38.9201</v>
+        <v>40.0666</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1065</v>
+        <v>18.0092</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0137</v>
+        <v>33.0747</v>
       </c>
       <c r="D11" t="n">
-        <v>38.2016</v>
+        <v>37.9117</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5648</v>
+        <v>18.5864</v>
       </c>
       <c r="C12" t="n">
-        <v>28.2482</v>
+        <v>33.8349</v>
       </c>
       <c r="D12" t="n">
-        <v>39.9839</v>
+        <v>39.2426</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.9728</v>
+        <v>19.1284</v>
       </c>
       <c r="C13" t="n">
-        <v>27.9303</v>
+        <v>34.0553</v>
       </c>
       <c r="D13" t="n">
-        <v>39.812</v>
+        <v>40.9412</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8683</v>
+        <v>18.6727</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5851</v>
+        <v>33.2866</v>
       </c>
       <c r="D14" t="n">
-        <v>38.993</v>
+        <v>37.8969</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0135</v>
+        <v>18.5142</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7943</v>
+        <v>33.1553</v>
       </c>
       <c r="D15" t="n">
-        <v>37.5576</v>
+        <v>37.7243</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.465</v>
+        <v>19.5536</v>
       </c>
       <c r="C16" t="n">
-        <v>28.0086</v>
+        <v>33.4431</v>
       </c>
       <c r="D16" t="n">
-        <v>37.7874</v>
+        <v>37.0642</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3989</v>
+        <v>19.2224</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4888</v>
+        <v>33.6262</v>
       </c>
       <c r="D17" t="n">
-        <v>39.3232</v>
+        <v>38.8094</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.40578</v>
+        <v>6.42493</v>
       </c>
       <c r="C2" t="n">
-        <v>5.89632</v>
+        <v>7.07986</v>
       </c>
       <c r="D2" t="n">
-        <v>7.77198</v>
+        <v>7.76803</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.9028</v>
+        <v>7.05029</v>
       </c>
       <c r="C3" t="n">
-        <v>8.724</v>
+        <v>9.951460000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>10.9037</v>
+        <v>11.0465</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.309749999999999</v>
+        <v>8.84451</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0036</v>
+        <v>13.7894</v>
       </c>
       <c r="D4" t="n">
-        <v>15.1239</v>
+        <v>15.6388</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0726</v>
+        <v>10.5864</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4681</v>
+        <v>17.3873</v>
       </c>
       <c r="D5" t="n">
-        <v>19.4812</v>
+        <v>19.892</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9209</v>
+        <v>12.4572</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7159</v>
+        <v>21.0997</v>
       </c>
       <c r="D6" t="n">
-        <v>23.5226</v>
+        <v>24.2124</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0196</v>
+        <v>14.2221</v>
       </c>
       <c r="C7" t="n">
-        <v>22.8802</v>
+        <v>24.68</v>
       </c>
       <c r="D7" t="n">
-        <v>28.4969</v>
+        <v>28.3281</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>16.0651</v>
       </c>
       <c r="C8" t="n">
-        <v>25.5896</v>
+        <v>28.574</v>
       </c>
       <c r="D8" t="n">
-        <v>32.3187</v>
+        <v>32.6011</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2474</v>
+        <v>18.2172</v>
       </c>
       <c r="C9" t="n">
-        <v>29.5387</v>
+        <v>32.781</v>
       </c>
       <c r="D9" t="n">
-        <v>37.0361</v>
+        <v>37.3089</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.351</v>
+        <v>16.2705</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5144</v>
+        <v>27.0096</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6962</v>
+        <v>30.5952</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0326</v>
+        <v>16.0597</v>
       </c>
       <c r="C11" t="n">
-        <v>24.7289</v>
+        <v>27.7693</v>
       </c>
       <c r="D11" t="n">
-        <v>31.1301</v>
+        <v>30.6392</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4036</v>
+        <v>16.4633</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7484</v>
+        <v>29.2419</v>
       </c>
       <c r="D12" t="n">
-        <v>30.8312</v>
+        <v>32.4834</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1423</v>
+        <v>17.1022</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7225</v>
+        <v>29.568</v>
       </c>
       <c r="D13" t="n">
-        <v>31.2035</v>
+        <v>32.2205</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.8578</v>
+        <v>16.7802</v>
       </c>
       <c r="C14" t="n">
-        <v>25.613</v>
+        <v>28.2502</v>
       </c>
       <c r="D14" t="n">
-        <v>30.9882</v>
+        <v>30.6092</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.028</v>
+        <v>16.9388</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1404</v>
+        <v>28.1808</v>
       </c>
       <c r="D15" t="n">
-        <v>30.5256</v>
+        <v>30.8335</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.2937</v>
+        <v>17.4132</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1025</v>
+        <v>28.3596</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1382</v>
+        <v>30.184</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4706</v>
+        <v>17.3891</v>
       </c>
       <c r="C17" t="n">
-        <v>25.662</v>
+        <v>29.0944</v>
       </c>
       <c r="D17" t="n">
-        <v>30.7151</v>
+        <v>29.9507</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.93899</v>
+        <v>3.00635</v>
       </c>
       <c r="C2" t="n">
-        <v>4.3094</v>
+        <v>5.34569</v>
       </c>
       <c r="D2" t="n">
-        <v>6.10648</v>
+        <v>6.12927</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.79417</v>
+        <v>4.77121</v>
       </c>
       <c r="C3" t="n">
-        <v>7.31915</v>
+        <v>8.56574</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1184</v>
+        <v>10.0858</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.3807</v>
+        <v>6.52416</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2691</v>
+        <v>11.9898</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2496</v>
+        <v>14.2577</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.05922</v>
+        <v>8.071389999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1145</v>
+        <v>15.1006</v>
       </c>
       <c r="D5" t="n">
-        <v>18.249</v>
+        <v>18.2896</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.60819</v>
+        <v>9.697620000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8565</v>
+        <v>18.2187</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2807</v>
+        <v>22.2653</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1168</v>
+        <v>11.1504</v>
       </c>
       <c r="C7" t="n">
-        <v>18.5265</v>
+        <v>21.2551</v>
       </c>
       <c r="D7" t="n">
-        <v>26.1461</v>
+        <v>26.1719</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5928</v>
+        <v>12.5873</v>
       </c>
       <c r="C8" t="n">
-        <v>21.2992</v>
+        <v>24.0007</v>
       </c>
       <c r="D8" t="n">
-        <v>30.0002</v>
+        <v>29.9963</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6921</v>
+        <v>14.7483</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0723</v>
+        <v>28.7794</v>
       </c>
       <c r="D9" t="n">
-        <v>34.567</v>
+        <v>34.6097</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.999</v>
+        <v>14.0127</v>
       </c>
       <c r="C10" t="n">
-        <v>23.4533</v>
+        <v>26.6414</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6678</v>
+        <v>32.106</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8673</v>
+        <v>14.1395</v>
       </c>
       <c r="C11" t="n">
-        <v>23.1719</v>
+        <v>26.9014</v>
       </c>
       <c r="D11" t="n">
-        <v>31.3408</v>
+        <v>31.7191</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0309</v>
+        <v>14.2363</v>
       </c>
       <c r="C12" t="n">
-        <v>23.4962</v>
+        <v>26.8853</v>
       </c>
       <c r="D12" t="n">
-        <v>31.6388</v>
+        <v>31.3542</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1499</v>
+        <v>14.5033</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9994</v>
+        <v>26.7769</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6146</v>
+        <v>32.1305</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7836</v>
+        <v>13.8686</v>
       </c>
       <c r="C14" t="n">
-        <v>22.7227</v>
+        <v>25.8074</v>
       </c>
       <c r="D14" t="n">
-        <v>30.4495</v>
+        <v>31.0716</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2176</v>
+        <v>14.2413</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2401</v>
+        <v>26.6749</v>
       </c>
       <c r="D15" t="n">
-        <v>31.6584</v>
+        <v>31.5455</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.1331</v>
+        <v>14.454</v>
       </c>
       <c r="C16" t="n">
-        <v>23.1327</v>
+        <v>26.5518</v>
       </c>
       <c r="D16" t="n">
-        <v>31.2927</v>
+        <v>31.3008</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9995</v>
+        <v>14.2867</v>
       </c>
       <c r="C17" t="n">
-        <v>23.0758</v>
+        <v>26.6469</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2677</v>
+        <v>30.9962</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.93345</v>
+        <v>3.94924</v>
       </c>
       <c r="C2" t="n">
-        <v>6.16424</v>
+        <v>8.725820000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.2274</v>
+        <v>10.3913</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.02801</v>
+        <v>6.08311</v>
       </c>
       <c r="C3" t="n">
-        <v>9.72899</v>
+        <v>12.6815</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9577</v>
+        <v>15.1928</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.138769999999999</v>
+        <v>8.105169999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.4352</v>
+        <v>16.9382</v>
       </c>
       <c r="D4" t="n">
-        <v>20.4643</v>
+        <v>20.6835</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0498</v>
+        <v>10.0263</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9439</v>
+        <v>21.0534</v>
       </c>
       <c r="D5" t="n">
-        <v>25.6853</v>
+        <v>25.9788</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9409</v>
+        <v>11.9593</v>
       </c>
       <c r="C6" t="n">
-        <v>20.3821</v>
+        <v>25.0421</v>
       </c>
       <c r="D6" t="n">
-        <v>30.9633</v>
+        <v>31.3566</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7447</v>
+        <v>13.791</v>
       </c>
       <c r="C7" t="n">
-        <v>23.6812</v>
+        <v>28.997</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2035</v>
+        <v>36.5537</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5571</v>
+        <v>15.5119</v>
       </c>
       <c r="C8" t="n">
-        <v>27.1759</v>
+        <v>32.9263</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1694</v>
+        <v>41.7752</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.9944</v>
+        <v>18.1229</v>
       </c>
       <c r="C9" t="n">
-        <v>32.0624</v>
+        <v>39.4469</v>
       </c>
       <c r="D9" t="n">
-        <v>47.6842</v>
+        <v>48.1708</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.275</v>
+        <v>16.9929</v>
       </c>
       <c r="C10" t="n">
-        <v>29.0835</v>
+        <v>36.5224</v>
       </c>
       <c r="D10" t="n">
-        <v>43.3467</v>
+        <v>43.5886</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.8498</v>
+        <v>16.9632</v>
       </c>
       <c r="C11" t="n">
-        <v>29.695</v>
+        <v>35.5157</v>
       </c>
       <c r="D11" t="n">
-        <v>42.7578</v>
+        <v>43.7757</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.1908</v>
+        <v>17.2608</v>
       </c>
       <c r="C12" t="n">
-        <v>29.4753</v>
+        <v>35.4</v>
       </c>
       <c r="D12" t="n">
-        <v>42.8294</v>
+        <v>42.4399</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.3757</v>
+        <v>17.5722</v>
       </c>
       <c r="C13" t="n">
-        <v>30.0409</v>
+        <v>36.0692</v>
       </c>
       <c r="D13" t="n">
-        <v>42.7031</v>
+        <v>43.891</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0141</v>
+        <v>16.9923</v>
       </c>
       <c r="C14" t="n">
-        <v>28.849</v>
+        <v>35.3746</v>
       </c>
       <c r="D14" t="n">
-        <v>41.234</v>
+        <v>41.0754</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.566</v>
+        <v>17.6945</v>
       </c>
       <c r="C15" t="n">
-        <v>29.6019</v>
+        <v>35.0599</v>
       </c>
       <c r="D15" t="n">
-        <v>40.9476</v>
+        <v>41.3483</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3862</v>
+        <v>17.6315</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8193</v>
+        <v>35.2156</v>
       </c>
       <c r="D16" t="n">
-        <v>41.7812</v>
+        <v>41.6211</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.1155</v>
+        <v>17.5256</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0162</v>
+        <v>34.1291</v>
       </c>
       <c r="D17" t="n">
-        <v>41.4663</v>
+        <v>41.9913</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.23722</v>
+        <v>5.29177</v>
       </c>
       <c r="C2" t="n">
-        <v>5.63911</v>
+        <v>6.65363</v>
       </c>
       <c r="D2" t="n">
-        <v>7.505</v>
+        <v>7.49557</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.68712</v>
+        <v>6.83151</v>
       </c>
       <c r="C3" t="n">
-        <v>8.651120000000001</v>
+        <v>9.86754</v>
       </c>
       <c r="D3" t="n">
-        <v>11.103</v>
+        <v>11.1717</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.67188</v>
+        <v>8.679119999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.088</v>
+        <v>13.6008</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5761</v>
+        <v>15.6365</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5241</v>
+        <v>10.5003</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4359</v>
+        <v>17.3574</v>
       </c>
       <c r="D5" t="n">
-        <v>19.9486</v>
+        <v>20.0397</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.396</v>
+        <v>12.3618</v>
       </c>
       <c r="C6" t="n">
-        <v>18.877</v>
+        <v>21.052</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3859</v>
+        <v>24.4165</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1799</v>
+        <v>14.1881</v>
       </c>
       <c r="C7" t="n">
-        <v>22.2158</v>
+        <v>24.8186</v>
       </c>
       <c r="D7" t="n">
-        <v>28.6897</v>
+        <v>28.762</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.07</v>
+        <v>16.1049</v>
       </c>
       <c r="C8" t="n">
-        <v>25.5899</v>
+        <v>28.5374</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0033</v>
+        <v>33.0897</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5574</v>
+        <v>18.5809</v>
       </c>
       <c r="C9" t="n">
-        <v>29.8091</v>
+        <v>33.4171</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7224</v>
+        <v>38.3892</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4776</v>
+        <v>17.6516</v>
       </c>
       <c r="C10" t="n">
-        <v>27.826</v>
+        <v>30.7399</v>
       </c>
       <c r="D10" t="n">
-        <v>35.0725</v>
+        <v>35.1025</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6772</v>
+        <v>17.5644</v>
       </c>
       <c r="C11" t="n">
-        <v>27.4983</v>
+        <v>30.6348</v>
       </c>
       <c r="D11" t="n">
-        <v>35.1255</v>
+        <v>34.7302</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4781</v>
+        <v>17.7835</v>
       </c>
       <c r="C12" t="n">
-        <v>27.4614</v>
+        <v>31.1091</v>
       </c>
       <c r="D12" t="n">
-        <v>34.603</v>
+        <v>35.0188</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5677</v>
+        <v>17.8748</v>
       </c>
       <c r="C13" t="n">
-        <v>27.9035</v>
+        <v>31.3137</v>
       </c>
       <c r="D13" t="n">
-        <v>35.0619</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1769</v>
+        <v>17.419</v>
       </c>
       <c r="C14" t="n">
-        <v>27.276</v>
+        <v>30.5885</v>
       </c>
       <c r="D14" t="n">
-        <v>34.4051</v>
+        <v>34.4274</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4508</v>
+        <v>18.1514</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9968</v>
+        <v>31.0889</v>
       </c>
       <c r="D15" t="n">
-        <v>35.1361</v>
+        <v>34.9555</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6102</v>
+        <v>18.088</v>
       </c>
       <c r="C16" t="n">
-        <v>28.2591</v>
+        <v>30.6902</v>
       </c>
       <c r="D16" t="n">
-        <v>35.3557</v>
+        <v>34.8677</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5211</v>
+        <v>17.9404</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4711</v>
+        <v>31.3346</v>
       </c>
       <c r="D17" t="n">
-        <v>35.2874</v>
+        <v>34.6024</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.07324</v>
+        <v>5.22798</v>
       </c>
       <c r="C2" t="n">
-        <v>6.19056</v>
+        <v>5.86304</v>
       </c>
       <c r="D2" t="n">
-        <v>6.88472</v>
+        <v>6.88159</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.13532</v>
+        <v>6.58581</v>
       </c>
       <c r="C3" t="n">
-        <v>9.08474</v>
+        <v>8.840199999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>10.3587</v>
+        <v>10.4713</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.7231</v>
+        <v>8.897410000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3629</v>
+        <v>11.9387</v>
       </c>
       <c r="D4" t="n">
-        <v>14.4342</v>
+        <v>14.4809</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.22331</v>
+        <v>10.9816</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5957</v>
+        <v>14.8408</v>
       </c>
       <c r="D5" t="n">
-        <v>18.4642</v>
+        <v>18.3302</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9255</v>
+        <v>13.2255</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7138</v>
+        <v>17.9308</v>
       </c>
       <c r="D6" t="n">
-        <v>22.3697</v>
+        <v>22.1809</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5479</v>
+        <v>15.6229</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7666</v>
+        <v>21.1966</v>
       </c>
       <c r="D7" t="n">
-        <v>26.2241</v>
+        <v>26.2109</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9107</v>
+        <v>17.9436</v>
       </c>
       <c r="C8" t="n">
-        <v>24.4287</v>
+        <v>23.9598</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8256</v>
+        <v>29.8502</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.391</v>
+        <v>21.2909</v>
       </c>
       <c r="C9" t="n">
-        <v>28.5234</v>
+        <v>27.438</v>
       </c>
       <c r="D9" t="n">
-        <v>34.2508</v>
+        <v>33.6195</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1323</v>
+        <v>17.2421</v>
       </c>
       <c r="C10" t="n">
-        <v>23.639</v>
+        <v>22.5286</v>
       </c>
       <c r="D10" t="n">
-        <v>27.7371</v>
+        <v>27.5477</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.049</v>
+        <v>17.3168</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8724</v>
+        <v>23.3218</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2797</v>
+        <v>27.6067</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6004</v>
+        <v>18.4101</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5586</v>
+        <v>23.5055</v>
       </c>
       <c r="D12" t="n">
-        <v>29.4225</v>
+        <v>28.1956</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8907</v>
+        <v>18.9049</v>
       </c>
       <c r="C13" t="n">
-        <v>26.4501</v>
+        <v>24.1548</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3059</v>
+        <v>28.7798</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8688</v>
+        <v>18.4867</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6871</v>
+        <v>23.8643</v>
       </c>
       <c r="D14" t="n">
-        <v>28.7359</v>
+        <v>29.6954</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1437</v>
+        <v>18.7094</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5927</v>
+        <v>23.4897</v>
       </c>
       <c r="D15" t="n">
-        <v>29.9237</v>
+        <v>29.1141</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.46</v>
+        <v>19.1864</v>
       </c>
       <c r="C16" t="n">
-        <v>24.2662</v>
+        <v>24.4977</v>
       </c>
       <c r="D16" t="n">
-        <v>29.5285</v>
+        <v>28.898</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2774</v>
+        <v>20.2254</v>
       </c>
       <c r="C17" t="n">
-        <v>25.5465</v>
+        <v>23.7641</v>
       </c>
       <c r="D17" t="n">
-        <v>28.6021</v>
+        <v>27.6622</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.65105</v>
+        <v>8.62215</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2132</v>
+        <v>11.2896</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6585</v>
+        <v>12.7174</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.41718</v>
+        <v>8.95453</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4453</v>
+        <v>13.7067</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6453</v>
+        <v>15.9323</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2326</v>
+        <v>11.4216</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7055</v>
+        <v>17.7152</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0997</v>
+        <v>21.118</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0202</v>
+        <v>14.014</v>
       </c>
       <c r="C5" t="n">
-        <v>21.6516</v>
+        <v>21.69</v>
       </c>
       <c r="D5" t="n">
-        <v>26.3412</v>
+        <v>26.23</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.0567</v>
+        <v>16.466</v>
       </c>
       <c r="C6" t="n">
-        <v>25.6817</v>
+        <v>25.2985</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4807</v>
+        <v>31.3392</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0955</v>
+        <v>19.6108</v>
       </c>
       <c r="C7" t="n">
-        <v>29.9731</v>
+        <v>30.1731</v>
       </c>
       <c r="D7" t="n">
-        <v>36.5184</v>
+        <v>36.9679</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8502</v>
+        <v>22.0917</v>
       </c>
       <c r="C8" t="n">
-        <v>33.2285</v>
+        <v>33.2726</v>
       </c>
       <c r="D8" t="n">
-        <v>41.0721</v>
+        <v>41.1218</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9118</v>
+        <v>26.8284</v>
       </c>
       <c r="C9" t="n">
-        <v>38.7082</v>
+        <v>38.4288</v>
       </c>
       <c r="D9" t="n">
-        <v>46.9664</v>
+        <v>46.1533</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8479</v>
+        <v>22.2608</v>
       </c>
       <c r="C10" t="n">
-        <v>33.3668</v>
+        <v>33.3925</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0666</v>
+        <v>39.2212</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0092</v>
+        <v>22.0479</v>
       </c>
       <c r="C11" t="n">
-        <v>33.0747</v>
+        <v>32.6377</v>
       </c>
       <c r="D11" t="n">
-        <v>37.9117</v>
+        <v>39.1908</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5864</v>
+        <v>24.1168</v>
       </c>
       <c r="C12" t="n">
-        <v>33.8349</v>
+        <v>32.1205</v>
       </c>
       <c r="D12" t="n">
-        <v>39.2426</v>
+        <v>38.9194</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1284</v>
+        <v>23.9158</v>
       </c>
       <c r="C13" t="n">
-        <v>34.0553</v>
+        <v>35.0403</v>
       </c>
       <c r="D13" t="n">
-        <v>40.9412</v>
+        <v>40.3482</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6727</v>
+        <v>23.8343</v>
       </c>
       <c r="C14" t="n">
-        <v>33.2866</v>
+        <v>33.4984</v>
       </c>
       <c r="D14" t="n">
-        <v>37.8969</v>
+        <v>38.4349</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5142</v>
+        <v>23.3035</v>
       </c>
       <c r="C15" t="n">
-        <v>33.1553</v>
+        <v>33.7932</v>
       </c>
       <c r="D15" t="n">
-        <v>37.7243</v>
+        <v>39.2405</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5536</v>
+        <v>23.8425</v>
       </c>
       <c r="C16" t="n">
-        <v>33.4431</v>
+        <v>33.4461</v>
       </c>
       <c r="D16" t="n">
-        <v>37.0642</v>
+        <v>37.943</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2224</v>
+        <v>23.9683</v>
       </c>
       <c r="C17" t="n">
-        <v>33.6262</v>
+        <v>34.8006</v>
       </c>
       <c r="D17" t="n">
-        <v>38.8094</v>
+        <v>40.271</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42493</v>
+        <v>6.40491</v>
       </c>
       <c r="C2" t="n">
-        <v>7.07986</v>
+        <v>6.25492</v>
       </c>
       <c r="D2" t="n">
-        <v>7.76803</v>
+        <v>7.75697</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.05029</v>
+        <v>7.22349</v>
       </c>
       <c r="C3" t="n">
-        <v>9.951460000000001</v>
+        <v>9.451140000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0465</v>
+        <v>11.1267</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.84451</v>
+        <v>9.29116</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7894</v>
+        <v>12.8865</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6388</v>
+        <v>15.627</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5864</v>
+        <v>11.3313</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3873</v>
+        <v>16.2149</v>
       </c>
       <c r="D5" t="n">
-        <v>19.892</v>
+        <v>20.0184</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4572</v>
+        <v>13.5545</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0997</v>
+        <v>19.6021</v>
       </c>
       <c r="D6" t="n">
-        <v>24.2124</v>
+        <v>24.2342</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2221</v>
+        <v>15.6675</v>
       </c>
       <c r="C7" t="n">
-        <v>24.68</v>
+        <v>22.8185</v>
       </c>
       <c r="D7" t="n">
-        <v>28.3281</v>
+        <v>28.5901</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0651</v>
+        <v>18.0888</v>
       </c>
       <c r="C8" t="n">
-        <v>28.574</v>
+        <v>25.6462</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6011</v>
+        <v>32.546</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2172</v>
+        <v>21.0361</v>
       </c>
       <c r="C9" t="n">
-        <v>32.781</v>
+        <v>29.6659</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3089</v>
+        <v>36.9426</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.2705</v>
+        <v>18.112</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0096</v>
+        <v>25.2294</v>
       </c>
       <c r="D10" t="n">
-        <v>30.5952</v>
+        <v>31.1599</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0597</v>
+        <v>17.9201</v>
       </c>
       <c r="C11" t="n">
-        <v>27.7693</v>
+        <v>25.5583</v>
       </c>
       <c r="D11" t="n">
-        <v>30.6392</v>
+        <v>30.8122</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4633</v>
+        <v>18.5685</v>
       </c>
       <c r="C12" t="n">
-        <v>29.2419</v>
+        <v>26.4255</v>
       </c>
       <c r="D12" t="n">
-        <v>32.4834</v>
+        <v>31.6624</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1022</v>
+        <v>19.4174</v>
       </c>
       <c r="C13" t="n">
-        <v>29.568</v>
+        <v>26.9218</v>
       </c>
       <c r="D13" t="n">
-        <v>32.2205</v>
+        <v>33.442</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7802</v>
+        <v>19.0304</v>
       </c>
       <c r="C14" t="n">
-        <v>28.2502</v>
+        <v>26.2319</v>
       </c>
       <c r="D14" t="n">
-        <v>30.6092</v>
+        <v>30.8067</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9388</v>
+        <v>19.0877</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1808</v>
+        <v>25.8067</v>
       </c>
       <c r="D15" t="n">
-        <v>30.8335</v>
+        <v>30.2489</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4132</v>
+        <v>19.6637</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3596</v>
+        <v>26.663</v>
       </c>
       <c r="D16" t="n">
-        <v>30.184</v>
+        <v>29.2247</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.3891</v>
+        <v>19.8458</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0944</v>
+        <v>26.0591</v>
       </c>
       <c r="D17" t="n">
-        <v>29.9507</v>
+        <v>29.5042</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.00635</v>
+        <v>3.00111</v>
       </c>
       <c r="C2" t="n">
-        <v>5.34569</v>
+        <v>4.96593</v>
       </c>
       <c r="D2" t="n">
-        <v>6.12927</v>
+        <v>6.12053</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.77121</v>
+        <v>5.11473</v>
       </c>
       <c r="C3" t="n">
-        <v>8.56574</v>
+        <v>8.260009999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0858</v>
+        <v>10.1204</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.52416</v>
+        <v>7.22</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9898</v>
+        <v>11.4666</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2577</v>
+        <v>14.2538</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.071389999999999</v>
+        <v>9.36059</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1006</v>
+        <v>14.6187</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2896</v>
+        <v>18.273</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.697620000000001</v>
+        <v>11.5886</v>
       </c>
       <c r="C6" t="n">
-        <v>18.2187</v>
+        <v>17.7356</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2653</v>
+        <v>22.2915</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1504</v>
+        <v>13.6301</v>
       </c>
       <c r="C7" t="n">
-        <v>21.2551</v>
+        <v>20.7367</v>
       </c>
       <c r="D7" t="n">
-        <v>26.1719</v>
+        <v>26.1591</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5873</v>
+        <v>15.8012</v>
       </c>
       <c r="C8" t="n">
-        <v>24.0007</v>
+        <v>23.6708</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9963</v>
+        <v>29.9527</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7483</v>
+        <v>18.3432</v>
       </c>
       <c r="C9" t="n">
-        <v>28.7794</v>
+        <v>27.9425</v>
       </c>
       <c r="D9" t="n">
-        <v>34.6097</v>
+        <v>34.5702</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0127</v>
+        <v>17.1154</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6414</v>
+        <v>25.8613</v>
       </c>
       <c r="D10" t="n">
-        <v>32.106</v>
+        <v>31.7687</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1395</v>
+        <v>17.216</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9014</v>
+        <v>25.5736</v>
       </c>
       <c r="D11" t="n">
-        <v>31.7191</v>
+        <v>31.6856</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2363</v>
+        <v>17.3843</v>
       </c>
       <c r="C12" t="n">
-        <v>26.8853</v>
+        <v>26.0657</v>
       </c>
       <c r="D12" t="n">
-        <v>31.3542</v>
+        <v>31.5892</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5033</v>
+        <v>17.7742</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7769</v>
+        <v>26.467</v>
       </c>
       <c r="D13" t="n">
-        <v>32.1305</v>
+        <v>32.0746</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8686</v>
+        <v>17.092</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8074</v>
+        <v>25.2648</v>
       </c>
       <c r="D14" t="n">
-        <v>31.0716</v>
+        <v>31.084</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.2413</v>
+        <v>17.9809</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6749</v>
+        <v>25.7751</v>
       </c>
       <c r="D15" t="n">
-        <v>31.5455</v>
+        <v>31.6931</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.454</v>
+        <v>17.8987</v>
       </c>
       <c r="C16" t="n">
-        <v>26.5518</v>
+        <v>25.6491</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3008</v>
+        <v>31.1756</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2867</v>
+        <v>17.4907</v>
       </c>
       <c r="C17" t="n">
-        <v>26.6469</v>
+        <v>25.7041</v>
       </c>
       <c r="D17" t="n">
-        <v>30.9962</v>
+        <v>31.5027</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94924</v>
+        <v>3.92827</v>
       </c>
       <c r="C2" t="n">
-        <v>8.725820000000001</v>
+        <v>8.77497</v>
       </c>
       <c r="D2" t="n">
-        <v>10.3913</v>
+        <v>10.4557</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.08311</v>
+        <v>6.28436</v>
       </c>
       <c r="C3" t="n">
-        <v>12.6815</v>
+        <v>12.63</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1928</v>
+        <v>15.1382</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.105169999999999</v>
+        <v>8.844469999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9382</v>
+        <v>17.0155</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6835</v>
+        <v>20.7869</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0263</v>
+        <v>11.1599</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0534</v>
+        <v>21.0598</v>
       </c>
       <c r="D5" t="n">
-        <v>25.9788</v>
+        <v>26.0323</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9593</v>
+        <v>13.8273</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0421</v>
+        <v>24.9397</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3566</v>
+        <v>31.3555</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.791</v>
+        <v>16.2971</v>
       </c>
       <c r="C7" t="n">
-        <v>28.997</v>
+        <v>28.8127</v>
       </c>
       <c r="D7" t="n">
-        <v>36.5537</v>
+        <v>36.4672</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5119</v>
+        <v>19.0494</v>
       </c>
       <c r="C8" t="n">
-        <v>32.9263</v>
+        <v>33.0384</v>
       </c>
       <c r="D8" t="n">
-        <v>41.7752</v>
+        <v>41.8262</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1229</v>
+        <v>21.9834</v>
       </c>
       <c r="C9" t="n">
-        <v>39.4469</v>
+        <v>39.5353</v>
       </c>
       <c r="D9" t="n">
-        <v>48.1708</v>
+        <v>48.131</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9929</v>
+        <v>20.5443</v>
       </c>
       <c r="C10" t="n">
-        <v>36.5224</v>
+        <v>36.1108</v>
       </c>
       <c r="D10" t="n">
-        <v>43.5886</v>
+        <v>43.7616</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9632</v>
+        <v>20.3032</v>
       </c>
       <c r="C11" t="n">
-        <v>35.5157</v>
+        <v>35.412</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7757</v>
+        <v>43.22</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2608</v>
+        <v>20.6729</v>
       </c>
       <c r="C12" t="n">
-        <v>35.4</v>
+        <v>36.0268</v>
       </c>
       <c r="D12" t="n">
-        <v>42.4399</v>
+        <v>42.4633</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5722</v>
+        <v>21.1592</v>
       </c>
       <c r="C13" t="n">
-        <v>36.0692</v>
+        <v>36.3032</v>
       </c>
       <c r="D13" t="n">
-        <v>43.891</v>
+        <v>42.8982</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9923</v>
+        <v>20.6887</v>
       </c>
       <c r="C14" t="n">
-        <v>35.3746</v>
+        <v>35.4207</v>
       </c>
       <c r="D14" t="n">
-        <v>41.0754</v>
+        <v>41.4825</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6945</v>
+        <v>21.4294</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0599</v>
+        <v>35.2245</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3483</v>
+        <v>41.9728</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6315</v>
+        <v>21.3415</v>
       </c>
       <c r="C16" t="n">
-        <v>35.2156</v>
+        <v>34.9717</v>
       </c>
       <c r="D16" t="n">
-        <v>41.6211</v>
+        <v>40.4772</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5256</v>
+        <v>21.2396</v>
       </c>
       <c r="C17" t="n">
-        <v>34.1291</v>
+        <v>34.8237</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9913</v>
+        <v>41.4838</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.29177</v>
+        <v>5.23923</v>
       </c>
       <c r="C2" t="n">
-        <v>6.65363</v>
+        <v>5.70621</v>
       </c>
       <c r="D2" t="n">
-        <v>7.49557</v>
+        <v>7.4972</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.83151</v>
+        <v>6.90518</v>
       </c>
       <c r="C3" t="n">
-        <v>9.86754</v>
+        <v>9.031499999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>11.1717</v>
+        <v>11.2494</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.679119999999999</v>
+        <v>9.05705</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6008</v>
+        <v>12.2627</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6365</v>
+        <v>15.6639</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5003</v>
+        <v>11.2333</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3574</v>
+        <v>15.627</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0397</v>
+        <v>20.0353</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3618</v>
+        <v>13.4167</v>
       </c>
       <c r="C6" t="n">
-        <v>21.052</v>
+        <v>19.3899</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4165</v>
+        <v>24.4396</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1881</v>
+        <v>15.6541</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8186</v>
+        <v>22.781</v>
       </c>
       <c r="D7" t="n">
-        <v>28.762</v>
+        <v>28.7171</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1049</v>
+        <v>18.1096</v>
       </c>
       <c r="C8" t="n">
-        <v>28.5374</v>
+        <v>26.7264</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0897</v>
+        <v>33.0942</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5809</v>
+        <v>21.3613</v>
       </c>
       <c r="C9" t="n">
-        <v>33.4171</v>
+        <v>30.3518</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3892</v>
+        <v>38.3438</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6516</v>
+        <v>20.2619</v>
       </c>
       <c r="C10" t="n">
-        <v>30.7399</v>
+        <v>28.6398</v>
       </c>
       <c r="D10" t="n">
-        <v>35.1025</v>
+        <v>34.6604</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5644</v>
+        <v>19.7265</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6348</v>
+        <v>28.9542</v>
       </c>
       <c r="D11" t="n">
-        <v>34.7302</v>
+        <v>34.9836</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7835</v>
+        <v>20.3364</v>
       </c>
       <c r="C12" t="n">
-        <v>31.1091</v>
+        <v>28.3699</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0188</v>
+        <v>35.0718</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8748</v>
+        <v>20.3998</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3137</v>
+        <v>29.2666</v>
       </c>
       <c r="D13" t="n">
-        <v>35.8</v>
+        <v>35.7828</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.419</v>
+        <v>19.6529</v>
       </c>
       <c r="C14" t="n">
-        <v>30.5885</v>
+        <v>27.9856</v>
       </c>
       <c r="D14" t="n">
-        <v>34.4274</v>
+        <v>34.2206</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1514</v>
+        <v>20.4868</v>
       </c>
       <c r="C15" t="n">
-        <v>31.0889</v>
+        <v>28.6518</v>
       </c>
       <c r="D15" t="n">
-        <v>34.9555</v>
+        <v>35.2874</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.088</v>
+        <v>20.5036</v>
       </c>
       <c r="C16" t="n">
-        <v>30.6902</v>
+        <v>28.6881</v>
       </c>
       <c r="D16" t="n">
-        <v>34.8677</v>
+        <v>35.1784</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9404</v>
+        <v>20.2612</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3346</v>
+        <v>28.7079</v>
       </c>
       <c r="D17" t="n">
-        <v>34.6024</v>
+        <v>34.6146</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.22798</v>
+        <v>5.04498</v>
       </c>
       <c r="C2" t="n">
-        <v>5.86304</v>
+        <v>6.20437</v>
       </c>
       <c r="D2" t="n">
-        <v>6.88159</v>
+        <v>5.43406</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.58581</v>
+        <v>6.24438</v>
       </c>
       <c r="C3" t="n">
-        <v>8.840199999999999</v>
+        <v>9.16323</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4713</v>
+        <v>8.546390000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.897410000000001</v>
+        <v>7.71564</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9387</v>
+        <v>12.3944</v>
       </c>
       <c r="D4" t="n">
-        <v>14.4809</v>
+        <v>12.2909</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9816</v>
+        <v>9.23109</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8408</v>
+        <v>15.5269</v>
       </c>
       <c r="D5" t="n">
-        <v>18.3302</v>
+        <v>15.4991</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.2255</v>
+        <v>10.8324</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9308</v>
+        <v>18.5502</v>
       </c>
       <c r="D6" t="n">
-        <v>22.1809</v>
+        <v>18.5728</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6229</v>
+        <v>12.5434</v>
       </c>
       <c r="C7" t="n">
-        <v>21.1966</v>
+        <v>21.7162</v>
       </c>
       <c r="D7" t="n">
-        <v>26.2109</v>
+        <v>22.2122</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9436</v>
+        <v>13.9044</v>
       </c>
       <c r="C8" t="n">
-        <v>23.9598</v>
+        <v>24.5685</v>
       </c>
       <c r="D8" t="n">
-        <v>29.8502</v>
+        <v>25.9409</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2909</v>
+        <v>16.3914</v>
       </c>
       <c r="C9" t="n">
-        <v>27.438</v>
+        <v>28.6089</v>
       </c>
       <c r="D9" t="n">
-        <v>33.6195</v>
+        <v>28.8445</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2421</v>
+        <v>13.7968</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5286</v>
+        <v>23.2515</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5477</v>
+        <v>23.082</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.3168</v>
+        <v>14.0589</v>
       </c>
       <c r="C11" t="n">
-        <v>23.3218</v>
+        <v>24.1321</v>
       </c>
       <c r="D11" t="n">
-        <v>27.6067</v>
+        <v>23.908</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4101</v>
+        <v>14.5047</v>
       </c>
       <c r="C12" t="n">
-        <v>23.5055</v>
+        <v>25.085</v>
       </c>
       <c r="D12" t="n">
-        <v>28.1956</v>
+        <v>25.3347</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.9049</v>
+        <v>15.0777</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1548</v>
+        <v>25.5458</v>
       </c>
       <c r="D13" t="n">
-        <v>28.7798</v>
+        <v>26.8149</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4867</v>
+        <v>14.7895</v>
       </c>
       <c r="C14" t="n">
-        <v>23.8643</v>
+        <v>25.1097</v>
       </c>
       <c r="D14" t="n">
-        <v>29.6954</v>
+        <v>25.951</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7094</v>
+        <v>15.0368</v>
       </c>
       <c r="C15" t="n">
-        <v>23.4897</v>
+        <v>24.7851</v>
       </c>
       <c r="D15" t="n">
-        <v>29.1141</v>
+        <v>25.5902</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1864</v>
+        <v>15.3934</v>
       </c>
       <c r="C16" t="n">
-        <v>24.4977</v>
+        <v>24.919</v>
       </c>
       <c r="D16" t="n">
-        <v>28.898</v>
+        <v>25.8987</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2254</v>
+        <v>15.5282</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7641</v>
+        <v>25.0343</v>
       </c>
       <c r="D17" t="n">
-        <v>27.6622</v>
+        <v>25.4191</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.62215</v>
+        <v>8.59958</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2896</v>
+        <v>11.2213</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7174</v>
+        <v>11.6669</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.95453</v>
+        <v>8.613580000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>13.7067</v>
+        <v>13.6176</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9323</v>
+        <v>15.4245</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4216</v>
+        <v>10.2305</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7152</v>
+        <v>17.714</v>
       </c>
       <c r="D4" t="n">
-        <v>21.118</v>
+        <v>20.8862</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.014</v>
+        <v>12.0154</v>
       </c>
       <c r="C5" t="n">
-        <v>21.69</v>
+        <v>21.7086</v>
       </c>
       <c r="D5" t="n">
-        <v>26.23</v>
+        <v>26.2799</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.466</v>
+        <v>13.962</v>
       </c>
       <c r="C6" t="n">
-        <v>25.2985</v>
+        <v>25.358</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3392</v>
+        <v>31.1912</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.6108</v>
+        <v>16.0858</v>
       </c>
       <c r="C7" t="n">
-        <v>30.1731</v>
+        <v>30.078</v>
       </c>
       <c r="D7" t="n">
-        <v>36.9679</v>
+        <v>36.5623</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0917</v>
+        <v>17.8171</v>
       </c>
       <c r="C8" t="n">
-        <v>33.2726</v>
+        <v>33.1832</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1218</v>
+        <v>41.1664</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.8284</v>
+        <v>20.9142</v>
       </c>
       <c r="C9" t="n">
-        <v>38.4288</v>
+        <v>37.9733</v>
       </c>
       <c r="D9" t="n">
-        <v>46.1533</v>
+        <v>46.1144</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2608</v>
+        <v>17.7854</v>
       </c>
       <c r="C10" t="n">
-        <v>33.3925</v>
+        <v>33.4258</v>
       </c>
       <c r="D10" t="n">
-        <v>39.2212</v>
+        <v>38.5247</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0479</v>
+        <v>17.9898</v>
       </c>
       <c r="C11" t="n">
-        <v>32.6377</v>
+        <v>32.2715</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1908</v>
+        <v>38.4101</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.1168</v>
+        <v>18.7274</v>
       </c>
       <c r="C12" t="n">
-        <v>32.1205</v>
+        <v>34.1018</v>
       </c>
       <c r="D12" t="n">
-        <v>38.9194</v>
+        <v>39.8557</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.9158</v>
+        <v>19.0585</v>
       </c>
       <c r="C13" t="n">
-        <v>35.0403</v>
+        <v>34.1471</v>
       </c>
       <c r="D13" t="n">
-        <v>40.3482</v>
+        <v>41.3789</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.8343</v>
+        <v>19.1277</v>
       </c>
       <c r="C14" t="n">
-        <v>33.4984</v>
+        <v>33.2623</v>
       </c>
       <c r="D14" t="n">
-        <v>38.4349</v>
+        <v>39.2539</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.3035</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>33.7932</v>
+        <v>32.4824</v>
       </c>
       <c r="D15" t="n">
-        <v>39.2405</v>
+        <v>39.0693</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.8425</v>
+        <v>18.8652</v>
       </c>
       <c r="C16" t="n">
-        <v>33.4461</v>
+        <v>33.7268</v>
       </c>
       <c r="D16" t="n">
-        <v>37.943</v>
+        <v>38.9515</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.9683</v>
+        <v>19.5664</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8006</v>
+        <v>33.7509</v>
       </c>
       <c r="D17" t="n">
-        <v>40.271</v>
+        <v>39.5009</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.40491</v>
+        <v>6.42405</v>
       </c>
       <c r="C2" t="n">
-        <v>6.25492</v>
+        <v>6.99152</v>
       </c>
       <c r="D2" t="n">
-        <v>7.75697</v>
+        <v>7.27625</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.22349</v>
+        <v>7.17319</v>
       </c>
       <c r="C3" t="n">
-        <v>9.451140000000001</v>
+        <v>10.0596</v>
       </c>
       <c r="D3" t="n">
-        <v>11.1267</v>
+        <v>11.0566</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.29116</v>
+        <v>8.8424</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8865</v>
+        <v>13.7012</v>
       </c>
       <c r="D4" t="n">
-        <v>15.627</v>
+        <v>15.5617</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3313</v>
+        <v>10.6411</v>
       </c>
       <c r="C5" t="n">
-        <v>16.2149</v>
+        <v>17.6329</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0184</v>
+        <v>20.1524</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.5545</v>
+        <v>12.4961</v>
       </c>
       <c r="C6" t="n">
-        <v>19.6021</v>
+        <v>21.3174</v>
       </c>
       <c r="D6" t="n">
-        <v>24.2342</v>
+        <v>24.5444</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6675</v>
+        <v>14.3328</v>
       </c>
       <c r="C7" t="n">
-        <v>22.8185</v>
+        <v>25.1916</v>
       </c>
       <c r="D7" t="n">
-        <v>28.5901</v>
+        <v>28.7844</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0888</v>
+        <v>16.0513</v>
       </c>
       <c r="C8" t="n">
-        <v>25.6462</v>
+        <v>28.5956</v>
       </c>
       <c r="D8" t="n">
-        <v>32.546</v>
+        <v>33.0504</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0361</v>
+        <v>18.2342</v>
       </c>
       <c r="C9" t="n">
-        <v>29.6659</v>
+        <v>32.6287</v>
       </c>
       <c r="D9" t="n">
-        <v>36.9426</v>
+        <v>37.7108</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.112</v>
+        <v>16.4031</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2294</v>
+        <v>27.181</v>
       </c>
       <c r="D10" t="n">
-        <v>31.1599</v>
+        <v>30.9798</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9201</v>
+        <v>15.8612</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5583</v>
+        <v>27.4462</v>
       </c>
       <c r="D11" t="n">
-        <v>30.8122</v>
+        <v>31.0039</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5685</v>
+        <v>16.4454</v>
       </c>
       <c r="C12" t="n">
-        <v>26.4255</v>
+        <v>29.2702</v>
       </c>
       <c r="D12" t="n">
-        <v>31.6624</v>
+        <v>32.4269</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.4174</v>
+        <v>17.1483</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9218</v>
+        <v>29.1192</v>
       </c>
       <c r="D13" t="n">
-        <v>33.442</v>
+        <v>32.7003</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0304</v>
+        <v>16.7731</v>
       </c>
       <c r="C14" t="n">
-        <v>26.2319</v>
+        <v>27.8766</v>
       </c>
       <c r="D14" t="n">
-        <v>30.8067</v>
+        <v>31.1501</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0877</v>
+        <v>16.7915</v>
       </c>
       <c r="C15" t="n">
-        <v>25.8067</v>
+        <v>27.9189</v>
       </c>
       <c r="D15" t="n">
-        <v>30.2489</v>
+        <v>31.6312</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6637</v>
+        <v>17.1003</v>
       </c>
       <c r="C16" t="n">
-        <v>26.663</v>
+        <v>29.0226</v>
       </c>
       <c r="D16" t="n">
-        <v>29.2247</v>
+        <v>31.3918</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8458</v>
+        <v>17.8233</v>
       </c>
       <c r="C17" t="n">
-        <v>26.0591</v>
+        <v>28.9731</v>
       </c>
       <c r="D17" t="n">
-        <v>29.5042</v>
+        <v>31.2873</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.00111</v>
+        <v>2.95978</v>
       </c>
       <c r="C2" t="n">
-        <v>4.96593</v>
+        <v>5.33142</v>
       </c>
       <c r="D2" t="n">
-        <v>6.12053</v>
+        <v>5.02479</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.11473</v>
+        <v>4.85376</v>
       </c>
       <c r="C3" t="n">
-        <v>8.260009999999999</v>
+        <v>8.700620000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1204</v>
+        <v>8.67482</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.22</v>
+        <v>6.55222</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4666</v>
+        <v>12.0534</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2538</v>
+        <v>12.3018</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.36059</v>
+        <v>8.112970000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>14.6187</v>
+        <v>15.2584</v>
       </c>
       <c r="D5" t="n">
-        <v>18.273</v>
+        <v>15.7188</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5886</v>
+        <v>9.684990000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7356</v>
+        <v>18.2927</v>
       </c>
       <c r="D6" t="n">
-        <v>22.2915</v>
+        <v>19.2457</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6301</v>
+        <v>11.1485</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7367</v>
+        <v>21.3551</v>
       </c>
       <c r="D7" t="n">
-        <v>26.1591</v>
+        <v>22.6627</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.8012</v>
+        <v>12.6771</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6708</v>
+        <v>24.4059</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9527</v>
+        <v>25.8895</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.3432</v>
+        <v>14.8388</v>
       </c>
       <c r="C9" t="n">
-        <v>27.9425</v>
+        <v>28.9324</v>
       </c>
       <c r="D9" t="n">
-        <v>34.5702</v>
+        <v>29.6422</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1154</v>
+        <v>14.1622</v>
       </c>
       <c r="C10" t="n">
-        <v>25.8613</v>
+        <v>26.6775</v>
       </c>
       <c r="D10" t="n">
-        <v>31.7687</v>
+        <v>27.3913</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.216</v>
+        <v>14.0402</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5736</v>
+        <v>25.8109</v>
       </c>
       <c r="D11" t="n">
-        <v>31.6856</v>
+        <v>27.3243</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3843</v>
+        <v>14.1366</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0657</v>
+        <v>26.923</v>
       </c>
       <c r="D12" t="n">
-        <v>31.5892</v>
+        <v>27.8484</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7742</v>
+        <v>14.4431</v>
       </c>
       <c r="C13" t="n">
-        <v>26.467</v>
+        <v>27.1201</v>
       </c>
       <c r="D13" t="n">
-        <v>32.0746</v>
+        <v>28.3572</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.092</v>
+        <v>13.9185</v>
       </c>
       <c r="C14" t="n">
-        <v>25.2648</v>
+        <v>25.8566</v>
       </c>
       <c r="D14" t="n">
-        <v>31.084</v>
+        <v>26.9882</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9809</v>
+        <v>14.5074</v>
       </c>
       <c r="C15" t="n">
-        <v>25.7751</v>
+        <v>26.2561</v>
       </c>
       <c r="D15" t="n">
-        <v>31.6931</v>
+        <v>27.6694</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8987</v>
+        <v>14.4308</v>
       </c>
       <c r="C16" t="n">
-        <v>25.6491</v>
+        <v>26.1599</v>
       </c>
       <c r="D16" t="n">
-        <v>31.1756</v>
+        <v>27.648</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4907</v>
+        <v>14.5327</v>
       </c>
       <c r="C17" t="n">
-        <v>25.7041</v>
+        <v>26.1587</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5027</v>
+        <v>27.6166</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92827</v>
+        <v>3.96315</v>
       </c>
       <c r="C2" t="n">
-        <v>8.77497</v>
+        <v>8.74891</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4557</v>
+        <v>9.799250000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.28436</v>
+        <v>6.1174</v>
       </c>
       <c r="C3" t="n">
-        <v>12.63</v>
+        <v>12.7207</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1382</v>
+        <v>15.0571</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.844469999999999</v>
+        <v>8.102449999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>17.0155</v>
+        <v>16.9523</v>
       </c>
       <c r="D4" t="n">
-        <v>20.7869</v>
+        <v>20.6012</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1599</v>
+        <v>10.0646</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0598</v>
+        <v>21.0079</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0323</v>
+        <v>25.8398</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8273</v>
+        <v>11.9931</v>
       </c>
       <c r="C6" t="n">
-        <v>24.9397</v>
+        <v>25.0662</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3555</v>
+        <v>31.2106</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2971</v>
+        <v>13.8097</v>
       </c>
       <c r="C7" t="n">
-        <v>28.8127</v>
+        <v>29.1162</v>
       </c>
       <c r="D7" t="n">
-        <v>36.4672</v>
+        <v>36.5539</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0494</v>
+        <v>15.5705</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0384</v>
+        <v>33.0571</v>
       </c>
       <c r="D8" t="n">
-        <v>41.8262</v>
+        <v>41.6582</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.9834</v>
+        <v>18.1454</v>
       </c>
       <c r="C9" t="n">
-        <v>39.5353</v>
+        <v>39.331</v>
       </c>
       <c r="D9" t="n">
-        <v>48.131</v>
+        <v>47.9805</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5443</v>
+        <v>17.1171</v>
       </c>
       <c r="C10" t="n">
-        <v>36.1108</v>
+        <v>35.9144</v>
       </c>
       <c r="D10" t="n">
-        <v>43.7616</v>
+        <v>44.0612</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3032</v>
+        <v>16.9468</v>
       </c>
       <c r="C11" t="n">
-        <v>35.412</v>
+        <v>36.0645</v>
       </c>
       <c r="D11" t="n">
-        <v>43.22</v>
+        <v>43.687</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6729</v>
+        <v>17.3234</v>
       </c>
       <c r="C12" t="n">
-        <v>36.0268</v>
+        <v>36.6684</v>
       </c>
       <c r="D12" t="n">
-        <v>42.4633</v>
+        <v>43.3704</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.1592</v>
+        <v>17.6251</v>
       </c>
       <c r="C13" t="n">
-        <v>36.3032</v>
+        <v>36.4926</v>
       </c>
       <c r="D13" t="n">
-        <v>42.8982</v>
+        <v>43.4105</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6887</v>
+        <v>16.9482</v>
       </c>
       <c r="C14" t="n">
-        <v>35.4207</v>
+        <v>34.716</v>
       </c>
       <c r="D14" t="n">
-        <v>41.4825</v>
+        <v>41.5634</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4294</v>
+        <v>17.5587</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2245</v>
+        <v>35.3349</v>
       </c>
       <c r="D15" t="n">
-        <v>41.9728</v>
+        <v>41.994</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3415</v>
+        <v>17.578</v>
       </c>
       <c r="C16" t="n">
-        <v>34.9717</v>
+        <v>34.8629</v>
       </c>
       <c r="D16" t="n">
-        <v>40.4772</v>
+        <v>41.8279</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2396</v>
+        <v>17.7734</v>
       </c>
       <c r="C17" t="n">
-        <v>34.8237</v>
+        <v>34.7184</v>
       </c>
       <c r="D17" t="n">
-        <v>41.4838</v>
+        <v>40.9122</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.23923</v>
+        <v>5.26786</v>
       </c>
       <c r="C2" t="n">
-        <v>5.70621</v>
+        <v>6.66927</v>
       </c>
       <c r="D2" t="n">
-        <v>7.4972</v>
+        <v>7.06069</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.90518</v>
+        <v>6.71244</v>
       </c>
       <c r="C3" t="n">
-        <v>9.031499999999999</v>
+        <v>9.86443</v>
       </c>
       <c r="D3" t="n">
-        <v>11.2494</v>
+        <v>11.0089</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.05705</v>
+        <v>8.65455</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2627</v>
+        <v>13.6523</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6639</v>
+        <v>15.5641</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2333</v>
+        <v>10.5182</v>
       </c>
       <c r="C5" t="n">
-        <v>15.627</v>
+        <v>17.3365</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0353</v>
+        <v>20.0907</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4167</v>
+        <v>12.4024</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3899</v>
+        <v>21.0881</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4396</v>
+        <v>24.537</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6541</v>
+        <v>14.2285</v>
       </c>
       <c r="C7" t="n">
-        <v>22.781</v>
+        <v>24.7403</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7171</v>
+        <v>29.0046</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.1096</v>
+        <v>16.1261</v>
       </c>
       <c r="C8" t="n">
-        <v>26.7264</v>
+        <v>28.6131</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0942</v>
+        <v>33.5156</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3613</v>
+        <v>18.6193</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3518</v>
+        <v>33.3197</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3438</v>
+        <v>38.6466</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.2619</v>
+        <v>17.8086</v>
       </c>
       <c r="C10" t="n">
-        <v>28.6398</v>
+        <v>31.0896</v>
       </c>
       <c r="D10" t="n">
-        <v>34.6604</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.7265</v>
+        <v>17.5426</v>
       </c>
       <c r="C11" t="n">
-        <v>28.9542</v>
+        <v>30.7714</v>
       </c>
       <c r="D11" t="n">
-        <v>34.9836</v>
+        <v>35.2707</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3364</v>
+        <v>17.8485</v>
       </c>
       <c r="C12" t="n">
-        <v>28.3699</v>
+        <v>30.8852</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0718</v>
+        <v>35.4797</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3998</v>
+        <v>18.0607</v>
       </c>
       <c r="C13" t="n">
-        <v>29.2666</v>
+        <v>31.3161</v>
       </c>
       <c r="D13" t="n">
-        <v>35.7828</v>
+        <v>35.89</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6529</v>
+        <v>17.4533</v>
       </c>
       <c r="C14" t="n">
-        <v>27.9856</v>
+        <v>30.2369</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2206</v>
+        <v>34.7401</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.4868</v>
+        <v>18.1462</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6518</v>
+        <v>31.1451</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2874</v>
+        <v>35.3001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5036</v>
+        <v>18.0928</v>
       </c>
       <c r="C16" t="n">
-        <v>28.6881</v>
+        <v>30.8276</v>
       </c>
       <c r="D16" t="n">
-        <v>35.1784</v>
+        <v>35.3299</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2612</v>
+        <v>17.8504</v>
       </c>
       <c r="C17" t="n">
-        <v>28.7079</v>
+        <v>31.3363</v>
       </c>
       <c r="D17" t="n">
-        <v>34.6146</v>
+        <v>35.6587</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04498</v>
+        <v>5.04836</v>
       </c>
       <c r="C2" t="n">
-        <v>6.20437</v>
+        <v>5.40573</v>
       </c>
       <c r="D2" t="n">
-        <v>5.43406</v>
+        <v>6.89417</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24438</v>
+        <v>6.12587</v>
       </c>
       <c r="C3" t="n">
-        <v>9.16323</v>
+        <v>8.19698</v>
       </c>
       <c r="D3" t="n">
-        <v>8.546390000000001</v>
+        <v>10.5514</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.71564</v>
+        <v>7.72543</v>
       </c>
       <c r="C4" t="n">
-        <v>12.3944</v>
+        <v>11.3517</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2909</v>
+        <v>14.9008</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.23109</v>
+        <v>9.197929999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5269</v>
+        <v>14.2805</v>
       </c>
       <c r="D5" t="n">
-        <v>15.4991</v>
+        <v>19.0379</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8324</v>
+        <v>10.9085</v>
       </c>
       <c r="C6" t="n">
-        <v>18.5502</v>
+        <v>17.1589</v>
       </c>
       <c r="D6" t="n">
-        <v>18.5728</v>
+        <v>23.1061</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5434</v>
+        <v>12.5933</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7162</v>
+        <v>20.1421</v>
       </c>
       <c r="D7" t="n">
-        <v>22.2122</v>
+        <v>26.9317</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9044</v>
+        <v>13.9683</v>
       </c>
       <c r="C8" t="n">
-        <v>24.5685</v>
+        <v>22.7607</v>
       </c>
       <c r="D8" t="n">
-        <v>25.9409</v>
+        <v>30.8977</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3914</v>
+        <v>16.4065</v>
       </c>
       <c r="C9" t="n">
-        <v>28.6089</v>
+        <v>26.4421</v>
       </c>
       <c r="D9" t="n">
-        <v>28.8445</v>
+        <v>35.3298</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7968</v>
+        <v>13.9121</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2515</v>
+        <v>21.6021</v>
       </c>
       <c r="D10" t="n">
-        <v>23.082</v>
+        <v>28.3557</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0589</v>
+        <v>14.0473</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1321</v>
+        <v>22.0827</v>
       </c>
       <c r="D11" t="n">
-        <v>23.908</v>
+        <v>28.0173</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5047</v>
+        <v>14.6182</v>
       </c>
       <c r="C12" t="n">
-        <v>25.085</v>
+        <v>22.9196</v>
       </c>
       <c r="D12" t="n">
-        <v>25.3347</v>
+        <v>29.5446</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0777</v>
+        <v>15.1532</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5458</v>
+        <v>23.9715</v>
       </c>
       <c r="D13" t="n">
-        <v>26.8149</v>
+        <v>30.2672</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7895</v>
+        <v>14.9706</v>
       </c>
       <c r="C14" t="n">
-        <v>25.1097</v>
+        <v>23.1882</v>
       </c>
       <c r="D14" t="n">
-        <v>25.951</v>
+        <v>28.4345</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0368</v>
+        <v>15.1506</v>
       </c>
       <c r="C15" t="n">
-        <v>24.7851</v>
+        <v>23.1186</v>
       </c>
       <c r="D15" t="n">
-        <v>25.5902</v>
+        <v>29.927</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3934</v>
+        <v>15.3532</v>
       </c>
       <c r="C16" t="n">
-        <v>24.919</v>
+        <v>23.653</v>
       </c>
       <c r="D16" t="n">
-        <v>25.8987</v>
+        <v>30.1008</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5282</v>
+        <v>15.5057</v>
       </c>
       <c r="C17" t="n">
-        <v>25.0343</v>
+        <v>24.1963</v>
       </c>
       <c r="D17" t="n">
-        <v>25.4191</v>
+        <v>29.2357</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.59958</v>
+        <v>8.632910000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2213</v>
+        <v>11.2906</v>
       </c>
       <c r="D2" t="n">
-        <v>11.6669</v>
+        <v>12.7176</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.613580000000001</v>
+        <v>8.41296</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6176</v>
+        <v>13.4721</v>
       </c>
       <c r="D3" t="n">
-        <v>15.4245</v>
+        <v>16.1507</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2305</v>
+        <v>10.1696</v>
       </c>
       <c r="C4" t="n">
-        <v>17.714</v>
+        <v>17.7232</v>
       </c>
       <c r="D4" t="n">
-        <v>20.8862</v>
+        <v>22.012</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0154</v>
+        <v>12.0409</v>
       </c>
       <c r="C5" t="n">
-        <v>21.7086</v>
+        <v>21.7382</v>
       </c>
       <c r="D5" t="n">
-        <v>26.2799</v>
+        <v>27.4538</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.962</v>
+        <v>14.06</v>
       </c>
       <c r="C6" t="n">
-        <v>25.358</v>
+        <v>25.6935</v>
       </c>
       <c r="D6" t="n">
-        <v>31.1912</v>
+        <v>33.1284</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0858</v>
+        <v>16.0454</v>
       </c>
       <c r="C7" t="n">
-        <v>30.078</v>
+        <v>30.0254</v>
       </c>
       <c r="D7" t="n">
-        <v>36.5623</v>
+        <v>38.4784</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8171</v>
+        <v>17.741</v>
       </c>
       <c r="C8" t="n">
-        <v>33.1832</v>
+        <v>33.0387</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1664</v>
+        <v>43.229</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9142</v>
+        <v>20.9705</v>
       </c>
       <c r="C9" t="n">
-        <v>37.9733</v>
+        <v>38.4155</v>
       </c>
       <c r="D9" t="n">
-        <v>46.1144</v>
+        <v>48.8274</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7854</v>
+        <v>18.1328</v>
       </c>
       <c r="C10" t="n">
-        <v>33.4258</v>
+        <v>33.5108</v>
       </c>
       <c r="D10" t="n">
-        <v>38.5247</v>
+        <v>40.77</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9898</v>
+        <v>18.0108</v>
       </c>
       <c r="C11" t="n">
-        <v>32.2715</v>
+        <v>32.683</v>
       </c>
       <c r="D11" t="n">
-        <v>38.4101</v>
+        <v>40.3021</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.7274</v>
+        <v>18.5384</v>
       </c>
       <c r="C12" t="n">
-        <v>34.1018</v>
+        <v>33.4285</v>
       </c>
       <c r="D12" t="n">
-        <v>39.8557</v>
+        <v>41.1975</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0585</v>
+        <v>19.1087</v>
       </c>
       <c r="C13" t="n">
-        <v>34.1471</v>
+        <v>35.5997</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3789</v>
+        <v>42.8995</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1277</v>
+        <v>18.8636</v>
       </c>
       <c r="C14" t="n">
-        <v>33.2623</v>
+        <v>33.2099</v>
       </c>
       <c r="D14" t="n">
-        <v>39.2539</v>
+        <v>41.8287</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19</v>
+        <v>19.1591</v>
       </c>
       <c r="C15" t="n">
-        <v>32.4824</v>
+        <v>33.5205</v>
       </c>
       <c r="D15" t="n">
-        <v>39.0693</v>
+        <v>41.0461</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.8652</v>
+        <v>19.3664</v>
       </c>
       <c r="C16" t="n">
-        <v>33.7268</v>
+        <v>33.1834</v>
       </c>
       <c r="D16" t="n">
-        <v>38.9515</v>
+        <v>41.003</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.5664</v>
+        <v>19.3476</v>
       </c>
       <c r="C17" t="n">
-        <v>33.7509</v>
+        <v>33.9176</v>
       </c>
       <c r="D17" t="n">
-        <v>39.5009</v>
+        <v>39.8055</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42405</v>
+        <v>6.42119</v>
       </c>
       <c r="C2" t="n">
-        <v>6.99152</v>
+        <v>7.07869</v>
       </c>
       <c r="D2" t="n">
-        <v>7.27625</v>
+        <v>7.7762</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.17319</v>
+        <v>7.07323</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0596</v>
+        <v>9.998469999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0566</v>
+        <v>11.5744</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.8424</v>
+        <v>8.84648</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7012</v>
+        <v>13.803</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5617</v>
+        <v>16.3866</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6411</v>
+        <v>10.559</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6329</v>
+        <v>17.5411</v>
       </c>
       <c r="D5" t="n">
-        <v>20.1524</v>
+        <v>21.0168</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4961</v>
+        <v>12.5098</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3174</v>
+        <v>21.2879</v>
       </c>
       <c r="D6" t="n">
-        <v>24.5444</v>
+        <v>25.7848</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3328</v>
+        <v>14.3548</v>
       </c>
       <c r="C7" t="n">
-        <v>25.1916</v>
+        <v>25.0893</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7844</v>
+        <v>30.1615</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0513</v>
+        <v>16.0241</v>
       </c>
       <c r="C8" t="n">
-        <v>28.5956</v>
+        <v>28.4104</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0504</v>
+        <v>34.551</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2342</v>
+        <v>18.2593</v>
       </c>
       <c r="C9" t="n">
-        <v>32.6287</v>
+        <v>32.5666</v>
       </c>
       <c r="D9" t="n">
-        <v>37.7108</v>
+        <v>39.0197</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.4031</v>
+        <v>16.2166</v>
       </c>
       <c r="C10" t="n">
-        <v>27.181</v>
+        <v>27.1414</v>
       </c>
       <c r="D10" t="n">
-        <v>30.9798</v>
+        <v>32.0157</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8612</v>
+        <v>15.9359</v>
       </c>
       <c r="C11" t="n">
-        <v>27.4462</v>
+        <v>27.8523</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0039</v>
+        <v>33.3451</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4454</v>
+        <v>16.4569</v>
       </c>
       <c r="C12" t="n">
-        <v>29.2702</v>
+        <v>28.7263</v>
       </c>
       <c r="D12" t="n">
-        <v>32.4269</v>
+        <v>32.7471</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1483</v>
+        <v>17.1631</v>
       </c>
       <c r="C13" t="n">
-        <v>29.1192</v>
+        <v>29.8966</v>
       </c>
       <c r="D13" t="n">
-        <v>32.7003</v>
+        <v>34.0759</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7731</v>
+        <v>16.7752</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8766</v>
+        <v>28.2506</v>
       </c>
       <c r="D14" t="n">
-        <v>31.1501</v>
+        <v>32.4063</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.7915</v>
+        <v>16.9895</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9189</v>
+        <v>28.6619</v>
       </c>
       <c r="D15" t="n">
-        <v>31.6312</v>
+        <v>31.6254</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.1003</v>
+        <v>17.1254</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0226</v>
+        <v>28.3076</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3918</v>
+        <v>32.436</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8233</v>
+        <v>17.4134</v>
       </c>
       <c r="C17" t="n">
-        <v>28.9731</v>
+        <v>29.2769</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2873</v>
+        <v>33.2816</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.95978</v>
+        <v>2.99675</v>
       </c>
       <c r="C2" t="n">
-        <v>5.33142</v>
+        <v>4.75597</v>
       </c>
       <c r="D2" t="n">
-        <v>5.02479</v>
+        <v>6.15375</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.85376</v>
+        <v>4.79929</v>
       </c>
       <c r="C3" t="n">
-        <v>8.700620000000001</v>
+        <v>7.87307</v>
       </c>
       <c r="D3" t="n">
-        <v>8.67482</v>
+        <v>10.3735</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.55222</v>
+        <v>6.53728</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0534</v>
+        <v>11.046</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3018</v>
+        <v>14.7532</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.112970000000001</v>
+        <v>8.07962</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2584</v>
+        <v>14.0136</v>
       </c>
       <c r="D5" t="n">
-        <v>15.7188</v>
+        <v>18.863</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.684990000000001</v>
+        <v>9.74324</v>
       </c>
       <c r="C6" t="n">
-        <v>18.2927</v>
+        <v>16.9055</v>
       </c>
       <c r="D6" t="n">
-        <v>19.2457</v>
+        <v>23.0374</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1485</v>
+        <v>11.1763</v>
       </c>
       <c r="C7" t="n">
-        <v>21.3551</v>
+        <v>19.7853</v>
       </c>
       <c r="D7" t="n">
-        <v>22.6627</v>
+        <v>27.0951</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6771</v>
+        <v>12.6577</v>
       </c>
       <c r="C8" t="n">
-        <v>24.4059</v>
+        <v>22.7216</v>
       </c>
       <c r="D8" t="n">
-        <v>25.8895</v>
+        <v>31.1132</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8388</v>
+        <v>14.7906</v>
       </c>
       <c r="C9" t="n">
-        <v>28.9324</v>
+        <v>26.7393</v>
       </c>
       <c r="D9" t="n">
-        <v>29.6422</v>
+        <v>35.6258</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1622</v>
+        <v>14.0178</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6775</v>
+        <v>24.8874</v>
       </c>
       <c r="D10" t="n">
-        <v>27.3913</v>
+        <v>32.6889</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0402</v>
+        <v>14.1317</v>
       </c>
       <c r="C11" t="n">
-        <v>25.8109</v>
+        <v>24.4095</v>
       </c>
       <c r="D11" t="n">
-        <v>27.3243</v>
+        <v>32.9059</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1366</v>
+        <v>14.1927</v>
       </c>
       <c r="C12" t="n">
-        <v>26.923</v>
+        <v>24.9135</v>
       </c>
       <c r="D12" t="n">
-        <v>27.8484</v>
+        <v>32.9307</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4431</v>
+        <v>14.4574</v>
       </c>
       <c r="C13" t="n">
-        <v>27.1201</v>
+        <v>25.0837</v>
       </c>
       <c r="D13" t="n">
-        <v>28.3572</v>
+        <v>33.0154</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9185</v>
+        <v>13.8332</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8566</v>
+        <v>24.1463</v>
       </c>
       <c r="D14" t="n">
-        <v>26.9882</v>
+        <v>31.6185</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5074</v>
+        <v>14.384</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2561</v>
+        <v>24.5633</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6694</v>
+        <v>32.4173</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4308</v>
+        <v>14.3734</v>
       </c>
       <c r="C16" t="n">
-        <v>26.1599</v>
+        <v>24.7228</v>
       </c>
       <c r="D16" t="n">
-        <v>27.648</v>
+        <v>32.4145</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.5327</v>
+        <v>14.491</v>
       </c>
       <c r="C17" t="n">
-        <v>26.1587</v>
+        <v>25.0157</v>
       </c>
       <c r="D17" t="n">
-        <v>27.6166</v>
+        <v>32.445</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.96315</v>
+        <v>3.95248</v>
       </c>
       <c r="C2" t="n">
-        <v>8.74891</v>
+        <v>8.77469</v>
       </c>
       <c r="D2" t="n">
-        <v>9.799250000000001</v>
+        <v>10.5105</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1174</v>
+        <v>6.02476</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7207</v>
+        <v>12.6431</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0571</v>
+        <v>15.7779</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.102449999999999</v>
+        <v>8.21556</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9523</v>
+        <v>16.9997</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6012</v>
+        <v>21.6692</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0646</v>
+        <v>10.0868</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0079</v>
+        <v>21.0927</v>
       </c>
       <c r="D5" t="n">
-        <v>25.8398</v>
+        <v>27.2165</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9931</v>
+        <v>11.9673</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0662</v>
+        <v>25.0628</v>
       </c>
       <c r="D6" t="n">
-        <v>31.2106</v>
+        <v>32.9294</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8097</v>
+        <v>13.7753</v>
       </c>
       <c r="C7" t="n">
-        <v>29.1162</v>
+        <v>28.9609</v>
       </c>
       <c r="D7" t="n">
-        <v>36.5539</v>
+        <v>38.3579</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5705</v>
+        <v>15.5332</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0571</v>
+        <v>32.9597</v>
       </c>
       <c r="D8" t="n">
-        <v>41.6582</v>
+        <v>43.6113</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1454</v>
+        <v>18.116</v>
       </c>
       <c r="C9" t="n">
-        <v>39.331</v>
+        <v>39.3353</v>
       </c>
       <c r="D9" t="n">
-        <v>47.9805</v>
+        <v>50.211</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1171</v>
+        <v>17.2203</v>
       </c>
       <c r="C10" t="n">
-        <v>35.9144</v>
+        <v>35.7145</v>
       </c>
       <c r="D10" t="n">
-        <v>44.0612</v>
+        <v>45.5937</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9468</v>
+        <v>17.0234</v>
       </c>
       <c r="C11" t="n">
-        <v>36.0645</v>
+        <v>35.3398</v>
       </c>
       <c r="D11" t="n">
-        <v>43.687</v>
+        <v>44.7366</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3234</v>
+        <v>17.2998</v>
       </c>
       <c r="C12" t="n">
-        <v>36.6684</v>
+        <v>36.4629</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3704</v>
+        <v>44.2863</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6251</v>
+        <v>17.5827</v>
       </c>
       <c r="C13" t="n">
-        <v>36.4926</v>
+        <v>35.9928</v>
       </c>
       <c r="D13" t="n">
-        <v>43.4105</v>
+        <v>44.9042</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9482</v>
+        <v>16.9816</v>
       </c>
       <c r="C14" t="n">
-        <v>34.716</v>
+        <v>35.1577</v>
       </c>
       <c r="D14" t="n">
-        <v>41.5634</v>
+        <v>44.5007</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.5587</v>
+        <v>17.6806</v>
       </c>
       <c r="C15" t="n">
-        <v>35.3349</v>
+        <v>35.0746</v>
       </c>
       <c r="D15" t="n">
-        <v>41.994</v>
+        <v>44.3575</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.578</v>
+        <v>17.6065</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8629</v>
+        <v>34.6395</v>
       </c>
       <c r="D16" t="n">
-        <v>41.8279</v>
+        <v>43.7689</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7734</v>
+        <v>17.3926</v>
       </c>
       <c r="C17" t="n">
-        <v>34.7184</v>
+        <v>34.0625</v>
       </c>
       <c r="D17" t="n">
-        <v>40.9122</v>
+        <v>43.7133</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26786</v>
+        <v>5.24822</v>
       </c>
       <c r="C2" t="n">
-        <v>6.66927</v>
+        <v>6.69858</v>
       </c>
       <c r="D2" t="n">
-        <v>7.06069</v>
+        <v>7.55206</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.71244</v>
+        <v>6.69626</v>
       </c>
       <c r="C3" t="n">
-        <v>9.86443</v>
+        <v>9.84957</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0089</v>
+        <v>11.5872</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.65455</v>
+        <v>8.670019999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6523</v>
+        <v>13.6445</v>
       </c>
       <c r="D4" t="n">
-        <v>15.5641</v>
+        <v>16.4015</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5182</v>
+        <v>10.5421</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3365</v>
+        <v>17.3406</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0907</v>
+        <v>21.0795</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4024</v>
+        <v>12.377</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0881</v>
+        <v>21.0895</v>
       </c>
       <c r="D6" t="n">
-        <v>24.537</v>
+        <v>25.8479</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2285</v>
+        <v>14.2044</v>
       </c>
       <c r="C7" t="n">
-        <v>24.7403</v>
+        <v>24.7836</v>
       </c>
       <c r="D7" t="n">
-        <v>29.0046</v>
+        <v>30.4943</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1261</v>
+        <v>16.0904</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6131</v>
+        <v>28.6759</v>
       </c>
       <c r="D8" t="n">
-        <v>33.5156</v>
+        <v>35.1977</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6193</v>
+        <v>18.6189</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3197</v>
+        <v>33.2764</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6466</v>
+        <v>40.6363</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8086</v>
+        <v>17.8515</v>
       </c>
       <c r="C10" t="n">
-        <v>31.0896</v>
+        <v>30.7113</v>
       </c>
       <c r="D10" t="n">
-        <v>35.31</v>
+        <v>37.6734</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5426</v>
+        <v>17.8359</v>
       </c>
       <c r="C11" t="n">
-        <v>30.7714</v>
+        <v>30.2667</v>
       </c>
       <c r="D11" t="n">
-        <v>35.2707</v>
+        <v>36.4321</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8485</v>
+        <v>17.7946</v>
       </c>
       <c r="C12" t="n">
-        <v>30.8852</v>
+        <v>30.9447</v>
       </c>
       <c r="D12" t="n">
-        <v>35.4797</v>
+        <v>36.9519</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0607</v>
+        <v>18.0461</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3161</v>
+        <v>31.2249</v>
       </c>
       <c r="D13" t="n">
-        <v>35.89</v>
+        <v>37.7427</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4533</v>
+        <v>17.4515</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2369</v>
+        <v>30.3863</v>
       </c>
       <c r="D14" t="n">
-        <v>34.7401</v>
+        <v>36.2667</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1462</v>
+        <v>18.1132</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1451</v>
+        <v>31.1754</v>
       </c>
       <c r="D15" t="n">
-        <v>35.3001</v>
+        <v>37.3243</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0928</v>
+        <v>17.9726</v>
       </c>
       <c r="C16" t="n">
-        <v>30.8276</v>
+        <v>31.1797</v>
       </c>
       <c r="D16" t="n">
-        <v>35.3299</v>
+        <v>37.0408</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8504</v>
+        <v>17.9717</v>
       </c>
       <c r="C17" t="n">
-        <v>31.3363</v>
+        <v>30.4644</v>
       </c>
       <c r="D17" t="n">
-        <v>35.6587</v>
+        <v>36.7054</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04836</v>
+        <v>5.05534</v>
       </c>
       <c r="C2" t="n">
-        <v>5.40573</v>
+        <v>5.40421</v>
       </c>
       <c r="D2" t="n">
-        <v>6.89417</v>
+        <v>6.89439</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.12587</v>
+        <v>6.1279</v>
       </c>
       <c r="C3" t="n">
-        <v>8.19698</v>
+        <v>8.1974</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5514</v>
+        <v>10.5515</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.72543</v>
+        <v>7.75731</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3517</v>
+        <v>11.3466</v>
       </c>
       <c r="D4" t="n">
-        <v>14.9008</v>
+        <v>14.8954</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.197929999999999</v>
+        <v>9.21823</v>
       </c>
       <c r="C5" t="n">
-        <v>14.2805</v>
+        <v>14.2702</v>
       </c>
       <c r="D5" t="n">
-        <v>19.0379</v>
+        <v>18.9662</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9085</v>
+        <v>10.9432</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1589</v>
+        <v>17.2463</v>
       </c>
       <c r="D6" t="n">
-        <v>23.1061</v>
+        <v>23.1439</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5933</v>
+        <v>12.5812</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1421</v>
+        <v>20.1147</v>
       </c>
       <c r="D7" t="n">
-        <v>26.9317</v>
+        <v>26.9292</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9683</v>
+        <v>13.9104</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7607</v>
+        <v>22.7411</v>
       </c>
       <c r="D8" t="n">
-        <v>30.8977</v>
+        <v>30.9289</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4065</v>
+        <v>16.4168</v>
       </c>
       <c r="C9" t="n">
-        <v>26.4421</v>
+        <v>26.791</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3298</v>
+        <v>34.7748</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.9121</v>
+        <v>13.8385</v>
       </c>
       <c r="C10" t="n">
-        <v>21.6021</v>
+        <v>21.4718</v>
       </c>
       <c r="D10" t="n">
-        <v>28.3557</v>
+        <v>28.4262</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0473</v>
+        <v>14.0609</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0827</v>
+        <v>22.2046</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0173</v>
+        <v>28.0107</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6182</v>
+        <v>14.4391</v>
       </c>
       <c r="C12" t="n">
-        <v>22.9196</v>
+        <v>23.3707</v>
       </c>
       <c r="D12" t="n">
-        <v>29.5446</v>
+        <v>30.6243</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1532</v>
+        <v>14.9142</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9715</v>
+        <v>24.244</v>
       </c>
       <c r="D13" t="n">
-        <v>30.2672</v>
+        <v>30.2055</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9706</v>
+        <v>14.9135</v>
       </c>
       <c r="C14" t="n">
-        <v>23.1882</v>
+        <v>23.0036</v>
       </c>
       <c r="D14" t="n">
-        <v>28.4345</v>
+        <v>30.0356</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1506</v>
+        <v>15.0758</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1186</v>
+        <v>23.1511</v>
       </c>
       <c r="D15" t="n">
-        <v>29.927</v>
+        <v>29.9716</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3532</v>
+        <v>15.3985</v>
       </c>
       <c r="C16" t="n">
-        <v>23.653</v>
+        <v>23.3549</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1008</v>
+        <v>29.4198</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5057</v>
+        <v>14.9542</v>
       </c>
       <c r="C17" t="n">
-        <v>24.1963</v>
+        <v>23.8412</v>
       </c>
       <c r="D17" t="n">
-        <v>29.2357</v>
+        <v>28.1216</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.632910000000001</v>
+        <v>8.63531</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2906</v>
+        <v>11.2899</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7176</v>
+        <v>12.718</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.41296</v>
+        <v>8.586690000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4721</v>
+        <v>13.6586</v>
       </c>
       <c r="D3" t="n">
-        <v>16.1507</v>
+        <v>16.326</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1696</v>
+        <v>10.2297</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7232</v>
+        <v>17.7476</v>
       </c>
       <c r="D4" t="n">
-        <v>22.012</v>
+        <v>22.0206</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0409</v>
+        <v>12.0432</v>
       </c>
       <c r="C5" t="n">
-        <v>21.7382</v>
+        <v>21.5924</v>
       </c>
       <c r="D5" t="n">
-        <v>27.4538</v>
+        <v>27.4809</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.06</v>
+        <v>13.9654</v>
       </c>
       <c r="C6" t="n">
-        <v>25.6935</v>
+        <v>25.2833</v>
       </c>
       <c r="D6" t="n">
-        <v>33.1284</v>
+        <v>32.7549</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0454</v>
+        <v>16.0752</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0254</v>
+        <v>30.1286</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4784</v>
+        <v>38.5761</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.741</v>
+        <v>17.8156</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0387</v>
+        <v>33.0598</v>
       </c>
       <c r="D8" t="n">
-        <v>43.229</v>
+        <v>43.2227</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9705</v>
+        <v>20.9465</v>
       </c>
       <c r="C9" t="n">
-        <v>38.4155</v>
+        <v>38.5132</v>
       </c>
       <c r="D9" t="n">
-        <v>48.8274</v>
+        <v>49.0012</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1328</v>
+        <v>18.3607</v>
       </c>
       <c r="C10" t="n">
-        <v>33.5108</v>
+        <v>33.3328</v>
       </c>
       <c r="D10" t="n">
-        <v>40.77</v>
+        <v>40.7029</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0108</v>
+        <v>18.0438</v>
       </c>
       <c r="C11" t="n">
-        <v>32.683</v>
+        <v>33.6123</v>
       </c>
       <c r="D11" t="n">
-        <v>40.3021</v>
+        <v>39.5795</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5384</v>
+        <v>18.5542</v>
       </c>
       <c r="C12" t="n">
-        <v>33.4285</v>
+        <v>34.5209</v>
       </c>
       <c r="D12" t="n">
-        <v>41.1975</v>
+        <v>40.5279</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1087</v>
+        <v>19.481</v>
       </c>
       <c r="C13" t="n">
-        <v>35.5997</v>
+        <v>34.4124</v>
       </c>
       <c r="D13" t="n">
-        <v>42.8995</v>
+        <v>41.7249</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8636</v>
+        <v>18.8861</v>
       </c>
       <c r="C14" t="n">
-        <v>33.2099</v>
+        <v>33.8884</v>
       </c>
       <c r="D14" t="n">
-        <v>41.8287</v>
+        <v>40.5642</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1591</v>
+        <v>19.0306</v>
       </c>
       <c r="C15" t="n">
-        <v>33.5205</v>
+        <v>34.1225</v>
       </c>
       <c r="D15" t="n">
-        <v>41.0461</v>
+        <v>41.2421</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3664</v>
+        <v>19.1374</v>
       </c>
       <c r="C16" t="n">
-        <v>33.1834</v>
+        <v>32.9301</v>
       </c>
       <c r="D16" t="n">
-        <v>41.003</v>
+        <v>41.8558</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3476</v>
+        <v>19.3163</v>
       </c>
       <c r="C17" t="n">
-        <v>33.9176</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
-        <v>39.8055</v>
+        <v>39.4211</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42119</v>
+        <v>6.42521</v>
       </c>
       <c r="C2" t="n">
-        <v>7.07869</v>
+        <v>7.05225</v>
       </c>
       <c r="D2" t="n">
-        <v>7.7762</v>
+        <v>7.77555</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.07323</v>
+        <v>7.20969</v>
       </c>
       <c r="C3" t="n">
-        <v>9.998469999999999</v>
+        <v>10.0543</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5744</v>
+        <v>11.6623</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.84648</v>
+        <v>8.86355</v>
       </c>
       <c r="C4" t="n">
-        <v>13.803</v>
+        <v>13.7913</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3866</v>
+        <v>16.3882</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.559</v>
+        <v>10.6407</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5411</v>
+        <v>17.5857</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0168</v>
+        <v>21.1498</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5098</v>
+        <v>12.5073</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2879</v>
+        <v>21.2742</v>
       </c>
       <c r="D6" t="n">
-        <v>25.7848</v>
+        <v>25.7721</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3548</v>
+        <v>14.3509</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0893</v>
+        <v>25.0101</v>
       </c>
       <c r="D7" t="n">
-        <v>30.1615</v>
+        <v>30.1777</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0241</v>
+        <v>16.0171</v>
       </c>
       <c r="C8" t="n">
-        <v>28.4104</v>
+        <v>28.4329</v>
       </c>
       <c r="D8" t="n">
-        <v>34.551</v>
+        <v>34.5828</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2593</v>
+        <v>18.1982</v>
       </c>
       <c r="C9" t="n">
-        <v>32.5666</v>
+        <v>32.5412</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0197</v>
+        <v>39.5197</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.2166</v>
+        <v>16.2824</v>
       </c>
       <c r="C10" t="n">
-        <v>27.1414</v>
+        <v>27.5119</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0157</v>
+        <v>31.873</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9359</v>
+        <v>16.0125</v>
       </c>
       <c r="C11" t="n">
-        <v>27.8523</v>
+        <v>27.3364</v>
       </c>
       <c r="D11" t="n">
-        <v>33.3451</v>
+        <v>32.6547</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4569</v>
+        <v>16.5208</v>
       </c>
       <c r="C12" t="n">
-        <v>28.7263</v>
+        <v>29.5416</v>
       </c>
       <c r="D12" t="n">
-        <v>32.7471</v>
+        <v>33.5153</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1631</v>
+        <v>17.0617</v>
       </c>
       <c r="C13" t="n">
-        <v>29.8966</v>
+        <v>28.8398</v>
       </c>
       <c r="D13" t="n">
-        <v>34.0759</v>
+        <v>35.0339</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7752</v>
+        <v>16.5682</v>
       </c>
       <c r="C14" t="n">
-        <v>28.2506</v>
+        <v>29.0297</v>
       </c>
       <c r="D14" t="n">
-        <v>32.4063</v>
+        <v>33.0812</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.9895</v>
+        <v>17.1331</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6619</v>
+        <v>28.9072</v>
       </c>
       <c r="D15" t="n">
-        <v>31.6254</v>
+        <v>33.3871</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.1254</v>
+        <v>17.3158</v>
       </c>
       <c r="C16" t="n">
-        <v>28.3076</v>
+        <v>27.4822</v>
       </c>
       <c r="D16" t="n">
-        <v>32.436</v>
+        <v>32.655</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4134</v>
+        <v>17.8351</v>
       </c>
       <c r="C17" t="n">
-        <v>29.2769</v>
+        <v>29.6882</v>
       </c>
       <c r="D17" t="n">
-        <v>33.2816</v>
+        <v>33.2132</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.99675</v>
+        <v>2.97918</v>
       </c>
       <c r="C2" t="n">
-        <v>4.75597</v>
+        <v>4.7471</v>
       </c>
       <c r="D2" t="n">
-        <v>6.15375</v>
+        <v>6.14532</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.79929</v>
+        <v>4.86641</v>
       </c>
       <c r="C3" t="n">
-        <v>7.87307</v>
+        <v>7.90445</v>
       </c>
       <c r="D3" t="n">
-        <v>10.3735</v>
+        <v>10.4279</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.53728</v>
+        <v>6.5699</v>
       </c>
       <c r="C4" t="n">
-        <v>11.046</v>
+        <v>11.0234</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7532</v>
+        <v>14.7172</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.07962</v>
+        <v>8.085459999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0136</v>
+        <v>14.0244</v>
       </c>
       <c r="D5" t="n">
-        <v>18.863</v>
+        <v>18.8664</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.74324</v>
+        <v>9.65414</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9055</v>
+        <v>16.9401</v>
       </c>
       <c r="D6" t="n">
-        <v>23.0374</v>
+        <v>23.011</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1763</v>
+        <v>11.1854</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7853</v>
+        <v>19.7503</v>
       </c>
       <c r="D7" t="n">
-        <v>27.0951</v>
+        <v>27.0929</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6577</v>
+        <v>12.6061</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7216</v>
+        <v>22.5949</v>
       </c>
       <c r="D8" t="n">
-        <v>31.1132</v>
+        <v>31.055</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7906</v>
+        <v>14.7863</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7393</v>
+        <v>26.8288</v>
       </c>
       <c r="D9" t="n">
-        <v>35.6258</v>
+        <v>35.5962</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0178</v>
+        <v>14.268</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8874</v>
+        <v>24.9442</v>
       </c>
       <c r="D10" t="n">
-        <v>32.6889</v>
+        <v>32.7735</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1317</v>
+        <v>13.999</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4095</v>
+        <v>24.4021</v>
       </c>
       <c r="D11" t="n">
-        <v>32.9059</v>
+        <v>32.7414</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1927</v>
+        <v>14.2549</v>
       </c>
       <c r="C12" t="n">
-        <v>24.9135</v>
+        <v>24.7081</v>
       </c>
       <c r="D12" t="n">
-        <v>32.9307</v>
+        <v>32.2798</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4574</v>
+        <v>14.4253</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0837</v>
+        <v>25.179</v>
       </c>
       <c r="D13" t="n">
-        <v>33.0154</v>
+        <v>33.1563</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8332</v>
+        <v>13.9174</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1463</v>
+        <v>24.3907</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6185</v>
+        <v>31.7732</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.384</v>
+        <v>14.5126</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5633</v>
+        <v>25.0334</v>
       </c>
       <c r="D15" t="n">
-        <v>32.4173</v>
+        <v>32.3607</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3734</v>
+        <v>14.4277</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7228</v>
+        <v>24.5481</v>
       </c>
       <c r="D16" t="n">
-        <v>32.4145</v>
+        <v>31.8217</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.491</v>
+        <v>14.4337</v>
       </c>
       <c r="C17" t="n">
-        <v>25.0157</v>
+        <v>24.4045</v>
       </c>
       <c r="D17" t="n">
-        <v>32.445</v>
+        <v>32.0123</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95248</v>
+        <v>3.97245</v>
       </c>
       <c r="C2" t="n">
-        <v>8.77469</v>
+        <v>8.78388</v>
       </c>
       <c r="D2" t="n">
-        <v>10.5105</v>
+        <v>10.5224</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.02476</v>
+        <v>6.09187</v>
       </c>
       <c r="C3" t="n">
-        <v>12.6431</v>
+        <v>12.7228</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7779</v>
+        <v>15.8517</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.21556</v>
+        <v>8.128209999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9997</v>
+        <v>17.0718</v>
       </c>
       <c r="D4" t="n">
-        <v>21.6692</v>
+        <v>21.6905</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0868</v>
+        <v>10.0671</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0927</v>
+        <v>21.0413</v>
       </c>
       <c r="D5" t="n">
-        <v>27.2165</v>
+        <v>27.0309</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9673</v>
+        <v>11.9531</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0628</v>
+        <v>25.0896</v>
       </c>
       <c r="D6" t="n">
-        <v>32.9294</v>
+        <v>32.83</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7753</v>
+        <v>13.7849</v>
       </c>
       <c r="C7" t="n">
-        <v>28.9609</v>
+        <v>29.0241</v>
       </c>
       <c r="D7" t="n">
-        <v>38.3579</v>
+        <v>38.3495</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5332</v>
+        <v>15.6139</v>
       </c>
       <c r="C8" t="n">
-        <v>32.9597</v>
+        <v>33.1074</v>
       </c>
       <c r="D8" t="n">
-        <v>43.6113</v>
+        <v>43.7329</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.116</v>
+        <v>18.1555</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3353</v>
+        <v>39.3753</v>
       </c>
       <c r="D9" t="n">
-        <v>50.211</v>
+        <v>50.2175</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2203</v>
+        <v>17.2889</v>
       </c>
       <c r="C10" t="n">
-        <v>35.7145</v>
+        <v>36.3498</v>
       </c>
       <c r="D10" t="n">
-        <v>45.5937</v>
+        <v>45.1886</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0234</v>
+        <v>17.198</v>
       </c>
       <c r="C11" t="n">
-        <v>35.3398</v>
+        <v>35.3395</v>
       </c>
       <c r="D11" t="n">
-        <v>44.7366</v>
+        <v>44.2918</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2998</v>
+        <v>17.2892</v>
       </c>
       <c r="C12" t="n">
-        <v>36.4629</v>
+        <v>35.9151</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2863</v>
+        <v>45.3204</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5827</v>
+        <v>17.5368</v>
       </c>
       <c r="C13" t="n">
-        <v>35.9928</v>
+        <v>35.8544</v>
       </c>
       <c r="D13" t="n">
-        <v>44.9042</v>
+        <v>45.07</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9816</v>
+        <v>17.0388</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1577</v>
+        <v>34.5812</v>
       </c>
       <c r="D14" t="n">
-        <v>44.5007</v>
+        <v>43.1695</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6806</v>
+        <v>17.6826</v>
       </c>
       <c r="C15" t="n">
-        <v>35.0746</v>
+        <v>36.2237</v>
       </c>
       <c r="D15" t="n">
-        <v>44.3575</v>
+        <v>43.6323</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6065</v>
+        <v>17.5288</v>
       </c>
       <c r="C16" t="n">
-        <v>34.6395</v>
+        <v>34.4576</v>
       </c>
       <c r="D16" t="n">
-        <v>43.7689</v>
+        <v>43.1356</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.3926</v>
+        <v>17.6166</v>
       </c>
       <c r="C17" t="n">
-        <v>34.0625</v>
+        <v>34.1373</v>
       </c>
       <c r="D17" t="n">
-        <v>43.7133</v>
+        <v>43.9443</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.24822</v>
+        <v>5.27004</v>
       </c>
       <c r="C2" t="n">
-        <v>6.69858</v>
+        <v>6.69621</v>
       </c>
       <c r="D2" t="n">
-        <v>7.55206</v>
+        <v>7.5486</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.69626</v>
+        <v>6.70035</v>
       </c>
       <c r="C3" t="n">
-        <v>9.84957</v>
+        <v>9.89451</v>
       </c>
       <c r="D3" t="n">
-        <v>11.5872</v>
+        <v>11.6096</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.670019999999999</v>
+        <v>8.691459999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6445</v>
+        <v>13.6551</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4015</v>
+        <v>16.4423</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5421</v>
+        <v>10.5133</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3406</v>
+        <v>17.3456</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0795</v>
+        <v>21.0523</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.377</v>
+        <v>12.4005</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0895</v>
+        <v>21.0929</v>
       </c>
       <c r="D6" t="n">
-        <v>25.8479</v>
+        <v>25.8397</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2044</v>
+        <v>14.2133</v>
       </c>
       <c r="C7" t="n">
-        <v>24.7836</v>
+        <v>24.8421</v>
       </c>
       <c r="D7" t="n">
-        <v>30.4943</v>
+        <v>30.5026</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0904</v>
+        <v>16.1109</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6759</v>
+        <v>28.5932</v>
       </c>
       <c r="D8" t="n">
-        <v>35.1977</v>
+        <v>35.1973</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6189</v>
+        <v>18.6102</v>
       </c>
       <c r="C9" t="n">
-        <v>33.2764</v>
+        <v>33.4404</v>
       </c>
       <c r="D9" t="n">
-        <v>40.6363</v>
+        <v>40.6385</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8515</v>
+        <v>17.6841</v>
       </c>
       <c r="C10" t="n">
-        <v>30.7113</v>
+        <v>30.5995</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6734</v>
+        <v>37.171</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8359</v>
+        <v>17.6909</v>
       </c>
       <c r="C11" t="n">
-        <v>30.2667</v>
+        <v>30.1848</v>
       </c>
       <c r="D11" t="n">
-        <v>36.4321</v>
+        <v>36.9544</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7946</v>
+        <v>17.9403</v>
       </c>
       <c r="C12" t="n">
-        <v>30.9447</v>
+        <v>30.893</v>
       </c>
       <c r="D12" t="n">
-        <v>36.9519</v>
+        <v>36.8331</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0461</v>
+        <v>17.926</v>
       </c>
       <c r="C13" t="n">
-        <v>31.2249</v>
+        <v>31.3916</v>
       </c>
       <c r="D13" t="n">
-        <v>37.7427</v>
+        <v>37.7555</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4515</v>
+        <v>17.415</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3863</v>
+        <v>30.3254</v>
       </c>
       <c r="D14" t="n">
-        <v>36.2667</v>
+        <v>36.8533</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1132</v>
+        <v>18.1127</v>
       </c>
       <c r="C15" t="n">
-        <v>31.1754</v>
+        <v>31.3618</v>
       </c>
       <c r="D15" t="n">
-        <v>37.3243</v>
+        <v>37.3274</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9726</v>
+        <v>17.9634</v>
       </c>
       <c r="C16" t="n">
-        <v>31.1797</v>
+        <v>31.2141</v>
       </c>
       <c r="D16" t="n">
-        <v>37.0408</v>
+        <v>36.6729</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9717</v>
+        <v>17.6843</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4644</v>
+        <v>30.509</v>
       </c>
       <c r="D17" t="n">
-        <v>36.7054</v>
+        <v>37.1787</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.05534</v>
+        <v>5.0567</v>
       </c>
       <c r="C2" t="n">
-        <v>5.40421</v>
+        <v>5.40515</v>
       </c>
       <c r="D2" t="n">
-        <v>6.89439</v>
+        <v>6.86795</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.1279</v>
+        <v>6.22211</v>
       </c>
       <c r="C3" t="n">
-        <v>8.1974</v>
+        <v>8.285640000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5515</v>
+        <v>10.4577</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.75731</v>
+        <v>7.71104</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3466</v>
+        <v>11.3476</v>
       </c>
       <c r="D4" t="n">
-        <v>14.8954</v>
+        <v>14.5197</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.21823</v>
+        <v>9.244260000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>14.2702</v>
+        <v>14.3502</v>
       </c>
       <c r="D5" t="n">
-        <v>18.9662</v>
+        <v>18.5526</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9432</v>
+        <v>10.8957</v>
       </c>
       <c r="C6" t="n">
-        <v>17.2463</v>
+        <v>17.1795</v>
       </c>
       <c r="D6" t="n">
-        <v>23.1439</v>
+        <v>22.4988</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5812</v>
+        <v>12.5789</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1147</v>
+        <v>20.1178</v>
       </c>
       <c r="D7" t="n">
-        <v>26.9292</v>
+        <v>26.3291</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9104</v>
+        <v>13.9665</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7411</v>
+        <v>22.7418</v>
       </c>
       <c r="D8" t="n">
-        <v>30.9289</v>
+        <v>29.9433</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4168</v>
+        <v>16.4472</v>
       </c>
       <c r="C9" t="n">
-        <v>26.791</v>
+        <v>26.5453</v>
       </c>
       <c r="D9" t="n">
-        <v>34.7748</v>
+        <v>34.0511</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8385</v>
+        <v>14.0737</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4718</v>
+        <v>21.4427</v>
       </c>
       <c r="D10" t="n">
-        <v>28.4262</v>
+        <v>27.1837</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0609</v>
+        <v>14.0527</v>
       </c>
       <c r="C11" t="n">
-        <v>22.2046</v>
+        <v>21.7235</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0107</v>
+        <v>27.6582</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4391</v>
+        <v>14.6372</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3707</v>
+        <v>23.5891</v>
       </c>
       <c r="D12" t="n">
-        <v>30.6243</v>
+        <v>28.995</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9142</v>
+        <v>14.9062</v>
       </c>
       <c r="C13" t="n">
-        <v>24.244</v>
+        <v>24.0607</v>
       </c>
       <c r="D13" t="n">
-        <v>30.2055</v>
+        <v>29.445</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9135</v>
+        <v>15.0168</v>
       </c>
       <c r="C14" t="n">
-        <v>23.0036</v>
+        <v>23.602</v>
       </c>
       <c r="D14" t="n">
-        <v>30.0356</v>
+        <v>29.0474</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0758</v>
+        <v>14.9423</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1511</v>
+        <v>23.4872</v>
       </c>
       <c r="D15" t="n">
-        <v>29.9716</v>
+        <v>28.661</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3985</v>
+        <v>15.4053</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3549</v>
+        <v>23.7492</v>
       </c>
       <c r="D16" t="n">
-        <v>29.4198</v>
+        <v>28.6148</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.9542</v>
+        <v>15.2018</v>
       </c>
       <c r="C17" t="n">
-        <v>23.8412</v>
+        <v>23.4595</v>
       </c>
       <c r="D17" t="n">
-        <v>28.1216</v>
+        <v>29.3699</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.63531</v>
+        <v>8.62449</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2899</v>
+        <v>11.2928</v>
       </c>
       <c r="D2" t="n">
-        <v>12.718</v>
+        <v>12.6343</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.586690000000001</v>
+        <v>8.442159999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6586</v>
+        <v>13.4898</v>
       </c>
       <c r="D3" t="n">
-        <v>16.326</v>
+        <v>15.6319</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2297</v>
+        <v>10.2165</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7476</v>
+        <v>17.7529</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0206</v>
+        <v>21.1591</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0432</v>
+        <v>12.011</v>
       </c>
       <c r="C5" t="n">
-        <v>21.5924</v>
+        <v>21.6806</v>
       </c>
       <c r="D5" t="n">
-        <v>27.4809</v>
+        <v>26.3585</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9654</v>
+        <v>14.0601</v>
       </c>
       <c r="C6" t="n">
-        <v>25.2833</v>
+        <v>25.6411</v>
       </c>
       <c r="D6" t="n">
-        <v>32.7549</v>
+        <v>31.6967</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0752</v>
+        <v>16.1114</v>
       </c>
       <c r="C7" t="n">
-        <v>30.1286</v>
+        <v>30.0947</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5761</v>
+        <v>36.7627</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8156</v>
+        <v>17.794</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0598</v>
+        <v>33.2616</v>
       </c>
       <c r="D8" t="n">
-        <v>43.2227</v>
+        <v>41.3006</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9465</v>
+        <v>20.9555</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5132</v>
+        <v>38.5638</v>
       </c>
       <c r="D9" t="n">
-        <v>49.0012</v>
+        <v>46.386</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.3607</v>
+        <v>18.0512</v>
       </c>
       <c r="C10" t="n">
-        <v>33.3328</v>
+        <v>33.859</v>
       </c>
       <c r="D10" t="n">
-        <v>40.7029</v>
+        <v>39.8743</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0438</v>
+        <v>17.8512</v>
       </c>
       <c r="C11" t="n">
-        <v>33.6123</v>
+        <v>32.8694</v>
       </c>
       <c r="D11" t="n">
-        <v>39.5795</v>
+        <v>38.9144</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5542</v>
+        <v>18.5382</v>
       </c>
       <c r="C12" t="n">
-        <v>34.5209</v>
+        <v>33.6176</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5279</v>
+        <v>39.1881</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.481</v>
+        <v>19.2815</v>
       </c>
       <c r="C13" t="n">
-        <v>34.4124</v>
+        <v>34.5072</v>
       </c>
       <c r="D13" t="n">
-        <v>41.7249</v>
+        <v>41.7337</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8861</v>
+        <v>19.0583</v>
       </c>
       <c r="C14" t="n">
-        <v>33.8884</v>
+        <v>33.6054</v>
       </c>
       <c r="D14" t="n">
-        <v>40.5642</v>
+        <v>39.7718</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0306</v>
+        <v>19.1859</v>
       </c>
       <c r="C15" t="n">
-        <v>34.1225</v>
+        <v>33.5473</v>
       </c>
       <c r="D15" t="n">
-        <v>41.2421</v>
+        <v>37.9133</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.1374</v>
+        <v>19.3648</v>
       </c>
       <c r="C16" t="n">
-        <v>32.9301</v>
+        <v>33.3324</v>
       </c>
       <c r="D16" t="n">
-        <v>41.8558</v>
+        <v>38.2047</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3163</v>
+        <v>19.099</v>
       </c>
       <c r="C17" t="n">
-        <v>34</v>
+        <v>33.6613</v>
       </c>
       <c r="D17" t="n">
-        <v>39.4211</v>
+        <v>36.3217</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42521</v>
+        <v>6.42445</v>
       </c>
       <c r="C2" t="n">
-        <v>7.05225</v>
+        <v>7.07705</v>
       </c>
       <c r="D2" t="n">
-        <v>7.77555</v>
+        <v>7.76812</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.20969</v>
+        <v>7.04922</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0543</v>
+        <v>9.98359</v>
       </c>
       <c r="D3" t="n">
-        <v>11.6623</v>
+        <v>11.1412</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.86355</v>
+        <v>8.846590000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7913</v>
+        <v>13.7623</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3882</v>
+        <v>15.6107</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6407</v>
+        <v>10.6065</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5857</v>
+        <v>17.4889</v>
       </c>
       <c r="D5" t="n">
-        <v>21.1498</v>
+        <v>20.0028</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5073</v>
+        <v>12.4463</v>
       </c>
       <c r="C6" t="n">
-        <v>21.2742</v>
+        <v>21.1654</v>
       </c>
       <c r="D6" t="n">
-        <v>25.7721</v>
+        <v>24.3052</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3509</v>
+        <v>14.1594</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0101</v>
+        <v>24.8601</v>
       </c>
       <c r="D7" t="n">
-        <v>30.1777</v>
+        <v>28.2863</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0171</v>
+        <v>16.0077</v>
       </c>
       <c r="C8" t="n">
-        <v>28.4329</v>
+        <v>28.5497</v>
       </c>
       <c r="D8" t="n">
-        <v>34.5828</v>
+        <v>32.5956</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1982</v>
+        <v>18.2385</v>
       </c>
       <c r="C9" t="n">
-        <v>32.5412</v>
+        <v>32.7476</v>
       </c>
       <c r="D9" t="n">
-        <v>39.5197</v>
+        <v>37.3405</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.2824</v>
+        <v>16.1689</v>
       </c>
       <c r="C10" t="n">
-        <v>27.5119</v>
+        <v>27.7643</v>
       </c>
       <c r="D10" t="n">
-        <v>31.873</v>
+        <v>31.2048</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0125</v>
+        <v>15.9221</v>
       </c>
       <c r="C11" t="n">
-        <v>27.3364</v>
+        <v>27.3062</v>
       </c>
       <c r="D11" t="n">
-        <v>32.6547</v>
+        <v>31.3929</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5208</v>
+        <v>16.3678</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5416</v>
+        <v>28.954</v>
       </c>
       <c r="D12" t="n">
-        <v>33.5153</v>
+        <v>32.0383</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.0617</v>
+        <v>17.0972</v>
       </c>
       <c r="C13" t="n">
-        <v>28.8398</v>
+        <v>29.7826</v>
       </c>
       <c r="D13" t="n">
-        <v>35.0339</v>
+        <v>32.3856</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5682</v>
+        <v>16.934</v>
       </c>
       <c r="C14" t="n">
-        <v>29.0297</v>
+        <v>27.6111</v>
       </c>
       <c r="D14" t="n">
-        <v>33.0812</v>
+        <v>31.1424</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1331</v>
+        <v>17.1453</v>
       </c>
       <c r="C15" t="n">
-        <v>28.9072</v>
+        <v>28.4646</v>
       </c>
       <c r="D15" t="n">
-        <v>33.3871</v>
+        <v>30.3813</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3158</v>
+        <v>17.3288</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4822</v>
+        <v>29.0007</v>
       </c>
       <c r="D16" t="n">
-        <v>32.655</v>
+        <v>30.6919</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8351</v>
+        <v>17.1755</v>
       </c>
       <c r="C17" t="n">
-        <v>29.6882</v>
+        <v>28.1771</v>
       </c>
       <c r="D17" t="n">
-        <v>33.2132</v>
+        <v>29.7965</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.97918</v>
+        <v>2.97737</v>
       </c>
       <c r="C2" t="n">
-        <v>4.7471</v>
+        <v>4.74791</v>
       </c>
       <c r="D2" t="n">
-        <v>6.14532</v>
+        <v>6.09893</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.86641</v>
+        <v>4.78849</v>
       </c>
       <c r="C3" t="n">
-        <v>7.90445</v>
+        <v>7.86344</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4279</v>
+        <v>10.0792</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5699</v>
+        <v>6.52795</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0234</v>
+        <v>11.0178</v>
       </c>
       <c r="D4" t="n">
-        <v>14.7172</v>
+        <v>14.2749</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.085459999999999</v>
+        <v>8.10971</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0244</v>
+        <v>14.0086</v>
       </c>
       <c r="D5" t="n">
-        <v>18.8664</v>
+        <v>18.2999</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.65414</v>
+        <v>9.652430000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9401</v>
+        <v>16.9205</v>
       </c>
       <c r="D6" t="n">
-        <v>23.011</v>
+        <v>22.3127</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1854</v>
+        <v>11.1643</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7503</v>
+        <v>19.7334</v>
       </c>
       <c r="D7" t="n">
-        <v>27.0929</v>
+        <v>26.2064</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6061</v>
+        <v>12.6508</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5949</v>
+        <v>22.6835</v>
       </c>
       <c r="D8" t="n">
-        <v>31.055</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7863</v>
+        <v>14.7868</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8288</v>
+        <v>26.8565</v>
       </c>
       <c r="D9" t="n">
-        <v>35.5962</v>
+        <v>34.6268</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.268</v>
+        <v>14.1398</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9442</v>
+        <v>24.9537</v>
       </c>
       <c r="D10" t="n">
-        <v>32.7735</v>
+        <v>31.9129</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.999</v>
+        <v>14.0533</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4021</v>
+        <v>24.4573</v>
       </c>
       <c r="D11" t="n">
-        <v>32.7414</v>
+        <v>31.4407</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2549</v>
+        <v>14.1436</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7081</v>
+        <v>25.197</v>
       </c>
       <c r="D12" t="n">
-        <v>32.2798</v>
+        <v>31.853</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4253</v>
+        <v>14.4459</v>
       </c>
       <c r="C13" t="n">
-        <v>25.179</v>
+        <v>25.4665</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1563</v>
+        <v>31.9686</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9174</v>
+        <v>13.9154</v>
       </c>
       <c r="C14" t="n">
-        <v>24.3907</v>
+        <v>24.186</v>
       </c>
       <c r="D14" t="n">
-        <v>31.7732</v>
+        <v>30.9577</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5126</v>
+        <v>14.4758</v>
       </c>
       <c r="C15" t="n">
-        <v>25.0334</v>
+        <v>24.9051</v>
       </c>
       <c r="D15" t="n">
-        <v>32.3607</v>
+        <v>31.8652</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4277</v>
+        <v>14.4398</v>
       </c>
       <c r="C16" t="n">
-        <v>24.5481</v>
+        <v>24.6978</v>
       </c>
       <c r="D16" t="n">
-        <v>31.8217</v>
+        <v>30.8176</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4337</v>
+        <v>14.4044</v>
       </c>
       <c r="C17" t="n">
-        <v>24.4045</v>
+        <v>24.2329</v>
       </c>
       <c r="D17" t="n">
-        <v>32.0123</v>
+        <v>31.0659</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97245</v>
+        <v>3.95323</v>
       </c>
       <c r="C2" t="n">
-        <v>8.78388</v>
+        <v>8.777900000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.5224</v>
+        <v>10.3652</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.09187</v>
+        <v>6.12561</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7228</v>
+        <v>12.742</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8517</v>
+        <v>15.2675</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.128209999999999</v>
+        <v>8.164479999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>17.0718</v>
+        <v>17.0348</v>
       </c>
       <c r="D4" t="n">
-        <v>21.6905</v>
+        <v>20.7381</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0671</v>
+        <v>10.05</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0413</v>
+        <v>21.049</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0309</v>
+        <v>26.0333</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9531</v>
+        <v>11.9675</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0896</v>
+        <v>25.0386</v>
       </c>
       <c r="D6" t="n">
-        <v>32.83</v>
+        <v>31.3564</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7849</v>
+        <v>13.7794</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0241</v>
+        <v>29.0048</v>
       </c>
       <c r="D7" t="n">
-        <v>38.3495</v>
+        <v>36.5893</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6139</v>
+        <v>15.5586</v>
       </c>
       <c r="C8" t="n">
-        <v>33.1074</v>
+        <v>33.0293</v>
       </c>
       <c r="D8" t="n">
-        <v>43.7329</v>
+        <v>41.7661</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1555</v>
+        <v>18.1149</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3753</v>
+        <v>39.2218</v>
       </c>
       <c r="D9" t="n">
-        <v>50.2175</v>
+        <v>48.1648</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2889</v>
+        <v>17.2474</v>
       </c>
       <c r="C10" t="n">
-        <v>36.3498</v>
+        <v>35.8762</v>
       </c>
       <c r="D10" t="n">
-        <v>45.1886</v>
+        <v>43.8443</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.198</v>
+        <v>17.025</v>
       </c>
       <c r="C11" t="n">
-        <v>35.3395</v>
+        <v>35.8716</v>
       </c>
       <c r="D11" t="n">
-        <v>44.2918</v>
+        <v>42.875</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2892</v>
+        <v>17.3196</v>
       </c>
       <c r="C12" t="n">
-        <v>35.9151</v>
+        <v>36.429</v>
       </c>
       <c r="D12" t="n">
-        <v>45.3204</v>
+        <v>43.659</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5368</v>
+        <v>17.3682</v>
       </c>
       <c r="C13" t="n">
-        <v>35.8544</v>
+        <v>36.6393</v>
       </c>
       <c r="D13" t="n">
-        <v>45.07</v>
+        <v>43.0716</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0388</v>
+        <v>17.005</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5812</v>
+        <v>34.9653</v>
       </c>
       <c r="D14" t="n">
-        <v>43.1695</v>
+        <v>40.7816</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6826</v>
+        <v>17.5649</v>
       </c>
       <c r="C15" t="n">
-        <v>36.2237</v>
+        <v>34.5604</v>
       </c>
       <c r="D15" t="n">
-        <v>43.6323</v>
+        <v>41.9553</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5288</v>
+        <v>17.5756</v>
       </c>
       <c r="C16" t="n">
-        <v>34.4576</v>
+        <v>34.7108</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1356</v>
+        <v>41.7291</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6166</v>
+        <v>17.6936</v>
       </c>
       <c r="C17" t="n">
-        <v>34.1373</v>
+        <v>34.4398</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9443</v>
+        <v>41.0545</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.27004</v>
+        <v>5.25107</v>
       </c>
       <c r="C2" t="n">
-        <v>6.69621</v>
+        <v>6.69227</v>
       </c>
       <c r="D2" t="n">
-        <v>7.5486</v>
+        <v>7.50125</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.70035</v>
+        <v>6.81895</v>
       </c>
       <c r="C3" t="n">
-        <v>9.89451</v>
+        <v>9.877829999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>11.6096</v>
+        <v>11.1727</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.691459999999999</v>
+        <v>8.688409999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6551</v>
+        <v>13.6473</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4423</v>
+        <v>15.6466</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5133</v>
+        <v>10.5141</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3456</v>
+        <v>17.2974</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0523</v>
+        <v>20.0698</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4005</v>
+        <v>12.39</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0929</v>
+        <v>21.0332</v>
       </c>
       <c r="D6" t="n">
-        <v>25.8397</v>
+        <v>24.4296</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2133</v>
+        <v>14.2206</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8421</v>
+        <v>24.7705</v>
       </c>
       <c r="D7" t="n">
-        <v>30.5026</v>
+        <v>28.8282</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1109</v>
+        <v>16.1237</v>
       </c>
       <c r="C8" t="n">
-        <v>28.5932</v>
+        <v>28.5582</v>
       </c>
       <c r="D8" t="n">
-        <v>35.1973</v>
+        <v>33.1525</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6102</v>
+        <v>18.5685</v>
       </c>
       <c r="C9" t="n">
-        <v>33.4404</v>
+        <v>33.3351</v>
       </c>
       <c r="D9" t="n">
-        <v>40.6385</v>
+        <v>38.4596</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6841</v>
+        <v>17.807</v>
       </c>
       <c r="C10" t="n">
-        <v>30.5995</v>
+        <v>30.6604</v>
       </c>
       <c r="D10" t="n">
-        <v>37.171</v>
+        <v>34.8781</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6909</v>
+        <v>17.5687</v>
       </c>
       <c r="C11" t="n">
-        <v>30.1848</v>
+        <v>30.5171</v>
       </c>
       <c r="D11" t="n">
-        <v>36.9544</v>
+        <v>35.309</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9403</v>
+        <v>17.881</v>
       </c>
       <c r="C12" t="n">
-        <v>30.893</v>
+        <v>31.0807</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8331</v>
+        <v>34.9875</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.926</v>
+        <v>17.9976</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3916</v>
+        <v>31.5032</v>
       </c>
       <c r="D13" t="n">
-        <v>37.7555</v>
+        <v>35.1792</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.415</v>
+        <v>17.3729</v>
       </c>
       <c r="C14" t="n">
-        <v>30.3254</v>
+        <v>30.2471</v>
       </c>
       <c r="D14" t="n">
-        <v>36.8533</v>
+        <v>34.457</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1127</v>
+        <v>18.0907</v>
       </c>
       <c r="C15" t="n">
-        <v>31.3618</v>
+        <v>31.0305</v>
       </c>
       <c r="D15" t="n">
-        <v>37.3274</v>
+        <v>35.3067</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9634</v>
+        <v>18.0243</v>
       </c>
       <c r="C16" t="n">
-        <v>31.2141</v>
+        <v>30.9348</v>
       </c>
       <c r="D16" t="n">
-        <v>36.6729</v>
+        <v>35.1864</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6843</v>
+        <v>18.1188</v>
       </c>
       <c r="C17" t="n">
-        <v>30.509</v>
+        <v>31.0183</v>
       </c>
       <c r="D17" t="n">
-        <v>37.1787</v>
+        <v>34.9218</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.0567</v>
+        <v>5.04861</v>
       </c>
       <c r="C2" t="n">
-        <v>5.40515</v>
+        <v>5.40618</v>
       </c>
       <c r="D2" t="n">
-        <v>6.86795</v>
+        <v>6.88184</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.22211</v>
+        <v>6.23938</v>
       </c>
       <c r="C3" t="n">
-        <v>8.285640000000001</v>
+        <v>8.27441</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4577</v>
+        <v>10.4834</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.71104</v>
+        <v>7.75103</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3476</v>
+        <v>11.3779</v>
       </c>
       <c r="D4" t="n">
-        <v>14.5197</v>
+        <v>14.5945</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.244260000000001</v>
+        <v>9.23429</v>
       </c>
       <c r="C5" t="n">
-        <v>14.3502</v>
+        <v>14.2872</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5526</v>
+        <v>18.574</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8957</v>
+        <v>10.8306</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1795</v>
+        <v>17.0894</v>
       </c>
       <c r="D6" t="n">
-        <v>22.4988</v>
+        <v>22.5298</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5789</v>
+        <v>12.5299</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1178</v>
+        <v>20.1998</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3291</v>
+        <v>26.3486</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9665</v>
+        <v>13.9034</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7418</v>
+        <v>22.7309</v>
       </c>
       <c r="D8" t="n">
-        <v>29.9433</v>
+        <v>30.1578</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4472</v>
+        <v>16.4491</v>
       </c>
       <c r="C9" t="n">
-        <v>26.5453</v>
+        <v>26.2194</v>
       </c>
       <c r="D9" t="n">
-        <v>34.0511</v>
+        <v>34.1071</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0737</v>
+        <v>14.1108</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4427</v>
+        <v>21.2769</v>
       </c>
       <c r="D10" t="n">
-        <v>27.1837</v>
+        <v>27.5563</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0527</v>
+        <v>14.0575</v>
       </c>
       <c r="C11" t="n">
-        <v>21.7235</v>
+        <v>22.1003</v>
       </c>
       <c r="D11" t="n">
-        <v>27.6582</v>
+        <v>27.0723</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6372</v>
+        <v>14.5129</v>
       </c>
       <c r="C12" t="n">
-        <v>23.5891</v>
+        <v>23.1945</v>
       </c>
       <c r="D12" t="n">
-        <v>28.995</v>
+        <v>29.655</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9062</v>
+        <v>14.9916</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0607</v>
+        <v>24.448</v>
       </c>
       <c r="D13" t="n">
-        <v>29.445</v>
+        <v>28.3114</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0168</v>
+        <v>14.7992</v>
       </c>
       <c r="C14" t="n">
-        <v>23.602</v>
+        <v>23.4141</v>
       </c>
       <c r="D14" t="n">
-        <v>29.0474</v>
+        <v>29.3179</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9423</v>
+        <v>15.1105</v>
       </c>
       <c r="C15" t="n">
-        <v>23.4872</v>
+        <v>22.8134</v>
       </c>
       <c r="D15" t="n">
-        <v>28.661</v>
+        <v>28.3114</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4053</v>
+        <v>15.2493</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7492</v>
+        <v>23.3783</v>
       </c>
       <c r="D16" t="n">
-        <v>28.6148</v>
+        <v>29.4775</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2018</v>
+        <v>15.2753</v>
       </c>
       <c r="C17" t="n">
-        <v>23.4595</v>
+        <v>23.7503</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3699</v>
+        <v>28.3675</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.62449</v>
+        <v>8.6515</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2928</v>
+        <v>11.2931</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6343</v>
+        <v>12.6962</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.442159999999999</v>
+        <v>8.60313</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4898</v>
+        <v>13.6385</v>
       </c>
       <c r="D3" t="n">
-        <v>15.6319</v>
+        <v>15.9402</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2165</v>
+        <v>10.2342</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7529</v>
+        <v>17.7609</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1591</v>
+        <v>21.3365</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.011</v>
+        <v>12.0339</v>
       </c>
       <c r="C5" t="n">
-        <v>21.6806</v>
+        <v>21.6465</v>
       </c>
       <c r="D5" t="n">
-        <v>26.3585</v>
+        <v>26.4854</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.0601</v>
+        <v>13.975</v>
       </c>
       <c r="C6" t="n">
-        <v>25.6411</v>
+        <v>25.3716</v>
       </c>
       <c r="D6" t="n">
-        <v>31.6967</v>
+        <v>31.6347</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.1114</v>
+        <v>16.1116</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0947</v>
+        <v>30.1288</v>
       </c>
       <c r="D7" t="n">
-        <v>36.7627</v>
+        <v>37.2582</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.794</v>
+        <v>17.7932</v>
       </c>
       <c r="C8" t="n">
-        <v>33.2616</v>
+        <v>33.2651</v>
       </c>
       <c r="D8" t="n">
-        <v>41.3006</v>
+        <v>41.7149</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9555</v>
+        <v>20.9239</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5638</v>
+        <v>39.1232</v>
       </c>
       <c r="D9" t="n">
-        <v>46.386</v>
+        <v>46.2481</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0512</v>
+        <v>18.0603</v>
       </c>
       <c r="C10" t="n">
-        <v>33.859</v>
+        <v>33.2904</v>
       </c>
       <c r="D10" t="n">
-        <v>39.8743</v>
+        <v>40.1606</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8512</v>
+        <v>17.8888</v>
       </c>
       <c r="C11" t="n">
-        <v>32.8694</v>
+        <v>32.3451</v>
       </c>
       <c r="D11" t="n">
-        <v>38.9144</v>
+        <v>39.5286</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.5382</v>
+        <v>18.6465</v>
       </c>
       <c r="C12" t="n">
-        <v>33.6176</v>
+        <v>32.6399</v>
       </c>
       <c r="D12" t="n">
-        <v>39.1881</v>
+        <v>39.3809</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2815</v>
+        <v>19.0772</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5072</v>
+        <v>34.3204</v>
       </c>
       <c r="D13" t="n">
-        <v>41.7337</v>
+        <v>40.5705</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.0583</v>
+        <v>18.7128</v>
       </c>
       <c r="C14" t="n">
-        <v>33.6054</v>
+        <v>33.7589</v>
       </c>
       <c r="D14" t="n">
-        <v>39.7718</v>
+        <v>40.0164</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1859</v>
+        <v>18.8268</v>
       </c>
       <c r="C15" t="n">
-        <v>33.5473</v>
+        <v>32.389</v>
       </c>
       <c r="D15" t="n">
-        <v>37.9133</v>
+        <v>39.5514</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3648</v>
+        <v>19.2653</v>
       </c>
       <c r="C16" t="n">
-        <v>33.3324</v>
+        <v>33.6651</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2047</v>
+        <v>39.0868</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.099</v>
+        <v>19.6756</v>
       </c>
       <c r="C17" t="n">
-        <v>33.6613</v>
+        <v>33.3646</v>
       </c>
       <c r="D17" t="n">
-        <v>36.3217</v>
+        <v>38.8671</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42445</v>
+        <v>6.4248</v>
       </c>
       <c r="C2" t="n">
-        <v>7.07705</v>
+        <v>7.09276</v>
       </c>
       <c r="D2" t="n">
-        <v>7.76812</v>
+        <v>7.74707</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04922</v>
+        <v>7.06265</v>
       </c>
       <c r="C3" t="n">
-        <v>9.98359</v>
+        <v>9.990640000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>11.1412</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.846590000000001</v>
+        <v>8.87171</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7623</v>
+        <v>13.8008</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6107</v>
+        <v>15.6822</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.6065</v>
+        <v>10.5938</v>
       </c>
       <c r="C5" t="n">
-        <v>17.4889</v>
+        <v>17.5973</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0028</v>
+        <v>20.0119</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4463</v>
+        <v>12.526</v>
       </c>
       <c r="C6" t="n">
-        <v>21.1654</v>
+        <v>21.3458</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3052</v>
+        <v>24.4437</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1594</v>
+        <v>14.3447</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8601</v>
+        <v>25.0458</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2863</v>
+        <v>28.7339</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0077</v>
+        <v>16.0556</v>
       </c>
       <c r="C8" t="n">
-        <v>28.5497</v>
+        <v>28.4981</v>
       </c>
       <c r="D8" t="n">
-        <v>32.5956</v>
+        <v>32.6509</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2385</v>
+        <v>18.2587</v>
       </c>
       <c r="C9" t="n">
-        <v>32.7476</v>
+        <v>32.5873</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3405</v>
+        <v>36.8696</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1689</v>
+        <v>16.202</v>
       </c>
       <c r="C10" t="n">
-        <v>27.7643</v>
+        <v>27.9677</v>
       </c>
       <c r="D10" t="n">
-        <v>31.2048</v>
+        <v>31.087</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9221</v>
+        <v>16.0232</v>
       </c>
       <c r="C11" t="n">
-        <v>27.3062</v>
+        <v>27.6984</v>
       </c>
       <c r="D11" t="n">
-        <v>31.3929</v>
+        <v>31.0803</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3678</v>
+        <v>16.5967</v>
       </c>
       <c r="C12" t="n">
-        <v>28.954</v>
+        <v>28.6264</v>
       </c>
       <c r="D12" t="n">
-        <v>32.0383</v>
+        <v>32.7255</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.0972</v>
+        <v>17.2632</v>
       </c>
       <c r="C13" t="n">
-        <v>29.7826</v>
+        <v>29.0074</v>
       </c>
       <c r="D13" t="n">
-        <v>32.3856</v>
+        <v>33.9007</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.934</v>
+        <v>16.7116</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6111</v>
+        <v>28.4713</v>
       </c>
       <c r="D14" t="n">
-        <v>31.1424</v>
+        <v>30.3419</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1453</v>
+        <v>17.0814</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4646</v>
+        <v>28.3893</v>
       </c>
       <c r="D15" t="n">
-        <v>30.3813</v>
+        <v>30.6092</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3288</v>
+        <v>17.4072</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0007</v>
+        <v>28.7256</v>
       </c>
       <c r="D16" t="n">
-        <v>30.6919</v>
+        <v>31.0826</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.1755</v>
+        <v>17.5743</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1771</v>
+        <v>29.273</v>
       </c>
       <c r="D17" t="n">
-        <v>29.7965</v>
+        <v>30.1572</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.97737</v>
+        <v>2.95701</v>
       </c>
       <c r="C2" t="n">
-        <v>4.74791</v>
+        <v>4.7427</v>
       </c>
       <c r="D2" t="n">
-        <v>6.09893</v>
+        <v>6.11827</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.78849</v>
+        <v>4.86502</v>
       </c>
       <c r="C3" t="n">
-        <v>7.86344</v>
+        <v>7.9282</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0792</v>
+        <v>10.2164</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.52795</v>
+        <v>6.53836</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0178</v>
+        <v>11.0339</v>
       </c>
       <c r="D4" t="n">
-        <v>14.2749</v>
+        <v>14.3974</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.10971</v>
+        <v>8.122820000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0086</v>
+        <v>14.0437</v>
       </c>
       <c r="D5" t="n">
-        <v>18.2999</v>
+        <v>18.4191</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.652430000000001</v>
+        <v>9.614789999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9205</v>
+        <v>16.9221</v>
       </c>
       <c r="D6" t="n">
-        <v>22.3127</v>
+        <v>22.476</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1643</v>
+        <v>11.1148</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7334</v>
+        <v>19.7461</v>
       </c>
       <c r="D7" t="n">
-        <v>26.2064</v>
+        <v>26.4345</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6508</v>
+        <v>12.5854</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6835</v>
+        <v>22.6231</v>
       </c>
       <c r="D8" t="n">
-        <v>30.09</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7868</v>
+        <v>14.82</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8565</v>
+        <v>26.8629</v>
       </c>
       <c r="D9" t="n">
-        <v>34.6268</v>
+        <v>34.8757</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1398</v>
+        <v>14.0878</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9537</v>
+        <v>24.7711</v>
       </c>
       <c r="D10" t="n">
-        <v>31.9129</v>
+        <v>31.5707</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0533</v>
+        <v>13.9879</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4573</v>
+        <v>24.4215</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4407</v>
+        <v>31.9625</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1436</v>
+        <v>14.2033</v>
       </c>
       <c r="C12" t="n">
-        <v>25.197</v>
+        <v>24.6674</v>
       </c>
       <c r="D12" t="n">
-        <v>31.853</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4459</v>
+        <v>14.3656</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4665</v>
+        <v>25.2513</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9686</v>
+        <v>31.7182</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9154</v>
+        <v>13.9207</v>
       </c>
       <c r="C14" t="n">
-        <v>24.186</v>
+        <v>24.0969</v>
       </c>
       <c r="D14" t="n">
-        <v>30.9577</v>
+        <v>31.1333</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4758</v>
+        <v>14.1751</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9051</v>
+        <v>24.9671</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8652</v>
+        <v>31.7427</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4398</v>
+        <v>14.368</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6978</v>
+        <v>24.6517</v>
       </c>
       <c r="D16" t="n">
-        <v>30.8176</v>
+        <v>31.6049</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4044</v>
+        <v>14.4311</v>
       </c>
       <c r="C17" t="n">
-        <v>24.2329</v>
+        <v>24.7468</v>
       </c>
       <c r="D17" t="n">
-        <v>31.0659</v>
+        <v>31.3587</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95323</v>
+        <v>3.97459</v>
       </c>
       <c r="C2" t="n">
-        <v>8.777900000000001</v>
+        <v>8.791219999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.3652</v>
+        <v>10.4518</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.12561</v>
+        <v>6.12856</v>
       </c>
       <c r="C3" t="n">
-        <v>12.742</v>
+        <v>12.7821</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2675</v>
+        <v>15.3446</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.164479999999999</v>
+        <v>8.13106</v>
       </c>
       <c r="C4" t="n">
-        <v>17.0348</v>
+        <v>17.0639</v>
       </c>
       <c r="D4" t="n">
-        <v>20.7381</v>
+        <v>20.9055</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.05</v>
+        <v>10.0604</v>
       </c>
       <c r="C5" t="n">
-        <v>21.049</v>
+        <v>21.1359</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0333</v>
+        <v>26.2003</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9675</v>
+        <v>11.9164</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0386</v>
+        <v>25.109</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3564</v>
+        <v>31.5985</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7794</v>
+        <v>13.8028</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0048</v>
+        <v>29.1203</v>
       </c>
       <c r="D7" t="n">
-        <v>36.5893</v>
+        <v>37.0041</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5586</v>
+        <v>15.5569</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0293</v>
+        <v>33.1351</v>
       </c>
       <c r="D8" t="n">
-        <v>41.7661</v>
+        <v>42.0681</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1149</v>
+        <v>18.1453</v>
       </c>
       <c r="C9" t="n">
-        <v>39.2218</v>
+        <v>39.5503</v>
       </c>
       <c r="D9" t="n">
-        <v>48.1648</v>
+        <v>48.5388</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2474</v>
+        <v>17.3445</v>
       </c>
       <c r="C10" t="n">
-        <v>35.8762</v>
+        <v>36.0941</v>
       </c>
       <c r="D10" t="n">
-        <v>43.8443</v>
+        <v>44.2914</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.025</v>
+        <v>17.2602</v>
       </c>
       <c r="C11" t="n">
-        <v>35.8716</v>
+        <v>35.9512</v>
       </c>
       <c r="D11" t="n">
-        <v>42.875</v>
+        <v>43.9272</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3196</v>
+        <v>17.377</v>
       </c>
       <c r="C12" t="n">
-        <v>36.429</v>
+        <v>35.902</v>
       </c>
       <c r="D12" t="n">
-        <v>43.659</v>
+        <v>42.7725</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.3682</v>
+        <v>17.4546</v>
       </c>
       <c r="C13" t="n">
-        <v>36.6393</v>
+        <v>36.2808</v>
       </c>
       <c r="D13" t="n">
-        <v>43.0716</v>
+        <v>43.0597</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.005</v>
+        <v>16.9463</v>
       </c>
       <c r="C14" t="n">
-        <v>34.9653</v>
+        <v>34.7172</v>
       </c>
       <c r="D14" t="n">
-        <v>40.7816</v>
+        <v>42.1989</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.5649</v>
+        <v>17.6824</v>
       </c>
       <c r="C15" t="n">
-        <v>34.5604</v>
+        <v>35.2419</v>
       </c>
       <c r="D15" t="n">
-        <v>41.9553</v>
+        <v>42.2911</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5756</v>
+        <v>17.6527</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7108</v>
+        <v>34.5165</v>
       </c>
       <c r="D16" t="n">
-        <v>41.7291</v>
+        <v>42.5505</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6936</v>
+        <v>17.4197</v>
       </c>
       <c r="C17" t="n">
-        <v>34.4398</v>
+        <v>35.2486</v>
       </c>
       <c r="D17" t="n">
-        <v>41.0545</v>
+        <v>41.27</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.25107</v>
+        <v>5.26207</v>
       </c>
       <c r="C2" t="n">
-        <v>6.69227</v>
+        <v>6.69029</v>
       </c>
       <c r="D2" t="n">
-        <v>7.50125</v>
+        <v>7.48692</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.81895</v>
+        <v>6.81871</v>
       </c>
       <c r="C3" t="n">
-        <v>9.877829999999999</v>
+        <v>9.952220000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>11.1727</v>
+        <v>11.2341</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.688409999999999</v>
+        <v>8.680070000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6473</v>
+        <v>13.6105</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6466</v>
+        <v>15.6358</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5141</v>
+        <v>10.5307</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2974</v>
+        <v>17.3538</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0698</v>
+        <v>20.0468</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.39</v>
+        <v>12.3951</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0332</v>
+        <v>21.0801</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4296</v>
+        <v>24.4201</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2206</v>
+        <v>14.2363</v>
       </c>
       <c r="C7" t="n">
-        <v>24.7705</v>
+        <v>24.8147</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8282</v>
+        <v>28.8337</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1237</v>
+        <v>16.1167</v>
       </c>
       <c r="C8" t="n">
-        <v>28.5582</v>
+        <v>28.7238</v>
       </c>
       <c r="D8" t="n">
-        <v>33.1525</v>
+        <v>33.2777</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5685</v>
+        <v>18.6002</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3351</v>
+        <v>33.3745</v>
       </c>
       <c r="D9" t="n">
-        <v>38.4596</v>
+        <v>38.4144</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.807</v>
+        <v>17.6735</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6604</v>
+        <v>30.6821</v>
       </c>
       <c r="D10" t="n">
-        <v>34.8781</v>
+        <v>35.1754</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5687</v>
+        <v>17.8087</v>
       </c>
       <c r="C11" t="n">
-        <v>30.5171</v>
+        <v>30.8554</v>
       </c>
       <c r="D11" t="n">
-        <v>35.309</v>
+        <v>35.2134</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.881</v>
+        <v>17.7767</v>
       </c>
       <c r="C12" t="n">
-        <v>31.0807</v>
+        <v>31.092</v>
       </c>
       <c r="D12" t="n">
-        <v>34.9875</v>
+        <v>35.3393</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9976</v>
+        <v>17.9335</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5032</v>
+        <v>31.3805</v>
       </c>
       <c r="D13" t="n">
-        <v>35.1792</v>
+        <v>35.4194</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3729</v>
+        <v>17.4489</v>
       </c>
       <c r="C14" t="n">
-        <v>30.2471</v>
+        <v>30.1433</v>
       </c>
       <c r="D14" t="n">
-        <v>34.457</v>
+        <v>34.711</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0907</v>
+        <v>18.2255</v>
       </c>
       <c r="C15" t="n">
-        <v>31.0305</v>
+        <v>30.8333</v>
       </c>
       <c r="D15" t="n">
-        <v>35.3067</v>
+        <v>35.2666</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0243</v>
+        <v>18.1353</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9348</v>
+        <v>30.9717</v>
       </c>
       <c r="D16" t="n">
-        <v>35.1864</v>
+        <v>35.009</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1188</v>
+        <v>18.0529</v>
       </c>
       <c r="C17" t="n">
-        <v>31.0183</v>
+        <v>31.0889</v>
       </c>
       <c r="D17" t="n">
-        <v>34.9218</v>
+        <v>35.209</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04861</v>
+        <v>5.05678</v>
       </c>
       <c r="C2" t="n">
-        <v>5.40618</v>
+        <v>5.40731</v>
       </c>
       <c r="D2" t="n">
-        <v>6.88184</v>
+        <v>6.88396</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.23938</v>
+        <v>6.22972</v>
       </c>
       <c r="C3" t="n">
-        <v>8.27441</v>
+        <v>8.25911</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4834</v>
+        <v>10.4706</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.75103</v>
+        <v>7.69605</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3779</v>
+        <v>11.3501</v>
       </c>
       <c r="D4" t="n">
-        <v>14.5945</v>
+        <v>14.5835</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.23429</v>
+        <v>9.212070000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>14.2872</v>
+        <v>14.3192</v>
       </c>
       <c r="D5" t="n">
-        <v>18.574</v>
+        <v>18.5716</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8306</v>
+        <v>10.8123</v>
       </c>
       <c r="C6" t="n">
-        <v>17.0894</v>
+        <v>17.1704</v>
       </c>
       <c r="D6" t="n">
-        <v>22.5298</v>
+        <v>22.5485</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5299</v>
+        <v>12.5742</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1998</v>
+        <v>20.1155</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3486</v>
+        <v>26.4159</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9034</v>
+        <v>13.9175</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7309</v>
+        <v>22.7771</v>
       </c>
       <c r="D8" t="n">
-        <v>30.1578</v>
+        <v>30.1515</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4491</v>
+        <v>16.4428</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2194</v>
+        <v>26.6592</v>
       </c>
       <c r="D9" t="n">
-        <v>34.1071</v>
+        <v>34.1323</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1108</v>
+        <v>14.0449</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2769</v>
+        <v>21.5611</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5563</v>
+        <v>27.5068</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0575</v>
+        <v>13.9815</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1003</v>
+        <v>22.2033</v>
       </c>
       <c r="D11" t="n">
-        <v>27.0723</v>
+        <v>28.101</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5129</v>
+        <v>14.5945</v>
       </c>
       <c r="C12" t="n">
-        <v>23.1945</v>
+        <v>23.0412</v>
       </c>
       <c r="D12" t="n">
-        <v>29.655</v>
+        <v>30.2818</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9916</v>
+        <v>14.8999</v>
       </c>
       <c r="C13" t="n">
-        <v>24.448</v>
+        <v>24.1242</v>
       </c>
       <c r="D13" t="n">
-        <v>28.3114</v>
+        <v>29.0944</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7992</v>
+        <v>14.985</v>
       </c>
       <c r="C14" t="n">
-        <v>23.4141</v>
+        <v>23.0767</v>
       </c>
       <c r="D14" t="n">
-        <v>29.3179</v>
+        <v>28.9939</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1105</v>
+        <v>15.1377</v>
       </c>
       <c r="C15" t="n">
-        <v>22.8134</v>
+        <v>23.6613</v>
       </c>
       <c r="D15" t="n">
-        <v>28.3114</v>
+        <v>27.6952</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.2493</v>
+        <v>15.4445</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3783</v>
+        <v>23.3597</v>
       </c>
       <c r="D16" t="n">
-        <v>29.4775</v>
+        <v>29.728</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2753</v>
+        <v>15.1569</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7503</v>
+        <v>23.2591</v>
       </c>
       <c r="D17" t="n">
-        <v>28.3675</v>
+        <v>28.547</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.6515</v>
+        <v>8.635490000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2931</v>
+        <v>11.2886</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6962</v>
+        <v>12.6841</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.60313</v>
+        <v>8.3704</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6385</v>
+        <v>13.4812</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9402</v>
+        <v>15.7282</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.2342</v>
+        <v>10.1376</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7609</v>
+        <v>17.6298</v>
       </c>
       <c r="D4" t="n">
-        <v>21.3365</v>
+        <v>21.2441</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0339</v>
+        <v>12.0131</v>
       </c>
       <c r="C5" t="n">
-        <v>21.6465</v>
+        <v>21.6918</v>
       </c>
       <c r="D5" t="n">
-        <v>26.4854</v>
+        <v>26.5934</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.975</v>
+        <v>13.9423</v>
       </c>
       <c r="C6" t="n">
-        <v>25.3716</v>
+        <v>25.4488</v>
       </c>
       <c r="D6" t="n">
-        <v>31.6347</v>
+        <v>31.8785</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.1116</v>
+        <v>15.9017</v>
       </c>
       <c r="C7" t="n">
-        <v>30.1288</v>
+        <v>29.4146</v>
       </c>
       <c r="D7" t="n">
-        <v>37.2582</v>
+        <v>36.87</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7932</v>
+        <v>17.8441</v>
       </c>
       <c r="C8" t="n">
-        <v>33.2651</v>
+        <v>33.2446</v>
       </c>
       <c r="D8" t="n">
-        <v>41.7149</v>
+        <v>41.6372</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9239</v>
+        <v>20.9688</v>
       </c>
       <c r="C9" t="n">
-        <v>39.1232</v>
+        <v>38.7165</v>
       </c>
       <c r="D9" t="n">
-        <v>46.2481</v>
+        <v>46.4646</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0603</v>
+        <v>18.252</v>
       </c>
       <c r="C10" t="n">
-        <v>33.2904</v>
+        <v>33.1879</v>
       </c>
       <c r="D10" t="n">
-        <v>40.1606</v>
+        <v>39.8845</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8888</v>
+        <v>17.9505</v>
       </c>
       <c r="C11" t="n">
-        <v>32.3451</v>
+        <v>33.0851</v>
       </c>
       <c r="D11" t="n">
-        <v>39.5286</v>
+        <v>39.1136</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6465</v>
+        <v>18.4592</v>
       </c>
       <c r="C12" t="n">
-        <v>32.6399</v>
+        <v>32.0146</v>
       </c>
       <c r="D12" t="n">
-        <v>39.3809</v>
+        <v>39.1133</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0772</v>
+        <v>19.0731</v>
       </c>
       <c r="C13" t="n">
-        <v>34.3204</v>
+        <v>35.3507</v>
       </c>
       <c r="D13" t="n">
-        <v>40.5705</v>
+        <v>40.7456</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.7128</v>
+        <v>18.9982</v>
       </c>
       <c r="C14" t="n">
-        <v>33.7589</v>
+        <v>33.8892</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0164</v>
+        <v>39.0188</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8268</v>
+        <v>19.0452</v>
       </c>
       <c r="C15" t="n">
-        <v>32.389</v>
+        <v>33.6457</v>
       </c>
       <c r="D15" t="n">
-        <v>39.5514</v>
+        <v>38.8018</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2653</v>
+        <v>19.561</v>
       </c>
       <c r="C16" t="n">
-        <v>33.6651</v>
+        <v>34.8113</v>
       </c>
       <c r="D16" t="n">
-        <v>39.0868</v>
+        <v>37.7278</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.6756</v>
+        <v>19.496</v>
       </c>
       <c r="C17" t="n">
-        <v>33.3646</v>
+        <v>34.343</v>
       </c>
       <c r="D17" t="n">
-        <v>38.8671</v>
+        <v>38.8811</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.4248</v>
+        <v>6.42025</v>
       </c>
       <c r="C2" t="n">
-        <v>7.09276</v>
+        <v>7.07033</v>
       </c>
       <c r="D2" t="n">
-        <v>7.74707</v>
+        <v>7.74097</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.06265</v>
+        <v>7.19135</v>
       </c>
       <c r="C3" t="n">
-        <v>9.990640000000001</v>
+        <v>10.0272</v>
       </c>
       <c r="D3" t="n">
-        <v>11.16</v>
+        <v>11.1679</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.87171</v>
+        <v>8.862679999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8008</v>
+        <v>13.7859</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6822</v>
+        <v>15.6532</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5938</v>
+        <v>10.5958</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5973</v>
+        <v>17.4406</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0119</v>
+        <v>19.9996</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.526</v>
+        <v>12.4493</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3458</v>
+        <v>21.148</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4437</v>
+        <v>24.3129</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3447</v>
+        <v>14.3326</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0458</v>
+        <v>24.9577</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7339</v>
+        <v>28.7642</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0556</v>
+        <v>16.0285</v>
       </c>
       <c r="C8" t="n">
-        <v>28.4981</v>
+        <v>28.2924</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6509</v>
+        <v>32.6161</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2587</v>
+        <v>18.2361</v>
       </c>
       <c r="C9" t="n">
-        <v>32.5873</v>
+        <v>32.5204</v>
       </c>
       <c r="D9" t="n">
-        <v>36.8696</v>
+        <v>37.3375</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.202</v>
+        <v>16.2583</v>
       </c>
       <c r="C10" t="n">
-        <v>27.9677</v>
+        <v>27.6225</v>
       </c>
       <c r="D10" t="n">
-        <v>31.087</v>
+        <v>30.9281</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0232</v>
+        <v>16.0604</v>
       </c>
       <c r="C11" t="n">
-        <v>27.6984</v>
+        <v>27.476</v>
       </c>
       <c r="D11" t="n">
-        <v>31.0803</v>
+        <v>31.5316</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5967</v>
+        <v>16.4812</v>
       </c>
       <c r="C12" t="n">
-        <v>28.6264</v>
+        <v>28.8971</v>
       </c>
       <c r="D12" t="n">
-        <v>32.7255</v>
+        <v>32.4706</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2632</v>
+        <v>17.2064</v>
       </c>
       <c r="C13" t="n">
-        <v>29.0074</v>
+        <v>28.9797</v>
       </c>
       <c r="D13" t="n">
-        <v>33.9007</v>
+        <v>31.7365</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7116</v>
+        <v>16.8694</v>
       </c>
       <c r="C14" t="n">
-        <v>28.4713</v>
+        <v>28.581</v>
       </c>
       <c r="D14" t="n">
-        <v>30.3419</v>
+        <v>30.9037</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.0814</v>
+        <v>16.5874</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3893</v>
+        <v>27.5505</v>
       </c>
       <c r="D15" t="n">
-        <v>30.6092</v>
+        <v>30.4196</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4072</v>
+        <v>17.4297</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7256</v>
+        <v>28.4587</v>
       </c>
       <c r="D16" t="n">
-        <v>31.0826</v>
+        <v>30.7694</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5743</v>
+        <v>17.4918</v>
       </c>
       <c r="C17" t="n">
-        <v>29.273</v>
+        <v>28.853</v>
       </c>
       <c r="D17" t="n">
-        <v>30.1572</v>
+        <v>31.0744</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.95701</v>
+        <v>2.9855</v>
       </c>
       <c r="C2" t="n">
-        <v>4.7427</v>
+        <v>4.7544</v>
       </c>
       <c r="D2" t="n">
-        <v>6.11827</v>
+        <v>6.12814</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.86502</v>
+        <v>4.85508</v>
       </c>
       <c r="C3" t="n">
-        <v>7.9282</v>
+        <v>7.92672</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2164</v>
+        <v>10.2308</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.53836</v>
+        <v>6.49358</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0339</v>
+        <v>11.0401</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3974</v>
+        <v>14.3651</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.122820000000001</v>
+        <v>8.09639</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0437</v>
+        <v>14.0247</v>
       </c>
       <c r="D5" t="n">
-        <v>18.4191</v>
+        <v>18.419</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.614789999999999</v>
+        <v>9.685829999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9221</v>
+        <v>16.928</v>
       </c>
       <c r="D6" t="n">
-        <v>22.476</v>
+        <v>22.4636</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1148</v>
+        <v>11.1809</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7461</v>
+        <v>19.8208</v>
       </c>
       <c r="D7" t="n">
-        <v>26.4345</v>
+        <v>26.459</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5854</v>
+        <v>12.6811</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6231</v>
+        <v>22.6088</v>
       </c>
       <c r="D8" t="n">
-        <v>30.3</v>
+        <v>30.2957</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.82</v>
+        <v>14.7834</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8629</v>
+        <v>26.8312</v>
       </c>
       <c r="D9" t="n">
-        <v>34.8757</v>
+        <v>34.8672</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0878</v>
+        <v>14.0594</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7711</v>
+        <v>24.9782</v>
       </c>
       <c r="D10" t="n">
-        <v>31.5707</v>
+        <v>32.6487</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9879</v>
+        <v>14.0396</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4215</v>
+        <v>24.3671</v>
       </c>
       <c r="D11" t="n">
-        <v>31.9625</v>
+        <v>31.9036</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2033</v>
+        <v>13.9938</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6674</v>
+        <v>24.82</v>
       </c>
       <c r="D12" t="n">
-        <v>31.61</v>
+        <v>31.9128</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.3656</v>
+        <v>14.4643</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2513</v>
+        <v>25.3957</v>
       </c>
       <c r="D13" t="n">
-        <v>31.7182</v>
+        <v>32.2502</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9207</v>
+        <v>13.8881</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0969</v>
+        <v>24.1382</v>
       </c>
       <c r="D14" t="n">
-        <v>31.1333</v>
+        <v>30.5069</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1751</v>
+        <v>14.3521</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9671</v>
+        <v>24.8237</v>
       </c>
       <c r="D15" t="n">
-        <v>31.7427</v>
+        <v>31.5546</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.368</v>
+        <v>14.4055</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6517</v>
+        <v>24.724</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6049</v>
+        <v>31.0553</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.4311</v>
+        <v>14.2917</v>
       </c>
       <c r="C17" t="n">
-        <v>24.7468</v>
+        <v>24.5602</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3587</v>
+        <v>31.4979</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97459</v>
+        <v>3.97986</v>
       </c>
       <c r="C2" t="n">
-        <v>8.791219999999999</v>
+        <v>8.79008</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4518</v>
+        <v>10.4473</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.12856</v>
+        <v>6.02546</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7821</v>
+        <v>12.6486</v>
       </c>
       <c r="D3" t="n">
-        <v>15.3446</v>
+        <v>15.2602</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.13106</v>
+        <v>8.20975</v>
       </c>
       <c r="C4" t="n">
-        <v>17.0639</v>
+        <v>16.967</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9055</v>
+        <v>20.9024</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0604</v>
+        <v>10.0314</v>
       </c>
       <c r="C5" t="n">
-        <v>21.1359</v>
+        <v>21.0349</v>
       </c>
       <c r="D5" t="n">
-        <v>26.2003</v>
+        <v>26.1901</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9164</v>
+        <v>11.9657</v>
       </c>
       <c r="C6" t="n">
-        <v>25.109</v>
+        <v>25.1466</v>
       </c>
       <c r="D6" t="n">
-        <v>31.5985</v>
+        <v>31.6207</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8028</v>
+        <v>13.8097</v>
       </c>
       <c r="C7" t="n">
-        <v>29.1203</v>
+        <v>28.9673</v>
       </c>
       <c r="D7" t="n">
-        <v>37.0041</v>
+        <v>36.8732</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5569</v>
+        <v>15.5358</v>
       </c>
       <c r="C8" t="n">
-        <v>33.1351</v>
+        <v>33.0829</v>
       </c>
       <c r="D8" t="n">
-        <v>42.0681</v>
+        <v>42.2127</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1453</v>
+        <v>18.0863</v>
       </c>
       <c r="C9" t="n">
-        <v>39.5503</v>
+        <v>39.3552</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5388</v>
+        <v>48.5055</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3445</v>
+        <v>17.1904</v>
       </c>
       <c r="C10" t="n">
-        <v>36.0941</v>
+        <v>36.8985</v>
       </c>
       <c r="D10" t="n">
-        <v>44.2914</v>
+        <v>43.8812</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2602</v>
+        <v>17.0841</v>
       </c>
       <c r="C11" t="n">
-        <v>35.9512</v>
+        <v>35.9492</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9272</v>
+        <v>42.4168</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.377</v>
+        <v>17.1959</v>
       </c>
       <c r="C12" t="n">
-        <v>35.902</v>
+        <v>35.8848</v>
       </c>
       <c r="D12" t="n">
-        <v>42.7725</v>
+        <v>42.9533</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.4546</v>
+        <v>17.6153</v>
       </c>
       <c r="C13" t="n">
-        <v>36.2808</v>
+        <v>36.3086</v>
       </c>
       <c r="D13" t="n">
-        <v>43.0597</v>
+        <v>44.0262</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9463</v>
+        <v>16.9894</v>
       </c>
       <c r="C14" t="n">
-        <v>34.7172</v>
+        <v>35.14</v>
       </c>
       <c r="D14" t="n">
-        <v>42.1989</v>
+        <v>42.5521</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6824</v>
+        <v>17.5886</v>
       </c>
       <c r="C15" t="n">
-        <v>35.2419</v>
+        <v>35.1004</v>
       </c>
       <c r="D15" t="n">
-        <v>42.2911</v>
+        <v>42.3975</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.6527</v>
+        <v>17.647</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5165</v>
+        <v>34.7664</v>
       </c>
       <c r="D16" t="n">
-        <v>42.5505</v>
+        <v>42.2253</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4197</v>
+        <v>17.4265</v>
       </c>
       <c r="C17" t="n">
-        <v>35.2486</v>
+        <v>35.0727</v>
       </c>
       <c r="D17" t="n">
-        <v>41.27</v>
+        <v>42.0753</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26207</v>
+        <v>5.26837</v>
       </c>
       <c r="C2" t="n">
-        <v>6.69029</v>
+        <v>6.69488</v>
       </c>
       <c r="D2" t="n">
-        <v>7.48692</v>
+        <v>7.49114</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.81871</v>
+        <v>6.81203</v>
       </c>
       <c r="C3" t="n">
-        <v>9.952220000000001</v>
+        <v>9.90504</v>
       </c>
       <c r="D3" t="n">
-        <v>11.2341</v>
+        <v>11.172</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.680070000000001</v>
+        <v>8.66262</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6105</v>
+        <v>13.6148</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6358</v>
+        <v>15.6261</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5307</v>
+        <v>10.5392</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3538</v>
+        <v>17.3338</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0468</v>
+        <v>20.0072</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3951</v>
+        <v>12.405</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0801</v>
+        <v>21.1096</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4201</v>
+        <v>24.3944</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2363</v>
+        <v>14.1897</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8147</v>
+        <v>24.8579</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8337</v>
+        <v>28.8234</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1167</v>
+        <v>16.1677</v>
       </c>
       <c r="C8" t="n">
-        <v>28.7238</v>
+        <v>28.6294</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2777</v>
+        <v>33.2908</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.6002</v>
+        <v>18.5903</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3745</v>
+        <v>33.326</v>
       </c>
       <c r="D9" t="n">
-        <v>38.4144</v>
+        <v>38.4595</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6735</v>
+        <v>17.894</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6821</v>
+        <v>30.6831</v>
       </c>
       <c r="D10" t="n">
-        <v>35.1754</v>
+        <v>35.4862</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8087</v>
+        <v>17.7045</v>
       </c>
       <c r="C11" t="n">
-        <v>30.8554</v>
+        <v>30.4748</v>
       </c>
       <c r="D11" t="n">
-        <v>35.2134</v>
+        <v>34.5655</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7767</v>
+        <v>17.8242</v>
       </c>
       <c r="C12" t="n">
-        <v>31.092</v>
+        <v>31.2274</v>
       </c>
       <c r="D12" t="n">
-        <v>35.3393</v>
+        <v>35.4608</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9335</v>
+        <v>17.9701</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3805</v>
+        <v>31.3059</v>
       </c>
       <c r="D13" t="n">
-        <v>35.4194</v>
+        <v>35.6161</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4489</v>
+        <v>17.5156</v>
       </c>
       <c r="C14" t="n">
-        <v>30.1433</v>
+        <v>30.4239</v>
       </c>
       <c r="D14" t="n">
-        <v>34.711</v>
+        <v>35.0058</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2255</v>
+        <v>17.9125</v>
       </c>
       <c r="C15" t="n">
-        <v>30.8333</v>
+        <v>31.2351</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2666</v>
+        <v>35.2557</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1353</v>
+        <v>18.0414</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9717</v>
+        <v>30.9498</v>
       </c>
       <c r="D16" t="n">
-        <v>35.009</v>
+        <v>35.5167</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0529</v>
+        <v>17.877</v>
       </c>
       <c r="C17" t="n">
-        <v>31.0889</v>
+        <v>31.4015</v>
       </c>
       <c r="D17" t="n">
-        <v>35.209</v>
+        <v>34.8059</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.05678</v>
+        <v>5.05962</v>
       </c>
       <c r="C2" t="n">
-        <v>5.40731</v>
+        <v>5.40622</v>
       </c>
       <c r="D2" t="n">
-        <v>6.88396</v>
+        <v>6.92757</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.22972</v>
+        <v>6.12818</v>
       </c>
       <c r="C3" t="n">
-        <v>8.25911</v>
+        <v>8.19406</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4706</v>
+        <v>10.6089</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.69605</v>
+        <v>7.73552</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3501</v>
+        <v>11.3699</v>
       </c>
       <c r="D4" t="n">
-        <v>14.5835</v>
+        <v>14.9644</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.212070000000001</v>
+        <v>9.21893</v>
       </c>
       <c r="C5" t="n">
-        <v>14.3192</v>
+        <v>14.2196</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5716</v>
+        <v>19.0738</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8123</v>
+        <v>10.9144</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1704</v>
+        <v>17.1399</v>
       </c>
       <c r="D6" t="n">
-        <v>22.5485</v>
+        <v>23.2444</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5742</v>
+        <v>12.5488</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1155</v>
+        <v>20.1766</v>
       </c>
       <c r="D7" t="n">
-        <v>26.4159</v>
+        <v>27.0148</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9175</v>
+        <v>13.8853</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7771</v>
+        <v>22.7268</v>
       </c>
       <c r="D8" t="n">
-        <v>30.1515</v>
+        <v>31.0455</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4428</v>
+        <v>16.4288</v>
       </c>
       <c r="C9" t="n">
-        <v>26.6592</v>
+        <v>26.5064</v>
       </c>
       <c r="D9" t="n">
-        <v>34.1323</v>
+        <v>34.8373</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0449</v>
+        <v>14.06</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5611</v>
+        <v>21.6881</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5068</v>
+        <v>27.5962</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9815</v>
+        <v>14.0274</v>
       </c>
       <c r="C11" t="n">
-        <v>22.2033</v>
+        <v>22.3891</v>
       </c>
       <c r="D11" t="n">
-        <v>28.101</v>
+        <v>29.0487</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5945</v>
+        <v>14.5338</v>
       </c>
       <c r="C12" t="n">
-        <v>23.0412</v>
+        <v>23.5586</v>
       </c>
       <c r="D12" t="n">
-        <v>30.2818</v>
+        <v>30.1337</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8999</v>
+        <v>14.9388</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1242</v>
+        <v>23.7679</v>
       </c>
       <c r="D13" t="n">
-        <v>29.0944</v>
+        <v>30.418</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.985</v>
+        <v>14.8724</v>
       </c>
       <c r="C14" t="n">
-        <v>23.0767</v>
+        <v>23.0134</v>
       </c>
       <c r="D14" t="n">
-        <v>28.9939</v>
+        <v>29.8363</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1377</v>
+        <v>15.1838</v>
       </c>
       <c r="C15" t="n">
-        <v>23.6613</v>
+        <v>23.8315</v>
       </c>
       <c r="D15" t="n">
-        <v>27.6952</v>
+        <v>29.8729</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4445</v>
+        <v>15.451</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3597</v>
+        <v>23.2386</v>
       </c>
       <c r="D16" t="n">
-        <v>29.728</v>
+        <v>29.8591</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.1569</v>
+        <v>15.5819</v>
       </c>
       <c r="C17" t="n">
-        <v>23.2591</v>
+        <v>23.8913</v>
       </c>
       <c r="D17" t="n">
-        <v>28.547</v>
+        <v>31.4928</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.635490000000001</v>
+        <v>8.597149999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2886</v>
+        <v>11.2919</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6841</v>
+        <v>12.6667</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.3704</v>
+        <v>8.48827</v>
       </c>
       <c r="C3" t="n">
-        <v>13.4812</v>
+        <v>13.6307</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7282</v>
+        <v>16.2949</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1376</v>
+        <v>10.174</v>
       </c>
       <c r="C4" t="n">
-        <v>17.6298</v>
+        <v>17.7194</v>
       </c>
       <c r="D4" t="n">
-        <v>21.2441</v>
+        <v>22.0042</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0131</v>
+        <v>11.9348</v>
       </c>
       <c r="C5" t="n">
-        <v>21.6918</v>
+        <v>21.7213</v>
       </c>
       <c r="D5" t="n">
-        <v>26.5934</v>
+        <v>27.4587</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9423</v>
+        <v>13.8785</v>
       </c>
       <c r="C6" t="n">
-        <v>25.4488</v>
+        <v>25.3639</v>
       </c>
       <c r="D6" t="n">
-        <v>31.8785</v>
+        <v>32.7428</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9017</v>
+        <v>16.0065</v>
       </c>
       <c r="C7" t="n">
-        <v>29.4146</v>
+        <v>30.1215</v>
       </c>
       <c r="D7" t="n">
-        <v>36.87</v>
+        <v>38.4634</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8441</v>
+        <v>17.7472</v>
       </c>
       <c r="C8" t="n">
-        <v>33.2446</v>
+        <v>33.2461</v>
       </c>
       <c r="D8" t="n">
-        <v>41.6372</v>
+        <v>43.1513</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9688</v>
+        <v>20.7767</v>
       </c>
       <c r="C9" t="n">
-        <v>38.7165</v>
+        <v>38.5398</v>
       </c>
       <c r="D9" t="n">
-        <v>46.4646</v>
+        <v>49.304</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.252</v>
+        <v>18.5794</v>
       </c>
       <c r="C10" t="n">
-        <v>33.1879</v>
+        <v>33.7757</v>
       </c>
       <c r="D10" t="n">
-        <v>39.8845</v>
+        <v>41.5153</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9505</v>
+        <v>17.9399</v>
       </c>
       <c r="C11" t="n">
-        <v>33.0851</v>
+        <v>32.9214</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1136</v>
+        <v>41.1909</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4592</v>
+        <v>18.3787</v>
       </c>
       <c r="C12" t="n">
-        <v>32.0146</v>
+        <v>32.7491</v>
       </c>
       <c r="D12" t="n">
-        <v>39.1133</v>
+        <v>41.3073</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0731</v>
+        <v>19.1222</v>
       </c>
       <c r="C13" t="n">
-        <v>35.3507</v>
+        <v>34.9529</v>
       </c>
       <c r="D13" t="n">
-        <v>40.7456</v>
+        <v>42.6267</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9982</v>
+        <v>18.745</v>
       </c>
       <c r="C14" t="n">
-        <v>33.8892</v>
+        <v>33.9253</v>
       </c>
       <c r="D14" t="n">
-        <v>39.0188</v>
+        <v>40.1288</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0452</v>
+        <v>19.1681</v>
       </c>
       <c r="C15" t="n">
-        <v>33.6457</v>
+        <v>33.7402</v>
       </c>
       <c r="D15" t="n">
-        <v>38.8018</v>
+        <v>40.2254</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.561</v>
+        <v>19.3844</v>
       </c>
       <c r="C16" t="n">
-        <v>34.8113</v>
+        <v>33.648</v>
       </c>
       <c r="D16" t="n">
-        <v>37.7278</v>
+        <v>41.22</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.496</v>
+        <v>19.8955</v>
       </c>
       <c r="C17" t="n">
-        <v>34.343</v>
+        <v>33.492</v>
       </c>
       <c r="D17" t="n">
-        <v>38.8811</v>
+        <v>40.5605</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42025</v>
+        <v>6.37514</v>
       </c>
       <c r="C2" t="n">
-        <v>7.07033</v>
+        <v>7.08873</v>
       </c>
       <c r="D2" t="n">
-        <v>7.74097</v>
+        <v>7.84167</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.19135</v>
+        <v>7.02793</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0272</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>11.1679</v>
+        <v>11.601</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.862679999999999</v>
+        <v>8.858040000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7859</v>
+        <v>13.7353</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6532</v>
+        <v>16.4825</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5958</v>
+        <v>10.5555</v>
       </c>
       <c r="C5" t="n">
-        <v>17.4406</v>
+        <v>17.5267</v>
       </c>
       <c r="D5" t="n">
-        <v>19.9996</v>
+        <v>21.0193</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4493</v>
+        <v>12.5092</v>
       </c>
       <c r="C6" t="n">
-        <v>21.148</v>
+        <v>21.3888</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3129</v>
+        <v>25.8381</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3326</v>
+        <v>14.3052</v>
       </c>
       <c r="C7" t="n">
-        <v>24.9577</v>
+        <v>25.0613</v>
       </c>
       <c r="D7" t="n">
-        <v>28.7642</v>
+        <v>30.1691</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0285</v>
+        <v>16.0114</v>
       </c>
       <c r="C8" t="n">
-        <v>28.2924</v>
+        <v>28.4535</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6161</v>
+        <v>34.4762</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2361</v>
+        <v>18.166</v>
       </c>
       <c r="C9" t="n">
-        <v>32.5204</v>
+        <v>32.586</v>
       </c>
       <c r="D9" t="n">
-        <v>37.3375</v>
+        <v>38.9075</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.2583</v>
+        <v>16.0564</v>
       </c>
       <c r="C10" t="n">
-        <v>27.6225</v>
+        <v>27.4506</v>
       </c>
       <c r="D10" t="n">
-        <v>30.9281</v>
+        <v>32.5537</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0604</v>
+        <v>16.0138</v>
       </c>
       <c r="C11" t="n">
-        <v>27.476</v>
+        <v>27.0879</v>
       </c>
       <c r="D11" t="n">
-        <v>31.5316</v>
+        <v>33.0309</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4812</v>
+        <v>16.4942</v>
       </c>
       <c r="C12" t="n">
-        <v>28.8971</v>
+        <v>28.1382</v>
       </c>
       <c r="D12" t="n">
-        <v>32.4706</v>
+        <v>33.8928</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.2064</v>
+        <v>17.1994</v>
       </c>
       <c r="C13" t="n">
-        <v>28.9797</v>
+        <v>29.9992</v>
       </c>
       <c r="D13" t="n">
-        <v>31.7365</v>
+        <v>33.2415</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.8694</v>
+        <v>17.0082</v>
       </c>
       <c r="C14" t="n">
-        <v>28.581</v>
+        <v>28.8581</v>
       </c>
       <c r="D14" t="n">
-        <v>30.9037</v>
+        <v>31.9589</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.5874</v>
+        <v>16.8652</v>
       </c>
       <c r="C15" t="n">
-        <v>27.5505</v>
+        <v>28.7325</v>
       </c>
       <c r="D15" t="n">
-        <v>30.4196</v>
+        <v>32.3591</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.4297</v>
+        <v>17.3903</v>
       </c>
       <c r="C16" t="n">
-        <v>28.4587</v>
+        <v>28.6885</v>
       </c>
       <c r="D16" t="n">
-        <v>30.7694</v>
+        <v>31.6588</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4918</v>
+        <v>17.82</v>
       </c>
       <c r="C17" t="n">
-        <v>28.853</v>
+        <v>29.0751</v>
       </c>
       <c r="D17" t="n">
-        <v>31.0744</v>
+        <v>32.242</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.9855</v>
+        <v>2.98559</v>
       </c>
       <c r="C2" t="n">
-        <v>4.7544</v>
+        <v>4.74965</v>
       </c>
       <c r="D2" t="n">
-        <v>6.12814</v>
+        <v>6.20706</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.85508</v>
+        <v>4.8132</v>
       </c>
       <c r="C3" t="n">
-        <v>7.92672</v>
+        <v>7.87976</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2308</v>
+        <v>10.4534</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.49358</v>
+        <v>6.53727</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0401</v>
+        <v>11.0561</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3651</v>
+        <v>14.8859</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.09639</v>
+        <v>8.138529999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0247</v>
+        <v>14.0333</v>
       </c>
       <c r="D5" t="n">
-        <v>18.419</v>
+        <v>19.039</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.685829999999999</v>
+        <v>9.72752</v>
       </c>
       <c r="C6" t="n">
-        <v>16.928</v>
+        <v>16.963</v>
       </c>
       <c r="D6" t="n">
-        <v>22.4636</v>
+        <v>23.229</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1809</v>
+        <v>11.1407</v>
       </c>
       <c r="C7" t="n">
-        <v>19.8208</v>
+        <v>19.7226</v>
       </c>
       <c r="D7" t="n">
-        <v>26.459</v>
+        <v>27.331</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6811</v>
+        <v>12.5618</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6088</v>
+        <v>22.6704</v>
       </c>
       <c r="D8" t="n">
-        <v>30.2957</v>
+        <v>31.3107</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7834</v>
+        <v>14.8275</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8312</v>
+        <v>26.8028</v>
       </c>
       <c r="D9" t="n">
-        <v>34.8672</v>
+        <v>35.8816</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0594</v>
+        <v>14.0546</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9782</v>
+        <v>24.9403</v>
       </c>
       <c r="D10" t="n">
-        <v>32.6487</v>
+        <v>33.0456</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0396</v>
+        <v>13.9017</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3671</v>
+        <v>24.5906</v>
       </c>
       <c r="D11" t="n">
-        <v>31.9036</v>
+        <v>32.5883</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9938</v>
+        <v>14.1628</v>
       </c>
       <c r="C12" t="n">
-        <v>24.82</v>
+        <v>25.0306</v>
       </c>
       <c r="D12" t="n">
-        <v>31.9128</v>
+        <v>32.5149</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4643</v>
+        <v>14.431</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3957</v>
+        <v>24.8338</v>
       </c>
       <c r="D13" t="n">
-        <v>32.2502</v>
+        <v>33.5415</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8881</v>
+        <v>13.8919</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1382</v>
+        <v>24.2522</v>
       </c>
       <c r="D14" t="n">
-        <v>30.5069</v>
+        <v>32.2081</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3521</v>
+        <v>14.5554</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8237</v>
+        <v>24.8794</v>
       </c>
       <c r="D15" t="n">
-        <v>31.5546</v>
+        <v>32.8235</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4055</v>
+        <v>14.4044</v>
       </c>
       <c r="C16" t="n">
-        <v>24.724</v>
+        <v>24.7559</v>
       </c>
       <c r="D16" t="n">
-        <v>31.0553</v>
+        <v>31.3547</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2917</v>
+        <v>14.3883</v>
       </c>
       <c r="C17" t="n">
-        <v>24.5602</v>
+        <v>24.8239</v>
       </c>
       <c r="D17" t="n">
-        <v>31.4979</v>
+        <v>32.5968</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97986</v>
+        <v>3.94722</v>
       </c>
       <c r="C2" t="n">
-        <v>8.79008</v>
+        <v>8.7818</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4473</v>
+        <v>10.5915</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.02546</v>
+        <v>6.09396</v>
       </c>
       <c r="C3" t="n">
-        <v>12.6486</v>
+        <v>12.7633</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2602</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.20975</v>
+        <v>8.13504</v>
       </c>
       <c r="C4" t="n">
-        <v>16.967</v>
+        <v>16.9969</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9024</v>
+        <v>21.8415</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0314</v>
+        <v>10.0432</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0349</v>
+        <v>21.0526</v>
       </c>
       <c r="D5" t="n">
-        <v>26.1901</v>
+        <v>27.35</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9657</v>
+        <v>11.9432</v>
       </c>
       <c r="C6" t="n">
-        <v>25.1466</v>
+        <v>25.0001</v>
       </c>
       <c r="D6" t="n">
-        <v>31.6207</v>
+        <v>33.0658</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8097</v>
+        <v>13.6909</v>
       </c>
       <c r="C7" t="n">
-        <v>28.9673</v>
+        <v>29.0599</v>
       </c>
       <c r="D7" t="n">
-        <v>36.8732</v>
+        <v>38.6532</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5358</v>
+        <v>15.4812</v>
       </c>
       <c r="C8" t="n">
-        <v>33.0829</v>
+        <v>33.3685</v>
       </c>
       <c r="D8" t="n">
-        <v>42.2127</v>
+        <v>44.1044</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0863</v>
+        <v>18.0839</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3552</v>
+        <v>39.3575</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5055</v>
+        <v>50.4422</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1904</v>
+        <v>17.3872</v>
       </c>
       <c r="C10" t="n">
-        <v>36.8985</v>
+        <v>36.0651</v>
       </c>
       <c r="D10" t="n">
-        <v>43.8812</v>
+        <v>45.7712</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0841</v>
+        <v>17.0387</v>
       </c>
       <c r="C11" t="n">
-        <v>35.9492</v>
+        <v>35.5099</v>
       </c>
       <c r="D11" t="n">
-        <v>42.4168</v>
+        <v>45.6756</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.1959</v>
+        <v>17.2803</v>
       </c>
       <c r="C12" t="n">
-        <v>35.8848</v>
+        <v>36.4208</v>
       </c>
       <c r="D12" t="n">
-        <v>42.9533</v>
+        <v>44.7532</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6153</v>
+        <v>17.5853</v>
       </c>
       <c r="C13" t="n">
-        <v>36.3086</v>
+        <v>36.8712</v>
       </c>
       <c r="D13" t="n">
-        <v>44.0262</v>
+        <v>46.0356</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9894</v>
+        <v>16.9052</v>
       </c>
       <c r="C14" t="n">
-        <v>35.14</v>
+        <v>35.1576</v>
       </c>
       <c r="D14" t="n">
-        <v>42.5521</v>
+        <v>44.2612</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.5886</v>
+        <v>17.6065</v>
       </c>
       <c r="C15" t="n">
-        <v>35.1004</v>
+        <v>35.1634</v>
       </c>
       <c r="D15" t="n">
-        <v>42.3975</v>
+        <v>44.1993</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.647</v>
+        <v>17.593</v>
       </c>
       <c r="C16" t="n">
-        <v>34.7664</v>
+        <v>35.0089</v>
       </c>
       <c r="D16" t="n">
-        <v>42.2253</v>
+        <v>44.5487</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4265</v>
+        <v>17.3722</v>
       </c>
       <c r="C17" t="n">
-        <v>35.0727</v>
+        <v>34.1145</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0753</v>
+        <v>42.8603</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26837</v>
+        <v>5.23297</v>
       </c>
       <c r="C2" t="n">
-        <v>6.69488</v>
+        <v>6.69809</v>
       </c>
       <c r="D2" t="n">
-        <v>7.49114</v>
+        <v>7.61674</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.81203</v>
+        <v>6.68681</v>
       </c>
       <c r="C3" t="n">
-        <v>9.90504</v>
+        <v>9.891220000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>11.172</v>
+        <v>11.8138</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.66262</v>
+        <v>8.679080000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6148</v>
+        <v>13.6132</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6261</v>
+        <v>16.7705</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5392</v>
+        <v>10.49</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3338</v>
+        <v>17.3507</v>
       </c>
       <c r="D5" t="n">
-        <v>20.0072</v>
+        <v>21.4889</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.405</v>
+        <v>12.3565</v>
       </c>
       <c r="C6" t="n">
-        <v>21.1096</v>
+        <v>21.1091</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3944</v>
+        <v>26.3407</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1897</v>
+        <v>14.1734</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8579</v>
+        <v>24.8114</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8234</v>
+        <v>31.048</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.1677</v>
+        <v>16.0834</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6294</v>
+        <v>28.6602</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2908</v>
+        <v>35.8267</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5903</v>
+        <v>18.5574</v>
       </c>
       <c r="C9" t="n">
-        <v>33.326</v>
+        <v>33.3657</v>
       </c>
       <c r="D9" t="n">
-        <v>38.4595</v>
+        <v>41.3536</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.894</v>
+        <v>17.7718</v>
       </c>
       <c r="C10" t="n">
-        <v>30.6831</v>
+        <v>31.0419</v>
       </c>
       <c r="D10" t="n">
-        <v>35.4862</v>
+        <v>37.6933</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7045</v>
+        <v>17.7429</v>
       </c>
       <c r="C11" t="n">
-        <v>30.4748</v>
+        <v>30.6951</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5655</v>
+        <v>37.1729</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8242</v>
+        <v>17.7626</v>
       </c>
       <c r="C12" t="n">
-        <v>31.2274</v>
+        <v>30.7632</v>
       </c>
       <c r="D12" t="n">
-        <v>35.4608</v>
+        <v>37.4567</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9701</v>
+        <v>18.0063</v>
       </c>
       <c r="C13" t="n">
-        <v>31.3059</v>
+        <v>31.5519</v>
       </c>
       <c r="D13" t="n">
-        <v>35.6161</v>
+        <v>38.8469</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5156</v>
+        <v>17.412</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4239</v>
+        <v>30.1083</v>
       </c>
       <c r="D14" t="n">
-        <v>35.0058</v>
+        <v>37.3269</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9125</v>
+        <v>18.0635</v>
       </c>
       <c r="C15" t="n">
-        <v>31.2351</v>
+        <v>31.2754</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2557</v>
+        <v>37.5235</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0414</v>
+        <v>17.9459</v>
       </c>
       <c r="C16" t="n">
-        <v>30.9498</v>
+        <v>31.3227</v>
       </c>
       <c r="D16" t="n">
-        <v>35.5167</v>
+        <v>37.4277</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.877</v>
+        <v>17.8819</v>
       </c>
       <c r="C17" t="n">
-        <v>31.4015</v>
+        <v>31.0313</v>
       </c>
       <c r="D17" t="n">
-        <v>34.8059</v>
+        <v>36.9375</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.05962</v>
+        <v>5.2069</v>
       </c>
       <c r="C2" t="n">
-        <v>5.40622</v>
+        <v>5.58272</v>
       </c>
       <c r="D2" t="n">
-        <v>6.92757</v>
+        <v>6.91851</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.12818</v>
+        <v>6.44906</v>
       </c>
       <c r="C3" t="n">
-        <v>8.19406</v>
+        <v>6.71969</v>
       </c>
       <c r="D3" t="n">
-        <v>10.6089</v>
+        <v>10.5942</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.73552</v>
+        <v>8.84567</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3699</v>
+        <v>8.80294</v>
       </c>
       <c r="D4" t="n">
-        <v>14.9644</v>
+        <v>14.9595</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.21893</v>
+        <v>10.9524</v>
       </c>
       <c r="C5" t="n">
-        <v>14.2196</v>
+        <v>11.0299</v>
       </c>
       <c r="D5" t="n">
-        <v>19.0738</v>
+        <v>19.1106</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9144</v>
+        <v>13.217</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1399</v>
+        <v>13.3476</v>
       </c>
       <c r="D6" t="n">
-        <v>23.2444</v>
+        <v>23.2341</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5488</v>
+        <v>15.6571</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1766</v>
+        <v>15.7759</v>
       </c>
       <c r="D7" t="n">
-        <v>27.0148</v>
+        <v>27.0558</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.8853</v>
+        <v>17.9358</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7268</v>
+        <v>18.2316</v>
       </c>
       <c r="D8" t="n">
-        <v>31.0455</v>
+        <v>30.9926</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4288</v>
+        <v>21.3902</v>
       </c>
       <c r="C9" t="n">
-        <v>26.5064</v>
+        <v>21.1278</v>
       </c>
       <c r="D9" t="n">
-        <v>34.8373</v>
+        <v>34.877</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.06</v>
+        <v>16.9716</v>
       </c>
       <c r="C10" t="n">
-        <v>21.6881</v>
+        <v>17.7394</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5962</v>
+        <v>28.2158</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0274</v>
+        <v>17.4799</v>
       </c>
       <c r="C11" t="n">
-        <v>22.3891</v>
+        <v>17.6085</v>
       </c>
       <c r="D11" t="n">
-        <v>29.0487</v>
+        <v>28.7723</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5338</v>
+        <v>18.2929</v>
       </c>
       <c r="C12" t="n">
-        <v>23.5586</v>
+        <v>18.6145</v>
       </c>
       <c r="D12" t="n">
-        <v>30.1337</v>
+        <v>29.3732</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.9388</v>
+        <v>19.3973</v>
       </c>
       <c r="C13" t="n">
-        <v>23.7679</v>
+        <v>19.2349</v>
       </c>
       <c r="D13" t="n">
-        <v>30.418</v>
+        <v>30.9278</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8724</v>
+        <v>18.5303</v>
       </c>
       <c r="C14" t="n">
-        <v>23.0134</v>
+        <v>19.0892</v>
       </c>
       <c r="D14" t="n">
-        <v>29.8363</v>
+        <v>29.0723</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1838</v>
+        <v>18.7056</v>
       </c>
       <c r="C15" t="n">
-        <v>23.8315</v>
+        <v>19.6316</v>
       </c>
       <c r="D15" t="n">
-        <v>29.8729</v>
+        <v>29.7905</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.451</v>
+        <v>19.3795</v>
       </c>
       <c r="C16" t="n">
-        <v>23.2386</v>
+        <v>19.9004</v>
       </c>
       <c r="D16" t="n">
-        <v>29.8591</v>
+        <v>30.6334</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5819</v>
+        <v>19.4685</v>
       </c>
       <c r="C17" t="n">
-        <v>23.8913</v>
+        <v>20.167</v>
       </c>
       <c r="D17" t="n">
-        <v>31.4928</v>
+        <v>30.6909</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.597149999999999</v>
+        <v>8.64171</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2919</v>
+        <v>9.96468</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6667</v>
+        <v>12.6481</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.48827</v>
+        <v>8.885859999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>13.6307</v>
+        <v>9.250450000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>16.2949</v>
+        <v>16.1336</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.174</v>
+        <v>11.4035</v>
       </c>
       <c r="C4" t="n">
-        <v>17.7194</v>
+        <v>11.4769</v>
       </c>
       <c r="D4" t="n">
-        <v>22.0042</v>
+        <v>21.961</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.9348</v>
+        <v>14.0508</v>
       </c>
       <c r="C5" t="n">
-        <v>21.7213</v>
+        <v>14.1421</v>
       </c>
       <c r="D5" t="n">
-        <v>27.4587</v>
+        <v>27.5228</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8785</v>
+        <v>16.5917</v>
       </c>
       <c r="C6" t="n">
-        <v>25.3639</v>
+        <v>16.8999</v>
       </c>
       <c r="D6" t="n">
-        <v>32.7428</v>
+        <v>32.8908</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0065</v>
+        <v>19.2591</v>
       </c>
       <c r="C7" t="n">
-        <v>30.1215</v>
+        <v>20.0952</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4634</v>
+        <v>38.0194</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7472</v>
+        <v>22.1494</v>
       </c>
       <c r="C8" t="n">
-        <v>33.2461</v>
+        <v>22.9391</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1513</v>
+        <v>43.1702</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7767</v>
+        <v>26.6995</v>
       </c>
       <c r="C9" t="n">
-        <v>38.5398</v>
+        <v>26.588</v>
       </c>
       <c r="D9" t="n">
-        <v>49.304</v>
+        <v>48.2876</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.5794</v>
+        <v>23.1239</v>
       </c>
       <c r="C10" t="n">
-        <v>33.7757</v>
+        <v>23.6678</v>
       </c>
       <c r="D10" t="n">
-        <v>41.5153</v>
+        <v>40.9749</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9399</v>
+        <v>22.0993</v>
       </c>
       <c r="C11" t="n">
-        <v>32.9214</v>
+        <v>22.7522</v>
       </c>
       <c r="D11" t="n">
-        <v>41.1909</v>
+        <v>40.2317</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.3787</v>
+        <v>23.3296</v>
       </c>
       <c r="C12" t="n">
-        <v>32.7491</v>
+        <v>23.4111</v>
       </c>
       <c r="D12" t="n">
-        <v>41.3073</v>
+        <v>40.6291</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1222</v>
+        <v>24.3388</v>
       </c>
       <c r="C13" t="n">
-        <v>34.9529</v>
+        <v>24.4104</v>
       </c>
       <c r="D13" t="n">
-        <v>42.6267</v>
+        <v>42.7071</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.745</v>
+        <v>23.5091</v>
       </c>
       <c r="C14" t="n">
-        <v>33.9253</v>
+        <v>24.2377</v>
       </c>
       <c r="D14" t="n">
-        <v>40.1288</v>
+        <v>41.9157</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1681</v>
+        <v>23.8322</v>
       </c>
       <c r="C15" t="n">
-        <v>33.7402</v>
+        <v>24.5525</v>
       </c>
       <c r="D15" t="n">
-        <v>40.2254</v>
+        <v>40.5169</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3844</v>
+        <v>24.0488</v>
       </c>
       <c r="C16" t="n">
-        <v>33.648</v>
+        <v>24.915</v>
       </c>
       <c r="D16" t="n">
-        <v>41.22</v>
+        <v>39.7897</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8955</v>
+        <v>23.4808</v>
       </c>
       <c r="C17" t="n">
-        <v>33.492</v>
+        <v>25.3376</v>
       </c>
       <c r="D17" t="n">
-        <v>40.5605</v>
+        <v>40.0413</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.37514</v>
+        <v>6.40883</v>
       </c>
       <c r="C2" t="n">
-        <v>7.08873</v>
+        <v>6.53889</v>
       </c>
       <c r="D2" t="n">
-        <v>7.84167</v>
+        <v>7.81908</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.02793</v>
+        <v>7.23303</v>
       </c>
       <c r="C3" t="n">
-        <v>9.960000000000001</v>
+        <v>7.49775</v>
       </c>
       <c r="D3" t="n">
-        <v>11.601</v>
+        <v>11.6496</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.858040000000001</v>
+        <v>9.31836</v>
       </c>
       <c r="C4" t="n">
-        <v>13.7353</v>
+        <v>9.835459999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4825</v>
+        <v>16.4405</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5555</v>
+        <v>11.3395</v>
       </c>
       <c r="C5" t="n">
-        <v>17.5267</v>
+        <v>12.1118</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0193</v>
+        <v>21.0157</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5092</v>
+        <v>13.5972</v>
       </c>
       <c r="C6" t="n">
-        <v>21.3888</v>
+        <v>14.5068</v>
       </c>
       <c r="D6" t="n">
-        <v>25.8381</v>
+        <v>25.7875</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.3052</v>
+        <v>15.8776</v>
       </c>
       <c r="C7" t="n">
-        <v>25.0613</v>
+        <v>16.8989</v>
       </c>
       <c r="D7" t="n">
-        <v>30.1691</v>
+        <v>30.1967</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0114</v>
+        <v>18.1081</v>
       </c>
       <c r="C8" t="n">
-        <v>28.4535</v>
+        <v>19.2675</v>
       </c>
       <c r="D8" t="n">
-        <v>34.4762</v>
+        <v>34.5022</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.166</v>
+        <v>21.0661</v>
       </c>
       <c r="C9" t="n">
-        <v>32.586</v>
+        <v>22.0768</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9075</v>
+        <v>39.5638</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.0564</v>
+        <v>18.1569</v>
       </c>
       <c r="C10" t="n">
-        <v>27.4506</v>
+        <v>18.8674</v>
       </c>
       <c r="D10" t="n">
-        <v>32.5537</v>
+        <v>32.3202</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0138</v>
+        <v>17.8664</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0879</v>
+        <v>19.0022</v>
       </c>
       <c r="D11" t="n">
-        <v>33.0309</v>
+        <v>32.0456</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4942</v>
+        <v>18.578</v>
       </c>
       <c r="C12" t="n">
-        <v>28.1382</v>
+        <v>20.0366</v>
       </c>
       <c r="D12" t="n">
-        <v>33.8928</v>
+        <v>33.7114</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1994</v>
+        <v>19.8828</v>
       </c>
       <c r="C13" t="n">
-        <v>29.9992</v>
+        <v>19.964</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2415</v>
+        <v>34.358</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.0082</v>
+        <v>19.1361</v>
       </c>
       <c r="C14" t="n">
-        <v>28.8581</v>
+        <v>20.1971</v>
       </c>
       <c r="D14" t="n">
-        <v>31.9589</v>
+        <v>33.2046</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8652</v>
+        <v>19.1339</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7325</v>
+        <v>20.586</v>
       </c>
       <c r="D15" t="n">
-        <v>32.3591</v>
+        <v>31.932</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3903</v>
+        <v>19.4372</v>
       </c>
       <c r="C16" t="n">
-        <v>28.6885</v>
+        <v>20.9796</v>
       </c>
       <c r="D16" t="n">
-        <v>31.6588</v>
+        <v>33.2523</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.82</v>
+        <v>20.1645</v>
       </c>
       <c r="C17" t="n">
-        <v>29.0751</v>
+        <v>21.6775</v>
       </c>
       <c r="D17" t="n">
-        <v>32.242</v>
+        <v>32.4534</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.98559</v>
+        <v>3.02069</v>
       </c>
       <c r="C2" t="n">
-        <v>4.74965</v>
+        <v>4.96636</v>
       </c>
       <c r="D2" t="n">
-        <v>6.20706</v>
+        <v>6.20593</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.8132</v>
+        <v>5.08268</v>
       </c>
       <c r="C3" t="n">
-        <v>7.87976</v>
+        <v>6.62654</v>
       </c>
       <c r="D3" t="n">
-        <v>10.4534</v>
+        <v>10.5051</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.53727</v>
+        <v>7.29775</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0561</v>
+        <v>8.709949999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>14.8859</v>
+        <v>14.8361</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.138529999999999</v>
+        <v>9.306419999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0333</v>
+        <v>10.8596</v>
       </c>
       <c r="D5" t="n">
-        <v>19.039</v>
+        <v>19.0477</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.72752</v>
+        <v>11.5289</v>
       </c>
       <c r="C6" t="n">
-        <v>16.963</v>
+        <v>13.0482</v>
       </c>
       <c r="D6" t="n">
-        <v>23.229</v>
+        <v>23.2372</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1407</v>
+        <v>13.7257</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7226</v>
+        <v>15.298</v>
       </c>
       <c r="D7" t="n">
-        <v>27.331</v>
+        <v>27.3441</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5618</v>
+        <v>15.6867</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6704</v>
+        <v>17.6745</v>
       </c>
       <c r="D8" t="n">
-        <v>31.3107</v>
+        <v>31.3183</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8275</v>
+        <v>18.2885</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8028</v>
+        <v>20.8335</v>
       </c>
       <c r="D9" t="n">
-        <v>35.8816</v>
+        <v>35.8996</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0546</v>
+        <v>17.3437</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9403</v>
+        <v>19.1631</v>
       </c>
       <c r="D10" t="n">
-        <v>33.0456</v>
+        <v>32.9695</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.9017</v>
+        <v>17.1276</v>
       </c>
       <c r="C11" t="n">
-        <v>24.5906</v>
+        <v>19.2218</v>
       </c>
       <c r="D11" t="n">
-        <v>32.5883</v>
+        <v>32.6389</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1628</v>
+        <v>17.2719</v>
       </c>
       <c r="C12" t="n">
-        <v>25.0306</v>
+        <v>19.2042</v>
       </c>
       <c r="D12" t="n">
-        <v>32.5149</v>
+        <v>33.0313</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.431</v>
+        <v>17.9302</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8338</v>
+        <v>19.6188</v>
       </c>
       <c r="D13" t="n">
-        <v>33.5415</v>
+        <v>33.6591</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8919</v>
+        <v>17.1775</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2522</v>
+        <v>19.6033</v>
       </c>
       <c r="D14" t="n">
-        <v>32.2081</v>
+        <v>32.3305</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5554</v>
+        <v>17.9473</v>
       </c>
       <c r="C15" t="n">
-        <v>24.8794</v>
+        <v>19.7469</v>
       </c>
       <c r="D15" t="n">
-        <v>32.8235</v>
+        <v>32.1415</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4044</v>
+        <v>17.8627</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7559</v>
+        <v>19.9201</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3547</v>
+        <v>31.941</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3883</v>
+        <v>17.8489</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8239</v>
+        <v>20.0786</v>
       </c>
       <c r="D17" t="n">
-        <v>32.5968</v>
+        <v>32.6096</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94722</v>
+        <v>3.97888</v>
       </c>
       <c r="C2" t="n">
-        <v>8.7818</v>
+        <v>8.22143</v>
       </c>
       <c r="D2" t="n">
-        <v>10.5915</v>
+        <v>10.6055</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.09396</v>
+        <v>6.30174</v>
       </c>
       <c r="C3" t="n">
-        <v>12.7633</v>
+        <v>8.797420000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>16.01</v>
+        <v>15.8928</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.13504</v>
+        <v>8.83464</v>
       </c>
       <c r="C4" t="n">
-        <v>16.9969</v>
+        <v>11.2634</v>
       </c>
       <c r="D4" t="n">
-        <v>21.8415</v>
+        <v>21.8986</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0432</v>
+        <v>11.38</v>
       </c>
       <c r="C5" t="n">
-        <v>21.0526</v>
+        <v>13.7194</v>
       </c>
       <c r="D5" t="n">
-        <v>27.35</v>
+        <v>27.4215</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9432</v>
+        <v>13.8048</v>
       </c>
       <c r="C6" t="n">
-        <v>25.0001</v>
+        <v>16.3341</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0658</v>
+        <v>33.0936</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6909</v>
+        <v>16.3793</v>
       </c>
       <c r="C7" t="n">
-        <v>29.0599</v>
+        <v>19.0365</v>
       </c>
       <c r="D7" t="n">
-        <v>38.6532</v>
+        <v>38.7566</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4812</v>
+        <v>18.7303</v>
       </c>
       <c r="C8" t="n">
-        <v>33.3685</v>
+        <v>22.0832</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1044</v>
+        <v>44.0664</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0839</v>
+        <v>21.9715</v>
       </c>
       <c r="C9" t="n">
-        <v>39.3575</v>
+        <v>25.8573</v>
       </c>
       <c r="D9" t="n">
-        <v>50.4422</v>
+        <v>50.6264</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3872</v>
+        <v>20.5715</v>
       </c>
       <c r="C10" t="n">
-        <v>36.0651</v>
+        <v>23.7264</v>
       </c>
       <c r="D10" t="n">
-        <v>45.7712</v>
+        <v>45.6921</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0387</v>
+        <v>20.3721</v>
       </c>
       <c r="C11" t="n">
-        <v>35.5099</v>
+        <v>24.0184</v>
       </c>
       <c r="D11" t="n">
-        <v>45.6756</v>
+        <v>44.943</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2803</v>
+        <v>20.9622</v>
       </c>
       <c r="C12" t="n">
-        <v>36.4208</v>
+        <v>23.9279</v>
       </c>
       <c r="D12" t="n">
-        <v>44.7532</v>
+        <v>45.5481</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5853</v>
+        <v>21.4086</v>
       </c>
       <c r="C13" t="n">
-        <v>36.8712</v>
+        <v>24.1988</v>
       </c>
       <c r="D13" t="n">
-        <v>46.0356</v>
+        <v>45.3016</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9052</v>
+        <v>20.5123</v>
       </c>
       <c r="C14" t="n">
-        <v>35.1576</v>
+        <v>24.2547</v>
       </c>
       <c r="D14" t="n">
-        <v>44.2612</v>
+        <v>44.0343</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6065</v>
+        <v>21.4611</v>
       </c>
       <c r="C15" t="n">
-        <v>35.1634</v>
+        <v>24.5249</v>
       </c>
       <c r="D15" t="n">
-        <v>44.1993</v>
+        <v>44.6184</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.593</v>
+        <v>21.597</v>
       </c>
       <c r="C16" t="n">
-        <v>35.0089</v>
+        <v>24.7364</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5487</v>
+        <v>42.9413</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.3722</v>
+        <v>21.1823</v>
       </c>
       <c r="C17" t="n">
-        <v>34.1145</v>
+        <v>24.9722</v>
       </c>
       <c r="D17" t="n">
-        <v>42.8603</v>
+        <v>43.4585</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="F27" sqref="F27"/>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.23297</v>
+        <v>5.26267</v>
       </c>
       <c r="C2" t="n">
-        <v>6.69809</v>
+        <v>6.29689</v>
       </c>
       <c r="D2" t="n">
-        <v>7.61674</v>
+        <v>7.59874</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.68681</v>
+        <v>6.75366</v>
       </c>
       <c r="C3" t="n">
-        <v>9.891220000000001</v>
+        <v>7.41317</v>
       </c>
       <c r="D3" t="n">
-        <v>11.8138</v>
+        <v>11.7599</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.679080000000001</v>
+        <v>9.04419</v>
       </c>
       <c r="C4" t="n">
-        <v>13.6132</v>
+        <v>9.66775</v>
       </c>
       <c r="D4" t="n">
-        <v>16.7705</v>
+        <v>16.6658</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.49</v>
+        <v>11.2472</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3507</v>
+        <v>11.9168</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4889</v>
+        <v>21.4763</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3565</v>
+        <v>13.4242</v>
       </c>
       <c r="C6" t="n">
-        <v>21.1091</v>
+        <v>14.2705</v>
       </c>
       <c r="D6" t="n">
-        <v>26.3407</v>
+        <v>26.3302</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1734</v>
+        <v>15.6507</v>
       </c>
       <c r="C7" t="n">
-        <v>24.8114</v>
+        <v>16.6162</v>
       </c>
       <c r="D7" t="n">
-        <v>31.048</v>
+        <v>30.9764</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0834</v>
+        <v>18.1214</v>
       </c>
       <c r="C8" t="n">
-        <v>28.6602</v>
+        <v>19.1794</v>
       </c>
       <c r="D8" t="n">
-        <v>35.8267</v>
+        <v>35.7752</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5574</v>
+        <v>21.3677</v>
       </c>
       <c r="C9" t="n">
-        <v>33.3657</v>
+        <v>22.083</v>
       </c>
       <c r="D9" t="n">
-        <v>41.3536</v>
+        <v>41.2387</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7718</v>
+        <v>20.3299</v>
       </c>
       <c r="C10" t="n">
-        <v>31.0419</v>
+        <v>20.7764</v>
       </c>
       <c r="D10" t="n">
-        <v>37.6933</v>
+        <v>37.8754</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7429</v>
+        <v>19.9646</v>
       </c>
       <c r="C11" t="n">
-        <v>30.6951</v>
+        <v>20.4826</v>
       </c>
       <c r="D11" t="n">
-        <v>37.1729</v>
+        <v>36.8891</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7626</v>
+        <v>20.0716</v>
       </c>
       <c r="C12" t="n">
-        <v>30.7632</v>
+        <v>20.6749</v>
       </c>
       <c r="D12" t="n">
-        <v>37.4567</v>
+        <v>38.3346</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.0063</v>
+        <v>20.4509</v>
       </c>
       <c r="C13" t="n">
-        <v>31.5519</v>
+        <v>20.9999</v>
       </c>
       <c r="D13" t="n">
-        <v>38.8469</v>
+        <v>38.0797</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.412</v>
+        <v>19.7546</v>
       </c>
       <c r="C14" t="n">
-        <v>30.1083</v>
+        <v>21.0316</v>
       </c>
       <c r="D14" t="n">
-        <v>37.3269</v>
+        <v>37.1512</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0635</v>
+        <v>20.674</v>
       </c>
       <c r="C15" t="n">
-        <v>31.2754</v>
+        <v>21.2198</v>
       </c>
       <c r="D15" t="n">
-        <v>37.5235</v>
+        <v>37.7077</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9459</v>
+        <v>20.5645</v>
       </c>
       <c r="C16" t="n">
-        <v>31.3227</v>
+        <v>21.4678</v>
       </c>
       <c r="D16" t="n">
-        <v>37.4277</v>
+        <v>37.7126</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8819</v>
+        <v>20.52</v>
       </c>
       <c r="C17" t="n">
-        <v>31.0313</v>
+        <v>21.7524</v>
       </c>
       <c r="D17" t="n">
-        <v>36.9375</v>
+        <v>37.9445</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.8155</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.9806</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.2169</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.1888</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>30.3287</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.0105</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.9483</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.5799</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.6174</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.6067</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.923</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.1742</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>37.5687</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.547</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.5465</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7523</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -278,7 +278,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.0237</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.5483</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7479</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.4058</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.3727</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.4698</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.0389</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.9232</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.4942</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0776</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.1283</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2963</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.9511</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.9614</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.9461</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>36.1476</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -424,7 +424,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.3402</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>30.0421</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.4251</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>45.4028</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.8164</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.9466</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.5062</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.9299</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.7653</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>40.7763</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.2757</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.4834</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3856</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.812</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.5151</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.17</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.3115</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>21.3377</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.9759</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>36.9453</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.0078</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.567</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.0236</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7934</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1537</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>41.2269</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.044</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.2941</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4397</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.4343</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.9971</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2668</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -856,7 +974,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8756</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.3022</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7141</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>32.7353</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.4842</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.8729</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.3784</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.8949</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.2611</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.1615</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.6816</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.4094</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.4607</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.6837</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>35.4533</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1002,7 +1120,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.2281</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>29.3131</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0279</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>43.3401</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.9461</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.324</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3256</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.357</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>42.9263</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>44.4764</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.4995</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>38.8887</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.0915</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>53.1451</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.3253</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.6415</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.38</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.6113</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.9767</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>34.9982</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>31.855</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.9548</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.3225</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.5931</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.1243</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.0461</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.6745</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.6163</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.7882</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.093</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.0737</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.2469</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1434,7 +1670,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.6187</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.3232</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0667</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.0206</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.439</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>33.6879</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.8504</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>32.7418</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.4355</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.636</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.676</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.8253</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4019</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.7958</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7958</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>31.9247</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1580,7 +1816,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>19.4058</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>28.4519</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.4547</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>51.6131</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.8486</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.9607</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.7581</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>35.3177</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.5044</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.2708</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.9998</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.7806</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.4542</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>40.6207</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.0763</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>47.8814</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.80876</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.074</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7496</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.5411</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.8405</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.3267</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.6785</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.1948</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.5386</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.7248</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7471</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.862</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.8593</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.8689</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.765</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7869</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2012,7 +2366,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6049</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.5666</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.408</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.1723</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>35.6446</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.8439</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6128</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.0986</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.8964</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.4847</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.5297</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.2206</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>43.8155</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>43.8653</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>43.6721</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.1658</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2158,7 +2512,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.5764</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.8358</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>45.2819</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>59.1192</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>54.0172</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>54.4127</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>50.4742</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>51.9251</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.902</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>56.1517</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.5848</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>58.5013</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.9038</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>60.0247</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7863</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.8409</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.7868</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.0767</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.7009</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>27.0746</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.6125</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.971</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.3573</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8574</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.0887</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.2369</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2309</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1931</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.1652</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.2482</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.2526</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2590,7 +3062,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6582</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.6945</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.5816</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.5794</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.116</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.2347</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.8983</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.4908</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.6198</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>43.3567</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.8296</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.0611</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>44.0334</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.3743</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.3181</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.2489</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2736,7 +3208,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.2903</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.3309</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>44.6355</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>58.5385</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>53.488</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>53.6234</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>49.8641</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>52.2535</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>52.3654</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.1198</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.0094</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.4396</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.1217</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>59.5574</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7426</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.2745</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.4883</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.1754</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.4118</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>38.4961</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.4254</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>41.5705</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>43.5271</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>45.6261</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>45.7379</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.3791</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.8115</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.6403</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.7812</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.4357</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>45.5424</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>45.8045</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3168,7 +3758,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.5867</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>27.3727</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>37.9749</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>48.9446</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>41.8231</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.5591</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>40.3313</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.9787</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>43.3113</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.4197</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.7413</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.7938</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.9366</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0147</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.0135</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.1628</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3314,7 +3904,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>20.0769</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>37.848</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>53.4698</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>70.1417</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.037</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>59.6639</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>51.8797</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>54.1691</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.4956</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>54.8678</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>54.8131</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.006</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.6955</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.2771</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>58.3954</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.4764</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4073,10 +4781,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4093,6 +4806,9 @@
         <v>5.58272</v>
       </c>
       <c r="D2" t="n">
+        <v>5.86464</v>
+      </c>
+      <c r="E2" t="n">
         <v>6.91851</v>
       </c>
     </row>
@@ -4107,6 +4823,9 @@
         <v>6.71969</v>
       </c>
       <c r="D3" t="n">
+        <v>8.76623</v>
+      </c>
+      <c r="E3" t="n">
         <v>10.5942</v>
       </c>
     </row>
@@ -4121,6 +4840,9 @@
         <v>8.80294</v>
       </c>
       <c r="D4" t="n">
+        <v>12.0495</v>
+      </c>
+      <c r="E4" t="n">
         <v>14.9595</v>
       </c>
     </row>
@@ -4135,6 +4857,9 @@
         <v>11.0299</v>
       </c>
       <c r="D5" t="n">
+        <v>15.1526</v>
+      </c>
+      <c r="E5" t="n">
         <v>19.1106</v>
       </c>
     </row>
@@ -4149,6 +4874,9 @@
         <v>13.3476</v>
       </c>
       <c r="D6" t="n">
+        <v>18.2099</v>
+      </c>
+      <c r="E6" t="n">
         <v>23.2341</v>
       </c>
     </row>
@@ -4163,6 +4891,9 @@
         <v>15.7759</v>
       </c>
       <c r="D7" t="n">
+        <v>21.2016</v>
+      </c>
+      <c r="E7" t="n">
         <v>27.0558</v>
       </c>
     </row>
@@ -4177,6 +4908,9 @@
         <v>18.2316</v>
       </c>
       <c r="D8" t="n">
+        <v>23.8769</v>
+      </c>
+      <c r="E8" t="n">
         <v>30.9926</v>
       </c>
     </row>
@@ -4191,6 +4925,9 @@
         <v>21.1278</v>
       </c>
       <c r="D9" t="n">
+        <v>28.1462</v>
+      </c>
+      <c r="E9" t="n">
         <v>34.877</v>
       </c>
     </row>
@@ -4205,6 +4942,9 @@
         <v>17.7394</v>
       </c>
       <c r="D10" t="n">
+        <v>22.6534</v>
+      </c>
+      <c r="E10" t="n">
         <v>28.2158</v>
       </c>
     </row>
@@ -4219,6 +4959,9 @@
         <v>17.6085</v>
       </c>
       <c r="D11" t="n">
+        <v>23.0955</v>
+      </c>
+      <c r="E11" t="n">
         <v>28.7723</v>
       </c>
     </row>
@@ -4233,6 +4976,9 @@
         <v>18.6145</v>
       </c>
       <c r="D12" t="n">
+        <v>24.3963</v>
+      </c>
+      <c r="E12" t="n">
         <v>29.3732</v>
       </c>
     </row>
@@ -4247,6 +4993,9 @@
         <v>19.2349</v>
       </c>
       <c r="D13" t="n">
+        <v>25.5225</v>
+      </c>
+      <c r="E13" t="n">
         <v>30.9278</v>
       </c>
     </row>
@@ -4261,6 +5010,9 @@
         <v>19.0892</v>
       </c>
       <c r="D14" t="n">
+        <v>24.3933</v>
+      </c>
+      <c r="E14" t="n">
         <v>29.0723</v>
       </c>
     </row>
@@ -4275,6 +5027,9 @@
         <v>19.6316</v>
       </c>
       <c r="D15" t="n">
+        <v>24.5874</v>
+      </c>
+      <c r="E15" t="n">
         <v>29.7905</v>
       </c>
     </row>
@@ -4289,6 +5044,9 @@
         <v>19.9004</v>
       </c>
       <c r="D16" t="n">
+        <v>24.8141</v>
+      </c>
+      <c r="E16" t="n">
         <v>30.6334</v>
       </c>
     </row>
@@ -4303,6 +5061,9 @@
         <v>20.167</v>
       </c>
       <c r="D17" t="n">
+        <v>25.3471</v>
+      </c>
+      <c r="E17" t="n">
         <v>30.6909</v>
       </c>
     </row>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4337,10 +5098,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4357,6 +5123,9 @@
         <v>9.96468</v>
       </c>
       <c r="D2" t="n">
+        <v>11.254</v>
+      </c>
+      <c r="E2" t="n">
         <v>12.6481</v>
       </c>
     </row>
@@ -4371,6 +5140,9 @@
         <v>9.250450000000001</v>
       </c>
       <c r="D3" t="n">
+        <v>13.4275</v>
+      </c>
+      <c r="E3" t="n">
         <v>16.1336</v>
       </c>
     </row>
@@ -4385,6 +5157,9 @@
         <v>11.4769</v>
       </c>
       <c r="D4" t="n">
+        <v>17.6784</v>
+      </c>
+      <c r="E4" t="n">
         <v>21.961</v>
       </c>
     </row>
@@ -4399,6 +5174,9 @@
         <v>14.1421</v>
       </c>
       <c r="D5" t="n">
+        <v>21.7077</v>
+      </c>
+      <c r="E5" t="n">
         <v>27.5228</v>
       </c>
     </row>
@@ -4413,6 +5191,9 @@
         <v>16.8999</v>
       </c>
       <c r="D6" t="n">
+        <v>25.5005</v>
+      </c>
+      <c r="E6" t="n">
         <v>32.8908</v>
       </c>
     </row>
@@ -4427,6 +5208,9 @@
         <v>20.0952</v>
       </c>
       <c r="D7" t="n">
+        <v>29.3826</v>
+      </c>
+      <c r="E7" t="n">
         <v>38.0194</v>
       </c>
     </row>
@@ -4441,6 +5225,9 @@
         <v>22.9391</v>
       </c>
       <c r="D8" t="n">
+        <v>33.2534</v>
+      </c>
+      <c r="E8" t="n">
         <v>43.1702</v>
       </c>
     </row>
@@ -4455,6 +5242,9 @@
         <v>26.588</v>
       </c>
       <c r="D9" t="n">
+        <v>38.5702</v>
+      </c>
+      <c r="E9" t="n">
         <v>48.2876</v>
       </c>
     </row>
@@ -4469,6 +5259,9 @@
         <v>23.6678</v>
       </c>
       <c r="D10" t="n">
+        <v>34.0336</v>
+      </c>
+      <c r="E10" t="n">
         <v>40.9749</v>
       </c>
     </row>
@@ -4483,6 +5276,9 @@
         <v>22.7522</v>
       </c>
       <c r="D11" t="n">
+        <v>32.9963</v>
+      </c>
+      <c r="E11" t="n">
         <v>40.2317</v>
       </c>
     </row>
@@ -4497,6 +5293,9 @@
         <v>23.4111</v>
       </c>
       <c r="D12" t="n">
+        <v>33.3677</v>
+      </c>
+      <c r="E12" t="n">
         <v>40.6291</v>
       </c>
     </row>
@@ -4511,6 +5310,9 @@
         <v>24.4104</v>
       </c>
       <c r="D13" t="n">
+        <v>34.431</v>
+      </c>
+      <c r="E13" t="n">
         <v>42.7071</v>
       </c>
     </row>
@@ -4525,6 +5327,9 @@
         <v>24.2377</v>
       </c>
       <c r="D14" t="n">
+        <v>34.0838</v>
+      </c>
+      <c r="E14" t="n">
         <v>41.9157</v>
       </c>
     </row>
@@ -4539,6 +5344,9 @@
         <v>24.5525</v>
       </c>
       <c r="D15" t="n">
+        <v>33.161</v>
+      </c>
+      <c r="E15" t="n">
         <v>40.5169</v>
       </c>
     </row>
@@ -4553,6 +5361,9 @@
         <v>24.915</v>
       </c>
       <c r="D16" t="n">
+        <v>33.5014</v>
+      </c>
+      <c r="E16" t="n">
         <v>39.7897</v>
       </c>
     </row>
@@ -4567,6 +5378,9 @@
         <v>25.3376</v>
       </c>
       <c r="D17" t="n">
+        <v>34.4561</v>
+      </c>
+      <c r="E17" t="n">
         <v>40.0413</v>
       </c>
     </row>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4601,10 +5415,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4621,6 +5440,9 @@
         <v>6.53889</v>
       </c>
       <c r="D2" t="n">
+        <v>7.08957</v>
+      </c>
+      <c r="E2" t="n">
         <v>7.81908</v>
       </c>
     </row>
@@ -4635,6 +5457,9 @@
         <v>7.49775</v>
       </c>
       <c r="D3" t="n">
+        <v>10.0566</v>
+      </c>
+      <c r="E3" t="n">
         <v>11.6496</v>
       </c>
     </row>
@@ -4649,6 +5474,9 @@
         <v>9.835459999999999</v>
       </c>
       <c r="D4" t="n">
+        <v>13.8995</v>
+      </c>
+      <c r="E4" t="n">
         <v>16.4405</v>
       </c>
     </row>
@@ -4663,6 +5491,9 @@
         <v>12.1118</v>
       </c>
       <c r="D5" t="n">
+        <v>17.694</v>
+      </c>
+      <c r="E5" t="n">
         <v>21.0157</v>
       </c>
     </row>
@@ -4677,6 +5508,9 @@
         <v>14.5068</v>
       </c>
       <c r="D6" t="n">
+        <v>21.4766</v>
+      </c>
+      <c r="E6" t="n">
         <v>25.7875</v>
       </c>
     </row>
@@ -4691,6 +5525,9 @@
         <v>16.8989</v>
       </c>
       <c r="D7" t="n">
+        <v>25.297</v>
+      </c>
+      <c r="E7" t="n">
         <v>30.1967</v>
       </c>
     </row>
@@ -4705,6 +5542,9 @@
         <v>19.2675</v>
       </c>
       <c r="D8" t="n">
+        <v>28.6398</v>
+      </c>
+      <c r="E8" t="n">
         <v>34.5022</v>
       </c>
     </row>
@@ -4719,6 +5559,9 @@
         <v>22.0768</v>
       </c>
       <c r="D9" t="n">
+        <v>33.0451</v>
+      </c>
+      <c r="E9" t="n">
         <v>39.5638</v>
       </c>
     </row>
@@ -4733,6 +5576,9 @@
         <v>18.8674</v>
       </c>
       <c r="D10" t="n">
+        <v>27.6314</v>
+      </c>
+      <c r="E10" t="n">
         <v>32.3202</v>
       </c>
     </row>
@@ -4747,6 +5593,9 @@
         <v>19.0022</v>
       </c>
       <c r="D11" t="n">
+        <v>27.6276</v>
+      </c>
+      <c r="E11" t="n">
         <v>32.0456</v>
       </c>
     </row>
@@ -4761,6 +5610,9 @@
         <v>20.0366</v>
       </c>
       <c r="D12" t="n">
+        <v>29.1182</v>
+      </c>
+      <c r="E12" t="n">
         <v>33.7114</v>
       </c>
     </row>
@@ -4775,6 +5627,9 @@
         <v>19.964</v>
       </c>
       <c r="D13" t="n">
+        <v>29.5308</v>
+      </c>
+      <c r="E13" t="n">
         <v>34.358</v>
       </c>
     </row>
@@ -4789,6 +5644,9 @@
         <v>20.1971</v>
       </c>
       <c r="D14" t="n">
+        <v>28.6944</v>
+      </c>
+      <c r="E14" t="n">
         <v>33.2046</v>
       </c>
     </row>
@@ -4803,6 +5661,9 @@
         <v>20.586</v>
       </c>
       <c r="D15" t="n">
+        <v>28.5985</v>
+      </c>
+      <c r="E15" t="n">
         <v>31.932</v>
       </c>
     </row>
@@ -4817,6 +5678,9 @@
         <v>20.9796</v>
       </c>
       <c r="D16" t="n">
+        <v>29.4626</v>
+      </c>
+      <c r="E16" t="n">
         <v>33.2523</v>
       </c>
     </row>
@@ -4831,6 +5695,9 @@
         <v>21.6775</v>
       </c>
       <c r="D17" t="n">
+        <v>28.9988</v>
+      </c>
+      <c r="E17" t="n">
         <v>32.4534</v>
       </c>
     </row>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,10 +5732,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4885,6 +5757,9 @@
         <v>4.96636</v>
       </c>
       <c r="D2" t="n">
+        <v>5.08327</v>
+      </c>
+      <c r="E2" t="n">
         <v>6.20593</v>
       </c>
     </row>
@@ -4899,6 +5774,9 @@
         <v>6.62654</v>
       </c>
       <c r="D3" t="n">
+        <v>8.34463</v>
+      </c>
+      <c r="E3" t="n">
         <v>10.5051</v>
       </c>
     </row>
@@ -4913,6 +5791,9 @@
         <v>8.709949999999999</v>
       </c>
       <c r="D4" t="n">
+        <v>11.6226</v>
+      </c>
+      <c r="E4" t="n">
         <v>14.8361</v>
       </c>
     </row>
@@ -4927,6 +5808,9 @@
         <v>10.8596</v>
       </c>
       <c r="D5" t="n">
+        <v>14.7429</v>
+      </c>
+      <c r="E5" t="n">
         <v>19.0477</v>
       </c>
     </row>
@@ -4941,6 +5825,9 @@
         <v>13.0482</v>
       </c>
       <c r="D6" t="n">
+        <v>17.7762</v>
+      </c>
+      <c r="E6" t="n">
         <v>23.2372</v>
       </c>
     </row>
@@ -4955,6 +5842,9 @@
         <v>15.298</v>
       </c>
       <c r="D7" t="n">
+        <v>20.6752</v>
+      </c>
+      <c r="E7" t="n">
         <v>27.3441</v>
       </c>
     </row>
@@ -4969,6 +5859,9 @@
         <v>17.6745</v>
       </c>
       <c r="D8" t="n">
+        <v>23.6828</v>
+      </c>
+      <c r="E8" t="n">
         <v>31.3183</v>
       </c>
     </row>
@@ -4983,6 +5876,9 @@
         <v>20.8335</v>
       </c>
       <c r="D9" t="n">
+        <v>28.1369</v>
+      </c>
+      <c r="E9" t="n">
         <v>35.8996</v>
       </c>
     </row>
@@ -4997,6 +5893,9 @@
         <v>19.1631</v>
       </c>
       <c r="D10" t="n">
+        <v>25.8977</v>
+      </c>
+      <c r="E10" t="n">
         <v>32.9695</v>
       </c>
     </row>
@@ -5011,6 +5910,9 @@
         <v>19.2218</v>
       </c>
       <c r="D11" t="n">
+        <v>26.1208</v>
+      </c>
+      <c r="E11" t="n">
         <v>32.6389</v>
       </c>
     </row>
@@ -5025,6 +5927,9 @@
         <v>19.2042</v>
       </c>
       <c r="D12" t="n">
+        <v>25.8477</v>
+      </c>
+      <c r="E12" t="n">
         <v>33.0313</v>
       </c>
     </row>
@@ -5039,6 +5944,9 @@
         <v>19.6188</v>
       </c>
       <c r="D13" t="n">
+        <v>26.3107</v>
+      </c>
+      <c r="E13" t="n">
         <v>33.6591</v>
       </c>
     </row>
@@ -5053,6 +5961,9 @@
         <v>19.6033</v>
       </c>
       <c r="D14" t="n">
+        <v>25.2111</v>
+      </c>
+      <c r="E14" t="n">
         <v>32.3305</v>
       </c>
     </row>
@@ -5067,6 +5978,9 @@
         <v>19.7469</v>
       </c>
       <c r="D15" t="n">
+        <v>26.1804</v>
+      </c>
+      <c r="E15" t="n">
         <v>32.1415</v>
       </c>
     </row>
@@ -5081,6 +5995,9 @@
         <v>19.9201</v>
       </c>
       <c r="D16" t="n">
+        <v>25.874</v>
+      </c>
+      <c r="E16" t="n">
         <v>31.941</v>
       </c>
     </row>
@@ -5095,6 +6012,9 @@
         <v>20.0786</v>
       </c>
       <c r="D17" t="n">
+        <v>25.9394</v>
+      </c>
+      <c r="E17" t="n">
         <v>32.6096</v>
       </c>
     </row>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5129,10 +6049,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5149,6 +6074,9 @@
         <v>8.22143</v>
       </c>
       <c r="D2" t="n">
+        <v>8.778180000000001</v>
+      </c>
+      <c r="E2" t="n">
         <v>10.6055</v>
       </c>
     </row>
@@ -5163,6 +6091,9 @@
         <v>8.797420000000001</v>
       </c>
       <c r="D3" t="n">
+        <v>12.6574</v>
+      </c>
+      <c r="E3" t="n">
         <v>15.8928</v>
       </c>
     </row>
@@ -5177,6 +6108,9 @@
         <v>11.2634</v>
       </c>
       <c r="D4" t="n">
+        <v>17.0415</v>
+      </c>
+      <c r="E4" t="n">
         <v>21.8986</v>
       </c>
     </row>
@@ -5191,6 +6125,9 @@
         <v>13.7194</v>
       </c>
       <c r="D5" t="n">
+        <v>21.0759</v>
+      </c>
+      <c r="E5" t="n">
         <v>27.4215</v>
       </c>
     </row>
@@ -5205,6 +6142,9 @@
         <v>16.3341</v>
       </c>
       <c r="D6" t="n">
+        <v>25.0631</v>
+      </c>
+      <c r="E6" t="n">
         <v>33.0936</v>
       </c>
     </row>
@@ -5219,6 +6159,9 @@
         <v>19.0365</v>
       </c>
       <c r="D7" t="n">
+        <v>28.8921</v>
+      </c>
+      <c r="E7" t="n">
         <v>38.7566</v>
       </c>
     </row>
@@ -5233,6 +6176,9 @@
         <v>22.0832</v>
       </c>
       <c r="D8" t="n">
+        <v>33.1676</v>
+      </c>
+      <c r="E8" t="n">
         <v>44.0664</v>
       </c>
     </row>
@@ -5247,6 +6193,9 @@
         <v>25.8573</v>
       </c>
       <c r="D9" t="n">
+        <v>39.2885</v>
+      </c>
+      <c r="E9" t="n">
         <v>50.6264</v>
       </c>
     </row>
@@ -5261,6 +6210,9 @@
         <v>23.7264</v>
       </c>
       <c r="D10" t="n">
+        <v>36.3761</v>
+      </c>
+      <c r="E10" t="n">
         <v>45.6921</v>
       </c>
     </row>
@@ -5275,6 +6227,9 @@
         <v>24.0184</v>
       </c>
       <c r="D11" t="n">
+        <v>36.2526</v>
+      </c>
+      <c r="E11" t="n">
         <v>44.943</v>
       </c>
     </row>
@@ -5289,6 +6244,9 @@
         <v>23.9279</v>
       </c>
       <c r="D12" t="n">
+        <v>35.9311</v>
+      </c>
+      <c r="E12" t="n">
         <v>45.5481</v>
       </c>
     </row>
@@ -5303,6 +6261,9 @@
         <v>24.1988</v>
       </c>
       <c r="D13" t="n">
+        <v>35.7219</v>
+      </c>
+      <c r="E13" t="n">
         <v>45.3016</v>
       </c>
     </row>
@@ -5317,6 +6278,9 @@
         <v>24.2547</v>
       </c>
       <c r="D14" t="n">
+        <v>35.8211</v>
+      </c>
+      <c r="E14" t="n">
         <v>44.0343</v>
       </c>
     </row>
@@ -5331,6 +6295,9 @@
         <v>24.5249</v>
       </c>
       <c r="D15" t="n">
+        <v>35.2146</v>
+      </c>
+      <c r="E15" t="n">
         <v>44.6184</v>
       </c>
     </row>
@@ -5345,6 +6312,9 @@
         <v>24.7364</v>
       </c>
       <c r="D16" t="n">
+        <v>35.2926</v>
+      </c>
+      <c r="E16" t="n">
         <v>42.9413</v>
       </c>
     </row>
@@ -5359,6 +6329,9 @@
         <v>24.9722</v>
       </c>
       <c r="D17" t="n">
+        <v>34.6115</v>
+      </c>
+      <c r="E17" t="n">
         <v>43.4585</v>
       </c>
     </row>
@@ -5377,7 +6350,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5393,10 +6366,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5413,6 +6391,9 @@
         <v>6.29689</v>
       </c>
       <c r="D2" t="n">
+        <v>6.68969</v>
+      </c>
+      <c r="E2" t="n">
         <v>7.59874</v>
       </c>
     </row>
@@ -5427,6 +6408,9 @@
         <v>7.41317</v>
       </c>
       <c r="D3" t="n">
+        <v>9.85514</v>
+      </c>
+      <c r="E3" t="n">
         <v>11.7599</v>
       </c>
     </row>
@@ -5441,6 +6425,9 @@
         <v>9.66775</v>
       </c>
       <c r="D4" t="n">
+        <v>13.6311</v>
+      </c>
+      <c r="E4" t="n">
         <v>16.6658</v>
       </c>
     </row>
@@ -5455,6 +6442,9 @@
         <v>11.9168</v>
       </c>
       <c r="D5" t="n">
+        <v>17.3719</v>
+      </c>
+      <c r="E5" t="n">
         <v>21.4763</v>
       </c>
     </row>
@@ -5469,6 +6459,9 @@
         <v>14.2705</v>
       </c>
       <c r="D6" t="n">
+        <v>21.1003</v>
+      </c>
+      <c r="E6" t="n">
         <v>26.3302</v>
       </c>
     </row>
@@ -5483,6 +6476,9 @@
         <v>16.6162</v>
       </c>
       <c r="D7" t="n">
+        <v>24.8152</v>
+      </c>
+      <c r="E7" t="n">
         <v>30.9764</v>
       </c>
     </row>
@@ -5497,6 +6493,9 @@
         <v>19.1794</v>
       </c>
       <c r="D8" t="n">
+        <v>28.7547</v>
+      </c>
+      <c r="E8" t="n">
         <v>35.7752</v>
       </c>
     </row>
@@ -5511,6 +6510,9 @@
         <v>22.083</v>
       </c>
       <c r="D9" t="n">
+        <v>33.517</v>
+      </c>
+      <c r="E9" t="n">
         <v>41.2387</v>
       </c>
     </row>
@@ -5525,6 +6527,9 @@
         <v>20.7764</v>
       </c>
       <c r="D10" t="n">
+        <v>30.6384</v>
+      </c>
+      <c r="E10" t="n">
         <v>37.8754</v>
       </c>
     </row>
@@ -5539,6 +6544,9 @@
         <v>20.4826</v>
       </c>
       <c r="D11" t="n">
+        <v>30.5735</v>
+      </c>
+      <c r="E11" t="n">
         <v>36.8891</v>
       </c>
     </row>
@@ -5553,6 +6561,9 @@
         <v>20.6749</v>
       </c>
       <c r="D12" t="n">
+        <v>30.9461</v>
+      </c>
+      <c r="E12" t="n">
         <v>38.3346</v>
       </c>
     </row>
@@ -5567,6 +6578,9 @@
         <v>20.9999</v>
       </c>
       <c r="D13" t="n">
+        <v>31.4522</v>
+      </c>
+      <c r="E13" t="n">
         <v>38.0797</v>
       </c>
     </row>
@@ -5581,6 +6595,9 @@
         <v>21.0316</v>
       </c>
       <c r="D14" t="n">
+        <v>30.3814</v>
+      </c>
+      <c r="E14" t="n">
         <v>37.1512</v>
       </c>
     </row>
@@ -5595,6 +6612,9 @@
         <v>21.2198</v>
       </c>
       <c r="D15" t="n">
+        <v>31.43</v>
+      </c>
+      <c r="E15" t="n">
         <v>37.7077</v>
       </c>
     </row>
@@ -5609,6 +6629,9 @@
         <v>21.4678</v>
       </c>
       <c r="D16" t="n">
+        <v>30.8779</v>
+      </c>
+      <c r="E16" t="n">
         <v>37.7126</v>
       </c>
     </row>
@@ -5623,6 +6646,9 @@
         <v>21.7524</v>
       </c>
       <c r="D17" t="n">
+        <v>30.7639</v>
+      </c>
+      <c r="E17" t="n">
         <v>37.9445</v>
       </c>
     </row>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.2069</v>
+        <v>5.21298</v>
       </c>
       <c r="C2" t="n">
-        <v>5.58272</v>
+        <v>5.58966</v>
       </c>
       <c r="D2" t="n">
-        <v>5.86464</v>
+        <v>5.86807</v>
       </c>
       <c r="E2" t="n">
-        <v>6.91851</v>
+        <v>7.01173</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.44906</v>
+        <v>6.56778</v>
       </c>
       <c r="C3" t="n">
-        <v>6.71969</v>
+        <v>6.69408</v>
       </c>
       <c r="D3" t="n">
-        <v>8.76623</v>
+        <v>8.751620000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5942</v>
+        <v>10.7016</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.84567</v>
+        <v>8.736280000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.80294</v>
+        <v>8.745889999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0495</v>
+        <v>12.0608</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9595</v>
+        <v>15.0781</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9524</v>
+        <v>11.0968</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0299</v>
+        <v>10.9196</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1526</v>
+        <v>15.1408</v>
       </c>
       <c r="E5" t="n">
-        <v>19.1106</v>
+        <v>19.2711</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.217</v>
+        <v>13.2616</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3476</v>
+        <v>13.2382</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2099</v>
+        <v>18.0266</v>
       </c>
       <c r="E6" t="n">
-        <v>23.2341</v>
+        <v>23.2705</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6571</v>
+        <v>15.4899</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7759</v>
+        <v>15.6963</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2016</v>
+        <v>20.9419</v>
       </c>
       <c r="E7" t="n">
-        <v>27.0558</v>
+        <v>27.168</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.9358</v>
+        <v>17.7976</v>
       </c>
       <c r="C8" t="n">
-        <v>18.2316</v>
+        <v>18.187</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8769</v>
+        <v>23.9039</v>
       </c>
       <c r="E8" t="n">
-        <v>30.9926</v>
+        <v>31.2384</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3902</v>
+        <v>21.285</v>
       </c>
       <c r="C9" t="n">
-        <v>21.1278</v>
+        <v>20.907</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1462</v>
+        <v>27.9636</v>
       </c>
       <c r="E9" t="n">
-        <v>34.877</v>
+        <v>35.3543</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9716</v>
+        <v>17.3089</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7394</v>
+        <v>17.805</v>
       </c>
       <c r="D10" t="n">
-        <v>22.6534</v>
+        <v>22.5619</v>
       </c>
       <c r="E10" t="n">
-        <v>28.2158</v>
+        <v>28.6817</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4799</v>
+        <v>17.3433</v>
       </c>
       <c r="C11" t="n">
-        <v>17.6085</v>
+        <v>17.9314</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0955</v>
+        <v>23.4001</v>
       </c>
       <c r="E11" t="n">
-        <v>28.7723</v>
+        <v>29.1529</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.2929</v>
+        <v>18.2656</v>
       </c>
       <c r="C12" t="n">
-        <v>18.6145</v>
+        <v>18.4356</v>
       </c>
       <c r="D12" t="n">
-        <v>24.3963</v>
+        <v>24.845</v>
       </c>
       <c r="E12" t="n">
-        <v>29.3732</v>
+        <v>30.9438</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.3973</v>
+        <v>19.1498</v>
       </c>
       <c r="C13" t="n">
-        <v>19.2349</v>
+        <v>19.3997</v>
       </c>
       <c r="D13" t="n">
-        <v>25.5225</v>
+        <v>25.0485</v>
       </c>
       <c r="E13" t="n">
-        <v>30.9278</v>
+        <v>30.2943</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.5303</v>
+        <v>18.702</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0892</v>
+        <v>19.5691</v>
       </c>
       <c r="D14" t="n">
-        <v>24.3933</v>
+        <v>24.1446</v>
       </c>
       <c r="E14" t="n">
-        <v>29.0723</v>
+        <v>29.4256</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7056</v>
+        <v>18.7231</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6316</v>
+        <v>19.4473</v>
       </c>
       <c r="D15" t="n">
-        <v>24.5874</v>
+        <v>24.5307</v>
       </c>
       <c r="E15" t="n">
-        <v>29.7905</v>
+        <v>30.4039</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.3795</v>
+        <v>19.7252</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9004</v>
+        <v>19.8639</v>
       </c>
       <c r="D16" t="n">
-        <v>24.8141</v>
+        <v>24.3694</v>
       </c>
       <c r="E16" t="n">
-        <v>30.6334</v>
+        <v>30.5503</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4685</v>
+        <v>19.5029</v>
       </c>
       <c r="C17" t="n">
-        <v>20.167</v>
+        <v>20.3345</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3471</v>
+        <v>25.0419</v>
       </c>
       <c r="E17" t="n">
-        <v>30.6909</v>
+        <v>30.0877</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.64171</v>
+        <v>8.62494</v>
       </c>
       <c r="C2" t="n">
-        <v>9.96468</v>
+        <v>9.97612</v>
       </c>
       <c r="D2" t="n">
-        <v>11.254</v>
+        <v>11.2633</v>
       </c>
       <c r="E2" t="n">
-        <v>12.6481</v>
+        <v>13.8464</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.885859999999999</v>
+        <v>8.91966</v>
       </c>
       <c r="C3" t="n">
-        <v>9.250450000000001</v>
+        <v>9.36243</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4275</v>
+        <v>13.6035</v>
       </c>
       <c r="E3" t="n">
-        <v>16.1336</v>
+        <v>17.1534</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4035</v>
+        <v>11.4729</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4769</v>
+        <v>11.4311</v>
       </c>
       <c r="D4" t="n">
-        <v>17.6784</v>
+        <v>17.671</v>
       </c>
       <c r="E4" t="n">
-        <v>21.961</v>
+        <v>23.0573</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.0508</v>
+        <v>13.9372</v>
       </c>
       <c r="C5" t="n">
-        <v>14.1421</v>
+        <v>14.097</v>
       </c>
       <c r="D5" t="n">
-        <v>21.7077</v>
+        <v>21.6278</v>
       </c>
       <c r="E5" t="n">
-        <v>27.5228</v>
+        <v>28.756</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.5917</v>
+        <v>16.6143</v>
       </c>
       <c r="C6" t="n">
-        <v>16.8999</v>
+        <v>17.0399</v>
       </c>
       <c r="D6" t="n">
-        <v>25.5005</v>
+        <v>25.4522</v>
       </c>
       <c r="E6" t="n">
-        <v>32.8908</v>
+        <v>34.2823</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.2591</v>
+        <v>19.4492</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0952</v>
+        <v>20.0861</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3826</v>
+        <v>29.3439</v>
       </c>
       <c r="E7" t="n">
-        <v>38.0194</v>
+        <v>39.6059</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.1494</v>
+        <v>22.1561</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9391</v>
+        <v>22.9742</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2534</v>
+        <v>33.2278</v>
       </c>
       <c r="E8" t="n">
-        <v>43.1702</v>
+        <v>44.9031</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6995</v>
+        <v>26.7508</v>
       </c>
       <c r="C9" t="n">
-        <v>26.588</v>
+        <v>26.4784</v>
       </c>
       <c r="D9" t="n">
-        <v>38.5702</v>
+        <v>38.6377</v>
       </c>
       <c r="E9" t="n">
-        <v>48.2876</v>
+        <v>50.3954</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.1239</v>
+        <v>22.6859</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6678</v>
+        <v>23.219</v>
       </c>
       <c r="D10" t="n">
-        <v>34.0336</v>
+        <v>33.7381</v>
       </c>
       <c r="E10" t="n">
-        <v>40.9749</v>
+        <v>42.6368</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0993</v>
+        <v>22.5796</v>
       </c>
       <c r="C11" t="n">
-        <v>22.7522</v>
+        <v>22.536</v>
       </c>
       <c r="D11" t="n">
-        <v>32.9963</v>
+        <v>32.5126</v>
       </c>
       <c r="E11" t="n">
-        <v>40.2317</v>
+        <v>41.5382</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.3296</v>
+        <v>23.7243</v>
       </c>
       <c r="C12" t="n">
-        <v>23.4111</v>
+        <v>23.3152</v>
       </c>
       <c r="D12" t="n">
-        <v>33.3677</v>
+        <v>33.9712</v>
       </c>
       <c r="E12" t="n">
-        <v>40.6291</v>
+        <v>42.7296</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.3388</v>
+        <v>23.852</v>
       </c>
       <c r="C13" t="n">
-        <v>24.4104</v>
+        <v>24.2097</v>
       </c>
       <c r="D13" t="n">
-        <v>34.431</v>
+        <v>35.567</v>
       </c>
       <c r="E13" t="n">
-        <v>42.7071</v>
+        <v>43.0184</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.5091</v>
+        <v>22.8178</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2377</v>
+        <v>24.4466</v>
       </c>
       <c r="D14" t="n">
-        <v>34.0838</v>
+        <v>34.3879</v>
       </c>
       <c r="E14" t="n">
-        <v>41.9157</v>
+        <v>43.0245</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.8322</v>
+        <v>23.4108</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5525</v>
+        <v>24.7702</v>
       </c>
       <c r="D15" t="n">
-        <v>33.161</v>
+        <v>33.0957</v>
       </c>
       <c r="E15" t="n">
-        <v>40.5169</v>
+        <v>41.5182</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.0488</v>
+        <v>24.4084</v>
       </c>
       <c r="C16" t="n">
-        <v>24.915</v>
+        <v>24.8569</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5014</v>
+        <v>33.7898</v>
       </c>
       <c r="E16" t="n">
-        <v>39.7897</v>
+        <v>40.8231</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.4808</v>
+        <v>24.1499</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3376</v>
+        <v>25.2734</v>
       </c>
       <c r="D17" t="n">
-        <v>34.4561</v>
+        <v>33.0297</v>
       </c>
       <c r="E17" t="n">
-        <v>40.0413</v>
+        <v>41.4147</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.40883</v>
+        <v>6.40839</v>
       </c>
       <c r="C2" t="n">
-        <v>6.53889</v>
+        <v>6.53406</v>
       </c>
       <c r="D2" t="n">
-        <v>7.08957</v>
+        <v>7.08403</v>
       </c>
       <c r="E2" t="n">
-        <v>7.81908</v>
+        <v>7.95171</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.23303</v>
+        <v>7.34214</v>
       </c>
       <c r="C3" t="n">
-        <v>7.49775</v>
+        <v>7.56074</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0566</v>
+        <v>10.1517</v>
       </c>
       <c r="E3" t="n">
-        <v>11.6496</v>
+        <v>11.8816</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.31836</v>
+        <v>9.27768</v>
       </c>
       <c r="C4" t="n">
-        <v>9.835459999999999</v>
+        <v>9.79609</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8995</v>
+        <v>13.9012</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4405</v>
+        <v>16.6413</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3395</v>
+        <v>11.329</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1118</v>
+        <v>12.0829</v>
       </c>
       <c r="D5" t="n">
-        <v>17.694</v>
+        <v>17.6799</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0157</v>
+        <v>21.3806</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.5972</v>
+        <v>13.4652</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5068</v>
+        <v>14.4342</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4766</v>
+        <v>21.3472</v>
       </c>
       <c r="E6" t="n">
-        <v>25.7875</v>
+        <v>26.0174</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8776</v>
+        <v>15.8614</v>
       </c>
       <c r="C7" t="n">
-        <v>16.8989</v>
+        <v>16.9122</v>
       </c>
       <c r="D7" t="n">
-        <v>25.297</v>
+        <v>25.3117</v>
       </c>
       <c r="E7" t="n">
-        <v>30.1967</v>
+        <v>30.5258</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.1081</v>
+        <v>18.0553</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2675</v>
+        <v>19.2495</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6398</v>
+        <v>28.6863</v>
       </c>
       <c r="E8" t="n">
-        <v>34.5022</v>
+        <v>34.8457</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0661</v>
+        <v>21.0578</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0768</v>
+        <v>22.1717</v>
       </c>
       <c r="D9" t="n">
-        <v>33.0451</v>
+        <v>33.3173</v>
       </c>
       <c r="E9" t="n">
-        <v>39.5638</v>
+        <v>39.8617</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1569</v>
+        <v>18.4567</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8674</v>
+        <v>19.5549</v>
       </c>
       <c r="D10" t="n">
-        <v>27.6314</v>
+        <v>27.6789</v>
       </c>
       <c r="E10" t="n">
-        <v>32.3202</v>
+        <v>32.9415</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8664</v>
+        <v>17.7261</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0022</v>
+        <v>18.9772</v>
       </c>
       <c r="D11" t="n">
-        <v>27.6276</v>
+        <v>27.6082</v>
       </c>
       <c r="E11" t="n">
-        <v>32.0456</v>
+        <v>32.6845</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.578</v>
+        <v>18.7802</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0366</v>
+        <v>19.9697</v>
       </c>
       <c r="D12" t="n">
-        <v>29.1182</v>
+        <v>28.7845</v>
       </c>
       <c r="E12" t="n">
-        <v>33.7114</v>
+        <v>33.9284</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.8828</v>
+        <v>19.478</v>
       </c>
       <c r="C13" t="n">
-        <v>19.964</v>
+        <v>20.188</v>
       </c>
       <c r="D13" t="n">
-        <v>29.5308</v>
+        <v>30.5155</v>
       </c>
       <c r="E13" t="n">
-        <v>34.358</v>
+        <v>33.7332</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.1361</v>
+        <v>19.216</v>
       </c>
       <c r="C14" t="n">
-        <v>20.1971</v>
+        <v>20.2815</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6944</v>
+        <v>28.8095</v>
       </c>
       <c r="E14" t="n">
-        <v>33.2046</v>
+        <v>33.7037</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1339</v>
+        <v>19.1238</v>
       </c>
       <c r="C15" t="n">
-        <v>20.586</v>
+        <v>20.4189</v>
       </c>
       <c r="D15" t="n">
-        <v>28.5985</v>
+        <v>28.612</v>
       </c>
       <c r="E15" t="n">
-        <v>31.932</v>
+        <v>32.7663</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4372</v>
+        <v>19.288</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9796</v>
+        <v>21.0773</v>
       </c>
       <c r="D16" t="n">
-        <v>29.4626</v>
+        <v>29.404</v>
       </c>
       <c r="E16" t="n">
-        <v>33.2523</v>
+        <v>33.2824</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.1645</v>
+        <v>19.6572</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6775</v>
+        <v>21.536</v>
       </c>
       <c r="D17" t="n">
-        <v>28.9988</v>
+        <v>29.152</v>
       </c>
       <c r="E17" t="n">
-        <v>32.4534</v>
+        <v>34.2222</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.02069</v>
+        <v>3.01192</v>
       </c>
       <c r="C2" t="n">
-        <v>4.96636</v>
+        <v>4.95453</v>
       </c>
       <c r="D2" t="n">
-        <v>5.08327</v>
+        <v>5.07675</v>
       </c>
       <c r="E2" t="n">
-        <v>6.20593</v>
+        <v>6.27167</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.08268</v>
+        <v>5.08778</v>
       </c>
       <c r="C3" t="n">
-        <v>6.62654</v>
+        <v>6.53705</v>
       </c>
       <c r="D3" t="n">
-        <v>8.34463</v>
+        <v>8.346080000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5051</v>
+        <v>10.5334</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.29775</v>
+        <v>7.27385</v>
       </c>
       <c r="C4" t="n">
-        <v>8.709949999999999</v>
+        <v>8.733219999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6226</v>
+        <v>11.65</v>
       </c>
       <c r="E4" t="n">
-        <v>14.8361</v>
+        <v>14.9931</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.306419999999999</v>
+        <v>9.39231</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8596</v>
+        <v>10.8471</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7429</v>
+        <v>14.7209</v>
       </c>
       <c r="E5" t="n">
-        <v>19.0477</v>
+        <v>19.1845</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5289</v>
+        <v>11.4128</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0482</v>
+        <v>13.0346</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7762</v>
+        <v>17.722</v>
       </c>
       <c r="E6" t="n">
-        <v>23.2372</v>
+        <v>23.4172</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7257</v>
+        <v>13.496</v>
       </c>
       <c r="C7" t="n">
-        <v>15.298</v>
+        <v>15.2244</v>
       </c>
       <c r="D7" t="n">
-        <v>20.6752</v>
+        <v>20.6885</v>
       </c>
       <c r="E7" t="n">
-        <v>27.3441</v>
+        <v>27.4968</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.6867</v>
+        <v>15.6965</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6745</v>
+        <v>17.631</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6828</v>
+        <v>23.6698</v>
       </c>
       <c r="E8" t="n">
-        <v>31.3183</v>
+        <v>31.5845</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2885</v>
+        <v>18.2724</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8335</v>
+        <v>20.8291</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1369</v>
+        <v>28.1393</v>
       </c>
       <c r="E9" t="n">
-        <v>35.8996</v>
+        <v>36.2588</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3437</v>
+        <v>17.4193</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1631</v>
+        <v>19.3351</v>
       </c>
       <c r="D10" t="n">
-        <v>25.8977</v>
+        <v>25.6879</v>
       </c>
       <c r="E10" t="n">
-        <v>32.9695</v>
+        <v>33.1209</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1276</v>
+        <v>16.8631</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2218</v>
+        <v>19.171</v>
       </c>
       <c r="D11" t="n">
-        <v>26.1208</v>
+        <v>26.0261</v>
       </c>
       <c r="E11" t="n">
-        <v>32.6389</v>
+        <v>32.6192</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2719</v>
+        <v>17.3485</v>
       </c>
       <c r="C12" t="n">
-        <v>19.2042</v>
+        <v>19.3758</v>
       </c>
       <c r="D12" t="n">
-        <v>25.8477</v>
+        <v>26.3053</v>
       </c>
       <c r="E12" t="n">
-        <v>33.0313</v>
+        <v>33.0567</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9302</v>
+        <v>17.8975</v>
       </c>
       <c r="C13" t="n">
-        <v>19.6188</v>
+        <v>19.4839</v>
       </c>
       <c r="D13" t="n">
-        <v>26.3107</v>
+        <v>26.6346</v>
       </c>
       <c r="E13" t="n">
-        <v>33.6591</v>
+        <v>33.6396</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1775</v>
+        <v>17.152</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6033</v>
+        <v>19.651</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2111</v>
+        <v>25.0477</v>
       </c>
       <c r="E14" t="n">
-        <v>32.3305</v>
+        <v>32.2893</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9473</v>
+        <v>17.9619</v>
       </c>
       <c r="C15" t="n">
-        <v>19.7469</v>
+        <v>19.7149</v>
       </c>
       <c r="D15" t="n">
-        <v>26.1804</v>
+        <v>26.076</v>
       </c>
       <c r="E15" t="n">
-        <v>32.1415</v>
+        <v>32.2976</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.8627</v>
+        <v>17.8688</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9201</v>
+        <v>19.9288</v>
       </c>
       <c r="D16" t="n">
-        <v>25.874</v>
+        <v>26.0552</v>
       </c>
       <c r="E16" t="n">
-        <v>31.941</v>
+        <v>32.9344</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8489</v>
+        <v>17.474</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0786</v>
+        <v>20.0504</v>
       </c>
       <c r="D17" t="n">
-        <v>25.9394</v>
+        <v>25.3132</v>
       </c>
       <c r="E17" t="n">
-        <v>32.6096</v>
+        <v>32.862</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97888</v>
+        <v>3.97121</v>
       </c>
       <c r="C2" t="n">
-        <v>8.22143</v>
+        <v>8.210610000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>8.778180000000001</v>
+        <v>8.766109999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>10.6055</v>
+        <v>11.4276</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.30174</v>
+        <v>6.27261</v>
       </c>
       <c r="C3" t="n">
-        <v>8.797420000000001</v>
+        <v>8.806330000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6574</v>
+        <v>12.6734</v>
       </c>
       <c r="E3" t="n">
-        <v>15.8928</v>
+        <v>16.7661</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.83464</v>
+        <v>8.853630000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2634</v>
+        <v>11.2835</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0415</v>
+        <v>17.0186</v>
       </c>
       <c r="E4" t="n">
-        <v>21.8986</v>
+        <v>23.0114</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.38</v>
+        <v>11.2451</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7194</v>
+        <v>13.7288</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0759</v>
+        <v>21.0837</v>
       </c>
       <c r="E5" t="n">
-        <v>27.4215</v>
+        <v>28.6714</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8048</v>
+        <v>13.7159</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3341</v>
+        <v>16.3511</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0631</v>
+        <v>25.0888</v>
       </c>
       <c r="E6" t="n">
-        <v>33.0936</v>
+        <v>34.6468</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3793</v>
+        <v>16.2</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0365</v>
+        <v>18.9999</v>
       </c>
       <c r="D7" t="n">
-        <v>28.8921</v>
+        <v>29.0118</v>
       </c>
       <c r="E7" t="n">
-        <v>38.7566</v>
+        <v>40.3866</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.7303</v>
+        <v>18.8605</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0832</v>
+        <v>22.0739</v>
       </c>
       <c r="D8" t="n">
-        <v>33.1676</v>
+        <v>33.1046</v>
       </c>
       <c r="E8" t="n">
-        <v>44.0664</v>
+        <v>45.8899</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.9715</v>
+        <v>21.9588</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8573</v>
+        <v>25.7873</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2885</v>
+        <v>39.4449</v>
       </c>
       <c r="E9" t="n">
-        <v>50.6264</v>
+        <v>52.8433</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5715</v>
+        <v>20.6108</v>
       </c>
       <c r="C10" t="n">
-        <v>23.7264</v>
+        <v>23.7245</v>
       </c>
       <c r="D10" t="n">
-        <v>36.3761</v>
+        <v>36.1903</v>
       </c>
       <c r="E10" t="n">
-        <v>45.6921</v>
+        <v>47.2631</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3721</v>
+        <v>20.862</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0184</v>
+        <v>23.6531</v>
       </c>
       <c r="D11" t="n">
-        <v>36.2526</v>
+        <v>35.6507</v>
       </c>
       <c r="E11" t="n">
-        <v>44.943</v>
+        <v>46.8284</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.9622</v>
+        <v>20.84</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9279</v>
+        <v>24.0166</v>
       </c>
       <c r="D12" t="n">
-        <v>35.9311</v>
+        <v>36.5637</v>
       </c>
       <c r="E12" t="n">
-        <v>45.5481</v>
+        <v>47.8532</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4086</v>
+        <v>20.9952</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1988</v>
+        <v>24.2021</v>
       </c>
       <c r="D13" t="n">
-        <v>35.7219</v>
+        <v>37.1488</v>
       </c>
       <c r="E13" t="n">
-        <v>45.3016</v>
+        <v>46.475</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.5123</v>
+        <v>20.6179</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2547</v>
+        <v>24.2408</v>
       </c>
       <c r="D14" t="n">
-        <v>35.8211</v>
+        <v>35.4161</v>
       </c>
       <c r="E14" t="n">
-        <v>44.0343</v>
+        <v>45.0991</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.4611</v>
+        <v>21.4783</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5249</v>
+        <v>24.5528</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2146</v>
+        <v>34.5354</v>
       </c>
       <c r="E15" t="n">
-        <v>44.6184</v>
+        <v>45.7691</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.597</v>
+        <v>21.1028</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7364</v>
+        <v>24.7302</v>
       </c>
       <c r="D16" t="n">
-        <v>35.2926</v>
+        <v>34.7624</v>
       </c>
       <c r="E16" t="n">
-        <v>42.9413</v>
+        <v>43.8733</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1823</v>
+        <v>21.7396</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9722</v>
+        <v>24.9622</v>
       </c>
       <c r="D17" t="n">
-        <v>34.6115</v>
+        <v>35.5891</v>
       </c>
       <c r="E17" t="n">
-        <v>43.4585</v>
+        <v>44.4244</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26267</v>
+        <v>5.24649</v>
       </c>
       <c r="C2" t="n">
-        <v>6.29689</v>
+        <v>6.29725</v>
       </c>
       <c r="D2" t="n">
-        <v>6.68969</v>
+        <v>6.6887</v>
       </c>
       <c r="E2" t="n">
-        <v>7.59874</v>
+        <v>7.71597</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.75366</v>
+        <v>6.78926</v>
       </c>
       <c r="C3" t="n">
-        <v>7.41317</v>
+        <v>7.53644</v>
       </c>
       <c r="D3" t="n">
-        <v>9.85514</v>
+        <v>9.89536</v>
       </c>
       <c r="E3" t="n">
-        <v>11.7599</v>
+        <v>11.9343</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.04419</v>
+        <v>9.051019999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.66775</v>
+        <v>9.688750000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6311</v>
+        <v>13.622</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6658</v>
+        <v>16.862</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2472</v>
+        <v>11.2391</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9168</v>
+        <v>11.9149</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3719</v>
+        <v>17.3524</v>
       </c>
       <c r="E5" t="n">
-        <v>21.4763</v>
+        <v>21.7042</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4242</v>
+        <v>13.4059</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2705</v>
+        <v>14.267</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1003</v>
+        <v>21.1283</v>
       </c>
       <c r="E6" t="n">
-        <v>26.3302</v>
+        <v>26.5454</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6507</v>
+        <v>15.6626</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6162</v>
+        <v>16.6198</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8152</v>
+        <v>24.865</v>
       </c>
       <c r="E7" t="n">
-        <v>30.9764</v>
+        <v>31.3498</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.1214</v>
+        <v>18.0865</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1794</v>
+        <v>19.1531</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7547</v>
+        <v>28.7629</v>
       </c>
       <c r="E8" t="n">
-        <v>35.7752</v>
+        <v>36.1272</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3677</v>
+        <v>21.35</v>
       </c>
       <c r="C9" t="n">
-        <v>22.083</v>
+        <v>22.074</v>
       </c>
       <c r="D9" t="n">
-        <v>33.517</v>
+        <v>33.5541</v>
       </c>
       <c r="E9" t="n">
-        <v>41.2387</v>
+        <v>41.6459</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3299</v>
+        <v>20.2098</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7764</v>
+        <v>20.7192</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6384</v>
+        <v>30.5791</v>
       </c>
       <c r="E10" t="n">
-        <v>37.8754</v>
+        <v>38.2943</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9646</v>
+        <v>20.1486</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4826</v>
+        <v>20.452</v>
       </c>
       <c r="D11" t="n">
-        <v>30.5735</v>
+        <v>30.4864</v>
       </c>
       <c r="E11" t="n">
-        <v>36.8891</v>
+        <v>36.8767</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0716</v>
+        <v>20.3693</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6749</v>
+        <v>20.9359</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9461</v>
+        <v>31.052</v>
       </c>
       <c r="E12" t="n">
-        <v>38.3346</v>
+        <v>37.7241</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4509</v>
+        <v>20.4537</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9999</v>
+        <v>21.1463</v>
       </c>
       <c r="D13" t="n">
-        <v>31.4522</v>
+        <v>31.6373</v>
       </c>
       <c r="E13" t="n">
-        <v>38.0797</v>
+        <v>39.0712</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7546</v>
+        <v>19.6748</v>
       </c>
       <c r="C14" t="n">
-        <v>21.0316</v>
+        <v>21.002</v>
       </c>
       <c r="D14" t="n">
-        <v>30.3814</v>
+        <v>30.3076</v>
       </c>
       <c r="E14" t="n">
-        <v>37.1512</v>
+        <v>37.2573</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.674</v>
+        <v>20.5302</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2198</v>
+        <v>21.1993</v>
       </c>
       <c r="D15" t="n">
-        <v>31.43</v>
+        <v>31.3996</v>
       </c>
       <c r="E15" t="n">
-        <v>37.7077</v>
+        <v>37.7313</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5645</v>
+        <v>20.4205</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4678</v>
+        <v>21.415</v>
       </c>
       <c r="D16" t="n">
-        <v>30.8779</v>
+        <v>31.3513</v>
       </c>
       <c r="E16" t="n">
-        <v>37.7126</v>
+        <v>37.7268</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.52</v>
+        <v>20.316</v>
       </c>
       <c r="C17" t="n">
-        <v>21.7524</v>
+        <v>21.663</v>
       </c>
       <c r="D17" t="n">
-        <v>30.7639</v>
+        <v>31.1746</v>
       </c>
       <c r="E17" t="n">
-        <v>37.9445</v>
+        <v>37.1497</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,278 +4795,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.21298</v>
-      </c>
-      <c r="C2" t="n">
-        <v>5.58966</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.86807</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.01173</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.56778</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.69408</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.751620000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.7016</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.736280000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.745889999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.0608</v>
-      </c>
-      <c r="E4" t="n">
-        <v>15.0781</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.0968</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10.9196</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.1408</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.2711</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.2616</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.2382</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.0266</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.2705</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15.4899</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.6963</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.9419</v>
-      </c>
-      <c r="E7" t="n">
-        <v>27.168</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>17.7976</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.187</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.9039</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.2384</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>21.285</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20.907</v>
-      </c>
-      <c r="D9" t="n">
-        <v>27.9636</v>
-      </c>
-      <c r="E9" t="n">
-        <v>35.3543</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>17.3089</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17.805</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22.5619</v>
-      </c>
-      <c r="E10" t="n">
-        <v>28.6817</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.3433</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17.9314</v>
-      </c>
-      <c r="D11" t="n">
-        <v>23.4001</v>
-      </c>
-      <c r="E11" t="n">
-        <v>29.1529</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>18.2656</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18.4356</v>
-      </c>
-      <c r="D12" t="n">
-        <v>24.845</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30.9438</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>19.1498</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19.3997</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25.0485</v>
-      </c>
-      <c r="E13" t="n">
-        <v>30.2943</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>18.702</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19.5691</v>
-      </c>
-      <c r="D14" t="n">
-        <v>24.1446</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29.4256</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>18.7231</v>
-      </c>
-      <c r="C15" t="n">
-        <v>19.4473</v>
-      </c>
-      <c r="D15" t="n">
-        <v>24.5307</v>
-      </c>
-      <c r="E15" t="n">
-        <v>30.4039</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>19.7252</v>
-      </c>
-      <c r="C16" t="n">
-        <v>19.8639</v>
-      </c>
-      <c r="D16" t="n">
-        <v>24.3694</v>
-      </c>
-      <c r="E16" t="n">
-        <v>30.5503</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>19.5029</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20.3345</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25.0419</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30.0877</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5079,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5112,278 +4840,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.62494</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.97612</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.2633</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13.8464</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>8.91966</v>
-      </c>
-      <c r="C3" t="n">
-        <v>9.36243</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.6035</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17.1534</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11.4729</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.4311</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.671</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23.0573</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>13.9372</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.097</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.6278</v>
-      </c>
-      <c r="E5" t="n">
-        <v>28.756</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>16.6143</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17.0399</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.4522</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34.2823</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>19.4492</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.0861</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.3439</v>
-      </c>
-      <c r="E7" t="n">
-        <v>39.6059</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>22.1561</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22.9742</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33.2278</v>
-      </c>
-      <c r="E8" t="n">
-        <v>44.9031</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>26.7508</v>
-      </c>
-      <c r="C9" t="n">
-        <v>26.4784</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38.6377</v>
-      </c>
-      <c r="E9" t="n">
-        <v>50.3954</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>22.6859</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.219</v>
-      </c>
-      <c r="D10" t="n">
-        <v>33.7381</v>
-      </c>
-      <c r="E10" t="n">
-        <v>42.6368</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>22.5796</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22.536</v>
-      </c>
-      <c r="D11" t="n">
-        <v>32.5126</v>
-      </c>
-      <c r="E11" t="n">
-        <v>41.5382</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>23.7243</v>
-      </c>
-      <c r="C12" t="n">
-        <v>23.3152</v>
-      </c>
-      <c r="D12" t="n">
-        <v>33.9712</v>
-      </c>
-      <c r="E12" t="n">
-        <v>42.7296</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>23.852</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24.2097</v>
-      </c>
-      <c r="D13" t="n">
-        <v>35.567</v>
-      </c>
-      <c r="E13" t="n">
-        <v>43.0184</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>22.8178</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.4466</v>
-      </c>
-      <c r="D14" t="n">
-        <v>34.3879</v>
-      </c>
-      <c r="E14" t="n">
-        <v>43.0245</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>23.4108</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24.7702</v>
-      </c>
-      <c r="D15" t="n">
-        <v>33.0957</v>
-      </c>
-      <c r="E15" t="n">
-        <v>41.5182</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>24.4084</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.8569</v>
-      </c>
-      <c r="D16" t="n">
-        <v>33.7898</v>
-      </c>
-      <c r="E16" t="n">
-        <v>40.8231</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>24.1499</v>
-      </c>
-      <c r="C17" t="n">
-        <v>25.2734</v>
-      </c>
-      <c r="D17" t="n">
-        <v>33.0297</v>
-      </c>
-      <c r="E17" t="n">
-        <v>41.4147</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5396,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5429,278 +4885,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6.40839</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.53406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.08403</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.95171</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7.34214</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.56074</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.1517</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.8816</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.27768</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.79609</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.9012</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16.6413</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.329</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12.0829</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.6799</v>
-      </c>
-      <c r="E5" t="n">
-        <v>21.3806</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.4652</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.4342</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.3472</v>
-      </c>
-      <c r="E6" t="n">
-        <v>26.0174</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15.8614</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.9122</v>
-      </c>
-      <c r="D7" t="n">
-        <v>25.3117</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30.5258</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18.0553</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.2495</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.6863</v>
-      </c>
-      <c r="E8" t="n">
-        <v>34.8457</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>21.0578</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22.1717</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.3173</v>
-      </c>
-      <c r="E9" t="n">
-        <v>39.8617</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>18.4567</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19.5549</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27.6789</v>
-      </c>
-      <c r="E10" t="n">
-        <v>32.9415</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>17.7261</v>
-      </c>
-      <c r="C11" t="n">
-        <v>18.9772</v>
-      </c>
-      <c r="D11" t="n">
-        <v>27.6082</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32.6845</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>18.7802</v>
-      </c>
-      <c r="C12" t="n">
-        <v>19.9697</v>
-      </c>
-      <c r="D12" t="n">
-        <v>28.7845</v>
-      </c>
-      <c r="E12" t="n">
-        <v>33.9284</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>19.478</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20.188</v>
-      </c>
-      <c r="D13" t="n">
-        <v>30.5155</v>
-      </c>
-      <c r="E13" t="n">
-        <v>33.7332</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>19.216</v>
-      </c>
-      <c r="C14" t="n">
-        <v>20.2815</v>
-      </c>
-      <c r="D14" t="n">
-        <v>28.8095</v>
-      </c>
-      <c r="E14" t="n">
-        <v>33.7037</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>19.1238</v>
-      </c>
-      <c r="C15" t="n">
-        <v>20.4189</v>
-      </c>
-      <c r="D15" t="n">
-        <v>28.612</v>
-      </c>
-      <c r="E15" t="n">
-        <v>32.7663</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>19.288</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21.0773</v>
-      </c>
-      <c r="D16" t="n">
-        <v>29.404</v>
-      </c>
-      <c r="E16" t="n">
-        <v>33.2824</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>19.6572</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.536</v>
-      </c>
-      <c r="D17" t="n">
-        <v>29.152</v>
-      </c>
-      <c r="E17" t="n">
-        <v>34.2222</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5713,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5746,278 +4930,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.01192</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.95453</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.07675</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6.27167</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5.08778</v>
-      </c>
-      <c r="C3" t="n">
-        <v>6.53705</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.346080000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.5334</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.27385</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8.733219999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.9931</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9.39231</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10.8471</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.7209</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19.1845</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11.4128</v>
-      </c>
-      <c r="C6" t="n">
-        <v>13.0346</v>
-      </c>
-      <c r="D6" t="n">
-        <v>17.722</v>
-      </c>
-      <c r="E6" t="n">
-        <v>23.4172</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13.496</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.2244</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.6885</v>
-      </c>
-      <c r="E7" t="n">
-        <v>27.4968</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>15.6965</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17.631</v>
-      </c>
-      <c r="D8" t="n">
-        <v>23.6698</v>
-      </c>
-      <c r="E8" t="n">
-        <v>31.5845</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>18.2724</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20.8291</v>
-      </c>
-      <c r="D9" t="n">
-        <v>28.1393</v>
-      </c>
-      <c r="E9" t="n">
-        <v>36.2588</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>17.4193</v>
-      </c>
-      <c r="C10" t="n">
-        <v>19.3351</v>
-      </c>
-      <c r="D10" t="n">
-        <v>25.6879</v>
-      </c>
-      <c r="E10" t="n">
-        <v>33.1209</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>16.8631</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19.171</v>
-      </c>
-      <c r="D11" t="n">
-        <v>26.0261</v>
-      </c>
-      <c r="E11" t="n">
-        <v>32.6192</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>17.3485</v>
-      </c>
-      <c r="C12" t="n">
-        <v>19.3758</v>
-      </c>
-      <c r="D12" t="n">
-        <v>26.3053</v>
-      </c>
-      <c r="E12" t="n">
-        <v>33.0567</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17.8975</v>
-      </c>
-      <c r="C13" t="n">
-        <v>19.4839</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26.6346</v>
-      </c>
-      <c r="E13" t="n">
-        <v>33.6396</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>17.152</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19.651</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25.0477</v>
-      </c>
-      <c r="E14" t="n">
-        <v>32.2893</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>17.9619</v>
-      </c>
-      <c r="C15" t="n">
-        <v>19.7149</v>
-      </c>
-      <c r="D15" t="n">
-        <v>26.076</v>
-      </c>
-      <c r="E15" t="n">
-        <v>32.2976</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>17.8688</v>
-      </c>
-      <c r="C16" t="n">
-        <v>19.9288</v>
-      </c>
-      <c r="D16" t="n">
-        <v>26.0552</v>
-      </c>
-      <c r="E16" t="n">
-        <v>32.9344</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>17.474</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20.0504</v>
-      </c>
-      <c r="D17" t="n">
-        <v>25.3132</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32.862</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -6030,7 +4942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -6061,278 +4973,6 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.97121</v>
-      </c>
-      <c r="C2" t="n">
-        <v>8.210610000000001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.766109999999999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>11.4276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.27261</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8.806330000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.6734</v>
-      </c>
-      <c r="E3" t="n">
-        <v>16.7661</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.853630000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11.2835</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.0186</v>
-      </c>
-      <c r="E4" t="n">
-        <v>23.0114</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.2451</v>
-      </c>
-      <c r="C5" t="n">
-        <v>13.7288</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.0837</v>
-      </c>
-      <c r="E5" t="n">
-        <v>28.6714</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.7159</v>
-      </c>
-      <c r="C6" t="n">
-        <v>16.3511</v>
-      </c>
-      <c r="D6" t="n">
-        <v>25.0888</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34.6468</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.9999</v>
-      </c>
-      <c r="D7" t="n">
-        <v>29.0118</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40.3866</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18.8605</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22.0739</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33.1046</v>
-      </c>
-      <c r="E8" t="n">
-        <v>45.8899</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>21.9588</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.7873</v>
-      </c>
-      <c r="D9" t="n">
-        <v>39.4449</v>
-      </c>
-      <c r="E9" t="n">
-        <v>52.8433</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.6108</v>
-      </c>
-      <c r="C10" t="n">
-        <v>23.7245</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.1903</v>
-      </c>
-      <c r="E10" t="n">
-        <v>47.2631</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20.862</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.6531</v>
-      </c>
-      <c r="D11" t="n">
-        <v>35.6507</v>
-      </c>
-      <c r="E11" t="n">
-        <v>46.8284</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20.84</v>
-      </c>
-      <c r="C12" t="n">
-        <v>24.0166</v>
-      </c>
-      <c r="D12" t="n">
-        <v>36.5637</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47.8532</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20.9952</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24.2021</v>
-      </c>
-      <c r="D13" t="n">
-        <v>37.1488</v>
-      </c>
-      <c r="E13" t="n">
-        <v>46.475</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>20.6179</v>
-      </c>
-      <c r="C14" t="n">
-        <v>24.2408</v>
-      </c>
-      <c r="D14" t="n">
-        <v>35.4161</v>
-      </c>
-      <c r="E14" t="n">
-        <v>45.0991</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>21.4783</v>
-      </c>
-      <c r="C15" t="n">
-        <v>24.5528</v>
-      </c>
-      <c r="D15" t="n">
-        <v>34.5354</v>
-      </c>
-      <c r="E15" t="n">
-        <v>45.7691</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>21.1028</v>
-      </c>
-      <c r="C16" t="n">
-        <v>24.7302</v>
-      </c>
-      <c r="D16" t="n">
-        <v>34.7624</v>
-      </c>
-      <c r="E16" t="n">
-        <v>43.8733</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>21.7396</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24.9622</v>
-      </c>
-      <c r="D17" t="n">
-        <v>35.5891</v>
-      </c>
-      <c r="E17" t="n">
-        <v>44.4244</v>
       </c>
     </row>
   </sheetData>
@@ -6380,278 +5020,22 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.24649</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6.29725</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.6887</v>
-      </c>
-      <c r="E2" t="n">
-        <v>7.71597</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.78926</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7.53644</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.89536</v>
-      </c>
-      <c r="E3" t="n">
-        <v>11.9343</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.051019999999999</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.688750000000001</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.622</v>
-      </c>
-      <c r="E4" t="n">
-        <v>16.862</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.2391</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.9149</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.3524</v>
-      </c>
-      <c r="E5" t="n">
-        <v>21.7042</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>13.4059</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.267</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.1283</v>
-      </c>
-      <c r="E6" t="n">
-        <v>26.5454</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>15.6626</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16.6198</v>
-      </c>
-      <c r="D7" t="n">
-        <v>24.865</v>
-      </c>
-      <c r="E7" t="n">
-        <v>31.3498</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18.0865</v>
-      </c>
-      <c r="C8" t="n">
-        <v>19.1531</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28.7629</v>
-      </c>
-      <c r="E8" t="n">
-        <v>36.1272</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="C9" t="n">
-        <v>22.074</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33.5541</v>
-      </c>
-      <c r="E9" t="n">
-        <v>41.6459</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>20.2098</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20.7192</v>
-      </c>
-      <c r="D10" t="n">
-        <v>30.5791</v>
-      </c>
-      <c r="E10" t="n">
-        <v>38.2943</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20.1486</v>
-      </c>
-      <c r="C11" t="n">
-        <v>20.452</v>
-      </c>
-      <c r="D11" t="n">
-        <v>30.4864</v>
-      </c>
-      <c r="E11" t="n">
-        <v>36.8767</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>20.3693</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20.9359</v>
-      </c>
-      <c r="D12" t="n">
-        <v>31.052</v>
-      </c>
-      <c r="E12" t="n">
-        <v>37.7241</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>20.4537</v>
-      </c>
-      <c r="C13" t="n">
-        <v>21.1463</v>
-      </c>
-      <c r="D13" t="n">
-        <v>31.6373</v>
-      </c>
-      <c r="E13" t="n">
-        <v>39.0712</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>19.6748</v>
-      </c>
-      <c r="C14" t="n">
-        <v>21.002</v>
-      </c>
-      <c r="D14" t="n">
-        <v>30.3076</v>
-      </c>
-      <c r="E14" t="n">
-        <v>37.2573</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>20.5302</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21.1993</v>
-      </c>
-      <c r="D15" t="n">
-        <v>31.3996</v>
-      </c>
-      <c r="E15" t="n">
-        <v>37.7313</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>20.4205</v>
-      </c>
-      <c r="C16" t="n">
-        <v>21.415</v>
-      </c>
-      <c r="D16" t="n">
-        <v>31.3513</v>
-      </c>
-      <c r="E16" t="n">
-        <v>37.7268</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>20.316</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.663</v>
-      </c>
-      <c r="D17" t="n">
-        <v>31.1746</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37.1497</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,6 +4795,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.19586</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.58629</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.86783</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.0084</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.4788</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.74045</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.80954</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.736</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.63672</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.76014</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.0016</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.0895</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.0248</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.9418</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.1487</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.2519</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.2167</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.9329</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.2852</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.7258</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.5881</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.3121</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.4776</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.7716</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.9769</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.0304</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.2551</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21.3524</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.9304</v>
+      </c>
+      <c r="D9" t="n">
+        <v>27.7053</v>
+      </c>
+      <c r="E9" t="n">
+        <v>35.4814</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.2453</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17.6295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.5954</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.4577</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17.8794</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.3367</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.4117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18.377</v>
+      </c>
+      <c r="C12" t="n">
+        <v>18.6992</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.9721</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30.7199</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.1124</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.3821</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.4868</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.6849</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>18.6935</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.1495</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.8505</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28.923</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.7905</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19.3764</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.705</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.013</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.4767</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.8101</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.4815</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30.9211</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.8052</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.1637</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.1808</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29.5037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4807,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4840,6 +5112,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.62087</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.96935</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.2512</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.8353</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.987819999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.392770000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.6175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.1632</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.3802</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.4823</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.662</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.0374</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13.811</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.9275</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.6327</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.7431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16.4791</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.9648</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.348</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.2468</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19.6135</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.9271</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.1108</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.0691</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22.1543</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.7403</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.2106</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44.8888</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>26.5944</v>
+      </c>
+      <c r="C9" t="n">
+        <v>26.3751</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.2806</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50.8521</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23.3462</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.2807</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.7858</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43.6357</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.9795</v>
+      </c>
+      <c r="C11" t="n">
+        <v>22.4579</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.378</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.1628</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22.7392</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.3519</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.7449</v>
+      </c>
+      <c r="E12" t="n">
+        <v>42.7782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>23.8134</v>
+      </c>
+      <c r="C13" t="n">
+        <v>23.8645</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.8264</v>
+      </c>
+      <c r="E13" t="n">
+        <v>44.9528</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>23.379</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.1396</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33.5357</v>
+      </c>
+      <c r="E14" t="n">
+        <v>42.8134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>23.79</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.2621</v>
+      </c>
+      <c r="D15" t="n">
+        <v>33.1933</v>
+      </c>
+      <c r="E15" t="n">
+        <v>41.5069</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>23.5897</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.8058</v>
+      </c>
+      <c r="D16" t="n">
+        <v>32.5643</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42.6184</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.9727</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.853</v>
+      </c>
+      <c r="D17" t="n">
+        <v>32.8447</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40.3721</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4852,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4885,6 +5429,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6.40537</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.53816</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.0852</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.94924</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.31682</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.51659</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.1333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.8597</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.28918</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.69111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.8755</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.6473</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.3315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.0665</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.6264</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.3575</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.4744</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.4893</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.3059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.9026</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.9329</v>
+      </c>
+      <c r="D7" t="n">
+        <v>25.2429</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30.668</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.0587</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.2988</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.7069</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.7595</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21.0876</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.0735</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.2314</v>
+      </c>
+      <c r="E9" t="n">
+        <v>39.6206</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18.1288</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.1721</v>
+      </c>
+      <c r="D10" t="n">
+        <v>27.8556</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.7411</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.9831</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18.9643</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.0125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.7082</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>18.4484</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19.7568</v>
+      </c>
+      <c r="D12" t="n">
+        <v>28.7171</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.7054</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>19.6259</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.3888</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29.9499</v>
+      </c>
+      <c r="E13" t="n">
+        <v>34.8993</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.2991</v>
+      </c>
+      <c r="C14" t="n">
+        <v>20.3777</v>
+      </c>
+      <c r="D14" t="n">
+        <v>28.6539</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.8139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>19.1309</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20.5208</v>
+      </c>
+      <c r="D15" t="n">
+        <v>28.7014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.5052</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>19.721</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.0205</v>
+      </c>
+      <c r="D16" t="n">
+        <v>29.6004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.5265</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19.8803</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.5083</v>
+      </c>
+      <c r="D17" t="n">
+        <v>29.6425</v>
+      </c>
+      <c r="E17" t="n">
+        <v>33.6894</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4897,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4930,6 +5746,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.00213</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.9574</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.07378</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.26966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5.10346</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.58354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.37321</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.5936</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.23723</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.717599999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.6349</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.9753</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.3803</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10.857</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.7249</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.1854</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11.4923</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.0489</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.7509</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.3911</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>13.6746</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15.2615</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.7105</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.5467</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.7451</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17.6832</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.6598</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.5201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>18.2437</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20.8084</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.1579</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36.118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.338</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19.3011</v>
+      </c>
+      <c r="D10" t="n">
+        <v>25.507</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33.5627</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16.8606</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19.3113</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25.8619</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.5616</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17.3544</v>
+      </c>
+      <c r="C12" t="n">
+        <v>19.4066</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.942</v>
+      </c>
+      <c r="E12" t="n">
+        <v>33.0691</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.9137</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.5668</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26.2359</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33.609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.1334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>19.5903</v>
+      </c>
+      <c r="D14" t="n">
+        <v>25.2006</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.4582</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>18.033</v>
+      </c>
+      <c r="C15" t="n">
+        <v>19.6632</v>
+      </c>
+      <c r="D15" t="n">
+        <v>25.7077</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.4222</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.7359</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19.9595</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.828</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.216</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.7423</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20.0489</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.9683</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32.5086</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4942,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4973,6 +6061,278 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.98871</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.232189999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.78801</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.4485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.28737</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8.792960000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.6272</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.7242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8.736000000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11.2241</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.9723</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.894</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.2459</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13.7398</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.0112</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.6697</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.8147</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16.3475</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.0506</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.5542</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16.2939</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19.0305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.9535</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.2988</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.8439</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.085</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45.9323</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21.7748</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.8071</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.3323</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52.6319</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>20.6996</v>
+      </c>
+      <c r="C10" t="n">
+        <v>23.8411</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.5332</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47.4832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20.5502</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.5488</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.595</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47.2981</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20.5159</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.8476</v>
+      </c>
+      <c r="D12" t="n">
+        <v>36.1596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>46.9896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21.0351</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.2565</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35.9249</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45.3563</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20.4921</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24.2546</v>
+      </c>
+      <c r="D14" t="n">
+        <v>35.1227</v>
+      </c>
+      <c r="E14" t="n">
+        <v>45.4765</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>21.5458</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24.515</v>
+      </c>
+      <c r="D15" t="n">
+        <v>35.1505</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45.559</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21.3186</v>
+      </c>
+      <c r="C16" t="n">
+        <v>24.7308</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35.311</v>
+      </c>
+      <c r="E16" t="n">
+        <v>45.7924</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21.0411</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24.8721</v>
+      </c>
+      <c r="D17" t="n">
+        <v>34.2718</v>
+      </c>
+      <c r="E17" t="n">
+        <v>44.4593</v>
       </c>
     </row>
   </sheetData>
@@ -5020,22 +6380,278 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.25328</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.29061</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.69117</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.71615</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.8182</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.43186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.916790000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.9817</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.05472</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.65579</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.6549</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.8721</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.2393</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.9189</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.3563</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.7458</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>13.3935</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.249</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.1083</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.5389</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>15.623</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.6135</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.8562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31.2179</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>18.091</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19.1761</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.6641</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36.0299</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>21.327</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22.0722</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33.4981</v>
+      </c>
+      <c r="E9" t="n">
+        <v>41.6253</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19.9592</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20.8565</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31.0739</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.8973</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>19.991</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20.684</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.8154</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37.7464</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>20.2411</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20.8438</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.1346</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.1759</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>20.3447</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20.9427</v>
+      </c>
+      <c r="D13" t="n">
+        <v>31.6734</v>
+      </c>
+      <c r="E13" t="n">
+        <v>38.3067</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.7303</v>
+      </c>
+      <c r="C14" t="n">
+        <v>21.1444</v>
+      </c>
+      <c r="D14" t="n">
+        <v>30.1374</v>
+      </c>
+      <c r="E14" t="n">
+        <v>37.1107</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20.5294</v>
+      </c>
+      <c r="C15" t="n">
+        <v>21.237</v>
+      </c>
+      <c r="D15" t="n">
+        <v>31.4047</v>
+      </c>
+      <c r="E15" t="n">
+        <v>37.9347</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>21.4417</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30.9386</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38.5969</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>20.1945</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.7344</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31.3515</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38.2167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="500k, 0.01" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.04196</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7548</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.5965</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.1211</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.9593</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.1952</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.9931</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.6191</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>31.8691</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>29.1933</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.0212</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.0733</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>30.7886</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>31.0243</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>30.3046</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.2738</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.8239</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.1098</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.4315</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.4453</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.8333</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.6506</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.7991</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.586</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.6552</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>16.9317</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>16.0848</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>16.3772</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.8073</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>16.3375</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>16.3003</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>16.4925</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.8698</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.1979</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.226</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.5083</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.2833</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.809</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.5411</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.648</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.5141</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.696</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.562</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.6898</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.7771</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.6172</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>40.1725</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.233</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.014760000000001</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7253</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.2607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.5955</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>25.8655</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>27.8528</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.2896</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.4791</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>32.5906</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>32.0825</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.1665</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.3791</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.3403</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.6472</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7387</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.6481</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.7263</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.9888</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1975</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.3554</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.0146</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.4836</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.1334</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.3752</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.058</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.4598</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.4539</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.2711</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.6766</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.4165</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.297</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.5872</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.867</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.8568</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.0436</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.7699</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.3931</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>12.9162</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>25.3072</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>36.1843</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.6761</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>24.4303</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.3513</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>31.213</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.823</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8533</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.6766</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.75653</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.6313</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.9494</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>31.5999</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.3215</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.0275</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.7959</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.2449</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.0444</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.5689</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.7024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.6463</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.7974</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.8285</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.7665</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.8454</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5546</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.373</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.1499</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.8795</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.456</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>16.4204</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>15.7672</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>14.967</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>15.9969</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.8365</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.5373</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.3003</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.3664</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.3564</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.6061</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.5156</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.2155</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.1683</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>34.1297</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>44.6755</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.6211</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.7039</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>33.2518</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.6154</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.9122</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0458</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.0682</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.9944</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.1704</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.0711</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>36.2356</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2473</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.08628</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.2805</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.6583</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0278</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.3115</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.9464</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.429</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.6642</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.6046</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.5257</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.8832</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.5263</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.4168</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.5133</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9753</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.5673</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.224</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.5179</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1107</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0303</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4426</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.1139</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4737</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.5707</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>18.4397</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.7371</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.9475</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.448</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6857</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.489</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.5141</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.358</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.4487</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.2258</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.5025</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.9713</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.5319</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.4495</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.2362</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7844</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.7962</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.9492</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.1088</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.8895</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>41.5491</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5762</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.7578</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.7522</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.09909</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.3101</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.7179</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.2652</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.5296</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.98</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.674</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.0632</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8636</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.1339</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7174</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.6251</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1161</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.9719</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9311</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.909</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.1984</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.6114</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.403</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.5845</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.2278</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4989</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.2178</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>19.597</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.323</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.3089</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.4284</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.3952</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.2446</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.7765</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.6216</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.1478</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.7691</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.9245</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.2667</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>38.9787</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.5341</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6022</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.4625</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1908</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.5839</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.3806</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>41.092</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.9808</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5043</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.8637</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>41.843</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.50034</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.8289</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.3146</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.209</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.955</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>34.7817</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3239</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>38.1812</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.8878</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.009</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.3024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.8075</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>38.1555</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.9911</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8898</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>38.1378</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5142</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.5052</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.8285</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>30.4771</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>19.2644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.907</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.0008</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.8152</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>20.8086</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>19.8123</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>18.3327</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>18.6433</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6417</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.8255</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.8327</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.8783</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.4315</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.88</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.26</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.293</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.9577</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.6963</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.2567</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.0037</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.8414</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.8774</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.0872</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.7784</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3415</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>42.2976</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8443</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>42.8458</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4081,19 +4789,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.04837</v>
+        <v>5.19586</v>
       </c>
       <c r="C2" t="n">
-        <v>5.70865</v>
+        <v>5.58629</v>
       </c>
       <c r="D2" t="n">
-        <v>5.57201</v>
+        <v>5.86783</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.0084</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11231</v>
+        <v>6.4788</v>
       </c>
       <c r="C3" t="n">
-        <v>6.79297</v>
+        <v>6.74045</v>
       </c>
       <c r="D3" t="n">
-        <v>8.386189999999999</v>
+        <v>8.80954</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.736</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.27483</v>
+        <v>8.63672</v>
       </c>
       <c r="C4" t="n">
-        <v>8.936719999999999</v>
+        <v>8.76014</v>
       </c>
       <c r="D4" t="n">
-        <v>11.5964</v>
+        <v>12.0016</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.0895</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.22608</v>
+        <v>11.0248</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0563</v>
+        <v>10.9418</v>
       </c>
       <c r="D5" t="n">
-        <v>14.4224</v>
+        <v>15.1487</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.2519</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.7546</v>
+        <v>13.2167</v>
       </c>
       <c r="C6" t="n">
-        <v>13.344</v>
+        <v>13.319</v>
       </c>
       <c r="D6" t="n">
-        <v>17.4332</v>
+        <v>17.9329</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.2852</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5266</v>
+        <v>15.7258</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7191</v>
+        <v>15.5881</v>
       </c>
       <c r="D7" t="n">
-        <v>20.4109</v>
+        <v>21.3121</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.4776</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.906</v>
+        <v>17.7716</v>
       </c>
       <c r="C8" t="n">
-        <v>17.8582</v>
+        <v>17.9769</v>
       </c>
       <c r="D8" t="n">
-        <v>24.2916</v>
+        <v>24.0304</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.2551</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4355</v>
+        <v>21.3524</v>
       </c>
       <c r="C9" t="n">
-        <v>21.2104</v>
+        <v>20.9304</v>
       </c>
       <c r="D9" t="n">
-        <v>27.1668</v>
+        <v>27.7053</v>
+      </c>
+      <c r="E9" t="n">
+        <v>35.4814</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7699</v>
+        <v>17.2453</v>
       </c>
       <c r="C10" t="n">
-        <v>17.9769</v>
+        <v>17.6295</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9553</v>
+        <v>22.5954</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28.59</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0515</v>
+        <v>17.4577</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9774</v>
+        <v>17.8794</v>
       </c>
       <c r="D11" t="n">
-        <v>22.5116</v>
+        <v>23.3367</v>
+      </c>
+      <c r="E11" t="n">
+        <v>29.4117</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5792</v>
+        <v>18.377</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7413</v>
+        <v>18.6992</v>
       </c>
       <c r="D12" t="n">
-        <v>23.7855</v>
+        <v>23.9721</v>
+      </c>
+      <c r="E12" t="n">
+        <v>30.7199</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0412</v>
+        <v>19.1124</v>
       </c>
       <c r="C13" t="n">
-        <v>19.1539</v>
+        <v>19.3821</v>
       </c>
       <c r="D13" t="n">
-        <v>24.7299</v>
+        <v>25.4868</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.6849</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9122</v>
+        <v>18.6935</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5093</v>
+        <v>19.1495</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4942</v>
+        <v>24.8505</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28.923</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1904</v>
+        <v>18.7905</v>
       </c>
       <c r="C15" t="n">
-        <v>19.7621</v>
+        <v>19.3764</v>
       </c>
       <c r="D15" t="n">
-        <v>22.9785</v>
+        <v>24.705</v>
+      </c>
+      <c r="E15" t="n">
+        <v>29.013</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.353</v>
+        <v>19.4767</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8356</v>
+        <v>19.8101</v>
       </c>
       <c r="D16" t="n">
-        <v>23.8245</v>
+        <v>24.4815</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30.9211</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.6938</v>
+        <v>19.8052</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2975</v>
+        <v>20.1637</v>
       </c>
       <c r="D17" t="n">
-        <v>24.0396</v>
+        <v>25.1808</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29.5037</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,19 +5106,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.646380000000001</v>
+        <v>8.62087</v>
       </c>
       <c r="C2" t="n">
-        <v>9.97484</v>
+        <v>9.96935</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2959</v>
+        <v>11.2512</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.8353</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.3711</v>
+        <v>8.987819999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.28471</v>
+        <v>9.392770000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4573</v>
+        <v>13.6175</v>
+      </c>
+      <c r="E3" t="n">
+        <v>17.1632</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.53472</v>
+        <v>11.3802</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9124</v>
+        <v>11.4823</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0353</v>
+        <v>17.662</v>
+      </c>
+      <c r="E4" t="n">
+        <v>23.0374</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3446</v>
+        <v>13.811</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0687</v>
+        <v>13.9275</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8952</v>
+        <v>21.6327</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.7431</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.5941</v>
+        <v>16.4791</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6516</v>
+        <v>16.9648</v>
       </c>
       <c r="D6" t="n">
-        <v>25.1208</v>
+        <v>25.348</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.2468</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0641</v>
+        <v>19.6135</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9612</v>
+        <v>19.9271</v>
       </c>
       <c r="D7" t="n">
-        <v>29.377</v>
+        <v>30.1108</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.0691</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.8325</v>
+        <v>22.1543</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3527</v>
+        <v>22.7403</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6635</v>
+        <v>33.2106</v>
+      </c>
+      <c r="E8" t="n">
+        <v>44.8888</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.9341</v>
+        <v>26.5944</v>
       </c>
       <c r="C9" t="n">
-        <v>26.5056</v>
+        <v>26.3751</v>
       </c>
       <c r="D9" t="n">
-        <v>39.0407</v>
+        <v>38.2806</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50.8521</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2493</v>
+        <v>23.3462</v>
       </c>
       <c r="C10" t="n">
-        <v>22.9484</v>
+        <v>23.2807</v>
       </c>
       <c r="D10" t="n">
-        <v>33.4008</v>
+        <v>33.7858</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43.6357</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1448</v>
+        <v>21.9795</v>
       </c>
       <c r="C11" t="n">
-        <v>23.1319</v>
+        <v>22.4579</v>
       </c>
       <c r="D11" t="n">
-        <v>33.1699</v>
+        <v>32.378</v>
+      </c>
+      <c r="E11" t="n">
+        <v>41.1628</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4804</v>
+        <v>22.7392</v>
       </c>
       <c r="C12" t="n">
-        <v>23.6675</v>
+        <v>23.3519</v>
       </c>
       <c r="D12" t="n">
-        <v>33.9081</v>
+        <v>32.7449</v>
+      </c>
+      <c r="E12" t="n">
+        <v>42.7782</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0033</v>
+        <v>23.8134</v>
       </c>
       <c r="C13" t="n">
-        <v>24.4067</v>
+        <v>23.8645</v>
       </c>
       <c r="D13" t="n">
-        <v>35.2977</v>
+        <v>34.8264</v>
+      </c>
+      <c r="E13" t="n">
+        <v>44.9528</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6241</v>
+        <v>23.379</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0208</v>
+        <v>24.1396</v>
       </c>
       <c r="D14" t="n">
-        <v>33.9054</v>
+        <v>33.5357</v>
+      </c>
+      <c r="E14" t="n">
+        <v>42.8134</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.136</v>
+        <v>23.79</v>
       </c>
       <c r="C15" t="n">
-        <v>24.2724</v>
+        <v>24.2621</v>
       </c>
       <c r="D15" t="n">
-        <v>33.5316</v>
+        <v>33.1933</v>
+      </c>
+      <c r="E15" t="n">
+        <v>41.5069</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5671</v>
+        <v>23.5897</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9807</v>
+        <v>24.8058</v>
       </c>
       <c r="D16" t="n">
-        <v>34.4529</v>
+        <v>32.5643</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42.6184</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4442</v>
+        <v>23.9727</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9891</v>
+        <v>24.853</v>
       </c>
       <c r="D17" t="n">
-        <v>34.1021</v>
+        <v>32.8447</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40.3721</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4609,19 +5423,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42793</v>
+        <v>6.40537</v>
       </c>
       <c r="C2" t="n">
-        <v>6.52568</v>
+        <v>6.53816</v>
       </c>
       <c r="D2" t="n">
-        <v>7.10939</v>
+        <v>7.0852</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.94924</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.0646</v>
+        <v>7.31682</v>
       </c>
       <c r="C3" t="n">
-        <v>7.43291</v>
+        <v>7.51659</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0415</v>
+        <v>10.1333</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.8597</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.325799999999999</v>
+        <v>9.28918</v>
       </c>
       <c r="C4" t="n">
-        <v>9.110480000000001</v>
+        <v>9.69111</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5922</v>
+        <v>13.8755</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.6473</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0017</v>
+        <v>11.3315</v>
       </c>
       <c r="C5" t="n">
-        <v>11.3626</v>
+        <v>12.0665</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3299</v>
+        <v>17.6264</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.3575</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7349</v>
+        <v>13.4744</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2828</v>
+        <v>14.4893</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0392</v>
+        <v>21.3059</v>
+      </c>
+      <c r="E6" t="n">
+        <v>25.85</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.0198</v>
+        <v>15.9026</v>
       </c>
       <c r="C7" t="n">
-        <v>16.8496</v>
+        <v>16.9329</v>
       </c>
       <c r="D7" t="n">
-        <v>25.2701</v>
+        <v>25.2429</v>
+      </c>
+      <c r="E7" t="n">
+        <v>30.668</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0206</v>
+        <v>18.0587</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1488</v>
+        <v>19.2988</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6199</v>
+        <v>28.7069</v>
+      </c>
+      <c r="E8" t="n">
+        <v>34.7595</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2191</v>
+        <v>21.0876</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0493</v>
+        <v>22.0735</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3085</v>
+        <v>33.2314</v>
+      </c>
+      <c r="E9" t="n">
+        <v>39.6206</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.2698</v>
+        <v>18.1288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1408</v>
+        <v>19.1721</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5015</v>
+        <v>27.8556</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.7411</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9159</v>
+        <v>17.9831</v>
       </c>
       <c r="C11" t="n">
-        <v>18.966</v>
+        <v>18.9643</v>
       </c>
       <c r="D11" t="n">
-        <v>27.841</v>
+        <v>28.0125</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.7082</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5248</v>
+        <v>18.4484</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8146</v>
+        <v>19.7568</v>
       </c>
       <c r="D12" t="n">
-        <v>29.4937</v>
+        <v>28.7171</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.7054</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1781</v>
+        <v>19.6259</v>
       </c>
       <c r="C13" t="n">
-        <v>20.0686</v>
+        <v>20.3888</v>
       </c>
       <c r="D13" t="n">
-        <v>30.2639</v>
+        <v>29.9499</v>
+      </c>
+      <c r="E13" t="n">
+        <v>34.8993</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.614</v>
+        <v>19.2991</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3841</v>
+        <v>20.3777</v>
       </c>
       <c r="D14" t="n">
-        <v>28.5619</v>
+        <v>28.6539</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.8139</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.984</v>
+        <v>19.1309</v>
       </c>
       <c r="C15" t="n">
-        <v>20.3391</v>
+        <v>20.5208</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7147</v>
+        <v>28.7014</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.5052</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.2565</v>
+        <v>19.721</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9329</v>
+        <v>21.0205</v>
       </c>
       <c r="D16" t="n">
-        <v>29.3791</v>
+        <v>29.6004</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.5265</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2978</v>
+        <v>19.8803</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4166</v>
+        <v>21.5083</v>
       </c>
       <c r="D17" t="n">
-        <v>29.5088</v>
+        <v>29.6425</v>
+      </c>
+      <c r="E17" t="n">
+        <v>33.6894</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4873,19 +5740,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.96317</v>
+        <v>3.00213</v>
       </c>
       <c r="C2" t="n">
-        <v>5.03975</v>
+        <v>4.9574</v>
       </c>
       <c r="D2" t="n">
-        <v>4.86027</v>
+        <v>5.07378</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.26966</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.87225</v>
+        <v>5.10346</v>
       </c>
       <c r="C3" t="n">
-        <v>6.7095</v>
+        <v>6.58354</v>
       </c>
       <c r="D3" t="n">
-        <v>8.07375</v>
+        <v>8.37321</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.5936</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.5517</v>
+        <v>7.23723</v>
       </c>
       <c r="C4" t="n">
-        <v>8.78063</v>
+        <v>8.717599999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.2534</v>
+        <v>11.6349</v>
+      </c>
+      <c r="E4" t="n">
+        <v>14.9753</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.11675</v>
+        <v>9.3803</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9014</v>
+        <v>10.857</v>
       </c>
       <c r="D5" t="n">
-        <v>14.2628</v>
+        <v>14.7249</v>
+      </c>
+      <c r="E5" t="n">
+        <v>19.1854</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.68045</v>
+        <v>11.4923</v>
       </c>
       <c r="C6" t="n">
-        <v>13.1524</v>
+        <v>13.0489</v>
       </c>
       <c r="D6" t="n">
-        <v>17.2241</v>
+        <v>17.7509</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.3911</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1463</v>
+        <v>13.6746</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3697</v>
+        <v>15.2615</v>
       </c>
       <c r="D7" t="n">
-        <v>20.13</v>
+        <v>20.7105</v>
+      </c>
+      <c r="E7" t="n">
+        <v>27.5467</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6154</v>
+        <v>15.7451</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7673</v>
+        <v>17.6832</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0904</v>
+        <v>23.6598</v>
+      </c>
+      <c r="E8" t="n">
+        <v>31.5201</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8385</v>
+        <v>18.2437</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9233</v>
+        <v>20.8084</v>
       </c>
       <c r="D9" t="n">
-        <v>27.3819</v>
+        <v>28.1579</v>
+      </c>
+      <c r="E9" t="n">
+        <v>36.118</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0106</v>
+        <v>17.338</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4451</v>
+        <v>19.3011</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1518</v>
+        <v>25.507</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33.5627</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.7791</v>
+        <v>16.8606</v>
       </c>
       <c r="C11" t="n">
-        <v>19.4214</v>
+        <v>19.3113</v>
       </c>
       <c r="D11" t="n">
-        <v>25.2418</v>
+        <v>25.8619</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.5616</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1674</v>
+        <v>17.3544</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4629</v>
+        <v>19.4066</v>
       </c>
       <c r="D12" t="n">
-        <v>25.1381</v>
+        <v>25.942</v>
+      </c>
+      <c r="E12" t="n">
+        <v>33.0691</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.2225</v>
+        <v>17.9137</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4895</v>
+        <v>19.5668</v>
       </c>
       <c r="D13" t="n">
-        <v>25.479</v>
+        <v>26.2359</v>
+      </c>
+      <c r="E13" t="n">
+        <v>33.609</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8983</v>
+        <v>17.1334</v>
       </c>
       <c r="C14" t="n">
-        <v>19.7062</v>
+        <v>19.5903</v>
       </c>
       <c r="D14" t="n">
-        <v>24.67</v>
+        <v>25.2006</v>
+      </c>
+      <c r="E14" t="n">
+        <v>32.4582</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4643</v>
+        <v>18.033</v>
       </c>
       <c r="C15" t="n">
-        <v>19.8524</v>
+        <v>19.6632</v>
       </c>
       <c r="D15" t="n">
-        <v>25.46</v>
+        <v>25.7077</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.4222</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.1284</v>
+        <v>17.7359</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0235</v>
+        <v>19.9595</v>
       </c>
       <c r="D16" t="n">
-        <v>25.0548</v>
+        <v>25.828</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.216</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1451</v>
+        <v>17.7423</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1509</v>
+        <v>20.0489</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0575</v>
+        <v>25.9683</v>
+      </c>
+      <c r="E17" t="n">
+        <v>32.5086</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,19 +6057,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98599</v>
+        <v>3.98871</v>
       </c>
       <c r="C2" t="n">
-        <v>8.20162</v>
+        <v>8.232189999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.7934</v>
+        <v>8.78801</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.4485</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.11664</v>
+        <v>6.28737</v>
       </c>
       <c r="C3" t="n">
-        <v>8.879899999999999</v>
+        <v>8.792960000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.7796</v>
+        <v>12.6272</v>
+      </c>
+      <c r="E3" t="n">
+        <v>16.7242</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.16301</v>
+        <v>8.736000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2356</v>
+        <v>11.2241</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0428</v>
+        <v>16.9723</v>
+      </c>
+      <c r="E4" t="n">
+        <v>22.894</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.101</v>
+        <v>11.2459</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7085</v>
+        <v>13.7398</v>
       </c>
       <c r="D5" t="n">
-        <v>21.1118</v>
+        <v>21.0112</v>
+      </c>
+      <c r="E5" t="n">
+        <v>28.6697</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9605</v>
+        <v>13.8147</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3048</v>
+        <v>16.3475</v>
       </c>
       <c r="D6" t="n">
-        <v>25.1536</v>
+        <v>25.0506</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.5542</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7826</v>
+        <v>16.2939</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9723</v>
+        <v>19.0305</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1133</v>
+        <v>28.9535</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40.2988</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.5371</v>
+        <v>18.8439</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0782</v>
+        <v>22.085</v>
       </c>
       <c r="D8" t="n">
-        <v>33.0994</v>
+        <v>33.123</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45.9323</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0675</v>
+        <v>21.7748</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6011</v>
+        <v>25.8071</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4449</v>
+        <v>39.3323</v>
+      </c>
+      <c r="E9" t="n">
+        <v>52.6319</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0258</v>
+        <v>20.6996</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6149</v>
+        <v>23.8411</v>
       </c>
       <c r="D10" t="n">
-        <v>36.4574</v>
+        <v>36.5332</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47.4832</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0329</v>
+        <v>20.5502</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5746</v>
+        <v>23.5488</v>
       </c>
       <c r="D11" t="n">
-        <v>36.1622</v>
+        <v>35.595</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47.2981</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.149</v>
+        <v>20.5159</v>
       </c>
       <c r="C12" t="n">
-        <v>23.7824</v>
+        <v>23.8476</v>
       </c>
       <c r="D12" t="n">
-        <v>35.85</v>
+        <v>36.1596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>46.9896</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5989</v>
+        <v>21.0351</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1565</v>
+        <v>24.2565</v>
       </c>
       <c r="D13" t="n">
-        <v>35.6901</v>
+        <v>35.9249</v>
+      </c>
+      <c r="E13" t="n">
+        <v>45.3563</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.954</v>
+        <v>20.4921</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2668</v>
+        <v>24.2546</v>
       </c>
       <c r="D14" t="n">
-        <v>34.9804</v>
+        <v>35.1227</v>
+      </c>
+      <c r="E14" t="n">
+        <v>45.4765</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4678</v>
+        <v>21.5458</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5567</v>
+        <v>24.515</v>
       </c>
       <c r="D15" t="n">
-        <v>35.511</v>
+        <v>35.1505</v>
+      </c>
+      <c r="E15" t="n">
+        <v>45.559</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.486</v>
+        <v>21.3186</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6683</v>
+        <v>24.7308</v>
       </c>
       <c r="D16" t="n">
-        <v>35.1701</v>
+        <v>35.311</v>
+      </c>
+      <c r="E16" t="n">
+        <v>45.7924</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.0212</v>
+        <v>21.0411</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8241</v>
+        <v>24.8721</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5025</v>
+        <v>34.2718</v>
+      </c>
+      <c r="E17" t="n">
+        <v>44.4593</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +6347,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5401,19 +6374,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26166</v>
+        <v>5.25328</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28252</v>
+        <v>6.29061</v>
       </c>
       <c r="D2" t="n">
-        <v>6.69328</v>
+        <v>6.69117</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.71615</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.82114</v>
+        <v>6.8182</v>
       </c>
       <c r="C3" t="n">
-        <v>7.53486</v>
+        <v>7.43186</v>
       </c>
       <c r="D3" t="n">
-        <v>9.909520000000001</v>
+        <v>9.916790000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.9817</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.66991</v>
+        <v>9.05472</v>
       </c>
       <c r="C4" t="n">
-        <v>9.66677</v>
+        <v>9.65579</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6066</v>
+        <v>13.6549</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.8721</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5345</v>
+        <v>11.2393</v>
       </c>
       <c r="C5" t="n">
-        <v>11.863</v>
+        <v>11.9189</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3972</v>
+        <v>17.3563</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.7458</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3994</v>
+        <v>13.3935</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2272</v>
+        <v>14.249</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1174</v>
+        <v>21.1083</v>
+      </c>
+      <c r="E6" t="n">
+        <v>26.5389</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2041</v>
+        <v>15.623</v>
       </c>
       <c r="C7" t="n">
-        <v>16.5608</v>
+        <v>16.6135</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7819</v>
+        <v>24.8562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>31.2179</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9197</v>
+        <v>18.091</v>
       </c>
       <c r="C8" t="n">
-        <v>17.972</v>
+        <v>19.1761</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6515</v>
+        <v>28.6641</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36.0299</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.6795</v>
+        <v>21.327</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6412</v>
+        <v>22.0722</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1871</v>
+        <v>33.4981</v>
+      </c>
+      <c r="E9" t="n">
+        <v>41.6253</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6662</v>
+        <v>19.9592</v>
       </c>
       <c r="C10" t="n">
-        <v>20.5091</v>
+        <v>20.8565</v>
       </c>
       <c r="D10" t="n">
-        <v>30.735</v>
+        <v>31.0739</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38.8973</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5537</v>
+        <v>19.991</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0761</v>
+        <v>20.684</v>
       </c>
       <c r="D11" t="n">
-        <v>30.3302</v>
+        <v>30.8154</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37.7464</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4838</v>
+        <v>20.2411</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6123</v>
+        <v>20.8438</v>
       </c>
       <c r="D12" t="n">
-        <v>31.0915</v>
+        <v>31.1346</v>
+      </c>
+      <c r="E12" t="n">
+        <v>38.1759</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6718</v>
+        <v>20.3447</v>
       </c>
       <c r="C13" t="n">
-        <v>20.1243</v>
+        <v>20.9427</v>
       </c>
       <c r="D13" t="n">
-        <v>31.3106</v>
+        <v>31.6734</v>
+      </c>
+      <c r="E13" t="n">
+        <v>38.3067</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9674</v>
+        <v>19.7303</v>
       </c>
       <c r="C14" t="n">
-        <v>20.0178</v>
+        <v>21.1444</v>
       </c>
       <c r="D14" t="n">
-        <v>30.2394</v>
+        <v>30.1374</v>
+      </c>
+      <c r="E14" t="n">
+        <v>37.1107</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2664</v>
+        <v>20.5294</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5962</v>
+        <v>21.237</v>
       </c>
       <c r="D15" t="n">
-        <v>30.7445</v>
+        <v>31.4047</v>
+      </c>
+      <c r="E15" t="n">
+        <v>37.9347</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5131</v>
+        <v>20.34</v>
       </c>
       <c r="C16" t="n">
-        <v>20.8124</v>
+        <v>21.4417</v>
       </c>
       <c r="D16" t="n">
-        <v>30.5911</v>
+        <v>30.9386</v>
+      </c>
+      <c r="E16" t="n">
+        <v>38.5969</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2537</v>
+        <v>20.1945</v>
       </c>
       <c r="C17" t="n">
-        <v>20.8558</v>
+        <v>21.7344</v>
       </c>
       <c r="D17" t="n">
-        <v>30.4396</v>
+        <v>31.3515</v>
+      </c>
+      <c r="E17" t="n">
+        <v>38.2167</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.19586</v>
+        <v>5.25819</v>
       </c>
       <c r="C2" t="n">
-        <v>5.58629</v>
+        <v>5.59202</v>
       </c>
       <c r="D2" t="n">
-        <v>5.86783</v>
+        <v>5.87221</v>
       </c>
       <c r="E2" t="n">
-        <v>7.0084</v>
+        <v>6.99717</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.4788</v>
+        <v>6.44278</v>
       </c>
       <c r="C3" t="n">
-        <v>6.74045</v>
+        <v>6.68594</v>
       </c>
       <c r="D3" t="n">
-        <v>8.80954</v>
+        <v>8.61378</v>
       </c>
       <c r="E3" t="n">
-        <v>10.736</v>
+        <v>10.6489</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.63672</v>
+        <v>8.25041</v>
       </c>
       <c r="C4" t="n">
-        <v>8.76014</v>
+        <v>8.16296</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0016</v>
+        <v>11.7579</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0895</v>
+        <v>14.6369</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0248</v>
+        <v>10.3727</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9418</v>
+        <v>10.0113</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1487</v>
+        <v>14.7672</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2519</v>
+        <v>18.7544</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.2167</v>
+        <v>12.3949</v>
       </c>
       <c r="C6" t="n">
-        <v>13.319</v>
+        <v>12.2937</v>
       </c>
       <c r="D6" t="n">
-        <v>17.9329</v>
+        <v>17.8573</v>
       </c>
       <c r="E6" t="n">
-        <v>23.2852</v>
+        <v>22.6147</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.7258</v>
+        <v>14.5333</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5881</v>
+        <v>14.2741</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3121</v>
+        <v>20.6777</v>
       </c>
       <c r="E7" t="n">
-        <v>27.4776</v>
+        <v>26.411</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7716</v>
+        <v>16.8088</v>
       </c>
       <c r="C8" t="n">
-        <v>17.9769</v>
+        <v>17.2751</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0304</v>
+        <v>23.5669</v>
       </c>
       <c r="E8" t="n">
-        <v>31.2551</v>
+        <v>30.2274</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3524</v>
+        <v>20.6136</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9304</v>
+        <v>20.81</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7053</v>
+        <v>27.7826</v>
       </c>
       <c r="E9" t="n">
-        <v>35.4814</v>
+        <v>35.6311</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2453</v>
+        <v>16.6787</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6295</v>
+        <v>17.8258</v>
       </c>
       <c r="D10" t="n">
-        <v>22.5954</v>
+        <v>22.8279</v>
       </c>
       <c r="E10" t="n">
-        <v>28.59</v>
+        <v>28.5216</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4577</v>
+        <v>16.8404</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8794</v>
+        <v>17.1059</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3367</v>
+        <v>23.1433</v>
       </c>
       <c r="E11" t="n">
-        <v>29.4117</v>
+        <v>27.3136</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.377</v>
+        <v>17.7662</v>
       </c>
       <c r="C12" t="n">
-        <v>18.6992</v>
+        <v>17.5121</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9721</v>
+        <v>24.0395</v>
       </c>
       <c r="E12" t="n">
-        <v>30.7199</v>
+        <v>30.2887</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1124</v>
+        <v>18.3121</v>
       </c>
       <c r="C13" t="n">
-        <v>19.3821</v>
+        <v>18.6217</v>
       </c>
       <c r="D13" t="n">
-        <v>25.4868</v>
+        <v>25.5612</v>
       </c>
       <c r="E13" t="n">
-        <v>30.6849</v>
+        <v>31.3408</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6935</v>
+        <v>18.2523</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1495</v>
+        <v>18.5452</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8505</v>
+        <v>24.2774</v>
       </c>
       <c r="E14" t="n">
-        <v>28.923</v>
+        <v>30.1136</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7905</v>
+        <v>18.89</v>
       </c>
       <c r="C15" t="n">
-        <v>19.3764</v>
+        <v>19.3286</v>
       </c>
       <c r="D15" t="n">
-        <v>24.705</v>
+        <v>24.5587</v>
       </c>
       <c r="E15" t="n">
-        <v>29.013</v>
+        <v>30.2947</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4767</v>
+        <v>19.2026</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8101</v>
+        <v>19.7267</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4815</v>
+        <v>25.2828</v>
       </c>
       <c r="E16" t="n">
-        <v>30.9211</v>
+        <v>30.4107</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8052</v>
+        <v>19.8527</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1637</v>
+        <v>20.0633</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1808</v>
+        <v>25.6775</v>
       </c>
       <c r="E17" t="n">
-        <v>29.5037</v>
+        <v>30.8724</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.62087</v>
+        <v>8.687939999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.96935</v>
+        <v>9.979050000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2512</v>
+        <v>11.2397</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8353</v>
+        <v>13.7091</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.987819999999999</v>
+        <v>8.984769999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.392770000000001</v>
+        <v>9.62602</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6175</v>
+        <v>13.0796</v>
       </c>
       <c r="E3" t="n">
-        <v>17.1632</v>
+        <v>16.2451</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.3802</v>
+        <v>10.5325</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4823</v>
+        <v>10.9907</v>
       </c>
       <c r="D4" t="n">
-        <v>17.662</v>
+        <v>17.058</v>
       </c>
       <c r="E4" t="n">
-        <v>23.0374</v>
+        <v>21.9807</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.811</v>
+        <v>12.9229</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9275</v>
+        <v>13.356</v>
       </c>
       <c r="D5" t="n">
-        <v>21.6327</v>
+        <v>21.4796</v>
       </c>
       <c r="E5" t="n">
-        <v>28.7431</v>
+        <v>27.4382</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4791</v>
+        <v>15.2982</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9648</v>
+        <v>15.589</v>
       </c>
       <c r="D6" t="n">
-        <v>25.348</v>
+        <v>25.5327</v>
       </c>
       <c r="E6" t="n">
-        <v>34.2468</v>
+        <v>33.1747</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.6135</v>
+        <v>17.6148</v>
       </c>
       <c r="C7" t="n">
-        <v>19.9271</v>
+        <v>17.9441</v>
       </c>
       <c r="D7" t="n">
-        <v>30.1108</v>
+        <v>29.1339</v>
       </c>
       <c r="E7" t="n">
-        <v>40.0691</v>
+        <v>38.0313</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.1543</v>
+        <v>20.8308</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7403</v>
+        <v>21.6876</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2106</v>
+        <v>32.6529</v>
       </c>
       <c r="E8" t="n">
-        <v>44.8888</v>
+        <v>43.5298</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.5944</v>
+        <v>25.9479</v>
       </c>
       <c r="C9" t="n">
-        <v>26.3751</v>
+        <v>26.2442</v>
       </c>
       <c r="D9" t="n">
-        <v>38.2806</v>
+        <v>38.9798</v>
       </c>
       <c r="E9" t="n">
-        <v>50.8521</v>
+        <v>49.8775</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.3462</v>
+        <v>22.5827</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2807</v>
+        <v>23.2401</v>
       </c>
       <c r="D10" t="n">
-        <v>33.7858</v>
+        <v>33.8765</v>
       </c>
       <c r="E10" t="n">
-        <v>43.6357</v>
+        <v>42.8146</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9795</v>
+        <v>21.1513</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4579</v>
+        <v>22.0892</v>
       </c>
       <c r="D11" t="n">
-        <v>32.378</v>
+        <v>32.4164</v>
       </c>
       <c r="E11" t="n">
-        <v>41.1628</v>
+        <v>40.7186</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.7392</v>
+        <v>22.2044</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3519</v>
+        <v>21.9702</v>
       </c>
       <c r="D12" t="n">
-        <v>32.7449</v>
+        <v>33.3692</v>
       </c>
       <c r="E12" t="n">
-        <v>42.7782</v>
+        <v>41.204</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.8134</v>
+        <v>22.382</v>
       </c>
       <c r="C13" t="n">
-        <v>23.8645</v>
+        <v>23.5449</v>
       </c>
       <c r="D13" t="n">
-        <v>34.8264</v>
+        <v>33.6229</v>
       </c>
       <c r="E13" t="n">
-        <v>44.9528</v>
+        <v>42.3847</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.379</v>
+        <v>23.4283</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1396</v>
+        <v>24.0967</v>
       </c>
       <c r="D14" t="n">
-        <v>33.5357</v>
+        <v>33.5433</v>
       </c>
       <c r="E14" t="n">
-        <v>42.8134</v>
+        <v>42.2707</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.79</v>
+        <v>23.5232</v>
       </c>
       <c r="C15" t="n">
-        <v>24.2621</v>
+        <v>24.5538</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1933</v>
+        <v>33.7982</v>
       </c>
       <c r="E15" t="n">
-        <v>41.5069</v>
+        <v>42.0236</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5897</v>
+        <v>24.0073</v>
       </c>
       <c r="C16" t="n">
-        <v>24.8058</v>
+        <v>24.7992</v>
       </c>
       <c r="D16" t="n">
-        <v>32.5643</v>
+        <v>33.7746</v>
       </c>
       <c r="E16" t="n">
-        <v>42.6184</v>
+        <v>41.0604</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.9727</v>
+        <v>24.1559</v>
       </c>
       <c r="C17" t="n">
-        <v>24.853</v>
+        <v>25.2769</v>
       </c>
       <c r="D17" t="n">
-        <v>32.8447</v>
+        <v>33.5983</v>
       </c>
       <c r="E17" t="n">
-        <v>40.3721</v>
+        <v>41.2939</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.40537</v>
+        <v>6.40621</v>
       </c>
       <c r="C2" t="n">
-        <v>6.53816</v>
+        <v>6.54021</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0852</v>
+        <v>7.09331</v>
       </c>
       <c r="E2" t="n">
-        <v>7.94924</v>
+        <v>7.95828</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.31682</v>
+        <v>7.10768</v>
       </c>
       <c r="C3" t="n">
-        <v>7.51659</v>
+        <v>7.42852</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1333</v>
+        <v>9.983879999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>11.8597</v>
+        <v>11.5016</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.28918</v>
+        <v>9.24038</v>
       </c>
       <c r="C4" t="n">
-        <v>9.69111</v>
+        <v>9.357839999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8755</v>
+        <v>13.8459</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6473</v>
+        <v>16.5254</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3315</v>
+        <v>10.3398</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0665</v>
+        <v>10.8553</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6264</v>
+        <v>17.2609</v>
       </c>
       <c r="E5" t="n">
-        <v>21.3575</v>
+        <v>20.3793</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4744</v>
+        <v>12.5423</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4893</v>
+        <v>13.2759</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3059</v>
+        <v>20.7366</v>
       </c>
       <c r="E6" t="n">
-        <v>25.85</v>
+        <v>24.8024</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9026</v>
+        <v>14.7916</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9329</v>
+        <v>15.5921</v>
       </c>
       <c r="D7" t="n">
-        <v>25.2429</v>
+        <v>24.8325</v>
       </c>
       <c r="E7" t="n">
-        <v>30.668</v>
+        <v>29.4592</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0587</v>
+        <v>16.9166</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2988</v>
+        <v>17.8117</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7069</v>
+        <v>28.1117</v>
       </c>
       <c r="E8" t="n">
-        <v>34.7595</v>
+        <v>33.3375</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0876</v>
+        <v>19.7364</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0735</v>
+        <v>20.4545</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2314</v>
+        <v>32.9404</v>
       </c>
       <c r="E9" t="n">
-        <v>39.6206</v>
+        <v>38.5337</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1288</v>
+        <v>17.3091</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1721</v>
+        <v>18.0521</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8556</v>
+        <v>27.6235</v>
       </c>
       <c r="E10" t="n">
-        <v>32.7411</v>
+        <v>32.029</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9831</v>
+        <v>17.0947</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9643</v>
+        <v>18.0374</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0125</v>
+        <v>27.8218</v>
       </c>
       <c r="E11" t="n">
-        <v>32.7082</v>
+        <v>32.1991</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4484</v>
+        <v>17.8858</v>
       </c>
       <c r="C12" t="n">
-        <v>19.7568</v>
+        <v>18.6206</v>
       </c>
       <c r="D12" t="n">
-        <v>28.7171</v>
+        <v>29.3562</v>
       </c>
       <c r="E12" t="n">
-        <v>32.7054</v>
+        <v>33.4794</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6259</v>
+        <v>18.5122</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3888</v>
+        <v>19.2965</v>
       </c>
       <c r="D13" t="n">
-        <v>29.9499</v>
+        <v>29.3973</v>
       </c>
       <c r="E13" t="n">
-        <v>34.8993</v>
+        <v>33.5854</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2991</v>
+        <v>18.0561</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3777</v>
+        <v>19.5862</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6539</v>
+        <v>28.3812</v>
       </c>
       <c r="E14" t="n">
-        <v>32.8139</v>
+        <v>32.6031</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1309</v>
+        <v>18.3798</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5208</v>
+        <v>19.6632</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7014</v>
+        <v>28.5064</v>
       </c>
       <c r="E15" t="n">
-        <v>32.5052</v>
+        <v>32.1177</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.721</v>
+        <v>18.3311</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0205</v>
+        <v>20.2105</v>
       </c>
       <c r="D16" t="n">
-        <v>29.6004</v>
+        <v>29.027</v>
       </c>
       <c r="E16" t="n">
-        <v>32.5265</v>
+        <v>32.8003</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8803</v>
+        <v>19.2042</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5083</v>
+        <v>20.5811</v>
       </c>
       <c r="D17" t="n">
-        <v>29.6425</v>
+        <v>29.3516</v>
       </c>
       <c r="E17" t="n">
-        <v>33.6894</v>
+        <v>32.7896</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.00213</v>
+        <v>3.05767</v>
       </c>
       <c r="C2" t="n">
-        <v>4.9574</v>
+        <v>4.96135</v>
       </c>
       <c r="D2" t="n">
-        <v>5.07378</v>
+        <v>5.10583</v>
       </c>
       <c r="E2" t="n">
-        <v>6.26966</v>
+        <v>6.32405</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.10346</v>
+        <v>5.08875</v>
       </c>
       <c r="C3" t="n">
-        <v>6.58354</v>
+        <v>6.60337</v>
       </c>
       <c r="D3" t="n">
-        <v>8.37321</v>
+        <v>8.332409999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5936</v>
+        <v>10.4752</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.23723</v>
+        <v>7.27676</v>
       </c>
       <c r="C4" t="n">
-        <v>8.717599999999999</v>
+        <v>8.539210000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6349</v>
+        <v>11.6335</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9753</v>
+        <v>14.9196</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.3803</v>
+        <v>9.37462</v>
       </c>
       <c r="C5" t="n">
-        <v>10.857</v>
+        <v>10.1627</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7249</v>
+        <v>14.7006</v>
       </c>
       <c r="E5" t="n">
-        <v>19.1854</v>
+        <v>19.178</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4923</v>
+        <v>11.5234</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0489</v>
+        <v>12.9347</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7509</v>
+        <v>17.7136</v>
       </c>
       <c r="E6" t="n">
-        <v>23.3911</v>
+        <v>23.3276</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6746</v>
+        <v>13.611</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2615</v>
+        <v>15.1027</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7105</v>
+        <v>20.5898</v>
       </c>
       <c r="E7" t="n">
-        <v>27.5467</v>
+        <v>27.4368</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7451</v>
+        <v>15.794</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6832</v>
+        <v>17.5087</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6598</v>
+        <v>23.5333</v>
       </c>
       <c r="E8" t="n">
-        <v>31.5201</v>
+        <v>31.4149</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2437</v>
+        <v>18.2796</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8084</v>
+        <v>20.6177</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1579</v>
+        <v>28.044</v>
       </c>
       <c r="E9" t="n">
-        <v>36.118</v>
+        <v>36.113</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.338</v>
+        <v>17.2013</v>
       </c>
       <c r="C10" t="n">
-        <v>19.3011</v>
+        <v>19.3146</v>
       </c>
       <c r="D10" t="n">
-        <v>25.507</v>
+        <v>26.1314</v>
       </c>
       <c r="E10" t="n">
-        <v>33.5627</v>
+        <v>32.9224</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.8606</v>
+        <v>17.1862</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3113</v>
+        <v>19.3368</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8619</v>
+        <v>25.73</v>
       </c>
       <c r="E11" t="n">
-        <v>32.5616</v>
+        <v>33.3986</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3544</v>
+        <v>17.4635</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4066</v>
+        <v>19.2462</v>
       </c>
       <c r="D12" t="n">
-        <v>25.942</v>
+        <v>26.1259</v>
       </c>
       <c r="E12" t="n">
-        <v>33.0691</v>
+        <v>33.3309</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9137</v>
+        <v>17.7666</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5668</v>
+        <v>19.4592</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2359</v>
+        <v>26.0402</v>
       </c>
       <c r="E13" t="n">
-        <v>33.609</v>
+        <v>33.7235</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1334</v>
+        <v>17.1554</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5903</v>
+        <v>19.3704</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2006</v>
+        <v>25.0883</v>
       </c>
       <c r="E14" t="n">
-        <v>32.4582</v>
+        <v>32.5185</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.033</v>
+        <v>17.8592</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6632</v>
+        <v>19.5658</v>
       </c>
       <c r="D15" t="n">
-        <v>25.7077</v>
+        <v>25.92</v>
       </c>
       <c r="E15" t="n">
-        <v>32.4222</v>
+        <v>32.6591</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7359</v>
+        <v>17.7599</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9595</v>
+        <v>19.6576</v>
       </c>
       <c r="D16" t="n">
-        <v>25.828</v>
+        <v>25.854</v>
       </c>
       <c r="E16" t="n">
-        <v>32.216</v>
+        <v>32.5773</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7423</v>
+        <v>17.6778</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0489</v>
+        <v>19.7124</v>
       </c>
       <c r="D17" t="n">
-        <v>25.9683</v>
+        <v>26.1219</v>
       </c>
       <c r="E17" t="n">
-        <v>32.5086</v>
+        <v>32.4998</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98871</v>
+        <v>3.94631</v>
       </c>
       <c r="C2" t="n">
-        <v>8.232189999999999</v>
+        <v>8.17352</v>
       </c>
       <c r="D2" t="n">
-        <v>8.78801</v>
+        <v>8.759650000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>11.4485</v>
+        <v>11.3699</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.28737</v>
+        <v>6.28796</v>
       </c>
       <c r="C3" t="n">
-        <v>8.792960000000001</v>
+        <v>8.83954</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6272</v>
+        <v>12.6546</v>
       </c>
       <c r="E3" t="n">
-        <v>16.7242</v>
+        <v>16.7507</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.736000000000001</v>
+        <v>8.782019999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2241</v>
+        <v>11.1882</v>
       </c>
       <c r="D4" t="n">
-        <v>16.9723</v>
+        <v>16.933</v>
       </c>
       <c r="E4" t="n">
-        <v>22.894</v>
+        <v>22.7628</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2459</v>
+        <v>11.2695</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7398</v>
+        <v>13.2533</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0112</v>
+        <v>21.02</v>
       </c>
       <c r="E5" t="n">
-        <v>28.6697</v>
+        <v>28.5002</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8147</v>
+        <v>13.7388</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3475</v>
+        <v>15.9179</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0506</v>
+        <v>24.9632</v>
       </c>
       <c r="E6" t="n">
-        <v>34.5542</v>
+        <v>34.3783</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2939</v>
+        <v>16.3257</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0305</v>
+        <v>18.9611</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9535</v>
+        <v>28.9707</v>
       </c>
       <c r="E7" t="n">
-        <v>40.2988</v>
+        <v>40.0307</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8439</v>
+        <v>19.0624</v>
       </c>
       <c r="C8" t="n">
-        <v>22.085</v>
+        <v>21.8843</v>
       </c>
       <c r="D8" t="n">
-        <v>33.123</v>
+        <v>32.9151</v>
       </c>
       <c r="E8" t="n">
-        <v>45.9323</v>
+        <v>45.652</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7748</v>
+        <v>21.9226</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8071</v>
+        <v>25.6821</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3323</v>
+        <v>39.4282</v>
       </c>
       <c r="E9" t="n">
-        <v>52.6319</v>
+        <v>52.4181</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6996</v>
+        <v>20.1602</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8411</v>
+        <v>23.6656</v>
       </c>
       <c r="D10" t="n">
-        <v>36.5332</v>
+        <v>36.0025</v>
       </c>
       <c r="E10" t="n">
-        <v>47.4832</v>
+        <v>47.8631</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5502</v>
+        <v>20.3124</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5488</v>
+        <v>23.4775</v>
       </c>
       <c r="D11" t="n">
-        <v>35.595</v>
+        <v>36.042</v>
       </c>
       <c r="E11" t="n">
-        <v>47.2981</v>
+        <v>47.7453</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5159</v>
+        <v>20.8302</v>
       </c>
       <c r="C12" t="n">
-        <v>23.8476</v>
+        <v>23.6012</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1596</v>
+        <v>36.3752</v>
       </c>
       <c r="E12" t="n">
-        <v>46.9896</v>
+        <v>47.4107</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0351</v>
+        <v>21.3648</v>
       </c>
       <c r="C13" t="n">
-        <v>24.2565</v>
+        <v>24.1802</v>
       </c>
       <c r="D13" t="n">
-        <v>35.9249</v>
+        <v>36.3993</v>
       </c>
       <c r="E13" t="n">
-        <v>45.3563</v>
+        <v>46.8659</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.4921</v>
+        <v>20.4949</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2546</v>
+        <v>23.9672</v>
       </c>
       <c r="D14" t="n">
-        <v>35.1227</v>
+        <v>35.1023</v>
       </c>
       <c r="E14" t="n">
-        <v>45.4765</v>
+        <v>45.5223</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5458</v>
+        <v>21.2501</v>
       </c>
       <c r="C15" t="n">
-        <v>24.515</v>
+        <v>24.1023</v>
       </c>
       <c r="D15" t="n">
-        <v>35.1505</v>
+        <v>35.4696</v>
       </c>
       <c r="E15" t="n">
-        <v>45.559</v>
+        <v>45.5253</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3186</v>
+        <v>21.1396</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7308</v>
+        <v>24.456</v>
       </c>
       <c r="D16" t="n">
-        <v>35.311</v>
+        <v>35.0913</v>
       </c>
       <c r="E16" t="n">
-        <v>45.7924</v>
+        <v>45.8321</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0411</v>
+        <v>21.1281</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8721</v>
+        <v>24.6967</v>
       </c>
       <c r="D17" t="n">
-        <v>34.2718</v>
+        <v>34.856</v>
       </c>
       <c r="E17" t="n">
-        <v>44.4593</v>
+        <v>44.2847</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.25328</v>
+        <v>5.28716</v>
       </c>
       <c r="C2" t="n">
-        <v>6.29061</v>
+        <v>6.28238</v>
       </c>
       <c r="D2" t="n">
-        <v>6.69117</v>
+        <v>6.68085</v>
       </c>
       <c r="E2" t="n">
-        <v>7.71615</v>
+        <v>7.68761</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.8182</v>
+        <v>6.83831</v>
       </c>
       <c r="C3" t="n">
-        <v>7.43186</v>
+        <v>7.45972</v>
       </c>
       <c r="D3" t="n">
-        <v>9.916790000000001</v>
+        <v>9.906599999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9817</v>
+        <v>11.8871</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.05472</v>
+        <v>8.99743</v>
       </c>
       <c r="C4" t="n">
-        <v>9.65579</v>
+        <v>9.03444</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6549</v>
+        <v>13.6458</v>
       </c>
       <c r="E4" t="n">
-        <v>16.8721</v>
+        <v>16.608</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2393</v>
+        <v>11.1946</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9189</v>
+        <v>11.4094</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3563</v>
+        <v>17.2928</v>
       </c>
       <c r="E5" t="n">
-        <v>21.7458</v>
+        <v>21.2015</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3935</v>
+        <v>13.3696</v>
       </c>
       <c r="C6" t="n">
-        <v>14.249</v>
+        <v>13.306</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1083</v>
+        <v>21.0259</v>
       </c>
       <c r="E6" t="n">
-        <v>26.5389</v>
+        <v>26.0812</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.623</v>
+        <v>15.5963</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6135</v>
+        <v>15.6683</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8562</v>
+        <v>24.9509</v>
       </c>
       <c r="E7" t="n">
-        <v>31.2179</v>
+        <v>31.0301</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.091</v>
+        <v>16.7065</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1761</v>
+        <v>17.4124</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6641</v>
+        <v>28.2781</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0299</v>
+        <v>35.4508</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.327</v>
+        <v>20.2112</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0722</v>
+        <v>20.5576</v>
       </c>
       <c r="D9" t="n">
-        <v>33.4981</v>
+        <v>33.0544</v>
       </c>
       <c r="E9" t="n">
-        <v>41.6253</v>
+        <v>40.8339</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9592</v>
+        <v>19.2602</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8565</v>
+        <v>20.079</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0739</v>
+        <v>30.6283</v>
       </c>
       <c r="E10" t="n">
-        <v>38.8973</v>
+        <v>37.5506</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.991</v>
+        <v>19.0009</v>
       </c>
       <c r="C11" t="n">
-        <v>20.684</v>
+        <v>19.7979</v>
       </c>
       <c r="D11" t="n">
-        <v>30.8154</v>
+        <v>30.7818</v>
       </c>
       <c r="E11" t="n">
-        <v>37.7464</v>
+        <v>36.9649</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.2411</v>
+        <v>19.8325</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8438</v>
+        <v>20.1798</v>
       </c>
       <c r="D12" t="n">
-        <v>31.1346</v>
+        <v>30.9629</v>
       </c>
       <c r="E12" t="n">
-        <v>38.1759</v>
+        <v>37.9498</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3447</v>
+        <v>19.6474</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9427</v>
+        <v>19.9163</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6734</v>
+        <v>31.4004</v>
       </c>
       <c r="E13" t="n">
-        <v>38.3067</v>
+        <v>37.9061</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7303</v>
+        <v>19.392</v>
       </c>
       <c r="C14" t="n">
-        <v>21.1444</v>
+        <v>19.8577</v>
       </c>
       <c r="D14" t="n">
-        <v>30.1374</v>
+        <v>30.3123</v>
       </c>
       <c r="E14" t="n">
-        <v>37.1107</v>
+        <v>36.8032</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5294</v>
+        <v>19.2506</v>
       </c>
       <c r="C15" t="n">
-        <v>21.237</v>
+        <v>20.4396</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4047</v>
+        <v>31.484</v>
       </c>
       <c r="E15" t="n">
-        <v>37.9347</v>
+        <v>37.3496</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.34</v>
+        <v>19.2541</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4417</v>
+        <v>20.4989</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9386</v>
+        <v>30.8291</v>
       </c>
       <c r="E16" t="n">
-        <v>38.5969</v>
+        <v>37.1494</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.1945</v>
+        <v>19.1956</v>
       </c>
       <c r="C17" t="n">
-        <v>21.7344</v>
+        <v>20.5606</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3515</v>
+        <v>30.3024</v>
       </c>
       <c r="E17" t="n">
-        <v>38.2167</v>
+        <v>37.2352</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.19586</v>
+        <v>5.24927</v>
       </c>
       <c r="C2" t="n">
-        <v>5.58629</v>
+        <v>5.58277</v>
       </c>
       <c r="D2" t="n">
-        <v>5.86783</v>
+        <v>5.8731</v>
       </c>
       <c r="E2" t="n">
-        <v>7.0084</v>
+        <v>7.01157</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.4788</v>
+        <v>6.59537</v>
       </c>
       <c r="C3" t="n">
-        <v>6.74045</v>
+        <v>6.8558</v>
       </c>
       <c r="D3" t="n">
-        <v>8.80954</v>
+        <v>8.82287</v>
       </c>
       <c r="E3" t="n">
-        <v>10.736</v>
+        <v>10.6534</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.63672</v>
+        <v>8.49075</v>
       </c>
       <c r="C4" t="n">
-        <v>8.76014</v>
+        <v>8.824009999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0016</v>
+        <v>11.9601</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0895</v>
+        <v>14.9855</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0248</v>
+        <v>10.8289</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9418</v>
+        <v>10.9241</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1487</v>
+        <v>14.9697</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2519</v>
+        <v>19.1369</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.2167</v>
+        <v>13.0903</v>
       </c>
       <c r="C6" t="n">
-        <v>13.319</v>
+        <v>13.2124</v>
       </c>
       <c r="D6" t="n">
-        <v>17.9329</v>
+        <v>17.951</v>
       </c>
       <c r="E6" t="n">
-        <v>23.2852</v>
+        <v>23.2032</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.7258</v>
+        <v>15.5651</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5881</v>
+        <v>15.7338</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3121</v>
+        <v>21.2854</v>
       </c>
       <c r="E7" t="n">
-        <v>27.4776</v>
+        <v>27.4093</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7716</v>
+        <v>17.7234</v>
       </c>
       <c r="C8" t="n">
-        <v>17.9769</v>
+        <v>18.0667</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0304</v>
+        <v>23.8758</v>
       </c>
       <c r="E8" t="n">
-        <v>31.2551</v>
+        <v>31.2661</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.3524</v>
+        <v>21.2979</v>
       </c>
       <c r="C9" t="n">
-        <v>20.9304</v>
+        <v>20.8225</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7053</v>
+        <v>28.0785</v>
       </c>
       <c r="E9" t="n">
-        <v>35.4814</v>
+        <v>35.1338</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2453</v>
+        <v>16.9377</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6295</v>
+        <v>17.7459</v>
       </c>
       <c r="D10" t="n">
-        <v>22.5954</v>
+        <v>22.8682</v>
       </c>
       <c r="E10" t="n">
-        <v>28.59</v>
+        <v>28.3734</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4577</v>
+        <v>17.3492</v>
       </c>
       <c r="C11" t="n">
-        <v>17.8794</v>
+        <v>17.7089</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3367</v>
+        <v>23.1776</v>
       </c>
       <c r="E11" t="n">
-        <v>29.4117</v>
+        <v>28.8608</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.377</v>
+        <v>18.271</v>
       </c>
       <c r="C12" t="n">
-        <v>18.6992</v>
+        <v>18.7384</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9721</v>
+        <v>24.6418</v>
       </c>
       <c r="E12" t="n">
-        <v>30.7199</v>
+        <v>31.158</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1124</v>
+        <v>19.301</v>
       </c>
       <c r="C13" t="n">
-        <v>19.3821</v>
+        <v>19.1079</v>
       </c>
       <c r="D13" t="n">
-        <v>25.4868</v>
+        <v>24.4715</v>
       </c>
       <c r="E13" t="n">
-        <v>30.6849</v>
+        <v>31.6569</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6935</v>
+        <v>18.5899</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1495</v>
+        <v>19.2539</v>
       </c>
       <c r="D14" t="n">
-        <v>24.8505</v>
+        <v>24.1232</v>
       </c>
       <c r="E14" t="n">
-        <v>28.923</v>
+        <v>30.0828</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7905</v>
+        <v>18.8466</v>
       </c>
       <c r="C15" t="n">
-        <v>19.3764</v>
+        <v>19.3942</v>
       </c>
       <c r="D15" t="n">
-        <v>24.705</v>
+        <v>24.0564</v>
       </c>
       <c r="E15" t="n">
-        <v>29.013</v>
+        <v>29.7663</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.4767</v>
+        <v>19.3257</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8101</v>
+        <v>19.6654</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4815</v>
+        <v>25.0659</v>
       </c>
       <c r="E16" t="n">
-        <v>30.9211</v>
+        <v>30.5029</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8052</v>
+        <v>19.5042</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1637</v>
+        <v>20.1694</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1808</v>
+        <v>24.2064</v>
       </c>
       <c r="E17" t="n">
-        <v>29.5037</v>
+        <v>29.6689</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.62087</v>
+        <v>8.65193</v>
       </c>
       <c r="C2" t="n">
-        <v>9.96935</v>
+        <v>9.97071</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2512</v>
+        <v>11.2571</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8353</v>
+        <v>13.8432</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.987819999999999</v>
+        <v>9.00891</v>
       </c>
       <c r="C3" t="n">
-        <v>9.392770000000001</v>
+        <v>9.48813</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6175</v>
+        <v>13.7116</v>
       </c>
       <c r="E3" t="n">
-        <v>17.1632</v>
+        <v>17.3101</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.3802</v>
+        <v>11.26</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4823</v>
+        <v>11.5454</v>
       </c>
       <c r="D4" t="n">
-        <v>17.662</v>
+        <v>17.7233</v>
       </c>
       <c r="E4" t="n">
-        <v>23.0374</v>
+        <v>22.9749</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.811</v>
+        <v>13.7688</v>
       </c>
       <c r="C5" t="n">
-        <v>13.9275</v>
+        <v>14.0408</v>
       </c>
       <c r="D5" t="n">
-        <v>21.6327</v>
+        <v>21.457</v>
       </c>
       <c r="E5" t="n">
-        <v>28.7431</v>
+        <v>28.4422</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.4791</v>
+        <v>16.3886</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9648</v>
+        <v>16.833</v>
       </c>
       <c r="D6" t="n">
-        <v>25.348</v>
+        <v>25.3626</v>
       </c>
       <c r="E6" t="n">
-        <v>34.2468</v>
+        <v>34.1091</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.6135</v>
+        <v>19.4092</v>
       </c>
       <c r="C7" t="n">
-        <v>19.9271</v>
+        <v>19.9013</v>
       </c>
       <c r="D7" t="n">
-        <v>30.1108</v>
+        <v>30.049</v>
       </c>
       <c r="E7" t="n">
-        <v>40.0691</v>
+        <v>40.203</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.1543</v>
+        <v>22.0071</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7403</v>
+        <v>22.5116</v>
       </c>
       <c r="D8" t="n">
-        <v>33.2106</v>
+        <v>33.2028</v>
       </c>
       <c r="E8" t="n">
-        <v>44.8888</v>
+        <v>44.7708</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.5944</v>
+        <v>26.6115</v>
       </c>
       <c r="C9" t="n">
-        <v>26.3751</v>
+        <v>26.0326</v>
       </c>
       <c r="D9" t="n">
-        <v>38.2806</v>
+        <v>38.6365</v>
       </c>
       <c r="E9" t="n">
-        <v>50.8521</v>
+        <v>50.6485</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.3462</v>
+        <v>23.0621</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2807</v>
+        <v>22.5864</v>
       </c>
       <c r="D10" t="n">
-        <v>33.7858</v>
+        <v>33.0392</v>
       </c>
       <c r="E10" t="n">
-        <v>43.6357</v>
+        <v>42.8256</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9795</v>
+        <v>22.5176</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4579</v>
+        <v>22.7309</v>
       </c>
       <c r="D11" t="n">
-        <v>32.378</v>
+        <v>32.3828</v>
       </c>
       <c r="E11" t="n">
-        <v>41.1628</v>
+        <v>41.4908</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.7392</v>
+        <v>22.8164</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3519</v>
+        <v>23.6196</v>
       </c>
       <c r="D12" t="n">
-        <v>32.7449</v>
+        <v>34.3797</v>
       </c>
       <c r="E12" t="n">
-        <v>42.7782</v>
+        <v>43.521</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.8134</v>
+        <v>23.732</v>
       </c>
       <c r="C13" t="n">
-        <v>23.8645</v>
+        <v>23.7531</v>
       </c>
       <c r="D13" t="n">
-        <v>34.8264</v>
+        <v>34.5787</v>
       </c>
       <c r="E13" t="n">
-        <v>44.9528</v>
+        <v>43.7922</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.379</v>
+        <v>23.5304</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1396</v>
+        <v>23.9912</v>
       </c>
       <c r="D14" t="n">
-        <v>33.5357</v>
+        <v>33.9218</v>
       </c>
       <c r="E14" t="n">
-        <v>42.8134</v>
+        <v>42.293</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.79</v>
+        <v>23.6745</v>
       </c>
       <c r="C15" t="n">
-        <v>24.2621</v>
+        <v>24.2673</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1933</v>
+        <v>33.2596</v>
       </c>
       <c r="E15" t="n">
-        <v>41.5069</v>
+        <v>40.6349</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.5897</v>
+        <v>23.8051</v>
       </c>
       <c r="C16" t="n">
-        <v>24.8058</v>
+        <v>25.0006</v>
       </c>
       <c r="D16" t="n">
-        <v>32.5643</v>
+        <v>32.9968</v>
       </c>
       <c r="E16" t="n">
-        <v>42.6184</v>
+        <v>41.2313</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.9727</v>
+        <v>23.5946</v>
       </c>
       <c r="C17" t="n">
-        <v>24.853</v>
+        <v>24.8639</v>
       </c>
       <c r="D17" t="n">
-        <v>32.8447</v>
+        <v>34.8969</v>
       </c>
       <c r="E17" t="n">
-        <v>40.3721</v>
+        <v>41.2405</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.40537</v>
+        <v>6.4078</v>
       </c>
       <c r="C2" t="n">
-        <v>6.53816</v>
+        <v>6.53892</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0852</v>
+        <v>7.08801</v>
       </c>
       <c r="E2" t="n">
-        <v>7.94924</v>
+        <v>7.95349</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.31682</v>
+        <v>7.20805</v>
       </c>
       <c r="C3" t="n">
-        <v>7.51659</v>
+        <v>7.50237</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1333</v>
+        <v>10.031</v>
       </c>
       <c r="E3" t="n">
-        <v>11.8597</v>
+        <v>11.7019</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.28918</v>
+        <v>9.238390000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.69111</v>
+        <v>9.6469</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8755</v>
+        <v>13.8471</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6473</v>
+        <v>16.585</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3315</v>
+        <v>11.2965</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0665</v>
+        <v>11.9969</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6264</v>
+        <v>17.6587</v>
       </c>
       <c r="E5" t="n">
-        <v>21.3575</v>
+        <v>21.3615</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4744</v>
+        <v>13.5465</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4893</v>
+        <v>14.3802</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3059</v>
+        <v>21.4324</v>
       </c>
       <c r="E6" t="n">
-        <v>25.85</v>
+        <v>26.0315</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9026</v>
+        <v>15.8415</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9329</v>
+        <v>16.8928</v>
       </c>
       <c r="D7" t="n">
-        <v>25.2429</v>
+        <v>25.2614</v>
       </c>
       <c r="E7" t="n">
-        <v>30.668</v>
+        <v>30.4937</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0587</v>
+        <v>18.0588</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2988</v>
+        <v>19.3014</v>
       </c>
       <c r="D8" t="n">
-        <v>28.7069</v>
+        <v>28.6864</v>
       </c>
       <c r="E8" t="n">
-        <v>34.7595</v>
+        <v>34.8406</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0876</v>
+        <v>21.0508</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0735</v>
+        <v>22.0612</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2314</v>
+        <v>33.2792</v>
       </c>
       <c r="E9" t="n">
-        <v>39.6206</v>
+        <v>39.4547</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1288</v>
+        <v>18.0513</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1721</v>
+        <v>19.2044</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8556</v>
+        <v>27.3224</v>
       </c>
       <c r="E10" t="n">
-        <v>32.7411</v>
+        <v>32.689</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9831</v>
+        <v>17.9999</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9643</v>
+        <v>19.13</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0125</v>
+        <v>27.9498</v>
       </c>
       <c r="E11" t="n">
-        <v>32.7082</v>
+        <v>33.359</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4484</v>
+        <v>18.662</v>
       </c>
       <c r="C12" t="n">
-        <v>19.7568</v>
+        <v>19.8578</v>
       </c>
       <c r="D12" t="n">
-        <v>28.7171</v>
+        <v>28.3976</v>
       </c>
       <c r="E12" t="n">
-        <v>32.7054</v>
+        <v>33.4805</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6259</v>
+        <v>19.2419</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3888</v>
+        <v>20.2658</v>
       </c>
       <c r="D13" t="n">
-        <v>29.9499</v>
+        <v>29.6716</v>
       </c>
       <c r="E13" t="n">
-        <v>34.8993</v>
+        <v>34.8768</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.2991</v>
+        <v>19.3059</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3777</v>
+        <v>20.3671</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6539</v>
+        <v>28.9819</v>
       </c>
       <c r="E14" t="n">
-        <v>32.8139</v>
+        <v>33.4084</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.1309</v>
+        <v>19.3507</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5208</v>
+        <v>20.4715</v>
       </c>
       <c r="D15" t="n">
-        <v>28.7014</v>
+        <v>28.5163</v>
       </c>
       <c r="E15" t="n">
-        <v>32.5052</v>
+        <v>33.5446</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.721</v>
+        <v>19.2193</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0205</v>
+        <v>21.0926</v>
       </c>
       <c r="D16" t="n">
-        <v>29.6004</v>
+        <v>28.8498</v>
       </c>
       <c r="E16" t="n">
-        <v>32.5265</v>
+        <v>33.5736</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8803</v>
+        <v>19.8122</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5083</v>
+        <v>21.4947</v>
       </c>
       <c r="D17" t="n">
-        <v>29.6425</v>
+        <v>29.5353</v>
       </c>
       <c r="E17" t="n">
-        <v>33.6894</v>
+        <v>33.8595</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.00213</v>
+        <v>2.99972</v>
       </c>
       <c r="C2" t="n">
-        <v>4.9574</v>
+        <v>4.94483</v>
       </c>
       <c r="D2" t="n">
-        <v>5.07378</v>
+        <v>5.07942</v>
       </c>
       <c r="E2" t="n">
-        <v>6.26966</v>
+        <v>6.28776</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.10346</v>
+        <v>5.03749</v>
       </c>
       <c r="C3" t="n">
-        <v>6.58354</v>
+        <v>6.53403</v>
       </c>
       <c r="D3" t="n">
-        <v>8.37321</v>
+        <v>8.32755</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5936</v>
+        <v>10.5156</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.23723</v>
+        <v>7.19989</v>
       </c>
       <c r="C4" t="n">
-        <v>8.717599999999999</v>
+        <v>8.72513</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6349</v>
+        <v>11.6399</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9753</v>
+        <v>14.9736</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.3803</v>
+        <v>9.354559999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.857</v>
+        <v>10.8566</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7249</v>
+        <v>14.7321</v>
       </c>
       <c r="E5" t="n">
-        <v>19.1854</v>
+        <v>19.2476</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4923</v>
+        <v>11.436</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0489</v>
+        <v>13.0164</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7509</v>
+        <v>17.698</v>
       </c>
       <c r="E6" t="n">
-        <v>23.3911</v>
+        <v>23.4766</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6746</v>
+        <v>13.5692</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2615</v>
+        <v>15.1878</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7105</v>
+        <v>20.5721</v>
       </c>
       <c r="E7" t="n">
-        <v>27.5467</v>
+        <v>27.526</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7451</v>
+        <v>15.6671</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6832</v>
+        <v>17.657</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6598</v>
+        <v>23.5876</v>
       </c>
       <c r="E8" t="n">
-        <v>31.5201</v>
+        <v>31.6737</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2437</v>
+        <v>18.3141</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8084</v>
+        <v>20.7548</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1579</v>
+        <v>28.0204</v>
       </c>
       <c r="E9" t="n">
-        <v>36.118</v>
+        <v>36.3086</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.338</v>
+        <v>17.2682</v>
       </c>
       <c r="C10" t="n">
-        <v>19.3011</v>
+        <v>19.3591</v>
       </c>
       <c r="D10" t="n">
-        <v>25.507</v>
+        <v>25.726</v>
       </c>
       <c r="E10" t="n">
-        <v>33.5627</v>
+        <v>33.4773</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.8606</v>
+        <v>17.2526</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3113</v>
+        <v>19.1795</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8619</v>
+        <v>25.7623</v>
       </c>
       <c r="E11" t="n">
-        <v>32.5616</v>
+        <v>33.1797</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3544</v>
+        <v>17.3396</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4066</v>
+        <v>19.2988</v>
       </c>
       <c r="D12" t="n">
-        <v>25.942</v>
+        <v>26.0569</v>
       </c>
       <c r="E12" t="n">
-        <v>33.0691</v>
+        <v>32.8821</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9137</v>
+        <v>17.7803</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5668</v>
+        <v>19.6791</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2359</v>
+        <v>26.1226</v>
       </c>
       <c r="E13" t="n">
-        <v>33.609</v>
+        <v>33.7624</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1334</v>
+        <v>17.1344</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5903</v>
+        <v>19.5568</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2006</v>
+        <v>25.388</v>
       </c>
       <c r="E14" t="n">
-        <v>32.4582</v>
+        <v>32.2496</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.033</v>
+        <v>17.9449</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6632</v>
+        <v>19.7171</v>
       </c>
       <c r="D15" t="n">
-        <v>25.7077</v>
+        <v>26.126</v>
       </c>
       <c r="E15" t="n">
-        <v>32.4222</v>
+        <v>32.8621</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7359</v>
+        <v>17.9105</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9595</v>
+        <v>19.8941</v>
       </c>
       <c r="D16" t="n">
-        <v>25.828</v>
+        <v>26.032</v>
       </c>
       <c r="E16" t="n">
-        <v>32.216</v>
+        <v>32.5762</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7423</v>
+        <v>17.7372</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0489</v>
+        <v>20.0007</v>
       </c>
       <c r="D17" t="n">
-        <v>25.9683</v>
+        <v>26.2123</v>
       </c>
       <c r="E17" t="n">
-        <v>32.5086</v>
+        <v>32.2495</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98871</v>
+        <v>3.96377</v>
       </c>
       <c r="C2" t="n">
-        <v>8.232189999999999</v>
+        <v>8.183009999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.78801</v>
+        <v>8.8012</v>
       </c>
       <c r="E2" t="n">
-        <v>11.4485</v>
+        <v>11.4709</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.28737</v>
+        <v>6.25218</v>
       </c>
       <c r="C3" t="n">
-        <v>8.792960000000001</v>
+        <v>8.85778</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6272</v>
+        <v>12.6753</v>
       </c>
       <c r="E3" t="n">
-        <v>16.7242</v>
+        <v>16.7433</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.736000000000001</v>
+        <v>8.706300000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2241</v>
+        <v>11.1778</v>
       </c>
       <c r="D4" t="n">
-        <v>16.9723</v>
+        <v>16.9414</v>
       </c>
       <c r="E4" t="n">
-        <v>22.894</v>
+        <v>22.9392</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2459</v>
+        <v>11.2189</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7398</v>
+        <v>13.7028</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0112</v>
+        <v>21.0455</v>
       </c>
       <c r="E5" t="n">
-        <v>28.6697</v>
+        <v>28.9187</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8147</v>
+        <v>13.8352</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3475</v>
+        <v>16.2985</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0506</v>
+        <v>24.9558</v>
       </c>
       <c r="E6" t="n">
-        <v>34.5542</v>
+        <v>34.823</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2939</v>
+        <v>16.3549</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0305</v>
+        <v>18.9872</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9535</v>
+        <v>28.8848</v>
       </c>
       <c r="E7" t="n">
-        <v>40.2988</v>
+        <v>40.4756</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8439</v>
+        <v>18.9994</v>
       </c>
       <c r="C8" t="n">
-        <v>22.085</v>
+        <v>22.0627</v>
       </c>
       <c r="D8" t="n">
-        <v>33.123</v>
+        <v>33.0877</v>
       </c>
       <c r="E8" t="n">
-        <v>45.9323</v>
+        <v>46.1096</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7748</v>
+        <v>22.0476</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8071</v>
+        <v>25.7375</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3323</v>
+        <v>39.4208</v>
       </c>
       <c r="E9" t="n">
-        <v>52.6319</v>
+        <v>53.0396</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.6996</v>
+        <v>20.3773</v>
       </c>
       <c r="C10" t="n">
-        <v>23.8411</v>
+        <v>24.1285</v>
       </c>
       <c r="D10" t="n">
-        <v>36.5332</v>
+        <v>35.9169</v>
       </c>
       <c r="E10" t="n">
-        <v>47.4832</v>
+        <v>47.8775</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5502</v>
+        <v>20.2894</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5488</v>
+        <v>23.9741</v>
       </c>
       <c r="D11" t="n">
-        <v>35.595</v>
+        <v>35.8196</v>
       </c>
       <c r="E11" t="n">
-        <v>47.2981</v>
+        <v>46.7007</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5159</v>
+        <v>20.7079</v>
       </c>
       <c r="C12" t="n">
-        <v>23.8476</v>
+        <v>24.0367</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1596</v>
+        <v>36.4173</v>
       </c>
       <c r="E12" t="n">
-        <v>46.9896</v>
+        <v>47.8528</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0351</v>
+        <v>21.226</v>
       </c>
       <c r="C13" t="n">
-        <v>24.2565</v>
+        <v>24.1461</v>
       </c>
       <c r="D13" t="n">
-        <v>35.9249</v>
+        <v>36.4706</v>
       </c>
       <c r="E13" t="n">
-        <v>45.3563</v>
+        <v>47.0621</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.4921</v>
+        <v>20.6107</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2546</v>
+        <v>24.2165</v>
       </c>
       <c r="D14" t="n">
-        <v>35.1227</v>
+        <v>34.9079</v>
       </c>
       <c r="E14" t="n">
-        <v>45.4765</v>
+        <v>45.4239</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5458</v>
+        <v>21.3005</v>
       </c>
       <c r="C15" t="n">
-        <v>24.515</v>
+        <v>24.5144</v>
       </c>
       <c r="D15" t="n">
-        <v>35.1505</v>
+        <v>35.9041</v>
       </c>
       <c r="E15" t="n">
-        <v>45.559</v>
+        <v>46.3462</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.3186</v>
+        <v>21.4426</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7308</v>
+        <v>24.6933</v>
       </c>
       <c r="D16" t="n">
-        <v>35.311</v>
+        <v>35.0444</v>
       </c>
       <c r="E16" t="n">
-        <v>45.7924</v>
+        <v>43.9222</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0411</v>
+        <v>21.2024</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8721</v>
+        <v>24.887</v>
       </c>
       <c r="D17" t="n">
-        <v>34.2718</v>
+        <v>35.1466</v>
       </c>
       <c r="E17" t="n">
-        <v>44.4593</v>
+        <v>45.3524</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.25328</v>
+        <v>5.35309</v>
       </c>
       <c r="C2" t="n">
-        <v>6.29061</v>
+        <v>6.29117</v>
       </c>
       <c r="D2" t="n">
-        <v>6.69117</v>
+        <v>6.69734</v>
       </c>
       <c r="E2" t="n">
-        <v>7.71615</v>
+        <v>7.72189</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.8182</v>
+        <v>6.90982</v>
       </c>
       <c r="C3" t="n">
-        <v>7.43186</v>
+        <v>7.62032</v>
       </c>
       <c r="D3" t="n">
-        <v>9.916790000000001</v>
+        <v>9.95243</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9817</v>
+        <v>11.9765</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.05472</v>
+        <v>9.1007</v>
       </c>
       <c r="C4" t="n">
-        <v>9.65579</v>
+        <v>9.730840000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6549</v>
+        <v>13.7386</v>
       </c>
       <c r="E4" t="n">
-        <v>16.8721</v>
+        <v>16.9271</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2393</v>
+        <v>11.2374</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9189</v>
+        <v>11.9393</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3563</v>
+        <v>17.4438</v>
       </c>
       <c r="E5" t="n">
-        <v>21.7458</v>
+        <v>21.7914</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3935</v>
+        <v>13.4308</v>
       </c>
       <c r="C6" t="n">
-        <v>14.249</v>
+        <v>14.2688</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1083</v>
+        <v>21.1344</v>
       </c>
       <c r="E6" t="n">
-        <v>26.5389</v>
+        <v>26.5795</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.623</v>
+        <v>15.6331</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6135</v>
+        <v>16.6084</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8562</v>
+        <v>24.8132</v>
       </c>
       <c r="E7" t="n">
-        <v>31.2179</v>
+        <v>31.304</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.091</v>
+        <v>18.0632</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1761</v>
+        <v>19.1347</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6641</v>
+        <v>28.6003</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0299</v>
+        <v>35.9844</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.327</v>
+        <v>21.3233</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0722</v>
+        <v>22.0627</v>
       </c>
       <c r="D9" t="n">
-        <v>33.4981</v>
+        <v>33.5643</v>
       </c>
       <c r="E9" t="n">
-        <v>41.6253</v>
+        <v>41.4676</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9592</v>
+        <v>20.3061</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8565</v>
+        <v>20.505</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0739</v>
+        <v>31.0324</v>
       </c>
       <c r="E10" t="n">
-        <v>38.8973</v>
+        <v>38.6629</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.991</v>
+        <v>20.1591</v>
       </c>
       <c r="C11" t="n">
-        <v>20.684</v>
+        <v>20.4471</v>
       </c>
       <c r="D11" t="n">
-        <v>30.8154</v>
+        <v>30.612</v>
       </c>
       <c r="E11" t="n">
-        <v>37.7464</v>
+        <v>37.3437</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.2411</v>
+        <v>20.1815</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8438</v>
+        <v>21.0875</v>
       </c>
       <c r="D12" t="n">
-        <v>31.1346</v>
+        <v>30.8543</v>
       </c>
       <c r="E12" t="n">
-        <v>38.1759</v>
+        <v>38.4811</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.3447</v>
+        <v>20.3811</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9427</v>
+        <v>20.8974</v>
       </c>
       <c r="D13" t="n">
-        <v>31.6734</v>
+        <v>31.515</v>
       </c>
       <c r="E13" t="n">
-        <v>38.3067</v>
+        <v>38.5735</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7303</v>
+        <v>19.6302</v>
       </c>
       <c r="C14" t="n">
-        <v>21.1444</v>
+        <v>21.1293</v>
       </c>
       <c r="D14" t="n">
-        <v>30.1374</v>
+        <v>30.4724</v>
       </c>
       <c r="E14" t="n">
-        <v>37.1107</v>
+        <v>37.4628</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5294</v>
+        <v>20.5073</v>
       </c>
       <c r="C15" t="n">
-        <v>21.237</v>
+        <v>21.1535</v>
       </c>
       <c r="D15" t="n">
-        <v>31.4047</v>
+        <v>31.1258</v>
       </c>
       <c r="E15" t="n">
-        <v>37.9347</v>
+        <v>37.8504</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.34</v>
+        <v>20.4522</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4417</v>
+        <v>21.4321</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9386</v>
+        <v>31.2343</v>
       </c>
       <c r="E16" t="n">
-        <v>38.5969</v>
+        <v>38.2273</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.1945</v>
+        <v>20.2831</v>
       </c>
       <c r="C17" t="n">
-        <v>21.7344</v>
+        <v>21.6676</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3515</v>
+        <v>30.6582</v>
       </c>
       <c r="E17" t="n">
-        <v>38.2167</v>
+        <v>38.1376</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.25819</v>
+        <v>5.23324</v>
       </c>
       <c r="C2" t="n">
-        <v>5.59202</v>
+        <v>5.58481</v>
       </c>
       <c r="D2" t="n">
-        <v>5.87221</v>
+        <v>5.87257</v>
       </c>
       <c r="E2" t="n">
-        <v>6.99717</v>
+        <v>7.01245</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.44278</v>
+        <v>6.72607</v>
       </c>
       <c r="C3" t="n">
-        <v>6.68594</v>
+        <v>6.89171</v>
       </c>
       <c r="D3" t="n">
-        <v>8.61378</v>
+        <v>8.883789999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.6489</v>
+        <v>10.825</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.25041</v>
+        <v>8.9023</v>
       </c>
       <c r="C4" t="n">
-        <v>8.16296</v>
+        <v>8.913130000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7579</v>
+        <v>12.0931</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6369</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3727</v>
+        <v>11.0574</v>
       </c>
       <c r="C5" t="n">
-        <v>10.0113</v>
+        <v>11.1512</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7672</v>
+        <v>15.1609</v>
       </c>
       <c r="E5" t="n">
-        <v>18.7544</v>
+        <v>19.1684</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3949</v>
+        <v>13.1034</v>
       </c>
       <c r="C6" t="n">
-        <v>12.2937</v>
+        <v>13.4429</v>
       </c>
       <c r="D6" t="n">
-        <v>17.8573</v>
+        <v>18.0764</v>
       </c>
       <c r="E6" t="n">
-        <v>22.6147</v>
+        <v>23.3026</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.5333</v>
+        <v>15.6363</v>
       </c>
       <c r="C7" t="n">
-        <v>14.2741</v>
+        <v>15.7749</v>
       </c>
       <c r="D7" t="n">
-        <v>20.6777</v>
+        <v>21.2536</v>
       </c>
       <c r="E7" t="n">
-        <v>26.411</v>
+        <v>27.3838</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.8088</v>
+        <v>17.7231</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2751</v>
+        <v>18.1516</v>
       </c>
       <c r="D8" t="n">
-        <v>23.5669</v>
+        <v>23.8348</v>
       </c>
       <c r="E8" t="n">
-        <v>30.2274</v>
+        <v>31.204</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.6136</v>
+        <v>21.1804</v>
       </c>
       <c r="C9" t="n">
-        <v>20.81</v>
+        <v>21.2912</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7826</v>
+        <v>28.0091</v>
       </c>
       <c r="E9" t="n">
-        <v>35.6311</v>
+        <v>35.1721</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.6787</v>
+        <v>17.0016</v>
       </c>
       <c r="C10" t="n">
-        <v>17.8258</v>
+        <v>17.5977</v>
       </c>
       <c r="D10" t="n">
-        <v>22.8279</v>
+        <v>22.3716</v>
       </c>
       <c r="E10" t="n">
-        <v>28.5216</v>
+        <v>28.3203</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.8404</v>
+        <v>17.4925</v>
       </c>
       <c r="C11" t="n">
-        <v>17.1059</v>
+        <v>17.9181</v>
       </c>
       <c r="D11" t="n">
-        <v>23.1433</v>
+        <v>23.506</v>
       </c>
       <c r="E11" t="n">
-        <v>27.3136</v>
+        <v>29.0159</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7662</v>
+        <v>18.3923</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5121</v>
+        <v>18.7918</v>
       </c>
       <c r="D12" t="n">
-        <v>24.0395</v>
+        <v>24.9907</v>
       </c>
       <c r="E12" t="n">
-        <v>30.2887</v>
+        <v>30.0525</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.3121</v>
+        <v>19.5517</v>
       </c>
       <c r="C13" t="n">
-        <v>18.6217</v>
+        <v>19.4674</v>
       </c>
       <c r="D13" t="n">
-        <v>25.5612</v>
+        <v>24.5283</v>
       </c>
       <c r="E13" t="n">
-        <v>31.3408</v>
+        <v>30.9106</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.2523</v>
+        <v>18.4784</v>
       </c>
       <c r="C14" t="n">
-        <v>18.5452</v>
+        <v>19.2568</v>
       </c>
       <c r="D14" t="n">
-        <v>24.2774</v>
+        <v>24.4851</v>
       </c>
       <c r="E14" t="n">
-        <v>30.1136</v>
+        <v>30.014</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.89</v>
+        <v>18.6236</v>
       </c>
       <c r="C15" t="n">
-        <v>19.3286</v>
+        <v>19.5296</v>
       </c>
       <c r="D15" t="n">
-        <v>24.5587</v>
+        <v>24.0503</v>
       </c>
       <c r="E15" t="n">
-        <v>30.2947</v>
+        <v>30.0845</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2026</v>
+        <v>19.2643</v>
       </c>
       <c r="C16" t="n">
-        <v>19.7267</v>
+        <v>19.9228</v>
       </c>
       <c r="D16" t="n">
-        <v>25.2828</v>
+        <v>24.9264</v>
       </c>
       <c r="E16" t="n">
-        <v>30.4107</v>
+        <v>30.6374</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.8527</v>
+        <v>19.4635</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0633</v>
+        <v>19.936</v>
       </c>
       <c r="D17" t="n">
-        <v>25.6775</v>
+        <v>24.2215</v>
       </c>
       <c r="E17" t="n">
-        <v>30.8724</v>
+        <v>30.1583</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.687939999999999</v>
+        <v>8.642469999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.979050000000001</v>
+        <v>9.970319999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2397</v>
+        <v>11.2646</v>
       </c>
       <c r="E2" t="n">
-        <v>13.7091</v>
+        <v>13.8409</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.984769999999999</v>
+        <v>8.77753</v>
       </c>
       <c r="C3" t="n">
-        <v>9.62602</v>
+        <v>9.236890000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0796</v>
+        <v>13.4449</v>
       </c>
       <c r="E3" t="n">
-        <v>16.2451</v>
+        <v>16.9914</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.5325</v>
+        <v>10.9962</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9907</v>
+        <v>11.5746</v>
       </c>
       <c r="D4" t="n">
-        <v>17.058</v>
+        <v>17.69</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9807</v>
+        <v>22.9605</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.9229</v>
+        <v>14.0139</v>
       </c>
       <c r="C5" t="n">
-        <v>13.356</v>
+        <v>14.1619</v>
       </c>
       <c r="D5" t="n">
-        <v>21.4796</v>
+        <v>21.6493</v>
       </c>
       <c r="E5" t="n">
-        <v>27.4382</v>
+        <v>28.7571</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2982</v>
+        <v>16.5008</v>
       </c>
       <c r="C6" t="n">
-        <v>15.589</v>
+        <v>16.8632</v>
       </c>
       <c r="D6" t="n">
-        <v>25.5327</v>
+        <v>25.4219</v>
       </c>
       <c r="E6" t="n">
-        <v>33.1747</v>
+        <v>34.2893</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.6148</v>
+        <v>19.289</v>
       </c>
       <c r="C7" t="n">
-        <v>17.9441</v>
+        <v>19.6204</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1339</v>
+        <v>29.3035</v>
       </c>
       <c r="E7" t="n">
-        <v>38.0313</v>
+        <v>39.3554</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8308</v>
+        <v>22.0277</v>
       </c>
       <c r="C8" t="n">
-        <v>21.6876</v>
+        <v>22.6599</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6529</v>
+        <v>33.1956</v>
       </c>
       <c r="E8" t="n">
-        <v>43.5298</v>
+        <v>44.841</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.9479</v>
+        <v>26.6527</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2442</v>
+        <v>26.1248</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9798</v>
+        <v>38.6642</v>
       </c>
       <c r="E9" t="n">
-        <v>49.8775</v>
+        <v>50.391</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5827</v>
+        <v>22.426</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2401</v>
+        <v>23.2712</v>
       </c>
       <c r="D10" t="n">
-        <v>33.8765</v>
+        <v>33.6694</v>
       </c>
       <c r="E10" t="n">
-        <v>42.8146</v>
+        <v>42.5867</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.1513</v>
+        <v>22.5635</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0892</v>
+        <v>22.5358</v>
       </c>
       <c r="D11" t="n">
-        <v>32.4164</v>
+        <v>33.0692</v>
       </c>
       <c r="E11" t="n">
-        <v>40.7186</v>
+        <v>41.7884</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2044</v>
+        <v>23.0771</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9702</v>
+        <v>23.3606</v>
       </c>
       <c r="D12" t="n">
-        <v>33.3692</v>
+        <v>33.1159</v>
       </c>
       <c r="E12" t="n">
-        <v>41.204</v>
+        <v>40.9949</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.382</v>
+        <v>23.4961</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5449</v>
+        <v>23.5446</v>
       </c>
       <c r="D13" t="n">
-        <v>33.6229</v>
+        <v>35.4883</v>
       </c>
       <c r="E13" t="n">
-        <v>42.3847</v>
+        <v>43.7011</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.4283</v>
+        <v>22.6261</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0967</v>
+        <v>24.3954</v>
       </c>
       <c r="D14" t="n">
-        <v>33.5433</v>
+        <v>34.2612</v>
       </c>
       <c r="E14" t="n">
-        <v>42.2707</v>
+        <v>42.0819</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.5232</v>
+        <v>23.474</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5538</v>
+        <v>24.5297</v>
       </c>
       <c r="D15" t="n">
-        <v>33.7982</v>
+        <v>33.0737</v>
       </c>
       <c r="E15" t="n">
-        <v>42.0236</v>
+        <v>41.5089</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.0073</v>
+        <v>23.7485</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7992</v>
+        <v>24.9251</v>
       </c>
       <c r="D16" t="n">
-        <v>33.7746</v>
+        <v>34.2011</v>
       </c>
       <c r="E16" t="n">
-        <v>41.0604</v>
+        <v>42.9425</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1559</v>
+        <v>24.0687</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2769</v>
+        <v>25.2242</v>
       </c>
       <c r="D17" t="n">
-        <v>33.5983</v>
+        <v>33.6527</v>
       </c>
       <c r="E17" t="n">
-        <v>41.2939</v>
+        <v>42.6632</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.40621</v>
+        <v>6.39913</v>
       </c>
       <c r="C2" t="n">
-        <v>6.54021</v>
+        <v>6.53641</v>
       </c>
       <c r="D2" t="n">
-        <v>7.09331</v>
+        <v>7.08422</v>
       </c>
       <c r="E2" t="n">
-        <v>7.95828</v>
+        <v>7.95147</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.10768</v>
+        <v>7.21485</v>
       </c>
       <c r="C3" t="n">
-        <v>7.42852</v>
+        <v>7.63014</v>
       </c>
       <c r="D3" t="n">
-        <v>9.983879999999999</v>
+        <v>10.1151</v>
       </c>
       <c r="E3" t="n">
-        <v>11.5016</v>
+        <v>11.824</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.24038</v>
+        <v>9.31475</v>
       </c>
       <c r="C4" t="n">
-        <v>9.357839999999999</v>
+        <v>9.67684</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8459</v>
+        <v>13.7875</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5254</v>
+        <v>16.5151</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.3398</v>
+        <v>11.2826</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8553</v>
+        <v>12.0287</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2609</v>
+        <v>17.6405</v>
       </c>
       <c r="E5" t="n">
-        <v>20.3793</v>
+        <v>21.2759</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.5423</v>
+        <v>13.4716</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2759</v>
+        <v>14.4045</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7366</v>
+        <v>21.2163</v>
       </c>
       <c r="E6" t="n">
-        <v>24.8024</v>
+        <v>25.8689</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7916</v>
+        <v>15.8552</v>
       </c>
       <c r="C7" t="n">
-        <v>15.5921</v>
+        <v>16.9227</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8325</v>
+        <v>25.3066</v>
       </c>
       <c r="E7" t="n">
-        <v>29.4592</v>
+        <v>30.5675</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.9166</v>
+        <v>18.0766</v>
       </c>
       <c r="C8" t="n">
-        <v>17.8117</v>
+        <v>19.2953</v>
       </c>
       <c r="D8" t="n">
-        <v>28.1117</v>
+        <v>28.5931</v>
       </c>
       <c r="E8" t="n">
-        <v>33.3375</v>
+        <v>34.8321</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.7364</v>
+        <v>21.0812</v>
       </c>
       <c r="C9" t="n">
-        <v>20.4545</v>
+        <v>22.1666</v>
       </c>
       <c r="D9" t="n">
-        <v>32.9404</v>
+        <v>33.2916</v>
       </c>
       <c r="E9" t="n">
-        <v>38.5337</v>
+        <v>39.7053</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3091</v>
+        <v>18.2115</v>
       </c>
       <c r="C10" t="n">
-        <v>18.0521</v>
+        <v>19.2182</v>
       </c>
       <c r="D10" t="n">
-        <v>27.6235</v>
+        <v>28.0793</v>
       </c>
       <c r="E10" t="n">
-        <v>32.029</v>
+        <v>32.6176</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0947</v>
+        <v>17.9679</v>
       </c>
       <c r="C11" t="n">
-        <v>18.0374</v>
+        <v>19.1735</v>
       </c>
       <c r="D11" t="n">
-        <v>27.8218</v>
+        <v>27.7368</v>
       </c>
       <c r="E11" t="n">
-        <v>32.1991</v>
+        <v>33.0251</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8858</v>
+        <v>18.6896</v>
       </c>
       <c r="C12" t="n">
-        <v>18.6206</v>
+        <v>19.8695</v>
       </c>
       <c r="D12" t="n">
-        <v>29.3562</v>
+        <v>29.1019</v>
       </c>
       <c r="E12" t="n">
-        <v>33.4794</v>
+        <v>33.9737</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.5122</v>
+        <v>19.5354</v>
       </c>
       <c r="C13" t="n">
-        <v>19.2965</v>
+        <v>20.6341</v>
       </c>
       <c r="D13" t="n">
-        <v>29.3973</v>
+        <v>29.7698</v>
       </c>
       <c r="E13" t="n">
-        <v>33.5854</v>
+        <v>33.6652</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.0561</v>
+        <v>19.3958</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5862</v>
+        <v>20.2444</v>
       </c>
       <c r="D14" t="n">
-        <v>28.3812</v>
+        <v>28.224</v>
       </c>
       <c r="E14" t="n">
-        <v>32.6031</v>
+        <v>33.4166</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3798</v>
+        <v>18.7864</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6632</v>
+        <v>20.5043</v>
       </c>
       <c r="D15" t="n">
-        <v>28.5064</v>
+        <v>28.236</v>
       </c>
       <c r="E15" t="n">
-        <v>32.1177</v>
+        <v>32.5445</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.3311</v>
+        <v>19.6628</v>
       </c>
       <c r="C16" t="n">
-        <v>20.2105</v>
+        <v>21.0641</v>
       </c>
       <c r="D16" t="n">
-        <v>29.027</v>
+        <v>28.3832</v>
       </c>
       <c r="E16" t="n">
-        <v>32.8003</v>
+        <v>32.8604</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2042</v>
+        <v>19.2105</v>
       </c>
       <c r="C17" t="n">
-        <v>20.5811</v>
+        <v>21.38</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3516</v>
+        <v>29.3858</v>
       </c>
       <c r="E17" t="n">
-        <v>32.7896</v>
+        <v>32.8773</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.05767</v>
+        <v>3.07759</v>
       </c>
       <c r="C2" t="n">
-        <v>4.96135</v>
+        <v>4.97592</v>
       </c>
       <c r="D2" t="n">
-        <v>5.10583</v>
+        <v>5.09444</v>
       </c>
       <c r="E2" t="n">
-        <v>6.32405</v>
+        <v>6.30849</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.08875</v>
+        <v>5.09554</v>
       </c>
       <c r="C3" t="n">
-        <v>6.60337</v>
+        <v>6.53272</v>
       </c>
       <c r="D3" t="n">
-        <v>8.332409999999999</v>
+        <v>8.33231</v>
       </c>
       <c r="E3" t="n">
-        <v>10.4752</v>
+        <v>10.5154</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.27676</v>
+        <v>7.25117</v>
       </c>
       <c r="C4" t="n">
-        <v>8.539210000000001</v>
+        <v>8.692259999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6335</v>
+        <v>11.5968</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9196</v>
+        <v>14.9707</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.37462</v>
+        <v>9.403560000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1627</v>
+        <v>10.8333</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7006</v>
+        <v>14.711</v>
       </c>
       <c r="E5" t="n">
-        <v>19.178</v>
+        <v>19.2444</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5234</v>
+        <v>11.4892</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9347</v>
+        <v>13.0205</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7136</v>
+        <v>17.6601</v>
       </c>
       <c r="E6" t="n">
-        <v>23.3276</v>
+        <v>23.4318</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.611</v>
+        <v>13.621</v>
       </c>
       <c r="C7" t="n">
-        <v>15.1027</v>
+        <v>15.2677</v>
       </c>
       <c r="D7" t="n">
-        <v>20.5898</v>
+        <v>20.6378</v>
       </c>
       <c r="E7" t="n">
-        <v>27.4368</v>
+        <v>27.5695</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.794</v>
+        <v>15.71</v>
       </c>
       <c r="C8" t="n">
-        <v>17.5087</v>
+        <v>17.6251</v>
       </c>
       <c r="D8" t="n">
-        <v>23.5333</v>
+        <v>23.4931</v>
       </c>
       <c r="E8" t="n">
-        <v>31.4149</v>
+        <v>31.6382</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2796</v>
+        <v>18.1732</v>
       </c>
       <c r="C9" t="n">
-        <v>20.6177</v>
+        <v>20.796</v>
       </c>
       <c r="D9" t="n">
-        <v>28.044</v>
+        <v>28.0807</v>
       </c>
       <c r="E9" t="n">
-        <v>36.113</v>
+        <v>36.2957</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.2013</v>
+        <v>17.5546</v>
       </c>
       <c r="C10" t="n">
-        <v>19.3146</v>
+        <v>19.3149</v>
       </c>
       <c r="D10" t="n">
-        <v>26.1314</v>
+        <v>26.0753</v>
       </c>
       <c r="E10" t="n">
-        <v>32.9224</v>
+        <v>32.9755</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1862</v>
+        <v>16.9596</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3368</v>
+        <v>19.0517</v>
       </c>
       <c r="D11" t="n">
-        <v>25.73</v>
+        <v>25.8616</v>
       </c>
       <c r="E11" t="n">
-        <v>33.3986</v>
+        <v>32.8598</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4635</v>
+        <v>17.4681</v>
       </c>
       <c r="C12" t="n">
-        <v>19.2462</v>
+        <v>19.3814</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1259</v>
+        <v>25.986</v>
       </c>
       <c r="E12" t="n">
-        <v>33.3309</v>
+        <v>33.2273</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7666</v>
+        <v>17.8981</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4592</v>
+        <v>19.5972</v>
       </c>
       <c r="D13" t="n">
-        <v>26.0402</v>
+        <v>26.5686</v>
       </c>
       <c r="E13" t="n">
-        <v>33.7235</v>
+        <v>33.7256</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1554</v>
+        <v>17.1657</v>
       </c>
       <c r="C14" t="n">
-        <v>19.3704</v>
+        <v>19.5706</v>
       </c>
       <c r="D14" t="n">
-        <v>25.0883</v>
+        <v>25.2874</v>
       </c>
       <c r="E14" t="n">
-        <v>32.5185</v>
+        <v>32.6693</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8592</v>
+        <v>17.9638</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5658</v>
+        <v>19.7466</v>
       </c>
       <c r="D15" t="n">
-        <v>25.92</v>
+        <v>25.9066</v>
       </c>
       <c r="E15" t="n">
-        <v>32.6591</v>
+        <v>32.8547</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7599</v>
+        <v>17.9342</v>
       </c>
       <c r="C16" t="n">
-        <v>19.6576</v>
+        <v>19.8691</v>
       </c>
       <c r="D16" t="n">
-        <v>25.854</v>
+        <v>25.8062</v>
       </c>
       <c r="E16" t="n">
-        <v>32.5773</v>
+        <v>32.5894</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6778</v>
+        <v>18.1094</v>
       </c>
       <c r="C17" t="n">
-        <v>19.7124</v>
+        <v>20.0439</v>
       </c>
       <c r="D17" t="n">
-        <v>26.1219</v>
+        <v>26.097</v>
       </c>
       <c r="E17" t="n">
-        <v>32.4998</v>
+        <v>32.1807</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94631</v>
+        <v>3.94524</v>
       </c>
       <c r="C2" t="n">
-        <v>8.17352</v>
+        <v>8.185449999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.759650000000001</v>
+        <v>8.76956</v>
       </c>
       <c r="E2" t="n">
-        <v>11.3699</v>
+        <v>11.4372</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.28796</v>
+        <v>6.24042</v>
       </c>
       <c r="C3" t="n">
-        <v>8.83954</v>
+        <v>8.771559999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6546</v>
+        <v>12.6132</v>
       </c>
       <c r="E3" t="n">
-        <v>16.7507</v>
+        <v>16.7098</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.782019999999999</v>
+        <v>8.89518</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1882</v>
+        <v>11.2708</v>
       </c>
       <c r="D4" t="n">
-        <v>16.933</v>
+        <v>17.0345</v>
       </c>
       <c r="E4" t="n">
-        <v>22.7628</v>
+        <v>22.9822</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2695</v>
+        <v>11.2683</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2533</v>
+        <v>13.7487</v>
       </c>
       <c r="D5" t="n">
-        <v>21.02</v>
+        <v>21.0159</v>
       </c>
       <c r="E5" t="n">
-        <v>28.5002</v>
+        <v>28.9432</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7388</v>
+        <v>13.782</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9179</v>
+        <v>16.3034</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9632</v>
+        <v>24.9645</v>
       </c>
       <c r="E6" t="n">
-        <v>34.3783</v>
+        <v>34.7935</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3257</v>
+        <v>16.2207</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9611</v>
+        <v>18.9664</v>
       </c>
       <c r="D7" t="n">
-        <v>28.9707</v>
+        <v>28.6687</v>
       </c>
       <c r="E7" t="n">
-        <v>40.0307</v>
+        <v>40.4972</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0624</v>
+        <v>18.9895</v>
       </c>
       <c r="C8" t="n">
-        <v>21.8843</v>
+        <v>22.0695</v>
       </c>
       <c r="D8" t="n">
-        <v>32.9151</v>
+        <v>33.038</v>
       </c>
       <c r="E8" t="n">
-        <v>45.652</v>
+        <v>46.028</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.9226</v>
+        <v>22.0249</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6821</v>
+        <v>25.8011</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4282</v>
+        <v>39.3712</v>
       </c>
       <c r="E9" t="n">
-        <v>52.4181</v>
+        <v>53.1364</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1602</v>
+        <v>20.5729</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6656</v>
+        <v>23.6766</v>
       </c>
       <c r="D10" t="n">
-        <v>36.0025</v>
+        <v>36.569</v>
       </c>
       <c r="E10" t="n">
-        <v>47.8631</v>
+        <v>47.83</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3124</v>
+        <v>20.4325</v>
       </c>
       <c r="C11" t="n">
-        <v>23.4775</v>
+        <v>23.5094</v>
       </c>
       <c r="D11" t="n">
-        <v>36.042</v>
+        <v>35.4659</v>
       </c>
       <c r="E11" t="n">
-        <v>47.7453</v>
+        <v>45.9745</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.8302</v>
+        <v>20.879</v>
       </c>
       <c r="C12" t="n">
-        <v>23.6012</v>
+        <v>24.1033</v>
       </c>
       <c r="D12" t="n">
-        <v>36.3752</v>
+        <v>35.6582</v>
       </c>
       <c r="E12" t="n">
-        <v>47.4107</v>
+        <v>47.2416</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.3648</v>
+        <v>21.2451</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1802</v>
+        <v>24.0307</v>
       </c>
       <c r="D13" t="n">
-        <v>36.3993</v>
+        <v>36.0705</v>
       </c>
       <c r="E13" t="n">
-        <v>46.8659</v>
+        <v>47.3745</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.4949</v>
+        <v>20.6021</v>
       </c>
       <c r="C14" t="n">
-        <v>23.9672</v>
+        <v>24.1884</v>
       </c>
       <c r="D14" t="n">
-        <v>35.1023</v>
+        <v>35.1676</v>
       </c>
       <c r="E14" t="n">
-        <v>45.5223</v>
+        <v>45.345</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2501</v>
+        <v>21.5325</v>
       </c>
       <c r="C15" t="n">
-        <v>24.1023</v>
+        <v>24.451</v>
       </c>
       <c r="D15" t="n">
-        <v>35.4696</v>
+        <v>35.2304</v>
       </c>
       <c r="E15" t="n">
-        <v>45.5253</v>
+        <v>45.5115</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.1396</v>
+        <v>21.4504</v>
       </c>
       <c r="C16" t="n">
-        <v>24.456</v>
+        <v>24.6834</v>
       </c>
       <c r="D16" t="n">
-        <v>35.0913</v>
+        <v>35.2166</v>
       </c>
       <c r="E16" t="n">
-        <v>45.8321</v>
+        <v>44.9406</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.1281</v>
+        <v>21.2237</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6967</v>
+        <v>24.7985</v>
       </c>
       <c r="D17" t="n">
-        <v>34.856</v>
+        <v>35.4659</v>
       </c>
       <c r="E17" t="n">
-        <v>44.2847</v>
+        <v>44.849</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.28716</v>
+        <v>5.3555</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28238</v>
+        <v>6.2937</v>
       </c>
       <c r="D2" t="n">
-        <v>6.68085</v>
+        <v>6.69051</v>
       </c>
       <c r="E2" t="n">
-        <v>7.68761</v>
+        <v>7.70806</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.83831</v>
+        <v>6.74781</v>
       </c>
       <c r="C3" t="n">
-        <v>7.45972</v>
+        <v>7.40293</v>
       </c>
       <c r="D3" t="n">
-        <v>9.906599999999999</v>
+        <v>9.86763</v>
       </c>
       <c r="E3" t="n">
-        <v>11.8871</v>
+        <v>11.9086</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.99743</v>
+        <v>9.03201</v>
       </c>
       <c r="C4" t="n">
-        <v>9.03444</v>
+        <v>9.639089999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6458</v>
+        <v>13.6328</v>
       </c>
       <c r="E4" t="n">
-        <v>16.608</v>
+        <v>16.8742</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1946</v>
+        <v>11.2019</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4094</v>
+        <v>11.8785</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2928</v>
+        <v>17.3609</v>
       </c>
       <c r="E5" t="n">
-        <v>21.2015</v>
+        <v>21.8105</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3696</v>
+        <v>13.4003</v>
       </c>
       <c r="C6" t="n">
-        <v>13.306</v>
+        <v>14.2631</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0259</v>
+        <v>21.1292</v>
       </c>
       <c r="E6" t="n">
-        <v>26.0812</v>
+        <v>26.6063</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.5963</v>
+        <v>15.6347</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6683</v>
+        <v>16.6232</v>
       </c>
       <c r="D7" t="n">
-        <v>24.9509</v>
+        <v>24.8431</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0301</v>
+        <v>31.3179</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7065</v>
+        <v>18.0404</v>
       </c>
       <c r="C8" t="n">
-        <v>17.4124</v>
+        <v>19.1621</v>
       </c>
       <c r="D8" t="n">
-        <v>28.2781</v>
+        <v>28.6965</v>
       </c>
       <c r="E8" t="n">
-        <v>35.4508</v>
+        <v>36.0365</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.2112</v>
+        <v>21.2774</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5576</v>
+        <v>22.066</v>
       </c>
       <c r="D9" t="n">
-        <v>33.0544</v>
+        <v>33.5207</v>
       </c>
       <c r="E9" t="n">
-        <v>40.8339</v>
+        <v>41.6196</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.2602</v>
+        <v>20.1674</v>
       </c>
       <c r="C10" t="n">
-        <v>20.079</v>
+        <v>20.7875</v>
       </c>
       <c r="D10" t="n">
-        <v>30.6283</v>
+        <v>31.0379</v>
       </c>
       <c r="E10" t="n">
-        <v>37.5506</v>
+        <v>37.679</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0009</v>
+        <v>20.1218</v>
       </c>
       <c r="C11" t="n">
-        <v>19.7979</v>
+        <v>20.4896</v>
       </c>
       <c r="D11" t="n">
-        <v>30.7818</v>
+        <v>30.5092</v>
       </c>
       <c r="E11" t="n">
-        <v>36.9649</v>
+        <v>37.1518</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.8325</v>
+        <v>20.1887</v>
       </c>
       <c r="C12" t="n">
-        <v>20.1798</v>
+        <v>20.7573</v>
       </c>
       <c r="D12" t="n">
-        <v>30.9629</v>
+        <v>31.0754</v>
       </c>
       <c r="E12" t="n">
-        <v>37.9498</v>
+        <v>38.1004</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.6474</v>
+        <v>20.4396</v>
       </c>
       <c r="C13" t="n">
-        <v>19.9163</v>
+        <v>20.8903</v>
       </c>
       <c r="D13" t="n">
-        <v>31.4004</v>
+        <v>31.5307</v>
       </c>
       <c r="E13" t="n">
-        <v>37.9061</v>
+        <v>37.8997</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.392</v>
+        <v>19.6816</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8577</v>
+        <v>21.0009</v>
       </c>
       <c r="D14" t="n">
-        <v>30.3123</v>
+        <v>30.3782</v>
       </c>
       <c r="E14" t="n">
-        <v>36.8032</v>
+        <v>37.249</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.2506</v>
+        <v>20.5091</v>
       </c>
       <c r="C15" t="n">
-        <v>20.4396</v>
+        <v>21.26</v>
       </c>
       <c r="D15" t="n">
-        <v>31.484</v>
+        <v>31.3581</v>
       </c>
       <c r="E15" t="n">
-        <v>37.3496</v>
+        <v>38.3096</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2541</v>
+        <v>20.26</v>
       </c>
       <c r="C16" t="n">
-        <v>20.4989</v>
+        <v>21.4574</v>
       </c>
       <c r="D16" t="n">
-        <v>30.8291</v>
+        <v>31.2423</v>
       </c>
       <c r="E16" t="n">
-        <v>37.1494</v>
+        <v>38.057</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.1956</v>
+        <v>20.263</v>
       </c>
       <c r="C17" t="n">
-        <v>20.5606</v>
+        <v>21.6973</v>
       </c>
       <c r="D17" t="n">
-        <v>30.3024</v>
+        <v>31.3709</v>
       </c>
       <c r="E17" t="n">
-        <v>37.2352</v>
+        <v>37.8622</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.23324</v>
+        <v>4.39875</v>
       </c>
       <c r="C2" t="n">
-        <v>5.58481</v>
+        <v>5.47602</v>
       </c>
       <c r="D2" t="n">
-        <v>5.87257</v>
+        <v>6.2143</v>
       </c>
       <c r="E2" t="n">
-        <v>7.01245</v>
+        <v>6.67646</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.72607</v>
+        <v>6.80155</v>
       </c>
       <c r="C3" t="n">
-        <v>6.89171</v>
+        <v>6.68178</v>
       </c>
       <c r="D3" t="n">
-        <v>8.883789999999999</v>
+        <v>9.89315</v>
       </c>
       <c r="E3" t="n">
-        <v>10.825</v>
+        <v>10.6782</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.9023</v>
+        <v>8.297510000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.913130000000001</v>
+        <v>9.47095</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0931</v>
+        <v>12.7041</v>
       </c>
       <c r="E4" t="n">
-        <v>15.12</v>
+        <v>14.6423</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0574</v>
+        <v>9.828810000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1512</v>
+        <v>10.9388</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1609</v>
+        <v>15.6633</v>
       </c>
       <c r="E5" t="n">
-        <v>19.1684</v>
+        <v>18.2251</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1034</v>
+        <v>11.8349</v>
       </c>
       <c r="C6" t="n">
-        <v>13.4429</v>
+        <v>12.6807</v>
       </c>
       <c r="D6" t="n">
-        <v>18.0764</v>
+        <v>17.3518</v>
       </c>
       <c r="E6" t="n">
-        <v>23.3026</v>
+        <v>21.0108</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6363</v>
+        <v>11.8699</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7749</v>
+        <v>12.5252</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2536</v>
+        <v>17.6035</v>
       </c>
       <c r="E7" t="n">
-        <v>27.3838</v>
+        <v>20.3103</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7231</v>
+        <v>11.9288</v>
       </c>
       <c r="C8" t="n">
-        <v>18.1516</v>
+        <v>12.7533</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8348</v>
+        <v>17.2803</v>
       </c>
       <c r="E8" t="n">
-        <v>31.204</v>
+        <v>21.219</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1804</v>
+        <v>12.3424</v>
       </c>
       <c r="C9" t="n">
-        <v>21.2912</v>
+        <v>12.7149</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0091</v>
+        <v>18.3018</v>
       </c>
       <c r="E9" t="n">
-        <v>35.1721</v>
+        <v>21.5369</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0016</v>
+        <v>12.5197</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5977</v>
+        <v>12.9383</v>
       </c>
       <c r="D10" t="n">
-        <v>22.3716</v>
+        <v>18.6148</v>
       </c>
       <c r="E10" t="n">
-        <v>28.3203</v>
+        <v>21.5732</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4925</v>
+        <v>13.0828</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9181</v>
+        <v>13.1958</v>
       </c>
       <c r="D11" t="n">
-        <v>23.506</v>
+        <v>18.8287</v>
       </c>
       <c r="E11" t="n">
-        <v>29.0159</v>
+        <v>22.109</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.3923</v>
+        <v>13.3836</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7918</v>
+        <v>13.5066</v>
       </c>
       <c r="D12" t="n">
-        <v>24.9907</v>
+        <v>19.6435</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0525</v>
+        <v>22.8352</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5517</v>
+        <v>13.25</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4674</v>
+        <v>13.6835</v>
       </c>
       <c r="D13" t="n">
-        <v>24.5283</v>
+        <v>20.154</v>
       </c>
       <c r="E13" t="n">
-        <v>30.9106</v>
+        <v>22.6334</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4784</v>
+        <v>12.7411</v>
       </c>
       <c r="C14" t="n">
-        <v>19.2568</v>
+        <v>13.6981</v>
       </c>
       <c r="D14" t="n">
-        <v>24.4851</v>
+        <v>19.3751</v>
       </c>
       <c r="E14" t="n">
-        <v>30.014</v>
+        <v>22.2234</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6236</v>
+        <v>13.6272</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5296</v>
+        <v>14.2961</v>
       </c>
       <c r="D15" t="n">
-        <v>24.0503</v>
+        <v>20.0522</v>
       </c>
       <c r="E15" t="n">
-        <v>30.0845</v>
+        <v>22.3331</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2643</v>
+        <v>13.2501</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9228</v>
+        <v>14.0269</v>
       </c>
       <c r="D16" t="n">
-        <v>24.9264</v>
+        <v>19.0693</v>
       </c>
       <c r="E16" t="n">
-        <v>30.6374</v>
+        <v>21.6226</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4635</v>
+        <v>13.0896</v>
       </c>
       <c r="C17" t="n">
-        <v>19.936</v>
+        <v>14.5592</v>
       </c>
       <c r="D17" t="n">
-        <v>24.2215</v>
+        <v>18.3436</v>
       </c>
       <c r="E17" t="n">
-        <v>30.1583</v>
+        <v>22.0963</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.642469999999999</v>
+        <v>8.78031</v>
       </c>
       <c r="C2" t="n">
-        <v>9.970319999999999</v>
+        <v>8.915559999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2646</v>
+        <v>11.2385</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8409</v>
+        <v>12.4379</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.77753</v>
+        <v>11.3696</v>
       </c>
       <c r="C3" t="n">
-        <v>9.236890000000001</v>
+        <v>12.438</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4449</v>
+        <v>16.3998</v>
       </c>
       <c r="E3" t="n">
-        <v>16.9914</v>
+        <v>17.9206</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9962</v>
+        <v>12.8201</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5746</v>
+        <v>12.8981</v>
       </c>
       <c r="D4" t="n">
-        <v>17.69</v>
+        <v>18.8267</v>
       </c>
       <c r="E4" t="n">
-        <v>22.9605</v>
+        <v>22.4955</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.0139</v>
+        <v>14.0692</v>
       </c>
       <c r="C5" t="n">
-        <v>14.1619</v>
+        <v>13.8847</v>
       </c>
       <c r="D5" t="n">
-        <v>21.6493</v>
+        <v>21.1201</v>
       </c>
       <c r="E5" t="n">
-        <v>28.7571</v>
+        <v>26.937</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.5008</v>
+        <v>17.0429</v>
       </c>
       <c r="C6" t="n">
-        <v>16.8632</v>
+        <v>15.6068</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4219</v>
+        <v>24.4134</v>
       </c>
       <c r="E6" t="n">
-        <v>34.2893</v>
+        <v>29.9885</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.289</v>
+        <v>16.8017</v>
       </c>
       <c r="C7" t="n">
-        <v>19.6204</v>
+        <v>15.6702</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3035</v>
+        <v>24.3093</v>
       </c>
       <c r="E7" t="n">
-        <v>39.3554</v>
+        <v>28.7191</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0277</v>
+        <v>16.5098</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6599</v>
+        <v>15.5656</v>
       </c>
       <c r="D8" t="n">
-        <v>33.1956</v>
+        <v>25.1898</v>
       </c>
       <c r="E8" t="n">
-        <v>44.841</v>
+        <v>29.2312</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6527</v>
+        <v>17.1129</v>
       </c>
       <c r="C9" t="n">
-        <v>26.1248</v>
+        <v>15.8346</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6642</v>
+        <v>26.3334</v>
       </c>
       <c r="E9" t="n">
-        <v>50.391</v>
+        <v>29.8172</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.426</v>
+        <v>17.6292</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2712</v>
+        <v>15.8862</v>
       </c>
       <c r="D10" t="n">
-        <v>33.6694</v>
+        <v>25.7739</v>
       </c>
       <c r="E10" t="n">
-        <v>42.5867</v>
+        <v>29.9433</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5635</v>
+        <v>16.9509</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5358</v>
+        <v>16.3779</v>
       </c>
       <c r="D11" t="n">
-        <v>33.0692</v>
+        <v>25.2586</v>
       </c>
       <c r="E11" t="n">
-        <v>41.7884</v>
+        <v>29.7321</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0771</v>
+        <v>17.9433</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3606</v>
+        <v>16.517</v>
       </c>
       <c r="D12" t="n">
-        <v>33.1159</v>
+        <v>25.4724</v>
       </c>
       <c r="E12" t="n">
-        <v>40.9949</v>
+        <v>29.9581</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.4961</v>
+        <v>19.1219</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5446</v>
+        <v>16.7384</v>
       </c>
       <c r="D13" t="n">
-        <v>35.4883</v>
+        <v>26.1566</v>
       </c>
       <c r="E13" t="n">
-        <v>43.7011</v>
+        <v>31.3284</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.6261</v>
+        <v>17.4608</v>
       </c>
       <c r="C14" t="n">
-        <v>24.3954</v>
+        <v>16.9479</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2612</v>
+        <v>25.6358</v>
       </c>
       <c r="E14" t="n">
-        <v>42.0819</v>
+        <v>29.0398</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.474</v>
+        <v>17.8831</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5297</v>
+        <v>17.6018</v>
       </c>
       <c r="D15" t="n">
-        <v>33.0737</v>
+        <v>24.8611</v>
       </c>
       <c r="E15" t="n">
-        <v>41.5089</v>
+        <v>30.9712</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7485</v>
+        <v>17.7916</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9251</v>
+        <v>17.4056</v>
       </c>
       <c r="D16" t="n">
-        <v>34.2011</v>
+        <v>24.1284</v>
       </c>
       <c r="E16" t="n">
-        <v>42.9425</v>
+        <v>29.5536</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0687</v>
+        <v>17.1382</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2242</v>
+        <v>17.3528</v>
       </c>
       <c r="D17" t="n">
-        <v>33.6527</v>
+        <v>24.6554</v>
       </c>
       <c r="E17" t="n">
-        <v>42.6632</v>
+        <v>27.9048</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.39913</v>
+        <v>6.45149</v>
       </c>
       <c r="C2" t="n">
-        <v>6.53641</v>
+        <v>6.12713</v>
       </c>
       <c r="D2" t="n">
-        <v>7.08422</v>
+        <v>7.10421</v>
       </c>
       <c r="E2" t="n">
-        <v>7.95147</v>
+        <v>7.59121</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.21485</v>
+        <v>9.04148</v>
       </c>
       <c r="C3" t="n">
-        <v>7.63014</v>
+        <v>8.744339999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1151</v>
+        <v>11.496</v>
       </c>
       <c r="E3" t="n">
-        <v>11.824</v>
+        <v>12.192</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.31475</v>
+        <v>10.4024</v>
       </c>
       <c r="C4" t="n">
-        <v>9.67684</v>
+        <v>10.1763</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7875</v>
+        <v>14.3265</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5151</v>
+        <v>16.3763</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2826</v>
+        <v>11.6476</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0287</v>
+        <v>11.8242</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6405</v>
+        <v>17.5887</v>
       </c>
       <c r="E5" t="n">
-        <v>21.2759</v>
+        <v>20.3804</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4716</v>
+        <v>13.268</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4045</v>
+        <v>13.7235</v>
       </c>
       <c r="D6" t="n">
-        <v>21.2163</v>
+        <v>20.532</v>
       </c>
       <c r="E6" t="n">
-        <v>25.8689</v>
+        <v>23.4501</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8552</v>
+        <v>13.8233</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9227</v>
+        <v>13.5163</v>
       </c>
       <c r="D7" t="n">
-        <v>25.3066</v>
+        <v>19.6033</v>
       </c>
       <c r="E7" t="n">
-        <v>30.5675</v>
+        <v>21.6287</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0766</v>
+        <v>13.7544</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2953</v>
+        <v>13.3051</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5931</v>
+        <v>19.9379</v>
       </c>
       <c r="E8" t="n">
-        <v>34.8321</v>
+        <v>22.3532</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0812</v>
+        <v>14.0376</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1666</v>
+        <v>14.0182</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2916</v>
+        <v>21.0582</v>
       </c>
       <c r="E9" t="n">
-        <v>39.7053</v>
+        <v>23.7203</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2115</v>
+        <v>14.1411</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2182</v>
+        <v>14.1236</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0793</v>
+        <v>20.8463</v>
       </c>
       <c r="E10" t="n">
-        <v>32.6176</v>
+        <v>24.3999</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9679</v>
+        <v>13.8423</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1735</v>
+        <v>14.1609</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7368</v>
+        <v>21.2489</v>
       </c>
       <c r="E11" t="n">
-        <v>33.0251</v>
+        <v>23.5323</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6896</v>
+        <v>14.0128</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8695</v>
+        <v>14.6</v>
       </c>
       <c r="D12" t="n">
-        <v>29.1019</v>
+        <v>21.4864</v>
       </c>
       <c r="E12" t="n">
-        <v>33.9737</v>
+        <v>24.8039</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5354</v>
+        <v>14.4356</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6341</v>
+        <v>14.8272</v>
       </c>
       <c r="D13" t="n">
-        <v>29.7698</v>
+        <v>21.055</v>
       </c>
       <c r="E13" t="n">
-        <v>33.6652</v>
+        <v>23.8653</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.3958</v>
+        <v>14.07</v>
       </c>
       <c r="C14" t="n">
-        <v>20.2444</v>
+        <v>15.0992</v>
       </c>
       <c r="D14" t="n">
-        <v>28.224</v>
+        <v>20.9453</v>
       </c>
       <c r="E14" t="n">
-        <v>33.4166</v>
+        <v>23.4417</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7864</v>
+        <v>13.4363</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5043</v>
+        <v>15.2652</v>
       </c>
       <c r="D15" t="n">
-        <v>28.236</v>
+        <v>21.621</v>
       </c>
       <c r="E15" t="n">
-        <v>32.5445</v>
+        <v>22.8418</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6628</v>
+        <v>13.4043</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0641</v>
+        <v>15.5935</v>
       </c>
       <c r="D16" t="n">
-        <v>28.3832</v>
+        <v>21.162</v>
       </c>
       <c r="E16" t="n">
-        <v>32.8604</v>
+        <v>22.8126</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2105</v>
+        <v>13.8487</v>
       </c>
       <c r="C17" t="n">
-        <v>21.38</v>
+        <v>15.6607</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3858</v>
+        <v>21.146</v>
       </c>
       <c r="E17" t="n">
-        <v>32.8773</v>
+        <v>22.3241</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07759</v>
+        <v>2.74534</v>
       </c>
       <c r="C2" t="n">
-        <v>4.97592</v>
+        <v>4.85326</v>
       </c>
       <c r="D2" t="n">
-        <v>5.09444</v>
+        <v>5.3401</v>
       </c>
       <c r="E2" t="n">
-        <v>6.30849</v>
+        <v>6.01173</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.09554</v>
+        <v>4.92882</v>
       </c>
       <c r="C3" t="n">
-        <v>6.53272</v>
+        <v>7.13351</v>
       </c>
       <c r="D3" t="n">
-        <v>8.33231</v>
+        <v>8.7118</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5154</v>
+        <v>10.1836</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.25117</v>
+        <v>6.71808</v>
       </c>
       <c r="C4" t="n">
-        <v>8.692259999999999</v>
+        <v>9.091480000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.5968</v>
+        <v>12.1585</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9707</v>
+        <v>14.631</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.403560000000001</v>
+        <v>8.709709999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8333</v>
+        <v>10.856</v>
       </c>
       <c r="D5" t="n">
-        <v>14.711</v>
+        <v>15.298</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2444</v>
+        <v>18.6581</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4892</v>
+        <v>10.5527</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0205</v>
+        <v>12.9018</v>
       </c>
       <c r="D6" t="n">
-        <v>17.6601</v>
+        <v>18.3589</v>
       </c>
       <c r="E6" t="n">
-        <v>23.4318</v>
+        <v>22.5503</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.621</v>
+        <v>11.7009</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2677</v>
+        <v>13.1094</v>
       </c>
       <c r="D7" t="n">
-        <v>20.6378</v>
+        <v>19.5711</v>
       </c>
       <c r="E7" t="n">
-        <v>27.5695</v>
+        <v>23.3139</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.71</v>
+        <v>11.9194</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6251</v>
+        <v>13.1194</v>
       </c>
       <c r="D8" t="n">
-        <v>23.4931</v>
+        <v>19.7627</v>
       </c>
       <c r="E8" t="n">
-        <v>31.6382</v>
+        <v>24.4192</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1732</v>
+        <v>12.3327</v>
       </c>
       <c r="C9" t="n">
-        <v>20.796</v>
+        <v>12.9663</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0807</v>
+        <v>20.636</v>
       </c>
       <c r="E9" t="n">
-        <v>36.2957</v>
+        <v>24.9438</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5546</v>
+        <v>12.5138</v>
       </c>
       <c r="C10" t="n">
-        <v>19.3149</v>
+        <v>13.0502</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0753</v>
+        <v>21.2602</v>
       </c>
       <c r="E10" t="n">
-        <v>32.9755</v>
+        <v>25.593</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9596</v>
+        <v>12.5959</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0517</v>
+        <v>13.3621</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8616</v>
+        <v>20.7946</v>
       </c>
       <c r="E11" t="n">
-        <v>32.8598</v>
+        <v>25.0037</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4681</v>
+        <v>12.8218</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3814</v>
+        <v>13.3453</v>
       </c>
       <c r="D12" t="n">
-        <v>25.986</v>
+        <v>21.323</v>
       </c>
       <c r="E12" t="n">
-        <v>33.2273</v>
+        <v>25.7607</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8981</v>
+        <v>13.2255</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5972</v>
+        <v>13.4276</v>
       </c>
       <c r="D13" t="n">
-        <v>26.5686</v>
+        <v>21.2278</v>
       </c>
       <c r="E13" t="n">
-        <v>33.7256</v>
+        <v>25.3944</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1657</v>
+        <v>12.859</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5706</v>
+        <v>13.6015</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2874</v>
+        <v>21.7459</v>
       </c>
       <c r="E14" t="n">
-        <v>32.6693</v>
+        <v>25.5825</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9638</v>
+        <v>13.1629</v>
       </c>
       <c r="C15" t="n">
-        <v>19.7466</v>
+        <v>13.8567</v>
       </c>
       <c r="D15" t="n">
-        <v>25.9066</v>
+        <v>21.61</v>
       </c>
       <c r="E15" t="n">
-        <v>32.8547</v>
+        <v>25.8011</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9342</v>
+        <v>13.3966</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8691</v>
+        <v>14.0167</v>
       </c>
       <c r="D16" t="n">
-        <v>25.8062</v>
+        <v>21.4325</v>
       </c>
       <c r="E16" t="n">
-        <v>32.5894</v>
+        <v>25.5788</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1094</v>
+        <v>13.3551</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0439</v>
+        <v>14.216</v>
       </c>
       <c r="D17" t="n">
-        <v>26.097</v>
+        <v>21.3982</v>
       </c>
       <c r="E17" t="n">
-        <v>32.1807</v>
+        <v>24.9463</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94524</v>
+        <v>4.05286</v>
       </c>
       <c r="C2" t="n">
-        <v>8.185449999999999</v>
+        <v>7.49794</v>
       </c>
       <c r="D2" t="n">
-        <v>8.76956</v>
+        <v>8.75831</v>
       </c>
       <c r="E2" t="n">
-        <v>11.4372</v>
+        <v>10.4585</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24042</v>
+        <v>6.49144</v>
       </c>
       <c r="C3" t="n">
-        <v>8.771559999999999</v>
+        <v>8.820080000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6132</v>
+        <v>12.6793</v>
       </c>
       <c r="E3" t="n">
-        <v>16.7098</v>
+        <v>15.8133</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.89518</v>
+        <v>8.90917</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2708</v>
+        <v>11.7535</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0345</v>
+        <v>17.2898</v>
       </c>
       <c r="E4" t="n">
-        <v>22.9822</v>
+        <v>22.0946</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2683</v>
+        <v>11.4115</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7487</v>
+        <v>13.4372</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0159</v>
+        <v>21.2099</v>
       </c>
       <c r="E5" t="n">
-        <v>28.9432</v>
+        <v>27.6476</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.782</v>
+        <v>13.7786</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3034</v>
+        <v>15.7209</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9645</v>
+        <v>25.3889</v>
       </c>
       <c r="E6" t="n">
-        <v>34.7935</v>
+        <v>32.8526</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2207</v>
+        <v>14.8492</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9664</v>
+        <v>16.093</v>
       </c>
       <c r="D7" t="n">
-        <v>28.6687</v>
+        <v>27.0394</v>
       </c>
       <c r="E7" t="n">
-        <v>40.4972</v>
+        <v>33.6909</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9895</v>
+        <v>15.3906</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0695</v>
+        <v>15.7236</v>
       </c>
       <c r="D8" t="n">
-        <v>33.038</v>
+        <v>27.151</v>
       </c>
       <c r="E8" t="n">
-        <v>46.028</v>
+        <v>34.5362</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.0249</v>
+        <v>16.1159</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8011</v>
+        <v>16.19</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3712</v>
+        <v>28.3743</v>
       </c>
       <c r="E9" t="n">
-        <v>53.1364</v>
+        <v>35.7733</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5729</v>
+        <v>16.4032</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6766</v>
+        <v>15.869</v>
       </c>
       <c r="D10" t="n">
-        <v>36.569</v>
+        <v>28.9914</v>
       </c>
       <c r="E10" t="n">
-        <v>47.83</v>
+        <v>36.1727</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.4325</v>
+        <v>16.1901</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5094</v>
+        <v>16.1537</v>
       </c>
       <c r="D11" t="n">
-        <v>35.4659</v>
+        <v>28.3666</v>
       </c>
       <c r="E11" t="n">
-        <v>45.9745</v>
+        <v>34.9655</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.879</v>
+        <v>16.5115</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1033</v>
+        <v>16.4322</v>
       </c>
       <c r="D12" t="n">
-        <v>35.6582</v>
+        <v>28.4951</v>
       </c>
       <c r="E12" t="n">
-        <v>47.2416</v>
+        <v>35.5583</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2451</v>
+        <v>16.5581</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0307</v>
+        <v>16.561</v>
       </c>
       <c r="D13" t="n">
-        <v>36.0705</v>
+        <v>28.3385</v>
       </c>
       <c r="E13" t="n">
-        <v>47.3745</v>
+        <v>35.6745</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6021</v>
+        <v>16.5298</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1884</v>
+        <v>16.4671</v>
       </c>
       <c r="D14" t="n">
-        <v>35.1676</v>
+        <v>28.1856</v>
       </c>
       <c r="E14" t="n">
-        <v>45.345</v>
+        <v>34.8564</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5325</v>
+        <v>16.3596</v>
       </c>
       <c r="C15" t="n">
-        <v>24.451</v>
+        <v>16.6973</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2304</v>
+        <v>28.2297</v>
       </c>
       <c r="E15" t="n">
-        <v>45.5115</v>
+        <v>35.7551</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4504</v>
+        <v>16.5286</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6834</v>
+        <v>16.8849</v>
       </c>
       <c r="D16" t="n">
-        <v>35.2166</v>
+        <v>28.6011</v>
       </c>
       <c r="E16" t="n">
-        <v>44.9406</v>
+        <v>34.7698</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2237</v>
+        <v>16.5433</v>
       </c>
       <c r="C17" t="n">
-        <v>24.7985</v>
+        <v>17.074</v>
       </c>
       <c r="D17" t="n">
-        <v>35.4659</v>
+        <v>28.7507</v>
       </c>
       <c r="E17" t="n">
-        <v>44.849</v>
+        <v>33.0768</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.3555</v>
+        <v>5.32011</v>
       </c>
       <c r="C2" t="n">
-        <v>6.2937</v>
+        <v>5.91066</v>
       </c>
       <c r="D2" t="n">
-        <v>6.69051</v>
+        <v>6.70068</v>
       </c>
       <c r="E2" t="n">
-        <v>7.70806</v>
+        <v>7.36445</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.74781</v>
+        <v>7.60214</v>
       </c>
       <c r="C3" t="n">
-        <v>7.40293</v>
+        <v>8.0829</v>
       </c>
       <c r="D3" t="n">
-        <v>9.86763</v>
+        <v>9.89597</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9086</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.03201</v>
+        <v>9.27999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.639089999999999</v>
+        <v>9.78518</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6328</v>
+        <v>14.1028</v>
       </c>
       <c r="E4" t="n">
-        <v>16.8742</v>
+        <v>16.4464</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2019</v>
+        <v>11.3859</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8785</v>
+        <v>11.8481</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3609</v>
+        <v>17.5271</v>
       </c>
       <c r="E5" t="n">
-        <v>21.8105</v>
+        <v>21.1355</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4003</v>
+        <v>13.6793</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2631</v>
+        <v>13.9355</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1292</v>
+        <v>21.1513</v>
       </c>
       <c r="E6" t="n">
-        <v>26.6063</v>
+        <v>25.5098</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6347</v>
+        <v>14.8831</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6232</v>
+        <v>14.1332</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8431</v>
+        <v>22.6425</v>
       </c>
       <c r="E7" t="n">
-        <v>31.3179</v>
+        <v>26.9818</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0404</v>
+        <v>14.9824</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1621</v>
+        <v>14.0996</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6965</v>
+        <v>22.7531</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0365</v>
+        <v>27.2187</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2774</v>
+        <v>15.1558</v>
       </c>
       <c r="C9" t="n">
-        <v>22.066</v>
+        <v>14.3348</v>
       </c>
       <c r="D9" t="n">
-        <v>33.5207</v>
+        <v>23.5941</v>
       </c>
       <c r="E9" t="n">
-        <v>41.6196</v>
+        <v>28.3966</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1674</v>
+        <v>15.6949</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7875</v>
+        <v>14.4151</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0379</v>
+        <v>24.1351</v>
       </c>
       <c r="E10" t="n">
-        <v>37.679</v>
+        <v>28.4962</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1218</v>
+        <v>15.1994</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4896</v>
+        <v>14.4958</v>
       </c>
       <c r="D11" t="n">
-        <v>30.5092</v>
+        <v>23.6938</v>
       </c>
       <c r="E11" t="n">
-        <v>37.1518</v>
+        <v>28.5547</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.1887</v>
+        <v>15.4278</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7573</v>
+        <v>14.6609</v>
       </c>
       <c r="D12" t="n">
-        <v>31.0754</v>
+        <v>24.1285</v>
       </c>
       <c r="E12" t="n">
-        <v>38.1004</v>
+        <v>28.4674</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4396</v>
+        <v>15.5903</v>
       </c>
       <c r="C13" t="n">
-        <v>20.8903</v>
+        <v>14.7078</v>
       </c>
       <c r="D13" t="n">
-        <v>31.5307</v>
+        <v>24.3449</v>
       </c>
       <c r="E13" t="n">
-        <v>37.8997</v>
+        <v>28.1878</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6816</v>
+        <v>15.1749</v>
       </c>
       <c r="C14" t="n">
-        <v>21.0009</v>
+        <v>14.9269</v>
       </c>
       <c r="D14" t="n">
-        <v>30.3782</v>
+        <v>24.4791</v>
       </c>
       <c r="E14" t="n">
-        <v>37.249</v>
+        <v>29.3853</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5091</v>
+        <v>15.2401</v>
       </c>
       <c r="C15" t="n">
-        <v>21.26</v>
+        <v>15.1435</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3581</v>
+        <v>24.9834</v>
       </c>
       <c r="E15" t="n">
-        <v>38.3096</v>
+        <v>29.4155</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.26</v>
+        <v>15.3449</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4574</v>
+        <v>15.3533</v>
       </c>
       <c r="D16" t="n">
-        <v>31.2423</v>
+        <v>24.4255</v>
       </c>
       <c r="E16" t="n">
-        <v>38.057</v>
+        <v>29.0375</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.263</v>
+        <v>15.3379</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6973</v>
+        <v>15.6415</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3709</v>
+        <v>24.822</v>
       </c>
       <c r="E17" t="n">
-        <v>37.8622</v>
+        <v>28.3491</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.39875</v>
+        <v>4.37027</v>
       </c>
       <c r="C2" t="n">
-        <v>5.47602</v>
+        <v>5.47578</v>
       </c>
       <c r="D2" t="n">
-        <v>6.2143</v>
+        <v>5.96029</v>
       </c>
       <c r="E2" t="n">
-        <v>6.67646</v>
+        <v>5.52944</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.80155</v>
+        <v>7.38909</v>
       </c>
       <c r="C3" t="n">
-        <v>6.68178</v>
+        <v>8.03828</v>
       </c>
       <c r="D3" t="n">
-        <v>9.89315</v>
+        <v>9.53814</v>
       </c>
       <c r="E3" t="n">
-        <v>10.6782</v>
+        <v>9.64756</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.297510000000001</v>
+        <v>8.327159999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.47095</v>
+        <v>9.48936</v>
       </c>
       <c r="D4" t="n">
-        <v>12.7041</v>
+        <v>12.3715</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6423</v>
+        <v>12.6512</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.828810000000001</v>
+        <v>9.964370000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9388</v>
+        <v>10.9964</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6633</v>
+        <v>15.0453</v>
       </c>
       <c r="E5" t="n">
-        <v>18.2251</v>
+        <v>16.0002</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.8349</v>
+        <v>11.7156</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6807</v>
+        <v>12.7825</v>
       </c>
       <c r="D6" t="n">
-        <v>17.3518</v>
+        <v>17.2083</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0108</v>
+        <v>18.2999</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.8699</v>
+        <v>12.1209</v>
       </c>
       <c r="C7" t="n">
-        <v>12.5252</v>
+        <v>12.4967</v>
       </c>
       <c r="D7" t="n">
-        <v>17.6035</v>
+        <v>17.3513</v>
       </c>
       <c r="E7" t="n">
-        <v>20.3103</v>
+        <v>18.5099</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9288</v>
+        <v>12.0712</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7533</v>
+        <v>12.521</v>
       </c>
       <c r="D8" t="n">
-        <v>17.2803</v>
+        <v>17.2329</v>
       </c>
       <c r="E8" t="n">
-        <v>21.219</v>
+        <v>17.9252</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.3424</v>
+        <v>12.5204</v>
       </c>
       <c r="C9" t="n">
-        <v>12.7149</v>
+        <v>12.8478</v>
       </c>
       <c r="D9" t="n">
-        <v>18.3018</v>
+        <v>18.0649</v>
       </c>
       <c r="E9" t="n">
-        <v>21.5369</v>
+        <v>18.3688</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.5197</v>
+        <v>12.4275</v>
       </c>
       <c r="C10" t="n">
-        <v>12.9383</v>
+        <v>13.2421</v>
       </c>
       <c r="D10" t="n">
-        <v>18.6148</v>
+        <v>18.1176</v>
       </c>
       <c r="E10" t="n">
-        <v>21.5732</v>
+        <v>19.2796</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.0828</v>
+        <v>13.6006</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1958</v>
+        <v>13.6546</v>
       </c>
       <c r="D11" t="n">
-        <v>18.8287</v>
+        <v>18.6207</v>
       </c>
       <c r="E11" t="n">
-        <v>22.109</v>
+        <v>19.9566</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.3836</v>
+        <v>13.29</v>
       </c>
       <c r="C12" t="n">
-        <v>13.5066</v>
+        <v>13.1087</v>
       </c>
       <c r="D12" t="n">
-        <v>19.6435</v>
+        <v>18.8764</v>
       </c>
       <c r="E12" t="n">
-        <v>22.8352</v>
+        <v>19.5915</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.25</v>
+        <v>13.0042</v>
       </c>
       <c r="C13" t="n">
-        <v>13.6835</v>
+        <v>13.4348</v>
       </c>
       <c r="D13" t="n">
-        <v>20.154</v>
+        <v>18.5648</v>
       </c>
       <c r="E13" t="n">
-        <v>22.6334</v>
+        <v>19.935</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.7411</v>
+        <v>12.8874</v>
       </c>
       <c r="C14" t="n">
-        <v>13.6981</v>
+        <v>13.6766</v>
       </c>
       <c r="D14" t="n">
-        <v>19.3751</v>
+        <v>19.241</v>
       </c>
       <c r="E14" t="n">
-        <v>22.2234</v>
+        <v>20.4022</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.6272</v>
+        <v>13.1399</v>
       </c>
       <c r="C15" t="n">
-        <v>14.2961</v>
+        <v>13.9738</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0522</v>
+        <v>19.3236</v>
       </c>
       <c r="E15" t="n">
-        <v>22.3331</v>
+        <v>19.9578</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.2501</v>
+        <v>13.4871</v>
       </c>
       <c r="C16" t="n">
-        <v>14.0269</v>
+        <v>14.293</v>
       </c>
       <c r="D16" t="n">
-        <v>19.0693</v>
+        <v>18.6607</v>
       </c>
       <c r="E16" t="n">
-        <v>21.6226</v>
+        <v>19.6964</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0896</v>
+        <v>13.2653</v>
       </c>
       <c r="C17" t="n">
-        <v>14.5592</v>
+        <v>14.2863</v>
       </c>
       <c r="D17" t="n">
-        <v>18.3436</v>
+        <v>18.6966</v>
       </c>
       <c r="E17" t="n">
-        <v>22.0963</v>
+        <v>19.3975</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.78031</v>
+        <v>8.785819999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>8.915559999999999</v>
+        <v>8.913259999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2385</v>
+        <v>10.4421</v>
       </c>
       <c r="E2" t="n">
-        <v>12.4379</v>
+        <v>8.07836</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3696</v>
+        <v>12.9811</v>
       </c>
       <c r="C3" t="n">
-        <v>12.438</v>
+        <v>11.2621</v>
       </c>
       <c r="D3" t="n">
-        <v>16.3998</v>
+        <v>15.5</v>
       </c>
       <c r="E3" t="n">
-        <v>17.9206</v>
+        <v>12.7923</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8201</v>
+        <v>12.8737</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8981</v>
+        <v>12.8355</v>
       </c>
       <c r="D4" t="n">
-        <v>18.8267</v>
+        <v>17.8779</v>
       </c>
       <c r="E4" t="n">
-        <v>22.4955</v>
+        <v>16.6857</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.0692</v>
+        <v>14.1926</v>
       </c>
       <c r="C5" t="n">
-        <v>13.8847</v>
+        <v>13.8005</v>
       </c>
       <c r="D5" t="n">
-        <v>21.1201</v>
+        <v>21.2461</v>
       </c>
       <c r="E5" t="n">
-        <v>26.937</v>
+        <v>20.9865</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.0429</v>
+        <v>15.7293</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6068</v>
+        <v>15.7253</v>
       </c>
       <c r="D6" t="n">
-        <v>24.4134</v>
+        <v>23.6803</v>
       </c>
       <c r="E6" t="n">
-        <v>29.9885</v>
+        <v>22.9697</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8017</v>
+        <v>16.6185</v>
       </c>
       <c r="C7" t="n">
-        <v>15.6702</v>
+        <v>15.8111</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3093</v>
+        <v>23.9299</v>
       </c>
       <c r="E7" t="n">
-        <v>28.7191</v>
+        <v>21.4111</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5098</v>
+        <v>17.0112</v>
       </c>
       <c r="C8" t="n">
-        <v>15.5656</v>
+        <v>16.1365</v>
       </c>
       <c r="D8" t="n">
-        <v>25.1898</v>
+        <v>24.3723</v>
       </c>
       <c r="E8" t="n">
-        <v>29.2312</v>
+        <v>23.248</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.1129</v>
+        <v>16.4078</v>
       </c>
       <c r="C9" t="n">
-        <v>15.8346</v>
+        <v>15.5006</v>
       </c>
       <c r="D9" t="n">
-        <v>26.3334</v>
+        <v>24.2111</v>
       </c>
       <c r="E9" t="n">
-        <v>29.8172</v>
+        <v>23.8071</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6292</v>
+        <v>17.4519</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8862</v>
+        <v>15.9011</v>
       </c>
       <c r="D10" t="n">
-        <v>25.7739</v>
+        <v>25.1521</v>
       </c>
       <c r="E10" t="n">
-        <v>29.9433</v>
+        <v>23.1398</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9509</v>
+        <v>17.2665</v>
       </c>
       <c r="C11" t="n">
-        <v>16.3779</v>
+        <v>15.9554</v>
       </c>
       <c r="D11" t="n">
-        <v>25.2586</v>
+        <v>24.104</v>
       </c>
       <c r="E11" t="n">
-        <v>29.7321</v>
+        <v>23.9137</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9433</v>
+        <v>17.8139</v>
       </c>
       <c r="C12" t="n">
-        <v>16.517</v>
+        <v>16.1658</v>
       </c>
       <c r="D12" t="n">
-        <v>25.4724</v>
+        <v>26.1786</v>
       </c>
       <c r="E12" t="n">
-        <v>29.9581</v>
+        <v>25.3581</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1219</v>
+        <v>16.9242</v>
       </c>
       <c r="C13" t="n">
-        <v>16.7384</v>
+        <v>16.8161</v>
       </c>
       <c r="D13" t="n">
-        <v>26.1566</v>
+        <v>25.6361</v>
       </c>
       <c r="E13" t="n">
-        <v>31.3284</v>
+        <v>25.2519</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4608</v>
+        <v>16.8797</v>
       </c>
       <c r="C14" t="n">
-        <v>16.9479</v>
+        <v>16.9603</v>
       </c>
       <c r="D14" t="n">
-        <v>25.6358</v>
+        <v>24.1282</v>
       </c>
       <c r="E14" t="n">
-        <v>29.0398</v>
+        <v>25.5329</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8831</v>
+        <v>18.7486</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6018</v>
+        <v>16.9364</v>
       </c>
       <c r="D15" t="n">
-        <v>24.8611</v>
+        <v>24.2981</v>
       </c>
       <c r="E15" t="n">
-        <v>30.9712</v>
+        <v>24.6746</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7916</v>
+        <v>16.5638</v>
       </c>
       <c r="C16" t="n">
-        <v>17.4056</v>
+        <v>17.0372</v>
       </c>
       <c r="D16" t="n">
-        <v>24.1284</v>
+        <v>23.2568</v>
       </c>
       <c r="E16" t="n">
-        <v>29.5536</v>
+        <v>24.1714</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.1382</v>
+        <v>16.7655</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3528</v>
+        <v>17.5745</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6554</v>
+        <v>24.0548</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9048</v>
+        <v>23.7447</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.45149</v>
+        <v>6.46032</v>
       </c>
       <c r="C2" t="n">
-        <v>6.12713</v>
+        <v>6.11822</v>
       </c>
       <c r="D2" t="n">
-        <v>7.10421</v>
+        <v>6.78323</v>
       </c>
       <c r="E2" t="n">
-        <v>7.59121</v>
+        <v>6.2661</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.04148</v>
+        <v>9.656599999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.744339999999999</v>
+        <v>7.63324</v>
       </c>
       <c r="D3" t="n">
-        <v>11.496</v>
+        <v>10.5577</v>
       </c>
       <c r="E3" t="n">
-        <v>12.192</v>
+        <v>10.1528</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.4024</v>
+        <v>10.3514</v>
       </c>
       <c r="C4" t="n">
-        <v>10.1763</v>
+        <v>10.3247</v>
       </c>
       <c r="D4" t="n">
-        <v>14.3265</v>
+        <v>13.8443</v>
       </c>
       <c r="E4" t="n">
-        <v>16.3763</v>
+        <v>14.2223</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.6476</v>
+        <v>12.1972</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8242</v>
+        <v>11.7822</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5887</v>
+        <v>16.962</v>
       </c>
       <c r="E5" t="n">
-        <v>20.3804</v>
+        <v>18.1205</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.268</v>
+        <v>13.3221</v>
       </c>
       <c r="C6" t="n">
-        <v>13.7235</v>
+        <v>13.6152</v>
       </c>
       <c r="D6" t="n">
-        <v>20.532</v>
+        <v>19.8047</v>
       </c>
       <c r="E6" t="n">
-        <v>23.4501</v>
+        <v>21.3817</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.8233</v>
+        <v>14.2714</v>
       </c>
       <c r="C7" t="n">
-        <v>13.5163</v>
+        <v>13.4176</v>
       </c>
       <c r="D7" t="n">
-        <v>19.6033</v>
+        <v>19.215</v>
       </c>
       <c r="E7" t="n">
-        <v>21.6287</v>
+        <v>19.6319</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.7544</v>
+        <v>13.311</v>
       </c>
       <c r="C8" t="n">
-        <v>13.3051</v>
+        <v>13.5499</v>
       </c>
       <c r="D8" t="n">
-        <v>19.9379</v>
+        <v>19.9697</v>
       </c>
       <c r="E8" t="n">
-        <v>22.3532</v>
+        <v>20.4094</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0376</v>
+        <v>13.9165</v>
       </c>
       <c r="C9" t="n">
-        <v>14.0182</v>
+        <v>13.9893</v>
       </c>
       <c r="D9" t="n">
-        <v>21.0582</v>
+        <v>19.8844</v>
       </c>
       <c r="E9" t="n">
-        <v>23.7203</v>
+        <v>21.6848</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1411</v>
+        <v>13.5313</v>
       </c>
       <c r="C10" t="n">
-        <v>14.1236</v>
+        <v>13.8977</v>
       </c>
       <c r="D10" t="n">
-        <v>20.8463</v>
+        <v>20.3541</v>
       </c>
       <c r="E10" t="n">
-        <v>24.3999</v>
+        <v>21.3482</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8423</v>
+        <v>14.2925</v>
       </c>
       <c r="C11" t="n">
-        <v>14.1609</v>
+        <v>14.2166</v>
       </c>
       <c r="D11" t="n">
-        <v>21.2489</v>
+        <v>21.1115</v>
       </c>
       <c r="E11" t="n">
-        <v>23.5323</v>
+        <v>20.7848</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.0128</v>
+        <v>13.8168</v>
       </c>
       <c r="C12" t="n">
-        <v>14.6</v>
+        <v>14.3652</v>
       </c>
       <c r="D12" t="n">
-        <v>21.4864</v>
+        <v>21.0283</v>
       </c>
       <c r="E12" t="n">
-        <v>24.8039</v>
+        <v>21.1332</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4356</v>
+        <v>13.6479</v>
       </c>
       <c r="C13" t="n">
-        <v>14.8272</v>
+        <v>14.4551</v>
       </c>
       <c r="D13" t="n">
-        <v>21.055</v>
+        <v>21.0669</v>
       </c>
       <c r="E13" t="n">
-        <v>23.8653</v>
+        <v>22.6337</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.07</v>
+        <v>13.7038</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0992</v>
+        <v>14.9277</v>
       </c>
       <c r="D14" t="n">
-        <v>20.9453</v>
+        <v>21.0551</v>
       </c>
       <c r="E14" t="n">
-        <v>23.4417</v>
+        <v>21.3854</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.4363</v>
+        <v>13.9766</v>
       </c>
       <c r="C15" t="n">
-        <v>15.2652</v>
+        <v>14.9538</v>
       </c>
       <c r="D15" t="n">
-        <v>21.621</v>
+        <v>20.0261</v>
       </c>
       <c r="E15" t="n">
-        <v>22.8418</v>
+        <v>21.479</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.4043</v>
+        <v>13.3076</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5935</v>
+        <v>14.907</v>
       </c>
       <c r="D16" t="n">
-        <v>21.162</v>
+        <v>19.6393</v>
       </c>
       <c r="E16" t="n">
-        <v>22.8126</v>
+        <v>21.1813</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.8487</v>
+        <v>13.0016</v>
       </c>
       <c r="C17" t="n">
-        <v>15.6607</v>
+        <v>15.3743</v>
       </c>
       <c r="D17" t="n">
-        <v>21.146</v>
+        <v>18.9179</v>
       </c>
       <c r="E17" t="n">
-        <v>22.3241</v>
+        <v>20.7124</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.74534</v>
+        <v>2.75259</v>
       </c>
       <c r="C2" t="n">
-        <v>4.85326</v>
+        <v>4.84974</v>
       </c>
       <c r="D2" t="n">
-        <v>5.3401</v>
+        <v>5.14606</v>
       </c>
       <c r="E2" t="n">
-        <v>6.01173</v>
+        <v>5.06216</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.92882</v>
+        <v>4.92156</v>
       </c>
       <c r="C3" t="n">
-        <v>7.13351</v>
+        <v>7.13571</v>
       </c>
       <c r="D3" t="n">
-        <v>8.7118</v>
+        <v>8.68502</v>
       </c>
       <c r="E3" t="n">
-        <v>10.1836</v>
+        <v>8.74098</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.71808</v>
+        <v>6.75324</v>
       </c>
       <c r="C4" t="n">
-        <v>9.091480000000001</v>
+        <v>8.98903</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1585</v>
+        <v>11.7817</v>
       </c>
       <c r="E4" t="n">
-        <v>14.631</v>
+        <v>12.5827</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.709709999999999</v>
+        <v>8.709429999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.856</v>
+        <v>10.864</v>
       </c>
       <c r="D5" t="n">
-        <v>15.298</v>
+        <v>14.8749</v>
       </c>
       <c r="E5" t="n">
-        <v>18.6581</v>
+        <v>16.2182</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.5527</v>
+        <v>10.6266</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9018</v>
+        <v>12.9418</v>
       </c>
       <c r="D6" t="n">
-        <v>18.3589</v>
+        <v>17.7878</v>
       </c>
       <c r="E6" t="n">
-        <v>22.5503</v>
+        <v>19.6838</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.7009</v>
+        <v>11.5797</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1094</v>
+        <v>13.1951</v>
       </c>
       <c r="D7" t="n">
-        <v>19.5711</v>
+        <v>19.0699</v>
       </c>
       <c r="E7" t="n">
-        <v>23.3139</v>
+        <v>20.9561</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9194</v>
+        <v>11.8011</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1194</v>
+        <v>13.1409</v>
       </c>
       <c r="D8" t="n">
-        <v>19.7627</v>
+        <v>19.5413</v>
       </c>
       <c r="E8" t="n">
-        <v>24.4192</v>
+        <v>20.8129</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.3327</v>
+        <v>12.481</v>
       </c>
       <c r="C9" t="n">
-        <v>12.9663</v>
+        <v>13.1758</v>
       </c>
       <c r="D9" t="n">
-        <v>20.636</v>
+        <v>20.1213</v>
       </c>
       <c r="E9" t="n">
-        <v>24.9438</v>
+        <v>21.8811</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.5138</v>
+        <v>12.8149</v>
       </c>
       <c r="C10" t="n">
-        <v>13.0502</v>
+        <v>13.1495</v>
       </c>
       <c r="D10" t="n">
-        <v>21.2602</v>
+        <v>20.5441</v>
       </c>
       <c r="E10" t="n">
-        <v>25.593</v>
+        <v>22.277</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5959</v>
+        <v>12.5849</v>
       </c>
       <c r="C11" t="n">
-        <v>13.3621</v>
+        <v>13.2608</v>
       </c>
       <c r="D11" t="n">
-        <v>20.7946</v>
+        <v>20.4024</v>
       </c>
       <c r="E11" t="n">
-        <v>25.0037</v>
+        <v>21.9481</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.8218</v>
+        <v>12.9528</v>
       </c>
       <c r="C12" t="n">
-        <v>13.3453</v>
+        <v>13.4368</v>
       </c>
       <c r="D12" t="n">
-        <v>21.323</v>
+        <v>20.7967</v>
       </c>
       <c r="E12" t="n">
-        <v>25.7607</v>
+        <v>22.5282</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.2255</v>
+        <v>12.8525</v>
       </c>
       <c r="C13" t="n">
-        <v>13.4276</v>
+        <v>13.4858</v>
       </c>
       <c r="D13" t="n">
-        <v>21.2278</v>
+        <v>21.004</v>
       </c>
       <c r="E13" t="n">
-        <v>25.3944</v>
+        <v>22.569</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.859</v>
+        <v>12.6912</v>
       </c>
       <c r="C14" t="n">
-        <v>13.6015</v>
+        <v>13.5854</v>
       </c>
       <c r="D14" t="n">
-        <v>21.7459</v>
+        <v>20.6955</v>
       </c>
       <c r="E14" t="n">
-        <v>25.5825</v>
+        <v>22.93</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.1629</v>
+        <v>12.9027</v>
       </c>
       <c r="C15" t="n">
-        <v>13.8567</v>
+        <v>13.7732</v>
       </c>
       <c r="D15" t="n">
-        <v>21.61</v>
+        <v>21.2499</v>
       </c>
       <c r="E15" t="n">
-        <v>25.8011</v>
+        <v>22.6549</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.3966</v>
+        <v>13.1287</v>
       </c>
       <c r="C16" t="n">
-        <v>14.0167</v>
+        <v>14.0456</v>
       </c>
       <c r="D16" t="n">
-        <v>21.4325</v>
+        <v>20.6368</v>
       </c>
       <c r="E16" t="n">
-        <v>25.5788</v>
+        <v>22.8614</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.3551</v>
+        <v>13.0646</v>
       </c>
       <c r="C17" t="n">
-        <v>14.216</v>
+        <v>14.2623</v>
       </c>
       <c r="D17" t="n">
-        <v>21.3982</v>
+        <v>20.978</v>
       </c>
       <c r="E17" t="n">
-        <v>24.9463</v>
+        <v>22.1849</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.05286</v>
+        <v>4.05398</v>
       </c>
       <c r="C2" t="n">
-        <v>7.49794</v>
+        <v>7.52602</v>
       </c>
       <c r="D2" t="n">
-        <v>8.75831</v>
+        <v>8.28246</v>
       </c>
       <c r="E2" t="n">
-        <v>10.4585</v>
+        <v>7.18636</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49144</v>
+        <v>6.75907</v>
       </c>
       <c r="C3" t="n">
-        <v>8.820080000000001</v>
+        <v>10.1569</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6793</v>
+        <v>13.2128</v>
       </c>
       <c r="E3" t="n">
-        <v>15.8133</v>
+        <v>12.3796</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.90917</v>
+        <v>8.885809999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.7535</v>
+        <v>11.2755</v>
       </c>
       <c r="D4" t="n">
-        <v>17.2898</v>
+        <v>16.561</v>
       </c>
       <c r="E4" t="n">
-        <v>22.0946</v>
+        <v>16.6179</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.4115</v>
+        <v>11.3531</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4372</v>
+        <v>13.5027</v>
       </c>
       <c r="D5" t="n">
-        <v>21.2099</v>
+        <v>20.8923</v>
       </c>
       <c r="E5" t="n">
-        <v>27.6476</v>
+        <v>21.3064</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7786</v>
+        <v>13.7816</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7209</v>
+        <v>15.7241</v>
       </c>
       <c r="D6" t="n">
-        <v>25.3889</v>
+        <v>24.3095</v>
       </c>
       <c r="E6" t="n">
-        <v>32.8526</v>
+        <v>25.4217</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.8492</v>
+        <v>15.1332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.093</v>
+        <v>16.0599</v>
       </c>
       <c r="D7" t="n">
-        <v>27.0394</v>
+        <v>26.3133</v>
       </c>
       <c r="E7" t="n">
-        <v>33.6909</v>
+        <v>26.6422</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3906</v>
+        <v>15.2436</v>
       </c>
       <c r="C8" t="n">
-        <v>15.7236</v>
+        <v>15.8893</v>
       </c>
       <c r="D8" t="n">
-        <v>27.151</v>
+        <v>26.5368</v>
       </c>
       <c r="E8" t="n">
-        <v>34.5362</v>
+        <v>27.1434</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1159</v>
+        <v>16.118</v>
       </c>
       <c r="C9" t="n">
-        <v>16.19</v>
+        <v>16.0863</v>
       </c>
       <c r="D9" t="n">
-        <v>28.3743</v>
+        <v>26.7316</v>
       </c>
       <c r="E9" t="n">
-        <v>35.7733</v>
+        <v>27.6936</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.4032</v>
+        <v>16.4703</v>
       </c>
       <c r="C10" t="n">
-        <v>15.869</v>
+        <v>16.0011</v>
       </c>
       <c r="D10" t="n">
-        <v>28.9914</v>
+        <v>27.5499</v>
       </c>
       <c r="E10" t="n">
-        <v>36.1727</v>
+        <v>28.1398</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.1901</v>
+        <v>16.2303</v>
       </c>
       <c r="C11" t="n">
-        <v>16.1537</v>
+        <v>16.1222</v>
       </c>
       <c r="D11" t="n">
-        <v>28.3666</v>
+        <v>27.7103</v>
       </c>
       <c r="E11" t="n">
-        <v>34.9655</v>
+        <v>28.1089</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5115</v>
+        <v>16.7112</v>
       </c>
       <c r="C12" t="n">
-        <v>16.4322</v>
+        <v>16.1452</v>
       </c>
       <c r="D12" t="n">
-        <v>28.4951</v>
+        <v>27.5972</v>
       </c>
       <c r="E12" t="n">
-        <v>35.5583</v>
+        <v>27.8544</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.5581</v>
+        <v>16.2373</v>
       </c>
       <c r="C13" t="n">
-        <v>16.561</v>
+        <v>16.3676</v>
       </c>
       <c r="D13" t="n">
-        <v>28.3385</v>
+        <v>27.6259</v>
       </c>
       <c r="E13" t="n">
-        <v>35.6745</v>
+        <v>27.2787</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5298</v>
+        <v>16.5531</v>
       </c>
       <c r="C14" t="n">
-        <v>16.4671</v>
+        <v>16.4683</v>
       </c>
       <c r="D14" t="n">
-        <v>28.1856</v>
+        <v>28.0768</v>
       </c>
       <c r="E14" t="n">
-        <v>34.8564</v>
+        <v>28.4363</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.3596</v>
+        <v>16.6765</v>
       </c>
       <c r="C15" t="n">
-        <v>16.6973</v>
+        <v>16.5732</v>
       </c>
       <c r="D15" t="n">
-        <v>28.2297</v>
+        <v>27.7408</v>
       </c>
       <c r="E15" t="n">
-        <v>35.7551</v>
+        <v>28.835</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.5286</v>
+        <v>16.7141</v>
       </c>
       <c r="C16" t="n">
-        <v>16.8849</v>
+        <v>16.8516</v>
       </c>
       <c r="D16" t="n">
-        <v>28.6011</v>
+        <v>26.8127</v>
       </c>
       <c r="E16" t="n">
-        <v>34.7698</v>
+        <v>27.641</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.5433</v>
+        <v>16.5569</v>
       </c>
       <c r="C17" t="n">
-        <v>17.074</v>
+        <v>17.3866</v>
       </c>
       <c r="D17" t="n">
-        <v>28.7507</v>
+        <v>27.4224</v>
       </c>
       <c r="E17" t="n">
-        <v>33.0768</v>
+        <v>27.6759</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.32011</v>
+        <v>5.33129</v>
       </c>
       <c r="C2" t="n">
-        <v>5.91066</v>
+        <v>5.90455</v>
       </c>
       <c r="D2" t="n">
-        <v>6.70068</v>
+        <v>6.40361</v>
       </c>
       <c r="E2" t="n">
-        <v>7.36445</v>
+        <v>6.09664</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.60214</v>
+        <v>7.58562</v>
       </c>
       <c r="C3" t="n">
-        <v>8.0829</v>
+        <v>7.62683</v>
       </c>
       <c r="D3" t="n">
-        <v>9.89597</v>
+        <v>9.94528</v>
       </c>
       <c r="E3" t="n">
-        <v>11.49</v>
+        <v>9.87776</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.27999</v>
+        <v>9.575229999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.78518</v>
+        <v>10.1514</v>
       </c>
       <c r="D4" t="n">
-        <v>14.1028</v>
+        <v>13.6275</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4464</v>
+        <v>14.2881</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3859</v>
+        <v>11.4075</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8481</v>
+        <v>11.8251</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5271</v>
+        <v>16.9268</v>
       </c>
       <c r="E5" t="n">
-        <v>21.1355</v>
+        <v>18.2946</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.6793</v>
+        <v>13.4836</v>
       </c>
       <c r="C6" t="n">
-        <v>13.9355</v>
+        <v>13.8409</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1513</v>
+        <v>20.3154</v>
       </c>
       <c r="E6" t="n">
-        <v>25.5098</v>
+        <v>22.2621</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.8831</v>
+        <v>14.625</v>
       </c>
       <c r="C7" t="n">
-        <v>14.1332</v>
+        <v>14.4934</v>
       </c>
       <c r="D7" t="n">
-        <v>22.6425</v>
+        <v>21.5249</v>
       </c>
       <c r="E7" t="n">
-        <v>26.9818</v>
+        <v>23.4067</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.9824</v>
+        <v>15.2244</v>
       </c>
       <c r="C8" t="n">
-        <v>14.0996</v>
+        <v>14.1567</v>
       </c>
       <c r="D8" t="n">
-        <v>22.7531</v>
+        <v>21.9295</v>
       </c>
       <c r="E8" t="n">
-        <v>27.2187</v>
+        <v>22.9023</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.1558</v>
+        <v>15.2969</v>
       </c>
       <c r="C9" t="n">
-        <v>14.3348</v>
+        <v>14.3829</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5941</v>
+        <v>22.7427</v>
       </c>
       <c r="E9" t="n">
-        <v>28.3966</v>
+        <v>24.9113</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.6949</v>
+        <v>15.689</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4151</v>
+        <v>14.4047</v>
       </c>
       <c r="D10" t="n">
-        <v>24.1351</v>
+        <v>23.5666</v>
       </c>
       <c r="E10" t="n">
-        <v>28.4962</v>
+        <v>24.8079</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.1994</v>
+        <v>15.116</v>
       </c>
       <c r="C11" t="n">
-        <v>14.4958</v>
+        <v>14.4359</v>
       </c>
       <c r="D11" t="n">
-        <v>23.6938</v>
+        <v>22.8712</v>
       </c>
       <c r="E11" t="n">
-        <v>28.5547</v>
+        <v>24.8331</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.4278</v>
+        <v>15.6036</v>
       </c>
       <c r="C12" t="n">
-        <v>14.6609</v>
+        <v>14.6931</v>
       </c>
       <c r="D12" t="n">
-        <v>24.1285</v>
+        <v>24.004</v>
       </c>
       <c r="E12" t="n">
-        <v>28.4674</v>
+        <v>25.1993</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.5903</v>
+        <v>15.0507</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7078</v>
+        <v>14.4962</v>
       </c>
       <c r="D13" t="n">
-        <v>24.3449</v>
+        <v>23.76</v>
       </c>
       <c r="E13" t="n">
-        <v>28.1878</v>
+        <v>25.0433</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1749</v>
+        <v>15.0348</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9269</v>
+        <v>14.727</v>
       </c>
       <c r="D14" t="n">
-        <v>24.4791</v>
+        <v>23.7592</v>
       </c>
       <c r="E14" t="n">
-        <v>29.3853</v>
+        <v>25.3459</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2401</v>
+        <v>15.4882</v>
       </c>
       <c r="C15" t="n">
-        <v>15.1435</v>
+        <v>15.0247</v>
       </c>
       <c r="D15" t="n">
-        <v>24.9834</v>
+        <v>23.5108</v>
       </c>
       <c r="E15" t="n">
-        <v>29.4155</v>
+        <v>25.5345</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.3449</v>
+        <v>15.2111</v>
       </c>
       <c r="C16" t="n">
-        <v>15.3533</v>
+        <v>15.1971</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4255</v>
+        <v>23.7616</v>
       </c>
       <c r="E16" t="n">
-        <v>29.0375</v>
+        <v>25.553</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3379</v>
+        <v>15.2297</v>
       </c>
       <c r="C17" t="n">
-        <v>15.6415</v>
+        <v>15.5819</v>
       </c>
       <c r="D17" t="n">
-        <v>24.822</v>
+        <v>23.7565</v>
       </c>
       <c r="E17" t="n">
-        <v>28.3491</v>
+        <v>25.3812</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.37027</v>
+        <v>4.35895</v>
       </c>
       <c r="C2" t="n">
-        <v>5.47578</v>
+        <v>5.48181</v>
       </c>
       <c r="D2" t="n">
-        <v>5.96029</v>
+        <v>5.96192</v>
       </c>
       <c r="E2" t="n">
-        <v>5.52944</v>
+        <v>5.53067</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.38909</v>
+        <v>6.13966</v>
       </c>
       <c r="C3" t="n">
-        <v>8.03828</v>
+        <v>7.07133</v>
       </c>
       <c r="D3" t="n">
-        <v>9.53814</v>
+        <v>9.203390000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9.64756</v>
+        <v>9.387309999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.327159999999999</v>
+        <v>8.129519999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.48936</v>
+        <v>9.40015</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3715</v>
+        <v>12.2275</v>
       </c>
       <c r="E4" t="n">
-        <v>12.6512</v>
+        <v>12.6984</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.964370000000001</v>
+        <v>9.94402</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9964</v>
+        <v>11.0111</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0453</v>
+        <v>15.16</v>
       </c>
       <c r="E5" t="n">
-        <v>16.0002</v>
+        <v>15.8777</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7156</v>
+        <v>12.1357</v>
       </c>
       <c r="C6" t="n">
-        <v>12.7825</v>
+        <v>13.0623</v>
       </c>
       <c r="D6" t="n">
-        <v>17.2083</v>
+        <v>17.4474</v>
       </c>
       <c r="E6" t="n">
-        <v>18.2999</v>
+        <v>18.5698</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.1209</v>
+        <v>12.1418</v>
       </c>
       <c r="C7" t="n">
-        <v>12.4967</v>
+        <v>12.8695</v>
       </c>
       <c r="D7" t="n">
-        <v>17.3513</v>
+        <v>16.9398</v>
       </c>
       <c r="E7" t="n">
-        <v>18.5099</v>
+        <v>17.4314</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0712</v>
+        <v>11.9892</v>
       </c>
       <c r="C8" t="n">
-        <v>12.521</v>
+        <v>12.6227</v>
       </c>
       <c r="D8" t="n">
-        <v>17.2329</v>
+        <v>17.3477</v>
       </c>
       <c r="E8" t="n">
-        <v>17.9252</v>
+        <v>18.3381</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.5204</v>
+        <v>12.3172</v>
       </c>
       <c r="C9" t="n">
-        <v>12.8478</v>
+        <v>12.8549</v>
       </c>
       <c r="D9" t="n">
-        <v>18.0649</v>
+        <v>18.1579</v>
       </c>
       <c r="E9" t="n">
-        <v>18.3688</v>
+        <v>18.0776</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4275</v>
+        <v>12.5501</v>
       </c>
       <c r="C10" t="n">
-        <v>13.2421</v>
+        <v>12.9107</v>
       </c>
       <c r="D10" t="n">
-        <v>18.1176</v>
+        <v>18.6873</v>
       </c>
       <c r="E10" t="n">
-        <v>19.2796</v>
+        <v>19.1393</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.6006</v>
+        <v>12.9015</v>
       </c>
       <c r="C11" t="n">
-        <v>13.6546</v>
+        <v>13.2917</v>
       </c>
       <c r="D11" t="n">
-        <v>18.6207</v>
+        <v>18.0779</v>
       </c>
       <c r="E11" t="n">
-        <v>19.9566</v>
+        <v>19.5581</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.29</v>
+        <v>12.5019</v>
       </c>
       <c r="C12" t="n">
-        <v>13.1087</v>
+        <v>13.412</v>
       </c>
       <c r="D12" t="n">
-        <v>18.8764</v>
+        <v>18.9013</v>
       </c>
       <c r="E12" t="n">
-        <v>19.5915</v>
+        <v>19.3347</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.0042</v>
+        <v>12.7721</v>
       </c>
       <c r="C13" t="n">
-        <v>13.4348</v>
+        <v>13.4693</v>
       </c>
       <c r="D13" t="n">
-        <v>18.5648</v>
+        <v>18.0461</v>
       </c>
       <c r="E13" t="n">
-        <v>19.935</v>
+        <v>19.8779</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.8874</v>
+        <v>13.3039</v>
       </c>
       <c r="C14" t="n">
-        <v>13.6766</v>
+        <v>13.7055</v>
       </c>
       <c r="D14" t="n">
-        <v>19.241</v>
+        <v>19.4033</v>
       </c>
       <c r="E14" t="n">
-        <v>20.4022</v>
+        <v>20.1037</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.1399</v>
+        <v>13.2046</v>
       </c>
       <c r="C15" t="n">
-        <v>13.9738</v>
+        <v>14.0896</v>
       </c>
       <c r="D15" t="n">
-        <v>19.3236</v>
+        <v>18.8067</v>
       </c>
       <c r="E15" t="n">
-        <v>19.9578</v>
+        <v>19.1067</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.4871</v>
+        <v>13.222</v>
       </c>
       <c r="C16" t="n">
-        <v>14.293</v>
+        <v>14.1171</v>
       </c>
       <c r="D16" t="n">
-        <v>18.6607</v>
+        <v>17.5471</v>
       </c>
       <c r="E16" t="n">
-        <v>19.6964</v>
+        <v>19.7138</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2653</v>
+        <v>13.1734</v>
       </c>
       <c r="C17" t="n">
-        <v>14.2863</v>
+        <v>14.0777</v>
       </c>
       <c r="D17" t="n">
-        <v>18.6966</v>
+        <v>18.2693</v>
       </c>
       <c r="E17" t="n">
-        <v>19.3975</v>
+        <v>20.0135</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.785819999999999</v>
+        <v>8.73061</v>
       </c>
       <c r="C2" t="n">
-        <v>8.913259999999999</v>
+        <v>8.93268</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4421</v>
+        <v>10.4293</v>
       </c>
       <c r="E2" t="n">
-        <v>8.07836</v>
+        <v>8.07887</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.9811</v>
+        <v>8.88097</v>
       </c>
       <c r="C3" t="n">
-        <v>11.2621</v>
+        <v>11.2478</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5</v>
+        <v>15.4787</v>
       </c>
       <c r="E3" t="n">
-        <v>12.7923</v>
+        <v>12.7532</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8737</v>
+        <v>13.0018</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8355</v>
+        <v>12.7318</v>
       </c>
       <c r="D4" t="n">
-        <v>17.8779</v>
+        <v>17.9552</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6857</v>
+        <v>16.5254</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1926</v>
+        <v>13.9597</v>
       </c>
       <c r="C5" t="n">
-        <v>13.8005</v>
+        <v>14.4256</v>
       </c>
       <c r="D5" t="n">
-        <v>21.2461</v>
+        <v>21.0088</v>
       </c>
       <c r="E5" t="n">
-        <v>20.9865</v>
+        <v>20.6829</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.7293</v>
+        <v>16.3103</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7253</v>
+        <v>15.4893</v>
       </c>
       <c r="D6" t="n">
-        <v>23.6803</v>
+        <v>23.7331</v>
       </c>
       <c r="E6" t="n">
-        <v>22.9697</v>
+        <v>22.9019</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.6185</v>
+        <v>17.1135</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8111</v>
+        <v>15.4026</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9299</v>
+        <v>23.1371</v>
       </c>
       <c r="E7" t="n">
-        <v>21.4111</v>
+        <v>22.8369</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.0112</v>
+        <v>17.0177</v>
       </c>
       <c r="C8" t="n">
-        <v>16.1365</v>
+        <v>15.8118</v>
       </c>
       <c r="D8" t="n">
-        <v>24.3723</v>
+        <v>23.8685</v>
       </c>
       <c r="E8" t="n">
-        <v>23.248</v>
+        <v>22.8635</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4078</v>
+        <v>17.0406</v>
       </c>
       <c r="C9" t="n">
-        <v>15.5006</v>
+        <v>15.6637</v>
       </c>
       <c r="D9" t="n">
-        <v>24.2111</v>
+        <v>24.0242</v>
       </c>
       <c r="E9" t="n">
-        <v>23.8071</v>
+        <v>23.4998</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.4519</v>
+        <v>17.3637</v>
       </c>
       <c r="C10" t="n">
-        <v>15.9011</v>
+        <v>15.7903</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1521</v>
+        <v>24.1374</v>
       </c>
       <c r="E10" t="n">
-        <v>23.1398</v>
+        <v>24.7383</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2665</v>
+        <v>17.4725</v>
       </c>
       <c r="C11" t="n">
-        <v>15.9554</v>
+        <v>15.8691</v>
       </c>
       <c r="D11" t="n">
-        <v>24.104</v>
+        <v>25.0698</v>
       </c>
       <c r="E11" t="n">
-        <v>23.9137</v>
+        <v>25.1886</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8139</v>
+        <v>17.3721</v>
       </c>
       <c r="C12" t="n">
-        <v>16.1658</v>
+        <v>16.2904</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1786</v>
+        <v>23.8316</v>
       </c>
       <c r="E12" t="n">
-        <v>25.3581</v>
+        <v>24.5323</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.9242</v>
+        <v>17.7397</v>
       </c>
       <c r="C13" t="n">
-        <v>16.8161</v>
+        <v>16.434</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6361</v>
+        <v>25.1039</v>
       </c>
       <c r="E13" t="n">
-        <v>25.2519</v>
+        <v>23.8314</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.8797</v>
+        <v>17.2992</v>
       </c>
       <c r="C14" t="n">
-        <v>16.9603</v>
+        <v>16.6722</v>
       </c>
       <c r="D14" t="n">
-        <v>24.1282</v>
+        <v>24.6884</v>
       </c>
       <c r="E14" t="n">
-        <v>25.5329</v>
+        <v>23.2971</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7486</v>
+        <v>17.655</v>
       </c>
       <c r="C15" t="n">
-        <v>16.9364</v>
+        <v>16.754</v>
       </c>
       <c r="D15" t="n">
-        <v>24.2981</v>
+        <v>24.2935</v>
       </c>
       <c r="E15" t="n">
-        <v>24.6746</v>
+        <v>23.7715</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.5638</v>
+        <v>17.1453</v>
       </c>
       <c r="C16" t="n">
-        <v>17.0372</v>
+        <v>17.2904</v>
       </c>
       <c r="D16" t="n">
-        <v>23.2568</v>
+        <v>23.9087</v>
       </c>
       <c r="E16" t="n">
-        <v>24.1714</v>
+        <v>22.4922</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.7655</v>
+        <v>17.1555</v>
       </c>
       <c r="C17" t="n">
-        <v>17.5745</v>
+        <v>17.542</v>
       </c>
       <c r="D17" t="n">
-        <v>24.0548</v>
+        <v>22.3343</v>
       </c>
       <c r="E17" t="n">
-        <v>23.7447</v>
+        <v>23.3945</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.46032</v>
+        <v>6.44674</v>
       </c>
       <c r="C2" t="n">
-        <v>6.11822</v>
+        <v>6.12413</v>
       </c>
       <c r="D2" t="n">
-        <v>6.78323</v>
+        <v>6.78543</v>
       </c>
       <c r="E2" t="n">
-        <v>6.2661</v>
+        <v>6.26804</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.656599999999999</v>
+        <v>8.243449999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>7.63324</v>
+        <v>8.16656</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5577</v>
+        <v>11.0321</v>
       </c>
       <c r="E3" t="n">
-        <v>10.1528</v>
+        <v>10.4673</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3514</v>
+        <v>10.3932</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3247</v>
+        <v>10.2296</v>
       </c>
       <c r="D4" t="n">
-        <v>13.8443</v>
+        <v>13.8179</v>
       </c>
       <c r="E4" t="n">
-        <v>14.2223</v>
+        <v>14.1748</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1972</v>
+        <v>11.9905</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7822</v>
+        <v>11.7943</v>
       </c>
       <c r="D5" t="n">
-        <v>16.962</v>
+        <v>16.9675</v>
       </c>
       <c r="E5" t="n">
-        <v>18.1205</v>
+        <v>18.0598</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3221</v>
+        <v>13.322</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6152</v>
+        <v>13.5828</v>
       </c>
       <c r="D6" t="n">
-        <v>19.8047</v>
+        <v>19.8315</v>
       </c>
       <c r="E6" t="n">
-        <v>21.3817</v>
+        <v>20.0932</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2714</v>
+        <v>13.4419</v>
       </c>
       <c r="C7" t="n">
-        <v>13.4176</v>
+        <v>13.151</v>
       </c>
       <c r="D7" t="n">
-        <v>19.215</v>
+        <v>18.6345</v>
       </c>
       <c r="E7" t="n">
-        <v>19.6319</v>
+        <v>18.878</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.311</v>
+        <v>13.2565</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5499</v>
+        <v>13.731</v>
       </c>
       <c r="D8" t="n">
-        <v>19.9697</v>
+        <v>19.0371</v>
       </c>
       <c r="E8" t="n">
-        <v>20.4094</v>
+        <v>20.2632</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.9165</v>
+        <v>14.0285</v>
       </c>
       <c r="C9" t="n">
-        <v>13.9893</v>
+        <v>13.7253</v>
       </c>
       <c r="D9" t="n">
-        <v>19.8844</v>
+        <v>19.6208</v>
       </c>
       <c r="E9" t="n">
-        <v>21.6848</v>
+        <v>21.3468</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.5313</v>
+        <v>13.8743</v>
       </c>
       <c r="C10" t="n">
-        <v>13.8977</v>
+        <v>13.852</v>
       </c>
       <c r="D10" t="n">
-        <v>20.3541</v>
+        <v>20.3587</v>
       </c>
       <c r="E10" t="n">
-        <v>21.3482</v>
+        <v>20.9197</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.2925</v>
+        <v>13.8579</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2166</v>
+        <v>14.1434</v>
       </c>
       <c r="D11" t="n">
-        <v>21.1115</v>
+        <v>20.8244</v>
       </c>
       <c r="E11" t="n">
-        <v>20.7848</v>
+        <v>21.4784</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.8168</v>
+        <v>13.7195</v>
       </c>
       <c r="C12" t="n">
-        <v>14.3652</v>
+        <v>14.4879</v>
       </c>
       <c r="D12" t="n">
-        <v>21.0283</v>
+        <v>20.8761</v>
       </c>
       <c r="E12" t="n">
-        <v>21.1332</v>
+        <v>21.5326</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6479</v>
+        <v>13.7842</v>
       </c>
       <c r="C13" t="n">
-        <v>14.4551</v>
+        <v>14.5063</v>
       </c>
       <c r="D13" t="n">
-        <v>21.0669</v>
+        <v>20.6998</v>
       </c>
       <c r="E13" t="n">
-        <v>22.6337</v>
+        <v>21.8617</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7038</v>
+        <v>13.704</v>
       </c>
       <c r="C14" t="n">
-        <v>14.9277</v>
+        <v>14.8132</v>
       </c>
       <c r="D14" t="n">
-        <v>21.0551</v>
+        <v>20.2225</v>
       </c>
       <c r="E14" t="n">
-        <v>21.3854</v>
+        <v>21.0454</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.9766</v>
+        <v>13.9765</v>
       </c>
       <c r="C15" t="n">
-        <v>14.9538</v>
+        <v>15.3807</v>
       </c>
       <c r="D15" t="n">
-        <v>20.0261</v>
+        <v>20.5355</v>
       </c>
       <c r="E15" t="n">
-        <v>21.479</v>
+        <v>20.3456</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.3076</v>
+        <v>13.7878</v>
       </c>
       <c r="C16" t="n">
-        <v>14.907</v>
+        <v>15.1221</v>
       </c>
       <c r="D16" t="n">
-        <v>19.6393</v>
+        <v>19.3909</v>
       </c>
       <c r="E16" t="n">
-        <v>21.1813</v>
+        <v>20.0539</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0016</v>
+        <v>14.149</v>
       </c>
       <c r="C17" t="n">
-        <v>15.3743</v>
+        <v>15.2638</v>
       </c>
       <c r="D17" t="n">
-        <v>18.9179</v>
+        <v>19.707</v>
       </c>
       <c r="E17" t="n">
-        <v>20.7124</v>
+        <v>19.1744</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.75259</v>
+        <v>2.75729</v>
       </c>
       <c r="C2" t="n">
-        <v>4.84974</v>
+        <v>4.86847</v>
       </c>
       <c r="D2" t="n">
-        <v>5.14606</v>
+        <v>5.14898</v>
       </c>
       <c r="E2" t="n">
-        <v>5.06216</v>
+        <v>5.06011</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.92156</v>
+        <v>4.91408</v>
       </c>
       <c r="C3" t="n">
-        <v>7.13571</v>
+        <v>6.7788</v>
       </c>
       <c r="D3" t="n">
-        <v>8.68502</v>
+        <v>8.90681</v>
       </c>
       <c r="E3" t="n">
-        <v>8.74098</v>
+        <v>8.958640000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.75324</v>
+        <v>6.75942</v>
       </c>
       <c r="C4" t="n">
-        <v>8.98903</v>
+        <v>8.98542</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7817</v>
+        <v>11.7348</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5827</v>
+        <v>12.589</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.709429999999999</v>
+        <v>8.73</v>
       </c>
       <c r="C5" t="n">
-        <v>10.864</v>
+        <v>10.8535</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8749</v>
+        <v>14.8216</v>
       </c>
       <c r="E5" t="n">
-        <v>16.2182</v>
+        <v>16.3316</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.6266</v>
+        <v>10.6401</v>
       </c>
       <c r="C6" t="n">
-        <v>12.9418</v>
+        <v>12.8758</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7878</v>
+        <v>17.843</v>
       </c>
       <c r="E6" t="n">
-        <v>19.6838</v>
+        <v>19.7126</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.5797</v>
+        <v>11.5052</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1951</v>
+        <v>13.2587</v>
       </c>
       <c r="D7" t="n">
-        <v>19.0699</v>
+        <v>18.9662</v>
       </c>
       <c r="E7" t="n">
-        <v>20.9561</v>
+        <v>20.7778</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8011</v>
+        <v>11.7715</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1409</v>
+        <v>13.0106</v>
       </c>
       <c r="D8" t="n">
-        <v>19.5413</v>
+        <v>18.7858</v>
       </c>
       <c r="E8" t="n">
-        <v>20.8129</v>
+        <v>21.0711</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.481</v>
+        <v>12.1435</v>
       </c>
       <c r="C9" t="n">
-        <v>13.1758</v>
+        <v>13.0886</v>
       </c>
       <c r="D9" t="n">
-        <v>20.1213</v>
+        <v>20.0156</v>
       </c>
       <c r="E9" t="n">
-        <v>21.8811</v>
+        <v>21.5105</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.8149</v>
+        <v>12.3754</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1495</v>
+        <v>13.087</v>
       </c>
       <c r="D10" t="n">
-        <v>20.5441</v>
+        <v>20.4898</v>
       </c>
       <c r="E10" t="n">
-        <v>22.277</v>
+        <v>21.7014</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5849</v>
+        <v>12.412</v>
       </c>
       <c r="C11" t="n">
-        <v>13.2608</v>
+        <v>13.2787</v>
       </c>
       <c r="D11" t="n">
-        <v>20.4024</v>
+        <v>20.2469</v>
       </c>
       <c r="E11" t="n">
-        <v>21.9481</v>
+        <v>21.8249</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.9528</v>
+        <v>12.8774</v>
       </c>
       <c r="C12" t="n">
-        <v>13.4368</v>
+        <v>13.3367</v>
       </c>
       <c r="D12" t="n">
-        <v>20.7967</v>
+        <v>20.6507</v>
       </c>
       <c r="E12" t="n">
-        <v>22.5282</v>
+        <v>22.0244</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.8525</v>
+        <v>12.9356</v>
       </c>
       <c r="C13" t="n">
-        <v>13.4858</v>
+        <v>13.5529</v>
       </c>
       <c r="D13" t="n">
-        <v>21.004</v>
+        <v>20.5465</v>
       </c>
       <c r="E13" t="n">
-        <v>22.569</v>
+        <v>22.0324</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.6912</v>
+        <v>12.6893</v>
       </c>
       <c r="C14" t="n">
-        <v>13.5854</v>
+        <v>13.6933</v>
       </c>
       <c r="D14" t="n">
-        <v>20.6955</v>
+        <v>20.7163</v>
       </c>
       <c r="E14" t="n">
-        <v>22.93</v>
+        <v>22.1888</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.9027</v>
+        <v>13.1197</v>
       </c>
       <c r="C15" t="n">
-        <v>13.7732</v>
+        <v>13.792</v>
       </c>
       <c r="D15" t="n">
-        <v>21.2499</v>
+        <v>20.9391</v>
       </c>
       <c r="E15" t="n">
-        <v>22.6549</v>
+        <v>22.9728</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1287</v>
+        <v>13.0152</v>
       </c>
       <c r="C16" t="n">
-        <v>14.0456</v>
+        <v>13.9843</v>
       </c>
       <c r="D16" t="n">
-        <v>20.6368</v>
+        <v>21.4172</v>
       </c>
       <c r="E16" t="n">
-        <v>22.8614</v>
+        <v>22.7365</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.0646</v>
+        <v>12.9964</v>
       </c>
       <c r="C17" t="n">
-        <v>14.2623</v>
+        <v>14.1956</v>
       </c>
       <c r="D17" t="n">
-        <v>20.978</v>
+        <v>21.0512</v>
       </c>
       <c r="E17" t="n">
-        <v>22.1849</v>
+        <v>22.4769</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.05398</v>
+        <v>4.00685</v>
       </c>
       <c r="C2" t="n">
-        <v>7.52602</v>
+        <v>7.46358</v>
       </c>
       <c r="D2" t="n">
-        <v>8.28246</v>
+        <v>8.256349999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>7.18636</v>
+        <v>7.17654</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.75907</v>
+        <v>6.49931</v>
       </c>
       <c r="C3" t="n">
-        <v>10.1569</v>
+        <v>10.2551</v>
       </c>
       <c r="D3" t="n">
-        <v>13.2128</v>
+        <v>13.2085</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3796</v>
+        <v>12.766</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.885809999999999</v>
+        <v>8.81476</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2755</v>
+        <v>11.857</v>
       </c>
       <c r="D4" t="n">
-        <v>16.561</v>
+        <v>16.537</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6179</v>
+        <v>16.5846</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.3531</v>
+        <v>11.3702</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5027</v>
+        <v>13.5031</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8923</v>
+        <v>20.3861</v>
       </c>
       <c r="E5" t="n">
-        <v>21.3064</v>
+        <v>21.0774</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7816</v>
+        <v>13.702</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7241</v>
+        <v>15.691</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3095</v>
+        <v>24.1861</v>
       </c>
       <c r="E6" t="n">
-        <v>25.4217</v>
+        <v>25.4425</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.1332</v>
+        <v>14.4746</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0599</v>
+        <v>16.0746</v>
       </c>
       <c r="D7" t="n">
-        <v>26.3133</v>
+        <v>26.268</v>
       </c>
       <c r="E7" t="n">
-        <v>26.6422</v>
+        <v>26.3441</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.2436</v>
+        <v>15.3774</v>
       </c>
       <c r="C8" t="n">
-        <v>15.8893</v>
+        <v>16.0349</v>
       </c>
       <c r="D8" t="n">
-        <v>26.5368</v>
+        <v>26.1843</v>
       </c>
       <c r="E8" t="n">
-        <v>27.1434</v>
+        <v>27.5333</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.118</v>
+        <v>15.8057</v>
       </c>
       <c r="C9" t="n">
-        <v>16.0863</v>
+        <v>15.9033</v>
       </c>
       <c r="D9" t="n">
-        <v>26.7316</v>
+        <v>26.362</v>
       </c>
       <c r="E9" t="n">
-        <v>27.6936</v>
+        <v>27.7722</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.4703</v>
+        <v>16.244</v>
       </c>
       <c r="C10" t="n">
-        <v>16.0011</v>
+        <v>16.035</v>
       </c>
       <c r="D10" t="n">
-        <v>27.5499</v>
+        <v>27.8812</v>
       </c>
       <c r="E10" t="n">
-        <v>28.1398</v>
+        <v>27.5546</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.2303</v>
+        <v>16.0327</v>
       </c>
       <c r="C11" t="n">
-        <v>16.1222</v>
+        <v>16.0416</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7103</v>
+        <v>27.3791</v>
       </c>
       <c r="E11" t="n">
-        <v>28.1089</v>
+        <v>27.7024</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.7112</v>
+        <v>16.8115</v>
       </c>
       <c r="C12" t="n">
-        <v>16.1452</v>
+        <v>16.308</v>
       </c>
       <c r="D12" t="n">
-        <v>27.5972</v>
+        <v>27.2274</v>
       </c>
       <c r="E12" t="n">
-        <v>27.8544</v>
+        <v>28.7335</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.2373</v>
+        <v>16.3865</v>
       </c>
       <c r="C13" t="n">
-        <v>16.3676</v>
+        <v>16.2395</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6259</v>
+        <v>27.4082</v>
       </c>
       <c r="E13" t="n">
-        <v>27.2787</v>
+        <v>27.5956</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5531</v>
+        <v>16.4584</v>
       </c>
       <c r="C14" t="n">
-        <v>16.4683</v>
+        <v>16.4117</v>
       </c>
       <c r="D14" t="n">
-        <v>28.0768</v>
+        <v>27.8215</v>
       </c>
       <c r="E14" t="n">
-        <v>28.4363</v>
+        <v>27.9782</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.6765</v>
+        <v>16.8802</v>
       </c>
       <c r="C15" t="n">
-        <v>16.5732</v>
+        <v>16.5899</v>
       </c>
       <c r="D15" t="n">
-        <v>27.7408</v>
+        <v>27.4421</v>
       </c>
       <c r="E15" t="n">
-        <v>28.835</v>
+        <v>27.8474</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.7141</v>
+        <v>16.7536</v>
       </c>
       <c r="C16" t="n">
-        <v>16.8516</v>
+        <v>16.8751</v>
       </c>
       <c r="D16" t="n">
-        <v>26.8127</v>
+        <v>27.4543</v>
       </c>
       <c r="E16" t="n">
-        <v>27.641</v>
+        <v>28.2178</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.5569</v>
+        <v>16.6852</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3866</v>
+        <v>17.2018</v>
       </c>
       <c r="D17" t="n">
-        <v>27.4224</v>
+        <v>27.0774</v>
       </c>
       <c r="E17" t="n">
-        <v>27.6759</v>
+        <v>28.5948</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.33129</v>
+        <v>5.25077</v>
       </c>
       <c r="C2" t="n">
-        <v>5.90455</v>
+        <v>5.91074</v>
       </c>
       <c r="D2" t="n">
-        <v>6.40361</v>
+        <v>6.40108</v>
       </c>
       <c r="E2" t="n">
-        <v>6.09664</v>
+        <v>6.09473</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.58562</v>
+        <v>6.67321</v>
       </c>
       <c r="C3" t="n">
-        <v>7.62683</v>
+        <v>8.669079999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9.94528</v>
+        <v>9.93718</v>
       </c>
       <c r="E3" t="n">
-        <v>9.87776</v>
+        <v>9.897729999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.575229999999999</v>
+        <v>9.47526</v>
       </c>
       <c r="C4" t="n">
-        <v>10.1514</v>
+        <v>10.264</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6275</v>
+        <v>13.5909</v>
       </c>
       <c r="E4" t="n">
-        <v>14.2881</v>
+        <v>14.2824</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.4075</v>
+        <v>11.8122</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8251</v>
+        <v>11.84</v>
       </c>
       <c r="D5" t="n">
-        <v>16.9268</v>
+        <v>16.8751</v>
       </c>
       <c r="E5" t="n">
-        <v>18.2946</v>
+        <v>18.3146</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4836</v>
+        <v>13.3031</v>
       </c>
       <c r="C6" t="n">
-        <v>13.8409</v>
+        <v>14.0684</v>
       </c>
       <c r="D6" t="n">
-        <v>20.3154</v>
+        <v>20.3776</v>
       </c>
       <c r="E6" t="n">
-        <v>22.2621</v>
+        <v>22.345</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.625</v>
+        <v>14.5694</v>
       </c>
       <c r="C7" t="n">
-        <v>14.4934</v>
+        <v>14.4066</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5249</v>
+        <v>21.5861</v>
       </c>
       <c r="E7" t="n">
-        <v>23.4067</v>
+        <v>23.4554</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.2244</v>
+        <v>14.6136</v>
       </c>
       <c r="C8" t="n">
-        <v>14.1567</v>
+        <v>14.161</v>
       </c>
       <c r="D8" t="n">
-        <v>21.9295</v>
+        <v>21.8417</v>
       </c>
       <c r="E8" t="n">
-        <v>22.9023</v>
+        <v>23.5679</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.2969</v>
+        <v>15.1166</v>
       </c>
       <c r="C9" t="n">
-        <v>14.3829</v>
+        <v>14.3796</v>
       </c>
       <c r="D9" t="n">
-        <v>22.7427</v>
+        <v>22.2479</v>
       </c>
       <c r="E9" t="n">
-        <v>24.9113</v>
+        <v>24.1671</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.689</v>
+        <v>15.3755</v>
       </c>
       <c r="C10" t="n">
-        <v>14.4047</v>
+        <v>14.2537</v>
       </c>
       <c r="D10" t="n">
-        <v>23.5666</v>
+        <v>22.9986</v>
       </c>
       <c r="E10" t="n">
-        <v>24.8079</v>
+        <v>25.1744</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.116</v>
+        <v>15.2135</v>
       </c>
       <c r="C11" t="n">
-        <v>14.4359</v>
+        <v>14.4589</v>
       </c>
       <c r="D11" t="n">
-        <v>22.8712</v>
+        <v>22.9403</v>
       </c>
       <c r="E11" t="n">
-        <v>24.8331</v>
+        <v>24.7281</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.6036</v>
+        <v>15.3561</v>
       </c>
       <c r="C12" t="n">
-        <v>14.6931</v>
+        <v>14.4682</v>
       </c>
       <c r="D12" t="n">
-        <v>24.004</v>
+        <v>22.8076</v>
       </c>
       <c r="E12" t="n">
-        <v>25.1993</v>
+        <v>25.0786</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0507</v>
+        <v>15.0076</v>
       </c>
       <c r="C13" t="n">
-        <v>14.4962</v>
+        <v>14.5935</v>
       </c>
       <c r="D13" t="n">
-        <v>23.76</v>
+        <v>23.2024</v>
       </c>
       <c r="E13" t="n">
-        <v>25.0433</v>
+        <v>25.198</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.0348</v>
+        <v>15.1906</v>
       </c>
       <c r="C14" t="n">
-        <v>14.727</v>
+        <v>14.6808</v>
       </c>
       <c r="D14" t="n">
-        <v>23.7592</v>
+        <v>23.8212</v>
       </c>
       <c r="E14" t="n">
-        <v>25.3459</v>
+        <v>25.1136</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.4882</v>
+        <v>15.4032</v>
       </c>
       <c r="C15" t="n">
-        <v>15.0247</v>
+        <v>14.916</v>
       </c>
       <c r="D15" t="n">
-        <v>23.5108</v>
+        <v>23.9068</v>
       </c>
       <c r="E15" t="n">
-        <v>25.5345</v>
+        <v>25.5681</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.2111</v>
+        <v>15.3714</v>
       </c>
       <c r="C16" t="n">
-        <v>15.1971</v>
+        <v>15.1372</v>
       </c>
       <c r="D16" t="n">
-        <v>23.7616</v>
+        <v>23.63</v>
       </c>
       <c r="E16" t="n">
-        <v>25.553</v>
+        <v>25.6547</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.2297</v>
+        <v>15.0562</v>
       </c>
       <c r="C17" t="n">
-        <v>15.5819</v>
+        <v>15.5265</v>
       </c>
       <c r="D17" t="n">
-        <v>23.7565</v>
+        <v>24.2075</v>
       </c>
       <c r="E17" t="n">
-        <v>25.3812</v>
+        <v>26.0042</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.23324</v>
+        <v>5.22414</v>
       </c>
       <c r="C2" t="n">
-        <v>5.58481</v>
+        <v>5.4327</v>
       </c>
       <c r="D2" t="n">
-        <v>5.87257</v>
+        <v>5.91577</v>
       </c>
       <c r="E2" t="n">
-        <v>7.01245</v>
+        <v>6.92867</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.72607</v>
+        <v>7.72304</v>
       </c>
       <c r="C3" t="n">
-        <v>6.89171</v>
+        <v>7.03105</v>
       </c>
       <c r="D3" t="n">
-        <v>8.883789999999999</v>
+        <v>9.512309999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.825</v>
+        <v>10.826</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.9023</v>
+        <v>8.718489999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>8.913130000000001</v>
+        <v>9.208780000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>12.0931</v>
+        <v>12.2016</v>
       </c>
       <c r="E4" t="n">
-        <v>15.12</v>
+        <v>14.765</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0574</v>
+        <v>9.66011</v>
       </c>
       <c r="C5" t="n">
-        <v>11.1512</v>
+        <v>10.9959</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1609</v>
+        <v>15.0628</v>
       </c>
       <c r="E5" t="n">
-        <v>19.1684</v>
+        <v>18.4995</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1034</v>
+        <v>10.9734</v>
       </c>
       <c r="C6" t="n">
-        <v>13.4429</v>
+        <v>12.7798</v>
       </c>
       <c r="D6" t="n">
-        <v>18.0764</v>
+        <v>17.5031</v>
       </c>
       <c r="E6" t="n">
-        <v>23.3026</v>
+        <v>21.398</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6363</v>
+        <v>11.2722</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7749</v>
+        <v>12.1818</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2536</v>
+        <v>16.7751</v>
       </c>
       <c r="E7" t="n">
-        <v>27.3838</v>
+        <v>21.0519</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7231</v>
+        <v>11.11</v>
       </c>
       <c r="C8" t="n">
-        <v>18.1516</v>
+        <v>12.7065</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8348</v>
+        <v>17.6988</v>
       </c>
       <c r="E8" t="n">
-        <v>31.204</v>
+        <v>20.5768</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.1804</v>
+        <v>11.1284</v>
       </c>
       <c r="C9" t="n">
-        <v>21.2912</v>
+        <v>12.3467</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0091</v>
+        <v>18.0791</v>
       </c>
       <c r="E9" t="n">
-        <v>35.1721</v>
+        <v>21.3192</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.0016</v>
+        <v>11.5461</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5977</v>
+        <v>12.4814</v>
       </c>
       <c r="D10" t="n">
-        <v>22.3716</v>
+        <v>17.9854</v>
       </c>
       <c r="E10" t="n">
-        <v>28.3203</v>
+        <v>21.5913</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4925</v>
+        <v>11.98</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9181</v>
+        <v>12.9613</v>
       </c>
       <c r="D11" t="n">
-        <v>23.506</v>
+        <v>18.2915</v>
       </c>
       <c r="E11" t="n">
-        <v>29.0159</v>
+        <v>21.6177</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.3923</v>
+        <v>11.8299</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7918</v>
+        <v>13.1849</v>
       </c>
       <c r="D12" t="n">
-        <v>24.9907</v>
+        <v>18.4742</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0525</v>
+        <v>21.8251</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5517</v>
+        <v>11.8314</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4674</v>
+        <v>13.5878</v>
       </c>
       <c r="D13" t="n">
-        <v>24.5283</v>
+        <v>19.3713</v>
       </c>
       <c r="E13" t="n">
-        <v>30.9106</v>
+        <v>22.2808</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.4784</v>
+        <v>12.0202</v>
       </c>
       <c r="C14" t="n">
-        <v>19.2568</v>
+        <v>13.5752</v>
       </c>
       <c r="D14" t="n">
-        <v>24.4851</v>
+        <v>19.0766</v>
       </c>
       <c r="E14" t="n">
-        <v>30.014</v>
+        <v>21.9891</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6236</v>
+        <v>12.3188</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5296</v>
+        <v>14.0313</v>
       </c>
       <c r="D15" t="n">
-        <v>24.0503</v>
+        <v>18.8791</v>
       </c>
       <c r="E15" t="n">
-        <v>30.0845</v>
+        <v>22.1875</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2643</v>
+        <v>11.9855</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9228</v>
+        <v>13.6877</v>
       </c>
       <c r="D16" t="n">
-        <v>24.9264</v>
+        <v>19.2367</v>
       </c>
       <c r="E16" t="n">
-        <v>30.6374</v>
+        <v>21.2813</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.4635</v>
+        <v>11.6883</v>
       </c>
       <c r="C17" t="n">
-        <v>19.936</v>
+        <v>14.4952</v>
       </c>
       <c r="D17" t="n">
-        <v>24.2215</v>
+        <v>18.2973</v>
       </c>
       <c r="E17" t="n">
-        <v>30.1583</v>
+        <v>21.0685</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.642469999999999</v>
+        <v>8.783519999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.970319999999999</v>
+        <v>9.95237</v>
       </c>
       <c r="D2" t="n">
-        <v>11.2646</v>
+        <v>10.4491</v>
       </c>
       <c r="E2" t="n">
-        <v>13.8409</v>
+        <v>13.4953</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.77753</v>
+        <v>12.4635</v>
       </c>
       <c r="C3" t="n">
-        <v>9.236890000000001</v>
+        <v>12.0074</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4449</v>
+        <v>13.7103</v>
       </c>
       <c r="E3" t="n">
-        <v>16.9914</v>
+        <v>18.364</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9962</v>
+        <v>11.829</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5746</v>
+        <v>13.637</v>
       </c>
       <c r="D4" t="n">
-        <v>17.69</v>
+        <v>17.8344</v>
       </c>
       <c r="E4" t="n">
-        <v>22.9605</v>
+        <v>23.0734</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.0139</v>
+        <v>12.4345</v>
       </c>
       <c r="C5" t="n">
-        <v>14.1619</v>
+        <v>14.5228</v>
       </c>
       <c r="D5" t="n">
-        <v>21.6493</v>
+        <v>21.0559</v>
       </c>
       <c r="E5" t="n">
-        <v>28.7571</v>
+        <v>28.0166</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.5008</v>
+        <v>14.3015</v>
       </c>
       <c r="C6" t="n">
-        <v>16.8632</v>
+        <v>16.6903</v>
       </c>
       <c r="D6" t="n">
-        <v>25.4219</v>
+        <v>24.0089</v>
       </c>
       <c r="E6" t="n">
-        <v>34.2893</v>
+        <v>31.0882</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.289</v>
+        <v>13.958</v>
       </c>
       <c r="C7" t="n">
-        <v>19.6204</v>
+        <v>16.7005</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3035</v>
+        <v>22.8046</v>
       </c>
       <c r="E7" t="n">
-        <v>39.3554</v>
+        <v>28.318</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0277</v>
+        <v>14.1868</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6599</v>
+        <v>16.301</v>
       </c>
       <c r="D8" t="n">
-        <v>33.1956</v>
+        <v>25.0752</v>
       </c>
       <c r="E8" t="n">
-        <v>44.841</v>
+        <v>30.1737</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6527</v>
+        <v>15.0097</v>
       </c>
       <c r="C9" t="n">
-        <v>26.1248</v>
+        <v>15.9704</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6642</v>
+        <v>24.5882</v>
       </c>
       <c r="E9" t="n">
-        <v>50.391</v>
+        <v>29.5001</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.426</v>
+        <v>15.1413</v>
       </c>
       <c r="C10" t="n">
-        <v>23.2712</v>
+        <v>16.4461</v>
       </c>
       <c r="D10" t="n">
-        <v>33.6694</v>
+        <v>25.1205</v>
       </c>
       <c r="E10" t="n">
-        <v>42.5867</v>
+        <v>30.2912</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.5635</v>
+        <v>15.3638</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5358</v>
+        <v>16.5259</v>
       </c>
       <c r="D11" t="n">
-        <v>33.0692</v>
+        <v>24.6531</v>
       </c>
       <c r="E11" t="n">
-        <v>41.7884</v>
+        <v>31.576</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0771</v>
+        <v>15.1504</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3606</v>
+        <v>17.7795</v>
       </c>
       <c r="D12" t="n">
-        <v>33.1159</v>
+        <v>24.1365</v>
       </c>
       <c r="E12" t="n">
-        <v>40.9949</v>
+        <v>30.4271</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.4961</v>
+        <v>15.7012</v>
       </c>
       <c r="C13" t="n">
-        <v>23.5446</v>
+        <v>16.9355</v>
       </c>
       <c r="D13" t="n">
-        <v>35.4883</v>
+        <v>25.3421</v>
       </c>
       <c r="E13" t="n">
-        <v>43.7011</v>
+        <v>31.2668</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.6261</v>
+        <v>15.1687</v>
       </c>
       <c r="C14" t="n">
-        <v>24.3954</v>
+        <v>17.3928</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2612</v>
+        <v>25.9013</v>
       </c>
       <c r="E14" t="n">
-        <v>42.0819</v>
+        <v>30.7961</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.474</v>
+        <v>15.2223</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5297</v>
+        <v>17.8369</v>
       </c>
       <c r="D15" t="n">
-        <v>33.0737</v>
+        <v>24.1158</v>
       </c>
       <c r="E15" t="n">
-        <v>41.5089</v>
+        <v>29.791</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7485</v>
+        <v>14.4208</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9251</v>
+        <v>17.7016</v>
       </c>
       <c r="D16" t="n">
-        <v>34.2011</v>
+        <v>22.7169</v>
       </c>
       <c r="E16" t="n">
-        <v>42.9425</v>
+        <v>28.8018</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0687</v>
+        <v>15.5738</v>
       </c>
       <c r="C17" t="n">
-        <v>25.2242</v>
+        <v>17.9757</v>
       </c>
       <c r="D17" t="n">
-        <v>33.6527</v>
+        <v>21.9242</v>
       </c>
       <c r="E17" t="n">
-        <v>42.6632</v>
+        <v>28.45</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.39913</v>
+        <v>6.44957</v>
       </c>
       <c r="C2" t="n">
-        <v>6.53641</v>
+        <v>6.51906</v>
       </c>
       <c r="D2" t="n">
-        <v>7.08422</v>
+        <v>6.79198</v>
       </c>
       <c r="E2" t="n">
-        <v>7.95147</v>
+        <v>7.90071</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.21485</v>
+        <v>8.830159999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>7.63014</v>
+        <v>7.99504</v>
       </c>
       <c r="D3" t="n">
-        <v>10.1151</v>
+        <v>10.5486</v>
       </c>
       <c r="E3" t="n">
-        <v>11.824</v>
+        <v>12.8555</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.31475</v>
+        <v>10.0394</v>
       </c>
       <c r="C4" t="n">
-        <v>9.67684</v>
+        <v>10.8153</v>
       </c>
       <c r="D4" t="n">
-        <v>13.7875</v>
+        <v>13.9348</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5151</v>
+        <v>16.1912</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2826</v>
+        <v>10.9399</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0287</v>
+        <v>12.0576</v>
       </c>
       <c r="D5" t="n">
-        <v>17.6405</v>
+        <v>17.4098</v>
       </c>
       <c r="E5" t="n">
-        <v>21.2759</v>
+        <v>20.1349</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4716</v>
+        <v>12.3513</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4045</v>
+        <v>14.2226</v>
       </c>
       <c r="D6" t="n">
-        <v>21.2163</v>
+        <v>19.8298</v>
       </c>
       <c r="E6" t="n">
-        <v>25.8689</v>
+        <v>22.4937</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8552</v>
+        <v>12.7421</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9227</v>
+        <v>13.478</v>
       </c>
       <c r="D7" t="n">
-        <v>25.3066</v>
+        <v>19.6955</v>
       </c>
       <c r="E7" t="n">
-        <v>30.5675</v>
+        <v>22.1411</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0766</v>
+        <v>12.6298</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2953</v>
+        <v>13.5026</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5931</v>
+        <v>19.7072</v>
       </c>
       <c r="E8" t="n">
-        <v>34.8321</v>
+        <v>23.1751</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.0812</v>
+        <v>13.0468</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1666</v>
+        <v>13.8855</v>
       </c>
       <c r="D9" t="n">
-        <v>33.2916</v>
+        <v>20.2456</v>
       </c>
       <c r="E9" t="n">
-        <v>39.7053</v>
+        <v>22.8281</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.2115</v>
+        <v>12.9199</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2182</v>
+        <v>14.5636</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0793</v>
+        <v>20.6787</v>
       </c>
       <c r="E10" t="n">
-        <v>32.6176</v>
+        <v>24.0608</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.9679</v>
+        <v>13.8508</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1735</v>
+        <v>14.2475</v>
       </c>
       <c r="D11" t="n">
-        <v>27.7368</v>
+        <v>21.3857</v>
       </c>
       <c r="E11" t="n">
-        <v>33.0251</v>
+        <v>24.3836</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.6896</v>
+        <v>13.1368</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8695</v>
+        <v>14.7739</v>
       </c>
       <c r="D12" t="n">
-        <v>29.1019</v>
+        <v>21.6959</v>
       </c>
       <c r="E12" t="n">
-        <v>33.9737</v>
+        <v>24.2829</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5354</v>
+        <v>13.5067</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6341</v>
+        <v>14.7766</v>
       </c>
       <c r="D13" t="n">
-        <v>29.7698</v>
+        <v>20.9329</v>
       </c>
       <c r="E13" t="n">
-        <v>33.6652</v>
+        <v>24.0753</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.3958</v>
+        <v>13.1319</v>
       </c>
       <c r="C14" t="n">
-        <v>20.2444</v>
+        <v>15.0689</v>
       </c>
       <c r="D14" t="n">
-        <v>28.224</v>
+        <v>20.7617</v>
       </c>
       <c r="E14" t="n">
-        <v>33.4166</v>
+        <v>22.3059</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.7864</v>
+        <v>13.5407</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5043</v>
+        <v>15.7455</v>
       </c>
       <c r="D15" t="n">
-        <v>28.236</v>
+        <v>21.3846</v>
       </c>
       <c r="E15" t="n">
-        <v>32.5445</v>
+        <v>22.9125</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.6628</v>
+        <v>13.3413</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0641</v>
+        <v>15.8567</v>
       </c>
       <c r="D16" t="n">
-        <v>28.3832</v>
+        <v>21.8721</v>
       </c>
       <c r="E16" t="n">
-        <v>32.8604</v>
+        <v>22.5008</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2105</v>
+        <v>12.646</v>
       </c>
       <c r="C17" t="n">
-        <v>21.38</v>
+        <v>15.7818</v>
       </c>
       <c r="D17" t="n">
-        <v>29.3858</v>
+        <v>21.1906</v>
       </c>
       <c r="E17" t="n">
-        <v>32.8773</v>
+        <v>22.6918</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.07759</v>
+        <v>3.04369</v>
       </c>
       <c r="C2" t="n">
-        <v>4.97592</v>
+        <v>4.83788</v>
       </c>
       <c r="D2" t="n">
-        <v>5.09444</v>
+        <v>5.11664</v>
       </c>
       <c r="E2" t="n">
-        <v>6.30849</v>
+        <v>6.15113</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.09554</v>
+        <v>5.19346</v>
       </c>
       <c r="C3" t="n">
-        <v>6.53272</v>
+        <v>6.99413</v>
       </c>
       <c r="D3" t="n">
-        <v>8.33231</v>
+        <v>8.434710000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.5154</v>
+        <v>10.7611</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.25117</v>
+        <v>6.70328</v>
       </c>
       <c r="C4" t="n">
-        <v>8.692259999999999</v>
+        <v>8.712070000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.5968</v>
+        <v>11.7648</v>
       </c>
       <c r="E4" t="n">
-        <v>14.9707</v>
+        <v>14.4957</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.403560000000001</v>
+        <v>8.34224</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8333</v>
+        <v>10.7682</v>
       </c>
       <c r="D5" t="n">
-        <v>14.711</v>
+        <v>15.061</v>
       </c>
       <c r="E5" t="n">
-        <v>19.2444</v>
+        <v>18.5037</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4892</v>
+        <v>9.805820000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0205</v>
+        <v>13.0609</v>
       </c>
       <c r="D6" t="n">
-        <v>17.6601</v>
+        <v>17.8264</v>
       </c>
       <c r="E6" t="n">
-        <v>23.4318</v>
+        <v>22.4581</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.621</v>
+        <v>10.4077</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2677</v>
+        <v>12.9978</v>
       </c>
       <c r="D7" t="n">
-        <v>20.6378</v>
+        <v>18.9414</v>
       </c>
       <c r="E7" t="n">
-        <v>27.5695</v>
+        <v>22.7606</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.71</v>
+        <v>10.4275</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6251</v>
+        <v>12.7667</v>
       </c>
       <c r="D8" t="n">
-        <v>23.4931</v>
+        <v>18.0781</v>
       </c>
       <c r="E8" t="n">
-        <v>31.6382</v>
+        <v>22.763</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1732</v>
+        <v>10.7219</v>
       </c>
       <c r="C9" t="n">
-        <v>20.796</v>
+        <v>12.879</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0807</v>
+        <v>18.884</v>
       </c>
       <c r="E9" t="n">
-        <v>36.2957</v>
+        <v>23.9258</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5546</v>
+        <v>11.0182</v>
       </c>
       <c r="C10" t="n">
-        <v>19.3149</v>
+        <v>13.1679</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0753</v>
+        <v>18.7954</v>
       </c>
       <c r="E10" t="n">
-        <v>32.9755</v>
+        <v>23.0885</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9596</v>
+        <v>11.2457</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0517</v>
+        <v>13.1012</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8616</v>
+        <v>19.9431</v>
       </c>
       <c r="E11" t="n">
-        <v>32.8598</v>
+        <v>23.8253</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.4681</v>
+        <v>11.6412</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3814</v>
+        <v>13.3301</v>
       </c>
       <c r="D12" t="n">
-        <v>25.986</v>
+        <v>20.3004</v>
       </c>
       <c r="E12" t="n">
-        <v>33.2273</v>
+        <v>24.7272</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8981</v>
+        <v>11.4759</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5972</v>
+        <v>13.3899</v>
       </c>
       <c r="D13" t="n">
-        <v>26.5686</v>
+        <v>20.0816</v>
       </c>
       <c r="E13" t="n">
-        <v>33.7256</v>
+        <v>25.0938</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.1657</v>
+        <v>11.543</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5706</v>
+        <v>13.6292</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2874</v>
+        <v>20.5329</v>
       </c>
       <c r="E14" t="n">
-        <v>32.6693</v>
+        <v>24.8878</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9638</v>
+        <v>11.7202</v>
       </c>
       <c r="C15" t="n">
-        <v>19.7466</v>
+        <v>13.866</v>
       </c>
       <c r="D15" t="n">
-        <v>25.9066</v>
+        <v>20.2445</v>
       </c>
       <c r="E15" t="n">
-        <v>32.8547</v>
+        <v>24.5468</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.9342</v>
+        <v>11.4615</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8691</v>
+        <v>13.9289</v>
       </c>
       <c r="D16" t="n">
-        <v>25.8062</v>
+        <v>20.6413</v>
       </c>
       <c r="E16" t="n">
-        <v>32.5894</v>
+        <v>24.2962</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1094</v>
+        <v>11.6337</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0439</v>
+        <v>14.2806</v>
       </c>
       <c r="D17" t="n">
-        <v>26.097</v>
+        <v>20.6815</v>
       </c>
       <c r="E17" t="n">
-        <v>32.1807</v>
+        <v>24.6233</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94524</v>
+        <v>4.01804</v>
       </c>
       <c r="C2" t="n">
-        <v>8.185449999999999</v>
+        <v>8.208159999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.76956</v>
+        <v>8.28378</v>
       </c>
       <c r="E2" t="n">
-        <v>11.4372</v>
+        <v>10.9613</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24042</v>
+        <v>6.84652</v>
       </c>
       <c r="C3" t="n">
-        <v>8.771559999999999</v>
+        <v>11.3342</v>
       </c>
       <c r="D3" t="n">
-        <v>12.6132</v>
+        <v>12.7515</v>
       </c>
       <c r="E3" t="n">
-        <v>16.7098</v>
+        <v>16.4892</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.89518</v>
+        <v>8.22691</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2708</v>
+        <v>12.4798</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0345</v>
+        <v>16.7498</v>
       </c>
       <c r="E4" t="n">
-        <v>22.9822</v>
+        <v>21.9309</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2683</v>
+        <v>10.2107</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7487</v>
+        <v>14.0714</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0159</v>
+        <v>20.4936</v>
       </c>
       <c r="E5" t="n">
-        <v>28.9432</v>
+        <v>27.2769</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.782</v>
+        <v>12.0512</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3034</v>
+        <v>16.2975</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9645</v>
+        <v>24.3629</v>
       </c>
       <c r="E6" t="n">
-        <v>34.7935</v>
+        <v>32.6179</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2207</v>
+        <v>12.6562</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9664</v>
+        <v>16.4869</v>
       </c>
       <c r="D7" t="n">
-        <v>28.6687</v>
+        <v>25.431</v>
       </c>
       <c r="E7" t="n">
-        <v>40.4972</v>
+        <v>32.6963</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9895</v>
+        <v>12.5316</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0695</v>
+        <v>16.4522</v>
       </c>
       <c r="D8" t="n">
-        <v>33.038</v>
+        <v>24.0844</v>
       </c>
       <c r="E8" t="n">
-        <v>46.028</v>
+        <v>32.5118</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.0249</v>
+        <v>12.7791</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8011</v>
+        <v>16.6553</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3712</v>
+        <v>25.5168</v>
       </c>
       <c r="E9" t="n">
-        <v>53.1364</v>
+        <v>31.9419</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5729</v>
+        <v>13.2381</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6766</v>
+        <v>16.81</v>
       </c>
       <c r="D10" t="n">
-        <v>36.569</v>
+        <v>25.8704</v>
       </c>
       <c r="E10" t="n">
-        <v>47.83</v>
+        <v>33.1288</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.4325</v>
+        <v>13.6251</v>
       </c>
       <c r="C11" t="n">
-        <v>23.5094</v>
+        <v>16.9134</v>
       </c>
       <c r="D11" t="n">
-        <v>35.4659</v>
+        <v>26.1516</v>
       </c>
       <c r="E11" t="n">
-        <v>45.9745</v>
+        <v>33.9699</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.879</v>
+        <v>13.945</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1033</v>
+        <v>16.9218</v>
       </c>
       <c r="D12" t="n">
-        <v>35.6582</v>
+        <v>27.3661</v>
       </c>
       <c r="E12" t="n">
-        <v>47.2416</v>
+        <v>34.5986</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.2451</v>
+        <v>13.7896</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0307</v>
+        <v>17.1213</v>
       </c>
       <c r="D13" t="n">
-        <v>36.0705</v>
+        <v>27.199</v>
       </c>
       <c r="E13" t="n">
-        <v>47.3745</v>
+        <v>34.2289</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.6021</v>
+        <v>13.6308</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1884</v>
+        <v>16.8929</v>
       </c>
       <c r="D14" t="n">
-        <v>35.1676</v>
+        <v>27.5559</v>
       </c>
       <c r="E14" t="n">
-        <v>45.345</v>
+        <v>34.2635</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5325</v>
+        <v>13.7627</v>
       </c>
       <c r="C15" t="n">
-        <v>24.451</v>
+        <v>17.2695</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2304</v>
+        <v>27.5719</v>
       </c>
       <c r="E15" t="n">
-        <v>45.5115</v>
+        <v>35.7344</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.4504</v>
+        <v>14.1513</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6834</v>
+        <v>17.8127</v>
       </c>
       <c r="D16" t="n">
-        <v>35.2166</v>
+        <v>27.151</v>
       </c>
       <c r="E16" t="n">
-        <v>44.9406</v>
+        <v>33.9651</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.2237</v>
+        <v>14.464</v>
       </c>
       <c r="C17" t="n">
-        <v>24.7985</v>
+        <v>17.7904</v>
       </c>
       <c r="D17" t="n">
-        <v>35.4659</v>
+        <v>27.2264</v>
       </c>
       <c r="E17" t="n">
-        <v>44.849</v>
+        <v>32.8447</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.3555</v>
+        <v>5.27875</v>
       </c>
       <c r="C2" t="n">
-        <v>6.2937</v>
+        <v>6.28886</v>
       </c>
       <c r="D2" t="n">
-        <v>6.69051</v>
+        <v>6.42441</v>
       </c>
       <c r="E2" t="n">
-        <v>7.70806</v>
+        <v>7.62982</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.74781</v>
+        <v>9.26357</v>
       </c>
       <c r="C3" t="n">
-        <v>7.40293</v>
+        <v>8.4389</v>
       </c>
       <c r="D3" t="n">
-        <v>9.86763</v>
+        <v>10.0048</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9086</v>
+        <v>11.3442</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.03201</v>
+        <v>8.9903</v>
       </c>
       <c r="C4" t="n">
-        <v>9.639089999999999</v>
+        <v>10.1253</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6328</v>
+        <v>13.6753</v>
       </c>
       <c r="E4" t="n">
-        <v>16.8742</v>
+        <v>16.2254</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2019</v>
+        <v>10.7554</v>
       </c>
       <c r="C5" t="n">
-        <v>11.8785</v>
+        <v>12.2059</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3609</v>
+        <v>17.0235</v>
       </c>
       <c r="E5" t="n">
-        <v>21.8105</v>
+        <v>20.3609</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.4003</v>
+        <v>12.4563</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2631</v>
+        <v>14.5579</v>
       </c>
       <c r="D6" t="n">
-        <v>21.1292</v>
+        <v>20.4893</v>
       </c>
       <c r="E6" t="n">
-        <v>26.6063</v>
+        <v>24.6757</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.6347</v>
+        <v>13.4914</v>
       </c>
       <c r="C7" t="n">
-        <v>16.6232</v>
+        <v>14.5698</v>
       </c>
       <c r="D7" t="n">
-        <v>24.8431</v>
+        <v>20.8563</v>
       </c>
       <c r="E7" t="n">
-        <v>31.3179</v>
+        <v>25.6179</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.0404</v>
+        <v>13.0863</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1621</v>
+        <v>14.4974</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6965</v>
+        <v>21.0626</v>
       </c>
       <c r="E8" t="n">
-        <v>36.0365</v>
+        <v>24.9582</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.2774</v>
+        <v>13.5568</v>
       </c>
       <c r="C9" t="n">
-        <v>22.066</v>
+        <v>14.4747</v>
       </c>
       <c r="D9" t="n">
-        <v>33.5207</v>
+        <v>21.6104</v>
       </c>
       <c r="E9" t="n">
-        <v>41.6196</v>
+        <v>25.8111</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1674</v>
+        <v>13.8667</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7875</v>
+        <v>14.6378</v>
       </c>
       <c r="D10" t="n">
-        <v>31.0379</v>
+        <v>21.9167</v>
       </c>
       <c r="E10" t="n">
-        <v>37.679</v>
+        <v>25.4754</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1218</v>
+        <v>14.334</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4896</v>
+        <v>14.8541</v>
       </c>
       <c r="D11" t="n">
-        <v>30.5092</v>
+        <v>22.7864</v>
       </c>
       <c r="E11" t="n">
-        <v>37.1518</v>
+        <v>25.6992</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.1887</v>
+        <v>14.3622</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7573</v>
+        <v>15.2532</v>
       </c>
       <c r="D12" t="n">
-        <v>31.0754</v>
+        <v>23.3958</v>
       </c>
       <c r="E12" t="n">
-        <v>38.1004</v>
+        <v>27.002</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4396</v>
+        <v>14.623</v>
       </c>
       <c r="C13" t="n">
-        <v>20.8903</v>
+        <v>15.2379</v>
       </c>
       <c r="D13" t="n">
-        <v>31.5307</v>
+        <v>23.2736</v>
       </c>
       <c r="E13" t="n">
-        <v>37.8997</v>
+        <v>27.2258</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.6816</v>
+        <v>14.4778</v>
       </c>
       <c r="C14" t="n">
-        <v>21.0009</v>
+        <v>15.2186</v>
       </c>
       <c r="D14" t="n">
-        <v>30.3782</v>
+        <v>24.0746</v>
       </c>
       <c r="E14" t="n">
-        <v>37.249</v>
+        <v>27.4844</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5091</v>
+        <v>14.3876</v>
       </c>
       <c r="C15" t="n">
-        <v>21.26</v>
+        <v>15.381</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3581</v>
+        <v>23.7674</v>
       </c>
       <c r="E15" t="n">
-        <v>38.3096</v>
+        <v>27.2075</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.26</v>
+        <v>14.5508</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4574</v>
+        <v>15.4908</v>
       </c>
       <c r="D16" t="n">
-        <v>31.2423</v>
+        <v>23.5904</v>
       </c>
       <c r="E16" t="n">
-        <v>38.057</v>
+        <v>27.3989</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.263</v>
+        <v>14.7487</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6973</v>
+        <v>15.7862</v>
       </c>
       <c r="D17" t="n">
-        <v>31.3709</v>
+        <v>23.9517</v>
       </c>
       <c r="E17" t="n">
-        <v>37.8622</v>
+        <v>27.3732</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.22414</v>
+        <v>5.20531</v>
       </c>
       <c r="C2" t="n">
-        <v>5.4327</v>
+        <v>5.44608</v>
       </c>
       <c r="D2" t="n">
-        <v>5.91577</v>
+        <v>5.9024</v>
       </c>
       <c r="E2" t="n">
-        <v>6.92867</v>
+        <v>6.93646</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.72304</v>
+        <v>6.24617</v>
       </c>
       <c r="C3" t="n">
-        <v>7.03105</v>
+        <v>6.60362</v>
       </c>
       <c r="D3" t="n">
-        <v>9.512309999999999</v>
+        <v>8.802490000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.826</v>
+        <v>10.2832</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.718489999999999</v>
+        <v>7.23675</v>
       </c>
       <c r="C4" t="n">
-        <v>9.208780000000001</v>
+        <v>8.52847</v>
       </c>
       <c r="D4" t="n">
-        <v>12.2016</v>
+        <v>11.778</v>
       </c>
       <c r="E4" t="n">
-        <v>14.765</v>
+        <v>14.0139</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.66011</v>
+        <v>8.70661</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9959</v>
+        <v>10.1953</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0628</v>
+        <v>14.8668</v>
       </c>
       <c r="E5" t="n">
-        <v>18.4995</v>
+        <v>18.1187</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9734</v>
+        <v>10.8439</v>
       </c>
       <c r="C6" t="n">
-        <v>12.7798</v>
+        <v>13.0099</v>
       </c>
       <c r="D6" t="n">
-        <v>17.5031</v>
+        <v>18.083</v>
       </c>
       <c r="E6" t="n">
-        <v>21.398</v>
+        <v>22.1878</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2722</v>
+        <v>12.5795</v>
       </c>
       <c r="C7" t="n">
-        <v>12.1818</v>
+        <v>15.3652</v>
       </c>
       <c r="D7" t="n">
-        <v>16.7751</v>
+        <v>21.3257</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0519</v>
+        <v>26.158</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>11.11</v>
+        <v>14.0005</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7065</v>
+        <v>17.4756</v>
       </c>
       <c r="D8" t="n">
-        <v>17.6988</v>
+        <v>25.2085</v>
       </c>
       <c r="E8" t="n">
-        <v>20.5768</v>
+        <v>29.6162</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>11.1284</v>
+        <v>16.4986</v>
       </c>
       <c r="C9" t="n">
-        <v>12.3467</v>
+        <v>20.5425</v>
       </c>
       <c r="D9" t="n">
-        <v>18.0791</v>
+        <v>28.0626</v>
       </c>
       <c r="E9" t="n">
-        <v>21.3192</v>
+        <v>34.1008</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.5461</v>
+        <v>13.8882</v>
       </c>
       <c r="C10" t="n">
-        <v>12.4814</v>
+        <v>17.1183</v>
       </c>
       <c r="D10" t="n">
-        <v>17.9854</v>
+        <v>23.0199</v>
       </c>
       <c r="E10" t="n">
-        <v>21.5913</v>
+        <v>27.5596</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.98</v>
+        <v>14.3948</v>
       </c>
       <c r="C11" t="n">
-        <v>12.9613</v>
+        <v>17.3711</v>
       </c>
       <c r="D11" t="n">
-        <v>18.2915</v>
+        <v>23.8128</v>
       </c>
       <c r="E11" t="n">
-        <v>21.6177</v>
+        <v>27.8231</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.8299</v>
+        <v>14.5902</v>
       </c>
       <c r="C12" t="n">
-        <v>13.1849</v>
+        <v>18.0582</v>
       </c>
       <c r="D12" t="n">
-        <v>18.4742</v>
+        <v>24.2488</v>
       </c>
       <c r="E12" t="n">
-        <v>21.8251</v>
+        <v>29.1309</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.8314</v>
+        <v>15.0301</v>
       </c>
       <c r="C13" t="n">
-        <v>13.5878</v>
+        <v>18.9121</v>
       </c>
       <c r="D13" t="n">
-        <v>19.3713</v>
+        <v>24.9949</v>
       </c>
       <c r="E13" t="n">
-        <v>22.2808</v>
+        <v>28.8323</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.0202</v>
+        <v>15.1858</v>
       </c>
       <c r="C14" t="n">
-        <v>13.5752</v>
+        <v>18.9806</v>
       </c>
       <c r="D14" t="n">
-        <v>19.0766</v>
+        <v>24.844</v>
       </c>
       <c r="E14" t="n">
-        <v>21.9891</v>
+        <v>29.0649</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3188</v>
+        <v>15.1426</v>
       </c>
       <c r="C15" t="n">
-        <v>14.0313</v>
+        <v>19.1202</v>
       </c>
       <c r="D15" t="n">
-        <v>18.8791</v>
+        <v>24.6939</v>
       </c>
       <c r="E15" t="n">
-        <v>22.1875</v>
+        <v>29.2184</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.9855</v>
+        <v>15.4196</v>
       </c>
       <c r="C16" t="n">
-        <v>13.6877</v>
+        <v>19.4377</v>
       </c>
       <c r="D16" t="n">
-        <v>19.2367</v>
+        <v>24.7617</v>
       </c>
       <c r="E16" t="n">
-        <v>21.2813</v>
+        <v>28.1867</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.6883</v>
+        <v>15.3761</v>
       </c>
       <c r="C17" t="n">
-        <v>14.4952</v>
+        <v>19.8741</v>
       </c>
       <c r="D17" t="n">
-        <v>18.2973</v>
+        <v>24.6701</v>
       </c>
       <c r="E17" t="n">
-        <v>21.0685</v>
+        <v>28.4809</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.783519999999999</v>
+        <v>8.704029999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.95237</v>
+        <v>9.94365</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4491</v>
+        <v>10.4489</v>
       </c>
       <c r="E2" t="n">
-        <v>13.4953</v>
+        <v>13.3626</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.4635</v>
+        <v>8.34775</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0074</v>
+        <v>9.23414</v>
       </c>
       <c r="D3" t="n">
-        <v>13.7103</v>
+        <v>12.8533</v>
       </c>
       <c r="E3" t="n">
-        <v>18.364</v>
+        <v>15.5723</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.829</v>
+        <v>9.387119999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>13.637</v>
+        <v>11.3164</v>
       </c>
       <c r="D4" t="n">
-        <v>17.8344</v>
+        <v>16.4807</v>
       </c>
       <c r="E4" t="n">
-        <v>23.0734</v>
+        <v>20.6096</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.4345</v>
+        <v>10.8458</v>
       </c>
       <c r="C5" t="n">
-        <v>14.5228</v>
+        <v>12.7208</v>
       </c>
       <c r="D5" t="n">
-        <v>21.0559</v>
+        <v>20.2416</v>
       </c>
       <c r="E5" t="n">
-        <v>28.0166</v>
+        <v>25.7415</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.3015</v>
+        <v>13.3721</v>
       </c>
       <c r="C6" t="n">
-        <v>16.6903</v>
+        <v>15.7948</v>
       </c>
       <c r="D6" t="n">
-        <v>24.0089</v>
+        <v>24.5213</v>
       </c>
       <c r="E6" t="n">
-        <v>31.0882</v>
+        <v>31.0475</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.958</v>
+        <v>15.9621</v>
       </c>
       <c r="C7" t="n">
-        <v>16.7005</v>
+        <v>20.1919</v>
       </c>
       <c r="D7" t="n">
-        <v>22.8046</v>
+        <v>28.5274</v>
       </c>
       <c r="E7" t="n">
-        <v>28.318</v>
+        <v>36.3724</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.1868</v>
+        <v>17.6984</v>
       </c>
       <c r="C8" t="n">
-        <v>16.301</v>
+        <v>22.7938</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0752</v>
+        <v>31.9726</v>
       </c>
       <c r="E8" t="n">
-        <v>30.1737</v>
+        <v>40.5298</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.0097</v>
+        <v>20.8245</v>
       </c>
       <c r="C9" t="n">
-        <v>15.9704</v>
+        <v>26.2944</v>
       </c>
       <c r="D9" t="n">
-        <v>24.5882</v>
+        <v>37.9647</v>
       </c>
       <c r="E9" t="n">
-        <v>29.5001</v>
+        <v>47.9528</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.1413</v>
+        <v>18.1984</v>
       </c>
       <c r="C10" t="n">
-        <v>16.4461</v>
+        <v>23.111</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1205</v>
+        <v>32.6311</v>
       </c>
       <c r="E10" t="n">
-        <v>30.2912</v>
+        <v>40.4542</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.3638</v>
+        <v>17.8981</v>
       </c>
       <c r="C11" t="n">
-        <v>16.5259</v>
+        <v>22.5179</v>
       </c>
       <c r="D11" t="n">
-        <v>24.6531</v>
+        <v>32.4221</v>
       </c>
       <c r="E11" t="n">
-        <v>31.576</v>
+        <v>38.9888</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.1504</v>
+        <v>18.2357</v>
       </c>
       <c r="C12" t="n">
-        <v>17.7795</v>
+        <v>23.2829</v>
       </c>
       <c r="D12" t="n">
-        <v>24.1365</v>
+        <v>32.5025</v>
       </c>
       <c r="E12" t="n">
-        <v>30.4271</v>
+        <v>41.3727</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.7012</v>
+        <v>18.962</v>
       </c>
       <c r="C13" t="n">
-        <v>16.9355</v>
+        <v>24.0374</v>
       </c>
       <c r="D13" t="n">
-        <v>25.3421</v>
+        <v>32.8129</v>
       </c>
       <c r="E13" t="n">
-        <v>31.2668</v>
+        <v>39.5253</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1687</v>
+        <v>18.6576</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3928</v>
+        <v>23.8121</v>
       </c>
       <c r="D14" t="n">
-        <v>25.9013</v>
+        <v>33.1201</v>
       </c>
       <c r="E14" t="n">
-        <v>30.7961</v>
+        <v>39.3773</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2223</v>
+        <v>18.8166</v>
       </c>
       <c r="C15" t="n">
-        <v>17.8369</v>
+        <v>24.456</v>
       </c>
       <c r="D15" t="n">
-        <v>24.1158</v>
+        <v>32.8716</v>
       </c>
       <c r="E15" t="n">
-        <v>29.791</v>
+        <v>38.8934</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4208</v>
+        <v>19.5197</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7016</v>
+        <v>24.6396</v>
       </c>
       <c r="D16" t="n">
-        <v>22.7169</v>
+        <v>33.1264</v>
       </c>
       <c r="E16" t="n">
-        <v>28.8018</v>
+        <v>38.5012</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.5738</v>
+        <v>19.2024</v>
       </c>
       <c r="C17" t="n">
-        <v>17.9757</v>
+        <v>24.5718</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9242</v>
+        <v>33.0596</v>
       </c>
       <c r="E17" t="n">
-        <v>28.45</v>
+        <v>39.0621</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.44957</v>
+        <v>6.41743</v>
       </c>
       <c r="C2" t="n">
-        <v>6.51906</v>
+        <v>6.5203</v>
       </c>
       <c r="D2" t="n">
-        <v>6.79198</v>
+        <v>6.79492</v>
       </c>
       <c r="E2" t="n">
-        <v>7.90071</v>
+        <v>7.90086</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.830159999999999</v>
+        <v>6.85391</v>
       </c>
       <c r="C3" t="n">
-        <v>7.99504</v>
+        <v>7.45455</v>
       </c>
       <c r="D3" t="n">
-        <v>10.5486</v>
+        <v>9.738619999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>12.8555</v>
+        <v>11.2038</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0394</v>
+        <v>8.903280000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.8153</v>
+        <v>9.71233</v>
       </c>
       <c r="D4" t="n">
-        <v>13.9348</v>
+        <v>13.2719</v>
       </c>
       <c r="E4" t="n">
-        <v>16.1912</v>
+        <v>15.7728</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.9399</v>
+        <v>9.66362</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0576</v>
+        <v>10.8252</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4098</v>
+        <v>16.7132</v>
       </c>
       <c r="E5" t="n">
-        <v>20.1349</v>
+        <v>19.273</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3513</v>
+        <v>11.5501</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2226</v>
+        <v>13.0178</v>
       </c>
       <c r="D6" t="n">
-        <v>19.8298</v>
+        <v>20.4846</v>
       </c>
       <c r="E6" t="n">
-        <v>22.4937</v>
+        <v>23.8106</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7421</v>
+        <v>13.3992</v>
       </c>
       <c r="C7" t="n">
-        <v>13.478</v>
+        <v>15.2765</v>
       </c>
       <c r="D7" t="n">
-        <v>19.6955</v>
+        <v>24.0515</v>
       </c>
       <c r="E7" t="n">
-        <v>22.1411</v>
+        <v>27.7154</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6298</v>
+        <v>15.9795</v>
       </c>
       <c r="C8" t="n">
-        <v>13.5026</v>
+        <v>18.3757</v>
       </c>
       <c r="D8" t="n">
-        <v>19.7072</v>
+        <v>27.7259</v>
       </c>
       <c r="E8" t="n">
-        <v>23.1751</v>
+        <v>32.2993</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.0468</v>
+        <v>18.2434</v>
       </c>
       <c r="C9" t="n">
-        <v>13.8855</v>
+        <v>22.0545</v>
       </c>
       <c r="D9" t="n">
-        <v>20.2456</v>
+        <v>32.5397</v>
       </c>
       <c r="E9" t="n">
-        <v>22.8281</v>
+        <v>37.8086</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.9199</v>
+        <v>16.3608</v>
       </c>
       <c r="C10" t="n">
-        <v>14.5636</v>
+        <v>18.9152</v>
       </c>
       <c r="D10" t="n">
-        <v>20.6787</v>
+        <v>27.0595</v>
       </c>
       <c r="E10" t="n">
-        <v>24.0608</v>
+        <v>31.4118</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8508</v>
+        <v>15.8936</v>
       </c>
       <c r="C11" t="n">
-        <v>14.2475</v>
+        <v>18.9284</v>
       </c>
       <c r="D11" t="n">
-        <v>21.3857</v>
+        <v>27.6174</v>
       </c>
       <c r="E11" t="n">
-        <v>24.3836</v>
+        <v>31.4538</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.1368</v>
+        <v>16.4396</v>
       </c>
       <c r="C12" t="n">
-        <v>14.7739</v>
+        <v>19.8262</v>
       </c>
       <c r="D12" t="n">
-        <v>21.6959</v>
+        <v>27.5563</v>
       </c>
       <c r="E12" t="n">
-        <v>24.2829</v>
+        <v>31.651</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5067</v>
+        <v>17.1654</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7766</v>
+        <v>20.2418</v>
       </c>
       <c r="D13" t="n">
-        <v>20.9329</v>
+        <v>29.5827</v>
       </c>
       <c r="E13" t="n">
-        <v>24.0753</v>
+        <v>33.144</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.1319</v>
+        <v>16.9271</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0689</v>
+        <v>20.1897</v>
       </c>
       <c r="D14" t="n">
-        <v>20.7617</v>
+        <v>27.7532</v>
       </c>
       <c r="E14" t="n">
-        <v>22.3059</v>
+        <v>29.9534</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.5407</v>
+        <v>16.8823</v>
       </c>
       <c r="C15" t="n">
-        <v>15.7455</v>
+        <v>20.4549</v>
       </c>
       <c r="D15" t="n">
-        <v>21.3846</v>
+        <v>28.5244</v>
       </c>
       <c r="E15" t="n">
-        <v>22.9125</v>
+        <v>29.5468</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.3413</v>
+        <v>16.9965</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8567</v>
+        <v>20.9903</v>
       </c>
       <c r="D16" t="n">
-        <v>21.8721</v>
+        <v>28.4306</v>
       </c>
       <c r="E16" t="n">
-        <v>22.5008</v>
+        <v>30.1459</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.646</v>
+        <v>17.548</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7818</v>
+        <v>21.5128</v>
       </c>
       <c r="D17" t="n">
-        <v>21.1906</v>
+        <v>28.9816</v>
       </c>
       <c r="E17" t="n">
-        <v>22.6918</v>
+        <v>31.0144</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.04369</v>
+        <v>3.01263</v>
       </c>
       <c r="C2" t="n">
-        <v>4.83788</v>
+        <v>4.85897</v>
       </c>
       <c r="D2" t="n">
-        <v>5.11664</v>
+        <v>5.13297</v>
       </c>
       <c r="E2" t="n">
-        <v>6.15113</v>
+        <v>6.18367</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.19346</v>
+        <v>4.82289</v>
       </c>
       <c r="C3" t="n">
-        <v>6.99413</v>
+        <v>6.41023</v>
       </c>
       <c r="D3" t="n">
-        <v>8.434710000000001</v>
+        <v>8.38575</v>
       </c>
       <c r="E3" t="n">
-        <v>10.7611</v>
+        <v>10.0912</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.70328</v>
+        <v>6.44011</v>
       </c>
       <c r="C4" t="n">
-        <v>8.712070000000001</v>
+        <v>8.550039999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7648</v>
+        <v>11.7065</v>
       </c>
       <c r="E4" t="n">
-        <v>14.4957</v>
+        <v>14.3283</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.34224</v>
+        <v>8.06058</v>
       </c>
       <c r="C5" t="n">
-        <v>10.7682</v>
+        <v>10.1439</v>
       </c>
       <c r="D5" t="n">
-        <v>15.061</v>
+        <v>14.7853</v>
       </c>
       <c r="E5" t="n">
-        <v>18.5037</v>
+        <v>18.3225</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.805820000000001</v>
+        <v>9.64429</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0609</v>
+        <v>12.7246</v>
       </c>
       <c r="D6" t="n">
-        <v>17.8264</v>
+        <v>17.7833</v>
       </c>
       <c r="E6" t="n">
-        <v>22.4581</v>
+        <v>22.3125</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.4077</v>
+        <v>11.1591</v>
       </c>
       <c r="C7" t="n">
-        <v>12.9978</v>
+        <v>14.9275</v>
       </c>
       <c r="D7" t="n">
-        <v>18.9414</v>
+        <v>20.7037</v>
       </c>
       <c r="E7" t="n">
-        <v>22.7606</v>
+        <v>26.2187</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>10.4275</v>
+        <v>12.4873</v>
       </c>
       <c r="C8" t="n">
-        <v>12.7667</v>
+        <v>17.0928</v>
       </c>
       <c r="D8" t="n">
-        <v>18.0781</v>
+        <v>23.6254</v>
       </c>
       <c r="E8" t="n">
-        <v>22.763</v>
+        <v>30.0039</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10.7219</v>
+        <v>14.6619</v>
       </c>
       <c r="C9" t="n">
-        <v>12.879</v>
+        <v>18.4009</v>
       </c>
       <c r="D9" t="n">
-        <v>18.884</v>
+        <v>28.1415</v>
       </c>
       <c r="E9" t="n">
-        <v>23.9258</v>
+        <v>34.6336</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11.0182</v>
+        <v>14.1146</v>
       </c>
       <c r="C10" t="n">
-        <v>13.1679</v>
+        <v>18.4456</v>
       </c>
       <c r="D10" t="n">
-        <v>18.7954</v>
+        <v>26.4209</v>
       </c>
       <c r="E10" t="n">
-        <v>23.0885</v>
+        <v>31.9094</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>11.2457</v>
+        <v>13.8122</v>
       </c>
       <c r="C11" t="n">
-        <v>13.1012</v>
+        <v>18.5274</v>
       </c>
       <c r="D11" t="n">
-        <v>19.9431</v>
+        <v>25.786</v>
       </c>
       <c r="E11" t="n">
-        <v>23.8253</v>
+        <v>31.4041</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.6412</v>
+        <v>13.9483</v>
       </c>
       <c r="C12" t="n">
-        <v>13.3301</v>
+        <v>18.5036</v>
       </c>
       <c r="D12" t="n">
-        <v>20.3004</v>
+        <v>26.1255</v>
       </c>
       <c r="E12" t="n">
-        <v>24.7272</v>
+        <v>31.4763</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11.4759</v>
+        <v>14.1892</v>
       </c>
       <c r="C13" t="n">
-        <v>13.3899</v>
+        <v>18.723</v>
       </c>
       <c r="D13" t="n">
-        <v>20.0816</v>
+        <v>26.2483</v>
       </c>
       <c r="E13" t="n">
-        <v>25.0938</v>
+        <v>32.1442</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>11.543</v>
+        <v>13.8263</v>
       </c>
       <c r="C14" t="n">
-        <v>13.6292</v>
+        <v>19.0685</v>
       </c>
       <c r="D14" t="n">
-        <v>20.5329</v>
+        <v>25.4019</v>
       </c>
       <c r="E14" t="n">
-        <v>24.8878</v>
+        <v>30.9333</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>11.7202</v>
+        <v>14.1809</v>
       </c>
       <c r="C15" t="n">
-        <v>13.866</v>
+        <v>18.9592</v>
       </c>
       <c r="D15" t="n">
-        <v>20.2445</v>
+        <v>26.1668</v>
       </c>
       <c r="E15" t="n">
-        <v>24.5468</v>
+        <v>31.4599</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>11.4615</v>
+        <v>14.2575</v>
       </c>
       <c r="C16" t="n">
-        <v>13.9289</v>
+        <v>18.9918</v>
       </c>
       <c r="D16" t="n">
-        <v>20.6413</v>
+        <v>25.9345</v>
       </c>
       <c r="E16" t="n">
-        <v>24.2962</v>
+        <v>31.261</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>11.6337</v>
+        <v>13.9446</v>
       </c>
       <c r="C17" t="n">
-        <v>14.2806</v>
+        <v>19.265</v>
       </c>
       <c r="D17" t="n">
-        <v>20.6815</v>
+        <v>25.3379</v>
       </c>
       <c r="E17" t="n">
-        <v>24.6233</v>
+        <v>30.6406</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01804</v>
+        <v>3.95147</v>
       </c>
       <c r="C2" t="n">
-        <v>8.208159999999999</v>
+        <v>8.13442</v>
       </c>
       <c r="D2" t="n">
-        <v>8.28378</v>
+        <v>8.28975</v>
       </c>
       <c r="E2" t="n">
-        <v>10.9613</v>
+        <v>10.8983</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.84652</v>
+        <v>5.73016</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3342</v>
+        <v>8.819319999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.7515</v>
+        <v>12.1669</v>
       </c>
       <c r="E3" t="n">
-        <v>16.4892</v>
+        <v>15.5551</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.22691</v>
+        <v>7.98374</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4798</v>
+        <v>10.6937</v>
       </c>
       <c r="D4" t="n">
-        <v>16.7498</v>
+        <v>16.3269</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9309</v>
+        <v>21.1056</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.2107</v>
+        <v>9.83507</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0714</v>
+        <v>13.1561</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4936</v>
+        <v>20.301</v>
       </c>
       <c r="E5" t="n">
-        <v>27.2769</v>
+        <v>26.4776</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.0512</v>
+        <v>11.7917</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2975</v>
+        <v>16.0778</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3629</v>
+        <v>24.1958</v>
       </c>
       <c r="E6" t="n">
-        <v>32.6179</v>
+        <v>31.8417</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6562</v>
+        <v>13.5979</v>
       </c>
       <c r="C7" t="n">
-        <v>16.4869</v>
+        <v>18.3684</v>
       </c>
       <c r="D7" t="n">
-        <v>25.431</v>
+        <v>28.0013</v>
       </c>
       <c r="E7" t="n">
-        <v>32.6963</v>
+        <v>37.1817</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5316</v>
+        <v>15.3537</v>
       </c>
       <c r="C8" t="n">
-        <v>16.4522</v>
+        <v>21.229</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0844</v>
+        <v>31.9375</v>
       </c>
       <c r="E8" t="n">
-        <v>32.5118</v>
+        <v>42.2342</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>12.7791</v>
+        <v>17.5696</v>
       </c>
       <c r="C9" t="n">
-        <v>16.6553</v>
+        <v>23.5138</v>
       </c>
       <c r="D9" t="n">
-        <v>25.5168</v>
+        <v>38.201</v>
       </c>
       <c r="E9" t="n">
-        <v>31.9419</v>
+        <v>48.9846</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.2381</v>
+        <v>16.8663</v>
       </c>
       <c r="C10" t="n">
-        <v>16.81</v>
+        <v>22.8552</v>
       </c>
       <c r="D10" t="n">
-        <v>25.8704</v>
+        <v>35.366</v>
       </c>
       <c r="E10" t="n">
-        <v>33.1288</v>
+        <v>43.911</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.6251</v>
+        <v>16.6583</v>
       </c>
       <c r="C11" t="n">
-        <v>16.9134</v>
+        <v>23.1948</v>
       </c>
       <c r="D11" t="n">
-        <v>26.1516</v>
+        <v>34.6103</v>
       </c>
       <c r="E11" t="n">
-        <v>33.9699</v>
+        <v>44.0711</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.945</v>
+        <v>16.9514</v>
       </c>
       <c r="C12" t="n">
-        <v>16.9218</v>
+        <v>23.2691</v>
       </c>
       <c r="D12" t="n">
-        <v>27.3661</v>
+        <v>34.8926</v>
       </c>
       <c r="E12" t="n">
-        <v>34.5986</v>
+        <v>43.753</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7896</v>
+        <v>17.1822</v>
       </c>
       <c r="C13" t="n">
-        <v>17.1213</v>
+        <v>23.2397</v>
       </c>
       <c r="D13" t="n">
-        <v>27.199</v>
+        <v>35.3566</v>
       </c>
       <c r="E13" t="n">
-        <v>34.2289</v>
+        <v>44.0871</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.6308</v>
+        <v>16.7938</v>
       </c>
       <c r="C14" t="n">
-        <v>16.8929</v>
+        <v>23.6002</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5559</v>
+        <v>34.1658</v>
       </c>
       <c r="E14" t="n">
-        <v>34.2635</v>
+        <v>42.4775</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.7627</v>
+        <v>17.2744</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2695</v>
+        <v>23.5028</v>
       </c>
       <c r="D15" t="n">
-        <v>27.5719</v>
+        <v>34.5515</v>
       </c>
       <c r="E15" t="n">
-        <v>35.7344</v>
+        <v>42.2508</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.1513</v>
+        <v>16.9567</v>
       </c>
       <c r="C16" t="n">
-        <v>17.8127</v>
+        <v>23.3072</v>
       </c>
       <c r="D16" t="n">
-        <v>27.151</v>
+        <v>34.186</v>
       </c>
       <c r="E16" t="n">
-        <v>33.9651</v>
+        <v>42.8624</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.464</v>
+        <v>16.9063</v>
       </c>
       <c r="C17" t="n">
-        <v>17.7904</v>
+        <v>23.7332</v>
       </c>
       <c r="D17" t="n">
-        <v>27.2264</v>
+        <v>33.7706</v>
       </c>
       <c r="E17" t="n">
-        <v>32.8447</v>
+        <v>41.8008</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.27875</v>
+        <v>5.27314</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28886</v>
+        <v>6.28693</v>
       </c>
       <c r="D2" t="n">
-        <v>6.42441</v>
+        <v>6.4258</v>
       </c>
       <c r="E2" t="n">
-        <v>7.62982</v>
+        <v>7.62198</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.26357</v>
+        <v>6.53547</v>
       </c>
       <c r="C3" t="n">
-        <v>8.4389</v>
+        <v>7.33723</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0048</v>
+        <v>9.56935</v>
       </c>
       <c r="E3" t="n">
-        <v>11.3442</v>
+        <v>11.2188</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.9903</v>
+        <v>8.007949999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>10.1253</v>
+        <v>8.99582</v>
       </c>
       <c r="D4" t="n">
-        <v>13.6753</v>
+        <v>13.0764</v>
       </c>
       <c r="E4" t="n">
-        <v>16.2254</v>
+        <v>15.3221</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.7554</v>
+        <v>9.865259999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>12.2059</v>
+        <v>10.8137</v>
       </c>
       <c r="D5" t="n">
-        <v>17.0235</v>
+        <v>16.6783</v>
       </c>
       <c r="E5" t="n">
-        <v>20.3609</v>
+        <v>19.7726</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4563</v>
+        <v>11.7677</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5579</v>
+        <v>13.3875</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4893</v>
+        <v>20.4164</v>
       </c>
       <c r="E6" t="n">
-        <v>24.6757</v>
+        <v>24.2446</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.4914</v>
+        <v>13.7554</v>
       </c>
       <c r="C7" t="n">
-        <v>14.5698</v>
+        <v>15.7427</v>
       </c>
       <c r="D7" t="n">
-        <v>20.8563</v>
+        <v>24.0633</v>
       </c>
       <c r="E7" t="n">
-        <v>25.6179</v>
+        <v>28.6565</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0863</v>
+        <v>15.7791</v>
       </c>
       <c r="C8" t="n">
-        <v>14.4974</v>
+        <v>17.7441</v>
       </c>
       <c r="D8" t="n">
-        <v>21.0626</v>
+        <v>27.6241</v>
       </c>
       <c r="E8" t="n">
-        <v>24.9582</v>
+        <v>32.9594</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.5568</v>
+        <v>18.1798</v>
       </c>
       <c r="C9" t="n">
-        <v>14.4747</v>
+        <v>19.8271</v>
       </c>
       <c r="D9" t="n">
-        <v>21.6104</v>
+        <v>32.0942</v>
       </c>
       <c r="E9" t="n">
-        <v>25.8111</v>
+        <v>37.7682</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8667</v>
+        <v>17.5138</v>
       </c>
       <c r="C10" t="n">
-        <v>14.6378</v>
+        <v>20.0601</v>
       </c>
       <c r="D10" t="n">
-        <v>21.9167</v>
+        <v>29.7953</v>
       </c>
       <c r="E10" t="n">
-        <v>25.4754</v>
+        <v>35.3732</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.334</v>
+        <v>17.2342</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8541</v>
+        <v>19.3809</v>
       </c>
       <c r="D11" t="n">
-        <v>22.7864</v>
+        <v>29.5563</v>
       </c>
       <c r="E11" t="n">
-        <v>25.6992</v>
+        <v>34.5364</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3622</v>
+        <v>17.2521</v>
       </c>
       <c r="C12" t="n">
-        <v>15.2532</v>
+        <v>19.6898</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3958</v>
+        <v>29.5607</v>
       </c>
       <c r="E12" t="n">
-        <v>27.002</v>
+        <v>34.6691</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.623</v>
+        <v>17.0428</v>
       </c>
       <c r="C13" t="n">
-        <v>15.2379</v>
+        <v>19.4855</v>
       </c>
       <c r="D13" t="n">
-        <v>23.2736</v>
+        <v>30.6364</v>
       </c>
       <c r="E13" t="n">
-        <v>27.2258</v>
+        <v>35.9637</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.4778</v>
+        <v>16.8117</v>
       </c>
       <c r="C14" t="n">
-        <v>15.2186</v>
+        <v>19.6913</v>
       </c>
       <c r="D14" t="n">
-        <v>24.0746</v>
+        <v>29.5934</v>
       </c>
       <c r="E14" t="n">
-        <v>27.4844</v>
+        <v>34.6006</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3876</v>
+        <v>16.8746</v>
       </c>
       <c r="C15" t="n">
-        <v>15.381</v>
+        <v>19.6449</v>
       </c>
       <c r="D15" t="n">
-        <v>23.7674</v>
+        <v>30.2348</v>
       </c>
       <c r="E15" t="n">
-        <v>27.2075</v>
+        <v>35.0713</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.5508</v>
+        <v>16.9958</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4908</v>
+        <v>19.7434</v>
       </c>
       <c r="D16" t="n">
-        <v>23.5904</v>
+        <v>30.1976</v>
       </c>
       <c r="E16" t="n">
-        <v>27.3989</v>
+        <v>34.5226</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.7487</v>
+        <v>16.8711</v>
       </c>
       <c r="C17" t="n">
-        <v>15.7862</v>
+        <v>19.6924</v>
       </c>
       <c r="D17" t="n">
-        <v>23.9517</v>
+        <v>29.8308</v>
       </c>
       <c r="E17" t="n">
-        <v>27.3732</v>
+        <v>34.6319</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.20531</v>
+        <v>4.88805</v>
       </c>
       <c r="C2" t="n">
-        <v>5.44608</v>
+        <v>5.48152</v>
       </c>
       <c r="D2" t="n">
-        <v>5.9024</v>
+        <v>4.37206</v>
       </c>
       <c r="E2" t="n">
-        <v>6.93646</v>
+        <v>6.95949</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24617</v>
+        <v>6.03011</v>
       </c>
       <c r="C3" t="n">
-        <v>6.60362</v>
+        <v>6.64165</v>
       </c>
       <c r="D3" t="n">
-        <v>8.802490000000001</v>
+        <v>6.96745</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2832</v>
+        <v>10.5115</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.23675</v>
+        <v>7.59687</v>
       </c>
       <c r="C4" t="n">
-        <v>8.52847</v>
+        <v>8.66339</v>
       </c>
       <c r="D4" t="n">
-        <v>11.778</v>
+        <v>9.73316</v>
       </c>
       <c r="E4" t="n">
-        <v>14.0139</v>
+        <v>14.6541</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.70661</v>
+        <v>9.06897</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1953</v>
+        <v>10.7473</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8668</v>
+        <v>12.3812</v>
       </c>
       <c r="E5" t="n">
-        <v>18.1187</v>
+        <v>18.6406</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8439</v>
+        <v>10.6564</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0099</v>
+        <v>12.9608</v>
       </c>
       <c r="D6" t="n">
-        <v>18.083</v>
+        <v>14.878</v>
       </c>
       <c r="E6" t="n">
-        <v>22.1878</v>
+        <v>22.5884</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5795</v>
+        <v>12.4074</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3652</v>
+        <v>15.3383</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3257</v>
+        <v>17.5433</v>
       </c>
       <c r="E7" t="n">
-        <v>26.158</v>
+        <v>26.4913</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0005</v>
+        <v>13.7804</v>
       </c>
       <c r="C8" t="n">
-        <v>17.4756</v>
+        <v>17.9488</v>
       </c>
       <c r="D8" t="n">
-        <v>25.2085</v>
+        <v>19.9227</v>
       </c>
       <c r="E8" t="n">
-        <v>29.6162</v>
+        <v>30.4177</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4986</v>
+        <v>16.1616</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5425</v>
+        <v>20.5003</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0626</v>
+        <v>23.2232</v>
       </c>
       <c r="E9" t="n">
-        <v>34.1008</v>
+        <v>33.921</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8882</v>
+        <v>14.076</v>
       </c>
       <c r="C10" t="n">
-        <v>17.1183</v>
+        <v>17.553</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0199</v>
+        <v>18.7169</v>
       </c>
       <c r="E10" t="n">
-        <v>27.5596</v>
+        <v>27.7298</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3948</v>
+        <v>13.7377</v>
       </c>
       <c r="C11" t="n">
-        <v>17.3711</v>
+        <v>17.3593</v>
       </c>
       <c r="D11" t="n">
-        <v>23.8128</v>
+        <v>19.4709</v>
       </c>
       <c r="E11" t="n">
-        <v>27.8231</v>
+        <v>27.581</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5902</v>
+        <v>14.2561</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0582</v>
+        <v>18.3272</v>
       </c>
       <c r="D12" t="n">
-        <v>24.2488</v>
+        <v>20.6129</v>
       </c>
       <c r="E12" t="n">
-        <v>29.1309</v>
+        <v>29.5159</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0301</v>
+        <v>14.8772</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9121</v>
+        <v>18.9945</v>
       </c>
       <c r="D13" t="n">
-        <v>24.9949</v>
+        <v>20.9066</v>
       </c>
       <c r="E13" t="n">
-        <v>28.8323</v>
+        <v>30.8075</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1858</v>
+        <v>14.6056</v>
       </c>
       <c r="C14" t="n">
-        <v>18.9806</v>
+        <v>18.8987</v>
       </c>
       <c r="D14" t="n">
-        <v>24.844</v>
+        <v>20.8202</v>
       </c>
       <c r="E14" t="n">
-        <v>29.0649</v>
+        <v>29.1953</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1426</v>
+        <v>14.8939</v>
       </c>
       <c r="C15" t="n">
-        <v>19.1202</v>
+        <v>19.0642</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6939</v>
+        <v>20.6305</v>
       </c>
       <c r="E15" t="n">
-        <v>29.2184</v>
+        <v>29.2974</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4196</v>
+        <v>15.2991</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4377</v>
+        <v>19.6078</v>
       </c>
       <c r="D16" t="n">
-        <v>24.7617</v>
+        <v>21.033</v>
       </c>
       <c r="E16" t="n">
-        <v>28.1867</v>
+        <v>28.2389</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3761</v>
+        <v>15.1038</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8741</v>
+        <v>19.548</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6701</v>
+        <v>20.4974</v>
       </c>
       <c r="E17" t="n">
-        <v>28.4809</v>
+        <v>27.2554</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.704029999999999</v>
+        <v>7.73748</v>
       </c>
       <c r="C2" t="n">
-        <v>9.94365</v>
+        <v>9.93708</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4489</v>
+        <v>7.28886</v>
       </c>
       <c r="E2" t="n">
-        <v>13.3626</v>
+        <v>13.5445</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.34775</v>
+        <v>7.89993</v>
       </c>
       <c r="C3" t="n">
-        <v>9.23414</v>
+        <v>9.3049</v>
       </c>
       <c r="D3" t="n">
-        <v>12.8533</v>
+        <v>10.3505</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5723</v>
+        <v>16.337</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.387119999999999</v>
+        <v>9.70312</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3164</v>
+        <v>11.5492</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4807</v>
+        <v>14.1647</v>
       </c>
       <c r="E4" t="n">
-        <v>20.6096</v>
+        <v>22.0334</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8458</v>
+        <v>11.4312</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7208</v>
+        <v>14.0143</v>
       </c>
       <c r="D5" t="n">
-        <v>20.2416</v>
+        <v>17.7059</v>
       </c>
       <c r="E5" t="n">
-        <v>25.7415</v>
+        <v>27.2081</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3721</v>
+        <v>13.4235</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7948</v>
+        <v>16.8498</v>
       </c>
       <c r="D6" t="n">
-        <v>24.5213</v>
+        <v>21.3039</v>
       </c>
       <c r="E6" t="n">
-        <v>31.0475</v>
+        <v>32.8546</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9621</v>
+        <v>15.4075</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1919</v>
+        <v>19.8779</v>
       </c>
       <c r="D7" t="n">
-        <v>28.5274</v>
+        <v>24.7647</v>
       </c>
       <c r="E7" t="n">
-        <v>36.3724</v>
+        <v>38.4561</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.6984</v>
+        <v>17.047</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7938</v>
+        <v>22.8488</v>
       </c>
       <c r="D8" t="n">
-        <v>31.9726</v>
+        <v>27.9138</v>
       </c>
       <c r="E8" t="n">
-        <v>40.5298</v>
+        <v>42.7971</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8245</v>
+        <v>20.0836</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2944</v>
+        <v>26.2009</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9647</v>
+        <v>32.1561</v>
       </c>
       <c r="E9" t="n">
-        <v>47.9528</v>
+        <v>47.5407</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1984</v>
+        <v>17.4171</v>
       </c>
       <c r="C10" t="n">
-        <v>23.111</v>
+        <v>23.3313</v>
       </c>
       <c r="D10" t="n">
-        <v>32.6311</v>
+        <v>26.9811</v>
       </c>
       <c r="E10" t="n">
-        <v>40.4542</v>
+        <v>41.2043</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8981</v>
+        <v>17.1506</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5179</v>
+        <v>22.5869</v>
       </c>
       <c r="D11" t="n">
-        <v>32.4221</v>
+        <v>26.6097</v>
       </c>
       <c r="E11" t="n">
-        <v>38.9888</v>
+        <v>40.4199</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.2357</v>
+        <v>17.9415</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2829</v>
+        <v>23.2634</v>
       </c>
       <c r="D12" t="n">
-        <v>32.5025</v>
+        <v>28.8996</v>
       </c>
       <c r="E12" t="n">
-        <v>41.3727</v>
+        <v>40.3763</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.962</v>
+        <v>18.4391</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0374</v>
+        <v>24.0801</v>
       </c>
       <c r="D13" t="n">
-        <v>32.8129</v>
+        <v>30.0454</v>
       </c>
       <c r="E13" t="n">
-        <v>39.5253</v>
+        <v>42.2774</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6576</v>
+        <v>18.2967</v>
       </c>
       <c r="C14" t="n">
-        <v>23.8121</v>
+        <v>24.0391</v>
       </c>
       <c r="D14" t="n">
-        <v>33.1201</v>
+        <v>28.0746</v>
       </c>
       <c r="E14" t="n">
-        <v>39.3773</v>
+        <v>39.2315</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8166</v>
+        <v>18.2379</v>
       </c>
       <c r="C15" t="n">
-        <v>24.456</v>
+        <v>24.3469</v>
       </c>
       <c r="D15" t="n">
-        <v>32.8716</v>
+        <v>28.5407</v>
       </c>
       <c r="E15" t="n">
-        <v>38.8934</v>
+        <v>40.0285</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5197</v>
+        <v>18.679</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6396</v>
+        <v>24.8567</v>
       </c>
       <c r="D16" t="n">
-        <v>33.1264</v>
+        <v>28.3501</v>
       </c>
       <c r="E16" t="n">
-        <v>38.5012</v>
+        <v>41.1599</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2024</v>
+        <v>18.9146</v>
       </c>
       <c r="C17" t="n">
-        <v>24.5718</v>
+        <v>25.0214</v>
       </c>
       <c r="D17" t="n">
-        <v>33.0596</v>
+        <v>28.9239</v>
       </c>
       <c r="E17" t="n">
-        <v>39.0621</v>
+        <v>39.9168</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41743</v>
+        <v>5.98099</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5203</v>
+        <v>6.52228</v>
       </c>
       <c r="D2" t="n">
-        <v>6.79492</v>
+        <v>5.41238</v>
       </c>
       <c r="E2" t="n">
-        <v>7.90086</v>
+        <v>7.89451</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.85391</v>
+        <v>6.97624</v>
       </c>
       <c r="C3" t="n">
-        <v>7.45455</v>
+        <v>7.62032</v>
       </c>
       <c r="D3" t="n">
-        <v>9.738619999999999</v>
+        <v>8.28824</v>
       </c>
       <c r="E3" t="n">
-        <v>11.2038</v>
+        <v>11.3439</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.903280000000001</v>
+        <v>8.608029999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.71233</v>
+        <v>9.704079999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2719</v>
+        <v>11.4758</v>
       </c>
       <c r="E4" t="n">
-        <v>15.7728</v>
+        <v>15.8198</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.66362</v>
+        <v>10.3566</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8252</v>
+        <v>12.1106</v>
       </c>
       <c r="D5" t="n">
-        <v>16.7132</v>
+        <v>14.7311</v>
       </c>
       <c r="E5" t="n">
-        <v>19.273</v>
+        <v>20.1614</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5501</v>
+        <v>12.2</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0178</v>
+        <v>14.4384</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4846</v>
+        <v>17.9142</v>
       </c>
       <c r="E6" t="n">
-        <v>23.8106</v>
+        <v>24.6172</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3992</v>
+        <v>13.9887</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2765</v>
+        <v>16.9284</v>
       </c>
       <c r="D7" t="n">
-        <v>24.0515</v>
+        <v>21.1471</v>
       </c>
       <c r="E7" t="n">
-        <v>27.7154</v>
+        <v>28.8045</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9795</v>
+        <v>15.6547</v>
       </c>
       <c r="C8" t="n">
-        <v>18.3757</v>
+        <v>19.2463</v>
       </c>
       <c r="D8" t="n">
-        <v>27.7259</v>
+        <v>24.1292</v>
       </c>
       <c r="E8" t="n">
-        <v>32.2993</v>
+        <v>32.9501</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2434</v>
+        <v>17.8449</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0545</v>
+        <v>22.1412</v>
       </c>
       <c r="D9" t="n">
-        <v>32.5397</v>
+        <v>28.0584</v>
       </c>
       <c r="E9" t="n">
-        <v>37.8086</v>
+        <v>37.4243</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3608</v>
+        <v>15.8562</v>
       </c>
       <c r="C10" t="n">
-        <v>18.9152</v>
+        <v>18.9273</v>
       </c>
       <c r="D10" t="n">
-        <v>27.0595</v>
+        <v>22.6104</v>
       </c>
       <c r="E10" t="n">
-        <v>31.4118</v>
+        <v>31.5083</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8936</v>
+        <v>15.5412</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9284</v>
+        <v>19.0606</v>
       </c>
       <c r="D11" t="n">
-        <v>27.6174</v>
+        <v>23.5164</v>
       </c>
       <c r="E11" t="n">
-        <v>31.4538</v>
+        <v>30.9948</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4396</v>
+        <v>16.0104</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8262</v>
+        <v>19.9563</v>
       </c>
       <c r="D12" t="n">
-        <v>27.5563</v>
+        <v>23.2805</v>
       </c>
       <c r="E12" t="n">
-        <v>31.651</v>
+        <v>32.9126</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1654</v>
+        <v>16.7146</v>
       </c>
       <c r="C13" t="n">
-        <v>20.2418</v>
+        <v>20.2038</v>
       </c>
       <c r="D13" t="n">
-        <v>29.5827</v>
+        <v>25.2276</v>
       </c>
       <c r="E13" t="n">
-        <v>33.144</v>
+        <v>31.4973</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9271</v>
+        <v>16.1529</v>
       </c>
       <c r="C14" t="n">
-        <v>20.1897</v>
+        <v>20.2285</v>
       </c>
       <c r="D14" t="n">
-        <v>27.7532</v>
+        <v>24.5507</v>
       </c>
       <c r="E14" t="n">
-        <v>29.9534</v>
+        <v>32.2157</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8823</v>
+        <v>16.7845</v>
       </c>
       <c r="C15" t="n">
-        <v>20.4549</v>
+        <v>20.5828</v>
       </c>
       <c r="D15" t="n">
-        <v>28.5244</v>
+        <v>24.6297</v>
       </c>
       <c r="E15" t="n">
-        <v>29.5468</v>
+        <v>30.5282</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9965</v>
+        <v>17.0946</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9903</v>
+        <v>21.0511</v>
       </c>
       <c r="D16" t="n">
-        <v>28.4306</v>
+        <v>24.1011</v>
       </c>
       <c r="E16" t="n">
-        <v>30.1459</v>
+        <v>31.2307</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.548</v>
+        <v>17.1773</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5128</v>
+        <v>21.5418</v>
       </c>
       <c r="D17" t="n">
-        <v>28.9816</v>
+        <v>24.8543</v>
       </c>
       <c r="E17" t="n">
-        <v>31.0144</v>
+        <v>31.0249</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.01263</v>
+        <v>2.90328</v>
       </c>
       <c r="C2" t="n">
-        <v>4.85897</v>
+        <v>4.84267</v>
       </c>
       <c r="D2" t="n">
-        <v>5.13297</v>
+        <v>3.94687</v>
       </c>
       <c r="E2" t="n">
-        <v>6.18367</v>
+        <v>6.1776</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.82289</v>
+        <v>4.73839</v>
       </c>
       <c r="C3" t="n">
-        <v>6.41023</v>
+        <v>6.44438</v>
       </c>
       <c r="D3" t="n">
-        <v>8.38575</v>
+        <v>6.7772</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0912</v>
+        <v>10.2193</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.44011</v>
+        <v>6.38944</v>
       </c>
       <c r="C4" t="n">
-        <v>8.550039999999999</v>
+        <v>8.515330000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7065</v>
+        <v>9.536820000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>14.3283</v>
+        <v>14.4138</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.06058</v>
+        <v>7.99523</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1439</v>
+        <v>10.6679</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7853</v>
+        <v>12.2194</v>
       </c>
       <c r="E5" t="n">
-        <v>18.3225</v>
+        <v>18.5499</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.64429</v>
+        <v>9.560829999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>12.7246</v>
+        <v>12.7868</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7833</v>
+        <v>14.7714</v>
       </c>
       <c r="E6" t="n">
-        <v>22.3125</v>
+        <v>22.5457</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1591</v>
+        <v>11.0319</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9275</v>
+        <v>14.9448</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7037</v>
+        <v>17.2695</v>
       </c>
       <c r="E7" t="n">
-        <v>26.2187</v>
+        <v>26.51</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4873</v>
+        <v>12.5381</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0928</v>
+        <v>17.3257</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6254</v>
+        <v>19.7969</v>
       </c>
       <c r="E8" t="n">
-        <v>30.0039</v>
+        <v>30.4677</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6619</v>
+        <v>14.6706</v>
       </c>
       <c r="C9" t="n">
-        <v>18.4009</v>
+        <v>20.384</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1415</v>
+        <v>23.4894</v>
       </c>
       <c r="E9" t="n">
-        <v>34.6336</v>
+        <v>35.0858</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1146</v>
+        <v>14.0853</v>
       </c>
       <c r="C10" t="n">
-        <v>18.4456</v>
+        <v>19.0023</v>
       </c>
       <c r="D10" t="n">
-        <v>26.4209</v>
+        <v>22.0464</v>
       </c>
       <c r="E10" t="n">
-        <v>31.9094</v>
+        <v>32.068</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8122</v>
+        <v>13.8783</v>
       </c>
       <c r="C11" t="n">
-        <v>18.5274</v>
+        <v>18.9219</v>
       </c>
       <c r="D11" t="n">
-        <v>25.786</v>
+        <v>21.8995</v>
       </c>
       <c r="E11" t="n">
-        <v>31.4041</v>
+        <v>31.7948</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9483</v>
+        <v>13.9247</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5036</v>
+        <v>19.0774</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1255</v>
+        <v>22.0048</v>
       </c>
       <c r="E12" t="n">
-        <v>31.4763</v>
+        <v>32.5222</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1892</v>
+        <v>14.2699</v>
       </c>
       <c r="C13" t="n">
-        <v>18.723</v>
+        <v>19.2278</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2483</v>
+        <v>22.1914</v>
       </c>
       <c r="E13" t="n">
-        <v>32.1442</v>
+        <v>32.2781</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8263</v>
+        <v>13.7493</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0685</v>
+        <v>19.149</v>
       </c>
       <c r="D14" t="n">
-        <v>25.4019</v>
+        <v>21.5559</v>
       </c>
       <c r="E14" t="n">
-        <v>30.9333</v>
+        <v>31.5357</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1809</v>
+        <v>14.1976</v>
       </c>
       <c r="C15" t="n">
-        <v>18.9592</v>
+        <v>19.4812</v>
       </c>
       <c r="D15" t="n">
-        <v>26.1668</v>
+        <v>22.3596</v>
       </c>
       <c r="E15" t="n">
-        <v>31.4599</v>
+        <v>31.8951</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.2575</v>
+        <v>14.2872</v>
       </c>
       <c r="C16" t="n">
-        <v>18.9918</v>
+        <v>19.5017</v>
       </c>
       <c r="D16" t="n">
-        <v>25.9345</v>
+        <v>21.7375</v>
       </c>
       <c r="E16" t="n">
-        <v>31.261</v>
+        <v>31.3993</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9446</v>
+        <v>14.1399</v>
       </c>
       <c r="C17" t="n">
-        <v>19.265</v>
+        <v>19.7023</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3379</v>
+        <v>21.5054</v>
       </c>
       <c r="E17" t="n">
-        <v>30.6406</v>
+        <v>31.193</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95147</v>
+        <v>3.81232</v>
       </c>
       <c r="C2" t="n">
-        <v>8.13442</v>
+        <v>8.22753</v>
       </c>
       <c r="D2" t="n">
-        <v>8.28975</v>
+        <v>6.27631</v>
       </c>
       <c r="E2" t="n">
-        <v>10.8983</v>
+        <v>11.047</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.73016</v>
+        <v>5.76576</v>
       </c>
       <c r="C3" t="n">
-        <v>8.819319999999999</v>
+        <v>8.782249999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1669</v>
+        <v>9.85468</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5551</v>
+        <v>15.7377</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.98374</v>
+        <v>7.82682</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6937</v>
+        <v>11.203</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3269</v>
+        <v>13.586</v>
       </c>
       <c r="E4" t="n">
-        <v>21.1056</v>
+        <v>21.5305</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.83507</v>
+        <v>9.67634</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1561</v>
+        <v>13.7331</v>
       </c>
       <c r="D5" t="n">
-        <v>20.301</v>
+        <v>17.1592</v>
       </c>
       <c r="E5" t="n">
-        <v>26.4776</v>
+        <v>27.1397</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7917</v>
+        <v>11.5225</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0778</v>
+        <v>16.3246</v>
       </c>
       <c r="D6" t="n">
-        <v>24.1958</v>
+        <v>20.6321</v>
       </c>
       <c r="E6" t="n">
-        <v>31.8417</v>
+        <v>32.608</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5979</v>
+        <v>13.2943</v>
       </c>
       <c r="C7" t="n">
-        <v>18.3684</v>
+        <v>19.0301</v>
       </c>
       <c r="D7" t="n">
-        <v>28.0013</v>
+        <v>23.9969</v>
       </c>
       <c r="E7" t="n">
-        <v>37.1817</v>
+        <v>37.9903</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3537</v>
+        <v>15.0024</v>
       </c>
       <c r="C8" t="n">
-        <v>21.229</v>
+        <v>22.0807</v>
       </c>
       <c r="D8" t="n">
-        <v>31.9375</v>
+        <v>27.4112</v>
       </c>
       <c r="E8" t="n">
-        <v>42.2342</v>
+        <v>43.3829</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.5696</v>
+        <v>17.5626</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5138</v>
+        <v>25.7908</v>
       </c>
       <c r="D9" t="n">
-        <v>38.201</v>
+        <v>32.5298</v>
       </c>
       <c r="E9" t="n">
-        <v>48.9846</v>
+        <v>49.964</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8663</v>
+        <v>16.602</v>
       </c>
       <c r="C10" t="n">
-        <v>22.8552</v>
+        <v>23.8429</v>
       </c>
       <c r="D10" t="n">
-        <v>35.366</v>
+        <v>29.6633</v>
       </c>
       <c r="E10" t="n">
-        <v>43.911</v>
+        <v>46.1178</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.6583</v>
+        <v>16.6597</v>
       </c>
       <c r="C11" t="n">
-        <v>23.1948</v>
+        <v>23.3443</v>
       </c>
       <c r="D11" t="n">
-        <v>34.6103</v>
+        <v>29.7898</v>
       </c>
       <c r="E11" t="n">
-        <v>44.0711</v>
+        <v>45.7648</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9514</v>
+        <v>16.5828</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2691</v>
+        <v>23.9084</v>
       </c>
       <c r="D12" t="n">
-        <v>34.8926</v>
+        <v>30.3626</v>
       </c>
       <c r="E12" t="n">
-        <v>43.753</v>
+        <v>45.0582</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1822</v>
+        <v>16.9224</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2397</v>
+        <v>24.2373</v>
       </c>
       <c r="D13" t="n">
-        <v>35.3566</v>
+        <v>30.5827</v>
       </c>
       <c r="E13" t="n">
-        <v>44.0871</v>
+        <v>45.3276</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7938</v>
+        <v>16.4885</v>
       </c>
       <c r="C14" t="n">
-        <v>23.6002</v>
+        <v>24.2077</v>
       </c>
       <c r="D14" t="n">
-        <v>34.1658</v>
+        <v>29.251</v>
       </c>
       <c r="E14" t="n">
-        <v>42.4775</v>
+        <v>43.623</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2744</v>
+        <v>16.8323</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5028</v>
+        <v>24.5136</v>
       </c>
       <c r="D15" t="n">
-        <v>34.5515</v>
+        <v>29.4015</v>
       </c>
       <c r="E15" t="n">
-        <v>42.2508</v>
+        <v>44.0937</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9567</v>
+        <v>16.9849</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3072</v>
+        <v>24.6876</v>
       </c>
       <c r="D16" t="n">
-        <v>34.186</v>
+        <v>29.6665</v>
       </c>
       <c r="E16" t="n">
-        <v>42.8624</v>
+        <v>42.8866</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9063</v>
+        <v>16.7019</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7332</v>
+        <v>24.8808</v>
       </c>
       <c r="D17" t="n">
-        <v>33.7706</v>
+        <v>29.3643</v>
       </c>
       <c r="E17" t="n">
-        <v>41.8008</v>
+        <v>42.9849</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.27314</v>
+        <v>4.97805</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28693</v>
+        <v>6.28779</v>
       </c>
       <c r="D2" t="n">
-        <v>6.4258</v>
+        <v>5.18889</v>
       </c>
       <c r="E2" t="n">
-        <v>7.62198</v>
+        <v>7.63651</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.53547</v>
+        <v>6.45387</v>
       </c>
       <c r="C3" t="n">
-        <v>7.33723</v>
+        <v>7.4215</v>
       </c>
       <c r="D3" t="n">
-        <v>9.56935</v>
+        <v>8.1358</v>
       </c>
       <c r="E3" t="n">
-        <v>11.2188</v>
+        <v>11.2785</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.007949999999999</v>
+        <v>8.444520000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.99582</v>
+        <v>9.717499999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0764</v>
+        <v>11.4481</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3221</v>
+        <v>15.8487</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.865259999999999</v>
+        <v>10.2271</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8137</v>
+        <v>11.9369</v>
       </c>
       <c r="D5" t="n">
-        <v>16.6783</v>
+        <v>14.6156</v>
       </c>
       <c r="E5" t="n">
-        <v>19.7726</v>
+        <v>20.3153</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7677</v>
+        <v>12.0597</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3875</v>
+        <v>14.2718</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4164</v>
+        <v>17.8425</v>
       </c>
       <c r="E6" t="n">
-        <v>24.2446</v>
+        <v>24.7116</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7554</v>
+        <v>13.8668</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7427</v>
+        <v>16.6008</v>
       </c>
       <c r="D7" t="n">
-        <v>24.0633</v>
+        <v>21.0491</v>
       </c>
       <c r="E7" t="n">
-        <v>28.6565</v>
+        <v>29.0821</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7791</v>
+        <v>15.713</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7441</v>
+        <v>19.1031</v>
       </c>
       <c r="D8" t="n">
-        <v>27.6241</v>
+        <v>24.2748</v>
       </c>
       <c r="E8" t="n">
-        <v>32.9594</v>
+        <v>33.4529</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1798</v>
+        <v>18.1392</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8271</v>
+        <v>22.0458</v>
       </c>
       <c r="D9" t="n">
-        <v>32.0942</v>
+        <v>28.382</v>
       </c>
       <c r="E9" t="n">
-        <v>37.7682</v>
+        <v>38.77</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5138</v>
+        <v>17.4236</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0601</v>
+        <v>20.7194</v>
       </c>
       <c r="D10" t="n">
-        <v>29.7953</v>
+        <v>26.2304</v>
       </c>
       <c r="E10" t="n">
-        <v>35.3732</v>
+        <v>35.4696</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2342</v>
+        <v>17.2611</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3809</v>
+        <v>20.671</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5563</v>
+        <v>26.4249</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5364</v>
+        <v>34.5427</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2521</v>
+        <v>17.2603</v>
       </c>
       <c r="C12" t="n">
-        <v>19.6898</v>
+        <v>20.7043</v>
       </c>
       <c r="D12" t="n">
-        <v>29.5607</v>
+        <v>26.3716</v>
       </c>
       <c r="E12" t="n">
-        <v>34.6691</v>
+        <v>35.49</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.0428</v>
+        <v>17.6224</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4855</v>
+        <v>21.0893</v>
       </c>
       <c r="D13" t="n">
-        <v>30.6364</v>
+        <v>26.7977</v>
       </c>
       <c r="E13" t="n">
-        <v>35.9637</v>
+        <v>35.7877</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.8117</v>
+        <v>17.0751</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6913</v>
+        <v>20.9962</v>
       </c>
       <c r="D14" t="n">
-        <v>29.5934</v>
+        <v>25.9992</v>
       </c>
       <c r="E14" t="n">
-        <v>34.6006</v>
+        <v>34.8446</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8746</v>
+        <v>17.7136</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6449</v>
+        <v>21.2209</v>
       </c>
       <c r="D15" t="n">
-        <v>30.2348</v>
+        <v>26.6462</v>
       </c>
       <c r="E15" t="n">
-        <v>35.0713</v>
+        <v>35.7646</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9958</v>
+        <v>17.6599</v>
       </c>
       <c r="C16" t="n">
-        <v>19.7434</v>
+        <v>21.4353</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1976</v>
+        <v>26.2789</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5226</v>
+        <v>35.2107</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.8711</v>
+        <v>17.2992</v>
       </c>
       <c r="C17" t="n">
-        <v>19.6924</v>
+        <v>21.6584</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8308</v>
+        <v>26.1546</v>
       </c>
       <c r="E17" t="n">
-        <v>34.6319</v>
+        <v>35.8566</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -57,7 +57,7 @@
     <definedName localSheetId="5" name="k">#REF!</definedName>
     <definedName name="k">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterate="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -140,7 +140,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -577,6 +577,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,52 +655,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -811,9 +1106,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -836,7 +1131,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -913,52 +1208,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1059,52 +1354,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1205,52 +1500,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1273,6 +1568,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -1348,52 +1646,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1507,9 +2097,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1532,7 +2122,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -1609,52 +2199,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1755,52 +2345,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,52 +2491,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1969,6 +2559,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2044,52 +2637,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2203,9 +3088,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2228,7 +3113,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -2305,52 +3190,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2451,52 +3336,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2597,52 +3482,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2665,6 +3550,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -2740,52 +3628,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2899,9 +4079,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2924,7 +4104,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -3001,52 +4181,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3147,52 +4327,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3293,52 +4473,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3361,6 +4541,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -3436,52 +4619,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3595,9 +5070,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.1645017834309173"/>
+          <y val="0.2260402449693788"/>
           <w val="0.8736779189729996"/>
-          <h val="0.698398007941315"/>
+          <h val="0.6368595464028535"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3620,7 +5095,7 @@
           <spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="4F81BD"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -3697,52 +5172,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8891</v>
+                  <v>8.20299</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.7801</v>
+                  <v>9.389849999999999</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.3916</v>
+                  <v>12.0727</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.1114</v>
+                  <v>14.6073</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.0238</v>
+                  <v>17.1935</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.5469</v>
+                  <v>19.8483</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.7463</v>
+                  <v>22.8172</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.7074</v>
+                  <v>26.6472</v>
                 </pt>
                 <pt idx="8">
-                  <v>46.2775</v>
+                  <v>25.3853</v>
                 </pt>
                 <pt idx="9">
-                  <v>47.6475</v>
+                  <v>24.7784</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.1897</v>
+                  <v>25.0753</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.6059</v>
+                  <v>25.5717</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3724</v>
+                  <v>24.5607</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0471</v>
+                  <v>25.4459</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8912</v>
+                  <v>25.3329</v>
                 </pt>
                 <pt idx="15">
-                  <v>49.0374</v>
+                  <v>25.5239</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3843,52 +5318,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.6855</v>
+                  <v>14.2208</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.0102</v>
+                  <v>11.3833</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.7257</v>
+                  <v>13.6758</v>
                 </pt>
                 <pt idx="3">
-                  <v>50.8404</v>
+                  <v>16.128</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.4798</v>
+                  <v>18.953</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.7141</v>
+                  <v>21.8342</v>
                 </pt>
                 <pt idx="6">
-                  <v>37.2463</v>
+                  <v>24.8069</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.2744</v>
+                  <v>27.6407</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.4141</v>
+                  <v>26.3983</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.6102</v>
+                  <v>26.5376</v>
                 </pt>
                 <pt idx="10">
-                  <v>39.5541</v>
+                  <v>26.8507</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.5443</v>
+                  <v>27.2319</v>
                 </pt>
                 <pt idx="12">
-                  <v>48.8967</v>
+                  <v>27.6185</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.6242</v>
+                  <v>28.2216</v>
                 </pt>
                 <pt idx="14">
-                  <v>49.8071</v>
+                  <v>29.0785</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.0208</v>
+                  <v>29.9475</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3989,52 +5464,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>25.1245</v>
+                  <v>17.3158</v>
                 </pt>
                 <pt idx="1">
-                  <v>33.3849</v>
+                  <v>18.7617</v>
                 </pt>
                 <pt idx="2">
-                  <v>48.2392</v>
+                  <v>24.3687</v>
                 </pt>
                 <pt idx="3">
-                  <v>61.9033</v>
+                  <v>30.1578</v>
                 </pt>
                 <pt idx="4">
-                  <v>51.4984</v>
+                  <v>36.2994</v>
                 </pt>
                 <pt idx="5">
-                  <v>49.997</v>
+                  <v>42.8669</v>
                 </pt>
                 <pt idx="6">
-                  <v>53.5658</v>
+                  <v>49.1907</v>
                 </pt>
                 <pt idx="7">
-                  <v>49.8046</v>
+                  <v>56.7097</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.2952</v>
+                  <v>52.3473</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.992</v>
+                  <v>52.6285</v>
                 </pt>
                 <pt idx="10">
-                  <v>51.6304</v>
+                  <v>53.5332</v>
                 </pt>
                 <pt idx="11">
-                  <v>54.8665</v>
+                  <v>54.2073</v>
                 </pt>
                 <pt idx="12">
-                  <v>54.975</v>
+                  <v>53.7503</v>
                 </pt>
                 <pt idx="13">
-                  <v>55.5807</v>
+                  <v>54.2351</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.9125</v>
+                  <v>54.8631</v>
                 </pt>
                 <pt idx="15">
-                  <v>55.7518</v>
+                  <v>54.454</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4057,6 +5532,9 @@
           </tx>
           <spPr>
             <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -4132,52 +5610,344 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>29.8425</v>
+                  <v>21.0957</v>
                 </pt>
                 <pt idx="1">
-                  <v>44.9754</v>
+                  <v>27.2162</v>
                 </pt>
                 <pt idx="2">
-                  <v>55.1248</v>
+                  <v>36.9017</v>
                 </pt>
                 <pt idx="3">
-                  <v>74.3052</v>
+                  <v>45.911</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.2846</v>
+                  <v>54.4618</v>
                 </pt>
                 <pt idx="5">
-                  <v>63.3506</v>
+                  <v>62.3184</v>
                 </pt>
                 <pt idx="6">
-                  <v>69.6906</v>
+                  <v>69.42010000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>60.9708</v>
+                  <v>76.9066</v>
                 </pt>
                 <pt idx="8">
-                  <v>59.1547</v>
+                  <v>68.25709999999999</v>
                 </pt>
                 <pt idx="9">
-                  <v>65.57989999999999</v>
+                  <v>70.1614</v>
                 </pt>
                 <pt idx="10">
-                  <v>55.923</v>
+                  <v>73.2282</v>
                 </pt>
                 <pt idx="11">
-                  <v>59.4605</v>
+                  <v>72.19070000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.9516</v>
+                  <v>73.5599</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.594</v>
+                  <v>73.66079999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>60.4237</v>
+                  <v>74.1058</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.0957</v>
+                  <v>73.2501</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$F$2:$F$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>13.6924</v>
+                </pt>
+                <pt idx="1">
+                  <v>14.902</v>
+                </pt>
+                <pt idx="2">
+                  <v>19.2338</v>
+                </pt>
+                <pt idx="3">
+                  <v>23.5306</v>
+                </pt>
+                <pt idx="4">
+                  <v>27.7246</v>
+                </pt>
+                <pt idx="5">
+                  <v>32.1492</v>
+                </pt>
+                <pt idx="6">
+                  <v>36.5763</v>
+                </pt>
+                <pt idx="7">
+                  <v>42.4242</v>
+                </pt>
+                <pt idx="8">
+                  <v>39.9018</v>
+                </pt>
+                <pt idx="9">
+                  <v>39.0165</v>
+                </pt>
+                <pt idx="10">
+                  <v>39.8279</v>
+                </pt>
+                <pt idx="11">
+                  <v>40.0588</v>
+                </pt>
+                <pt idx="12">
+                  <v>39.1545</v>
+                </pt>
+                <pt idx="13">
+                  <v>40.1554</v>
+                </pt>
+                <pt idx="14">
+                  <v>39.8148</v>
+                </pt>
+                <pt idx="15">
+                  <v>39.4034</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="5"/>
+          <order val="5"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$G$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_node_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C0C0C0"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$G$2:$G$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>17.4443</v>
+                </pt>
+                <pt idx="1">
+                  <v>21.1943</v>
+                </pt>
+                <pt idx="2">
+                  <v>27.9436</v>
+                </pt>
+                <pt idx="3">
+                  <v>34.1858</v>
+                </pt>
+                <pt idx="4">
+                  <v>40.1865</v>
+                </pt>
+                <pt idx="5">
+                  <v>45.4989</v>
+                </pt>
+                <pt idx="6">
+                  <v>50.6155</v>
+                </pt>
+                <pt idx="7">
+                  <v>56.5033</v>
+                </pt>
+                <pt idx="8">
+                  <v>51.806</v>
+                </pt>
+                <pt idx="9">
+                  <v>52.5616</v>
+                </pt>
+                <pt idx="10">
+                  <v>52.622</v>
+                </pt>
+                <pt idx="11">
+                  <v>53.4704</v>
+                </pt>
+                <pt idx="12">
+                  <v>51.174</v>
+                </pt>
+                <pt idx="13">
+                  <v>52.0867</v>
+                </pt>
+                <pt idx="14">
+                  <v>51.2377</v>
+                </pt>
+                <pt idx="15">
+                  <v>51.6826</v>
                 </pt>
               </numCache>
             </numRef>
@@ -4283,16 +6053,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4315,16 +6085,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4347,16 +6117,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4379,16 +6149,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4411,16 +6181,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4443,16 +6213,16 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
-      <col>5</col>
-      <colOff>533400</colOff>
-      <row>0</row>
-      <rowOff>142875</rowOff>
+      <col>8</col>
+      <colOff>11596</colOff>
+      <row>1</row>
+      <rowOff>2071</rowOff>
     </from>
     <to>
-      <col>13</col>
-      <colOff>209550</colOff>
+      <col>15</col>
+      <colOff>449746</colOff>
       <row>20</row>
-      <rowOff>47625</rowOff>
+      <rowOff>97321</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -4762,10 +6532,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4794,22 +6564,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.20531</v>
+        <v>5.20637</v>
       </c>
       <c r="C2" t="n">
-        <v>5.44608</v>
+        <v>5.64418</v>
       </c>
       <c r="D2" t="n">
-        <v>5.9024</v>
+        <v>5.91685</v>
       </c>
       <c r="E2" t="n">
-        <v>6.93646</v>
+        <v>5.58791</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.58329</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.36476</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24617</v>
+        <v>6.35407</v>
       </c>
       <c r="C3" t="n">
-        <v>6.60362</v>
+        <v>6.85349</v>
       </c>
       <c r="D3" t="n">
-        <v>8.802490000000001</v>
+        <v>8.87867</v>
       </c>
       <c r="E3" t="n">
-        <v>10.2832</v>
+        <v>8.91126</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.99983</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9.30791</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.23675</v>
+        <v>7.79426</v>
       </c>
       <c r="C4" t="n">
-        <v>8.52847</v>
+        <v>8.850720000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>11.778</v>
+        <v>12.1069</v>
       </c>
       <c r="E4" t="n">
-        <v>14.0139</v>
+        <v>12.5149</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.464740000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12.5215</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.70661</v>
+        <v>9.25854</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1953</v>
+        <v>11.0231</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8668</v>
+        <v>15.1433</v>
       </c>
       <c r="E5" t="n">
-        <v>18.1187</v>
+        <v>15.9899</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.7667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.5676</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8439</v>
+        <v>10.8738</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0099</v>
+        <v>13.3394</v>
       </c>
       <c r="D6" t="n">
-        <v>18.083</v>
+        <v>18.0901</v>
       </c>
       <c r="E6" t="n">
-        <v>22.1878</v>
+        <v>19.4576</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.9192</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18.5383</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.5795</v>
+        <v>12.575</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3652</v>
+        <v>15.7328</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3257</v>
+        <v>21.3872</v>
       </c>
       <c r="E7" t="n">
-        <v>26.158</v>
+        <v>22.9195</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16.0399</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21.1683</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.0005</v>
+        <v>13.9144</v>
       </c>
       <c r="C8" t="n">
-        <v>17.4756</v>
+        <v>18.0007</v>
       </c>
       <c r="D8" t="n">
-        <v>25.2085</v>
+        <v>24.0319</v>
       </c>
       <c r="E8" t="n">
-        <v>29.6162</v>
+        <v>26.2168</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18.3586</v>
+      </c>
+      <c r="G8" t="n">
+        <v>23.973</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4986</v>
+        <v>16.477</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5425</v>
+        <v>20.7267</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0626</v>
+        <v>28.0819</v>
       </c>
       <c r="E9" t="n">
-        <v>34.1008</v>
+        <v>29.9552</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.8787</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27.0823</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8882</v>
+        <v>13.7751</v>
       </c>
       <c r="C10" t="n">
-        <v>17.1183</v>
+        <v>17.6222</v>
       </c>
       <c r="D10" t="n">
-        <v>23.0199</v>
+        <v>22.988</v>
       </c>
       <c r="E10" t="n">
-        <v>27.5596</v>
+        <v>23.8432</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16.8394</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.4653</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3948</v>
+        <v>14.1932</v>
       </c>
       <c r="C11" t="n">
-        <v>17.3711</v>
+        <v>17.6324</v>
       </c>
       <c r="D11" t="n">
-        <v>23.8128</v>
+        <v>23.5301</v>
       </c>
       <c r="E11" t="n">
-        <v>27.8231</v>
+        <v>24.4394</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.372</v>
+      </c>
+      <c r="G11" t="n">
+        <v>22.4244</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5902</v>
+        <v>14.5414</v>
       </c>
       <c r="C12" t="n">
-        <v>18.0582</v>
+        <v>18.7785</v>
       </c>
       <c r="D12" t="n">
-        <v>24.2488</v>
+        <v>24.8642</v>
       </c>
       <c r="E12" t="n">
-        <v>29.1309</v>
+        <v>26.3673</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.9634</v>
+      </c>
+      <c r="G12" t="n">
+        <v>22.7327</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0301</v>
+        <v>15.1032</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9121</v>
+        <v>19.3364</v>
       </c>
       <c r="D13" t="n">
-        <v>24.9949</v>
+        <v>25.2192</v>
       </c>
       <c r="E13" t="n">
-        <v>28.8323</v>
+        <v>26.0504</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18.644</v>
+      </c>
+      <c r="G13" t="n">
+        <v>22.9573</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>15.1858</v>
+        <v>14.9065</v>
       </c>
       <c r="C14" t="n">
-        <v>18.9806</v>
+        <v>19.3369</v>
       </c>
       <c r="D14" t="n">
-        <v>24.844</v>
+        <v>24.9058</v>
       </c>
       <c r="E14" t="n">
-        <v>29.0649</v>
+        <v>25.5847</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.9874</v>
+      </c>
+      <c r="G14" t="n">
+        <v>22.1489</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1426</v>
+        <v>15.1566</v>
       </c>
       <c r="C15" t="n">
-        <v>19.1202</v>
+        <v>19.5991</v>
       </c>
       <c r="D15" t="n">
-        <v>24.6939</v>
+        <v>24.7679</v>
       </c>
       <c r="E15" t="n">
-        <v>29.2184</v>
+        <v>25.6346</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17.3533</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22.849</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4196</v>
+        <v>15.4352</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4377</v>
+        <v>19.9386</v>
       </c>
       <c r="D16" t="n">
-        <v>24.7617</v>
+        <v>24.702</v>
       </c>
       <c r="E16" t="n">
-        <v>28.1867</v>
+        <v>25.5772</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.0135</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21.3772</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3761</v>
+        <v>15.4811</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8741</v>
+        <v>20.194</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6701</v>
+        <v>24.2781</v>
       </c>
       <c r="E17" t="n">
-        <v>28.4809</v>
+        <v>25.9939</v>
+      </c>
+      <c r="F17" t="n">
+        <v>17.5963</v>
+      </c>
+      <c r="G17" t="n">
+        <v>21.4935</v>
       </c>
     </row>
   </sheetData>
@@ -5079,10 +6955,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5111,22 +6987,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.704029999999999</v>
+        <v>8.63414</v>
       </c>
       <c r="C2" t="n">
-        <v>9.94365</v>
+        <v>9.989710000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4489</v>
+        <v>10.4785</v>
       </c>
       <c r="E2" t="n">
-        <v>13.3626</v>
+        <v>8.51932</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.8049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.496</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.34775</v>
+        <v>8.34215</v>
       </c>
       <c r="C3" t="n">
-        <v>9.23414</v>
+        <v>9.247769999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.8533</v>
+        <v>12.9692</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5723</v>
+        <v>12.046</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.3354</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.6422</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.387119999999999</v>
+        <v>10.1737</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3164</v>
+        <v>11.5764</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4807</v>
+        <v>17.0979</v>
       </c>
       <c r="E4" t="n">
-        <v>20.6096</v>
+        <v>16.6421</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12.4481</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.7617</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.8458</v>
+        <v>11.9395</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7208</v>
+        <v>14.0386</v>
       </c>
       <c r="D5" t="n">
-        <v>20.2416</v>
+        <v>20.9842</v>
       </c>
       <c r="E5" t="n">
-        <v>25.7415</v>
+        <v>21.0217</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.2991</v>
+      </c>
+      <c r="G5" t="n">
+        <v>21.7196</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.3721</v>
+        <v>13.9614</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7948</v>
+        <v>16.9952</v>
       </c>
       <c r="D6" t="n">
-        <v>24.5213</v>
+        <v>24.9416</v>
       </c>
       <c r="E6" t="n">
-        <v>31.0475</v>
+        <v>25.4754</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18.0176</v>
+      </c>
+      <c r="G6" t="n">
+        <v>25.285</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9621</v>
+        <v>15.9988</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1919</v>
+        <v>20.0012</v>
       </c>
       <c r="D7" t="n">
-        <v>28.5274</v>
+        <v>29.2226</v>
       </c>
       <c r="E7" t="n">
-        <v>36.3724</v>
+        <v>29.7743</v>
+      </c>
+      <c r="F7" t="n">
+        <v>20.7964</v>
+      </c>
+      <c r="G7" t="n">
+        <v>28.5294</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.6984</v>
+        <v>17.6886</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7938</v>
+        <v>22.9961</v>
       </c>
       <c r="D8" t="n">
-        <v>31.9726</v>
+        <v>32.3354</v>
       </c>
       <c r="E8" t="n">
-        <v>40.5298</v>
+        <v>33.6971</v>
+      </c>
+      <c r="F8" t="n">
+        <v>23.1952</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32.1428</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8245</v>
+        <v>20.767</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2944</v>
+        <v>26.6071</v>
       </c>
       <c r="D9" t="n">
-        <v>37.9647</v>
+        <v>37.8762</v>
       </c>
       <c r="E9" t="n">
-        <v>47.9528</v>
+        <v>38.4881</v>
+      </c>
+      <c r="F9" t="n">
+        <v>26.4531</v>
+      </c>
+      <c r="G9" t="n">
+        <v>35.5701</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.1984</v>
+        <v>18.0899</v>
       </c>
       <c r="C10" t="n">
-        <v>23.111</v>
+        <v>23.1301</v>
       </c>
       <c r="D10" t="n">
-        <v>32.6311</v>
+        <v>32.3826</v>
       </c>
       <c r="E10" t="n">
-        <v>40.4542</v>
+        <v>31.8064</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.9535</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.6207</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8981</v>
+        <v>17.6594</v>
       </c>
       <c r="C11" t="n">
-        <v>22.5179</v>
+        <v>23.0783</v>
       </c>
       <c r="D11" t="n">
-        <v>32.4221</v>
+        <v>32.0668</v>
       </c>
       <c r="E11" t="n">
-        <v>38.9888</v>
+        <v>31.3251</v>
+      </c>
+      <c r="F11" t="n">
+        <v>22.2163</v>
+      </c>
+      <c r="G11" t="n">
+        <v>29.7007</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.2357</v>
+        <v>18.2887</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2829</v>
+        <v>23.498</v>
       </c>
       <c r="D12" t="n">
-        <v>32.5025</v>
+        <v>32.8</v>
       </c>
       <c r="E12" t="n">
-        <v>41.3727</v>
+        <v>32.4116</v>
+      </c>
+      <c r="F12" t="n">
+        <v>22.9087</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30.0338</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>18.962</v>
+        <v>19.086</v>
       </c>
       <c r="C13" t="n">
-        <v>24.0374</v>
+        <v>24.3293</v>
       </c>
       <c r="D13" t="n">
-        <v>32.8129</v>
+        <v>34.4365</v>
       </c>
       <c r="E13" t="n">
-        <v>39.5253</v>
+        <v>32.4061</v>
+      </c>
+      <c r="F13" t="n">
+        <v>22.8885</v>
+      </c>
+      <c r="G13" t="n">
+        <v>29.4743</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.6576</v>
+        <v>18.8007</v>
       </c>
       <c r="C14" t="n">
-        <v>23.8121</v>
+        <v>23.8706</v>
       </c>
       <c r="D14" t="n">
-        <v>33.1201</v>
+        <v>33.4721</v>
       </c>
       <c r="E14" t="n">
-        <v>39.3773</v>
+        <v>32.5981</v>
+      </c>
+      <c r="F14" t="n">
+        <v>23.1249</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27.8387</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8166</v>
+        <v>18.5851</v>
       </c>
       <c r="C15" t="n">
-        <v>24.456</v>
+        <v>24.4005</v>
       </c>
       <c r="D15" t="n">
-        <v>32.8716</v>
+        <v>33.1577</v>
       </c>
       <c r="E15" t="n">
-        <v>38.8934</v>
+        <v>32.9582</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22.0132</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28.4923</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5197</v>
+        <v>19.114</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6396</v>
+        <v>24.8663</v>
       </c>
       <c r="D16" t="n">
-        <v>33.1264</v>
+        <v>33.5539</v>
       </c>
       <c r="E16" t="n">
-        <v>38.5012</v>
+        <v>32.4378</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.8467</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28.1044</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2024</v>
+        <v>19.1288</v>
       </c>
       <c r="C17" t="n">
-        <v>24.5718</v>
+        <v>25.1223</v>
       </c>
       <c r="D17" t="n">
-        <v>33.0596</v>
+        <v>32.993</v>
       </c>
       <c r="E17" t="n">
-        <v>39.0621</v>
+        <v>32.6633</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21.2308</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28.7476</v>
       </c>
     </row>
   </sheetData>
@@ -5396,10 +7378,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5428,22 +7410,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41743</v>
+        <v>6.41849</v>
       </c>
       <c r="C2" t="n">
-        <v>6.5203</v>
+        <v>6.52936</v>
       </c>
       <c r="D2" t="n">
-        <v>6.79492</v>
+        <v>6.79659</v>
       </c>
       <c r="E2" t="n">
-        <v>7.90086</v>
+        <v>6.30598</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5.29024</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.38204</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.85391</v>
+        <v>7.04533</v>
       </c>
       <c r="C3" t="n">
-        <v>7.45455</v>
+        <v>7.44725</v>
       </c>
       <c r="D3" t="n">
-        <v>9.738619999999999</v>
+        <v>9.70983</v>
       </c>
       <c r="E3" t="n">
-        <v>11.2038</v>
+        <v>9.548769999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.81255</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.2845</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.903280000000001</v>
+        <v>8.866059999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.71233</v>
+        <v>9.82193</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2719</v>
+        <v>13.4939</v>
       </c>
       <c r="E4" t="n">
-        <v>15.7728</v>
+        <v>13.5402</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.8804</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.3765</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.66362</v>
+        <v>10.5692</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8252</v>
+        <v>12.1013</v>
       </c>
       <c r="D5" t="n">
-        <v>16.7132</v>
+        <v>17.1826</v>
       </c>
       <c r="E5" t="n">
-        <v>19.273</v>
+        <v>17.4102</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.7599</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.2617</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5501</v>
+        <v>12.3616</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0178</v>
+        <v>14.5224</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4846</v>
+        <v>20.7214</v>
       </c>
       <c r="E6" t="n">
-        <v>23.8106</v>
+        <v>21.2101</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.6605</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.9285</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.3992</v>
+        <v>14.1358</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2765</v>
+        <v>16.8991</v>
       </c>
       <c r="D7" t="n">
-        <v>24.0515</v>
+        <v>24.3018</v>
       </c>
       <c r="E7" t="n">
-        <v>27.7154</v>
+        <v>24.8477</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.2947</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.5718</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9795</v>
+        <v>15.975</v>
       </c>
       <c r="C8" t="n">
-        <v>18.3757</v>
+        <v>19.228</v>
       </c>
       <c r="D8" t="n">
-        <v>27.7259</v>
+        <v>27.9388</v>
       </c>
       <c r="E8" t="n">
-        <v>32.2993</v>
+        <v>28.6983</v>
+      </c>
+      <c r="F8" t="n">
+        <v>22.0851</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.8413</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.2434</v>
+        <v>18.1552</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0545</v>
+        <v>22.088</v>
       </c>
       <c r="D9" t="n">
-        <v>32.5397</v>
+        <v>32.3855</v>
       </c>
       <c r="E9" t="n">
-        <v>37.8086</v>
+        <v>32.9716</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.5108</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32.384</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.3608</v>
+        <v>16.366</v>
       </c>
       <c r="C10" t="n">
-        <v>18.9152</v>
+        <v>19.0383</v>
       </c>
       <c r="D10" t="n">
-        <v>27.0595</v>
+        <v>27.2502</v>
       </c>
       <c r="E10" t="n">
-        <v>31.4118</v>
+        <v>26.5573</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20.9276</v>
+      </c>
+      <c r="G10" t="n">
+        <v>26.8218</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.8936</v>
+        <v>15.9884</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9284</v>
+        <v>19.0777</v>
       </c>
       <c r="D11" t="n">
-        <v>27.6174</v>
+        <v>27.182</v>
       </c>
       <c r="E11" t="n">
-        <v>31.4538</v>
+        <v>27.307</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21.5167</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27.9105</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4396</v>
+        <v>16.4086</v>
       </c>
       <c r="C12" t="n">
-        <v>19.8262</v>
+        <v>19.9549</v>
       </c>
       <c r="D12" t="n">
-        <v>27.5563</v>
+        <v>28.2645</v>
       </c>
       <c r="E12" t="n">
-        <v>31.651</v>
+        <v>27.7963</v>
+      </c>
+      <c r="F12" t="n">
+        <v>22.4814</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27.4377</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1654</v>
+        <v>17.0495</v>
       </c>
       <c r="C13" t="n">
-        <v>20.2418</v>
+        <v>20.6733</v>
       </c>
       <c r="D13" t="n">
-        <v>29.5827</v>
+        <v>28.9788</v>
       </c>
       <c r="E13" t="n">
-        <v>33.144</v>
+        <v>28.9185</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23.0509</v>
+      </c>
+      <c r="G13" t="n">
+        <v>28.1932</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9271</v>
+        <v>16.7065</v>
       </c>
       <c r="C14" t="n">
-        <v>20.1897</v>
+        <v>20.3135</v>
       </c>
       <c r="D14" t="n">
-        <v>27.7532</v>
+        <v>28.235</v>
       </c>
       <c r="E14" t="n">
-        <v>29.9534</v>
+        <v>27.034</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22.3137</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27.4446</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8823</v>
+        <v>17.2246</v>
       </c>
       <c r="C15" t="n">
-        <v>20.4549</v>
+        <v>20.5046</v>
       </c>
       <c r="D15" t="n">
-        <v>28.5244</v>
+        <v>28.3742</v>
       </c>
       <c r="E15" t="n">
-        <v>29.5468</v>
+        <v>27.348</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22.6469</v>
+      </c>
+      <c r="G15" t="n">
+        <v>27.3838</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9965</v>
+        <v>17.1994</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9903</v>
+        <v>20.9581</v>
       </c>
       <c r="D16" t="n">
-        <v>28.4306</v>
+        <v>28.5249</v>
       </c>
       <c r="E16" t="n">
-        <v>30.1459</v>
+        <v>27.0627</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.726</v>
+      </c>
+      <c r="G16" t="n">
+        <v>26.8528</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.548</v>
+        <v>17.4574</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5128</v>
+        <v>21.4769</v>
       </c>
       <c r="D17" t="n">
-        <v>28.9816</v>
+        <v>28.7925</v>
       </c>
       <c r="E17" t="n">
-        <v>31.0144</v>
+        <v>27.7821</v>
+      </c>
+      <c r="F17" t="n">
+        <v>21.6351</v>
+      </c>
+      <c r="G17" t="n">
+        <v>25.0778</v>
       </c>
     </row>
   </sheetData>
@@ -5713,10 +7801,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5745,22 +7833,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.01263</v>
+        <v>3.0402</v>
       </c>
       <c r="C2" t="n">
-        <v>4.85897</v>
+        <v>5.0144</v>
       </c>
       <c r="D2" t="n">
-        <v>5.13297</v>
+        <v>5.13221</v>
       </c>
       <c r="E2" t="n">
-        <v>6.18367</v>
+        <v>5.07211</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.59631</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.93921</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.82289</v>
+        <v>4.89452</v>
       </c>
       <c r="C3" t="n">
-        <v>6.41023</v>
+        <v>6.64935</v>
       </c>
       <c r="D3" t="n">
-        <v>8.38575</v>
+        <v>8.328519999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>10.0912</v>
+        <v>8.658289999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.12097</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.100949999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.44011</v>
+        <v>6.60954</v>
       </c>
       <c r="C4" t="n">
-        <v>8.550039999999999</v>
+        <v>8.743819999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>11.7065</v>
+        <v>11.6887</v>
       </c>
       <c r="E4" t="n">
-        <v>14.3283</v>
+        <v>12.3399</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.392099999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.1664</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.06058</v>
+        <v>8.09165</v>
       </c>
       <c r="C5" t="n">
-        <v>10.1439</v>
+        <v>10.8683</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7853</v>
+        <v>14.8041</v>
       </c>
       <c r="E5" t="n">
-        <v>18.3225</v>
+        <v>15.8753</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.6868</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.1138</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.64429</v>
+        <v>9.70261</v>
       </c>
       <c r="C6" t="n">
-        <v>12.7246</v>
+        <v>13.0617</v>
       </c>
       <c r="D6" t="n">
-        <v>17.7833</v>
+        <v>17.771</v>
       </c>
       <c r="E6" t="n">
-        <v>22.3125</v>
+        <v>19.4153</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.6473</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.6993</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1591</v>
+        <v>11.1479</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9275</v>
+        <v>15.2865</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7037</v>
+        <v>20.7397</v>
       </c>
       <c r="E7" t="n">
-        <v>26.2187</v>
+        <v>22.8874</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14.4609</v>
+      </c>
+      <c r="G7" t="n">
+        <v>19.2277</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4873</v>
+        <v>12.5843</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0928</v>
+        <v>17.6974</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6254</v>
+        <v>23.7464</v>
       </c>
       <c r="E8" t="n">
-        <v>30.0039</v>
+        <v>26.3305</v>
+      </c>
+      <c r="F8" t="n">
+        <v>16.2816</v>
+      </c>
+      <c r="G8" t="n">
+        <v>21.4755</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.6619</v>
+        <v>14.7915</v>
       </c>
       <c r="C9" t="n">
-        <v>18.4009</v>
+        <v>20.8542</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1415</v>
+        <v>28.2234</v>
       </c>
       <c r="E9" t="n">
-        <v>34.6336</v>
+        <v>30.3156</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.6477</v>
+      </c>
+      <c r="G9" t="n">
+        <v>23.795</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1146</v>
+        <v>14.1753</v>
       </c>
       <c r="C10" t="n">
-        <v>18.4456</v>
+        <v>19.3941</v>
       </c>
       <c r="D10" t="n">
-        <v>26.4209</v>
+        <v>26.5088</v>
       </c>
       <c r="E10" t="n">
-        <v>31.9094</v>
+        <v>28.0924</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17.7215</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22.4365</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8122</v>
+        <v>14.1959</v>
       </c>
       <c r="C11" t="n">
-        <v>18.5274</v>
+        <v>18.8</v>
       </c>
       <c r="D11" t="n">
-        <v>25.786</v>
+        <v>25.8927</v>
       </c>
       <c r="E11" t="n">
-        <v>31.4041</v>
+        <v>27.3862</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.0985</v>
+      </c>
+      <c r="G11" t="n">
+        <v>21.2206</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.9483</v>
+        <v>14.1948</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5036</v>
+        <v>19.3037</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1255</v>
+        <v>26.1695</v>
       </c>
       <c r="E12" t="n">
-        <v>31.4763</v>
+        <v>27.9565</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17.0996</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21.8081</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.1892</v>
+        <v>14.4668</v>
       </c>
       <c r="C13" t="n">
-        <v>18.723</v>
+        <v>19.5877</v>
       </c>
       <c r="D13" t="n">
-        <v>26.2483</v>
+        <v>26.8142</v>
       </c>
       <c r="E13" t="n">
-        <v>32.1442</v>
+        <v>28.4476</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16.673</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20.4329</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8263</v>
+        <v>13.9222</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0685</v>
+        <v>19.6602</v>
       </c>
       <c r="D14" t="n">
-        <v>25.4019</v>
+        <v>25.3393</v>
       </c>
       <c r="E14" t="n">
-        <v>30.9333</v>
+        <v>27.5854</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16.1395</v>
+      </c>
+      <c r="G14" t="n">
+        <v>19.918</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1809</v>
+        <v>14.5059</v>
       </c>
       <c r="C15" t="n">
-        <v>18.9592</v>
+        <v>19.7916</v>
       </c>
       <c r="D15" t="n">
-        <v>26.1668</v>
+        <v>25.8486</v>
       </c>
       <c r="E15" t="n">
-        <v>31.4599</v>
+        <v>27.8224</v>
+      </c>
+      <c r="F15" t="n">
+        <v>16.0852</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.6138</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.2575</v>
+        <v>14.4141</v>
       </c>
       <c r="C16" t="n">
-        <v>18.9918</v>
+        <v>19.999</v>
       </c>
       <c r="D16" t="n">
-        <v>25.9345</v>
+        <v>26.1815</v>
       </c>
       <c r="E16" t="n">
-        <v>31.261</v>
+        <v>27.3545</v>
+      </c>
+      <c r="F16" t="n">
+        <v>15.6165</v>
+      </c>
+      <c r="G16" t="n">
+        <v>19.1398</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9446</v>
+        <v>14.2647</v>
       </c>
       <c r="C17" t="n">
-        <v>19.265</v>
+        <v>20.1267</v>
       </c>
       <c r="D17" t="n">
-        <v>25.3379</v>
+        <v>25.6285</v>
       </c>
       <c r="E17" t="n">
-        <v>30.6406</v>
+        <v>27.3613</v>
+      </c>
+      <c r="F17" t="n">
+        <v>15.2757</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.5896</v>
       </c>
     </row>
   </sheetData>
@@ -6030,10 +8224,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6062,22 +8256,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95147</v>
+        <v>3.93113</v>
       </c>
       <c r="C2" t="n">
-        <v>8.13442</v>
+        <v>8.155849999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.28975</v>
+        <v>8.28852</v>
       </c>
       <c r="E2" t="n">
-        <v>10.8983</v>
+        <v>7.42854</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.84296</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.54922</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.73016</v>
+        <v>5.98421</v>
       </c>
       <c r="C3" t="n">
-        <v>8.819319999999999</v>
+        <v>8.79627</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1669</v>
+        <v>12.1956</v>
       </c>
       <c r="E3" t="n">
-        <v>15.5551</v>
+        <v>11.7282</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.73473</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.1034</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.98374</v>
+        <v>8.15352</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6937</v>
+        <v>11.2851</v>
       </c>
       <c r="D4" t="n">
-        <v>16.3269</v>
+        <v>16.4258</v>
       </c>
       <c r="E4" t="n">
-        <v>21.1056</v>
+        <v>16.4433</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.7987</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15.2626</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.83507</v>
+        <v>10.0495</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1561</v>
+        <v>13.7337</v>
       </c>
       <c r="D5" t="n">
-        <v>20.301</v>
+        <v>20.419</v>
       </c>
       <c r="E5" t="n">
-        <v>26.4776</v>
+        <v>20.8808</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.5633</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.9074</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7917</v>
+        <v>11.8801</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0778</v>
+        <v>16.3099</v>
       </c>
       <c r="D6" t="n">
-        <v>24.1958</v>
+        <v>24.1817</v>
       </c>
       <c r="E6" t="n">
-        <v>31.8417</v>
+        <v>25.3463</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.7722</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.0125</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5979</v>
+        <v>13.756</v>
       </c>
       <c r="C7" t="n">
-        <v>18.3684</v>
+        <v>19.0267</v>
       </c>
       <c r="D7" t="n">
-        <v>28.0013</v>
+        <v>27.884</v>
       </c>
       <c r="E7" t="n">
-        <v>37.1817</v>
+        <v>29.6851</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18.0634</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.0022</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.3537</v>
+        <v>15.4114</v>
       </c>
       <c r="C8" t="n">
-        <v>21.229</v>
+        <v>22.0577</v>
       </c>
       <c r="D8" t="n">
-        <v>31.9375</v>
+        <v>31.941</v>
       </c>
       <c r="E8" t="n">
-        <v>42.2342</v>
+        <v>34.0523</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.3096</v>
+      </c>
+      <c r="G8" t="n">
+        <v>27.8307</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.5696</v>
+        <v>17.9972</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5138</v>
+        <v>25.8246</v>
       </c>
       <c r="D9" t="n">
-        <v>38.201</v>
+        <v>38.2195</v>
       </c>
       <c r="E9" t="n">
-        <v>48.9846</v>
+        <v>39.3225</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.0265</v>
+      </c>
+      <c r="G9" t="n">
+        <v>30.511</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.8663</v>
+        <v>17.157</v>
       </c>
       <c r="C10" t="n">
-        <v>22.8552</v>
+        <v>23.5839</v>
       </c>
       <c r="D10" t="n">
-        <v>35.366</v>
+        <v>34.9833</v>
       </c>
       <c r="E10" t="n">
-        <v>43.911</v>
+        <v>35.7923</v>
+      </c>
+      <c r="F10" t="n">
+        <v>21.6006</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.4798</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.6583</v>
+        <v>16.9961</v>
       </c>
       <c r="C11" t="n">
-        <v>23.1948</v>
+        <v>24.0177</v>
       </c>
       <c r="D11" t="n">
-        <v>34.6103</v>
+        <v>34.956</v>
       </c>
       <c r="E11" t="n">
-        <v>44.0711</v>
+        <v>35.0835</v>
+      </c>
+      <c r="F11" t="n">
+        <v>21.6365</v>
+      </c>
+      <c r="G11" t="n">
+        <v>28.187</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.9514</v>
+        <v>17.179</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2691</v>
+        <v>23.9375</v>
       </c>
       <c r="D12" t="n">
-        <v>34.8926</v>
+        <v>34.042</v>
       </c>
       <c r="E12" t="n">
-        <v>43.753</v>
+        <v>35.5425</v>
+      </c>
+      <c r="F12" t="n">
+        <v>21.0131</v>
+      </c>
+      <c r="G12" t="n">
+        <v>26.4432</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.1822</v>
+        <v>17.4754</v>
       </c>
       <c r="C13" t="n">
-        <v>23.2397</v>
+        <v>24.1665</v>
       </c>
       <c r="D13" t="n">
-        <v>35.3566</v>
+        <v>35.1901</v>
       </c>
       <c r="E13" t="n">
-        <v>44.0871</v>
+        <v>35.8477</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20.0681</v>
+      </c>
+      <c r="G13" t="n">
+        <v>25.7381</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7938</v>
+        <v>16.9579</v>
       </c>
       <c r="C14" t="n">
-        <v>23.6002</v>
+        <v>24.2659</v>
       </c>
       <c r="D14" t="n">
-        <v>34.1658</v>
+        <v>34.2108</v>
       </c>
       <c r="E14" t="n">
-        <v>42.4775</v>
+        <v>34.4988</v>
+      </c>
+      <c r="F14" t="n">
+        <v>19.1786</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24.5534</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2744</v>
+        <v>17.6946</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5028</v>
+        <v>24.562</v>
       </c>
       <c r="D15" t="n">
-        <v>34.5515</v>
+        <v>34.222</v>
       </c>
       <c r="E15" t="n">
-        <v>42.2508</v>
+        <v>34.5577</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.6039</v>
+      </c>
+      <c r="G15" t="n">
+        <v>23.0095</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9567</v>
+        <v>17.5349</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3072</v>
+        <v>24.7753</v>
       </c>
       <c r="D16" t="n">
-        <v>34.186</v>
+        <v>33.4216</v>
       </c>
       <c r="E16" t="n">
-        <v>42.8624</v>
+        <v>34.7264</v>
+      </c>
+      <c r="F16" t="n">
+        <v>19.3025</v>
+      </c>
+      <c r="G16" t="n">
+        <v>23.5029</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9063</v>
+        <v>17.3048</v>
       </c>
       <c r="C17" t="n">
-        <v>23.7332</v>
+        <v>24.8722</v>
       </c>
       <c r="D17" t="n">
-        <v>33.7706</v>
+        <v>34.0264</v>
       </c>
       <c r="E17" t="n">
-        <v>41.8008</v>
+        <v>34.3876</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.203</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22.7567</v>
       </c>
     </row>
   </sheetData>
@@ -6347,10 +8647,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6379,22 +8679,38 @@
           <t>boost::concurrent_flat_map bulk</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_node_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.27314</v>
+        <v>5.25393</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28693</v>
+        <v>6.28733</v>
       </c>
       <c r="D2" t="n">
-        <v>6.4258</v>
+        <v>6.42516</v>
       </c>
       <c r="E2" t="n">
-        <v>7.62198</v>
+        <v>6.10666</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.89122</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6.84295</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.53547</v>
+        <v>6.82104</v>
       </c>
       <c r="C3" t="n">
-        <v>7.33723</v>
+        <v>7.52675</v>
       </c>
       <c r="D3" t="n">
-        <v>9.56935</v>
+        <v>9.59193</v>
       </c>
       <c r="E3" t="n">
-        <v>11.2188</v>
+        <v>9.540929999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.71514</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10.2701</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.007949999999999</v>
+        <v>8.649430000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>8.99582</v>
+        <v>9.675140000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>13.0764</v>
+        <v>13.248</v>
       </c>
       <c r="E4" t="n">
-        <v>15.3221</v>
+        <v>13.4951</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10.6779</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.1371</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.865259999999999</v>
+        <v>10.4902</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8137</v>
+        <v>11.927</v>
       </c>
       <c r="D5" t="n">
-        <v>16.6783</v>
+        <v>16.8794</v>
       </c>
       <c r="E5" t="n">
-        <v>19.7726</v>
+        <v>17.3574</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.5823</v>
+      </c>
+      <c r="G5" t="n">
+        <v>17.9405</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7677</v>
+        <v>12.3238</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3875</v>
+        <v>14.2365</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4164</v>
+        <v>20.5262</v>
       </c>
       <c r="E6" t="n">
-        <v>24.2446</v>
+        <v>21.2609</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.381</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.5883</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7554</v>
+        <v>14.1339</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7427</v>
+        <v>16.5943</v>
       </c>
       <c r="D7" t="n">
-        <v>24.0633</v>
+        <v>24.1744</v>
       </c>
       <c r="E7" t="n">
-        <v>28.6565</v>
+        <v>25.0869</v>
+      </c>
+      <c r="F7" t="n">
+        <v>19.1859</v>
+      </c>
+      <c r="G7" t="n">
+        <v>25.231</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7791</v>
+        <v>16.0205</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7441</v>
+        <v>19.1366</v>
       </c>
       <c r="D8" t="n">
-        <v>27.6241</v>
+        <v>27.9154</v>
       </c>
       <c r="E8" t="n">
-        <v>32.9594</v>
+        <v>28.9355</v>
+      </c>
+      <c r="F8" t="n">
+        <v>21.95</v>
+      </c>
+      <c r="G8" t="n">
+        <v>28.7064</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1798</v>
+        <v>18.5491</v>
       </c>
       <c r="C9" t="n">
-        <v>19.8271</v>
+        <v>22.0847</v>
       </c>
       <c r="D9" t="n">
-        <v>32.0942</v>
+        <v>32.5803</v>
       </c>
       <c r="E9" t="n">
-        <v>37.7682</v>
+        <v>33.5069</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.3487</v>
+      </c>
+      <c r="G9" t="n">
+        <v>32.844</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5138</v>
+        <v>17.753</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0601</v>
+        <v>20.6772</v>
       </c>
       <c r="D10" t="n">
-        <v>29.7953</v>
+        <v>30.3956</v>
       </c>
       <c r="E10" t="n">
-        <v>35.3732</v>
+        <v>30.8766</v>
+      </c>
+      <c r="F10" t="n">
+        <v>23.5729</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30.5691</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2342</v>
+        <v>17.7314</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3809</v>
+        <v>20.4121</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5563</v>
+        <v>29.943</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5364</v>
+        <v>30.5317</v>
+      </c>
+      <c r="F11" t="n">
+        <v>23.5231</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30.2303</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.2521</v>
+        <v>17.8442</v>
       </c>
       <c r="C12" t="n">
-        <v>19.6898</v>
+        <v>20.8057</v>
       </c>
       <c r="D12" t="n">
-        <v>29.5607</v>
+        <v>30.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>34.6691</v>
+        <v>30.735</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.5136</v>
+      </c>
+      <c r="G12" t="n">
+        <v>29.8198</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.0428</v>
+        <v>17.8926</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4855</v>
+        <v>20.9403</v>
       </c>
       <c r="D13" t="n">
-        <v>30.6364</v>
+        <v>30.7096</v>
       </c>
       <c r="E13" t="n">
-        <v>35.9637</v>
+        <v>31.4993</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23.5799</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30.3903</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.8117</v>
+        <v>17.4179</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6913</v>
+        <v>21.0407</v>
       </c>
       <c r="D14" t="n">
-        <v>29.5934</v>
+        <v>29.6534</v>
       </c>
       <c r="E14" t="n">
-        <v>34.6006</v>
+        <v>30.206</v>
+      </c>
+      <c r="F14" t="n">
+        <v>22.3988</v>
+      </c>
+      <c r="G14" t="n">
+        <v>28.3225</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.8746</v>
+        <v>18.0677</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6449</v>
+        <v>21.2098</v>
       </c>
       <c r="D15" t="n">
-        <v>30.2348</v>
+        <v>30.289</v>
       </c>
       <c r="E15" t="n">
-        <v>35.0713</v>
+        <v>31.085</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22.8117</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28.2634</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.9958</v>
+        <v>18.0216</v>
       </c>
       <c r="C16" t="n">
-        <v>19.7434</v>
+        <v>21.4692</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1976</v>
+        <v>30.0008</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5226</v>
+        <v>30.8099</v>
+      </c>
+      <c r="F16" t="n">
+        <v>22.5683</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28.8185</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.8711</v>
+        <v>17.7381</v>
       </c>
       <c r="C17" t="n">
-        <v>19.6924</v>
+        <v>21.6816</v>
       </c>
       <c r="D17" t="n">
-        <v>29.8308</v>
+        <v>30.036</v>
       </c>
       <c r="E17" t="n">
-        <v>34.6319</v>
+        <v>30.4086</v>
+      </c>
+      <c r="F17" t="n">
+        <v>22.3258</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28.1962</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.20637</v>
+        <v>5.2081</v>
       </c>
       <c r="C2" t="n">
-        <v>5.64418</v>
+        <v>5.65641</v>
       </c>
       <c r="D2" t="n">
-        <v>5.91685</v>
+        <v>5.91953</v>
       </c>
       <c r="E2" t="n">
-        <v>5.58791</v>
+        <v>5.58559</v>
       </c>
       <c r="F2" t="n">
-        <v>4.58329</v>
+        <v>4.58186</v>
       </c>
       <c r="G2" t="n">
-        <v>6.36476</v>
+        <v>6.35783</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.35407</v>
+        <v>6.20108</v>
       </c>
       <c r="C3" t="n">
-        <v>6.85349</v>
+        <v>6.76277</v>
       </c>
       <c r="D3" t="n">
-        <v>8.87867</v>
+        <v>8.79804</v>
       </c>
       <c r="E3" t="n">
-        <v>8.91126</v>
+        <v>8.822380000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>6.99983</v>
+        <v>6.92075</v>
       </c>
       <c r="G3" t="n">
-        <v>9.30791</v>
+        <v>9.223879999999999</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.79426</v>
+        <v>7.7986</v>
       </c>
       <c r="C4" t="n">
-        <v>8.850720000000001</v>
+        <v>8.97171</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1069</v>
+        <v>12.1402</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5149</v>
+        <v>12.5125</v>
       </c>
       <c r="F4" t="n">
-        <v>9.464740000000001</v>
+        <v>9.471</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5215</v>
+        <v>12.5825</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.25854</v>
+        <v>9.2781</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0231</v>
+        <v>11.0505</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1433</v>
+        <v>15.1552</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9899</v>
+        <v>15.9461</v>
       </c>
       <c r="F5" t="n">
-        <v>11.7667</v>
+        <v>11.8183</v>
       </c>
       <c r="G5" t="n">
-        <v>15.5676</v>
+        <v>15.6587</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8738</v>
+        <v>10.9491</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3394</v>
+        <v>13.3876</v>
       </c>
       <c r="D6" t="n">
-        <v>18.0901</v>
+        <v>18.2512</v>
       </c>
       <c r="E6" t="n">
-        <v>19.4576</v>
+        <v>19.4413</v>
       </c>
       <c r="F6" t="n">
-        <v>13.9192</v>
+        <v>13.9463</v>
       </c>
       <c r="G6" t="n">
-        <v>18.5383</v>
+        <v>18.6404</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.575</v>
+        <v>12.668</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7328</v>
+        <v>15.8521</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3872</v>
+        <v>21.4067</v>
       </c>
       <c r="E7" t="n">
-        <v>22.9195</v>
+        <v>22.9493</v>
       </c>
       <c r="F7" t="n">
-        <v>16.0399</v>
+        <v>15.9287</v>
       </c>
       <c r="G7" t="n">
-        <v>21.1683</v>
+        <v>21.2497</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9144</v>
+        <v>13.9714</v>
       </c>
       <c r="C8" t="n">
-        <v>18.0007</v>
+        <v>18.216</v>
       </c>
       <c r="D8" t="n">
-        <v>24.0319</v>
+        <v>23.9357</v>
       </c>
       <c r="E8" t="n">
-        <v>26.2168</v>
+        <v>26.228</v>
       </c>
       <c r="F8" t="n">
-        <v>18.3586</v>
+        <v>18.3305</v>
       </c>
       <c r="G8" t="n">
-        <v>23.973</v>
+        <v>23.9312</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.477</v>
+        <v>16.455</v>
       </c>
       <c r="C9" t="n">
-        <v>20.7267</v>
+        <v>21.1205</v>
       </c>
       <c r="D9" t="n">
-        <v>28.0819</v>
+        <v>28.1271</v>
       </c>
       <c r="E9" t="n">
-        <v>29.9552</v>
+        <v>30.0911</v>
       </c>
       <c r="F9" t="n">
-        <v>20.8787</v>
+        <v>20.7655</v>
       </c>
       <c r="G9" t="n">
-        <v>27.0823</v>
+        <v>26.8548</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.7751</v>
+        <v>14.1273</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6222</v>
+        <v>17.5427</v>
       </c>
       <c r="D10" t="n">
-        <v>22.988</v>
+        <v>22.9763</v>
       </c>
       <c r="E10" t="n">
-        <v>23.8432</v>
+        <v>23.8769</v>
       </c>
       <c r="F10" t="n">
-        <v>16.8394</v>
+        <v>16.8495</v>
       </c>
       <c r="G10" t="n">
-        <v>22.4653</v>
+        <v>22.1818</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1932</v>
+        <v>14.1136</v>
       </c>
       <c r="C11" t="n">
-        <v>17.6324</v>
+        <v>18.1613</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5301</v>
+        <v>23.0165</v>
       </c>
       <c r="E11" t="n">
-        <v>24.4394</v>
+        <v>24.3539</v>
       </c>
       <c r="F11" t="n">
-        <v>17.372</v>
+        <v>17.4159</v>
       </c>
       <c r="G11" t="n">
-        <v>22.4244</v>
+        <v>22.1725</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.5414</v>
+        <v>14.6534</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7785</v>
+        <v>18.8588</v>
       </c>
       <c r="D12" t="n">
-        <v>24.8642</v>
+        <v>24.3006</v>
       </c>
       <c r="E12" t="n">
-        <v>26.3673</v>
+        <v>25.8378</v>
       </c>
       <c r="F12" t="n">
-        <v>17.9634</v>
+        <v>17.8567</v>
       </c>
       <c r="G12" t="n">
-        <v>22.7327</v>
+        <v>23.462</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.1032</v>
+        <v>15.0624</v>
       </c>
       <c r="C13" t="n">
-        <v>19.3364</v>
+        <v>19.49</v>
       </c>
       <c r="D13" t="n">
-        <v>25.2192</v>
+        <v>25.1498</v>
       </c>
       <c r="E13" t="n">
-        <v>26.0504</v>
+        <v>25.8306</v>
       </c>
       <c r="F13" t="n">
-        <v>18.644</v>
+        <v>18.3414</v>
       </c>
       <c r="G13" t="n">
-        <v>22.9573</v>
+        <v>23.3721</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9065</v>
+        <v>14.9435</v>
       </c>
       <c r="C14" t="n">
-        <v>19.3369</v>
+        <v>19.366</v>
       </c>
       <c r="D14" t="n">
-        <v>24.9058</v>
+        <v>24.4867</v>
       </c>
       <c r="E14" t="n">
-        <v>25.5847</v>
+        <v>25.9017</v>
       </c>
       <c r="F14" t="n">
-        <v>17.9874</v>
+        <v>18.4627</v>
       </c>
       <c r="G14" t="n">
-        <v>22.1489</v>
+        <v>21.7813</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1566</v>
+        <v>14.9963</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5991</v>
+        <v>19.677</v>
       </c>
       <c r="D15" t="n">
-        <v>24.7679</v>
+        <v>24.5577</v>
       </c>
       <c r="E15" t="n">
-        <v>25.6346</v>
+        <v>25.2303</v>
       </c>
       <c r="F15" t="n">
-        <v>17.3533</v>
+        <v>17.9124</v>
       </c>
       <c r="G15" t="n">
-        <v>22.849</v>
+        <v>21.7706</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4352</v>
+        <v>15.4511</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9386</v>
+        <v>19.8758</v>
       </c>
       <c r="D16" t="n">
-        <v>24.702</v>
+        <v>25.0386</v>
       </c>
       <c r="E16" t="n">
-        <v>25.5772</v>
+        <v>25.529</v>
       </c>
       <c r="F16" t="n">
-        <v>18.0135</v>
+        <v>17.9982</v>
       </c>
       <c r="G16" t="n">
-        <v>21.3772</v>
+        <v>21.9443</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4811</v>
+        <v>15.4734</v>
       </c>
       <c r="C17" t="n">
-        <v>20.194</v>
+        <v>20.2312</v>
       </c>
       <c r="D17" t="n">
-        <v>24.2781</v>
+        <v>23.7364</v>
       </c>
       <c r="E17" t="n">
-        <v>25.9939</v>
+        <v>27.0159</v>
       </c>
       <c r="F17" t="n">
-        <v>17.5963</v>
+        <v>17.9065</v>
       </c>
       <c r="G17" t="n">
-        <v>21.4935</v>
+        <v>21.9194</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.63414</v>
+        <v>8.663259999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.989710000000001</v>
+        <v>9.93439</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4785</v>
+        <v>10.4628</v>
       </c>
       <c r="E2" t="n">
-        <v>8.51932</v>
+        <v>8.5177</v>
       </c>
       <c r="F2" t="n">
-        <v>6.8049</v>
+        <v>6.83144</v>
       </c>
       <c r="G2" t="n">
-        <v>11.496</v>
+        <v>11.5997</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.34215</v>
+        <v>8.49452</v>
       </c>
       <c r="C3" t="n">
-        <v>9.247769999999999</v>
+        <v>9.40413</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9692</v>
+        <v>13.0569</v>
       </c>
       <c r="E3" t="n">
-        <v>12.046</v>
+        <v>12.1169</v>
       </c>
       <c r="F3" t="n">
-        <v>9.3354</v>
+        <v>9.447749999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>13.6422</v>
+        <v>13.7305</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1737</v>
+        <v>10.1544</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5764</v>
+        <v>11.5671</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0979</v>
+        <v>17.0792</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6421</v>
+        <v>16.6377</v>
       </c>
       <c r="F4" t="n">
-        <v>12.4481</v>
+        <v>12.4858</v>
       </c>
       <c r="G4" t="n">
-        <v>17.7617</v>
+        <v>17.7606</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.9395</v>
+        <v>11.9936</v>
       </c>
       <c r="C5" t="n">
-        <v>14.0386</v>
+        <v>14.023</v>
       </c>
       <c r="D5" t="n">
-        <v>20.9842</v>
+        <v>21.008</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0217</v>
+        <v>21.0722</v>
       </c>
       <c r="F5" t="n">
-        <v>15.2991</v>
+        <v>15.3618</v>
       </c>
       <c r="G5" t="n">
-        <v>21.7196</v>
+        <v>21.6573</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9614</v>
+        <v>13.9054</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9952</v>
+        <v>16.9444</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9416</v>
+        <v>24.8032</v>
       </c>
       <c r="E6" t="n">
-        <v>25.4754</v>
+        <v>25.3395</v>
       </c>
       <c r="F6" t="n">
-        <v>18.0176</v>
+        <v>17.9931</v>
       </c>
       <c r="G6" t="n">
-        <v>25.285</v>
+        <v>25.216</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9988</v>
+        <v>16.0053</v>
       </c>
       <c r="C7" t="n">
-        <v>20.0012</v>
+        <v>19.8978</v>
       </c>
       <c r="D7" t="n">
-        <v>29.2226</v>
+        <v>29.2125</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7743</v>
+        <v>29.6685</v>
       </c>
       <c r="F7" t="n">
-        <v>20.7964</v>
+        <v>20.6463</v>
       </c>
       <c r="G7" t="n">
-        <v>28.5294</v>
+        <v>28.5957</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.6886</v>
+        <v>17.6981</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9961</v>
+        <v>22.9178</v>
       </c>
       <c r="D8" t="n">
-        <v>32.3354</v>
+        <v>32.4822</v>
       </c>
       <c r="E8" t="n">
-        <v>33.6971</v>
+        <v>33.7223</v>
       </c>
       <c r="F8" t="n">
-        <v>23.1952</v>
+        <v>23.1169</v>
       </c>
       <c r="G8" t="n">
-        <v>32.1428</v>
+        <v>31.7333</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.767</v>
+        <v>20.793</v>
       </c>
       <c r="C9" t="n">
-        <v>26.6071</v>
+        <v>26.3127</v>
       </c>
       <c r="D9" t="n">
-        <v>37.8762</v>
+        <v>37.4859</v>
       </c>
       <c r="E9" t="n">
-        <v>38.4881</v>
+        <v>38.3044</v>
       </c>
       <c r="F9" t="n">
-        <v>26.4531</v>
+        <v>25.9688</v>
       </c>
       <c r="G9" t="n">
-        <v>35.5701</v>
+        <v>35.5834</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.0899</v>
+        <v>17.8105</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1301</v>
+        <v>23.1935</v>
       </c>
       <c r="D10" t="n">
-        <v>32.3826</v>
+        <v>32.1496</v>
       </c>
       <c r="E10" t="n">
-        <v>31.8064</v>
+        <v>31.4816</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9535</v>
+        <v>21.5464</v>
       </c>
       <c r="G10" t="n">
-        <v>30.6207</v>
+        <v>30.2305</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6594</v>
+        <v>17.6847</v>
       </c>
       <c r="C11" t="n">
-        <v>23.0783</v>
+        <v>22.8066</v>
       </c>
       <c r="D11" t="n">
-        <v>32.0668</v>
+        <v>33.1185</v>
       </c>
       <c r="E11" t="n">
-        <v>31.3251</v>
+        <v>31.3776</v>
       </c>
       <c r="F11" t="n">
-        <v>22.2163</v>
+        <v>22.3858</v>
       </c>
       <c r="G11" t="n">
-        <v>29.7007</v>
+        <v>30.2411</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.2887</v>
+        <v>18.2619</v>
       </c>
       <c r="C12" t="n">
-        <v>23.498</v>
+        <v>23.6633</v>
       </c>
       <c r="D12" t="n">
-        <v>32.8</v>
+        <v>32.4895</v>
       </c>
       <c r="E12" t="n">
-        <v>32.4116</v>
+        <v>33.2526</v>
       </c>
       <c r="F12" t="n">
-        <v>22.9087</v>
+        <v>22.9038</v>
       </c>
       <c r="G12" t="n">
-        <v>30.0338</v>
+        <v>29.8382</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.086</v>
+        <v>19.1324</v>
       </c>
       <c r="C13" t="n">
-        <v>24.3293</v>
+        <v>23.9505</v>
       </c>
       <c r="D13" t="n">
-        <v>34.4365</v>
+        <v>32.4914</v>
       </c>
       <c r="E13" t="n">
-        <v>32.4061</v>
+        <v>33.0906</v>
       </c>
       <c r="F13" t="n">
-        <v>22.8885</v>
+        <v>23.0347</v>
       </c>
       <c r="G13" t="n">
-        <v>29.4743</v>
+        <v>29.714</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.8007</v>
+        <v>18.796</v>
       </c>
       <c r="C14" t="n">
-        <v>23.8706</v>
+        <v>24.1437</v>
       </c>
       <c r="D14" t="n">
-        <v>33.4721</v>
+        <v>32.8841</v>
       </c>
       <c r="E14" t="n">
-        <v>32.5981</v>
+        <v>32.1803</v>
       </c>
       <c r="F14" t="n">
-        <v>23.1249</v>
+        <v>22.7696</v>
       </c>
       <c r="G14" t="n">
-        <v>27.8387</v>
+        <v>29.251</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.5851</v>
+        <v>19.0604</v>
       </c>
       <c r="C15" t="n">
-        <v>24.4005</v>
+        <v>24.2191</v>
       </c>
       <c r="D15" t="n">
-        <v>33.1577</v>
+        <v>32.1076</v>
       </c>
       <c r="E15" t="n">
-        <v>32.9582</v>
+        <v>32.698</v>
       </c>
       <c r="F15" t="n">
-        <v>22.0132</v>
+        <v>22.3079</v>
       </c>
       <c r="G15" t="n">
-        <v>28.4923</v>
+        <v>27.5285</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.114</v>
+        <v>19.0087</v>
       </c>
       <c r="C16" t="n">
-        <v>24.8663</v>
+        <v>24.7393</v>
       </c>
       <c r="D16" t="n">
-        <v>33.5539</v>
+        <v>33.688</v>
       </c>
       <c r="E16" t="n">
-        <v>32.4378</v>
+        <v>32.3791</v>
       </c>
       <c r="F16" t="n">
-        <v>22.8467</v>
+        <v>22.7008</v>
       </c>
       <c r="G16" t="n">
-        <v>28.1044</v>
+        <v>28.8802</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.1288</v>
+        <v>19.3292</v>
       </c>
       <c r="C17" t="n">
-        <v>25.1223</v>
+        <v>25.212</v>
       </c>
       <c r="D17" t="n">
-        <v>32.993</v>
+        <v>31.6841</v>
       </c>
       <c r="E17" t="n">
-        <v>32.6633</v>
+        <v>32.3873</v>
       </c>
       <c r="F17" t="n">
-        <v>21.2308</v>
+        <v>21.5435</v>
       </c>
       <c r="G17" t="n">
-        <v>28.7476</v>
+        <v>26.5471</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41849</v>
+        <v>6.41198</v>
       </c>
       <c r="C2" t="n">
-        <v>6.52936</v>
+        <v>6.52003</v>
       </c>
       <c r="D2" t="n">
-        <v>6.79659</v>
+        <v>6.79486</v>
       </c>
       <c r="E2" t="n">
-        <v>6.30598</v>
+        <v>6.30468</v>
       </c>
       <c r="F2" t="n">
-        <v>5.29024</v>
+        <v>5.28738</v>
       </c>
       <c r="G2" t="n">
-        <v>7.38204</v>
+        <v>7.3773</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04533</v>
+        <v>7.15245</v>
       </c>
       <c r="C3" t="n">
-        <v>7.44725</v>
+        <v>7.55548</v>
       </c>
       <c r="D3" t="n">
-        <v>9.70983</v>
+        <v>9.809609999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.548769999999999</v>
+        <v>9.59015</v>
       </c>
       <c r="F3" t="n">
-        <v>7.81255</v>
+        <v>7.83767</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2845</v>
+        <v>10.4248</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.866059999999999</v>
+        <v>8.831770000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.82193</v>
+        <v>9.67521</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4939</v>
+        <v>13.4784</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5402</v>
+        <v>13.5086</v>
       </c>
       <c r="F4" t="n">
-        <v>10.8804</v>
+        <v>10.784</v>
       </c>
       <c r="G4" t="n">
-        <v>14.3765</v>
+        <v>14.3634</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5692</v>
+        <v>10.5384</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1013</v>
+        <v>12.0973</v>
       </c>
       <c r="D5" t="n">
-        <v>17.1826</v>
+        <v>17.1658</v>
       </c>
       <c r="E5" t="n">
-        <v>17.4102</v>
+        <v>17.4277</v>
       </c>
       <c r="F5" t="n">
-        <v>13.7599</v>
+        <v>13.8068</v>
       </c>
       <c r="G5" t="n">
-        <v>18.2617</v>
+        <v>18.2629</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3616</v>
+        <v>12.3843</v>
       </c>
       <c r="C6" t="n">
-        <v>14.5224</v>
+        <v>14.4007</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7214</v>
+        <v>20.7023</v>
       </c>
       <c r="E6" t="n">
-        <v>21.2101</v>
+        <v>21.1336</v>
       </c>
       <c r="F6" t="n">
-        <v>16.6605</v>
+        <v>16.6053</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9285</v>
+        <v>21.8598</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1358</v>
+        <v>14.2509</v>
       </c>
       <c r="C7" t="n">
-        <v>16.8991</v>
+        <v>16.8652</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3018</v>
+        <v>24.5642</v>
       </c>
       <c r="E7" t="n">
-        <v>24.8477</v>
+        <v>25.0897</v>
       </c>
       <c r="F7" t="n">
-        <v>19.2947</v>
+        <v>19.2098</v>
       </c>
       <c r="G7" t="n">
-        <v>25.5718</v>
+        <v>25.1895</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.975</v>
+        <v>15.9332</v>
       </c>
       <c r="C8" t="n">
-        <v>19.228</v>
+        <v>19.2597</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9388</v>
+        <v>27.9384</v>
       </c>
       <c r="E8" t="n">
-        <v>28.6983</v>
+        <v>28.6729</v>
       </c>
       <c r="F8" t="n">
-        <v>22.0851</v>
+        <v>22.0667</v>
       </c>
       <c r="G8" t="n">
-        <v>28.8413</v>
+        <v>28.7933</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1552</v>
+        <v>18.1698</v>
       </c>
       <c r="C9" t="n">
-        <v>22.088</v>
+        <v>22.1571</v>
       </c>
       <c r="D9" t="n">
-        <v>32.3855</v>
+        <v>32.4065</v>
       </c>
       <c r="E9" t="n">
-        <v>32.9716</v>
+        <v>33.1368</v>
       </c>
       <c r="F9" t="n">
-        <v>25.5108</v>
+        <v>25.5167</v>
       </c>
       <c r="G9" t="n">
-        <v>32.384</v>
+        <v>32.9518</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.366</v>
+        <v>16.1852</v>
       </c>
       <c r="C10" t="n">
-        <v>19.0383</v>
+        <v>19.1232</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2502</v>
+        <v>26.9296</v>
       </c>
       <c r="E10" t="n">
-        <v>26.5573</v>
+        <v>26.8404</v>
       </c>
       <c r="F10" t="n">
-        <v>20.9276</v>
+        <v>20.8338</v>
       </c>
       <c r="G10" t="n">
-        <v>26.8218</v>
+        <v>26.7652</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9884</v>
+        <v>15.959</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0777</v>
+        <v>19.2833</v>
       </c>
       <c r="D11" t="n">
-        <v>27.182</v>
+        <v>27.509</v>
       </c>
       <c r="E11" t="n">
-        <v>27.307</v>
+        <v>26.9285</v>
       </c>
       <c r="F11" t="n">
-        <v>21.5167</v>
+        <v>21.4612</v>
       </c>
       <c r="G11" t="n">
-        <v>27.9105</v>
+        <v>26.5649</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.4086</v>
+        <v>16.3703</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9549</v>
+        <v>19.9629</v>
       </c>
       <c r="D12" t="n">
-        <v>28.2645</v>
+        <v>27.8343</v>
       </c>
       <c r="E12" t="n">
-        <v>27.7963</v>
+        <v>28.2839</v>
       </c>
       <c r="F12" t="n">
-        <v>22.4814</v>
+        <v>22.44</v>
       </c>
       <c r="G12" t="n">
-        <v>27.4377</v>
+        <v>27.53</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.0495</v>
+        <v>16.7956</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6733</v>
+        <v>20.0809</v>
       </c>
       <c r="D13" t="n">
-        <v>28.9788</v>
+        <v>29.0779</v>
       </c>
       <c r="E13" t="n">
-        <v>28.9185</v>
+        <v>28.6282</v>
       </c>
       <c r="F13" t="n">
-        <v>23.0509</v>
+        <v>23.1677</v>
       </c>
       <c r="G13" t="n">
-        <v>28.1932</v>
+        <v>27.4876</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7065</v>
+        <v>16.9111</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3135</v>
+        <v>20.2448</v>
       </c>
       <c r="D14" t="n">
-        <v>28.235</v>
+        <v>27.7568</v>
       </c>
       <c r="E14" t="n">
-        <v>27.034</v>
+        <v>28.1279</v>
       </c>
       <c r="F14" t="n">
-        <v>22.3137</v>
+        <v>22.5978</v>
       </c>
       <c r="G14" t="n">
-        <v>27.4446</v>
+        <v>27.0774</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.2246</v>
+        <v>17.04</v>
       </c>
       <c r="C15" t="n">
-        <v>20.5046</v>
+        <v>20.4265</v>
       </c>
       <c r="D15" t="n">
-        <v>28.3742</v>
+        <v>27.52</v>
       </c>
       <c r="E15" t="n">
-        <v>27.348</v>
+        <v>27.0489</v>
       </c>
       <c r="F15" t="n">
-        <v>22.6469</v>
+        <v>22.8673</v>
       </c>
       <c r="G15" t="n">
-        <v>27.3838</v>
+        <v>26.7377</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.1994</v>
+        <v>17.3943</v>
       </c>
       <c r="C16" t="n">
-        <v>20.9581</v>
+        <v>21.0781</v>
       </c>
       <c r="D16" t="n">
-        <v>28.5249</v>
+        <v>28.2508</v>
       </c>
       <c r="E16" t="n">
-        <v>27.0627</v>
+        <v>27.7925</v>
       </c>
       <c r="F16" t="n">
-        <v>22.726</v>
+        <v>22.3191</v>
       </c>
       <c r="G16" t="n">
-        <v>26.8528</v>
+        <v>26.7924</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.4574</v>
+        <v>17.5431</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4769</v>
+        <v>21.5151</v>
       </c>
       <c r="D17" t="n">
-        <v>28.7925</v>
+        <v>27.6035</v>
       </c>
       <c r="E17" t="n">
-        <v>27.7821</v>
+        <v>27.0581</v>
       </c>
       <c r="F17" t="n">
-        <v>21.6351</v>
+        <v>22.33</v>
       </c>
       <c r="G17" t="n">
-        <v>25.0778</v>
+        <v>27.1043</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0402</v>
+        <v>3.00786</v>
       </c>
       <c r="C2" t="n">
-        <v>5.0144</v>
+        <v>4.98892</v>
       </c>
       <c r="D2" t="n">
-        <v>5.13221</v>
+        <v>5.11523</v>
       </c>
       <c r="E2" t="n">
-        <v>5.07211</v>
+        <v>5.06051</v>
       </c>
       <c r="F2" t="n">
-        <v>3.59631</v>
+        <v>3.5811</v>
       </c>
       <c r="G2" t="n">
-        <v>4.93921</v>
+        <v>4.88063</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.89452</v>
+        <v>4.9018</v>
       </c>
       <c r="C3" t="n">
-        <v>6.64935</v>
+        <v>6.62575</v>
       </c>
       <c r="D3" t="n">
-        <v>8.328519999999999</v>
+        <v>8.425689999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.658289999999999</v>
+        <v>8.66803</v>
       </c>
       <c r="F3" t="n">
-        <v>6.12097</v>
+        <v>6.01152</v>
       </c>
       <c r="G3" t="n">
-        <v>8.100949999999999</v>
+        <v>7.97878</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.60954</v>
+        <v>6.54522</v>
       </c>
       <c r="C4" t="n">
-        <v>8.743819999999999</v>
+        <v>8.7281</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6887</v>
+        <v>11.6807</v>
       </c>
       <c r="E4" t="n">
-        <v>12.3399</v>
+        <v>12.3302</v>
       </c>
       <c r="F4" t="n">
-        <v>8.392099999999999</v>
+        <v>8.448549999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.1664</v>
+        <v>11.171</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.09165</v>
+        <v>8.177720000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8683</v>
+        <v>10.8884</v>
       </c>
       <c r="D5" t="n">
-        <v>14.8041</v>
+        <v>14.7992</v>
       </c>
       <c r="E5" t="n">
-        <v>15.8753</v>
+        <v>15.9041</v>
       </c>
       <c r="F5" t="n">
-        <v>10.6868</v>
+        <v>10.7272</v>
       </c>
       <c r="G5" t="n">
-        <v>14.1138</v>
+        <v>14.1272</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.70261</v>
+        <v>9.70058</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0617</v>
+        <v>13.0625</v>
       </c>
       <c r="D6" t="n">
-        <v>17.771</v>
+        <v>17.8436</v>
       </c>
       <c r="E6" t="n">
-        <v>19.4153</v>
+        <v>19.423</v>
       </c>
       <c r="F6" t="n">
-        <v>12.6473</v>
+        <v>12.6005</v>
       </c>
       <c r="G6" t="n">
-        <v>16.6993</v>
+        <v>16.7546</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.1479</v>
+        <v>11.2013</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2865</v>
+        <v>15.3365</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7397</v>
+        <v>20.8406</v>
       </c>
       <c r="E7" t="n">
-        <v>22.8874</v>
+        <v>22.9409</v>
       </c>
       <c r="F7" t="n">
-        <v>14.4609</v>
+        <v>14.6597</v>
       </c>
       <c r="G7" t="n">
-        <v>19.2277</v>
+        <v>19.1884</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.5843</v>
+        <v>12.6809</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6974</v>
+        <v>17.6888</v>
       </c>
       <c r="D8" t="n">
-        <v>23.7464</v>
+        <v>23.6685</v>
       </c>
       <c r="E8" t="n">
-        <v>26.3305</v>
+        <v>26.3381</v>
       </c>
       <c r="F8" t="n">
-        <v>16.2816</v>
+        <v>16.4251</v>
       </c>
       <c r="G8" t="n">
-        <v>21.4755</v>
+        <v>21.5588</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.7915</v>
+        <v>14.8352</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8542</v>
+        <v>20.8669</v>
       </c>
       <c r="D9" t="n">
-        <v>28.2234</v>
+        <v>28.244</v>
       </c>
       <c r="E9" t="n">
-        <v>30.3156</v>
+        <v>30.2905</v>
       </c>
       <c r="F9" t="n">
-        <v>18.6477</v>
+        <v>18.7127</v>
       </c>
       <c r="G9" t="n">
-        <v>23.795</v>
+        <v>24.0073</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1753</v>
+        <v>14.1589</v>
       </c>
       <c r="C10" t="n">
-        <v>19.3941</v>
+        <v>19.2497</v>
       </c>
       <c r="D10" t="n">
-        <v>26.5088</v>
+        <v>26.253</v>
       </c>
       <c r="E10" t="n">
-        <v>28.0924</v>
+        <v>28.0079</v>
       </c>
       <c r="F10" t="n">
-        <v>17.7215</v>
+        <v>17.7493</v>
       </c>
       <c r="G10" t="n">
-        <v>22.4365</v>
+        <v>22.4583</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1959</v>
+        <v>14.0483</v>
       </c>
       <c r="C11" t="n">
-        <v>18.8</v>
+        <v>19.2085</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8927</v>
+        <v>25.837</v>
       </c>
       <c r="E11" t="n">
-        <v>27.3862</v>
+        <v>27.832</v>
       </c>
       <c r="F11" t="n">
-        <v>17.0985</v>
+        <v>17.6254</v>
       </c>
       <c r="G11" t="n">
-        <v>21.2206</v>
+        <v>22.0826</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1948</v>
+        <v>14.2472</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3037</v>
+        <v>19.3938</v>
       </c>
       <c r="D12" t="n">
-        <v>26.1695</v>
+        <v>26.2959</v>
       </c>
       <c r="E12" t="n">
-        <v>27.9565</v>
+        <v>27.9223</v>
       </c>
       <c r="F12" t="n">
-        <v>17.0996</v>
+        <v>17.2196</v>
       </c>
       <c r="G12" t="n">
-        <v>21.8081</v>
+        <v>21.9383</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4668</v>
+        <v>14.4893</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5877</v>
+        <v>19.6238</v>
       </c>
       <c r="D13" t="n">
-        <v>26.8142</v>
+        <v>26.8536</v>
       </c>
       <c r="E13" t="n">
-        <v>28.4476</v>
+        <v>28.2111</v>
       </c>
       <c r="F13" t="n">
-        <v>16.673</v>
+        <v>16.4887</v>
       </c>
       <c r="G13" t="n">
-        <v>20.4329</v>
+        <v>20.4036</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9222</v>
+        <v>13.8963</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6602</v>
+        <v>19.6933</v>
       </c>
       <c r="D14" t="n">
-        <v>25.3393</v>
+        <v>25.5815</v>
       </c>
       <c r="E14" t="n">
-        <v>27.5854</v>
+        <v>27.2279</v>
       </c>
       <c r="F14" t="n">
-        <v>16.1395</v>
+        <v>16.0975</v>
       </c>
       <c r="G14" t="n">
-        <v>19.918</v>
+        <v>19.478</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5059</v>
+        <v>14.5349</v>
       </c>
       <c r="C15" t="n">
-        <v>19.7916</v>
+        <v>19.8739</v>
       </c>
       <c r="D15" t="n">
-        <v>25.8486</v>
+        <v>26.6712</v>
       </c>
       <c r="E15" t="n">
-        <v>27.8224</v>
+        <v>28.0094</v>
       </c>
       <c r="F15" t="n">
-        <v>16.0852</v>
+        <v>16.2393</v>
       </c>
       <c r="G15" t="n">
-        <v>19.6138</v>
+        <v>20.0495</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4141</v>
+        <v>14.427</v>
       </c>
       <c r="C16" t="n">
-        <v>19.999</v>
+        <v>20.0099</v>
       </c>
       <c r="D16" t="n">
-        <v>26.1815</v>
+        <v>26.084</v>
       </c>
       <c r="E16" t="n">
-        <v>27.3545</v>
+        <v>27.6388</v>
       </c>
       <c r="F16" t="n">
-        <v>15.6165</v>
+        <v>15.3187</v>
       </c>
       <c r="G16" t="n">
-        <v>19.1398</v>
+        <v>19.4512</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2647</v>
+        <v>14.482</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1267</v>
+        <v>20.1712</v>
       </c>
       <c r="D17" t="n">
-        <v>25.6285</v>
+        <v>25.5638</v>
       </c>
       <c r="E17" t="n">
-        <v>27.3613</v>
+        <v>27.4327</v>
       </c>
       <c r="F17" t="n">
-        <v>15.2757</v>
+        <v>15.5815</v>
       </c>
       <c r="G17" t="n">
-        <v>18.5896</v>
+        <v>18.635</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.93113</v>
+        <v>3.958</v>
       </c>
       <c r="C2" t="n">
-        <v>8.155849999999999</v>
+        <v>8.112130000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>8.28852</v>
+        <v>8.267670000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>7.42854</v>
+        <v>7.40584</v>
       </c>
       <c r="F2" t="n">
-        <v>4.84296</v>
+        <v>4.84902</v>
       </c>
       <c r="G2" t="n">
-        <v>7.54922</v>
+        <v>7.52686</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.98421</v>
+        <v>6.07645</v>
       </c>
       <c r="C3" t="n">
-        <v>8.79627</v>
+        <v>8.917439999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.1956</v>
+        <v>12.235</v>
       </c>
       <c r="E3" t="n">
-        <v>11.7282</v>
+        <v>11.8004</v>
       </c>
       <c r="F3" t="n">
-        <v>7.73473</v>
+        <v>7.81166</v>
       </c>
       <c r="G3" t="n">
-        <v>11.1034</v>
+        <v>11.2106</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.15352</v>
+        <v>8.10895</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2851</v>
+        <v>11.2594</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4258</v>
+        <v>16.4411</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4433</v>
+        <v>16.4311</v>
       </c>
       <c r="F4" t="n">
-        <v>10.7987</v>
+        <v>10.8301</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2626</v>
+        <v>15.2555</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0495</v>
+        <v>10.0346</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7337</v>
+        <v>13.7566</v>
       </c>
       <c r="D5" t="n">
-        <v>20.419</v>
+        <v>20.3883</v>
       </c>
       <c r="E5" t="n">
-        <v>20.8808</v>
+        <v>20.8644</v>
       </c>
       <c r="F5" t="n">
-        <v>13.5633</v>
+        <v>13.4073</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9074</v>
+        <v>18.9116</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.8801</v>
+        <v>11.8729</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3099</v>
+        <v>16.3471</v>
       </c>
       <c r="D6" t="n">
-        <v>24.1817</v>
+        <v>24.3063</v>
       </c>
       <c r="E6" t="n">
-        <v>25.3463</v>
+        <v>25.3651</v>
       </c>
       <c r="F6" t="n">
-        <v>15.7722</v>
+        <v>16.0329</v>
       </c>
       <c r="G6" t="n">
-        <v>22.0125</v>
+        <v>22.043</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.756</v>
+        <v>13.6932</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0267</v>
+        <v>19.025</v>
       </c>
       <c r="D7" t="n">
-        <v>27.884</v>
+        <v>28.1332</v>
       </c>
       <c r="E7" t="n">
-        <v>29.6851</v>
+        <v>29.7863</v>
       </c>
       <c r="F7" t="n">
-        <v>18.0634</v>
+        <v>18.1231</v>
       </c>
       <c r="G7" t="n">
-        <v>25.0022</v>
+        <v>24.8058</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4114</v>
+        <v>15.4554</v>
       </c>
       <c r="C8" t="n">
-        <v>22.0577</v>
+        <v>22.127</v>
       </c>
       <c r="D8" t="n">
-        <v>31.941</v>
+        <v>32.0937</v>
       </c>
       <c r="E8" t="n">
-        <v>34.0523</v>
+        <v>34.0711</v>
       </c>
       <c r="F8" t="n">
-        <v>20.3096</v>
+        <v>20.3314</v>
       </c>
       <c r="G8" t="n">
-        <v>27.8307</v>
+        <v>27.6408</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.9972</v>
+        <v>18.0609</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8246</v>
+        <v>25.8666</v>
       </c>
       <c r="D9" t="n">
-        <v>38.2195</v>
+        <v>38.1519</v>
       </c>
       <c r="E9" t="n">
-        <v>39.3225</v>
+        <v>39.3111</v>
       </c>
       <c r="F9" t="n">
-        <v>23.0265</v>
+        <v>23.0389</v>
       </c>
       <c r="G9" t="n">
-        <v>30.511</v>
+        <v>30.5612</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.157</v>
+        <v>17.1971</v>
       </c>
       <c r="C10" t="n">
-        <v>23.5839</v>
+        <v>23.7721</v>
       </c>
       <c r="D10" t="n">
-        <v>34.9833</v>
+        <v>35.3977</v>
       </c>
       <c r="E10" t="n">
-        <v>35.7923</v>
+        <v>35.9467</v>
       </c>
       <c r="F10" t="n">
-        <v>21.6006</v>
+        <v>21.6212</v>
       </c>
       <c r="G10" t="n">
-        <v>28.4798</v>
+        <v>28.5795</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9961</v>
+        <v>16.9704</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0177</v>
+        <v>23.9665</v>
       </c>
       <c r="D11" t="n">
-        <v>34.956</v>
+        <v>34.9682</v>
       </c>
       <c r="E11" t="n">
-        <v>35.0835</v>
+        <v>35.4903</v>
       </c>
       <c r="F11" t="n">
-        <v>21.6365</v>
+        <v>21.566</v>
       </c>
       <c r="G11" t="n">
-        <v>28.187</v>
+        <v>27.9888</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.179</v>
+        <v>17.3269</v>
       </c>
       <c r="C12" t="n">
-        <v>23.9375</v>
+        <v>23.8693</v>
       </c>
       <c r="D12" t="n">
-        <v>34.042</v>
+        <v>35.0496</v>
       </c>
       <c r="E12" t="n">
-        <v>35.5425</v>
+        <v>35.8356</v>
       </c>
       <c r="F12" t="n">
-        <v>21.0131</v>
+        <v>21.2501</v>
       </c>
       <c r="G12" t="n">
-        <v>26.4432</v>
+        <v>26.8269</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.4754</v>
+        <v>17.575</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1665</v>
+        <v>24.1788</v>
       </c>
       <c r="D13" t="n">
-        <v>35.1901</v>
+        <v>35.2162</v>
       </c>
       <c r="E13" t="n">
-        <v>35.8477</v>
+        <v>35.5017</v>
       </c>
       <c r="F13" t="n">
-        <v>20.0681</v>
+        <v>20.0343</v>
       </c>
       <c r="G13" t="n">
-        <v>25.7381</v>
+        <v>24.8975</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9579</v>
+        <v>16.8403</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2659</v>
+        <v>24.4323</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2108</v>
+        <v>34.084</v>
       </c>
       <c r="E14" t="n">
-        <v>34.4988</v>
+        <v>34.517</v>
       </c>
       <c r="F14" t="n">
-        <v>19.1786</v>
+        <v>19.631</v>
       </c>
       <c r="G14" t="n">
-        <v>24.5534</v>
+        <v>24.6054</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6946</v>
+        <v>17.7344</v>
       </c>
       <c r="C15" t="n">
-        <v>24.562</v>
+        <v>24.4714</v>
       </c>
       <c r="D15" t="n">
-        <v>34.222</v>
+        <v>34.7142</v>
       </c>
       <c r="E15" t="n">
-        <v>34.5577</v>
+        <v>35.1151</v>
       </c>
       <c r="F15" t="n">
-        <v>19.6039</v>
+        <v>19.5434</v>
       </c>
       <c r="G15" t="n">
-        <v>23.0095</v>
+        <v>23.6448</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5349</v>
+        <v>17.5741</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7753</v>
+        <v>24.7761</v>
       </c>
       <c r="D16" t="n">
-        <v>33.4216</v>
+        <v>33.9158</v>
       </c>
       <c r="E16" t="n">
-        <v>34.7264</v>
+        <v>34.3457</v>
       </c>
       <c r="F16" t="n">
-        <v>19.3025</v>
+        <v>18.5626</v>
       </c>
       <c r="G16" t="n">
-        <v>23.5029</v>
+        <v>23.3317</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.3048</v>
+        <v>17.2794</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8722</v>
+        <v>24.909</v>
       </c>
       <c r="D17" t="n">
-        <v>34.0264</v>
+        <v>33.7896</v>
       </c>
       <c r="E17" t="n">
-        <v>34.3876</v>
+        <v>34.5079</v>
       </c>
       <c r="F17" t="n">
-        <v>18.203</v>
+        <v>18.5409</v>
       </c>
       <c r="G17" t="n">
-        <v>22.7567</v>
+        <v>22.9344</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.25393</v>
+        <v>5.29516</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28733</v>
+        <v>6.28261</v>
       </c>
       <c r="D2" t="n">
-        <v>6.42516</v>
+        <v>6.43488</v>
       </c>
       <c r="E2" t="n">
-        <v>6.10666</v>
+        <v>6.1128</v>
       </c>
       <c r="F2" t="n">
-        <v>4.89122</v>
+        <v>4.89255</v>
       </c>
       <c r="G2" t="n">
-        <v>6.84295</v>
+        <v>6.85704</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.82104</v>
+        <v>6.795</v>
       </c>
       <c r="C3" t="n">
-        <v>7.52675</v>
+        <v>7.50166</v>
       </c>
       <c r="D3" t="n">
-        <v>9.59193</v>
+        <v>9.58164</v>
       </c>
       <c r="E3" t="n">
-        <v>9.540929999999999</v>
+        <v>9.537570000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>7.71514</v>
+        <v>7.68513</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2701</v>
+        <v>10.2395</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.649430000000001</v>
+        <v>8.650969999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.675140000000001</v>
+        <v>9.663959999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.248</v>
+        <v>13.2601</v>
       </c>
       <c r="E4" t="n">
-        <v>13.4951</v>
+        <v>13.5035</v>
       </c>
       <c r="F4" t="n">
-        <v>10.6779</v>
+        <v>10.6615</v>
       </c>
       <c r="G4" t="n">
-        <v>14.1371</v>
+        <v>14.1441</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4902</v>
+        <v>10.4855</v>
       </c>
       <c r="C5" t="n">
-        <v>11.927</v>
+        <v>11.9179</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8794</v>
+        <v>16.9379</v>
       </c>
       <c r="E5" t="n">
-        <v>17.3574</v>
+        <v>17.4217</v>
       </c>
       <c r="F5" t="n">
-        <v>13.5823</v>
+        <v>13.5563</v>
       </c>
       <c r="G5" t="n">
-        <v>17.9405</v>
+        <v>17.9063</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3238</v>
+        <v>12.3304</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2365</v>
+        <v>14.2289</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5262</v>
+        <v>20.5066</v>
       </c>
       <c r="E6" t="n">
-        <v>21.2609</v>
+        <v>21.2727</v>
       </c>
       <c r="F6" t="n">
-        <v>16.381</v>
+        <v>16.4358</v>
       </c>
       <c r="G6" t="n">
-        <v>21.5883</v>
+        <v>21.5031</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1339</v>
+        <v>14.1491</v>
       </c>
       <c r="C7" t="n">
-        <v>16.5943</v>
+        <v>16.5782</v>
       </c>
       <c r="D7" t="n">
-        <v>24.1744</v>
+        <v>24.1574</v>
       </c>
       <c r="E7" t="n">
-        <v>25.0869</v>
+        <v>25.1055</v>
       </c>
       <c r="F7" t="n">
-        <v>19.1859</v>
+        <v>19.1257</v>
       </c>
       <c r="G7" t="n">
-        <v>25.231</v>
+        <v>25.185</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0205</v>
+        <v>16.0488</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1366</v>
+        <v>19.1475</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9154</v>
+        <v>27.941</v>
       </c>
       <c r="E8" t="n">
-        <v>28.9355</v>
+        <v>29.0214</v>
       </c>
       <c r="F8" t="n">
-        <v>21.95</v>
+        <v>21.9898</v>
       </c>
       <c r="G8" t="n">
-        <v>28.7064</v>
+        <v>28.5917</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5491</v>
+        <v>18.5371</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0847</v>
+        <v>22.0611</v>
       </c>
       <c r="D9" t="n">
-        <v>32.5803</v>
+        <v>32.5172</v>
       </c>
       <c r="E9" t="n">
-        <v>33.5069</v>
+        <v>33.5598</v>
       </c>
       <c r="F9" t="n">
-        <v>25.3487</v>
+        <v>25.4147</v>
       </c>
       <c r="G9" t="n">
-        <v>32.844</v>
+        <v>32.8964</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.753</v>
+        <v>17.7532</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6772</v>
+        <v>20.7163</v>
       </c>
       <c r="D10" t="n">
-        <v>30.3956</v>
+        <v>30.3849</v>
       </c>
       <c r="E10" t="n">
-        <v>30.8766</v>
+        <v>30.9967</v>
       </c>
       <c r="F10" t="n">
-        <v>23.5729</v>
+        <v>23.7906</v>
       </c>
       <c r="G10" t="n">
-        <v>30.5691</v>
+        <v>30.4813</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7314</v>
+        <v>17.7819</v>
       </c>
       <c r="C11" t="n">
-        <v>20.4121</v>
+        <v>20.6032</v>
       </c>
       <c r="D11" t="n">
-        <v>29.943</v>
+        <v>29.8103</v>
       </c>
       <c r="E11" t="n">
-        <v>30.5317</v>
+        <v>30.061</v>
       </c>
       <c r="F11" t="n">
-        <v>23.5231</v>
+        <v>23.6899</v>
       </c>
       <c r="G11" t="n">
-        <v>30.2303</v>
+        <v>30.3531</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8442</v>
+        <v>17.7952</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8057</v>
+        <v>20.7228</v>
       </c>
       <c r="D12" t="n">
-        <v>30.0322</v>
+        <v>30.3704</v>
       </c>
       <c r="E12" t="n">
-        <v>30.735</v>
+        <v>30.8665</v>
       </c>
       <c r="F12" t="n">
-        <v>23.5136</v>
+        <v>23.7745</v>
       </c>
       <c r="G12" t="n">
-        <v>29.8198</v>
+        <v>30.2181</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8926</v>
+        <v>17.8924</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9403</v>
+        <v>21.014</v>
       </c>
       <c r="D13" t="n">
-        <v>30.7096</v>
+        <v>30.6649</v>
       </c>
       <c r="E13" t="n">
-        <v>31.4993</v>
+        <v>31.4888</v>
       </c>
       <c r="F13" t="n">
-        <v>23.5799</v>
+        <v>23.6604</v>
       </c>
       <c r="G13" t="n">
-        <v>30.3903</v>
+        <v>29.9258</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.4179</v>
+        <v>17.3533</v>
       </c>
       <c r="C14" t="n">
-        <v>21.0407</v>
+        <v>21.066</v>
       </c>
       <c r="D14" t="n">
-        <v>29.6534</v>
+        <v>29.6441</v>
       </c>
       <c r="E14" t="n">
-        <v>30.206</v>
+        <v>30.322</v>
       </c>
       <c r="F14" t="n">
-        <v>22.3988</v>
+        <v>22.5803</v>
       </c>
       <c r="G14" t="n">
-        <v>28.3225</v>
+        <v>29.0317</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.0677</v>
+        <v>18.1501</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2098</v>
+        <v>21.2307</v>
       </c>
       <c r="D15" t="n">
-        <v>30.289</v>
+        <v>30.3549</v>
       </c>
       <c r="E15" t="n">
-        <v>31.085</v>
+        <v>31.1021</v>
       </c>
       <c r="F15" t="n">
-        <v>22.8117</v>
+        <v>23.069</v>
       </c>
       <c r="G15" t="n">
-        <v>28.2634</v>
+        <v>29.1034</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0216</v>
+        <v>18.0478</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4692</v>
+        <v>21.4468</v>
       </c>
       <c r="D16" t="n">
-        <v>30.0008</v>
+        <v>30.1227</v>
       </c>
       <c r="E16" t="n">
-        <v>30.8099</v>
+        <v>30.6968</v>
       </c>
       <c r="F16" t="n">
-        <v>22.5683</v>
+        <v>22.8613</v>
       </c>
       <c r="G16" t="n">
-        <v>28.8185</v>
+        <v>28.7331</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7381</v>
+        <v>18.0267</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6816</v>
+        <v>21.6437</v>
       </c>
       <c r="D17" t="n">
-        <v>30.036</v>
+        <v>29.9065</v>
       </c>
       <c r="E17" t="n">
-        <v>30.4086</v>
+        <v>30.9638</v>
       </c>
       <c r="F17" t="n">
-        <v>22.3258</v>
+        <v>22.7651</v>
       </c>
       <c r="G17" t="n">
-        <v>28.1962</v>
+        <v>28.2773</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.2081</v>
+        <v>5.25466</v>
       </c>
       <c r="C2" t="n">
-        <v>5.65641</v>
+        <v>5.66396</v>
       </c>
       <c r="D2" t="n">
-        <v>5.91953</v>
+        <v>5.92033</v>
       </c>
       <c r="E2" t="n">
-        <v>5.58559</v>
+        <v>5.59242</v>
       </c>
       <c r="F2" t="n">
-        <v>4.58186</v>
+        <v>4.58768</v>
       </c>
       <c r="G2" t="n">
-        <v>6.35783</v>
+        <v>6.36785</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.20108</v>
+        <v>6.25407</v>
       </c>
       <c r="C3" t="n">
-        <v>6.76277</v>
+        <v>6.82215</v>
       </c>
       <c r="D3" t="n">
-        <v>8.79804</v>
+        <v>8.85205</v>
       </c>
       <c r="E3" t="n">
-        <v>8.822380000000001</v>
+        <v>8.87035</v>
       </c>
       <c r="F3" t="n">
-        <v>6.92075</v>
+        <v>6.98349</v>
       </c>
       <c r="G3" t="n">
-        <v>9.223879999999999</v>
+        <v>9.29669</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.7986</v>
+        <v>7.80541</v>
       </c>
       <c r="C4" t="n">
-        <v>8.97171</v>
+        <v>8.89467</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1402</v>
+        <v>12.1031</v>
       </c>
       <c r="E4" t="n">
-        <v>12.5125</v>
+        <v>12.4972</v>
       </c>
       <c r="F4" t="n">
-        <v>9.471</v>
+        <v>9.46841</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5825</v>
+        <v>12.5773</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.2781</v>
+        <v>9.27239</v>
       </c>
       <c r="C5" t="n">
-        <v>11.0505</v>
+        <v>11.097</v>
       </c>
       <c r="D5" t="n">
-        <v>15.1552</v>
+        <v>15.2056</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9461</v>
+        <v>15.9652</v>
       </c>
       <c r="F5" t="n">
-        <v>11.8183</v>
+        <v>11.7926</v>
       </c>
       <c r="G5" t="n">
-        <v>15.6587</v>
+        <v>15.6485</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.9491</v>
+        <v>10.8689</v>
       </c>
       <c r="C6" t="n">
-        <v>13.3876</v>
+        <v>13.2632</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2512</v>
+        <v>18.1162</v>
       </c>
       <c r="E6" t="n">
-        <v>19.4413</v>
+        <v>19.4554</v>
       </c>
       <c r="F6" t="n">
-        <v>13.9463</v>
+        <v>14.0018</v>
       </c>
       <c r="G6" t="n">
-        <v>18.6404</v>
+        <v>18.5282</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.668</v>
+        <v>12.6332</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8521</v>
+        <v>15.8773</v>
       </c>
       <c r="D7" t="n">
-        <v>21.4067</v>
+        <v>21.3777</v>
       </c>
       <c r="E7" t="n">
-        <v>22.9493</v>
+        <v>22.9464</v>
       </c>
       <c r="F7" t="n">
-        <v>15.9287</v>
+        <v>15.9834</v>
       </c>
       <c r="G7" t="n">
-        <v>21.2497</v>
+        <v>21.0842</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9714</v>
+        <v>13.9871</v>
       </c>
       <c r="C8" t="n">
-        <v>18.216</v>
+        <v>18.2084</v>
       </c>
       <c r="D8" t="n">
-        <v>23.9357</v>
+        <v>24.1158</v>
       </c>
       <c r="E8" t="n">
-        <v>26.228</v>
+        <v>26.2208</v>
       </c>
       <c r="F8" t="n">
-        <v>18.3305</v>
+        <v>18.0099</v>
       </c>
       <c r="G8" t="n">
-        <v>23.9312</v>
+        <v>24.0102</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.455</v>
+        <v>16.4637</v>
       </c>
       <c r="C9" t="n">
-        <v>21.1205</v>
+        <v>21.1374</v>
       </c>
       <c r="D9" t="n">
-        <v>28.1271</v>
+        <v>27.7984</v>
       </c>
       <c r="E9" t="n">
-        <v>30.0911</v>
+        <v>29.7468</v>
       </c>
       <c r="F9" t="n">
-        <v>20.7655</v>
+        <v>20.9863</v>
       </c>
       <c r="G9" t="n">
-        <v>26.8548</v>
+        <v>26.882</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1273</v>
+        <v>14.1171</v>
       </c>
       <c r="C10" t="n">
-        <v>17.5427</v>
+        <v>17.4864</v>
       </c>
       <c r="D10" t="n">
-        <v>22.9763</v>
+        <v>22.9723</v>
       </c>
       <c r="E10" t="n">
-        <v>23.8769</v>
+        <v>23.7579</v>
       </c>
       <c r="F10" t="n">
-        <v>16.8495</v>
+        <v>16.988</v>
       </c>
       <c r="G10" t="n">
-        <v>22.1818</v>
+        <v>22.0498</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1136</v>
+        <v>14.0801</v>
       </c>
       <c r="C11" t="n">
-        <v>18.1613</v>
+        <v>17.7413</v>
       </c>
       <c r="D11" t="n">
-        <v>23.0165</v>
+        <v>23.4908</v>
       </c>
       <c r="E11" t="n">
-        <v>24.3539</v>
+        <v>24.4912</v>
       </c>
       <c r="F11" t="n">
-        <v>17.4159</v>
+        <v>17.1718</v>
       </c>
       <c r="G11" t="n">
-        <v>22.1725</v>
+        <v>22.2424</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6534</v>
+        <v>14.6342</v>
       </c>
       <c r="C12" t="n">
-        <v>18.8588</v>
+        <v>18.7673</v>
       </c>
       <c r="D12" t="n">
-        <v>24.3006</v>
+        <v>24.106</v>
       </c>
       <c r="E12" t="n">
-        <v>25.8378</v>
+        <v>26.0341</v>
       </c>
       <c r="F12" t="n">
-        <v>17.8567</v>
+        <v>18.0258</v>
       </c>
       <c r="G12" t="n">
-        <v>23.462</v>
+        <v>22.3168</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0624</v>
+        <v>15.0385</v>
       </c>
       <c r="C13" t="n">
-        <v>19.49</v>
+        <v>19.4702</v>
       </c>
       <c r="D13" t="n">
-        <v>25.1498</v>
+        <v>25.7081</v>
       </c>
       <c r="E13" t="n">
-        <v>25.8306</v>
+        <v>25.6998</v>
       </c>
       <c r="F13" t="n">
-        <v>18.3414</v>
+        <v>18.1683</v>
       </c>
       <c r="G13" t="n">
-        <v>23.3721</v>
+        <v>23.3353</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9435</v>
+        <v>14.8367</v>
       </c>
       <c r="C14" t="n">
-        <v>19.366</v>
+        <v>19.4746</v>
       </c>
       <c r="D14" t="n">
-        <v>24.4867</v>
+        <v>24.0623</v>
       </c>
       <c r="E14" t="n">
-        <v>25.9017</v>
+        <v>25.6477</v>
       </c>
       <c r="F14" t="n">
-        <v>18.4627</v>
+        <v>17.7128</v>
       </c>
       <c r="G14" t="n">
-        <v>21.7813</v>
+        <v>22.709</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9963</v>
+        <v>15.0198</v>
       </c>
       <c r="C15" t="n">
-        <v>19.677</v>
+        <v>19.5934</v>
       </c>
       <c r="D15" t="n">
-        <v>24.5577</v>
+        <v>24.5288</v>
       </c>
       <c r="E15" t="n">
-        <v>25.2303</v>
+        <v>24.9904</v>
       </c>
       <c r="F15" t="n">
-        <v>17.9124</v>
+        <v>17.6946</v>
       </c>
       <c r="G15" t="n">
-        <v>21.7706</v>
+        <v>22.7784</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4511</v>
+        <v>15.4272</v>
       </c>
       <c r="C16" t="n">
-        <v>19.8758</v>
+        <v>20.0823</v>
       </c>
       <c r="D16" t="n">
-        <v>25.0386</v>
+        <v>25.2652</v>
       </c>
       <c r="E16" t="n">
-        <v>25.529</v>
+        <v>25.915</v>
       </c>
       <c r="F16" t="n">
-        <v>17.9982</v>
+        <v>17.7778</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9443</v>
+        <v>22.3269</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.4734</v>
+        <v>15.3994</v>
       </c>
       <c r="C17" t="n">
-        <v>20.2312</v>
+        <v>20.1384</v>
       </c>
       <c r="D17" t="n">
-        <v>23.7364</v>
+        <v>24.4647</v>
       </c>
       <c r="E17" t="n">
-        <v>27.0159</v>
+        <v>24.8905</v>
       </c>
       <c r="F17" t="n">
-        <v>17.9065</v>
+        <v>17.3694</v>
       </c>
       <c r="G17" t="n">
-        <v>21.9194</v>
+        <v>21.0805</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.663259999999999</v>
+        <v>8.66314</v>
       </c>
       <c r="C2" t="n">
-        <v>9.93439</v>
+        <v>9.99009</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4628</v>
+        <v>10.4762</v>
       </c>
       <c r="E2" t="n">
-        <v>8.5177</v>
+        <v>8.53077</v>
       </c>
       <c r="F2" t="n">
-        <v>6.83144</v>
+        <v>6.86232</v>
       </c>
       <c r="G2" t="n">
-        <v>11.5997</v>
+        <v>11.6495</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.49452</v>
+        <v>8.61247</v>
       </c>
       <c r="C3" t="n">
-        <v>9.40413</v>
+        <v>9.541980000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0569</v>
+        <v>13.2071</v>
       </c>
       <c r="E3" t="n">
-        <v>12.1169</v>
+        <v>12.2057</v>
       </c>
       <c r="F3" t="n">
-        <v>9.447749999999999</v>
+        <v>9.52483</v>
       </c>
       <c r="G3" t="n">
-        <v>13.7305</v>
+        <v>13.9154</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1544</v>
+        <v>10.1706</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5671</v>
+        <v>11.6058</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0792</v>
+        <v>17.1747</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6377</v>
+        <v>16.6666</v>
       </c>
       <c r="F4" t="n">
-        <v>12.4858</v>
+        <v>12.5306</v>
       </c>
       <c r="G4" t="n">
-        <v>17.7606</v>
+        <v>17.8531</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.9936</v>
+        <v>12.0311</v>
       </c>
       <c r="C5" t="n">
-        <v>14.023</v>
+        <v>14.1694</v>
       </c>
       <c r="D5" t="n">
-        <v>21.008</v>
+        <v>21.1577</v>
       </c>
       <c r="E5" t="n">
-        <v>21.0722</v>
+        <v>21.184</v>
       </c>
       <c r="F5" t="n">
-        <v>15.3618</v>
+        <v>15.3455</v>
       </c>
       <c r="G5" t="n">
-        <v>21.6573</v>
+        <v>21.7066</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9054</v>
+        <v>13.9613</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9444</v>
+        <v>17.0382</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8032</v>
+        <v>24.9037</v>
       </c>
       <c r="E6" t="n">
-        <v>25.3395</v>
+        <v>25.5061</v>
       </c>
       <c r="F6" t="n">
-        <v>17.9931</v>
+        <v>17.9338</v>
       </c>
       <c r="G6" t="n">
-        <v>25.216</v>
+        <v>25.0046</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0053</v>
+        <v>16.0136</v>
       </c>
       <c r="C7" t="n">
-        <v>19.8978</v>
+        <v>20.2176</v>
       </c>
       <c r="D7" t="n">
-        <v>29.2125</v>
+        <v>29.3895</v>
       </c>
       <c r="E7" t="n">
-        <v>29.6685</v>
+        <v>29.7867</v>
       </c>
       <c r="F7" t="n">
-        <v>20.6463</v>
+        <v>20.7362</v>
       </c>
       <c r="G7" t="n">
-        <v>28.5957</v>
+        <v>29.0603</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.6981</v>
+        <v>17.7369</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9178</v>
+        <v>22.7924</v>
       </c>
       <c r="D8" t="n">
-        <v>32.4822</v>
+        <v>32.3201</v>
       </c>
       <c r="E8" t="n">
-        <v>33.7223</v>
+        <v>33.7566</v>
       </c>
       <c r="F8" t="n">
-        <v>23.1169</v>
+        <v>23.0143</v>
       </c>
       <c r="G8" t="n">
-        <v>31.7333</v>
+        <v>31.7915</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.793</v>
+        <v>20.7133</v>
       </c>
       <c r="C9" t="n">
-        <v>26.3127</v>
+        <v>26.5593</v>
       </c>
       <c r="D9" t="n">
-        <v>37.4859</v>
+        <v>37.6272</v>
       </c>
       <c r="E9" t="n">
-        <v>38.3044</v>
+        <v>38.7301</v>
       </c>
       <c r="F9" t="n">
-        <v>25.9688</v>
+        <v>26.4223</v>
       </c>
       <c r="G9" t="n">
-        <v>35.5834</v>
+        <v>35.3431</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8105</v>
+        <v>17.9013</v>
       </c>
       <c r="C10" t="n">
-        <v>23.1935</v>
+        <v>22.5414</v>
       </c>
       <c r="D10" t="n">
-        <v>32.1496</v>
+        <v>32.0785</v>
       </c>
       <c r="E10" t="n">
-        <v>31.4816</v>
+        <v>31.9861</v>
       </c>
       <c r="F10" t="n">
-        <v>21.5464</v>
+        <v>22.5159</v>
       </c>
       <c r="G10" t="n">
-        <v>30.2305</v>
+        <v>30.6355</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.6847</v>
+        <v>17.8354</v>
       </c>
       <c r="C11" t="n">
-        <v>22.8066</v>
+        <v>23.0407</v>
       </c>
       <c r="D11" t="n">
-        <v>33.1185</v>
+        <v>31.8466</v>
       </c>
       <c r="E11" t="n">
-        <v>31.3776</v>
+        <v>32.2004</v>
       </c>
       <c r="F11" t="n">
-        <v>22.3858</v>
+        <v>22.3722</v>
       </c>
       <c r="G11" t="n">
-        <v>30.2411</v>
+        <v>29.4006</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.2619</v>
+        <v>18.4905</v>
       </c>
       <c r="C12" t="n">
-        <v>23.6633</v>
+        <v>23.0932</v>
       </c>
       <c r="D12" t="n">
-        <v>32.4895</v>
+        <v>32.1631</v>
       </c>
       <c r="E12" t="n">
-        <v>33.2526</v>
+        <v>31.7175</v>
       </c>
       <c r="F12" t="n">
-        <v>22.9038</v>
+        <v>22.0424</v>
       </c>
       <c r="G12" t="n">
-        <v>29.8382</v>
+        <v>30.0863</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.1324</v>
+        <v>19.0233</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9505</v>
+        <v>23.8611</v>
       </c>
       <c r="D13" t="n">
-        <v>32.4914</v>
+        <v>33.2168</v>
       </c>
       <c r="E13" t="n">
-        <v>33.0906</v>
+        <v>33.2206</v>
       </c>
       <c r="F13" t="n">
-        <v>23.0347</v>
+        <v>22.8734</v>
       </c>
       <c r="G13" t="n">
-        <v>29.714</v>
+        <v>29.5757</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.796</v>
+        <v>18.9619</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1437</v>
+        <v>24.1089</v>
       </c>
       <c r="D14" t="n">
-        <v>32.8841</v>
+        <v>32.7892</v>
       </c>
       <c r="E14" t="n">
-        <v>32.1803</v>
+        <v>32.262</v>
       </c>
       <c r="F14" t="n">
-        <v>22.7696</v>
+        <v>22.9512</v>
       </c>
       <c r="G14" t="n">
-        <v>29.251</v>
+        <v>29.4715</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0604</v>
+        <v>18.9243</v>
       </c>
       <c r="C15" t="n">
-        <v>24.2191</v>
+        <v>24.5175</v>
       </c>
       <c r="D15" t="n">
-        <v>32.1076</v>
+        <v>31.6307</v>
       </c>
       <c r="E15" t="n">
-        <v>32.698</v>
+        <v>32.4172</v>
       </c>
       <c r="F15" t="n">
-        <v>22.3079</v>
+        <v>22.5734</v>
       </c>
       <c r="G15" t="n">
-        <v>27.5285</v>
+        <v>28.714</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.0087</v>
+        <v>19.2982</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7393</v>
+        <v>24.7474</v>
       </c>
       <c r="D16" t="n">
-        <v>33.688</v>
+        <v>32.3681</v>
       </c>
       <c r="E16" t="n">
-        <v>32.3791</v>
+        <v>31.8745</v>
       </c>
       <c r="F16" t="n">
-        <v>22.7008</v>
+        <v>22.1601</v>
       </c>
       <c r="G16" t="n">
-        <v>28.8802</v>
+        <v>28.3872</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3292</v>
+        <v>19.3376</v>
       </c>
       <c r="C17" t="n">
-        <v>25.212</v>
+        <v>25.3652</v>
       </c>
       <c r="D17" t="n">
-        <v>31.6841</v>
+        <v>32.4958</v>
       </c>
       <c r="E17" t="n">
-        <v>32.3873</v>
+        <v>31.7342</v>
       </c>
       <c r="F17" t="n">
-        <v>21.5435</v>
+        <v>21.5181</v>
       </c>
       <c r="G17" t="n">
-        <v>26.5471</v>
+        <v>26.732</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.41198</v>
+        <v>6.42198</v>
       </c>
       <c r="C2" t="n">
-        <v>6.52003</v>
+        <v>6.53327</v>
       </c>
       <c r="D2" t="n">
-        <v>6.79486</v>
+        <v>6.80055</v>
       </c>
       <c r="E2" t="n">
-        <v>6.30468</v>
+        <v>6.30217</v>
       </c>
       <c r="F2" t="n">
-        <v>5.28738</v>
+        <v>5.28946</v>
       </c>
       <c r="G2" t="n">
-        <v>7.3773</v>
+        <v>7.38188</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.15245</v>
+        <v>7.04771</v>
       </c>
       <c r="C3" t="n">
-        <v>7.55548</v>
+        <v>7.48188</v>
       </c>
       <c r="D3" t="n">
-        <v>9.809609999999999</v>
+        <v>9.73455</v>
       </c>
       <c r="E3" t="n">
-        <v>9.59015</v>
+        <v>9.55972</v>
       </c>
       <c r="F3" t="n">
-        <v>7.83767</v>
+        <v>7.8484</v>
       </c>
       <c r="G3" t="n">
-        <v>10.4248</v>
+        <v>10.3799</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.831770000000001</v>
+        <v>8.8589</v>
       </c>
       <c r="C4" t="n">
-        <v>9.67521</v>
+        <v>9.831329999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4784</v>
+        <v>13.502</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5086</v>
+        <v>13.5502</v>
       </c>
       <c r="F4" t="n">
-        <v>10.784</v>
+        <v>10.8868</v>
       </c>
       <c r="G4" t="n">
-        <v>14.3634</v>
+        <v>14.3944</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5384</v>
+        <v>10.5396</v>
       </c>
       <c r="C5" t="n">
-        <v>12.0973</v>
+        <v>12.1176</v>
       </c>
       <c r="D5" t="n">
-        <v>17.1658</v>
+        <v>17.2278</v>
       </c>
       <c r="E5" t="n">
-        <v>17.4277</v>
+        <v>17.427</v>
       </c>
       <c r="F5" t="n">
-        <v>13.8068</v>
+        <v>13.8116</v>
       </c>
       <c r="G5" t="n">
-        <v>18.2629</v>
+        <v>18.2542</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3843</v>
+        <v>12.4966</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4007</v>
+        <v>14.4771</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7023</v>
+        <v>20.8743</v>
       </c>
       <c r="E6" t="n">
-        <v>21.1336</v>
+        <v>21.2756</v>
       </c>
       <c r="F6" t="n">
-        <v>16.6053</v>
+        <v>16.6732</v>
       </c>
       <c r="G6" t="n">
-        <v>21.8598</v>
+        <v>21.9654</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2509</v>
+        <v>14.2531</v>
       </c>
       <c r="C7" t="n">
-        <v>16.8652</v>
+        <v>16.849</v>
       </c>
       <c r="D7" t="n">
-        <v>24.5642</v>
+        <v>24.5464</v>
       </c>
       <c r="E7" t="n">
-        <v>25.0897</v>
+        <v>24.9618</v>
       </c>
       <c r="F7" t="n">
-        <v>19.2098</v>
+        <v>19.3306</v>
       </c>
       <c r="G7" t="n">
-        <v>25.1895</v>
+        <v>25.5832</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9332</v>
+        <v>15.9446</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2597</v>
+        <v>19.2305</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9384</v>
+        <v>27.9117</v>
       </c>
       <c r="E8" t="n">
-        <v>28.6729</v>
+        <v>28.631</v>
       </c>
       <c r="F8" t="n">
-        <v>22.0667</v>
+        <v>22.0552</v>
       </c>
       <c r="G8" t="n">
-        <v>28.7933</v>
+        <v>28.7882</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1698</v>
+        <v>18.1565</v>
       </c>
       <c r="C9" t="n">
-        <v>22.1571</v>
+        <v>22.0727</v>
       </c>
       <c r="D9" t="n">
-        <v>32.4065</v>
+        <v>32.3497</v>
       </c>
       <c r="E9" t="n">
-        <v>33.1368</v>
+        <v>32.7288</v>
       </c>
       <c r="F9" t="n">
-        <v>25.5167</v>
+        <v>25.624</v>
       </c>
       <c r="G9" t="n">
-        <v>32.9518</v>
+        <v>32.3836</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1852</v>
+        <v>16.1203</v>
       </c>
       <c r="C10" t="n">
-        <v>19.1232</v>
+        <v>19.0178</v>
       </c>
       <c r="D10" t="n">
-        <v>26.9296</v>
+        <v>26.5262</v>
       </c>
       <c r="E10" t="n">
-        <v>26.8404</v>
+        <v>26.5673</v>
       </c>
       <c r="F10" t="n">
-        <v>20.8338</v>
+        <v>20.6879</v>
       </c>
       <c r="G10" t="n">
-        <v>26.7652</v>
+        <v>27.1423</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.959</v>
+        <v>15.9941</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2833</v>
+        <v>18.905</v>
       </c>
       <c r="D11" t="n">
-        <v>27.509</v>
+        <v>27.2726</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9285</v>
+        <v>26.7718</v>
       </c>
       <c r="F11" t="n">
-        <v>21.4612</v>
+        <v>21.1847</v>
       </c>
       <c r="G11" t="n">
-        <v>26.5649</v>
+        <v>27.7869</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.3703</v>
+        <v>16.5202</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9629</v>
+        <v>19.9832</v>
       </c>
       <c r="D12" t="n">
-        <v>27.8343</v>
+        <v>29.3011</v>
       </c>
       <c r="E12" t="n">
-        <v>28.2839</v>
+        <v>27.3899</v>
       </c>
       <c r="F12" t="n">
-        <v>22.44</v>
+        <v>22.629</v>
       </c>
       <c r="G12" t="n">
-        <v>27.53</v>
+        <v>28.2114</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.7956</v>
+        <v>16.9521</v>
       </c>
       <c r="C13" t="n">
-        <v>20.0809</v>
+        <v>20.4616</v>
       </c>
       <c r="D13" t="n">
-        <v>29.0779</v>
+        <v>29.4453</v>
       </c>
       <c r="E13" t="n">
-        <v>28.6282</v>
+        <v>28.5381</v>
       </c>
       <c r="F13" t="n">
-        <v>23.1677</v>
+        <v>22.3619</v>
       </c>
       <c r="G13" t="n">
-        <v>27.4876</v>
+        <v>28.1947</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9111</v>
+        <v>16.7139</v>
       </c>
       <c r="C14" t="n">
-        <v>20.2448</v>
+        <v>20.1926</v>
       </c>
       <c r="D14" t="n">
-        <v>27.7568</v>
+        <v>28.0648</v>
       </c>
       <c r="E14" t="n">
-        <v>28.1279</v>
+        <v>27.1104</v>
       </c>
       <c r="F14" t="n">
-        <v>22.5978</v>
+        <v>22.2851</v>
       </c>
       <c r="G14" t="n">
-        <v>27.0774</v>
+        <v>27.0728</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.04</v>
+        <v>17.1281</v>
       </c>
       <c r="C15" t="n">
-        <v>20.4265</v>
+        <v>20.4376</v>
       </c>
       <c r="D15" t="n">
-        <v>27.52</v>
+        <v>27.5389</v>
       </c>
       <c r="E15" t="n">
-        <v>27.0489</v>
+        <v>27.9134</v>
       </c>
       <c r="F15" t="n">
-        <v>22.8673</v>
+        <v>22.0463</v>
       </c>
       <c r="G15" t="n">
-        <v>26.7377</v>
+        <v>26.0472</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3943</v>
+        <v>17.3918</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0781</v>
+        <v>21.0212</v>
       </c>
       <c r="D16" t="n">
-        <v>28.2508</v>
+        <v>27.9484</v>
       </c>
       <c r="E16" t="n">
-        <v>27.7925</v>
+        <v>27.0346</v>
       </c>
       <c r="F16" t="n">
-        <v>22.3191</v>
+        <v>22.5781</v>
       </c>
       <c r="G16" t="n">
-        <v>26.7924</v>
+        <v>26.7607</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.5431</v>
+        <v>17.7041</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5151</v>
+        <v>21.5346</v>
       </c>
       <c r="D17" t="n">
-        <v>27.6035</v>
+        <v>28.2636</v>
       </c>
       <c r="E17" t="n">
-        <v>27.0581</v>
+        <v>28.5943</v>
       </c>
       <c r="F17" t="n">
-        <v>22.33</v>
+        <v>21.8996</v>
       </c>
       <c r="G17" t="n">
-        <v>27.1043</v>
+        <v>26.8681</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.00786</v>
+        <v>3.0377</v>
       </c>
       <c r="C2" t="n">
-        <v>4.98892</v>
+        <v>5.01446</v>
       </c>
       <c r="D2" t="n">
-        <v>5.11523</v>
+        <v>5.13334</v>
       </c>
       <c r="E2" t="n">
-        <v>5.06051</v>
+        <v>5.06881</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5811</v>
+        <v>3.5995</v>
       </c>
       <c r="G2" t="n">
-        <v>4.88063</v>
+        <v>4.93142</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.9018</v>
+        <v>4.82832</v>
       </c>
       <c r="C3" t="n">
-        <v>6.62575</v>
+        <v>6.56198</v>
       </c>
       <c r="D3" t="n">
-        <v>8.425689999999999</v>
+        <v>8.38632</v>
       </c>
       <c r="E3" t="n">
-        <v>8.66803</v>
+        <v>8.631</v>
       </c>
       <c r="F3" t="n">
-        <v>6.01152</v>
+        <v>5.98674</v>
       </c>
       <c r="G3" t="n">
-        <v>7.97878</v>
+        <v>7.94367</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.54522</v>
+        <v>6.56147</v>
       </c>
       <c r="C4" t="n">
-        <v>8.7281</v>
+        <v>8.72348</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6807</v>
+        <v>11.685</v>
       </c>
       <c r="E4" t="n">
-        <v>12.3302</v>
+        <v>12.3188</v>
       </c>
       <c r="F4" t="n">
-        <v>8.448549999999999</v>
+        <v>8.44445</v>
       </c>
       <c r="G4" t="n">
-        <v>11.171</v>
+        <v>11.1537</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.177720000000001</v>
+        <v>8.20431</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8884</v>
+        <v>10.8993</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7992</v>
+        <v>14.7971</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9041</v>
+        <v>15.9187</v>
       </c>
       <c r="F5" t="n">
-        <v>10.7272</v>
+        <v>10.6688</v>
       </c>
       <c r="G5" t="n">
-        <v>14.1272</v>
+        <v>14.1623</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.70058</v>
+        <v>9.73193</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0625</v>
+        <v>13.0842</v>
       </c>
       <c r="D6" t="n">
-        <v>17.8436</v>
+        <v>17.8205</v>
       </c>
       <c r="E6" t="n">
-        <v>19.423</v>
+        <v>19.4634</v>
       </c>
       <c r="F6" t="n">
-        <v>12.6005</v>
+        <v>12.7981</v>
       </c>
       <c r="G6" t="n">
-        <v>16.7546</v>
+        <v>16.8901</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2013</v>
+        <v>11.262</v>
       </c>
       <c r="C7" t="n">
-        <v>15.3365</v>
+        <v>15.2929</v>
       </c>
       <c r="D7" t="n">
-        <v>20.8406</v>
+        <v>20.7156</v>
       </c>
       <c r="E7" t="n">
-        <v>22.9409</v>
+        <v>22.8974</v>
       </c>
       <c r="F7" t="n">
-        <v>14.6597</v>
+        <v>14.6499</v>
       </c>
       <c r="G7" t="n">
-        <v>19.1884</v>
+        <v>19.2474</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6809</v>
+        <v>12.7174</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6888</v>
+        <v>17.7596</v>
       </c>
       <c r="D8" t="n">
-        <v>23.6685</v>
+        <v>23.8272</v>
       </c>
       <c r="E8" t="n">
-        <v>26.3381</v>
+        <v>26.42</v>
       </c>
       <c r="F8" t="n">
-        <v>16.4251</v>
+        <v>16.5506</v>
       </c>
       <c r="G8" t="n">
-        <v>21.5588</v>
+        <v>21.6651</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8352</v>
+        <v>14.8325</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8669</v>
+        <v>20.8586</v>
       </c>
       <c r="D9" t="n">
-        <v>28.244</v>
+        <v>28.2529</v>
       </c>
       <c r="E9" t="n">
-        <v>30.2905</v>
+        <v>30.3594</v>
       </c>
       <c r="F9" t="n">
-        <v>18.7127</v>
+        <v>18.6746</v>
       </c>
       <c r="G9" t="n">
-        <v>24.0073</v>
+        <v>23.8842</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1589</v>
+        <v>14.0627</v>
       </c>
       <c r="C10" t="n">
-        <v>19.2497</v>
+        <v>19.4588</v>
       </c>
       <c r="D10" t="n">
-        <v>26.253</v>
+        <v>26.3953</v>
       </c>
       <c r="E10" t="n">
-        <v>28.0079</v>
+        <v>27.4578</v>
       </c>
       <c r="F10" t="n">
-        <v>17.7493</v>
+        <v>17.7794</v>
       </c>
       <c r="G10" t="n">
-        <v>22.4583</v>
+        <v>22.1958</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0483</v>
+        <v>14.0508</v>
       </c>
       <c r="C11" t="n">
-        <v>19.2085</v>
+        <v>19.0942</v>
       </c>
       <c r="D11" t="n">
-        <v>25.837</v>
+        <v>26.3216</v>
       </c>
       <c r="E11" t="n">
-        <v>27.832</v>
+        <v>27.8928</v>
       </c>
       <c r="F11" t="n">
-        <v>17.6254</v>
+        <v>17.1582</v>
       </c>
       <c r="G11" t="n">
-        <v>22.0826</v>
+        <v>21.9296</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2472</v>
+        <v>14.1771</v>
       </c>
       <c r="C12" t="n">
-        <v>19.3938</v>
+        <v>19.4941</v>
       </c>
       <c r="D12" t="n">
-        <v>26.2959</v>
+        <v>26.3845</v>
       </c>
       <c r="E12" t="n">
-        <v>27.9223</v>
+        <v>27.8398</v>
       </c>
       <c r="F12" t="n">
-        <v>17.2196</v>
+        <v>16.7651</v>
       </c>
       <c r="G12" t="n">
-        <v>21.9383</v>
+        <v>21.7431</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4893</v>
+        <v>14.4447</v>
       </c>
       <c r="C13" t="n">
-        <v>19.6238</v>
+        <v>19.4209</v>
       </c>
       <c r="D13" t="n">
-        <v>26.8536</v>
+        <v>26.4369</v>
       </c>
       <c r="E13" t="n">
-        <v>28.2111</v>
+        <v>28.2952</v>
       </c>
       <c r="F13" t="n">
-        <v>16.4887</v>
+        <v>16.6013</v>
       </c>
       <c r="G13" t="n">
-        <v>20.4036</v>
+        <v>20.3671</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8963</v>
+        <v>13.9501</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6933</v>
+        <v>19.5502</v>
       </c>
       <c r="D14" t="n">
-        <v>25.5815</v>
+        <v>25.5562</v>
       </c>
       <c r="E14" t="n">
-        <v>27.2279</v>
+        <v>27.4197</v>
       </c>
       <c r="F14" t="n">
-        <v>16.0975</v>
+        <v>16.0731</v>
       </c>
       <c r="G14" t="n">
-        <v>19.478</v>
+        <v>19.3995</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5349</v>
+        <v>14.5503</v>
       </c>
       <c r="C15" t="n">
-        <v>19.8739</v>
+        <v>19.8707</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6712</v>
+        <v>26.2318</v>
       </c>
       <c r="E15" t="n">
-        <v>28.0094</v>
+        <v>28.4813</v>
       </c>
       <c r="F15" t="n">
-        <v>16.2393</v>
+        <v>15.7813</v>
       </c>
       <c r="G15" t="n">
-        <v>20.0495</v>
+        <v>19.5286</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.427</v>
+        <v>14.4923</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0099</v>
+        <v>19.9396</v>
       </c>
       <c r="D16" t="n">
-        <v>26.084</v>
+        <v>25.6856</v>
       </c>
       <c r="E16" t="n">
-        <v>27.6388</v>
+        <v>27.5966</v>
       </c>
       <c r="F16" t="n">
-        <v>15.3187</v>
+        <v>16.0109</v>
       </c>
       <c r="G16" t="n">
-        <v>19.4512</v>
+        <v>19.3481</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.482</v>
+        <v>14.3188</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1712</v>
+        <v>20.0699</v>
       </c>
       <c r="D17" t="n">
-        <v>25.5638</v>
+        <v>26.1057</v>
       </c>
       <c r="E17" t="n">
-        <v>27.4327</v>
+        <v>27.9781</v>
       </c>
       <c r="F17" t="n">
-        <v>15.5815</v>
+        <v>15.5996</v>
       </c>
       <c r="G17" t="n">
-        <v>18.635</v>
+        <v>18.241</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.958</v>
+        <v>4.01148</v>
       </c>
       <c r="C2" t="n">
-        <v>8.112130000000001</v>
+        <v>8.1973</v>
       </c>
       <c r="D2" t="n">
-        <v>8.267670000000001</v>
+        <v>8.31625</v>
       </c>
       <c r="E2" t="n">
-        <v>7.40584</v>
+        <v>7.44543</v>
       </c>
       <c r="F2" t="n">
-        <v>4.84902</v>
+        <v>4.88038</v>
       </c>
       <c r="G2" t="n">
-        <v>7.52686</v>
+        <v>7.62717</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.07645</v>
+        <v>6.09988</v>
       </c>
       <c r="C3" t="n">
-        <v>8.917439999999999</v>
+        <v>8.98672</v>
       </c>
       <c r="D3" t="n">
-        <v>12.235</v>
+        <v>12.2386</v>
       </c>
       <c r="E3" t="n">
-        <v>11.8004</v>
+        <v>11.7447</v>
       </c>
       <c r="F3" t="n">
-        <v>7.81166</v>
+        <v>7.93894</v>
       </c>
       <c r="G3" t="n">
-        <v>11.2106</v>
+        <v>11.429</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.10895</v>
+        <v>8.15964</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2594</v>
+        <v>11.2514</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4411</v>
+        <v>16.4097</v>
       </c>
       <c r="E4" t="n">
-        <v>16.4311</v>
+        <v>16.413</v>
       </c>
       <c r="F4" t="n">
-        <v>10.8301</v>
+        <v>10.8526</v>
       </c>
       <c r="G4" t="n">
-        <v>15.2555</v>
+        <v>15.3573</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0346</v>
+        <v>10.0559</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7566</v>
+        <v>13.7163</v>
       </c>
       <c r="D5" t="n">
-        <v>20.3883</v>
+        <v>20.4277</v>
       </c>
       <c r="E5" t="n">
-        <v>20.8644</v>
+        <v>20.8655</v>
       </c>
       <c r="F5" t="n">
-        <v>13.4073</v>
+        <v>13.5046</v>
       </c>
       <c r="G5" t="n">
-        <v>18.9116</v>
+        <v>18.8911</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.8729</v>
+        <v>11.9445</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3471</v>
+        <v>16.3205</v>
       </c>
       <c r="D6" t="n">
-        <v>24.3063</v>
+        <v>24.298</v>
       </c>
       <c r="E6" t="n">
-        <v>25.3651</v>
+        <v>25.3754</v>
       </c>
       <c r="F6" t="n">
-        <v>16.0329</v>
+        <v>16.0584</v>
       </c>
       <c r="G6" t="n">
-        <v>22.043</v>
+        <v>22.1825</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.6932</v>
+        <v>13.7676</v>
       </c>
       <c r="C7" t="n">
-        <v>19.025</v>
+        <v>19.0894</v>
       </c>
       <c r="D7" t="n">
-        <v>28.1332</v>
+        <v>28.2702</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7863</v>
+        <v>29.7654</v>
       </c>
       <c r="F7" t="n">
-        <v>18.1231</v>
+        <v>18.1096</v>
       </c>
       <c r="G7" t="n">
-        <v>24.8058</v>
+        <v>24.9124</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4554</v>
+        <v>15.4848</v>
       </c>
       <c r="C8" t="n">
-        <v>22.127</v>
+        <v>22.1135</v>
       </c>
       <c r="D8" t="n">
-        <v>32.0937</v>
+        <v>32.2715</v>
       </c>
       <c r="E8" t="n">
-        <v>34.0711</v>
+        <v>34.127</v>
       </c>
       <c r="F8" t="n">
-        <v>20.3314</v>
+        <v>20.3898</v>
       </c>
       <c r="G8" t="n">
-        <v>27.6408</v>
+        <v>27.8027</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0609</v>
+        <v>18.1311</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8666</v>
+        <v>25.8331</v>
       </c>
       <c r="D9" t="n">
-        <v>38.1519</v>
+        <v>38.2969</v>
       </c>
       <c r="E9" t="n">
-        <v>39.3111</v>
+        <v>39.2297</v>
       </c>
       <c r="F9" t="n">
-        <v>23.0389</v>
+        <v>22.9543</v>
       </c>
       <c r="G9" t="n">
-        <v>30.5612</v>
+        <v>30.4135</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1971</v>
+        <v>17.1803</v>
       </c>
       <c r="C10" t="n">
-        <v>23.7721</v>
+        <v>24.2807</v>
       </c>
       <c r="D10" t="n">
-        <v>35.3977</v>
+        <v>35.5663</v>
       </c>
       <c r="E10" t="n">
-        <v>35.9467</v>
+        <v>35.8637</v>
       </c>
       <c r="F10" t="n">
-        <v>21.6212</v>
+        <v>21.9006</v>
       </c>
       <c r="G10" t="n">
-        <v>28.5795</v>
+        <v>28.5923</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.9704</v>
+        <v>17.0992</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9665</v>
+        <v>23.8706</v>
       </c>
       <c r="D11" t="n">
-        <v>34.9682</v>
+        <v>34.7307</v>
       </c>
       <c r="E11" t="n">
-        <v>35.4903</v>
+        <v>35.8842</v>
       </c>
       <c r="F11" t="n">
-        <v>21.566</v>
+        <v>21.3043</v>
       </c>
       <c r="G11" t="n">
-        <v>27.9888</v>
+        <v>27.219</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3269</v>
+        <v>17.351</v>
       </c>
       <c r="C12" t="n">
-        <v>23.8693</v>
+        <v>23.8854</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0496</v>
+        <v>35.0365</v>
       </c>
       <c r="E12" t="n">
-        <v>35.8356</v>
+        <v>35.9385</v>
       </c>
       <c r="F12" t="n">
-        <v>21.2501</v>
+        <v>21.0741</v>
       </c>
       <c r="G12" t="n">
-        <v>26.8269</v>
+        <v>27.3164</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.575</v>
+        <v>17.4852</v>
       </c>
       <c r="C13" t="n">
-        <v>24.1788</v>
+        <v>24.3477</v>
       </c>
       <c r="D13" t="n">
-        <v>35.2162</v>
+        <v>35.5648</v>
       </c>
       <c r="E13" t="n">
-        <v>35.5017</v>
+        <v>36.1836</v>
       </c>
       <c r="F13" t="n">
-        <v>20.0343</v>
+        <v>20.3631</v>
       </c>
       <c r="G13" t="n">
-        <v>24.8975</v>
+        <v>25.5869</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.8403</v>
+        <v>16.9174</v>
       </c>
       <c r="C14" t="n">
-        <v>24.4323</v>
+        <v>24.2956</v>
       </c>
       <c r="D14" t="n">
-        <v>34.084</v>
+        <v>33.9481</v>
       </c>
       <c r="E14" t="n">
-        <v>34.517</v>
+        <v>34.6674</v>
       </c>
       <c r="F14" t="n">
-        <v>19.631</v>
+        <v>19.2306</v>
       </c>
       <c r="G14" t="n">
-        <v>24.6054</v>
+        <v>24.3098</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.7344</v>
+        <v>17.6264</v>
       </c>
       <c r="C15" t="n">
-        <v>24.4714</v>
+        <v>24.4707</v>
       </c>
       <c r="D15" t="n">
-        <v>34.7142</v>
+        <v>34.6447</v>
       </c>
       <c r="E15" t="n">
-        <v>35.1151</v>
+        <v>35.7022</v>
       </c>
       <c r="F15" t="n">
-        <v>19.5434</v>
+        <v>18.879</v>
       </c>
       <c r="G15" t="n">
-        <v>23.6448</v>
+        <v>23.9288</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5741</v>
+        <v>17.5163</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7761</v>
+        <v>24.7205</v>
       </c>
       <c r="D16" t="n">
-        <v>33.9158</v>
+        <v>34.3783</v>
       </c>
       <c r="E16" t="n">
-        <v>34.3457</v>
+        <v>34.5727</v>
       </c>
       <c r="F16" t="n">
-        <v>18.5626</v>
+        <v>18.7401</v>
       </c>
       <c r="G16" t="n">
-        <v>23.3317</v>
+        <v>22.7054</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.2794</v>
+        <v>17.6096</v>
       </c>
       <c r="C17" t="n">
-        <v>24.909</v>
+        <v>24.9214</v>
       </c>
       <c r="D17" t="n">
-        <v>33.7896</v>
+        <v>33.8367</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5079</v>
+        <v>34.2912</v>
       </c>
       <c r="F17" t="n">
-        <v>18.5409</v>
+        <v>18.6615</v>
       </c>
       <c r="G17" t="n">
-        <v>22.9344</v>
+        <v>22.3566</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.29516</v>
+        <v>5.26874</v>
       </c>
       <c r="C2" t="n">
-        <v>6.28261</v>
+        <v>6.2813</v>
       </c>
       <c r="D2" t="n">
-        <v>6.43488</v>
+        <v>6.42475</v>
       </c>
       <c r="E2" t="n">
-        <v>6.1128</v>
+        <v>6.10801</v>
       </c>
       <c r="F2" t="n">
-        <v>4.89255</v>
+        <v>4.90252</v>
       </c>
       <c r="G2" t="n">
-        <v>6.85704</v>
+        <v>6.84533</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.795</v>
+        <v>6.74217</v>
       </c>
       <c r="C3" t="n">
-        <v>7.50166</v>
+        <v>7.45114</v>
       </c>
       <c r="D3" t="n">
-        <v>9.58164</v>
+        <v>9.603389999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>9.537570000000001</v>
+        <v>9.56035</v>
       </c>
       <c r="F3" t="n">
-        <v>7.68513</v>
+        <v>7.69922</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2395</v>
+        <v>10.2341</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.650969999999999</v>
+        <v>8.63129</v>
       </c>
       <c r="C4" t="n">
-        <v>9.663959999999999</v>
+        <v>9.65272</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2601</v>
+        <v>13.2607</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5035</v>
+        <v>13.5027</v>
       </c>
       <c r="F4" t="n">
-        <v>10.6615</v>
+        <v>10.6698</v>
       </c>
       <c r="G4" t="n">
-        <v>14.1441</v>
+        <v>14.1457</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4855</v>
+        <v>10.4939</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9179</v>
+        <v>11.916</v>
       </c>
       <c r="D5" t="n">
-        <v>16.9379</v>
+        <v>16.9353</v>
       </c>
       <c r="E5" t="n">
-        <v>17.4217</v>
+        <v>17.4166</v>
       </c>
       <c r="F5" t="n">
-        <v>13.5563</v>
+        <v>13.5661</v>
       </c>
       <c r="G5" t="n">
-        <v>17.9063</v>
+        <v>17.916</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3304</v>
+        <v>12.3259</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2289</v>
+        <v>14.2468</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5066</v>
+        <v>20.5327</v>
       </c>
       <c r="E6" t="n">
-        <v>21.2727</v>
+        <v>21.291</v>
       </c>
       <c r="F6" t="n">
-        <v>16.4358</v>
+        <v>16.3752</v>
       </c>
       <c r="G6" t="n">
-        <v>21.5031</v>
+        <v>21.6302</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1491</v>
+        <v>14.1607</v>
       </c>
       <c r="C7" t="n">
-        <v>16.5782</v>
+        <v>16.5893</v>
       </c>
       <c r="D7" t="n">
-        <v>24.1574</v>
+        <v>24.1394</v>
       </c>
       <c r="E7" t="n">
-        <v>25.1055</v>
+        <v>25.1273</v>
       </c>
       <c r="F7" t="n">
-        <v>19.1257</v>
+        <v>19.0932</v>
       </c>
       <c r="G7" t="n">
-        <v>25.185</v>
+        <v>25.1444</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.0488</v>
+        <v>16.066</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1475</v>
+        <v>19.1804</v>
       </c>
       <c r="D8" t="n">
-        <v>27.941</v>
+        <v>27.9401</v>
       </c>
       <c r="E8" t="n">
-        <v>29.0214</v>
+        <v>28.9816</v>
       </c>
       <c r="F8" t="n">
-        <v>21.9898</v>
+        <v>22.0002</v>
       </c>
       <c r="G8" t="n">
-        <v>28.5917</v>
+        <v>28.7287</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.5371</v>
+        <v>18.532</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0611</v>
+        <v>22.0476</v>
       </c>
       <c r="D9" t="n">
-        <v>32.5172</v>
+        <v>32.5438</v>
       </c>
       <c r="E9" t="n">
-        <v>33.5598</v>
+        <v>33.4882</v>
       </c>
       <c r="F9" t="n">
-        <v>25.4147</v>
+        <v>25.354</v>
       </c>
       <c r="G9" t="n">
-        <v>32.8964</v>
+        <v>32.8927</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7532</v>
+        <v>17.7126</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7163</v>
+        <v>20.3555</v>
       </c>
       <c r="D10" t="n">
-        <v>30.3849</v>
+        <v>30.1722</v>
       </c>
       <c r="E10" t="n">
-        <v>30.9967</v>
+        <v>30.5819</v>
       </c>
       <c r="F10" t="n">
-        <v>23.7906</v>
+        <v>23.8183</v>
       </c>
       <c r="G10" t="n">
-        <v>30.4813</v>
+        <v>30.1585</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.7819</v>
+        <v>17.5328</v>
       </c>
       <c r="C11" t="n">
-        <v>20.6032</v>
+        <v>20.6084</v>
       </c>
       <c r="D11" t="n">
-        <v>29.8103</v>
+        <v>30.024</v>
       </c>
       <c r="E11" t="n">
-        <v>30.061</v>
+        <v>30.7396</v>
       </c>
       <c r="F11" t="n">
-        <v>23.6899</v>
+        <v>23.5289</v>
       </c>
       <c r="G11" t="n">
-        <v>30.3531</v>
+        <v>30.298</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7952</v>
+        <v>17.6857</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7228</v>
+        <v>20.8626</v>
       </c>
       <c r="D12" t="n">
-        <v>30.3704</v>
+        <v>30.0932</v>
       </c>
       <c r="E12" t="n">
-        <v>30.8665</v>
+        <v>30.6249</v>
       </c>
       <c r="F12" t="n">
-        <v>23.7745</v>
+        <v>23.4137</v>
       </c>
       <c r="G12" t="n">
-        <v>30.2181</v>
+        <v>30.0532</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.8924</v>
+        <v>17.9189</v>
       </c>
       <c r="C13" t="n">
-        <v>21.014</v>
+        <v>20.9732</v>
       </c>
       <c r="D13" t="n">
-        <v>30.6649</v>
+        <v>30.6491</v>
       </c>
       <c r="E13" t="n">
-        <v>31.4888</v>
+        <v>31.2523</v>
       </c>
       <c r="F13" t="n">
-        <v>23.6604</v>
+        <v>23.6054</v>
       </c>
       <c r="G13" t="n">
-        <v>29.9258</v>
+        <v>30.2841</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3533</v>
+        <v>17.3684</v>
       </c>
       <c r="C14" t="n">
-        <v>21.066</v>
+        <v>20.9642</v>
       </c>
       <c r="D14" t="n">
-        <v>29.6441</v>
+        <v>29.5181</v>
       </c>
       <c r="E14" t="n">
-        <v>30.322</v>
+        <v>30.4961</v>
       </c>
       <c r="F14" t="n">
-        <v>22.5803</v>
+        <v>22.5777</v>
       </c>
       <c r="G14" t="n">
-        <v>29.0317</v>
+        <v>29.0506</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.1501</v>
+        <v>17.8926</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2307</v>
+        <v>21.244</v>
       </c>
       <c r="D15" t="n">
-        <v>30.3549</v>
+        <v>30.0414</v>
       </c>
       <c r="E15" t="n">
-        <v>31.1021</v>
+        <v>31.0834</v>
       </c>
       <c r="F15" t="n">
-        <v>23.069</v>
+        <v>22.9123</v>
       </c>
       <c r="G15" t="n">
-        <v>29.1034</v>
+        <v>28.7682</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.0478</v>
+        <v>18.1168</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4468</v>
+        <v>21.4568</v>
       </c>
       <c r="D16" t="n">
-        <v>30.1227</v>
+        <v>30.2195</v>
       </c>
       <c r="E16" t="n">
-        <v>30.6968</v>
+        <v>30.9448</v>
       </c>
       <c r="F16" t="n">
-        <v>22.8613</v>
+        <v>23.0763</v>
       </c>
       <c r="G16" t="n">
-        <v>28.7331</v>
+        <v>28.6266</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0267</v>
+        <v>17.9267</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6437</v>
+        <v>21.6988</v>
       </c>
       <c r="D17" t="n">
-        <v>29.9065</v>
+        <v>30.7275</v>
       </c>
       <c r="E17" t="n">
-        <v>30.9638</v>
+        <v>30.5951</v>
       </c>
       <c r="F17" t="n">
-        <v>22.7651</v>
+        <v>22.8491</v>
       </c>
       <c r="G17" t="n">
-        <v>28.2773</v>
+        <v>28.325</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x86/Parallel workload.xlsx
+++ b/clang-x86/Parallel workload.xlsx
@@ -6580,22 +6580,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.25466</v>
+        <v>5.21653</v>
       </c>
       <c r="C2" t="n">
-        <v>5.66396</v>
+        <v>5.6493</v>
       </c>
       <c r="D2" t="n">
-        <v>5.92033</v>
+        <v>5.92232</v>
       </c>
       <c r="E2" t="n">
-        <v>5.59242</v>
+        <v>5.58757</v>
       </c>
       <c r="F2" t="n">
-        <v>4.58768</v>
+        <v>4.58145</v>
       </c>
       <c r="G2" t="n">
-        <v>6.36785</v>
+        <v>6.35417</v>
       </c>
     </row>
     <row r="3">
@@ -6603,22 +6603,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.25407</v>
+        <v>6.24625</v>
       </c>
       <c r="C3" t="n">
-        <v>6.82215</v>
+        <v>6.77146</v>
       </c>
       <c r="D3" t="n">
-        <v>8.85205</v>
+        <v>8.848710000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>8.87035</v>
+        <v>8.83001</v>
       </c>
       <c r="F3" t="n">
-        <v>6.98349</v>
+        <v>6.9721</v>
       </c>
       <c r="G3" t="n">
-        <v>9.29669</v>
+        <v>9.20459</v>
       </c>
     </row>
     <row r="4">
@@ -6626,22 +6626,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.80541</v>
+        <v>7.76761</v>
       </c>
       <c r="C4" t="n">
-        <v>8.89467</v>
+        <v>8.84172</v>
       </c>
       <c r="D4" t="n">
-        <v>12.1031</v>
+        <v>12.0924</v>
       </c>
       <c r="E4" t="n">
-        <v>12.4972</v>
+        <v>12.4313</v>
       </c>
       <c r="F4" t="n">
-        <v>9.46841</v>
+        <v>9.390560000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>12.5773</v>
+        <v>12.4917</v>
       </c>
     </row>
     <row r="5">
@@ -6649,22 +6649,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.27239</v>
+        <v>9.26586</v>
       </c>
       <c r="C5" t="n">
-        <v>11.097</v>
+        <v>10.9855</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2056</v>
+        <v>15.2072</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9652</v>
+        <v>15.9826</v>
       </c>
       <c r="F5" t="n">
-        <v>11.7926</v>
+        <v>11.7473</v>
       </c>
       <c r="G5" t="n">
-        <v>15.6485</v>
+        <v>15.5749</v>
       </c>
     </row>
     <row r="6">
@@ -6672,22 +6672,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.8689</v>
+        <v>10.87</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2632</v>
+        <v>13.1759</v>
       </c>
       <c r="D6" t="n">
-        <v>18.1162</v>
+        <v>18.1621</v>
       </c>
       <c r="E6" t="n">
-        <v>19.4554</v>
+        <v>19.369</v>
       </c>
       <c r="F6" t="n">
-        <v>14.0018</v>
+        <v>14.0036</v>
       </c>
       <c r="G6" t="n">
-        <v>18.5282</v>
+        <v>18.5515</v>
       </c>
     </row>
     <row r="7">
@@ -6695,22 +6695,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6332</v>
+        <v>12.6196</v>
       </c>
       <c r="C7" t="n">
-        <v>15.8773</v>
+        <v>15.6454</v>
       </c>
       <c r="D7" t="n">
-        <v>21.3777</v>
+        <v>21.3621</v>
       </c>
       <c r="E7" t="n">
-        <v>22.9464</v>
+        <v>22.915</v>
       </c>
       <c r="F7" t="n">
-        <v>15.9834</v>
+        <v>16.1925</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0842</v>
+        <v>21.0321</v>
       </c>
     </row>
     <row r="8">
@@ -6718,22 +6718,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9871</v>
+        <v>13.9695</v>
       </c>
       <c r="C8" t="n">
-        <v>18.2084</v>
+        <v>18.1849</v>
       </c>
       <c r="D8" t="n">
-        <v>24.1158</v>
+        <v>24.0203</v>
       </c>
       <c r="E8" t="n">
-        <v>26.2208</v>
+        <v>26.21</v>
       </c>
       <c r="F8" t="n">
-        <v>18.0099</v>
+        <v>18.0343</v>
       </c>
       <c r="G8" t="n">
-        <v>24.0102</v>
+        <v>24.0089</v>
       </c>
     </row>
     <row r="9">
@@ -6741,22 +6741,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.4637</v>
+        <v>16.4452</v>
       </c>
       <c r="C9" t="n">
-        <v>21.1374</v>
+        <v>20.9087</v>
       </c>
       <c r="D9" t="n">
-        <v>27.7984</v>
+        <v>28.0748</v>
       </c>
       <c r="E9" t="n">
-        <v>29.7468</v>
+        <v>30.0614</v>
       </c>
       <c r="F9" t="n">
-        <v>20.9863</v>
+        <v>20.8158</v>
       </c>
       <c r="G9" t="n">
-        <v>26.882</v>
+        <v>26.8098</v>
       </c>
     </row>
     <row r="10">
@@ -6764,22 +6764,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1171</v>
+        <v>13.9593</v>
       </c>
       <c r="C10" t="n">
-        <v>17.4864</v>
+        <v>17.9668</v>
       </c>
       <c r="D10" t="n">
-        <v>22.9723</v>
+        <v>22.9337</v>
       </c>
       <c r="E10" t="n">
-        <v>23.7579</v>
+        <v>24.039</v>
       </c>
       <c r="F10" t="n">
-        <v>16.988</v>
+        <v>17.2663</v>
       </c>
       <c r="G10" t="n">
-        <v>22.0498</v>
+        <v>22.0215</v>
       </c>
     </row>
     <row r="11">
@@ -6787,22 +6787,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0801</v>
+        <v>14.181</v>
       </c>
       <c r="C11" t="n">
-        <v>17.7413</v>
+        <v>17.9011</v>
       </c>
       <c r="D11" t="n">
-        <v>23.4908</v>
+        <v>23.711</v>
       </c>
       <c r="E11" t="n">
-        <v>24.4912</v>
+        <v>24.3638</v>
       </c>
       <c r="F11" t="n">
-        <v>17.1718</v>
+        <v>17.6315</v>
       </c>
       <c r="G11" t="n">
-        <v>22.2424</v>
+        <v>22.1739</v>
       </c>
     </row>
     <row r="12">
@@ -6810,22 +6810,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.6342</v>
+        <v>14.5198</v>
       </c>
       <c r="C12" t="n">
-        <v>18.7673</v>
+        <v>18.6132</v>
       </c>
       <c r="D12" t="n">
-        <v>24.106</v>
+        <v>24.3004</v>
       </c>
       <c r="E12" t="n">
-        <v>26.0341</v>
+        <v>25.3645</v>
       </c>
       <c r="F12" t="n">
-        <v>18.0258</v>
+        <v>17.9846</v>
       </c>
       <c r="G12" t="n">
-        <v>22.3168</v>
+        <v>23.0276</v>
       </c>
     </row>
     <row r="13">
@@ -6833,22 +6833,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.0385</v>
+        <v>14.9703</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4702</v>
+        <v>19.2477</v>
       </c>
       <c r="D13" t="n">
-        <v>25.7081</v>
+        <v>24.8892</v>
       </c>
       <c r="E13" t="n">
-        <v>25.6998</v>
+        <v>26.0226</v>
       </c>
       <c r="F13" t="n">
-        <v>18.1683</v>
+        <v>18.3143</v>
       </c>
       <c r="G13" t="n">
-        <v>23.3353</v>
+        <v>22.5326</v>
       </c>
     </row>
     <row r="14">
@@ -6856,22 +6856,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8367</v>
+        <v>14.9574</v>
       </c>
       <c r="C14" t="n">
-        <v>19.4746</v>
+        <v>19.2164</v>
       </c>
       <c r="D14" t="n">
-        <v>24.0623</v>
+        <v>24.9528</v>
       </c>
       <c r="E14" t="n">
-        <v>25.6477</v>
+        <v>24.9734</v>
       </c>
       <c r="F14" t="n">
-        <v>17.7128</v>
+        <v>17.8933</v>
       </c>
       <c r="G14" t="n">
-        <v>22.709</v>
+        <v>22.085</v>
       </c>
     </row>
     <row r="15">
@@ -6879,22 +6879,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.0198</v>
+        <v>15.2845</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5934</v>
+        <v>19.5247</v>
       </c>
       <c r="D15" t="n">
-        <v>24.5288</v>
+        <v>25.1725</v>
       </c>
       <c r="E15" t="n">
-        <v>24.9904</v>
+        <v>25.1663</v>
       </c>
       <c r="F15" t="n">
-        <v>17.6946</v>
+        <v>17.9114</v>
       </c>
       <c r="G15" t="n">
-        <v>22.7784</v>
+        <v>22.1246</v>
       </c>
     </row>
     <row r="16">
@@ -6902,22 +6902,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.4272</v>
+        <v>15.4007</v>
       </c>
       <c r="C16" t="n">
-        <v>20.0823</v>
+        <v>19.8748</v>
       </c>
       <c r="D16" t="n">
-        <v>25.2652</v>
+        <v>25.1448</v>
       </c>
       <c r="E16" t="n">
-        <v>25.915</v>
+        <v>26.1248</v>
       </c>
       <c r="F16" t="n">
-        <v>17.7778</v>
+        <v>18.1678</v>
       </c>
       <c r="G16" t="n">
-        <v>22.3269</v>
+        <v>22.4886</v>
       </c>
     </row>
     <row r="17">
@@ -6925,22 +6925,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.3994</v>
+        <v>15.5947</v>
       </c>
       <c r="C17" t="n">
-        <v>20.1384</v>
+        <v>20.1589</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4647</v>
+        <v>25.0922</v>
       </c>
       <c r="E17" t="n">
-        <v>24.8905</v>
+        <v>25.0311</v>
       </c>
       <c r="F17" t="n">
-        <v>17.3694</v>
+        <v>17.588</v>
       </c>
       <c r="G17" t="n">
-        <v>21.0805</v>
+        <v>21.6584</v>
       </c>
     </row>
   </sheetData>
@@ -7003,22 +7003,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.66314</v>
+        <v>8.629519999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.99009</v>
+        <v>9.88217</v>
       </c>
       <c r="D2" t="n">
-        <v>10.4762</v>
+        <v>10.3802</v>
       </c>
       <c r="E2" t="n">
-        <v>8.53077</v>
+        <v>8.477449999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>6.86232</v>
+        <v>6.84083</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6495</v>
+        <v>11.5059</v>
       </c>
     </row>
     <row r="3">
@@ -7026,22 +7026,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.61247</v>
+        <v>8.37501</v>
       </c>
       <c r="C3" t="n">
-        <v>9.541980000000001</v>
+        <v>9.26665</v>
       </c>
       <c r="D3" t="n">
-        <v>13.2071</v>
+        <v>12.8886</v>
       </c>
       <c r="E3" t="n">
-        <v>12.2057</v>
+        <v>12.0174</v>
       </c>
       <c r="F3" t="n">
-        <v>9.52483</v>
+        <v>9.333500000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>13.9154</v>
+        <v>13.5907</v>
       </c>
     </row>
     <row r="4">
@@ -7049,22 +7049,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1706</v>
+        <v>10.1974</v>
       </c>
       <c r="C4" t="n">
-        <v>11.6058</v>
+        <v>11.5626</v>
       </c>
       <c r="D4" t="n">
-        <v>17.1747</v>
+        <v>17.1369</v>
       </c>
       <c r="E4" t="n">
-        <v>16.6666</v>
+        <v>16.6573</v>
       </c>
       <c r="F4" t="n">
-        <v>12.5306</v>
+        <v>12.5105</v>
       </c>
       <c r="G4" t="n">
-        <v>17.8531</v>
+        <v>17.7243</v>
       </c>
     </row>
     <row r="5">
@@ -7072,22 +7072,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0311</v>
+        <v>11.9351</v>
       </c>
       <c r="C5" t="n">
-        <v>14.1694</v>
+        <v>14.1083</v>
       </c>
       <c r="D5" t="n">
-        <v>21.1577</v>
+        <v>21.0629</v>
       </c>
       <c r="E5" t="n">
-        <v>21.184</v>
+        <v>20.9753</v>
       </c>
       <c r="F5" t="n">
-        <v>15.3455</v>
+        <v>15.3423</v>
       </c>
       <c r="G5" t="n">
-        <v>21.7066</v>
+        <v>21.6522</v>
       </c>
     </row>
     <row r="6">
@@ -7095,22 +7095,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9613</v>
+        <v>13.9997</v>
       </c>
       <c r="C6" t="n">
-        <v>17.0382</v>
+        <v>16.96</v>
       </c>
       <c r="D6" t="n">
-        <v>24.9037</v>
+        <v>25.0737</v>
       </c>
       <c r="E6" t="n">
-        <v>25.5061</v>
+        <v>25.5227</v>
       </c>
       <c r="F6" t="n">
-        <v>17.9338</v>
+        <v>17.9734</v>
       </c>
       <c r="G6" t="n">
-        <v>25.0046</v>
+        <v>25.2672</v>
       </c>
     </row>
     <row r="7">
@@ -7118,22 +7118,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0136</v>
+        <v>15.965</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2176</v>
+        <v>19.7889</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3895</v>
+        <v>29.3212</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7867</v>
+        <v>29.5954</v>
       </c>
       <c r="F7" t="n">
-        <v>20.7362</v>
+        <v>20.5644</v>
       </c>
       <c r="G7" t="n">
-        <v>29.0603</v>
+        <v>29.0131</v>
       </c>
     </row>
     <row r="8">
@@ -7141,22 +7141,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>17.7369</v>
+        <v>17.6951</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7924</v>
+        <v>22.9482</v>
       </c>
       <c r="D8" t="n">
-        <v>32.3201</v>
+        <v>32.4061</v>
       </c>
       <c r="E8" t="n">
-        <v>33.7566</v>
+        <v>33.7628</v>
       </c>
       <c r="F8" t="n">
-        <v>23.0143</v>
+        <v>23.1888</v>
       </c>
       <c r="G8" t="n">
-        <v>31.7915</v>
+        <v>31.8856</v>
       </c>
     </row>
     <row r="9">
@@ -7164,22 +7164,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7133</v>
+        <v>20.7906</v>
       </c>
       <c r="C9" t="n">
-        <v>26.5593</v>
+        <v>26.508</v>
       </c>
       <c r="D9" t="n">
-        <v>37.6272</v>
+        <v>37.6463</v>
       </c>
       <c r="E9" t="n">
-        <v>38.7301</v>
+        <v>38.8353</v>
       </c>
       <c r="F9" t="n">
-        <v>26.4223</v>
+        <v>26.626</v>
       </c>
       <c r="G9" t="n">
-        <v>35.3431</v>
+        <v>35.6741</v>
       </c>
     </row>
     <row r="10">
@@ -7187,22 +7187,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.9013</v>
+        <v>17.8833</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5414</v>
+        <v>23.0666</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0785</v>
+        <v>32.7609</v>
       </c>
       <c r="E10" t="n">
-        <v>31.9861</v>
+        <v>32.0838</v>
       </c>
       <c r="F10" t="n">
-        <v>22.5159</v>
+        <v>21.8609</v>
       </c>
       <c r="G10" t="n">
-        <v>30.6355</v>
+        <v>30.0321</v>
       </c>
     </row>
     <row r="11">
@@ -7210,22 +7210,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.8354</v>
+        <v>17.796</v>
       </c>
       <c r="C11" t="n">
-        <v>23.0407</v>
+        <v>22.9256</v>
       </c>
       <c r="D11" t="n">
-        <v>31.8466</v>
+        <v>32.3425</v>
       </c>
       <c r="E11" t="n">
-        <v>32.2004</v>
+        <v>31.1994</v>
       </c>
       <c r="F11" t="n">
-        <v>22.3722</v>
+        <v>22.2757</v>
       </c>
       <c r="G11" t="n">
-        <v>29.4006</v>
+        <v>29.7909</v>
       </c>
     </row>
     <row r="12">
@@ -7233,22 +7233,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>18.4905</v>
+        <v>18.4103</v>
       </c>
       <c r="C12" t="n">
-        <v>23.0932</v>
+        <v>23.264</v>
       </c>
       <c r="D12" t="n">
-        <v>32.1631</v>
+        <v>32.4477</v>
       </c>
       <c r="E12" t="n">
-        <v>31.7175</v>
+        <v>33.2946</v>
       </c>
       <c r="F12" t="n">
-        <v>22.0424</v>
+        <v>22.7591</v>
       </c>
       <c r="G12" t="n">
-        <v>30.0863</v>
+        <v>30.0476</v>
       </c>
     </row>
     <row r="13">
@@ -7256,22 +7256,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.0233</v>
+        <v>18.9172</v>
       </c>
       <c r="C13" t="n">
-        <v>23.8611</v>
+        <v>24.2872</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2168</v>
+        <v>35.2474</v>
       </c>
       <c r="E13" t="n">
-        <v>33.2206</v>
+        <v>32.7812</v>
       </c>
       <c r="F13" t="n">
-        <v>22.8734</v>
+        <v>23.1061</v>
       </c>
       <c r="G13" t="n">
-        <v>29.5757</v>
+        <v>29.2259</v>
       </c>
     </row>
     <row r="14">
@@ -7279,22 +7279,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.9619</v>
+        <v>18.8285</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1089</v>
+        <v>24.1263</v>
       </c>
       <c r="D14" t="n">
-        <v>32.7892</v>
+        <v>32.9186</v>
       </c>
       <c r="E14" t="n">
-        <v>32.262</v>
+        <v>31.9783</v>
       </c>
       <c r="F14" t="n">
-        <v>22.9512</v>
+        <v>22.3753</v>
       </c>
       <c r="G14" t="n">
-        <v>29.4715</v>
+        <v>30.0847</v>
       </c>
     </row>
     <row r="15">
@@ -7302,22 +7302,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.9243</v>
+        <v>18.5395</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5175</v>
+        <v>24.3362</v>
       </c>
       <c r="D15" t="n">
-        <v>31.6307</v>
+        <v>33.1056</v>
       </c>
       <c r="E15" t="n">
-        <v>32.4172</v>
+        <v>32.8256</v>
       </c>
       <c r="F15" t="n">
-        <v>22.5734</v>
+        <v>23.0184</v>
       </c>
       <c r="G15" t="n">
-        <v>28.714</v>
+        <v>28.6107</v>
       </c>
     </row>
     <row r="16">
@@ -7325,22 +7325,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2982</v>
+        <v>19.1459</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7474</v>
+        <v>24.8537</v>
       </c>
       <c r="D16" t="n">
-        <v>32.3681</v>
+        <v>32.4188</v>
       </c>
       <c r="E16" t="n">
-        <v>31.8745</v>
+        <v>31.1924</v>
       </c>
       <c r="F16" t="n">
-        <v>22.1601</v>
+        <v>23.258</v>
       </c>
       <c r="G16" t="n">
-        <v>28.3872</v>
+        <v>28.6345</v>
       </c>
     </row>
     <row r="17">
@@ -7348,22 +7348,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3376</v>
+        <v>19.3203</v>
       </c>
       <c r="C17" t="n">
-        <v>25.3652</v>
+        <v>25.0419</v>
       </c>
       <c r="D17" t="n">
-        <v>32.4958</v>
+        <v>32.9868</v>
       </c>
       <c r="E17" t="n">
-        <v>31.7342</v>
+        <v>31.8682</v>
       </c>
       <c r="F17" t="n">
-        <v>21.5181</v>
+        <v>21.8258</v>
       </c>
       <c r="G17" t="n">
-        <v>26.732</v>
+        <v>26.1072</v>
       </c>
     </row>
   </sheetData>
@@ -7426,22 +7426,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42198</v>
+        <v>6.41582</v>
       </c>
       <c r="C2" t="n">
-        <v>6.53327</v>
+        <v>6.52735</v>
       </c>
       <c r="D2" t="n">
-        <v>6.80055</v>
+        <v>6.79781</v>
       </c>
       <c r="E2" t="n">
-        <v>6.30217</v>
+        <v>6.30221</v>
       </c>
       <c r="F2" t="n">
-        <v>5.28946</v>
+        <v>5.28575</v>
       </c>
       <c r="G2" t="n">
-        <v>7.38188</v>
+        <v>7.37508</v>
       </c>
     </row>
     <row r="3">
@@ -7449,22 +7449,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.04771</v>
+        <v>7.10608</v>
       </c>
       <c r="C3" t="n">
-        <v>7.48188</v>
+        <v>7.5247</v>
       </c>
       <c r="D3" t="n">
-        <v>9.73455</v>
+        <v>9.78946</v>
       </c>
       <c r="E3" t="n">
-        <v>9.55972</v>
+        <v>9.59375</v>
       </c>
       <c r="F3" t="n">
-        <v>7.8484</v>
+        <v>7.88736</v>
       </c>
       <c r="G3" t="n">
-        <v>10.3799</v>
+        <v>10.4436</v>
       </c>
     </row>
     <row r="4">
@@ -7472,22 +7472,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.8589</v>
+        <v>8.80782</v>
       </c>
       <c r="C4" t="n">
-        <v>9.831329999999999</v>
+        <v>9.78655</v>
       </c>
       <c r="D4" t="n">
-        <v>13.502</v>
+        <v>13.4549</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5502</v>
+        <v>13.5161</v>
       </c>
       <c r="F4" t="n">
-        <v>10.8868</v>
+        <v>10.8601</v>
       </c>
       <c r="G4" t="n">
-        <v>14.3944</v>
+        <v>14.3422</v>
       </c>
     </row>
     <row r="5">
@@ -7495,22 +7495,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.5396</v>
+        <v>10.5643</v>
       </c>
       <c r="C5" t="n">
-        <v>12.1176</v>
+        <v>12.0837</v>
       </c>
       <c r="D5" t="n">
-        <v>17.2278</v>
+        <v>17.1541</v>
       </c>
       <c r="E5" t="n">
-        <v>17.427</v>
+        <v>17.402</v>
       </c>
       <c r="F5" t="n">
-        <v>13.8116</v>
+        <v>13.8062</v>
       </c>
       <c r="G5" t="n">
-        <v>18.2542</v>
+        <v>18.2585</v>
       </c>
     </row>
     <row r="6">
@@ -7518,22 +7518,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.4966</v>
+        <v>12.4311</v>
       </c>
       <c r="C6" t="n">
-        <v>14.4771</v>
+        <v>14.4857</v>
       </c>
       <c r="D6" t="n">
-        <v>20.8743</v>
+        <v>20.899</v>
       </c>
       <c r="E6" t="n">
-        <v>21.2756</v>
+        <v>21.2783</v>
       </c>
       <c r="F6" t="n">
-        <v>16.6732</v>
+        <v>16.71</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9654</v>
+        <v>21.9446</v>
       </c>
     </row>
     <row r="7">
@@ -7541,22 +7541,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.2531</v>
+        <v>14.2685</v>
       </c>
       <c r="C7" t="n">
-        <v>16.849</v>
+        <v>16.8983</v>
       </c>
       <c r="D7" t="n">
-        <v>24.5464</v>
+        <v>24.5345</v>
       </c>
       <c r="E7" t="n">
-        <v>24.9618</v>
+        <v>25.0818</v>
       </c>
       <c r="F7" t="n">
-        <v>19.3306</v>
+        <v>19.3938</v>
       </c>
       <c r="G7" t="n">
-        <v>25.5832</v>
+        <v>25.5327</v>
       </c>
     </row>
     <row r="8">
@@ -7564,22 +7564,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9446</v>
+        <v>15.9535</v>
       </c>
       <c r="C8" t="n">
-        <v>19.2305</v>
+        <v>19.2623</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9117</v>
+        <v>27.9423</v>
       </c>
       <c r="E8" t="n">
-        <v>28.631</v>
+        <v>28.6391</v>
       </c>
       <c r="F8" t="n">
-        <v>22.0552</v>
+        <v>22.0314</v>
       </c>
       <c r="G8" t="n">
-        <v>28.7882</v>
+        <v>28.7945</v>
       </c>
     </row>
     <row r="9">
@@ -7587,22 +7587,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1565</v>
+        <v>18.1613</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0727</v>
+        <v>22.145</v>
       </c>
       <c r="D9" t="n">
-        <v>32.3497</v>
+        <v>31.6645</v>
       </c>
       <c r="E9" t="n">
-        <v>32.7288</v>
+        <v>33.0774</v>
       </c>
       <c r="F9" t="n">
-        <v>25.624</v>
+        <v>25.3254</v>
       </c>
       <c r="G9" t="n">
-        <v>32.3836</v>
+        <v>32.9151</v>
       </c>
     </row>
     <row r="10">
@@ -7610,22 +7610,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.1203</v>
+        <v>16.2489</v>
       </c>
       <c r="C10" t="n">
-        <v>19.0178</v>
+        <v>18.8462</v>
       </c>
       <c r="D10" t="n">
-        <v>26.5262</v>
+        <v>26.1992</v>
       </c>
       <c r="E10" t="n">
-        <v>26.5673</v>
+        <v>25.799</v>
       </c>
       <c r="F10" t="n">
-        <v>20.6879</v>
+        <v>20.5991</v>
       </c>
       <c r="G10" t="n">
-        <v>27.1423</v>
+        <v>26.8384</v>
       </c>
     </row>
     <row r="11">
@@ -7633,22 +7633,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.9941</v>
+        <v>15.8584</v>
       </c>
       <c r="C11" t="n">
-        <v>18.905</v>
+        <v>19.0374</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2726</v>
+        <v>26.5479</v>
       </c>
       <c r="E11" t="n">
-        <v>26.7718</v>
+        <v>27.043</v>
       </c>
       <c r="F11" t="n">
-        <v>21.1847</v>
+        <v>21.6361</v>
       </c>
       <c r="G11" t="n">
-        <v>27.7869</v>
+        <v>27.7382</v>
       </c>
     </row>
     <row r="12">
@@ -7656,22 +7656,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.5202</v>
+        <v>16.4881</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9832</v>
+        <v>19.9145</v>
       </c>
       <c r="D12" t="n">
-        <v>29.3011</v>
+        <v>28.1021</v>
       </c>
       <c r="E12" t="n">
-        <v>27.3899</v>
+        <v>28.2854</v>
       </c>
       <c r="F12" t="n">
-        <v>22.629</v>
+        <v>22.1911</v>
       </c>
       <c r="G12" t="n">
-        <v>28.2114</v>
+        <v>28.6039</v>
       </c>
     </row>
     <row r="13">
@@ -7679,22 +7679,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.9521</v>
+        <v>17.1911</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4616</v>
+        <v>20.2901</v>
       </c>
       <c r="D13" t="n">
-        <v>29.4453</v>
+        <v>29.0119</v>
       </c>
       <c r="E13" t="n">
-        <v>28.5381</v>
+        <v>28.2655</v>
       </c>
       <c r="F13" t="n">
-        <v>22.3619</v>
+        <v>22.6001</v>
       </c>
       <c r="G13" t="n">
-        <v>28.1947</v>
+        <v>27.8305</v>
       </c>
     </row>
     <row r="14">
@@ -7702,22 +7702,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.7139</v>
+        <v>16.7371</v>
       </c>
       <c r="C14" t="n">
-        <v>20.1926</v>
+        <v>20.2982</v>
       </c>
       <c r="D14" t="n">
-        <v>28.0648</v>
+        <v>27.9672</v>
       </c>
       <c r="E14" t="n">
-        <v>27.1104</v>
+        <v>27.5743</v>
       </c>
       <c r="F14" t="n">
-        <v>22.2851</v>
+        <v>22.6611</v>
       </c>
       <c r="G14" t="n">
-        <v>27.0728</v>
+        <v>26.9248</v>
       </c>
     </row>
     <row r="15">
@@ -7725,22 +7725,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.1281</v>
+        <v>16.9624</v>
       </c>
       <c r="C15" t="n">
-        <v>20.4376</v>
+        <v>20.4647</v>
       </c>
       <c r="D15" t="n">
-        <v>27.5389</v>
+        <v>27.797</v>
       </c>
       <c r="E15" t="n">
-        <v>27.9134</v>
+        <v>26.848</v>
       </c>
       <c r="F15" t="n">
-        <v>22.0463</v>
+        <v>22.6115</v>
       </c>
       <c r="G15" t="n">
-        <v>26.0472</v>
+        <v>26.0502</v>
       </c>
     </row>
     <row r="16">
@@ -7748,22 +7748,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3918</v>
+        <v>16.9676</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0212</v>
+        <v>20.9947</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9484</v>
+        <v>28.4696</v>
       </c>
       <c r="E16" t="n">
-        <v>27.0346</v>
+        <v>27.5658</v>
       </c>
       <c r="F16" t="n">
-        <v>22.5781</v>
+        <v>22.6977</v>
       </c>
       <c r="G16" t="n">
-        <v>26.7607</v>
+        <v>26.5754</v>
       </c>
     </row>
     <row r="17">
@@ -7771,22 +7771,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.7041</v>
+        <v>17.1193</v>
       </c>
       <c r="C17" t="n">
-        <v>21.5346</v>
+        <v>21.3767</v>
       </c>
       <c r="D17" t="n">
-        <v>28.2636</v>
+        <v>29.5764</v>
       </c>
       <c r="E17" t="n">
-        <v>28.5943</v>
+        <v>26.9272</v>
       </c>
       <c r="F17" t="n">
-        <v>21.8996</v>
+        <v>22.6346</v>
       </c>
       <c r="G17" t="n">
-        <v>26.8681</v>
+        <v>27.3655</v>
       </c>
     </row>
   </sheetData>
@@ -7849,22 +7849,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0377</v>
+        <v>2.99487</v>
       </c>
       <c r="C2" t="n">
-        <v>5.01446</v>
+        <v>4.9657</v>
       </c>
       <c r="D2" t="n">
-        <v>5.13334</v>
+        <v>5.11352</v>
       </c>
       <c r="E2" t="n">
-        <v>5.06881</v>
+        <v>5.06287</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5995</v>
+        <v>3.56718</v>
       </c>
       <c r="G2" t="n">
-        <v>4.93142</v>
+        <v>4.88774</v>
       </c>
     </row>
     <row r="3">
@@ -7872,22 +7872,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.82832</v>
+        <v>4.85596</v>
       </c>
       <c r="C3" t="n">
-        <v>6.56198</v>
+        <v>6.58093</v>
       </c>
       <c r="D3" t="n">
-        <v>8.38632</v>
+        <v>8.376469999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>8.631</v>
+        <v>8.65348</v>
       </c>
       <c r="F3" t="n">
-        <v>5.98674</v>
+        <v>6.00329</v>
       </c>
       <c r="G3" t="n">
-        <v>7.94367</v>
+        <v>7.96834</v>
       </c>
     </row>
     <row r="4">
@@ -7895,22 +7895,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6.56147</v>
+        <v>6.57465</v>
       </c>
       <c r="C4" t="n">
-        <v>8.72348</v>
+        <v>8.69444</v>
       </c>
       <c r="D4" t="n">
-        <v>11.685</v>
+        <v>11.6718</v>
       </c>
       <c r="E4" t="n">
-        <v>12.3188</v>
+        <v>12.3254</v>
       </c>
       <c r="F4" t="n">
-        <v>8.44445</v>
+        <v>8.44317</v>
       </c>
       <c r="G4" t="n">
-        <v>11.1537</v>
+        <v>11.1536</v>
       </c>
     </row>
     <row r="5">
@@ -7918,22 +7918,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.20431</v>
+        <v>8.133419999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8993</v>
+        <v>10.8521</v>
       </c>
       <c r="D5" t="n">
-        <v>14.7971</v>
+        <v>14.7658</v>
       </c>
       <c r="E5" t="n">
-        <v>15.9187</v>
+        <v>15.8823</v>
       </c>
       <c r="F5" t="n">
-        <v>10.6688</v>
+        <v>10.7148</v>
       </c>
       <c r="G5" t="n">
-        <v>14.1623</v>
+        <v>14.0358</v>
       </c>
     </row>
     <row r="6">
@@ -7941,22 +7941,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.73193</v>
+        <v>9.709390000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0842</v>
+        <v>13.054</v>
       </c>
       <c r="D6" t="n">
-        <v>17.8205</v>
+        <v>17.8436</v>
       </c>
       <c r="E6" t="n">
-        <v>19.4634</v>
+        <v>19.4434</v>
       </c>
       <c r="F6" t="n">
-        <v>12.7981</v>
+        <v>12.7245</v>
       </c>
       <c r="G6" t="n">
-        <v>16.8901</v>
+        <v>16.7368</v>
       </c>
     </row>
     <row r="7">
@@ -7964,22 +7964,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.262</v>
+        <v>11.1992</v>
       </c>
       <c r="C7" t="n">
-        <v>15.2929</v>
+        <v>15.2671</v>
       </c>
       <c r="D7" t="n">
-        <v>20.7156</v>
+        <v>20.7388</v>
       </c>
       <c r="E7" t="n">
-        <v>22.8974</v>
+        <v>22.875</v>
       </c>
       <c r="F7" t="n">
-        <v>14.6499</v>
+        <v>14.5259</v>
       </c>
       <c r="G7" t="n">
-        <v>19.2474</v>
+        <v>19.2101</v>
       </c>
     </row>
     <row r="8">
@@ -7987,22 +7987,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.7174</v>
+        <v>12.6577</v>
       </c>
       <c r="C8" t="n">
-        <v>17.7596</v>
+        <v>17.6953</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8272</v>
+        <v>23.6705</v>
       </c>
       <c r="E8" t="n">
-        <v>26.42</v>
+        <v>26.3385</v>
       </c>
       <c r="F8" t="n">
-        <v>16.5506</v>
+        <v>16.3936</v>
       </c>
       <c r="G8" t="n">
-        <v>21.6651</v>
+        <v>21.5474</v>
       </c>
     </row>
     <row r="9">
@@ -8010,22 +8010,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.8325</v>
+        <v>14.8503</v>
       </c>
       <c r="C9" t="n">
-        <v>20.8586</v>
+        <v>20.8385</v>
       </c>
       <c r="D9" t="n">
-        <v>28.2529</v>
+        <v>28.2121</v>
       </c>
       <c r="E9" t="n">
-        <v>30.3594</v>
+        <v>30.3259</v>
       </c>
       <c r="F9" t="n">
-        <v>18.6746</v>
+        <v>18.6377</v>
       </c>
       <c r="G9" t="n">
-        <v>23.8842</v>
+        <v>23.8806</v>
       </c>
     </row>
     <row r="10">
@@ -8033,22 +8033,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0627</v>
+        <v>14.0459</v>
       </c>
       <c r="C10" t="n">
-        <v>19.4588</v>
+        <v>19.2712</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3953</v>
+        <v>26.0926</v>
       </c>
       <c r="E10" t="n">
-        <v>27.4578</v>
+        <v>28.1646</v>
       </c>
       <c r="F10" t="n">
-        <v>17.7794</v>
+        <v>17.6923</v>
       </c>
       <c r="G10" t="n">
-        <v>22.1958</v>
+        <v>22.5236</v>
       </c>
     </row>
     <row r="11">
@@ -8056,22 +8056,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0508</v>
+        <v>14.1586</v>
       </c>
       <c r="C11" t="n">
-        <v>19.0942</v>
+        <v>19.2513</v>
       </c>
       <c r="D11" t="n">
-        <v>26.3216</v>
+        <v>25.8155</v>
       </c>
       <c r="E11" t="n">
-        <v>27.8928</v>
+        <v>27.8405</v>
       </c>
       <c r="F11" t="n">
-        <v>17.1582</v>
+        <v>17.2944</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9296</v>
+        <v>21.6015</v>
       </c>
     </row>
     <row r="12">
@@ -8079,22 +8079,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1771</v>
+        <v>14.2977</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4941</v>
+        <v>19.4567</v>
       </c>
       <c r="D12" t="n">
-        <v>26.3845</v>
+        <v>26.332</v>
       </c>
       <c r="E12" t="n">
-        <v>27.8398</v>
+        <v>27.9203</v>
       </c>
       <c r="F12" t="n">
-        <v>16.7651</v>
+        <v>17.2068</v>
       </c>
       <c r="G12" t="n">
-        <v>21.7431</v>
+        <v>21.342</v>
       </c>
     </row>
     <row r="13">
@@ -8102,22 +8102,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4447</v>
+        <v>14.4709</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4209</v>
+        <v>19.4445</v>
       </c>
       <c r="D13" t="n">
-        <v>26.4369</v>
+        <v>26.88</v>
       </c>
       <c r="E13" t="n">
-        <v>28.2952</v>
+        <v>28.4099</v>
       </c>
       <c r="F13" t="n">
-        <v>16.6013</v>
+        <v>16.9832</v>
       </c>
       <c r="G13" t="n">
-        <v>20.3671</v>
+        <v>20.6051</v>
       </c>
     </row>
     <row r="14">
@@ -8125,22 +8125,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9501</v>
+        <v>13.9229</v>
       </c>
       <c r="C14" t="n">
-        <v>19.5502</v>
+        <v>19.5976</v>
       </c>
       <c r="D14" t="n">
-        <v>25.5562</v>
+        <v>25.3311</v>
       </c>
       <c r="E14" t="n">
-        <v>27.4197</v>
+        <v>27.3484</v>
       </c>
       <c r="F14" t="n">
-        <v>16.0731</v>
+        <v>15.8362</v>
       </c>
       <c r="G14" t="n">
-        <v>19.3995</v>
+        <v>19.4701</v>
       </c>
     </row>
     <row r="15">
@@ -8148,22 +8148,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.5503</v>
+        <v>14.5293</v>
       </c>
       <c r="C15" t="n">
-        <v>19.8707</v>
+        <v>19.9711</v>
       </c>
       <c r="D15" t="n">
-        <v>26.2318</v>
+        <v>25.9727</v>
       </c>
       <c r="E15" t="n">
-        <v>28.4813</v>
+        <v>27.6943</v>
       </c>
       <c r="F15" t="n">
-        <v>15.7813</v>
+        <v>16.0105</v>
       </c>
       <c r="G15" t="n">
-        <v>19.5286</v>
+        <v>19.8165</v>
       </c>
     </row>
     <row r="16">
@@ -8171,22 +8171,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.4923</v>
+        <v>14.5464</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9396</v>
+        <v>20.0374</v>
       </c>
       <c r="D16" t="n">
-        <v>25.6856</v>
+        <v>25.9493</v>
       </c>
       <c r="E16" t="n">
-        <v>27.5966</v>
+        <v>27.3415</v>
       </c>
       <c r="F16" t="n">
-        <v>16.0109</v>
+        <v>15.5853</v>
       </c>
       <c r="G16" t="n">
-        <v>19.3481</v>
+        <v>19.224</v>
       </c>
     </row>
     <row r="17">
@@ -8194,22 +8194,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.3188</v>
+        <v>14.408</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0699</v>
+        <v>20.1271</v>
       </c>
       <c r="D17" t="n">
-        <v>26.1057</v>
+        <v>26.2932</v>
       </c>
       <c r="E17" t="n">
-        <v>27.9781</v>
+        <v>27.3323</v>
       </c>
       <c r="F17" t="n">
-        <v>15.5996</v>
+        <v>15.7098</v>
       </c>
       <c r="G17" t="n">
-        <v>18.241</v>
+        <v>18.9946</v>
       </c>
     </row>
   </sheetData>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01148</v>
+        <v>3.94956</v>
       </c>
       <c r="C2" t="n">
-        <v>8.1973</v>
+        <v>8.132809999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>8.31625</v>
+        <v>8.284940000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>7.44543</v>
+        <v>7.40222</v>
       </c>
       <c r="F2" t="n">
-        <v>4.88038</v>
+        <v>4.84375</v>
       </c>
       <c r="G2" t="n">
-        <v>7.62717</v>
+        <v>7.5379</v>
       </c>
     </row>
     <row r="3">
@@ -8295,22 +8295,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.09988</v>
+        <v>6.05955</v>
       </c>
       <c r="C3" t="n">
-        <v>8.98672</v>
+        <v>8.86233</v>
       </c>
       <c r="D3" t="n">
-        <v>12.2386</v>
+        <v>12.2754</v>
       </c>
       <c r="E3" t="n">
-        <v>11.7447</v>
+        <v>11.7695</v>
       </c>
       <c r="F3" t="n">
-        <v>7.93894</v>
+        <v>7.7894</v>
       </c>
       <c r="G3" t="n">
-        <v>11.429</v>
+        <v>11.1971</v>
       </c>
     </row>
     <row r="4">
@@ -8318,22 +8318,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.15964</v>
+        <v>8.127739999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2514</v>
+        <v>11.1944</v>
       </c>
       <c r="D4" t="n">
-        <v>16.4097</v>
+        <v>16.458</v>
       </c>
       <c r="E4" t="n">
-        <v>16.413</v>
+        <v>16.3876</v>
       </c>
       <c r="F4" t="n">
-        <v>10.8526</v>
+        <v>10.7954</v>
       </c>
       <c r="G4" t="n">
-        <v>15.3573</v>
+        <v>15.2529</v>
       </c>
     </row>
     <row r="5">
@@ -8341,22 +8341,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.0559</v>
+        <v>10.0536</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7163</v>
+        <v>13.7237</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4277</v>
+        <v>20.4087</v>
       </c>
       <c r="E5" t="n">
-        <v>20.8655</v>
+        <v>20.914</v>
       </c>
       <c r="F5" t="n">
-        <v>13.5046</v>
+        <v>13.5035</v>
       </c>
       <c r="G5" t="n">
-        <v>18.8911</v>
+        <v>18.7345</v>
       </c>
     </row>
     <row r="6">
@@ -8364,22 +8364,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9445</v>
+        <v>11.9308</v>
       </c>
       <c r="C6" t="n">
-        <v>16.3205</v>
+        <v>16.2987</v>
       </c>
       <c r="D6" t="n">
-        <v>24.298</v>
+        <v>24.2452</v>
       </c>
       <c r="E6" t="n">
-        <v>25.3754</v>
+        <v>25.3578</v>
       </c>
       <c r="F6" t="n">
-        <v>16.0584</v>
+        <v>15.852</v>
       </c>
       <c r="G6" t="n">
-        <v>22.1825</v>
+        <v>22.1153</v>
       </c>
     </row>
     <row r="7">
@@ -8387,22 +8387,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.7676</v>
+        <v>13.769</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0894</v>
+        <v>18.9986</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2702</v>
+        <v>28.0734</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7654</v>
+        <v>29.6254</v>
       </c>
       <c r="F7" t="n">
-        <v>18.1096</v>
+        <v>18.0729</v>
       </c>
       <c r="G7" t="n">
-        <v>24.9124</v>
+        <v>24.9115</v>
       </c>
     </row>
     <row r="8">
@@ -8410,22 +8410,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.4848</v>
+        <v>15.4543</v>
       </c>
       <c r="C8" t="n">
-        <v>22.1135</v>
+        <v>22.0797</v>
       </c>
       <c r="D8" t="n">
-        <v>32.2715</v>
+        <v>32.0285</v>
       </c>
       <c r="E8" t="n">
-        <v>34.127</v>
+        <v>34.1135</v>
       </c>
       <c r="F8" t="n">
-        <v>20.3898</v>
+        <v>20.315</v>
       </c>
       <c r="G8" t="n">
-        <v>27.8027</v>
+        <v>27.7263</v>
       </c>
     </row>
     <row r="9">
@@ -8433,22 +8433,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.1311</v>
+        <v>18.0041</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8331</v>
+        <v>25.759</v>
       </c>
       <c r="D9" t="n">
-        <v>38.2969</v>
+        <v>38.1038</v>
       </c>
       <c r="E9" t="n">
-        <v>39.2297</v>
+        <v>39.2151</v>
       </c>
       <c r="F9" t="n">
-        <v>22.9543</v>
+        <v>22.9211</v>
       </c>
       <c r="G9" t="n">
-        <v>30.4135</v>
+        <v>30.3907</v>
       </c>
     </row>
     <row r="10">
@@ -8456,22 +8456,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.1803</v>
+        <v>17.1377</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2807</v>
+        <v>23.7613</v>
       </c>
       <c r="D10" t="n">
-        <v>35.5663</v>
+        <v>35.2758</v>
       </c>
       <c r="E10" t="n">
-        <v>35.8637</v>
+        <v>35.762</v>
       </c>
       <c r="F10" t="n">
-        <v>21.9006</v>
+        <v>21.8544</v>
       </c>
       <c r="G10" t="n">
-        <v>28.5923</v>
+        <v>28.9408</v>
       </c>
     </row>
     <row r="11">
@@ -8479,22 +8479,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.0992</v>
+        <v>17.2035</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8706</v>
+        <v>23.7265</v>
       </c>
       <c r="D11" t="n">
-        <v>34.7307</v>
+        <v>34.1216</v>
       </c>
       <c r="E11" t="n">
-        <v>35.8842</v>
+        <v>35.1359</v>
       </c>
       <c r="F11" t="n">
-        <v>21.3043</v>
+        <v>21.4563</v>
       </c>
       <c r="G11" t="n">
-        <v>27.219</v>
+        <v>28.0356</v>
       </c>
     </row>
     <row r="12">
@@ -8502,22 +8502,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.351</v>
+        <v>17.0371</v>
       </c>
       <c r="C12" t="n">
-        <v>23.8854</v>
+        <v>23.8689</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0365</v>
+        <v>34.5828</v>
       </c>
       <c r="E12" t="n">
-        <v>35.9385</v>
+        <v>35.7819</v>
       </c>
       <c r="F12" t="n">
-        <v>21.0741</v>
+        <v>20.9515</v>
       </c>
       <c r="G12" t="n">
-        <v>27.3164</v>
+        <v>26.51</v>
       </c>
     </row>
     <row r="13">
@@ -8525,22 +8525,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.4852</v>
+        <v>17.5212</v>
       </c>
       <c r="C13" t="n">
-        <v>24.3477</v>
+        <v>24.1484</v>
       </c>
       <c r="D13" t="n">
-        <v>35.5648</v>
+        <v>35.3051</v>
       </c>
       <c r="E13" t="n">
-        <v>36.1836</v>
+        <v>36.3677</v>
       </c>
       <c r="F13" t="n">
-        <v>20.3631</v>
+        <v>20.0439</v>
       </c>
       <c r="G13" t="n">
-        <v>25.5869</v>
+        <v>25.7519</v>
       </c>
     </row>
     <row r="14">
@@ -8548,22 +8548,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.9174</v>
+        <v>16.8599</v>
       </c>
       <c r="C14" t="n">
-        <v>24.2956</v>
+        <v>24.2794</v>
       </c>
       <c r="D14" t="n">
-        <v>33.9481</v>
+        <v>33.7011</v>
       </c>
       <c r="E14" t="n">
-        <v>34.6674</v>
+        <v>34.5637</v>
       </c>
       <c r="F14" t="n">
-        <v>19.2306</v>
+        <v>19.1505</v>
       </c>
       <c r="G14" t="n">
-        <v>24.3098</v>
+        <v>24.3051</v>
       </c>
     </row>
     <row r="15">
@@ -8571,22 +8571,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6264</v>
+        <v>17.5386</v>
       </c>
       <c r="C15" t="n">
-        <v>24.4707</v>
+        <v>24.568</v>
       </c>
       <c r="D15" t="n">
-        <v>34.6447</v>
+        <v>34.4416</v>
       </c>
       <c r="E15" t="n">
-        <v>35.7022</v>
+        <v>35.4562</v>
       </c>
       <c r="F15" t="n">
-        <v>18.879</v>
+        <v>19.331</v>
       </c>
       <c r="G15" t="n">
-        <v>23.9288</v>
+        <v>23.5715</v>
       </c>
     </row>
     <row r="16">
@@ -8594,22 +8594,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5163</v>
+        <v>17.5138</v>
       </c>
       <c r="C16" t="n">
-        <v>24.7205</v>
+        <v>24.7593</v>
       </c>
       <c r="D16" t="n">
-        <v>34.3783</v>
+        <v>33.9128</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5727</v>
+        <v>35.1541</v>
       </c>
       <c r="F16" t="n">
-        <v>18.7401</v>
+        <v>18.4224</v>
       </c>
       <c r="G16" t="n">
-        <v>22.7054</v>
+        <v>23.4519</v>
       </c>
     </row>
     <row r="17">
@@ -8617,22 +8617,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.6096</v>
+        <v>17.6919</v>
       </c>
       <c r="C17" t="n">
-        <v>24.9214</v>
+        <v>24.8475</v>
       </c>
       <c r="D17" t="n">
-        <v>33.8367</v>
+        <v>33.5553</v>
       </c>
       <c r="E17" t="n">
-        <v>34.2912</v>
+        <v>34.3033</v>
       </c>
       <c r="F17" t="n">
-        <v>18.6615</v>
+        <v>18.0338</v>
       </c>
       <c r="G17" t="n">
-        <v>22.3566</v>
+        <v>22.3124</v>
       </c>
     </row>
   </sheetData>
@@ -8695,22 +8695,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.26874</v>
+        <v>5.23782</v>
       </c>
       <c r="C2" t="n">
-        <v>6.2813</v>
+        <v>6.28458</v>
       </c>
       <c r="D2" t="n">
-        <v>6.42475</v>
+        <v>6.42949</v>
       </c>
       <c r="E2" t="n">
-        <v>6.10801</v>
+        <v>6.10504</v>
       </c>
       <c r="F2" t="n">
-        <v>4.90252</v>
+        <v>4.8999</v>
       </c>
       <c r="G2" t="n">
-        <v>6.84533</v>
+        <v>6.84327</v>
       </c>
     </row>
     <row r="3">
@@ -8718,22 +8718,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.74217</v>
+        <v>6.73627</v>
       </c>
       <c r="C3" t="n">
-        <v>7.45114</v>
+        <v>7.462</v>
       </c>
       <c r="D3" t="n">
-        <v>9.603389999999999</v>
+        <v>9.608140000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9.56035</v>
+        <v>9.542199999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>7.69922</v>
+        <v>7.68826</v>
       </c>
       <c r="G3" t="n">
-        <v>10.2341</v>
+        <v>10.2255</v>
       </c>
     </row>
     <row r="4">
@@ -8741,22 +8741,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.63129</v>
+        <v>8.614050000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9.65272</v>
+        <v>9.63874</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2607</v>
+        <v>13.236</v>
       </c>
       <c r="E4" t="n">
-        <v>13.5027</v>
+        <v>13.4715</v>
       </c>
       <c r="F4" t="n">
-        <v>10.6698</v>
+        <v>10.658</v>
       </c>
       <c r="G4" t="n">
-        <v>14.1457</v>
+        <v>14.1458</v>
       </c>
     </row>
     <row r="5">
@@ -8764,22 +8764,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.4939</v>
+        <v>10.461</v>
       </c>
       <c r="C5" t="n">
-        <v>11.916</v>
+        <v>11.8833</v>
       </c>
       <c r="D5" t="n">
-        <v>16.9353</v>
+        <v>16.8774</v>
       </c>
       <c r="E5" t="n">
-        <v>17.4166</v>
+        <v>17.3597</v>
       </c>
       <c r="F5" t="n">
-        <v>13.5661</v>
+        <v>13.5575</v>
       </c>
       <c r="G5" t="n">
-        <v>17.916</v>
+        <v>17.8493</v>
       </c>
     </row>
     <row r="6">
@@ -8787,22 +8787,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>12.3259</v>
+        <v>12.3253</v>
       </c>
       <c r="C6" t="n">
-        <v>14.2468</v>
+        <v>14.2292</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5327</v>
+        <v>20.5352</v>
       </c>
       <c r="E6" t="n">
-        <v>21.291</v>
+        <v>21.2332</v>
       </c>
       <c r="F6" t="n">
-        <v>16.3752</v>
+        <v>16.3275</v>
       </c>
       <c r="G6" t="n">
-        <v>21.6302</v>
+        <v>21.5309</v>
       </c>
     </row>
     <row r="7">
@@ -8810,22 +8810,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>14.1607</v>
+        <v>14.1193</v>
       </c>
       <c r="C7" t="n">
-        <v>16.5893</v>
+        <v>16.5873</v>
       </c>
       <c r="D7" t="n">
-        <v>24.1394</v>
+        <v>24.1268</v>
       </c>
       <c r="E7" t="n">
-        <v>25.1273</v>
+        <v>25.0711</v>
       </c>
       <c r="F7" t="n">
-        <v>19.0932</v>
+        <v>19.0976</v>
       </c>
       <c r="G7" t="n">
-        <v>25.1444</v>
+        <v>25.0637</v>
       </c>
     </row>
     <row r="8">
@@ -8833,22 +8833,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.066</v>
+        <v>16.0443</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1804</v>
+        <v>19.1506</v>
       </c>
       <c r="D8" t="n">
-        <v>27.9401</v>
+        <v>27.9121</v>
       </c>
       <c r="E8" t="n">
-        <v>28.9816</v>
+        <v>28.9261</v>
       </c>
       <c r="F8" t="n">
-        <v>22.0002</v>
+        <v>21.7795</v>
       </c>
       <c r="G8" t="n">
-        <v>28.7287</v>
+        <v>28.5829</v>
       </c>
     </row>
     <row r="9">
@@ -8856,22 +8856,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.532</v>
+        <v>18.4753</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0476</v>
+        <v>22.0293</v>
       </c>
       <c r="D9" t="n">
-        <v>32.5438</v>
+        <v>31.931</v>
       </c>
       <c r="E9" t="n">
-        <v>33.4882</v>
+        <v>33.4869</v>
       </c>
       <c r="F9" t="n">
-        <v>25.354</v>
+        <v>25.2933</v>
       </c>
       <c r="G9" t="n">
-        <v>32.8927</v>
+        <v>32.7811</v>
       </c>
     </row>
     <row r="10">
@@ -8879,22 +8879,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.7126</v>
+        <v>17.7078</v>
       </c>
       <c r="C10" t="n">
-        <v>20.3555</v>
+        <v>20.8254</v>
       </c>
       <c r="D10" t="n">
-        <v>30.1722</v>
+        <v>29.9305</v>
       </c>
       <c r="E10" t="n">
-        <v>30.5819</v>
+        <v>30.5259</v>
       </c>
       <c r="F10" t="n">
-        <v>23.8183</v>
+        <v>23.6822</v>
       </c>
       <c r="G10" t="n">
-        <v>30.1585</v>
+        <v>30.2694</v>
       </c>
     </row>
     <row r="11">
@@ -8902,22 +8902,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.5328</v>
+        <v>17.7431</v>
       </c>
       <c r="C11" t="n">
-        <v>20.6084</v>
+        <v>20.4641</v>
       </c>
       <c r="D11" t="n">
-        <v>30.024</v>
+        <v>29.741</v>
       </c>
       <c r="E11" t="n">
-        <v>30.7396</v>
+        <v>29.8475</v>
       </c>
       <c r="F11" t="n">
-        <v>23.5289</v>
+        <v>23.3491</v>
       </c>
       <c r="G11" t="n">
-        <v>30.298</v>
+        <v>29.8951</v>
       </c>
     </row>
     <row r="12">
@@ -8925,22 +8925,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.6857</v>
+        <v>17.6617</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8626</v>
+        <v>20.8668</v>
       </c>
       <c r="D12" t="n">
-        <v>30.0932</v>
+        <v>30.0982</v>
       </c>
       <c r="E12" t="n">
-        <v>30.6249</v>
+        <v>30.7413</v>
       </c>
       <c r="F12" t="n">
-        <v>23.4137</v>
+        <v>23.3359</v>
       </c>
       <c r="G12" t="n">
-        <v>30.0532</v>
+        <v>29.7029</v>
       </c>
     </row>
     <row r="13">
@@ -8948,22 +8948,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.9189</v>
+        <v>17.874</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9732</v>
+        <v>21.0228</v>
       </c>
       <c r="D13" t="n">
-        <v>30.6491</v>
+        <v>30.6716</v>
       </c>
       <c r="E13" t="n">
-        <v>31.2523</v>
+        <v>31.2719</v>
       </c>
       <c r="F13" t="n">
-        <v>23.6054</v>
+        <v>23.409</v>
       </c>
       <c r="G13" t="n">
-        <v>30.2841</v>
+        <v>29.6561</v>
       </c>
     </row>
     <row r="14">
@@ -8971,22 +8971,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.3684</v>
+        <v>17.3261</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9642</v>
+        <v>20.9476</v>
       </c>
       <c r="D14" t="n">
-        <v>29.5181</v>
+        <v>29.5021</v>
       </c>
       <c r="E14" t="n">
-        <v>30.4961</v>
+        <v>29.8278</v>
       </c>
       <c r="F14" t="n">
-        <v>22.5777</v>
+        <v>22.6574</v>
       </c>
       <c r="G14" t="n">
-        <v>29.0506</v>
+        <v>29.2281</v>
       </c>
     </row>
     <row r="15">
@@ -8994,22 +8994,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.8926</v>
+        <v>18.0519</v>
       </c>
       <c r="C15" t="n">
-        <v>21.244</v>
+        <v>21.2754</v>
       </c>
       <c r="D15" t="n">
-        <v>30.0414</v>
+        <v>30.441</v>
       </c>
       <c r="E15" t="n">
-        <v>31.0834</v>
+        <v>31.0466</v>
       </c>
       <c r="F15" t="n">
-        <v>22.9123</v>
+        <v>22.9608</v>
       </c>
       <c r="G15" t="n">
-        <v>28.7682</v>
+        <v>28.6351</v>
       </c>
     </row>
     <row r="16">
@@ -9017,22 +9017,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.1168</v>
+        <v>17.9294</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4568</v>
+        <v>21.4096</v>
       </c>
       <c r="D16" t="n">
-        <v>30.2195</v>
+        <v>29.7798</v>
       </c>
       <c r="E16" t="n">
-        <v>30.9448</v>
+        <v>30.8322</v>
       </c>
       <c r="F16" t="n">
-        <v>23.0763</v>
+        <v>22.8056</v>
       </c>
       <c r="G16" t="n">
-        <v>28.6266</v>
+        <v>28.9914</v>
       </c>
     </row>
     <row r="17">
@@ -9040,22 +9040,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.9267</v>
+        <v>17.5513</v>
       </c>
       <c r="C17" t="n">
-        <v>21.6988</v>
+        <v>21.6503</v>
       </c>
       <c r="D17" t="n">
-        <v>30.7275</v>
+        <v>29.9529</v>
       </c>
       <c r="E17" t="n">
-        <v>30.5951</v>
+        <v>30.8109</v>
       </c>
       <c r="F17" t="n">
-        <v>22.8491</v>
+        <v>22.4556</v>
       </c>
       <c r="G17" t="n">
-        <v>28.325</v>
+        <v>28.5686</v>
       </c>
     </row>
   </sheetData>
